--- a/_DESIGN_.xlsx
+++ b/_DESIGN_.xlsx
@@ -27,112 +27,112 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="884" uniqueCount="236">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="889" uniqueCount="233">
   <si>
     <t>红色的格子表示敌人移动的路径点</t>
-    <phoneticPr fontId="15" type="noConversion"/>
+    <phoneticPr fontId="16" type="noConversion"/>
   </si>
   <si>
     <t>塔攻击范围</t>
-    <phoneticPr fontId="15" type="noConversion"/>
+    <phoneticPr fontId="16" type="noConversion"/>
   </si>
   <si>
     <t>塔攻击间隔</t>
-    <phoneticPr fontId="15" type="noConversion"/>
+    <phoneticPr fontId="16" type="noConversion"/>
   </si>
   <si>
     <t>怪生命值</t>
-    <phoneticPr fontId="15" type="noConversion"/>
+    <phoneticPr fontId="16" type="noConversion"/>
   </si>
   <si>
     <t>怪移动速度</t>
-    <phoneticPr fontId="15" type="noConversion"/>
+    <phoneticPr fontId="16" type="noConversion"/>
   </si>
   <si>
     <t>最小值</t>
-    <phoneticPr fontId="15" type="noConversion"/>
+    <phoneticPr fontId="16" type="noConversion"/>
   </si>
   <si>
     <t>最大值</t>
-    <phoneticPr fontId="15" type="noConversion"/>
+    <phoneticPr fontId="16" type="noConversion"/>
   </si>
   <si>
     <t>初始资源</t>
-    <phoneticPr fontId="15" type="noConversion"/>
+    <phoneticPr fontId="16" type="noConversion"/>
   </si>
   <si>
     <t>R</t>
-    <phoneticPr fontId="15" type="noConversion"/>
+    <phoneticPr fontId="16" type="noConversion"/>
   </si>
   <si>
     <t>G</t>
-    <phoneticPr fontId="15" type="noConversion"/>
+    <phoneticPr fontId="16" type="noConversion"/>
   </si>
   <si>
     <t>B</t>
-    <phoneticPr fontId="15" type="noConversion"/>
+    <phoneticPr fontId="16" type="noConversion"/>
   </si>
   <si>
     <t>怪序列</t>
-    <phoneticPr fontId="15" type="noConversion"/>
+    <phoneticPr fontId="16" type="noConversion"/>
   </si>
   <si>
     <t>1,1,1,1,1,1,1,1,1,1</t>
-    <phoneticPr fontId="15" type="noConversion"/>
+    <phoneticPr fontId="16" type="noConversion"/>
   </si>
   <si>
     <t>游戏常数</t>
-    <phoneticPr fontId="15" type="noConversion"/>
+    <phoneticPr fontId="16" type="noConversion"/>
   </si>
   <si>
     <t>属性</t>
-    <phoneticPr fontId="15" type="noConversion"/>
+    <phoneticPr fontId="16" type="noConversion"/>
   </si>
   <si>
     <t>塔攻击</t>
-    <phoneticPr fontId="15" type="noConversion"/>
+    <phoneticPr fontId="16" type="noConversion"/>
   </si>
   <si>
     <t>种类</t>
-    <phoneticPr fontId="15" type="noConversion"/>
+    <phoneticPr fontId="16" type="noConversion"/>
   </si>
   <si>
     <t>ID</t>
-    <phoneticPr fontId="15" type="noConversion"/>
+    <phoneticPr fontId="16" type="noConversion"/>
   </si>
   <si>
     <t>黄色的格子表示可放置塔的位置</t>
-    <phoneticPr fontId="15" type="noConversion"/>
+    <phoneticPr fontId="16" type="noConversion"/>
   </si>
   <si>
     <t>A</t>
-    <phoneticPr fontId="15" type="noConversion"/>
+    <phoneticPr fontId="16" type="noConversion"/>
   </si>
   <si>
     <t>B</t>
-    <phoneticPr fontId="15" type="noConversion"/>
+    <phoneticPr fontId="16" type="noConversion"/>
   </si>
   <si>
     <t>属性上限</t>
-    <phoneticPr fontId="15" type="noConversion"/>
+    <phoneticPr fontId="16" type="noConversion"/>
   </si>
   <si>
     <t>属性下限</t>
-    <phoneticPr fontId="15" type="noConversion"/>
+    <phoneticPr fontId="16" type="noConversion"/>
   </si>
   <si>
     <t>Lv.1</t>
   </si>
   <si>
     <t>Lv.1</t>
-    <phoneticPr fontId="15" type="noConversion"/>
+    <phoneticPr fontId="16" type="noConversion"/>
   </si>
   <si>
     <t>Lv.2</t>
   </si>
   <si>
     <t>Lv.2</t>
-    <phoneticPr fontId="15" type="noConversion"/>
+    <phoneticPr fontId="16" type="noConversion"/>
   </si>
   <si>
     <t>1,1,1,1,1,1,1,1,1,2</t>
@@ -142,255 +142,255 @@
   </si>
   <si>
     <t>2,2,2,2,2,2,2,2,2,2</t>
-    <phoneticPr fontId="15" type="noConversion"/>
+    <phoneticPr fontId="16" type="noConversion"/>
   </si>
   <si>
     <t>Lv.3</t>
   </si>
   <si>
     <t>Lv.3</t>
-    <phoneticPr fontId="15" type="noConversion"/>
+    <phoneticPr fontId="16" type="noConversion"/>
   </si>
   <si>
     <t>Lv.3</t>
-    <phoneticPr fontId="15" type="noConversion"/>
+    <phoneticPr fontId="16" type="noConversion"/>
   </si>
   <si>
     <t>Lv.4</t>
   </si>
   <si>
     <t>Lv.4</t>
-    <phoneticPr fontId="15" type="noConversion"/>
+    <phoneticPr fontId="16" type="noConversion"/>
   </si>
   <si>
     <t>Lv.4</t>
-    <phoneticPr fontId="15" type="noConversion"/>
+    <phoneticPr fontId="16" type="noConversion"/>
   </si>
   <si>
     <t>Lv.5</t>
   </si>
   <si>
     <t>Lv.5</t>
-    <phoneticPr fontId="15" type="noConversion"/>
+    <phoneticPr fontId="16" type="noConversion"/>
   </si>
   <si>
     <t>Lv.5</t>
-    <phoneticPr fontId="15" type="noConversion"/>
+    <phoneticPr fontId="16" type="noConversion"/>
   </si>
   <si>
     <t>Lv.6</t>
   </si>
   <si>
     <t>Lv.6</t>
-    <phoneticPr fontId="15" type="noConversion"/>
+    <phoneticPr fontId="16" type="noConversion"/>
   </si>
   <si>
     <t>属性中间值</t>
-    <phoneticPr fontId="15" type="noConversion"/>
+    <phoneticPr fontId="16" type="noConversion"/>
   </si>
   <si>
     <t>属性中间值X</t>
-    <phoneticPr fontId="15" type="noConversion"/>
+    <phoneticPr fontId="16" type="noConversion"/>
   </si>
   <si>
     <t>溅射范围</t>
-    <phoneticPr fontId="15" type="noConversion"/>
+    <phoneticPr fontId="16" type="noConversion"/>
   </si>
   <si>
     <t>CANNON</t>
-    <phoneticPr fontId="15" type="noConversion"/>
+    <phoneticPr fontId="16" type="noConversion"/>
   </si>
   <si>
     <t>CANNON_TYPE_SPLASH</t>
-    <phoneticPr fontId="15" type="noConversion"/>
+    <phoneticPr fontId="16" type="noConversion"/>
   </si>
   <si>
     <t>CANNON_TYPE_SLOW_ONE</t>
-    <phoneticPr fontId="15" type="noConversion"/>
+    <phoneticPr fontId="16" type="noConversion"/>
   </si>
   <si>
     <t>CANNON_TYPE_PENETRATE</t>
-    <phoneticPr fontId="15" type="noConversion"/>
+    <phoneticPr fontId="16" type="noConversion"/>
   </si>
   <si>
     <t>CANNON_TYPE_POISONOUS_ONE</t>
-    <phoneticPr fontId="15" type="noConversion"/>
+    <phoneticPr fontId="16" type="noConversion"/>
   </si>
   <si>
     <t>CANNON_TYPE_RAGE</t>
-    <phoneticPr fontId="15" type="noConversion"/>
+    <phoneticPr fontId="16" type="noConversion"/>
   </si>
   <si>
     <t>普通</t>
-    <phoneticPr fontId="15" type="noConversion"/>
+    <phoneticPr fontId="16" type="noConversion"/>
   </si>
   <si>
     <t>中文</t>
-    <phoneticPr fontId="15" type="noConversion"/>
+    <phoneticPr fontId="16" type="noConversion"/>
   </si>
   <si>
     <t>溅射</t>
-    <phoneticPr fontId="15" type="noConversion"/>
+    <phoneticPr fontId="16" type="noConversion"/>
   </si>
   <si>
     <t>单减速</t>
-    <phoneticPr fontId="15" type="noConversion"/>
+    <phoneticPr fontId="16" type="noConversion"/>
   </si>
   <si>
     <t>穿透</t>
-    <phoneticPr fontId="15" type="noConversion"/>
+    <phoneticPr fontId="16" type="noConversion"/>
   </si>
   <si>
     <t>单毒</t>
-    <phoneticPr fontId="15" type="noConversion"/>
+    <phoneticPr fontId="16" type="noConversion"/>
   </si>
   <si>
     <t>狂暴</t>
-    <phoneticPr fontId="15" type="noConversion"/>
+    <phoneticPr fontId="16" type="noConversion"/>
   </si>
   <si>
     <t>触发次数</t>
-    <phoneticPr fontId="15" type="noConversion"/>
+    <phoneticPr fontId="16" type="noConversion"/>
   </si>
   <si>
     <t>0,1,2,3</t>
-    <phoneticPr fontId="15" type="noConversion"/>
+    <phoneticPr fontId="16" type="noConversion"/>
   </si>
   <si>
     <t>0,1</t>
-    <phoneticPr fontId="15" type="noConversion"/>
+    <phoneticPr fontId="16" type="noConversion"/>
   </si>
   <si>
     <t>0,1,2</t>
-    <phoneticPr fontId="15" type="noConversion"/>
+    <phoneticPr fontId="16" type="noConversion"/>
   </si>
   <si>
     <t>0,1,2,3</t>
-    <phoneticPr fontId="15" type="noConversion"/>
+    <phoneticPr fontId="16" type="noConversion"/>
   </si>
   <si>
     <t>CANNON_TYPE_MAGIC</t>
-    <phoneticPr fontId="15" type="noConversion"/>
+    <phoneticPr fontId="16" type="noConversion"/>
   </si>
   <si>
     <t>魔法</t>
-    <phoneticPr fontId="15" type="noConversion"/>
+    <phoneticPr fontId="16" type="noConversion"/>
   </si>
   <si>
     <t>狂暴因子</t>
-    <phoneticPr fontId="15" type="noConversion"/>
+    <phoneticPr fontId="16" type="noConversion"/>
   </si>
   <si>
     <t>减速因子</t>
-    <phoneticPr fontId="15" type="noConversion"/>
+    <phoneticPr fontId="16" type="noConversion"/>
   </si>
   <si>
     <t>减速时间</t>
-    <phoneticPr fontId="15" type="noConversion"/>
+    <phoneticPr fontId="16" type="noConversion"/>
   </si>
   <si>
     <t>毒伤害</t>
-    <phoneticPr fontId="15" type="noConversion"/>
+    <phoneticPr fontId="16" type="noConversion"/>
   </si>
   <si>
     <t>毒时间</t>
-    <phoneticPr fontId="15" type="noConversion"/>
+    <phoneticPr fontId="16" type="noConversion"/>
   </si>
   <si>
     <t>]]</t>
-    <phoneticPr fontId="17" type="noConversion"/>
+    <phoneticPr fontId="18" type="noConversion"/>
   </si>
   <si>
     <t>,</t>
-    <phoneticPr fontId="17" type="noConversion"/>
+    <phoneticPr fontId="18" type="noConversion"/>
   </si>
   <si>
     <t>[</t>
-    <phoneticPr fontId="17" type="noConversion"/>
+    <phoneticPr fontId="18" type="noConversion"/>
   </si>
   <si>
     <t>],</t>
-    <phoneticPr fontId="17" type="noConversion"/>
+    <phoneticPr fontId="18" type="noConversion"/>
   </si>
   <si>
     <t>sp</t>
-    <phoneticPr fontId="17" type="noConversion"/>
+    <phoneticPr fontId="18" type="noConversion"/>
   </si>
   <si>
     <t>DPS.rate</t>
-    <phoneticPr fontId="17" type="noConversion"/>
+    <phoneticPr fontId="18" type="noConversion"/>
   </si>
   <si>
     <t>inter.rate</t>
-    <phoneticPr fontId="17" type="noConversion"/>
+    <phoneticPr fontId="18" type="noConversion"/>
   </si>
   <si>
     <t>range.rate</t>
-    <phoneticPr fontId="17" type="noConversion"/>
+    <phoneticPr fontId="18" type="noConversion"/>
   </si>
   <si>
     <t>att.rate</t>
-    <phoneticPr fontId="17" type="noConversion"/>
+    <phoneticPr fontId="18" type="noConversion"/>
   </si>
   <si>
     <t>DPS</t>
-    <phoneticPr fontId="17" type="noConversion"/>
+    <phoneticPr fontId="18" type="noConversion"/>
   </si>
   <si>
     <t>DPS.extra</t>
-    <phoneticPr fontId="17" type="noConversion"/>
+    <phoneticPr fontId="18" type="noConversion"/>
   </si>
   <si>
     <t>DPS.factor</t>
-    <phoneticPr fontId="17" type="noConversion"/>
+    <phoneticPr fontId="18" type="noConversion"/>
   </si>
   <si>
     <t>"intervalUpperLimits"</t>
-    <phoneticPr fontId="17" type="noConversion"/>
+    <phoneticPr fontId="18" type="noConversion"/>
   </si>
   <si>
     <t>"intervalLowerLimits"</t>
-    <phoneticPr fontId="17" type="noConversion"/>
+    <phoneticPr fontId="18" type="noConversion"/>
   </si>
   <si>
     <t>"rangeUpperLimit"</t>
-    <phoneticPr fontId="17" type="noConversion"/>
+    <phoneticPr fontId="18" type="noConversion"/>
   </si>
   <si>
     <t>"rangeLowerLimit"</t>
-    <phoneticPr fontId="17" type="noConversion"/>
+    <phoneticPr fontId="18" type="noConversion"/>
   </si>
   <si>
     <t>"_attackUpperLimit"</t>
-    <phoneticPr fontId="17" type="noConversion"/>
+    <phoneticPr fontId="18" type="noConversion"/>
   </si>
   <si>
     <t>"_attackLowerLimit"</t>
-    <phoneticPr fontId="17" type="noConversion"/>
+    <phoneticPr fontId="18" type="noConversion"/>
   </si>
   <si>
     <t>"ID"</t>
-    <phoneticPr fontId="17" type="noConversion"/>
+    <phoneticPr fontId="18" type="noConversion"/>
   </si>
   <si>
     <t>[[</t>
-    <phoneticPr fontId="17" type="noConversion"/>
+    <phoneticPr fontId="18" type="noConversion"/>
   </si>
   <si>
     <t>false</t>
-    <phoneticPr fontId="17" type="noConversion"/>
+    <phoneticPr fontId="18" type="noConversion"/>
   </si>
   <si>
     <t>,</t>
-    <phoneticPr fontId="17" type="noConversion"/>
+    <phoneticPr fontId="18" type="noConversion"/>
   </si>
   <si>
     <t>[</t>
-    <phoneticPr fontId="17" type="noConversion"/>
+    <phoneticPr fontId="18" type="noConversion"/>
   </si>
   <si>
     <t>],</t>
-    <phoneticPr fontId="17" type="noConversion"/>
+    <phoneticPr fontId="18" type="noConversion"/>
   </si>
   <si>
     <t>10</t>
@@ -421,143 +421,143 @@
   </si>
   <si>
     <t>1</t>
-    <phoneticPr fontId="17" type="noConversion"/>
+    <phoneticPr fontId="18" type="noConversion"/>
   </si>
   <si>
     <t>"antiMagic"</t>
-    <phoneticPr fontId="17" type="noConversion"/>
+    <phoneticPr fontId="18" type="noConversion"/>
   </si>
   <si>
     <t>"armor"</t>
-    <phoneticPr fontId="17" type="noConversion"/>
+    <phoneticPr fontId="18" type="noConversion"/>
   </si>
   <si>
     <t>"moveSpeed"</t>
-    <phoneticPr fontId="17" type="noConversion"/>
+    <phoneticPr fontId="18" type="noConversion"/>
   </si>
   <si>
     <t>"hitPoints"</t>
-    <phoneticPr fontId="17" type="noConversion"/>
+    <phoneticPr fontId="18" type="noConversion"/>
   </si>
   <si>
     <t>"isBoss"</t>
-    <phoneticPr fontId="17" type="noConversion"/>
+    <phoneticPr fontId="18" type="noConversion"/>
   </si>
   <si>
     <t>"ID"</t>
-    <phoneticPr fontId="17" type="noConversion"/>
+    <phoneticPr fontId="18" type="noConversion"/>
   </si>
   <si>
     <t>[[</t>
-    <phoneticPr fontId="17" type="noConversion"/>
+    <phoneticPr fontId="18" type="noConversion"/>
   </si>
   <si>
     <t>}</t>
-    <phoneticPr fontId="17" type="noConversion"/>
+    <phoneticPr fontId="18" type="noConversion"/>
   </si>
   <si>
     <t>"_slowFactorUpperLimit":</t>
-    <phoneticPr fontId="17" type="noConversion"/>
+    <phoneticPr fontId="18" type="noConversion"/>
   </si>
   <si>
     <t>{"_slowFactorLowerLimit":</t>
-    <phoneticPr fontId="17" type="noConversion"/>
+    <phoneticPr fontId="18" type="noConversion"/>
   </si>
   <si>
     <t>Lv.7</t>
   </si>
   <si>
     <t>Lv.7</t>
-    <phoneticPr fontId="15" type="noConversion"/>
+    <phoneticPr fontId="16" type="noConversion"/>
   </si>
   <si>
     <t>Lv.7</t>
-    <phoneticPr fontId="15" type="noConversion"/>
+    <phoneticPr fontId="16" type="noConversion"/>
   </si>
   <si>
     <t>Lv.8</t>
   </si>
   <si>
     <t>Lv.8</t>
-    <phoneticPr fontId="15" type="noConversion"/>
+    <phoneticPr fontId="16" type="noConversion"/>
   </si>
   <si>
     <t>Lv.8</t>
-    <phoneticPr fontId="15" type="noConversion"/>
+    <phoneticPr fontId="16" type="noConversion"/>
   </si>
   <si>
     <t>Lv.9</t>
   </si>
   <si>
     <t>Lv.9</t>
-    <phoneticPr fontId="15" type="noConversion"/>
+    <phoneticPr fontId="16" type="noConversion"/>
   </si>
   <si>
     <t>Lv.9</t>
-    <phoneticPr fontId="15" type="noConversion"/>
+    <phoneticPr fontId="16" type="noConversion"/>
   </si>
   <si>
     <t>Lv.10</t>
   </si>
   <si>
     <t>Lv.10</t>
-    <phoneticPr fontId="15" type="noConversion"/>
+    <phoneticPr fontId="16" type="noConversion"/>
   </si>
   <si>
     <t>Lv.10</t>
-    <phoneticPr fontId="15" type="noConversion"/>
+    <phoneticPr fontId="16" type="noConversion"/>
   </si>
   <si>
     <t>0,1,2,3,4</t>
-    <phoneticPr fontId="15" type="noConversion"/>
+    <phoneticPr fontId="16" type="noConversion"/>
   </si>
   <si>
     <t>0,1,2,4</t>
-    <phoneticPr fontId="15" type="noConversion"/>
+    <phoneticPr fontId="16" type="noConversion"/>
   </si>
   <si>
     <t>0,2,4,5</t>
-    <phoneticPr fontId="15" type="noConversion"/>
+    <phoneticPr fontId="16" type="noConversion"/>
   </si>
   <si>
     <t>1,2,3,4,6</t>
-    <phoneticPr fontId="15" type="noConversion"/>
+    <phoneticPr fontId="16" type="noConversion"/>
   </si>
   <si>
     <t>0,2,3,4,6</t>
-    <phoneticPr fontId="15" type="noConversion"/>
+    <phoneticPr fontId="16" type="noConversion"/>
   </si>
   <si>
     <t>增长率</t>
-    <phoneticPr fontId="15" type="noConversion"/>
+    <phoneticPr fontId="16" type="noConversion"/>
   </si>
   <si>
     <t>塔攻击力</t>
-    <phoneticPr fontId="15" type="noConversion"/>
+    <phoneticPr fontId="16" type="noConversion"/>
   </si>
   <si>
     <t>塔攻击范围</t>
-    <phoneticPr fontId="15" type="noConversion"/>
+    <phoneticPr fontId="16" type="noConversion"/>
   </si>
   <si>
     <t>塔攻击间隔</t>
-    <phoneticPr fontId="15" type="noConversion"/>
+    <phoneticPr fontId="16" type="noConversion"/>
   </si>
   <si>
     <t>DPS_basic</t>
-    <phoneticPr fontId="15" type="noConversion"/>
+    <phoneticPr fontId="16" type="noConversion"/>
   </si>
   <si>
     <t>valid items</t>
-    <phoneticPr fontId="15" type="noConversion"/>
+    <phoneticPr fontId="16" type="noConversion"/>
   </si>
   <si>
     <t>ID</t>
-    <phoneticPr fontId="17" type="noConversion"/>
+    <phoneticPr fontId="18" type="noConversion"/>
   </si>
   <si>
     <t>"_attackLowerLimit"</t>
-    <phoneticPr fontId="17" type="noConversion"/>
+    <phoneticPr fontId="18" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -585,7 +585,7 @@
       </rPr>
       <t>Limit":</t>
     </r>
-    <phoneticPr fontId="17" type="noConversion"/>
+    <phoneticPr fontId="18" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -613,7 +613,7 @@
       </rPr>
       <t>UpperLimit":</t>
     </r>
-    <phoneticPr fontId="17" type="noConversion"/>
+    <phoneticPr fontId="18" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -630,7 +630,7 @@
       </rPr>
       <t>Limit":</t>
     </r>
-    <phoneticPr fontId="17" type="noConversion"/>
+    <phoneticPr fontId="18" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -647,7 +647,7 @@
       </rPr>
       <t>UpperLimit":</t>
     </r>
-    <phoneticPr fontId="17" type="noConversion"/>
+    <phoneticPr fontId="18" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -664,7 +664,7 @@
       </rPr>
       <t>Limit":</t>
     </r>
-    <phoneticPr fontId="17" type="noConversion"/>
+    <phoneticPr fontId="18" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -681,7 +681,7 @@
       </rPr>
       <t>UpperLimit":</t>
     </r>
-    <phoneticPr fontId="17" type="noConversion"/>
+    <phoneticPr fontId="18" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -698,7 +698,7 @@
       </rPr>
       <t>Limit":</t>
     </r>
-    <phoneticPr fontId="17" type="noConversion"/>
+    <phoneticPr fontId="18" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -715,7 +715,7 @@
       </rPr>
       <t>UpperLimit":</t>
     </r>
-    <phoneticPr fontId="17" type="noConversion"/>
+    <phoneticPr fontId="18" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -732,7 +732,7 @@
       </rPr>
       <t>plash</t>
     </r>
-    <phoneticPr fontId="15" type="noConversion"/>
+    <phoneticPr fontId="16" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -749,7 +749,7 @@
       </rPr>
       <t>l</t>
     </r>
-    <phoneticPr fontId="15" type="noConversion"/>
+    <phoneticPr fontId="16" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -766,7 +766,7 @@
       </rPr>
       <t>ime</t>
     </r>
-    <phoneticPr fontId="15" type="noConversion"/>
+    <phoneticPr fontId="16" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -783,99 +783,99 @@
       </rPr>
       <t>actor</t>
     </r>
-    <phoneticPr fontId="15" type="noConversion"/>
+    <phoneticPr fontId="16" type="noConversion"/>
   </si>
   <si>
     <t>ra</t>
-    <phoneticPr fontId="15" type="noConversion"/>
+    <phoneticPr fontId="16" type="noConversion"/>
   </si>
   <si>
     <t>po</t>
-    <phoneticPr fontId="15" type="noConversion"/>
+    <phoneticPr fontId="16" type="noConversion"/>
   </si>
   <si>
     <t>po</t>
-    <phoneticPr fontId="15" type="noConversion"/>
+    <phoneticPr fontId="16" type="noConversion"/>
   </si>
   <si>
     <t>s</t>
-    <phoneticPr fontId="15" type="noConversion"/>
+    <phoneticPr fontId="16" type="noConversion"/>
   </si>
   <si>
     <t>增长率</t>
-    <phoneticPr fontId="15" type="noConversion"/>
+    <phoneticPr fontId="16" type="noConversion"/>
   </si>
   <si>
     <t>总增长率</t>
-    <phoneticPr fontId="15" type="noConversion"/>
+    <phoneticPr fontId="16" type="noConversion"/>
   </si>
   <si>
     <t>减速</t>
-    <phoneticPr fontId="15" type="noConversion"/>
+    <phoneticPr fontId="16" type="noConversion"/>
   </si>
   <si>
     <t>怪护甲</t>
-    <phoneticPr fontId="15" type="noConversion"/>
+    <phoneticPr fontId="16" type="noConversion"/>
   </si>
   <si>
     <t>普通</t>
-    <phoneticPr fontId="15" type="noConversion"/>
+    <phoneticPr fontId="16" type="noConversion"/>
   </si>
   <si>
     <t>10</t>
-    <phoneticPr fontId="17" type="noConversion"/>
+    <phoneticPr fontId="18" type="noConversion"/>
   </si>
   <si>
     <t>200</t>
-    <phoneticPr fontId="15" type="noConversion"/>
+    <phoneticPr fontId="16" type="noConversion"/>
   </si>
   <si>
     <t>8000</t>
-    <phoneticPr fontId="15" type="noConversion"/>
+    <phoneticPr fontId="16" type="noConversion"/>
   </si>
   <si>
     <t>6000</t>
-    <phoneticPr fontId="15" type="noConversion"/>
+    <phoneticPr fontId="16" type="noConversion"/>
   </si>
   <si>
     <t>10000</t>
-    <phoneticPr fontId="15" type="noConversion"/>
+    <phoneticPr fontId="16" type="noConversion"/>
   </si>
   <si>
     <t>特种</t>
-    <phoneticPr fontId="15" type="noConversion"/>
+    <phoneticPr fontId="16" type="noConversion"/>
   </si>
   <si>
     <t>额外资源奖励</t>
-    <phoneticPr fontId="15" type="noConversion"/>
+    <phoneticPr fontId="16" type="noConversion"/>
   </si>
   <si>
     <t>给沿途敌人加血</t>
-    <phoneticPr fontId="15" type="noConversion"/>
+    <phoneticPr fontId="16" type="noConversion"/>
   </si>
   <si>
     <t>死后复活成小怪</t>
-    <phoneticPr fontId="15" type="noConversion"/>
+    <phoneticPr fontId="16" type="noConversion"/>
   </si>
   <si>
     <t>Lv</t>
-    <phoneticPr fontId="15" type="noConversion"/>
+    <phoneticPr fontId="16" type="noConversion"/>
   </si>
   <si>
     <t>波数</t>
-    <phoneticPr fontId="15" type="noConversion"/>
+    <phoneticPr fontId="16" type="noConversion"/>
   </si>
   <si>
     <t>塔数</t>
-    <phoneticPr fontId="15" type="noConversion"/>
+    <phoneticPr fontId="16" type="noConversion"/>
   </si>
   <si>
     <t>玩法</t>
-    <phoneticPr fontId="15" type="noConversion"/>
+    <phoneticPr fontId="16" type="noConversion"/>
   </si>
   <si>
     <t>解锁</t>
-    <phoneticPr fontId="15" type="noConversion"/>
+    <phoneticPr fontId="16" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -892,51 +892,51 @@
       </rPr>
       <t>]</t>
     </r>
-    <phoneticPr fontId="17" type="noConversion"/>
+    <phoneticPr fontId="18" type="noConversion"/>
   </si>
   <si>
     <t>35</t>
-    <phoneticPr fontId="17" type="noConversion"/>
+    <phoneticPr fontId="18" type="noConversion"/>
   </si>
   <si>
     <t>长度</t>
-    <phoneticPr fontId="15" type="noConversion"/>
+    <phoneticPr fontId="16" type="noConversion"/>
   </si>
   <si>
     <t>资源</t>
-    <phoneticPr fontId="15" type="noConversion"/>
+    <phoneticPr fontId="16" type="noConversion"/>
   </si>
   <si>
     <t>怪最高等级</t>
-    <phoneticPr fontId="15" type="noConversion"/>
+    <phoneticPr fontId="16" type="noConversion"/>
   </si>
   <si>
     <t>congratulations</t>
-    <phoneticPr fontId="15" type="noConversion"/>
+    <phoneticPr fontId="16" type="noConversion"/>
   </si>
   <si>
     <t>CONGRATULATIONS</t>
-    <phoneticPr fontId="15" type="noConversion"/>
+    <phoneticPr fontId="16" type="noConversion"/>
   </si>
   <si>
     <t>400</t>
-    <phoneticPr fontId="15" type="noConversion"/>
+    <phoneticPr fontId="16" type="noConversion"/>
   </si>
   <si>
     <t>800</t>
-    <phoneticPr fontId="15" type="noConversion"/>
+    <phoneticPr fontId="16" type="noConversion"/>
   </si>
   <si>
     <t>1500</t>
-    <phoneticPr fontId="15" type="noConversion"/>
+    <phoneticPr fontId="16" type="noConversion"/>
   </si>
   <si>
     <t>2500</t>
-    <phoneticPr fontId="15" type="noConversion"/>
+    <phoneticPr fontId="16" type="noConversion"/>
   </si>
   <si>
     <t>4000</t>
-    <phoneticPr fontId="15" type="noConversion"/>
+    <phoneticPr fontId="16" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -953,7 +953,7 @@
       </rPr>
       <t>0</t>
     </r>
-    <phoneticPr fontId="15" type="noConversion"/>
+    <phoneticPr fontId="16" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -970,7 +970,7 @@
       </rPr>
       <t>0</t>
     </r>
-    <phoneticPr fontId="15" type="noConversion"/>
+    <phoneticPr fontId="16" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -987,15 +987,15 @@
       </rPr>
       <t>0</t>
     </r>
-    <phoneticPr fontId="15" type="noConversion"/>
+    <phoneticPr fontId="16" type="noConversion"/>
   </si>
   <si>
     <t>75</t>
-    <phoneticPr fontId="15" type="noConversion"/>
+    <phoneticPr fontId="16" type="noConversion"/>
   </si>
   <si>
     <t>90</t>
-    <phoneticPr fontId="15" type="noConversion"/>
+    <phoneticPr fontId="16" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -1012,7 +1012,7 @@
       </rPr>
       <t>10</t>
     </r>
-    <phoneticPr fontId="15" type="noConversion"/>
+    <phoneticPr fontId="16" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -1029,7 +1029,7 @@
       </rPr>
       <t>30</t>
     </r>
-    <phoneticPr fontId="15" type="noConversion"/>
+    <phoneticPr fontId="16" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -1046,7 +1046,7 @@
       </rPr>
       <t>50</t>
     </r>
-    <phoneticPr fontId="15" type="noConversion"/>
+    <phoneticPr fontId="16" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -1063,26 +1063,26 @@
       </rPr>
       <t>75</t>
     </r>
-    <phoneticPr fontId="15" type="noConversion"/>
+    <phoneticPr fontId="16" type="noConversion"/>
   </si>
   <si>
     <t>ACGILNORSTU!</t>
-    <phoneticPr fontId="15" type="noConversion"/>
+    <phoneticPr fontId="16" type="noConversion"/>
   </si>
   <si>
     <t>护甲&gt;=30时 速度&gt;=4.5时</t>
-    <phoneticPr fontId="15" type="noConversion"/>
+    <phoneticPr fontId="16" type="noConversion"/>
   </si>
   <si>
     <t>2.6</t>
   </si>
   <si>
     <t>2.6</t>
-    <phoneticPr fontId="15" type="noConversion"/>
+    <phoneticPr fontId="16" type="noConversion"/>
   </si>
   <si>
     <t>2.6</t>
-    <phoneticPr fontId="15" type="noConversion"/>
+    <phoneticPr fontId="16" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -1099,7 +1099,7 @@
       </rPr>
       <t>IMIT</t>
     </r>
-    <phoneticPr fontId="15" type="noConversion"/>
+    <phoneticPr fontId="16" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -1116,7 +1116,7 @@
       </rPr>
       <t>plash</t>
     </r>
-    <phoneticPr fontId="17" type="noConversion"/>
+    <phoneticPr fontId="18" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -1133,11 +1133,11 @@
       </rPr>
       <t>annon</t>
     </r>
-    <phoneticPr fontId="17" type="noConversion"/>
+    <phoneticPr fontId="18" type="noConversion"/>
   </si>
   <si>
     <t>slowOne</t>
-    <phoneticPr fontId="17" type="noConversion"/>
+    <phoneticPr fontId="18" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -1154,7 +1154,7 @@
       </rPr>
       <t>netrate</t>
     </r>
-    <phoneticPr fontId="17" type="noConversion"/>
+    <phoneticPr fontId="18" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -1171,7 +1171,7 @@
       </rPr>
       <t>isonous</t>
     </r>
-    <phoneticPr fontId="17" type="noConversion"/>
+    <phoneticPr fontId="18" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -1188,7 +1188,7 @@
       </rPr>
       <t>ge</t>
     </r>
-    <phoneticPr fontId="17" type="noConversion"/>
+    <phoneticPr fontId="18" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -1205,7 +1205,7 @@
       </rPr>
       <t>gic</t>
     </r>
-    <phoneticPr fontId="17" type="noConversion"/>
+    <phoneticPr fontId="18" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -1222,7 +1222,7 @@
       </rPr>
       <t>ple</t>
     </r>
-    <phoneticPr fontId="15" type="noConversion"/>
+    <phoneticPr fontId="16" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -1239,7 +1239,7 @@
       </rPr>
       <t>agicSlowLine</t>
     </r>
-    <phoneticPr fontId="15" type="noConversion"/>
+    <phoneticPr fontId="16" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -1256,7 +1256,7 @@
       </rPr>
       <t>roducer</t>
     </r>
-    <phoneticPr fontId="15" type="noConversion"/>
+    <phoneticPr fontId="16" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -1273,11 +1273,11 @@
       </rPr>
       <t>onsumer</t>
     </r>
-    <phoneticPr fontId="15" type="noConversion"/>
+    <phoneticPr fontId="16" type="noConversion"/>
   </si>
   <si>
     <t>chains</t>
-    <phoneticPr fontId="15" type="noConversion"/>
+    <phoneticPr fontId="16" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -1294,7 +1294,7 @@
       </rPr>
       <t>ounce</t>
     </r>
-    <phoneticPr fontId="15" type="noConversion"/>
+    <phoneticPr fontId="16" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -1311,7 +1311,7 @@
       </rPr>
       <t>reaker</t>
     </r>
-    <phoneticPr fontId="15" type="noConversion"/>
+    <phoneticPr fontId="16" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -1328,7 +1328,7 @@
       </rPr>
       <t>niper</t>
     </r>
-    <phoneticPr fontId="15" type="noConversion"/>
+    <phoneticPr fontId="16" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -1345,7 +1345,7 @@
       </rPr>
       <t>adow</t>
     </r>
-    <phoneticPr fontId="15" type="noConversion"/>
+    <phoneticPr fontId="16" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -1362,7 +1362,7 @@
       </rPr>
       <t>oisonousMulti</t>
     </r>
-    <phoneticPr fontId="15" type="noConversion"/>
+    <phoneticPr fontId="16" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -1379,7 +1379,7 @@
       </rPr>
       <t>ltiTarget</t>
     </r>
-    <phoneticPr fontId="15" type="noConversion"/>
+    <phoneticPr fontId="16" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -1396,7 +1396,7 @@
       </rPr>
       <t>idge</t>
     </r>
-    <phoneticPr fontId="15" type="noConversion"/>
+    <phoneticPr fontId="16" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -1413,11 +1413,11 @@
       </rPr>
       <t>rmirRemover</t>
     </r>
-    <phoneticPr fontId="15" type="noConversion"/>
+    <phoneticPr fontId="16" type="noConversion"/>
   </si>
   <si>
     <t>tracing</t>
-    <phoneticPr fontId="15" type="noConversion"/>
+    <phoneticPr fontId="16" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -1434,7 +1434,7 @@
       </rPr>
       <t>aping</t>
     </r>
-    <phoneticPr fontId="15" type="noConversion"/>
+    <phoneticPr fontId="16" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -1451,7 +1451,7 @@
       </rPr>
       <t>ower</t>
     </r>
-    <phoneticPr fontId="15" type="noConversion"/>
+    <phoneticPr fontId="16" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -1468,7 +1468,7 @@
       </rPr>
       <t>ocus</t>
     </r>
-    <phoneticPr fontId="15" type="noConversion"/>
+    <phoneticPr fontId="16" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -1485,7 +1485,7 @@
       </rPr>
       <t>uperPosisonous</t>
     </r>
-    <phoneticPr fontId="15" type="noConversion"/>
+    <phoneticPr fontId="16" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -1502,7 +1502,7 @@
       </rPr>
       <t>licate</t>
     </r>
-    <phoneticPr fontId="15" type="noConversion"/>
+    <phoneticPr fontId="16" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -1519,7 +1519,7 @@
       </rPr>
       <t>argeWave</t>
     </r>
-    <phoneticPr fontId="15" type="noConversion"/>
+    <phoneticPr fontId="16" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -1536,7 +1536,7 @@
       </rPr>
       <t>plashOnBoss</t>
     </r>
-    <phoneticPr fontId="15" type="noConversion"/>
+    <phoneticPr fontId="16" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -1553,7 +1553,7 @@
       </rPr>
       <t>xpodeOnDeath</t>
     </r>
-    <phoneticPr fontId="15" type="noConversion"/>
+    <phoneticPr fontId="16" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -1570,7 +1570,7 @@
       </rPr>
       <t>iral</t>
     </r>
-    <phoneticPr fontId="17" type="noConversion"/>
+    <phoneticPr fontId="18" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -1587,11 +1587,7 @@
       </rPr>
       <t>roove</t>
     </r>
-    <phoneticPr fontId="15" type="noConversion"/>
-  </si>
-  <si>
-    <t>split</t>
-    <phoneticPr fontId="15" type="noConversion"/>
+    <phoneticPr fontId="16" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -1608,24 +1604,7 @@
       </rPr>
       <t>ook</t>
     </r>
-    <phoneticPr fontId="15" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>b</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="2"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>onus</t>
-    </r>
-    <phoneticPr fontId="15" type="noConversion"/>
+    <phoneticPr fontId="16" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -1642,11 +1621,7 @@
       </rPr>
       <t>lock</t>
     </r>
-    <phoneticPr fontId="15" type="noConversion"/>
-  </si>
-  <si>
-    <t>bounceForward</t>
-    <phoneticPr fontId="15" type="noConversion"/>
+    <phoneticPr fontId="16" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -1658,12 +1633,20 @@
     <numFmt numFmtId="177" formatCode="0.0_);[Red]\(0.0\)"/>
     <numFmt numFmtId="178" formatCode="0_ "/>
   </numFmts>
-  <fonts count="18" x14ac:knownFonts="1">
+  <fonts count="19" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
       <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <family val="2"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -1999,14 +1982,14 @@
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
   <cellXfs count="90">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="16" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="17" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -2075,46 +2058,46 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="1">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="14" fillId="0" borderId="0" xfId="1" applyNumberFormat="1">
+    <xf numFmtId="176" fontId="15" fillId="0" borderId="0" xfId="1" applyNumberFormat="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="14" fillId="0" borderId="0" xfId="1" applyNumberFormat="1">
+    <xf numFmtId="177" fontId="15" fillId="0" borderId="0" xfId="1" applyNumberFormat="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="14" fillId="0" borderId="0" xfId="1" applyNumberFormat="1">
+    <xf numFmtId="49" fontId="15" fillId="0" borderId="0" xfId="1" applyNumberFormat="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="178" fontId="14" fillId="0" borderId="0" xfId="1" applyNumberFormat="1">
+    <xf numFmtId="178" fontId="15" fillId="0" borderId="0" xfId="1" applyNumberFormat="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="13" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1">
+    <xf numFmtId="49" fontId="14" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="11" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1">
+    <xf numFmtId="49" fontId="12" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="10" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1">
+    <xf numFmtId="177" fontId="11" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
@@ -2123,19 +2106,19 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="1" applyFont="1">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="1" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="9" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1">
+    <xf numFmtId="49" fontId="10" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="1" applyNumberFormat="1">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="1" applyNumberFormat="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
@@ -2144,82 +2127,82 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="8" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1">
+    <xf numFmtId="49" fontId="9" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="14" fillId="0" borderId="10" xfId="1" applyNumberFormat="1" applyBorder="1">
+    <xf numFmtId="49" fontId="15" fillId="0" borderId="10" xfId="1" applyNumberFormat="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="8" fillId="0" borderId="11" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1">
+    <xf numFmtId="49" fontId="9" fillId="0" borderId="11" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="14" fillId="0" borderId="12" xfId="1" applyNumberFormat="1" applyBorder="1">
+    <xf numFmtId="49" fontId="15" fillId="0" borderId="12" xfId="1" applyNumberFormat="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="8" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1">
+    <xf numFmtId="49" fontId="9" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="14" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyBorder="1">
+    <xf numFmtId="49" fontId="15" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="8" fillId="0" borderId="13" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1">
+    <xf numFmtId="49" fontId="9" fillId="0" borderId="13" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="7" fillId="0" borderId="13" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
+    <xf numFmtId="49" fontId="8" fillId="0" borderId="13" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="6" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1">
+    <xf numFmtId="49" fontId="7" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="49" fontId="5" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="15" fillId="0" borderId="14" xfId="1" applyNumberFormat="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="49" fontId="4" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="14" fillId="0" borderId="14" xfId="1" applyNumberFormat="1" applyBorder="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="177" fontId="11" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="6" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="15" fillId="0" borderId="0" xfId="1" applyNumberFormat="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="177" fontId="10" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="5" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="14" fillId="0" borderId="0" xfId="1" applyNumberFormat="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -2228,6 +2211,9 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
@@ -2245,14 +2231,11 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="177" fontId="14" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="177" fontId="15" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyFont="1">
-      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -2480,11 +2463,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="40055168"/>
-        <c:axId val="40056704"/>
+        <c:axId val="104802560"/>
+        <c:axId val="104808448"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="40055168"/>
+        <c:axId val="104802560"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2494,12 +2477,12 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="40056704"/>
+        <c:crossAx val="104808448"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="40056704"/>
+        <c:axId val="104808448"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2528,7 +2511,7 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="40055168"/>
+        <c:crossAx val="104802560"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -6323,7 +6306,7 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:9" x14ac:dyDescent="0.15">
-      <c r="B2" s="77" t="s">
+      <c r="B2" s="78" t="s">
         <v>13</v>
       </c>
       <c r="C2" s="36"/>
@@ -6347,7 +6330,7 @@
       </c>
     </row>
     <row r="3" spans="2:9" x14ac:dyDescent="0.15">
-      <c r="B3" s="77"/>
+      <c r="B3" s="78"/>
       <c r="C3" s="37" t="s">
         <v>131</v>
       </c>
@@ -6367,7 +6350,7 @@
       <c r="I3" s="1"/>
     </row>
     <row r="4" spans="2:9" x14ac:dyDescent="0.15">
-      <c r="B4" s="77"/>
+      <c r="B4" s="78"/>
       <c r="C4" s="37" t="s">
         <v>132</v>
       </c>
@@ -6387,7 +6370,7 @@
       <c r="I4" s="1"/>
     </row>
     <row r="5" spans="2:9" x14ac:dyDescent="0.15">
-      <c r="B5" s="77"/>
+      <c r="B5" s="78"/>
       <c r="C5" s="37" t="s">
         <v>133</v>
       </c>
@@ -6407,7 +6390,7 @@
       <c r="I5" s="1"/>
     </row>
     <row r="6" spans="2:9" x14ac:dyDescent="0.15">
-      <c r="B6" s="77"/>
+      <c r="B6" s="78"/>
       <c r="C6" s="50" t="s">
         <v>156</v>
       </c>
@@ -6419,7 +6402,7 @@
       <c r="I6" s="1"/>
     </row>
     <row r="7" spans="2:9" x14ac:dyDescent="0.15">
-      <c r="B7" s="77"/>
+      <c r="B7" s="78"/>
       <c r="C7" s="36"/>
       <c r="D7" s="36"/>
       <c r="E7" s="36"/>
@@ -6429,7 +6412,7 @@
       <c r="I7" s="1"/>
     </row>
     <row r="8" spans="2:9" x14ac:dyDescent="0.15">
-      <c r="B8" s="77"/>
+      <c r="B8" s="78"/>
       <c r="C8" s="51"/>
       <c r="D8" s="51"/>
       <c r="E8" s="51"/>
@@ -6439,7 +6422,7 @@
       <c r="I8" s="1"/>
     </row>
     <row r="9" spans="2:9" x14ac:dyDescent="0.15">
-      <c r="B9" s="77"/>
+      <c r="B9" s="78"/>
       <c r="C9" s="51"/>
       <c r="D9" s="51"/>
       <c r="E9" s="51"/>
@@ -6449,7 +6432,7 @@
       <c r="I9" s="1"/>
     </row>
     <row r="10" spans="2:9" x14ac:dyDescent="0.15">
-      <c r="B10" s="77"/>
+      <c r="B10" s="78"/>
       <c r="C10" s="51" t="s">
         <v>3</v>
       </c>
@@ -6465,7 +6448,7 @@
       <c r="I10" s="1"/>
     </row>
     <row r="11" spans="2:9" x14ac:dyDescent="0.15">
-      <c r="B11" s="77"/>
+      <c r="B11" s="78"/>
       <c r="C11" s="51" t="s">
         <v>157</v>
       </c>
@@ -6481,7 +6464,7 @@
       <c r="I11" s="1"/>
     </row>
     <row r="12" spans="2:9" x14ac:dyDescent="0.15">
-      <c r="B12" s="77"/>
+      <c r="B12" s="78"/>
       <c r="C12" s="51" t="s">
         <v>4</v>
       </c>
@@ -6500,7 +6483,7 @@
   <mergeCells count="1">
     <mergeCell ref="B2:B12"/>
   </mergeCells>
-  <phoneticPr fontId="15" type="noConversion"/>
+  <phoneticPr fontId="16" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
@@ -6810,7 +6793,7 @@
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="15" type="noConversion"/>
+  <phoneticPr fontId="16" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -7129,7 +7112,7 @@
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="15" type="noConversion"/>
+  <phoneticPr fontId="16" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
@@ -7137,10 +7120,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:X52"/>
+  <dimension ref="A1:X49"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="H39" sqref="H39"/>
+      <selection activeCell="D31" sqref="D31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -7219,7 +7202,7 @@
       </c>
     </row>
     <row r="2" spans="1:24" x14ac:dyDescent="0.15">
-      <c r="A2" s="89" t="s">
+      <c r="A2" s="77" t="s">
         <v>201</v>
       </c>
       <c r="B2" s="29">
@@ -7290,7 +7273,7 @@
       <c r="X2" s="38"/>
     </row>
     <row r="3" spans="1:24" x14ac:dyDescent="0.15">
-      <c r="A3" s="89" t="s">
+      <c r="A3" s="77" t="s">
         <v>200</v>
       </c>
       <c r="B3" s="29">
@@ -7323,11 +7306,11 @@
         <v>2385.4117647058824</v>
       </c>
       <c r="K3" s="31">
-        <f>E47/50</f>
+        <f>E44/50</f>
         <v>3</v>
       </c>
       <c r="L3" s="31">
-        <f>F47/50</f>
+        <f>F44/50</f>
         <v>4.4000000000000004</v>
       </c>
       <c r="M3" s="29">
@@ -7363,7 +7346,7 @@
       <c r="X3" s="75"/>
     </row>
     <row r="4" spans="1:24" x14ac:dyDescent="0.15">
-      <c r="A4" s="89" t="s">
+      <c r="A4" s="77" t="s">
         <v>202</v>
       </c>
       <c r="B4" s="29">
@@ -7396,11 +7379,11 @@
         <v>1292.2978723404256</v>
       </c>
       <c r="K4" s="31">
-        <f>1/G49</f>
+        <f>1/G46</f>
         <v>1.25</v>
       </c>
       <c r="L4" s="31">
-        <f>1/H49</f>
+        <f>1/H46</f>
         <v>2.5</v>
       </c>
       <c r="M4" s="29">
@@ -7436,7 +7419,7 @@
       <c r="X4" s="75"/>
     </row>
     <row r="5" spans="1:24" x14ac:dyDescent="0.15">
-      <c r="A5" s="89" t="s">
+      <c r="A5" s="77" t="s">
         <v>203</v>
       </c>
       <c r="B5" s="29">
@@ -7507,7 +7490,7 @@
       <c r="X5" s="75"/>
     </row>
     <row r="6" spans="1:24" x14ac:dyDescent="0.15">
-      <c r="A6" s="89" t="s">
+      <c r="A6" s="77" t="s">
         <v>204</v>
       </c>
       <c r="B6" s="29">
@@ -7546,11 +7529,11 @@
         <v>1</v>
       </c>
       <c r="M6" s="29">
-        <f>C50*G51</f>
+        <f>C47*G48</f>
         <v>120</v>
       </c>
       <c r="N6" s="29">
-        <f>D50*H51</f>
+        <f>D47*H48</f>
         <v>420</v>
       </c>
       <c r="O6" s="29">
@@ -7580,7 +7563,7 @@
       <c r="X6" s="75"/>
     </row>
     <row r="7" spans="1:24" x14ac:dyDescent="0.15">
-      <c r="A7" s="89" t="s">
+      <c r="A7" s="77" t="s">
         <v>205</v>
       </c>
       <c r="B7" s="29">
@@ -7613,11 +7596,11 @@
         <v>2720.5487282080594</v>
       </c>
       <c r="K7" s="31">
-        <f>0.9/G52</f>
+        <f>0.9/G49</f>
         <v>1.8</v>
       </c>
       <c r="L7" s="31">
-        <f>0.9/H52</f>
+        <f>0.9/H49</f>
         <v>4.5</v>
       </c>
       <c r="M7" s="29">
@@ -7653,7 +7636,7 @@
       <c r="X7" s="75"/>
     </row>
     <row r="8" spans="1:24" x14ac:dyDescent="0.15">
-      <c r="A8" s="89" t="s">
+      <c r="A8" s="77" t="s">
         <v>206</v>
       </c>
       <c r="B8" s="29">
@@ -7724,7 +7707,7 @@
       <c r="X8" s="75"/>
     </row>
     <row r="9" spans="1:24" x14ac:dyDescent="0.15">
-      <c r="A9" s="89" t="s">
+      <c r="A9" s="77" t="s">
         <v>207</v>
       </c>
       <c r="B9" s="29">
@@ -7795,7 +7778,7 @@
       <c r="X9" s="75"/>
     </row>
     <row r="10" spans="1:24" x14ac:dyDescent="0.15">
-      <c r="A10" s="89" t="s">
+      <c r="A10" s="77" t="s">
         <v>208</v>
       </c>
       <c r="B10" s="29">
@@ -7866,7 +7849,7 @@
       <c r="X10" s="75"/>
     </row>
     <row r="11" spans="1:24" x14ac:dyDescent="0.15">
-      <c r="A11" s="89" t="s">
+      <c r="A11" s="77" t="s">
         <v>209</v>
       </c>
       <c r="B11" s="29">
@@ -7937,7 +7920,7 @@
       <c r="X11" s="75"/>
     </row>
     <row r="12" spans="1:24" x14ac:dyDescent="0.15">
-      <c r="A12" s="89" t="s">
+      <c r="A12" s="77" t="s">
         <v>210</v>
       </c>
       <c r="B12" s="29">
@@ -8008,7 +7991,7 @@
       <c r="X12" s="75"/>
     </row>
     <row r="13" spans="1:24" x14ac:dyDescent="0.15">
-      <c r="A13" s="89" t="s">
+      <c r="A13" s="77" t="s">
         <v>211</v>
       </c>
       <c r="B13" s="29">
@@ -8079,7 +8062,7 @@
       <c r="X13" s="75"/>
     </row>
     <row r="14" spans="1:24" x14ac:dyDescent="0.15">
-      <c r="A14" s="89" t="s">
+      <c r="A14" s="77" t="s">
         <v>212</v>
       </c>
       <c r="B14" s="29">
@@ -8150,7 +8133,7 @@
       <c r="X14" s="75"/>
     </row>
     <row r="15" spans="1:24" x14ac:dyDescent="0.15">
-      <c r="A15" s="89" t="s">
+      <c r="A15" s="77" t="s">
         <v>213</v>
       </c>
       <c r="B15" s="29">
@@ -8221,7 +8204,7 @@
       <c r="X15" s="75"/>
     </row>
     <row r="16" spans="1:24" x14ac:dyDescent="0.15">
-      <c r="A16" s="89" t="s">
+      <c r="A16" s="77" t="s">
         <v>214</v>
       </c>
       <c r="B16" s="29">
@@ -8292,7 +8275,7 @@
       <c r="X16" s="75"/>
     </row>
     <row r="17" spans="1:24" x14ac:dyDescent="0.15">
-      <c r="A17" s="89" t="s">
+      <c r="A17" s="77" t="s">
         <v>215</v>
       </c>
       <c r="B17" s="29">
@@ -8363,7 +8346,7 @@
       <c r="X17" s="75"/>
     </row>
     <row r="18" spans="1:24" x14ac:dyDescent="0.15">
-      <c r="A18" s="89" t="s">
+      <c r="A18" s="77" t="s">
         <v>216</v>
       </c>
       <c r="B18" s="29">
@@ -8434,7 +8417,7 @@
       <c r="X18" s="75"/>
     </row>
     <row r="19" spans="1:24" x14ac:dyDescent="0.15">
-      <c r="A19" s="89" t="s">
+      <c r="A19" s="77" t="s">
         <v>217</v>
       </c>
       <c r="B19" s="29">
@@ -8505,7 +8488,7 @@
       <c r="X19" s="75"/>
     </row>
     <row r="20" spans="1:24" x14ac:dyDescent="0.15">
-      <c r="A20" s="89" t="s">
+      <c r="A20" s="77" t="s">
         <v>218</v>
       </c>
       <c r="B20" s="29">
@@ -8576,7 +8559,7 @@
       <c r="X20" s="75"/>
     </row>
     <row r="21" spans="1:24" x14ac:dyDescent="0.15">
-      <c r="A21" s="89" t="s">
+      <c r="A21" s="77" t="s">
         <v>219</v>
       </c>
       <c r="B21" s="29">
@@ -8647,7 +8630,7 @@
       <c r="X21" s="75"/>
     </row>
     <row r="22" spans="1:24" x14ac:dyDescent="0.15">
-      <c r="A22" s="89" t="s">
+      <c r="A22" s="77" t="s">
         <v>220</v>
       </c>
       <c r="B22" s="29">
@@ -8718,7 +8701,7 @@
       <c r="X22" s="75"/>
     </row>
     <row r="23" spans="1:24" x14ac:dyDescent="0.15">
-      <c r="A23" s="89" t="s">
+      <c r="A23" s="77" t="s">
         <v>221</v>
       </c>
       <c r="B23" s="29">
@@ -8789,7 +8772,7 @@
       <c r="X23" s="75"/>
     </row>
     <row r="24" spans="1:24" x14ac:dyDescent="0.15">
-      <c r="A24" s="89" t="s">
+      <c r="A24" s="77" t="s">
         <v>222</v>
       </c>
       <c r="B24" s="29">
@@ -8860,7 +8843,7 @@
       <c r="X24" s="75"/>
     </row>
     <row r="25" spans="1:24" x14ac:dyDescent="0.15">
-      <c r="A25" s="89" t="s">
+      <c r="A25" s="77" t="s">
         <v>223</v>
       </c>
       <c r="B25" s="29">
@@ -8931,37 +8914,37 @@
       <c r="X25" s="75"/>
     </row>
     <row r="26" spans="1:24" x14ac:dyDescent="0.15">
-      <c r="A26" s="89" t="s">
+      <c r="A26" s="77" t="s">
         <v>224</v>
       </c>
       <c r="B26" s="29">
         <v>24</v>
       </c>
       <c r="C26" s="73">
-        <v>82</v>
+        <v>55</v>
       </c>
       <c r="D26" s="73">
-        <v>189</v>
+        <v>169</v>
       </c>
       <c r="E26" s="71">
-        <v>139</v>
+        <v>159</v>
       </c>
       <c r="F26" s="71">
-        <v>224</v>
+        <v>244</v>
       </c>
       <c r="G26" s="72">
-        <v>88.7</v>
+        <v>98.7</v>
       </c>
       <c r="H26" s="72">
-        <v>69.400000000000006</v>
+        <v>79.400000000000006</v>
       </c>
       <c r="I26">
         <f t="shared" si="54"/>
-        <v>128.50056369785796</v>
+        <v>88.60182370820668</v>
       </c>
       <c r="J26" s="29">
         <f t="shared" si="55"/>
-        <v>610.02881844380397</v>
+        <v>519.34508816120899</v>
       </c>
       <c r="K26" s="31">
         <v>10</v>
@@ -8977,32 +8960,32 @@
       </c>
       <c r="O26" s="29">
         <f t="shared" si="42"/>
-        <v>1285.0056369785793</v>
+        <v>886.01823708206689</v>
       </c>
       <c r="P26" s="29">
         <f t="shared" si="43"/>
-        <v>6100.2881844380399</v>
+        <v>5193.4508816120906</v>
       </c>
       <c r="Q26" s="30">
         <f t="shared" si="44"/>
-        <v>1.3048780487804876</v>
+        <v>2.0727272727272728</v>
       </c>
       <c r="R26" s="30">
         <f t="shared" si="45"/>
-        <v>0.61151079136690645</v>
+        <v>0.53459119496855356</v>
       </c>
       <c r="S26" s="30">
         <f t="shared" si="46"/>
-        <v>0.2780979827089336</v>
+        <v>0.24307304785894202</v>
       </c>
       <c r="T26" s="30">
         <f t="shared" si="47"/>
-        <v>3.7472851549364297</v>
+        <v>4.8615620584918622</v>
       </c>
       <c r="X26" s="75"/>
     </row>
     <row r="27" spans="1:24" x14ac:dyDescent="0.15">
-      <c r="A27" s="89" t="s">
+      <c r="A27" s="77" t="s">
         <v>225</v>
       </c>
       <c r="B27" s="29">
@@ -9073,7 +9056,7 @@
       <c r="X27" s="75"/>
     </row>
     <row r="28" spans="1:24" x14ac:dyDescent="0.15">
-      <c r="A28" s="89" t="s">
+      <c r="A28" s="77" t="s">
         <v>226</v>
       </c>
       <c r="B28" s="29">
@@ -9144,7 +9127,7 @@
       <c r="X28" s="75"/>
     </row>
     <row r="29" spans="1:24" x14ac:dyDescent="0.15">
-      <c r="A29" s="89" t="s">
+      <c r="A29" s="77" t="s">
         <v>227</v>
       </c>
       <c r="B29" s="29">
@@ -9154,7 +9137,7 @@
         <v>98</v>
       </c>
       <c r="D29" s="73">
-        <v>243</v>
+        <v>203</v>
       </c>
       <c r="E29" s="71">
         <v>275</v>
@@ -9174,7 +9157,7 @@
       </c>
       <c r="J29" s="29">
         <f t="shared" si="55"/>
-        <v>2146.2658959537571</v>
+        <v>1792.971098265896</v>
       </c>
       <c r="K29" s="31">
         <v>10</v>
@@ -9194,11 +9177,11 @@
       </c>
       <c r="P29" s="29">
         <f t="shared" si="43"/>
-        <v>21462.658959537574</v>
+        <v>17929.710982658959</v>
       </c>
       <c r="Q29" s="30">
         <f t="shared" si="44"/>
-        <v>1.4795918367346941</v>
+        <v>1.0714285714285716</v>
       </c>
       <c r="R29" s="30">
         <f t="shared" si="45"/>
@@ -9210,19 +9193,19 @@
       </c>
       <c r="T29" s="30">
         <f t="shared" si="47"/>
-        <v>5.2914658916640747</v>
+        <v>4.2558336461226629</v>
       </c>
       <c r="X29" s="75"/>
     </row>
     <row r="30" spans="1:24" x14ac:dyDescent="0.15">
-      <c r="A30" s="89" t="s">
+      <c r="A30" s="77" t="s">
         <v>228</v>
       </c>
       <c r="B30" s="29">
         <v>28</v>
       </c>
       <c r="C30" s="73">
-        <v>56</v>
+        <v>79</v>
       </c>
       <c r="D30" s="73">
         <v>214</v>
@@ -9231,21 +9214,21 @@
         <v>137</v>
       </c>
       <c r="F30" s="71">
-        <v>224</v>
+        <v>294</v>
       </c>
       <c r="G30" s="72">
-        <v>59.9</v>
+        <v>99.9</v>
       </c>
       <c r="H30" s="72">
-        <v>44.25</v>
+        <v>74.25</v>
       </c>
       <c r="I30">
         <f t="shared" si="54"/>
-        <v>128.08013355592655</v>
+        <v>108.33833833833833</v>
       </c>
       <c r="J30" s="29">
         <f t="shared" si="55"/>
-        <v>1083.2994350282486</v>
+        <v>847.35353535353534</v>
       </c>
       <c r="K30" s="31">
         <v>10</v>
@@ -9261,39 +9244,39 @@
       </c>
       <c r="O30" s="29">
         <f t="shared" si="42"/>
-        <v>1280.8013355592655</v>
+        <v>1083.3833833833833</v>
       </c>
       <c r="P30" s="29">
         <f t="shared" si="43"/>
-        <v>10832.994350282486</v>
+        <v>8473.5353535353534</v>
       </c>
       <c r="Q30" s="30">
         <f t="shared" si="44"/>
-        <v>2.8214285714285716</v>
+        <v>1.7088607594936707</v>
       </c>
       <c r="R30" s="30">
         <f t="shared" si="45"/>
-        <v>0.63503649635036497</v>
+        <v>1.1459854014598538</v>
       </c>
       <c r="S30" s="30">
         <f t="shared" si="46"/>
-        <v>0.35367231638418084</v>
+        <v>0.34545454545454546</v>
       </c>
       <c r="T30" s="30">
         <f t="shared" si="47"/>
-        <v>7.4579817724442243</v>
+        <v>6.8213635943655353</v>
       </c>
       <c r="X30" s="75"/>
     </row>
     <row r="31" spans="1:24" x14ac:dyDescent="0.15">
-      <c r="A31" s="89" t="s">
+      <c r="A31" s="77" t="s">
         <v>229</v>
       </c>
       <c r="B31" s="29">
         <v>29</v>
       </c>
       <c r="C31" s="73">
-        <v>43</v>
+        <v>98</v>
       </c>
       <c r="D31" s="73">
         <v>163</v>
@@ -9312,7 +9295,7 @@
       </c>
       <c r="I31">
         <f t="shared" si="54"/>
-        <v>144.88288288288288</v>
+        <v>330.19819819819821</v>
       </c>
       <c r="J31" s="29">
         <f t="shared" si="55"/>
@@ -9332,7 +9315,7 @@
       </c>
       <c r="O31" s="29">
         <f t="shared" si="42"/>
-        <v>1448.8288288288288</v>
+        <v>3301.9819819819818</v>
       </c>
       <c r="P31" s="29">
         <f t="shared" si="43"/>
@@ -9340,7 +9323,7 @@
       </c>
       <c r="Q31" s="30">
         <f t="shared" si="44"/>
-        <v>2.7906976744186047</v>
+        <v>0.66326530612244894</v>
       </c>
       <c r="R31" s="30">
         <f t="shared" si="45"/>
@@ -9352,42 +9335,42 @@
       </c>
       <c r="T31" s="30">
         <f t="shared" si="47"/>
-        <v>8.5043939808481532</v>
+        <v>3.1702953181272511</v>
       </c>
       <c r="X31" s="75"/>
     </row>
     <row r="32" spans="1:24" x14ac:dyDescent="0.15">
-      <c r="A32" s="89" t="s">
+      <c r="A32" s="77" t="s">
         <v>230</v>
       </c>
       <c r="B32" s="29">
         <v>30</v>
       </c>
       <c r="C32" s="73">
-        <v>43</v>
+        <v>110</v>
       </c>
       <c r="D32" s="73">
-        <v>163</v>
+        <v>243</v>
       </c>
       <c r="E32" s="71">
-        <v>187</v>
+        <v>139</v>
       </c>
       <c r="F32" s="71">
-        <v>264</v>
+        <v>177</v>
       </c>
       <c r="G32" s="72">
-        <v>55.5</v>
-      </c>
-      <c r="H32" s="72">
-        <v>31.25</v>
+        <v>194.9</v>
+      </c>
+      <c r="H32" s="74">
+        <v>162.1</v>
       </c>
       <c r="I32">
-        <f t="shared" ref="I32:I37" si="56">C32*E32/G32</f>
-        <v>144.88288288288288</v>
+        <f t="shared" ref="I32:I34" si="56">C32*E32/G32</f>
+        <v>78.450487429451002</v>
       </c>
       <c r="J32" s="29">
-        <f t="shared" ref="J32:J37" si="57">D32*F32/H32</f>
-        <v>1377.0239999999999</v>
+        <f t="shared" ref="J32:J34" si="57">D32*F32/H32</f>
+        <v>265.33621221468229</v>
       </c>
       <c r="K32" s="31">
         <v>10</v>
@@ -9402,32 +9385,32 @@
         <v>0</v>
       </c>
       <c r="O32" s="29">
-        <f t="shared" ref="O32:O37" si="58">K32*C32*E32/G32+M32</f>
-        <v>1448.8288288288288</v>
+        <f t="shared" ref="O32:O34" si="58">K32*C32*E32/G32+M32</f>
+        <v>784.50487429450993</v>
       </c>
       <c r="P32" s="29">
-        <f t="shared" ref="P32:P37" si="59">K32*D32*F32/H32+N32</f>
-        <v>13770.24</v>
+        <f t="shared" ref="P32:P34" si="59">K32*D32*F32/H32+N32</f>
+        <v>2653.3621221468229</v>
       </c>
       <c r="Q32" s="30">
-        <f t="shared" ref="Q32:Q37" si="60">D32/C32-1</f>
-        <v>2.7906976744186047</v>
+        <f t="shared" ref="Q32:Q34" si="60">D32/C32-1</f>
+        <v>1.209090909090909</v>
       </c>
       <c r="R32" s="30">
-        <f t="shared" ref="R32:R37" si="61">F32/E32-1</f>
-        <v>0.41176470588235303</v>
+        <f t="shared" ref="R32:R34" si="61">F32/E32-1</f>
+        <v>0.27338129496402885</v>
       </c>
       <c r="S32" s="30">
-        <f t="shared" ref="S32:S37" si="62">G32/H32-1</f>
-        <v>0.77600000000000002</v>
+        <f t="shared" ref="S32:S34" si="62">G32/H32-1</f>
+        <v>0.20234423195558304</v>
       </c>
       <c r="T32" s="30">
-        <f t="shared" ref="T32:T37" si="63">P32/O32-1</f>
-        <v>8.5043939808481532</v>
+        <f t="shared" ref="T32:T34" si="63">P32/O32-1</f>
+        <v>2.3822124107679254</v>
       </c>
     </row>
     <row r="33" spans="1:20" x14ac:dyDescent="0.15">
-      <c r="A33" s="89" t="s">
+      <c r="A33" s="77" t="s">
         <v>231</v>
       </c>
       <c r="B33" s="29">
@@ -9497,7 +9480,7 @@
       </c>
     </row>
     <row r="34" spans="1:20" x14ac:dyDescent="0.15">
-      <c r="A34" s="89" t="s">
+      <c r="A34" s="77" t="s">
         <v>232</v>
       </c>
       <c r="B34" s="29">
@@ -9566,318 +9549,108 @@
         <v>8.5043939808481532</v>
       </c>
     </row>
-    <row r="35" spans="1:20" x14ac:dyDescent="0.15">
-      <c r="A35" s="89" t="s">
-        <v>233</v>
-      </c>
-      <c r="B35" s="29">
-        <v>33</v>
-      </c>
-      <c r="C35" s="73">
-        <v>43</v>
-      </c>
-      <c r="D35" s="73">
-        <v>163</v>
-      </c>
-      <c r="E35" s="71">
-        <v>187</v>
-      </c>
-      <c r="F35" s="71">
-        <v>264</v>
-      </c>
-      <c r="G35" s="72">
-        <v>55.5</v>
-      </c>
-      <c r="H35" s="72">
-        <v>31.25</v>
-      </c>
-      <c r="I35">
-        <f t="shared" si="56"/>
-        <v>144.88288288288288</v>
-      </c>
-      <c r="J35" s="29">
-        <f t="shared" si="57"/>
-        <v>1377.0239999999999</v>
-      </c>
-      <c r="K35" s="31">
-        <v>10</v>
-      </c>
-      <c r="L35" s="31">
-        <v>10</v>
-      </c>
-      <c r="M35" s="29">
-        <v>0</v>
-      </c>
-      <c r="N35" s="29">
-        <v>0</v>
-      </c>
-      <c r="O35" s="29">
-        <f t="shared" si="58"/>
-        <v>1448.8288288288288</v>
-      </c>
-      <c r="P35" s="29">
-        <f t="shared" si="59"/>
-        <v>13770.24</v>
-      </c>
-      <c r="Q35" s="30">
-        <f t="shared" si="60"/>
-        <v>2.7906976744186047</v>
-      </c>
-      <c r="R35" s="30">
-        <f t="shared" si="61"/>
-        <v>0.41176470588235303</v>
-      </c>
-      <c r="S35" s="30">
-        <f t="shared" si="62"/>
-        <v>0.77600000000000002</v>
-      </c>
-      <c r="T35" s="30">
-        <f t="shared" si="63"/>
-        <v>8.5043939808481532</v>
-      </c>
-    </row>
-    <row r="36" spans="1:20" x14ac:dyDescent="0.15">
-      <c r="A36" s="89" t="s">
-        <v>234</v>
-      </c>
-      <c r="B36" s="29">
-        <v>34</v>
-      </c>
-      <c r="C36" s="73">
-        <v>43</v>
-      </c>
-      <c r="D36" s="73">
-        <v>163</v>
-      </c>
-      <c r="E36" s="71">
-        <v>187</v>
-      </c>
-      <c r="F36" s="71">
-        <v>264</v>
-      </c>
-      <c r="G36" s="72">
-        <v>55.5</v>
-      </c>
-      <c r="H36" s="72">
-        <v>31.25</v>
-      </c>
-      <c r="I36">
-        <f t="shared" si="56"/>
-        <v>144.88288288288288</v>
-      </c>
-      <c r="J36" s="29">
-        <f t="shared" si="57"/>
-        <v>1377.0239999999999</v>
-      </c>
-      <c r="K36" s="31">
-        <v>10</v>
-      </c>
-      <c r="L36" s="31">
-        <v>10</v>
-      </c>
-      <c r="M36" s="29">
-        <v>0</v>
-      </c>
-      <c r="N36" s="29">
-        <v>0</v>
-      </c>
-      <c r="O36" s="29">
-        <f t="shared" si="58"/>
-        <v>1448.8288288288288</v>
-      </c>
-      <c r="P36" s="29">
-        <f t="shared" si="59"/>
-        <v>13770.24</v>
-      </c>
-      <c r="Q36" s="30">
-        <f t="shared" si="60"/>
-        <v>2.7906976744186047</v>
-      </c>
-      <c r="R36" s="30">
-        <f t="shared" si="61"/>
-        <v>0.41176470588235303</v>
-      </c>
-      <c r="S36" s="30">
-        <f t="shared" si="62"/>
-        <v>0.77600000000000002</v>
-      </c>
-      <c r="T36" s="30">
-        <f t="shared" si="63"/>
-        <v>8.5043939808481532</v>
-      </c>
-    </row>
-    <row r="37" spans="1:20" x14ac:dyDescent="0.15">
-      <c r="A37" s="89" t="s">
-        <v>235</v>
-      </c>
-      <c r="B37" s="29">
-        <v>35</v>
-      </c>
-      <c r="C37" s="73">
-        <v>43</v>
-      </c>
-      <c r="D37" s="73">
-        <v>163</v>
-      </c>
-      <c r="E37" s="71">
-        <v>187</v>
-      </c>
-      <c r="F37" s="71">
-        <v>264</v>
-      </c>
-      <c r="G37" s="72">
-        <v>55.5</v>
-      </c>
-      <c r="H37" s="72">
-        <v>31.25</v>
-      </c>
-      <c r="I37">
-        <f t="shared" si="56"/>
-        <v>144.88288288288288</v>
-      </c>
-      <c r="J37" s="29">
-        <f t="shared" si="57"/>
-        <v>1377.0239999999999</v>
-      </c>
-      <c r="K37" s="31">
-        <v>10</v>
-      </c>
-      <c r="L37" s="31">
-        <v>10</v>
-      </c>
-      <c r="M37" s="29">
-        <v>0</v>
-      </c>
-      <c r="N37" s="29">
-        <v>0</v>
-      </c>
-      <c r="O37" s="29">
-        <f t="shared" si="58"/>
-        <v>1448.8288288288288</v>
-      </c>
-      <c r="P37" s="29">
-        <f t="shared" si="59"/>
-        <v>13770.24</v>
-      </c>
-      <c r="Q37" s="30">
-        <f t="shared" si="60"/>
-        <v>2.7906976744186047</v>
-      </c>
-      <c r="R37" s="30">
-        <f t="shared" si="61"/>
-        <v>0.41176470588235303</v>
-      </c>
-      <c r="S37" s="30">
-        <f t="shared" si="62"/>
-        <v>0.77600000000000002</v>
-      </c>
-      <c r="T37" s="30">
-        <f t="shared" si="63"/>
-        <v>8.5043939808481532</v>
-      </c>
-    </row>
-    <row r="43" spans="1:20" x14ac:dyDescent="0.15">
-      <c r="A43" s="69" t="s">
+    <row r="40" spans="1:20" x14ac:dyDescent="0.15">
+      <c r="A40" s="69" t="s">
         <v>199</v>
       </c>
-      <c r="D43" s="29">
+      <c r="D40" s="29">
         <v>450</v>
       </c>
-      <c r="F43" s="31">
+      <c r="F40" s="31">
         <v>550</v>
       </c>
-      <c r="H43" s="42">
+      <c r="H40" s="42">
         <v>15</v>
       </c>
     </row>
+    <row r="44" spans="1:20" x14ac:dyDescent="0.15">
+      <c r="A44" s="29" t="s">
+        <v>73</v>
+      </c>
+      <c r="B44" s="45" t="s">
+        <v>146</v>
+      </c>
+      <c r="E44" s="29">
+        <v>150</v>
+      </c>
+      <c r="F44" s="29">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="45" spans="1:20" x14ac:dyDescent="0.15">
+      <c r="A45" s="45" t="s">
+        <v>147</v>
+      </c>
+      <c r="B45" s="45" t="s">
+        <v>148</v>
+      </c>
+      <c r="C45" s="29">
+        <v>100</v>
+      </c>
+      <c r="D45" s="29">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="46" spans="1:20" x14ac:dyDescent="0.15">
+      <c r="A46" s="45" t="s">
+        <v>147</v>
+      </c>
+      <c r="B46" s="45" t="s">
+        <v>149</v>
+      </c>
+      <c r="G46" s="42">
+        <v>0.8</v>
+      </c>
+      <c r="H46" s="42">
+        <v>0.4</v>
+      </c>
+    </row>
     <row r="47" spans="1:20" x14ac:dyDescent="0.15">
-      <c r="A47" s="29" t="s">
-        <v>73</v>
+      <c r="A47" s="45" t="s">
+        <v>151</v>
       </c>
       <c r="B47" s="45" t="s">
-        <v>146</v>
-      </c>
-      <c r="E47" s="29">
-        <v>150</v>
-      </c>
-      <c r="F47" s="29">
-        <v>220</v>
+        <v>148</v>
+      </c>
+      <c r="C47" s="29">
+        <v>100</v>
+      </c>
+      <c r="D47" s="29">
+        <v>200</v>
       </c>
     </row>
     <row r="48" spans="1:20" x14ac:dyDescent="0.15">
       <c r="A48" s="45" t="s">
-        <v>147</v>
+        <v>152</v>
       </c>
       <c r="B48" s="45" t="s">
-        <v>148</v>
-      </c>
-      <c r="C48" s="29">
-        <v>100</v>
-      </c>
-      <c r="D48" s="29">
-        <v>200</v>
+        <v>149</v>
+      </c>
+      <c r="G48" s="42">
+        <v>1.2</v>
+      </c>
+      <c r="H48" s="42">
+        <v>2.1</v>
       </c>
     </row>
     <row r="49" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A49" s="45" t="s">
-        <v>147</v>
+        <v>150</v>
       </c>
       <c r="B49" s="45" t="s">
         <v>149</v>
       </c>
       <c r="G49" s="42">
-        <v>0.8</v>
+        <v>0.5</v>
       </c>
       <c r="H49" s="42">
-        <v>0.4</v>
-      </c>
-    </row>
-    <row r="50" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A50" s="45" t="s">
-        <v>151</v>
-      </c>
-      <c r="B50" s="45" t="s">
-        <v>148</v>
-      </c>
-      <c r="C50" s="29">
-        <v>100</v>
-      </c>
-      <c r="D50" s="29">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="51" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A51" s="45" t="s">
-        <v>152</v>
-      </c>
-      <c r="B51" s="45" t="s">
-        <v>149</v>
-      </c>
-      <c r="G51" s="42">
-        <v>1.2</v>
-      </c>
-      <c r="H51" s="42">
-        <v>2.1</v>
-      </c>
-    </row>
-    <row r="52" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A52" s="45" t="s">
-        <v>150</v>
-      </c>
-      <c r="B52" s="45" t="s">
-        <v>149</v>
-      </c>
-      <c r="G52" s="42">
-        <v>0.5</v>
-      </c>
-      <c r="H52" s="42">
         <v>0.2</v>
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="15" type="noConversion"/>
+  <phoneticPr fontId="16" type="noConversion"/>
   <conditionalFormatting sqref="C2:C16">
-    <cfRule type="dataBar" priority="230">
+    <cfRule type="dataBar" priority="250">
       <dataBar>
         <cfvo type="min"/>
         <cfvo type="max"/>
@@ -9891,7 +9664,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D2:D16">
-    <cfRule type="dataBar" priority="236">
+    <cfRule type="dataBar" priority="256">
       <dataBar>
         <cfvo type="min"/>
         <cfvo type="max"/>
@@ -9905,7 +9678,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E2:E21">
-    <cfRule type="dataBar" priority="235">
+    <cfRule type="dataBar" priority="255">
       <dataBar>
         <cfvo type="min"/>
         <cfvo type="max"/>
@@ -9919,7 +9692,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F2:F21">
-    <cfRule type="dataBar" priority="234">
+    <cfRule type="dataBar" priority="254">
       <dataBar>
         <cfvo type="min"/>
         <cfvo type="max"/>
@@ -9933,7 +9706,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G2:G21">
-    <cfRule type="dataBar" priority="233">
+    <cfRule type="dataBar" priority="253">
       <dataBar>
         <cfvo type="min"/>
         <cfvo type="max"/>
@@ -9947,7 +9720,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H2:H21">
-    <cfRule type="dataBar" priority="232">
+    <cfRule type="dataBar" priority="252">
       <dataBar>
         <cfvo type="min"/>
         <cfvo type="max"/>
@@ -9961,7 +9734,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C2:D16">
-    <cfRule type="dataBar" priority="231">
+    <cfRule type="dataBar" priority="251">
       <dataBar>
         <cfvo type="min"/>
         <cfvo type="max"/>
@@ -9975,7 +9748,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E22">
-    <cfRule type="dataBar" priority="228">
+    <cfRule type="dataBar" priority="248">
       <dataBar>
         <cfvo type="min"/>
         <cfvo type="max"/>
@@ -9989,7 +9762,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F22">
-    <cfRule type="dataBar" priority="227">
+    <cfRule type="dataBar" priority="247">
       <dataBar>
         <cfvo type="min"/>
         <cfvo type="max"/>
@@ -10003,7 +9776,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G22">
-    <cfRule type="dataBar" priority="226">
+    <cfRule type="dataBar" priority="246">
       <dataBar>
         <cfvo type="min"/>
         <cfvo type="max"/>
@@ -10017,7 +9790,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H22">
-    <cfRule type="dataBar" priority="225">
+    <cfRule type="dataBar" priority="245">
       <dataBar>
         <cfvo type="min"/>
         <cfvo type="max"/>
@@ -10031,7 +9804,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C2:C16">
-    <cfRule type="dataBar" priority="222">
+    <cfRule type="dataBar" priority="242">
       <dataBar>
         <cfvo type="min"/>
         <cfvo type="max"/>
@@ -10045,7 +9818,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D2:D16">
-    <cfRule type="dataBar" priority="221">
+    <cfRule type="dataBar" priority="241">
       <dataBar>
         <cfvo type="min"/>
         <cfvo type="max"/>
@@ -10059,7 +9832,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E2:E22">
-    <cfRule type="dataBar" priority="220">
+    <cfRule type="dataBar" priority="240">
       <dataBar>
         <cfvo type="min"/>
         <cfvo type="max"/>
@@ -10073,7 +9846,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F2:F22">
-    <cfRule type="dataBar" priority="219">
+    <cfRule type="dataBar" priority="239">
       <dataBar>
         <cfvo type="min"/>
         <cfvo type="max"/>
@@ -10087,7 +9860,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G2:G22">
-    <cfRule type="dataBar" priority="218">
+    <cfRule type="dataBar" priority="238">
       <dataBar>
         <cfvo type="min"/>
         <cfvo type="max"/>
@@ -10101,7 +9874,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H2:H22">
-    <cfRule type="dataBar" priority="217">
+    <cfRule type="dataBar" priority="237">
       <dataBar>
         <cfvo type="min"/>
         <cfvo type="max"/>
@@ -10115,7 +9888,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E23">
-    <cfRule type="dataBar" priority="215">
+    <cfRule type="dataBar" priority="235">
       <dataBar>
         <cfvo type="min"/>
         <cfvo type="max"/>
@@ -10129,7 +9902,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F23">
-    <cfRule type="dataBar" priority="214">
+    <cfRule type="dataBar" priority="234">
       <dataBar>
         <cfvo type="min"/>
         <cfvo type="max"/>
@@ -10143,7 +9916,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G23">
-    <cfRule type="dataBar" priority="213">
+    <cfRule type="dataBar" priority="233">
       <dataBar>
         <cfvo type="min"/>
         <cfvo type="max"/>
@@ -10157,7 +9930,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H23">
-    <cfRule type="dataBar" priority="212">
+    <cfRule type="dataBar" priority="232">
       <dataBar>
         <cfvo type="min"/>
         <cfvo type="max"/>
@@ -10171,7 +9944,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E23">
-    <cfRule type="dataBar" priority="207">
+    <cfRule type="dataBar" priority="227">
       <dataBar>
         <cfvo type="min"/>
         <cfvo type="max"/>
@@ -10185,7 +9958,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F23">
-    <cfRule type="dataBar" priority="206">
+    <cfRule type="dataBar" priority="226">
       <dataBar>
         <cfvo type="min"/>
         <cfvo type="max"/>
@@ -10199,7 +9972,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G23">
-    <cfRule type="dataBar" priority="205">
+    <cfRule type="dataBar" priority="225">
       <dataBar>
         <cfvo type="min"/>
         <cfvo type="max"/>
@@ -10213,7 +9986,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H23">
-    <cfRule type="dataBar" priority="204">
+    <cfRule type="dataBar" priority="224">
       <dataBar>
         <cfvo type="min"/>
         <cfvo type="max"/>
@@ -10227,7 +10000,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E24">
-    <cfRule type="dataBar" priority="202">
+    <cfRule type="dataBar" priority="222">
       <dataBar>
         <cfvo type="min"/>
         <cfvo type="max"/>
@@ -10241,7 +10014,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F24">
-    <cfRule type="dataBar" priority="201">
+    <cfRule type="dataBar" priority="221">
       <dataBar>
         <cfvo type="min"/>
         <cfvo type="max"/>
@@ -10255,7 +10028,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G24">
-    <cfRule type="dataBar" priority="200">
+    <cfRule type="dataBar" priority="220">
       <dataBar>
         <cfvo type="min"/>
         <cfvo type="max"/>
@@ -10269,7 +10042,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H24">
-    <cfRule type="dataBar" priority="199">
+    <cfRule type="dataBar" priority="219">
       <dataBar>
         <cfvo type="min"/>
         <cfvo type="max"/>
@@ -10283,7 +10056,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E24">
-    <cfRule type="dataBar" priority="194">
+    <cfRule type="dataBar" priority="214">
       <dataBar>
         <cfvo type="min"/>
         <cfvo type="max"/>
@@ -10297,7 +10070,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F24">
-    <cfRule type="dataBar" priority="193">
+    <cfRule type="dataBar" priority="213">
       <dataBar>
         <cfvo type="min"/>
         <cfvo type="max"/>
@@ -10311,7 +10084,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G24">
-    <cfRule type="dataBar" priority="192">
+    <cfRule type="dataBar" priority="212">
       <dataBar>
         <cfvo type="min"/>
         <cfvo type="max"/>
@@ -10325,7 +10098,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H24">
-    <cfRule type="dataBar" priority="191">
+    <cfRule type="dataBar" priority="211">
       <dataBar>
         <cfvo type="min"/>
         <cfvo type="max"/>
@@ -10339,7 +10112,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E25">
-    <cfRule type="dataBar" priority="189">
+    <cfRule type="dataBar" priority="209">
       <dataBar>
         <cfvo type="min"/>
         <cfvo type="max"/>
@@ -10353,7 +10126,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F25">
-    <cfRule type="dataBar" priority="188">
+    <cfRule type="dataBar" priority="208">
       <dataBar>
         <cfvo type="min"/>
         <cfvo type="max"/>
@@ -10367,7 +10140,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G25">
-    <cfRule type="dataBar" priority="187">
+    <cfRule type="dataBar" priority="207">
       <dataBar>
         <cfvo type="min"/>
         <cfvo type="max"/>
@@ -10381,7 +10154,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H25">
-    <cfRule type="dataBar" priority="186">
+    <cfRule type="dataBar" priority="206">
       <dataBar>
         <cfvo type="min"/>
         <cfvo type="max"/>
@@ -10395,7 +10168,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E25">
-    <cfRule type="dataBar" priority="181">
+    <cfRule type="dataBar" priority="201">
       <dataBar>
         <cfvo type="min"/>
         <cfvo type="max"/>
@@ -10409,7 +10182,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F25">
-    <cfRule type="dataBar" priority="180">
+    <cfRule type="dataBar" priority="200">
       <dataBar>
         <cfvo type="min"/>
         <cfvo type="max"/>
@@ -10423,7 +10196,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G25">
-    <cfRule type="dataBar" priority="179">
+    <cfRule type="dataBar" priority="199">
       <dataBar>
         <cfvo type="min"/>
         <cfvo type="max"/>
@@ -10437,7 +10210,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H25">
-    <cfRule type="dataBar" priority="178">
+    <cfRule type="dataBar" priority="198">
       <dataBar>
         <cfvo type="min"/>
         <cfvo type="max"/>
@@ -10451,7 +10224,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C2:C16">
-    <cfRule type="dataBar" priority="177">
+    <cfRule type="dataBar" priority="197">
       <dataBar>
         <cfvo type="min"/>
         <cfvo type="max"/>
@@ -10465,7 +10238,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D2:D16">
-    <cfRule type="dataBar" priority="176">
+    <cfRule type="dataBar" priority="196">
       <dataBar>
         <cfvo type="min"/>
         <cfvo type="max"/>
@@ -10479,7 +10252,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E2:E25">
-    <cfRule type="dataBar" priority="175">
+    <cfRule type="dataBar" priority="195">
       <dataBar>
         <cfvo type="min"/>
         <cfvo type="max"/>
@@ -10493,7 +10266,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F2:F25">
-    <cfRule type="dataBar" priority="174">
+    <cfRule type="dataBar" priority="194">
       <dataBar>
         <cfvo type="min"/>
         <cfvo type="max"/>
@@ -10507,7 +10280,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G2:G25">
-    <cfRule type="dataBar" priority="173">
+    <cfRule type="dataBar" priority="193">
       <dataBar>
         <cfvo type="min"/>
         <cfvo type="max"/>
@@ -10521,7 +10294,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H2:H25">
-    <cfRule type="dataBar" priority="172">
+    <cfRule type="dataBar" priority="192">
       <dataBar>
         <cfvo type="min"/>
         <cfvo type="max"/>
@@ -10535,7 +10308,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E26">
-    <cfRule type="dataBar" priority="170">
+    <cfRule type="dataBar" priority="190">
       <dataBar>
         <cfvo type="min"/>
         <cfvo type="max"/>
@@ -10549,7 +10322,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F26">
-    <cfRule type="dataBar" priority="169">
+    <cfRule type="dataBar" priority="189">
       <dataBar>
         <cfvo type="min"/>
         <cfvo type="max"/>
@@ -10563,7 +10336,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G26">
-    <cfRule type="dataBar" priority="168">
+    <cfRule type="dataBar" priority="188">
       <dataBar>
         <cfvo type="min"/>
         <cfvo type="max"/>
@@ -10577,7 +10350,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H26">
-    <cfRule type="dataBar" priority="167">
+    <cfRule type="dataBar" priority="187">
       <dataBar>
         <cfvo type="min"/>
         <cfvo type="max"/>
@@ -10591,7 +10364,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E26">
-    <cfRule type="dataBar" priority="162">
+    <cfRule type="dataBar" priority="182">
       <dataBar>
         <cfvo type="min"/>
         <cfvo type="max"/>
@@ -10605,7 +10378,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F26">
-    <cfRule type="dataBar" priority="161">
+    <cfRule type="dataBar" priority="181">
       <dataBar>
         <cfvo type="min"/>
         <cfvo type="max"/>
@@ -10619,7 +10392,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G26">
-    <cfRule type="dataBar" priority="160">
+    <cfRule type="dataBar" priority="180">
       <dataBar>
         <cfvo type="min"/>
         <cfvo type="max"/>
@@ -10633,7 +10406,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H26">
-    <cfRule type="dataBar" priority="159">
+    <cfRule type="dataBar" priority="179">
       <dataBar>
         <cfvo type="min"/>
         <cfvo type="max"/>
@@ -10647,7 +10420,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E26">
-    <cfRule type="dataBar" priority="156">
+    <cfRule type="dataBar" priority="176">
       <dataBar>
         <cfvo type="min"/>
         <cfvo type="max"/>
@@ -10661,7 +10434,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F26">
-    <cfRule type="dataBar" priority="155">
+    <cfRule type="dataBar" priority="175">
       <dataBar>
         <cfvo type="min"/>
         <cfvo type="max"/>
@@ -10675,7 +10448,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G26">
-    <cfRule type="dataBar" priority="154">
+    <cfRule type="dataBar" priority="174">
       <dataBar>
         <cfvo type="min"/>
         <cfvo type="max"/>
@@ -10689,7 +10462,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H26">
-    <cfRule type="dataBar" priority="153">
+    <cfRule type="dataBar" priority="173">
       <dataBar>
         <cfvo type="min"/>
         <cfvo type="max"/>
@@ -10703,7 +10476,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C2:C16">
-    <cfRule type="dataBar" priority="152">
+    <cfRule type="dataBar" priority="172">
       <dataBar>
         <cfvo type="min"/>
         <cfvo type="max"/>
@@ -10717,7 +10490,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E27">
-    <cfRule type="dataBar" priority="150">
+    <cfRule type="dataBar" priority="170">
       <dataBar>
         <cfvo type="min"/>
         <cfvo type="max"/>
@@ -10731,7 +10504,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F27">
-    <cfRule type="dataBar" priority="149">
+    <cfRule type="dataBar" priority="169">
       <dataBar>
         <cfvo type="min"/>
         <cfvo type="max"/>
@@ -10745,7 +10518,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G27">
-    <cfRule type="dataBar" priority="148">
+    <cfRule type="dataBar" priority="168">
       <dataBar>
         <cfvo type="min"/>
         <cfvo type="max"/>
@@ -10759,7 +10532,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H27">
-    <cfRule type="dataBar" priority="147">
+    <cfRule type="dataBar" priority="167">
       <dataBar>
         <cfvo type="min"/>
         <cfvo type="max"/>
@@ -10773,7 +10546,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E27">
-    <cfRule type="dataBar" priority="142">
+    <cfRule type="dataBar" priority="162">
       <dataBar>
         <cfvo type="min"/>
         <cfvo type="max"/>
@@ -10787,7 +10560,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F27">
-    <cfRule type="dataBar" priority="141">
+    <cfRule type="dataBar" priority="161">
       <dataBar>
         <cfvo type="min"/>
         <cfvo type="max"/>
@@ -10801,7 +10574,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G27">
-    <cfRule type="dataBar" priority="140">
+    <cfRule type="dataBar" priority="160">
       <dataBar>
         <cfvo type="min"/>
         <cfvo type="max"/>
@@ -10815,7 +10588,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H27">
-    <cfRule type="dataBar" priority="139">
+    <cfRule type="dataBar" priority="159">
       <dataBar>
         <cfvo type="min"/>
         <cfvo type="max"/>
@@ -10829,7 +10602,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E27">
-    <cfRule type="dataBar" priority="136">
+    <cfRule type="dataBar" priority="156">
       <dataBar>
         <cfvo type="min"/>
         <cfvo type="max"/>
@@ -10843,7 +10616,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F27">
-    <cfRule type="dataBar" priority="135">
+    <cfRule type="dataBar" priority="155">
       <dataBar>
         <cfvo type="min"/>
         <cfvo type="max"/>
@@ -10857,7 +10630,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G27">
-    <cfRule type="dataBar" priority="134">
+    <cfRule type="dataBar" priority="154">
       <dataBar>
         <cfvo type="min"/>
         <cfvo type="max"/>
@@ -10871,7 +10644,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H27">
-    <cfRule type="dataBar" priority="133">
+    <cfRule type="dataBar" priority="153">
       <dataBar>
         <cfvo type="min"/>
         <cfvo type="max"/>
@@ -10885,7 +10658,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H2:H27">
-    <cfRule type="dataBar" priority="131">
+    <cfRule type="dataBar" priority="151">
       <dataBar>
         <cfvo type="min"/>
         <cfvo type="max"/>
@@ -10899,7 +10672,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G2:G27">
-    <cfRule type="dataBar" priority="130">
+    <cfRule type="dataBar" priority="150">
       <dataBar>
         <cfvo type="min"/>
         <cfvo type="max"/>
@@ -10913,7 +10686,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F2:F27">
-    <cfRule type="dataBar" priority="129">
+    <cfRule type="dataBar" priority="149">
       <dataBar>
         <cfvo type="min"/>
         <cfvo type="max"/>
@@ -10927,7 +10700,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E2:E27">
-    <cfRule type="dataBar" priority="128">
+    <cfRule type="dataBar" priority="148">
       <dataBar>
         <cfvo type="min"/>
         <cfvo type="max"/>
@@ -10941,7 +10714,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D2:D16">
-    <cfRule type="dataBar" priority="127">
+    <cfRule type="dataBar" priority="147">
       <dataBar>
         <cfvo type="min"/>
         <cfvo type="max"/>
@@ -10955,7 +10728,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C2:C16">
-    <cfRule type="dataBar" priority="126">
+    <cfRule type="dataBar" priority="146">
       <dataBar>
         <cfvo type="min"/>
         <cfvo type="max"/>
@@ -10969,7 +10742,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E28">
-    <cfRule type="dataBar" priority="124">
+    <cfRule type="dataBar" priority="144">
       <dataBar>
         <cfvo type="min"/>
         <cfvo type="max"/>
@@ -10983,7 +10756,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F28">
-    <cfRule type="dataBar" priority="123">
+    <cfRule type="dataBar" priority="143">
       <dataBar>
         <cfvo type="min"/>
         <cfvo type="max"/>
@@ -10997,7 +10770,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G28">
-    <cfRule type="dataBar" priority="122">
+    <cfRule type="dataBar" priority="142">
       <dataBar>
         <cfvo type="min"/>
         <cfvo type="max"/>
@@ -11011,7 +10784,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H28">
-    <cfRule type="dataBar" priority="121">
+    <cfRule type="dataBar" priority="141">
       <dataBar>
         <cfvo type="min"/>
         <cfvo type="max"/>
@@ -11025,7 +10798,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E28">
-    <cfRule type="dataBar" priority="116">
+    <cfRule type="dataBar" priority="136">
       <dataBar>
         <cfvo type="min"/>
         <cfvo type="max"/>
@@ -11039,7 +10812,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F28">
-    <cfRule type="dataBar" priority="115">
+    <cfRule type="dataBar" priority="135">
       <dataBar>
         <cfvo type="min"/>
         <cfvo type="max"/>
@@ -11053,7 +10826,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G28">
-    <cfRule type="dataBar" priority="114">
+    <cfRule type="dataBar" priority="134">
       <dataBar>
         <cfvo type="min"/>
         <cfvo type="max"/>
@@ -11067,7 +10840,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H28">
-    <cfRule type="dataBar" priority="113">
+    <cfRule type="dataBar" priority="133">
       <dataBar>
         <cfvo type="min"/>
         <cfvo type="max"/>
@@ -11081,7 +10854,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E28">
-    <cfRule type="dataBar" priority="110">
+    <cfRule type="dataBar" priority="130">
       <dataBar>
         <cfvo type="min"/>
         <cfvo type="max"/>
@@ -11095,7 +10868,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F28">
-    <cfRule type="dataBar" priority="109">
+    <cfRule type="dataBar" priority="129">
       <dataBar>
         <cfvo type="min"/>
         <cfvo type="max"/>
@@ -11109,7 +10882,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G28">
-    <cfRule type="dataBar" priority="108">
+    <cfRule type="dataBar" priority="128">
       <dataBar>
         <cfvo type="min"/>
         <cfvo type="max"/>
@@ -11123,7 +10896,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H28">
-    <cfRule type="dataBar" priority="107">
+    <cfRule type="dataBar" priority="127">
       <dataBar>
         <cfvo type="min"/>
         <cfvo type="max"/>
@@ -11137,7 +10910,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H28">
-    <cfRule type="dataBar" priority="105">
+    <cfRule type="dataBar" priority="125">
       <dataBar>
         <cfvo type="min"/>
         <cfvo type="max"/>
@@ -11151,7 +10924,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G28">
-    <cfRule type="dataBar" priority="104">
+    <cfRule type="dataBar" priority="124">
       <dataBar>
         <cfvo type="min"/>
         <cfvo type="max"/>
@@ -11165,7 +10938,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F28">
-    <cfRule type="dataBar" priority="103">
+    <cfRule type="dataBar" priority="123">
       <dataBar>
         <cfvo type="min"/>
         <cfvo type="max"/>
@@ -11179,7 +10952,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E28">
-    <cfRule type="dataBar" priority="102">
+    <cfRule type="dataBar" priority="122">
       <dataBar>
         <cfvo type="min"/>
         <cfvo type="max"/>
@@ -11193,7 +10966,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E29">
-    <cfRule type="dataBar" priority="98">
+    <cfRule type="dataBar" priority="118">
       <dataBar>
         <cfvo type="min"/>
         <cfvo type="max"/>
@@ -11207,7 +10980,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F29">
-    <cfRule type="dataBar" priority="97">
+    <cfRule type="dataBar" priority="117">
       <dataBar>
         <cfvo type="min"/>
         <cfvo type="max"/>
@@ -11221,7 +10994,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G29">
-    <cfRule type="dataBar" priority="96">
+    <cfRule type="dataBar" priority="116">
       <dataBar>
         <cfvo type="min"/>
         <cfvo type="max"/>
@@ -11235,7 +11008,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H29">
-    <cfRule type="dataBar" priority="95">
+    <cfRule type="dataBar" priority="115">
       <dataBar>
         <cfvo type="min"/>
         <cfvo type="max"/>
@@ -11249,7 +11022,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E29">
-    <cfRule type="dataBar" priority="90">
+    <cfRule type="dataBar" priority="110">
       <dataBar>
         <cfvo type="min"/>
         <cfvo type="max"/>
@@ -11263,7 +11036,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F29">
-    <cfRule type="dataBar" priority="89">
+    <cfRule type="dataBar" priority="109">
       <dataBar>
         <cfvo type="min"/>
         <cfvo type="max"/>
@@ -11277,7 +11050,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G29">
-    <cfRule type="dataBar" priority="88">
+    <cfRule type="dataBar" priority="108">
       <dataBar>
         <cfvo type="min"/>
         <cfvo type="max"/>
@@ -11291,7 +11064,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H29">
-    <cfRule type="dataBar" priority="87">
+    <cfRule type="dataBar" priority="107">
       <dataBar>
         <cfvo type="min"/>
         <cfvo type="max"/>
@@ -11305,7 +11078,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E29">
-    <cfRule type="dataBar" priority="84">
+    <cfRule type="dataBar" priority="104">
       <dataBar>
         <cfvo type="min"/>
         <cfvo type="max"/>
@@ -11319,7 +11092,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F29">
-    <cfRule type="dataBar" priority="83">
+    <cfRule type="dataBar" priority="103">
       <dataBar>
         <cfvo type="min"/>
         <cfvo type="max"/>
@@ -11333,7 +11106,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G29">
-    <cfRule type="dataBar" priority="82">
+    <cfRule type="dataBar" priority="102">
       <dataBar>
         <cfvo type="min"/>
         <cfvo type="max"/>
@@ -11347,7 +11120,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H29">
-    <cfRule type="dataBar" priority="81">
+    <cfRule type="dataBar" priority="101">
       <dataBar>
         <cfvo type="min"/>
         <cfvo type="max"/>
@@ -11361,7 +11134,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H29">
-    <cfRule type="dataBar" priority="79">
+    <cfRule type="dataBar" priority="99">
       <dataBar>
         <cfvo type="min"/>
         <cfvo type="max"/>
@@ -11375,7 +11148,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G29">
-    <cfRule type="dataBar" priority="78">
+    <cfRule type="dataBar" priority="98">
       <dataBar>
         <cfvo type="min"/>
         <cfvo type="max"/>
@@ -11389,7 +11162,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F29">
-    <cfRule type="dataBar" priority="77">
+    <cfRule type="dataBar" priority="97">
       <dataBar>
         <cfvo type="min"/>
         <cfvo type="max"/>
@@ -11403,7 +11176,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E29">
-    <cfRule type="dataBar" priority="76">
+    <cfRule type="dataBar" priority="96">
       <dataBar>
         <cfvo type="min"/>
         <cfvo type="max"/>
@@ -11417,7 +11190,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E30">
-    <cfRule type="dataBar" priority="72">
+    <cfRule type="dataBar" priority="92">
       <dataBar>
         <cfvo type="min"/>
         <cfvo type="max"/>
@@ -11431,7 +11204,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F30">
-    <cfRule type="dataBar" priority="71">
+    <cfRule type="dataBar" priority="91">
       <dataBar>
         <cfvo type="min"/>
         <cfvo type="max"/>
@@ -11445,7 +11218,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G30">
-    <cfRule type="dataBar" priority="70">
+    <cfRule type="dataBar" priority="90">
       <dataBar>
         <cfvo type="min"/>
         <cfvo type="max"/>
@@ -11459,7 +11232,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H30">
-    <cfRule type="dataBar" priority="69">
+    <cfRule type="dataBar" priority="89">
       <dataBar>
         <cfvo type="min"/>
         <cfvo type="max"/>
@@ -11473,7 +11246,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E30">
-    <cfRule type="dataBar" priority="64">
+    <cfRule type="dataBar" priority="84">
       <dataBar>
         <cfvo type="min"/>
         <cfvo type="max"/>
@@ -11487,7 +11260,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F30">
-    <cfRule type="dataBar" priority="63">
+    <cfRule type="dataBar" priority="83">
       <dataBar>
         <cfvo type="min"/>
         <cfvo type="max"/>
@@ -11501,7 +11274,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G30">
-    <cfRule type="dataBar" priority="62">
+    <cfRule type="dataBar" priority="82">
       <dataBar>
         <cfvo type="min"/>
         <cfvo type="max"/>
@@ -11515,7 +11288,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H30">
-    <cfRule type="dataBar" priority="61">
+    <cfRule type="dataBar" priority="81">
       <dataBar>
         <cfvo type="min"/>
         <cfvo type="max"/>
@@ -11529,7 +11302,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E30">
-    <cfRule type="dataBar" priority="58">
+    <cfRule type="dataBar" priority="78">
       <dataBar>
         <cfvo type="min"/>
         <cfvo type="max"/>
@@ -11543,7 +11316,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F30">
-    <cfRule type="dataBar" priority="57">
+    <cfRule type="dataBar" priority="77">
       <dataBar>
         <cfvo type="min"/>
         <cfvo type="max"/>
@@ -11557,7 +11330,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G30">
-    <cfRule type="dataBar" priority="56">
+    <cfRule type="dataBar" priority="76">
       <dataBar>
         <cfvo type="min"/>
         <cfvo type="max"/>
@@ -11571,7 +11344,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H30">
-    <cfRule type="dataBar" priority="55">
+    <cfRule type="dataBar" priority="75">
       <dataBar>
         <cfvo type="min"/>
         <cfvo type="max"/>
@@ -11585,7 +11358,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H30">
-    <cfRule type="dataBar" priority="53">
+    <cfRule type="dataBar" priority="73">
       <dataBar>
         <cfvo type="min"/>
         <cfvo type="max"/>
@@ -11599,7 +11372,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G30">
-    <cfRule type="dataBar" priority="52">
+    <cfRule type="dataBar" priority="72">
       <dataBar>
         <cfvo type="min"/>
         <cfvo type="max"/>
@@ -11613,7 +11386,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F30">
-    <cfRule type="dataBar" priority="51">
+    <cfRule type="dataBar" priority="71">
       <dataBar>
         <cfvo type="min"/>
         <cfvo type="max"/>
@@ -11627,7 +11400,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E30">
-    <cfRule type="dataBar" priority="50">
+    <cfRule type="dataBar" priority="70">
       <dataBar>
         <cfvo type="min"/>
         <cfvo type="max"/>
@@ -11640,288 +11413,8 @@
       </extLst>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E31:E37">
-    <cfRule type="dataBar" priority="46">
-      <dataBar>
-        <cfvo type="min"/>
-        <cfvo type="max"/>
-        <color rgb="FF638EC6"/>
-      </dataBar>
-      <extLst>
-        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{0F128E99-3825-427B-918E-F1991F049FF5}</x14:id>
-        </ext>
-      </extLst>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F31:F37">
-    <cfRule type="dataBar" priority="45">
-      <dataBar>
-        <cfvo type="min"/>
-        <cfvo type="max"/>
-        <color rgb="FF638EC6"/>
-      </dataBar>
-      <extLst>
-        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{1F1D83C4-66BA-4FA9-92A2-5DB63140CBEE}</x14:id>
-        </ext>
-      </extLst>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G31:G37">
-    <cfRule type="dataBar" priority="44">
-      <dataBar>
-        <cfvo type="min"/>
-        <cfvo type="max"/>
-        <color rgb="FF638EC6"/>
-      </dataBar>
-      <extLst>
-        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{56E66349-051E-4E72-9416-78BD355D6659}</x14:id>
-        </ext>
-      </extLst>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H31:H37">
-    <cfRule type="dataBar" priority="43">
-      <dataBar>
-        <cfvo type="min"/>
-        <cfvo type="max"/>
-        <color rgb="FF638EC6"/>
-      </dataBar>
-      <extLst>
-        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{1AF772BD-AAA5-44A8-8A48-4B1AE05CC4FF}</x14:id>
-        </ext>
-      </extLst>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E31:E37">
-    <cfRule type="dataBar" priority="38">
-      <dataBar>
-        <cfvo type="min"/>
-        <cfvo type="max"/>
-        <color rgb="FF638EC6"/>
-      </dataBar>
-      <extLst>
-        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{7214DC48-18CB-41D3-9EC9-0FA1760AB59D}</x14:id>
-        </ext>
-      </extLst>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F31:F37">
+  <conditionalFormatting sqref="D2:D16">
     <cfRule type="dataBar" priority="37">
-      <dataBar>
-        <cfvo type="min"/>
-        <cfvo type="max"/>
-        <color rgb="FF638EC6"/>
-      </dataBar>
-      <extLst>
-        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{CC50572A-C98A-4011-A0EE-764F0E52B009}</x14:id>
-        </ext>
-      </extLst>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G31:G37">
-    <cfRule type="dataBar" priority="36">
-      <dataBar>
-        <cfvo type="min"/>
-        <cfvo type="max"/>
-        <color rgb="FF638EC6"/>
-      </dataBar>
-      <extLst>
-        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{B9183CBD-E680-4851-8C3D-E11856B378D9}</x14:id>
-        </ext>
-      </extLst>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H31:H37">
-    <cfRule type="dataBar" priority="35">
-      <dataBar>
-        <cfvo type="min"/>
-        <cfvo type="max"/>
-        <color rgb="FF638EC6"/>
-      </dataBar>
-      <extLst>
-        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{87C6E3E5-F039-4355-9C6D-7F27AC600195}</x14:id>
-        </ext>
-      </extLst>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E31:E37">
-    <cfRule type="dataBar" priority="32">
-      <dataBar>
-        <cfvo type="min"/>
-        <cfvo type="max"/>
-        <color rgb="FF638EC6"/>
-      </dataBar>
-      <extLst>
-        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{B4F5134D-54D6-47F3-94B2-5E01C7D5798C}</x14:id>
-        </ext>
-      </extLst>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F31:F37">
-    <cfRule type="dataBar" priority="31">
-      <dataBar>
-        <cfvo type="min"/>
-        <cfvo type="max"/>
-        <color rgb="FF638EC6"/>
-      </dataBar>
-      <extLst>
-        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{6A5D6414-FAEC-4E90-B05C-D182F1D2D8F6}</x14:id>
-        </ext>
-      </extLst>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G31:G37">
-    <cfRule type="dataBar" priority="30">
-      <dataBar>
-        <cfvo type="min"/>
-        <cfvo type="max"/>
-        <color rgb="FF638EC6"/>
-      </dataBar>
-      <extLst>
-        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{351C1A5C-D167-455C-BCFB-AFF3F2E3ADF8}</x14:id>
-        </ext>
-      </extLst>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H31:H37">
-    <cfRule type="dataBar" priority="29">
-      <dataBar>
-        <cfvo type="min"/>
-        <cfvo type="max"/>
-        <color rgb="FF638EC6"/>
-      </dataBar>
-      <extLst>
-        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{F5D270BB-8C0E-4675-AA1E-C153BA6DD413}</x14:id>
-        </ext>
-      </extLst>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H31:H37">
-    <cfRule type="dataBar" priority="27">
-      <dataBar>
-        <cfvo type="min"/>
-        <cfvo type="max"/>
-        <color rgb="FF638EC6"/>
-      </dataBar>
-      <extLst>
-        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{CD511C2F-1898-4E87-AA21-3EA8745DF507}</x14:id>
-        </ext>
-      </extLst>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G31:G37">
-    <cfRule type="dataBar" priority="26">
-      <dataBar>
-        <cfvo type="min"/>
-        <cfvo type="max"/>
-        <color rgb="FF638EC6"/>
-      </dataBar>
-      <extLst>
-        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{AB3321B5-3BB3-46F0-8DD4-3946ECA1FA9F}</x14:id>
-        </ext>
-      </extLst>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F31:F37">
-    <cfRule type="dataBar" priority="25">
-      <dataBar>
-        <cfvo type="min"/>
-        <cfvo type="max"/>
-        <color rgb="FF638EC6"/>
-      </dataBar>
-      <extLst>
-        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{748B6774-DEA6-49A0-80D6-E26F93B6065B}</x14:id>
-        </ext>
-      </extLst>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E31:E37">
-    <cfRule type="dataBar" priority="24">
-      <dataBar>
-        <cfvo type="min"/>
-        <cfvo type="max"/>
-        <color rgb="FF638EC6"/>
-      </dataBar>
-      <extLst>
-        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{E3570A8C-F70E-4AD5-814E-08DAB31B8DFB}</x14:id>
-        </ext>
-      </extLst>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H2:H37">
-    <cfRule type="dataBar" priority="21">
-      <dataBar>
-        <cfvo type="min"/>
-        <cfvo type="max"/>
-        <color rgb="FF638EC6"/>
-      </dataBar>
-      <extLst>
-        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{CF289883-97EC-4E47-9B10-A254BFA7401B}</x14:id>
-        </ext>
-      </extLst>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G2:G37">
-    <cfRule type="dataBar" priority="20">
-      <dataBar>
-        <cfvo type="min"/>
-        <cfvo type="max"/>
-        <color rgb="FF638EC6"/>
-      </dataBar>
-      <extLst>
-        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{C76DA141-81F0-4F73-A2C7-FDA3AC1430D7}</x14:id>
-        </ext>
-      </extLst>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F2:F37">
-    <cfRule type="dataBar" priority="19">
-      <dataBar>
-        <cfvo type="min"/>
-        <cfvo type="max"/>
-        <color rgb="FF638EC6"/>
-      </dataBar>
-      <extLst>
-        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{7856EB04-3B28-4659-992A-9ADF56C2DACC}</x14:id>
-        </ext>
-      </extLst>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E2:E37">
-    <cfRule type="dataBar" priority="18">
-      <dataBar>
-        <cfvo type="min"/>
-        <cfvo type="max"/>
-        <color rgb="FF638EC6"/>
-      </dataBar>
-      <extLst>
-        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{B7960D7A-EF1F-4A5D-9214-B4D75B3034F9}</x14:id>
-        </ext>
-      </extLst>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D2:D16">
-    <cfRule type="dataBar" priority="17">
       <dataBar>
         <cfvo type="min"/>
         <cfvo type="max"/>
@@ -11935,7 +11428,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C2:C16">
-    <cfRule type="dataBar" priority="16">
+    <cfRule type="dataBar" priority="36">
       <dataBar>
         <cfvo type="min"/>
         <cfvo type="max"/>
@@ -11948,8 +11441,260 @@
       </extLst>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C17:C37">
+  <conditionalFormatting sqref="G32">
+    <cfRule type="dataBar" priority="18">
+      <dataBar>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FF638EC6"/>
+      </dataBar>
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
+          <x14:id>{29FD0173-DFAC-424D-BCC8-F88EF6155222}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H32">
+    <cfRule type="dataBar" priority="17">
+      <dataBar>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FF638EC6"/>
+      </dataBar>
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
+          <x14:id>{90641F4A-0A84-406A-821A-E3057889939D}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G32">
+    <cfRule type="dataBar" priority="16">
+      <dataBar>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FF638EC6"/>
+      </dataBar>
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
+          <x14:id>{0FBC0EF9-6893-4F7A-9F4B-8CFE229A39BE}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H32">
+    <cfRule type="dataBar" priority="15">
+      <dataBar>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FF638EC6"/>
+      </dataBar>
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
+          <x14:id>{C3C87E37-3D3B-4141-91B3-5B61FDED7A5A}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G32">
     <cfRule type="dataBar" priority="14">
+      <dataBar>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FF638EC6"/>
+      </dataBar>
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
+          <x14:id>{2DA27B24-8BEE-4D8A-AC50-15FE5691ADD5}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H32">
+    <cfRule type="dataBar" priority="13">
+      <dataBar>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FF638EC6"/>
+      </dataBar>
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
+          <x14:id>{4ED2DC51-D3C3-42AB-B6F7-5BF583B42F56}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H32">
+    <cfRule type="dataBar" priority="12">
+      <dataBar>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FF638EC6"/>
+      </dataBar>
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
+          <x14:id>{62B11095-E1CB-4AB7-9A53-CE570651F494}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G32">
+    <cfRule type="dataBar" priority="11">
+      <dataBar>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FF638EC6"/>
+      </dataBar>
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
+          <x14:id>{672A3685-F298-44AD-958B-4A4CE11DEB3A}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H32">
+    <cfRule type="dataBar" priority="19">
+      <dataBar>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FF638EC6"/>
+      </dataBar>
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
+          <x14:id>{E8E2FC19-A289-4A3B-B475-9F02C5CD5FC4}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G32">
+    <cfRule type="dataBar" priority="20">
+      <dataBar>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FF638EC6"/>
+      </dataBar>
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
+          <x14:id>{FE5F84FE-08E3-4B62-B470-F2C06274CC7E}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E31:E34">
+    <cfRule type="dataBar" priority="330">
+      <dataBar>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FF638EC6"/>
+      </dataBar>
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
+          <x14:id>{0F128E99-3825-427B-918E-F1991F049FF5}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F31:F34">
+    <cfRule type="dataBar" priority="332">
+      <dataBar>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FF638EC6"/>
+      </dataBar>
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
+          <x14:id>{1F1D83C4-66BA-4FA9-92A2-5DB63140CBEE}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G33:G34 G31">
+    <cfRule type="dataBar" priority="334">
+      <dataBar>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FF638EC6"/>
+      </dataBar>
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
+          <x14:id>{56E66349-051E-4E72-9416-78BD355D6659}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H33:H34 H31">
+    <cfRule type="dataBar" priority="337">
+      <dataBar>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FF638EC6"/>
+      </dataBar>
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
+          <x14:id>{1AF772BD-AAA5-44A8-8A48-4B1AE05CC4FF}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H2:H31 H33:H34">
+    <cfRule type="dataBar" priority="340">
+      <dataBar>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FF638EC6"/>
+      </dataBar>
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
+          <x14:id>{CF289883-97EC-4E47-9B10-A254BFA7401B}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G2:G31 G33:G34">
+    <cfRule type="dataBar" priority="343">
+      <dataBar>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FF638EC6"/>
+      </dataBar>
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
+          <x14:id>{C76DA141-81F0-4F73-A2C7-FDA3AC1430D7}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F2:F34">
+    <cfRule type="dataBar" priority="3">
+      <dataBar>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FF638EC6"/>
+      </dataBar>
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
+          <x14:id>{7856EB04-3B28-4659-992A-9ADF56C2DACC}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E2:E34">
+    <cfRule type="dataBar" priority="4">
+      <dataBar>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FF638EC6"/>
+      </dataBar>
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
+          <x14:id>{B7960D7A-EF1F-4A5D-9214-B4D75B3034F9}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C17:C34">
+    <cfRule type="dataBar" priority="350">
       <dataBar>
         <cfvo type="min"/>
         <cfvo type="max"/>
@@ -11962,92 +11707,8 @@
       </extLst>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C17:C37">
-    <cfRule type="dataBar" priority="15">
-      <dataBar>
-        <cfvo type="min"/>
-        <cfvo type="max"/>
-        <color rgb="FF638EC6"/>
-      </dataBar>
-      <extLst>
-        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{357C300A-CD54-4C7C-B82D-A9C4F0910D8D}</x14:id>
-        </ext>
-      </extLst>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C17:C37">
-    <cfRule type="dataBar" priority="13">
-      <dataBar>
-        <cfvo type="min"/>
-        <cfvo type="max"/>
-        <color rgb="FF638EC6"/>
-      </dataBar>
-      <extLst>
-        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{74106AB9-EC1F-4D57-93D7-CB3A0EBBC877}</x14:id>
-        </ext>
-      </extLst>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C17:C37">
-    <cfRule type="dataBar" priority="12">
-      <dataBar>
-        <cfvo type="min"/>
-        <cfvo type="max"/>
-        <color rgb="FF638EC6"/>
-      </dataBar>
-      <extLst>
-        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{943CA12E-51AA-458E-880C-677FFCE34113}</x14:id>
-        </ext>
-      </extLst>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C17:C37">
-    <cfRule type="dataBar" priority="11">
-      <dataBar>
-        <cfvo type="min"/>
-        <cfvo type="max"/>
-        <color rgb="FF638EC6"/>
-      </dataBar>
-      <extLst>
-        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{37F8FE6F-B9AE-4B08-BEE5-6A817E2BAE6E}</x14:id>
-        </ext>
-      </extLst>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C17:C37">
-    <cfRule type="dataBar" priority="10">
-      <dataBar>
-        <cfvo type="min"/>
-        <cfvo type="max"/>
-        <color rgb="FF638EC6"/>
-      </dataBar>
-      <extLst>
-        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{F8B8C439-27F4-42D0-A43E-1443942774A0}</x14:id>
-        </ext>
-      </extLst>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C17:C37">
-    <cfRule type="dataBar" priority="9">
-      <dataBar>
-        <cfvo type="min"/>
-        <cfvo type="max"/>
-        <color rgb="FF638EC6"/>
-      </dataBar>
-      <extLst>
-        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{341CA779-030B-4640-9922-C84DC6FCD290}</x14:id>
-        </ext>
-      </extLst>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D17:D37">
-    <cfRule type="dataBar" priority="8">
+  <conditionalFormatting sqref="D17:D34">
+    <cfRule type="dataBar" priority="352">
       <dataBar>
         <cfvo type="min"/>
         <cfvo type="max"/>
@@ -12060,78 +11721,8 @@
       </extLst>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D17:D37">
-    <cfRule type="dataBar" priority="7">
-      <dataBar>
-        <cfvo type="min"/>
-        <cfvo type="max"/>
-        <color rgb="FF638EC6"/>
-      </dataBar>
-      <extLst>
-        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{A3FEFDB7-DDBE-4DC4-9BC3-4CD8529A821A}</x14:id>
-        </ext>
-      </extLst>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D17:D37">
-    <cfRule type="dataBar" priority="6">
-      <dataBar>
-        <cfvo type="min"/>
-        <cfvo type="max"/>
-        <color rgb="FF638EC6"/>
-      </dataBar>
-      <extLst>
-        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{826285C2-8872-454B-93A5-873D2EBFD138}</x14:id>
-        </ext>
-      </extLst>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D17:D37">
-    <cfRule type="dataBar" priority="5">
-      <dataBar>
-        <cfvo type="min"/>
-        <cfvo type="max"/>
-        <color rgb="FF638EC6"/>
-      </dataBar>
-      <extLst>
-        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{2370B446-180F-41DB-8412-F8C7A8AA1419}</x14:id>
-        </ext>
-      </extLst>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D17:D37">
-    <cfRule type="dataBar" priority="4">
-      <dataBar>
-        <cfvo type="min"/>
-        <cfvo type="max"/>
-        <color rgb="FF638EC6"/>
-      </dataBar>
-      <extLst>
-        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{3661F3DC-9400-4E37-8958-69EB3C3C1E56}</x14:id>
-        </ext>
-      </extLst>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D17:D37">
-    <cfRule type="dataBar" priority="3">
-      <dataBar>
-        <cfvo type="min"/>
-        <cfvo type="max"/>
-        <color rgb="FF638EC6"/>
-      </dataBar>
-      <extLst>
-        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{E6E65159-60FE-4DD5-AFD7-545873CB36CA}</x14:id>
-        </ext>
-      </extLst>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D2:D37">
-    <cfRule type="dataBar" priority="2">
+  <conditionalFormatting sqref="D2:D34">
+    <cfRule type="dataBar" priority="354">
       <dataBar>
         <cfvo type="min"/>
         <cfvo type="max"/>
@@ -12144,7 +11735,35 @@
       </extLst>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C2:C37">
+  <conditionalFormatting sqref="C2:C34">
+    <cfRule type="dataBar" priority="356">
+      <dataBar>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FF638EC6"/>
+      </dataBar>
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
+          <x14:id>{274C563F-56A1-4928-9E8E-FAB14D2D5FE6}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G2:G34">
+    <cfRule type="dataBar" priority="2">
+      <dataBar>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FF638EC6"/>
+      </dataBar>
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
+          <x14:id>{EE933291-4BF2-40D1-B039-7298BD31B845}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H2:H34">
     <cfRule type="dataBar" priority="1">
       <dataBar>
         <cfvo type="min"/>
@@ -12153,7 +11772,7 @@
       </dataBar>
       <extLst>
         <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{274C563F-56A1-4928-9E8E-FAB14D2D5FE6}</x14:id>
+          <x14:id>{D3ABBB82-F4CF-4EE0-9BFF-219C1FD236DA}</x14:id>
         </ext>
       </extLst>
     </cfRule>
@@ -13802,266 +13421,6 @@
           <xm:sqref>E30</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{0F128E99-3825-427B-918E-F1991F049FF5}">
-            <x14:dataBar minLength="0" maxLength="100" border="1" negativeBarBorderColorSameAsPositive="0">
-              <x14:cfvo type="autoMin"/>
-              <x14:cfvo type="autoMax"/>
-              <x14:borderColor rgb="FF638EC6"/>
-              <x14:negativeFillColor rgb="FFFF0000"/>
-              <x14:negativeBorderColor rgb="FFFF0000"/>
-              <x14:axisColor rgb="FF000000"/>
-            </x14:dataBar>
-          </x14:cfRule>
-          <xm:sqref>E31:E37</xm:sqref>
-        </x14:conditionalFormatting>
-        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{1F1D83C4-66BA-4FA9-92A2-5DB63140CBEE}">
-            <x14:dataBar minLength="0" maxLength="100" border="1" negativeBarBorderColorSameAsPositive="0">
-              <x14:cfvo type="autoMin"/>
-              <x14:cfvo type="autoMax"/>
-              <x14:borderColor rgb="FF638EC6"/>
-              <x14:negativeFillColor rgb="FFFF0000"/>
-              <x14:negativeBorderColor rgb="FFFF0000"/>
-              <x14:axisColor rgb="FF000000"/>
-            </x14:dataBar>
-          </x14:cfRule>
-          <xm:sqref>F31:F37</xm:sqref>
-        </x14:conditionalFormatting>
-        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{56E66349-051E-4E72-9416-78BD355D6659}">
-            <x14:dataBar minLength="0" maxLength="100" border="1" negativeBarBorderColorSameAsPositive="0">
-              <x14:cfvo type="autoMin"/>
-              <x14:cfvo type="autoMax"/>
-              <x14:borderColor rgb="FF638EC6"/>
-              <x14:negativeFillColor rgb="FFFF0000"/>
-              <x14:negativeBorderColor rgb="FFFF0000"/>
-              <x14:axisColor rgb="FF000000"/>
-            </x14:dataBar>
-          </x14:cfRule>
-          <xm:sqref>G31:G37</xm:sqref>
-        </x14:conditionalFormatting>
-        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{1AF772BD-AAA5-44A8-8A48-4B1AE05CC4FF}">
-            <x14:dataBar minLength="0" maxLength="100" border="1" negativeBarBorderColorSameAsPositive="0">
-              <x14:cfvo type="autoMin"/>
-              <x14:cfvo type="autoMax"/>
-              <x14:borderColor rgb="FF638EC6"/>
-              <x14:negativeFillColor rgb="FFFF0000"/>
-              <x14:negativeBorderColor rgb="FFFF0000"/>
-              <x14:axisColor rgb="FF000000"/>
-            </x14:dataBar>
-          </x14:cfRule>
-          <xm:sqref>H31:H37</xm:sqref>
-        </x14:conditionalFormatting>
-        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{7214DC48-18CB-41D3-9EC9-0FA1760AB59D}">
-            <x14:dataBar minLength="0" maxLength="100" border="1" negativeBarBorderColorSameAsPositive="0">
-              <x14:cfvo type="autoMin"/>
-              <x14:cfvo type="autoMax"/>
-              <x14:borderColor rgb="FF638EC6"/>
-              <x14:negativeFillColor rgb="FFFF0000"/>
-              <x14:negativeBorderColor rgb="FFFF0000"/>
-              <x14:axisColor rgb="FF000000"/>
-            </x14:dataBar>
-          </x14:cfRule>
-          <xm:sqref>E31:E37</xm:sqref>
-        </x14:conditionalFormatting>
-        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{CC50572A-C98A-4011-A0EE-764F0E52B009}">
-            <x14:dataBar minLength="0" maxLength="100" border="1" negativeBarBorderColorSameAsPositive="0">
-              <x14:cfvo type="autoMin"/>
-              <x14:cfvo type="autoMax"/>
-              <x14:borderColor rgb="FF638EC6"/>
-              <x14:negativeFillColor rgb="FFFF0000"/>
-              <x14:negativeBorderColor rgb="FFFF0000"/>
-              <x14:axisColor rgb="FF000000"/>
-            </x14:dataBar>
-          </x14:cfRule>
-          <xm:sqref>F31:F37</xm:sqref>
-        </x14:conditionalFormatting>
-        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{B9183CBD-E680-4851-8C3D-E11856B378D9}">
-            <x14:dataBar minLength="0" maxLength="100" border="1" negativeBarBorderColorSameAsPositive="0">
-              <x14:cfvo type="autoMin"/>
-              <x14:cfvo type="autoMax"/>
-              <x14:borderColor rgb="FF638EC6"/>
-              <x14:negativeFillColor rgb="FFFF0000"/>
-              <x14:negativeBorderColor rgb="FFFF0000"/>
-              <x14:axisColor rgb="FF000000"/>
-            </x14:dataBar>
-          </x14:cfRule>
-          <xm:sqref>G31:G37</xm:sqref>
-        </x14:conditionalFormatting>
-        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{87C6E3E5-F039-4355-9C6D-7F27AC600195}">
-            <x14:dataBar minLength="0" maxLength="100" border="1" negativeBarBorderColorSameAsPositive="0">
-              <x14:cfvo type="autoMin"/>
-              <x14:cfvo type="autoMax"/>
-              <x14:borderColor rgb="FF638EC6"/>
-              <x14:negativeFillColor rgb="FFFF0000"/>
-              <x14:negativeBorderColor rgb="FFFF0000"/>
-              <x14:axisColor rgb="FF000000"/>
-            </x14:dataBar>
-          </x14:cfRule>
-          <xm:sqref>H31:H37</xm:sqref>
-        </x14:conditionalFormatting>
-        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{B4F5134D-54D6-47F3-94B2-5E01C7D5798C}">
-            <x14:dataBar minLength="0" maxLength="100" border="1" negativeBarBorderColorSameAsPositive="0">
-              <x14:cfvo type="autoMin"/>
-              <x14:cfvo type="autoMax"/>
-              <x14:borderColor rgb="FF638EC6"/>
-              <x14:negativeFillColor rgb="FFFF0000"/>
-              <x14:negativeBorderColor rgb="FFFF0000"/>
-              <x14:axisColor rgb="FF000000"/>
-            </x14:dataBar>
-          </x14:cfRule>
-          <xm:sqref>E31:E37</xm:sqref>
-        </x14:conditionalFormatting>
-        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{6A5D6414-FAEC-4E90-B05C-D182F1D2D8F6}">
-            <x14:dataBar minLength="0" maxLength="100" border="1" negativeBarBorderColorSameAsPositive="0">
-              <x14:cfvo type="autoMin"/>
-              <x14:cfvo type="autoMax"/>
-              <x14:borderColor rgb="FF638EC6"/>
-              <x14:negativeFillColor rgb="FFFF0000"/>
-              <x14:negativeBorderColor rgb="FFFF0000"/>
-              <x14:axisColor rgb="FF000000"/>
-            </x14:dataBar>
-          </x14:cfRule>
-          <xm:sqref>F31:F37</xm:sqref>
-        </x14:conditionalFormatting>
-        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{351C1A5C-D167-455C-BCFB-AFF3F2E3ADF8}">
-            <x14:dataBar minLength="0" maxLength="100" border="1" negativeBarBorderColorSameAsPositive="0">
-              <x14:cfvo type="autoMin"/>
-              <x14:cfvo type="autoMax"/>
-              <x14:borderColor rgb="FF638EC6"/>
-              <x14:negativeFillColor rgb="FFFF0000"/>
-              <x14:negativeBorderColor rgb="FFFF0000"/>
-              <x14:axisColor rgb="FF000000"/>
-            </x14:dataBar>
-          </x14:cfRule>
-          <xm:sqref>G31:G37</xm:sqref>
-        </x14:conditionalFormatting>
-        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{F5D270BB-8C0E-4675-AA1E-C153BA6DD413}">
-            <x14:dataBar minLength="0" maxLength="100" border="1" negativeBarBorderColorSameAsPositive="0">
-              <x14:cfvo type="autoMin"/>
-              <x14:cfvo type="autoMax"/>
-              <x14:borderColor rgb="FF638EC6"/>
-              <x14:negativeFillColor rgb="FFFF0000"/>
-              <x14:negativeBorderColor rgb="FFFF0000"/>
-              <x14:axisColor rgb="FF000000"/>
-            </x14:dataBar>
-          </x14:cfRule>
-          <xm:sqref>H31:H37</xm:sqref>
-        </x14:conditionalFormatting>
-        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{CD511C2F-1898-4E87-AA21-3EA8745DF507}">
-            <x14:dataBar minLength="0" maxLength="100" border="1" negativeBarBorderColorSameAsPositive="0">
-              <x14:cfvo type="autoMin"/>
-              <x14:cfvo type="autoMax"/>
-              <x14:borderColor rgb="FF638EC6"/>
-              <x14:negativeFillColor rgb="FFFF0000"/>
-              <x14:negativeBorderColor rgb="FFFF0000"/>
-              <x14:axisColor rgb="FF000000"/>
-            </x14:dataBar>
-          </x14:cfRule>
-          <xm:sqref>H31:H37</xm:sqref>
-        </x14:conditionalFormatting>
-        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{AB3321B5-3BB3-46F0-8DD4-3946ECA1FA9F}">
-            <x14:dataBar minLength="0" maxLength="100" border="1" negativeBarBorderColorSameAsPositive="0">
-              <x14:cfvo type="autoMin"/>
-              <x14:cfvo type="autoMax"/>
-              <x14:borderColor rgb="FF638EC6"/>
-              <x14:negativeFillColor rgb="FFFF0000"/>
-              <x14:negativeBorderColor rgb="FFFF0000"/>
-              <x14:axisColor rgb="FF000000"/>
-            </x14:dataBar>
-          </x14:cfRule>
-          <xm:sqref>G31:G37</xm:sqref>
-        </x14:conditionalFormatting>
-        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{748B6774-DEA6-49A0-80D6-E26F93B6065B}">
-            <x14:dataBar minLength="0" maxLength="100" border="1" negativeBarBorderColorSameAsPositive="0">
-              <x14:cfvo type="autoMin"/>
-              <x14:cfvo type="autoMax"/>
-              <x14:borderColor rgb="FF638EC6"/>
-              <x14:negativeFillColor rgb="FFFF0000"/>
-              <x14:negativeBorderColor rgb="FFFF0000"/>
-              <x14:axisColor rgb="FF000000"/>
-            </x14:dataBar>
-          </x14:cfRule>
-          <xm:sqref>F31:F37</xm:sqref>
-        </x14:conditionalFormatting>
-        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{E3570A8C-F70E-4AD5-814E-08DAB31B8DFB}">
-            <x14:dataBar minLength="0" maxLength="100" border="1" negativeBarBorderColorSameAsPositive="0">
-              <x14:cfvo type="autoMin"/>
-              <x14:cfvo type="autoMax"/>
-              <x14:borderColor rgb="FF638EC6"/>
-              <x14:negativeFillColor rgb="FFFF0000"/>
-              <x14:negativeBorderColor rgb="FFFF0000"/>
-              <x14:axisColor rgb="FF000000"/>
-            </x14:dataBar>
-          </x14:cfRule>
-          <xm:sqref>E31:E37</xm:sqref>
-        </x14:conditionalFormatting>
-        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{CF289883-97EC-4E47-9B10-A254BFA7401B}">
-            <x14:dataBar minLength="0" maxLength="100" border="1" negativeBarBorderColorSameAsPositive="0">
-              <x14:cfvo type="autoMin"/>
-              <x14:cfvo type="autoMax"/>
-              <x14:borderColor rgb="FF638EC6"/>
-              <x14:negativeFillColor rgb="FFFF0000"/>
-              <x14:negativeBorderColor rgb="FFFF0000"/>
-              <x14:axisColor rgb="FF000000"/>
-            </x14:dataBar>
-          </x14:cfRule>
-          <xm:sqref>H2:H37</xm:sqref>
-        </x14:conditionalFormatting>
-        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{C76DA141-81F0-4F73-A2C7-FDA3AC1430D7}">
-            <x14:dataBar minLength="0" maxLength="100" border="1" negativeBarBorderColorSameAsPositive="0">
-              <x14:cfvo type="autoMin"/>
-              <x14:cfvo type="autoMax"/>
-              <x14:borderColor rgb="FF638EC6"/>
-              <x14:negativeFillColor rgb="FFFF0000"/>
-              <x14:negativeBorderColor rgb="FFFF0000"/>
-              <x14:axisColor rgb="FF000000"/>
-            </x14:dataBar>
-          </x14:cfRule>
-          <xm:sqref>G2:G37</xm:sqref>
-        </x14:conditionalFormatting>
-        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{7856EB04-3B28-4659-992A-9ADF56C2DACC}">
-            <x14:dataBar minLength="0" maxLength="100" border="1" negativeBarBorderColorSameAsPositive="0">
-              <x14:cfvo type="autoMin"/>
-              <x14:cfvo type="autoMax"/>
-              <x14:borderColor rgb="FF638EC6"/>
-              <x14:negativeFillColor rgb="FFFF0000"/>
-              <x14:negativeBorderColor rgb="FFFF0000"/>
-              <x14:axisColor rgb="FF000000"/>
-            </x14:dataBar>
-          </x14:cfRule>
-          <xm:sqref>F2:F37</xm:sqref>
-        </x14:conditionalFormatting>
-        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{B7960D7A-EF1F-4A5D-9214-B4D75B3034F9}">
-            <x14:dataBar minLength="0" maxLength="100" border="1" negativeBarBorderColorSameAsPositive="0">
-              <x14:cfvo type="autoMin"/>
-              <x14:cfvo type="autoMax"/>
-              <x14:borderColor rgb="FF638EC6"/>
-              <x14:negativeFillColor rgb="FFFF0000"/>
-              <x14:negativeBorderColor rgb="FFFF0000"/>
-              <x14:axisColor rgb="FF000000"/>
-            </x14:dataBar>
-          </x14:cfRule>
-          <xm:sqref>E2:E37</xm:sqref>
-        </x14:conditionalFormatting>
-        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="dataBar" id="{13E430CA-46E5-4CE1-A1C0-8CB409012E1B}">
             <x14:dataBar minLength="0" maxLength="100" border="1" negativeBarBorderColorSameAsPositive="0">
               <x14:cfvo type="autoMin"/>
@@ -14088,6 +13447,240 @@
           <xm:sqref>C2:C16</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="dataBar" id="{29FD0173-DFAC-424D-BCC8-F88EF6155222}">
+            <x14:dataBar minLength="0" maxLength="100" border="1" negativeBarBorderColorSameAsPositive="0">
+              <x14:cfvo type="autoMin"/>
+              <x14:cfvo type="autoMax"/>
+              <x14:borderColor rgb="FF638EC6"/>
+              <x14:negativeFillColor rgb="FFFF0000"/>
+              <x14:negativeBorderColor rgb="FFFF0000"/>
+              <x14:axisColor rgb="FF000000"/>
+            </x14:dataBar>
+          </x14:cfRule>
+          <xm:sqref>G32</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="dataBar" id="{90641F4A-0A84-406A-821A-E3057889939D}">
+            <x14:dataBar minLength="0" maxLength="100" border="1" negativeBarBorderColorSameAsPositive="0">
+              <x14:cfvo type="autoMin"/>
+              <x14:cfvo type="autoMax"/>
+              <x14:borderColor rgb="FF638EC6"/>
+              <x14:negativeFillColor rgb="FFFF0000"/>
+              <x14:negativeBorderColor rgb="FFFF0000"/>
+              <x14:axisColor rgb="FF000000"/>
+            </x14:dataBar>
+          </x14:cfRule>
+          <xm:sqref>H32</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="dataBar" id="{0FBC0EF9-6893-4F7A-9F4B-8CFE229A39BE}">
+            <x14:dataBar minLength="0" maxLength="100" border="1" negativeBarBorderColorSameAsPositive="0">
+              <x14:cfvo type="autoMin"/>
+              <x14:cfvo type="autoMax"/>
+              <x14:borderColor rgb="FF638EC6"/>
+              <x14:negativeFillColor rgb="FFFF0000"/>
+              <x14:negativeBorderColor rgb="FFFF0000"/>
+              <x14:axisColor rgb="FF000000"/>
+            </x14:dataBar>
+          </x14:cfRule>
+          <xm:sqref>G32</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="dataBar" id="{C3C87E37-3D3B-4141-91B3-5B61FDED7A5A}">
+            <x14:dataBar minLength="0" maxLength="100" border="1" negativeBarBorderColorSameAsPositive="0">
+              <x14:cfvo type="autoMin"/>
+              <x14:cfvo type="autoMax"/>
+              <x14:borderColor rgb="FF638EC6"/>
+              <x14:negativeFillColor rgb="FFFF0000"/>
+              <x14:negativeBorderColor rgb="FFFF0000"/>
+              <x14:axisColor rgb="FF000000"/>
+            </x14:dataBar>
+          </x14:cfRule>
+          <xm:sqref>H32</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="dataBar" id="{2DA27B24-8BEE-4D8A-AC50-15FE5691ADD5}">
+            <x14:dataBar minLength="0" maxLength="100" border="1" negativeBarBorderColorSameAsPositive="0">
+              <x14:cfvo type="autoMin"/>
+              <x14:cfvo type="autoMax"/>
+              <x14:borderColor rgb="FF638EC6"/>
+              <x14:negativeFillColor rgb="FFFF0000"/>
+              <x14:negativeBorderColor rgb="FFFF0000"/>
+              <x14:axisColor rgb="FF000000"/>
+            </x14:dataBar>
+          </x14:cfRule>
+          <xm:sqref>G32</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="dataBar" id="{4ED2DC51-D3C3-42AB-B6F7-5BF583B42F56}">
+            <x14:dataBar minLength="0" maxLength="100" border="1" negativeBarBorderColorSameAsPositive="0">
+              <x14:cfvo type="autoMin"/>
+              <x14:cfvo type="autoMax"/>
+              <x14:borderColor rgb="FF638EC6"/>
+              <x14:negativeFillColor rgb="FFFF0000"/>
+              <x14:negativeBorderColor rgb="FFFF0000"/>
+              <x14:axisColor rgb="FF000000"/>
+            </x14:dataBar>
+          </x14:cfRule>
+          <xm:sqref>H32</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="dataBar" id="{62B11095-E1CB-4AB7-9A53-CE570651F494}">
+            <x14:dataBar minLength="0" maxLength="100" border="1" negativeBarBorderColorSameAsPositive="0">
+              <x14:cfvo type="autoMin"/>
+              <x14:cfvo type="autoMax"/>
+              <x14:borderColor rgb="FF638EC6"/>
+              <x14:negativeFillColor rgb="FFFF0000"/>
+              <x14:negativeBorderColor rgb="FFFF0000"/>
+              <x14:axisColor rgb="FF000000"/>
+            </x14:dataBar>
+          </x14:cfRule>
+          <xm:sqref>H32</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="dataBar" id="{672A3685-F298-44AD-958B-4A4CE11DEB3A}">
+            <x14:dataBar minLength="0" maxLength="100" border="1" negativeBarBorderColorSameAsPositive="0">
+              <x14:cfvo type="autoMin"/>
+              <x14:cfvo type="autoMax"/>
+              <x14:borderColor rgb="FF638EC6"/>
+              <x14:negativeFillColor rgb="FFFF0000"/>
+              <x14:negativeBorderColor rgb="FFFF0000"/>
+              <x14:axisColor rgb="FF000000"/>
+            </x14:dataBar>
+          </x14:cfRule>
+          <xm:sqref>G32</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="dataBar" id="{E8E2FC19-A289-4A3B-B475-9F02C5CD5FC4}">
+            <x14:dataBar minLength="0" maxLength="100" border="1" negativeBarBorderColorSameAsPositive="0">
+              <x14:cfvo type="autoMin"/>
+              <x14:cfvo type="autoMax"/>
+              <x14:borderColor rgb="FF638EC6"/>
+              <x14:negativeFillColor rgb="FFFF0000"/>
+              <x14:negativeBorderColor rgb="FFFF0000"/>
+              <x14:axisColor rgb="FF000000"/>
+            </x14:dataBar>
+          </x14:cfRule>
+          <xm:sqref>H32</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="dataBar" id="{FE5F84FE-08E3-4B62-B470-F2C06274CC7E}">
+            <x14:dataBar minLength="0" maxLength="100" border="1" negativeBarBorderColorSameAsPositive="0">
+              <x14:cfvo type="autoMin"/>
+              <x14:cfvo type="autoMax"/>
+              <x14:borderColor rgb="FF638EC6"/>
+              <x14:negativeFillColor rgb="FFFF0000"/>
+              <x14:negativeBorderColor rgb="FFFF0000"/>
+              <x14:axisColor rgb="FF000000"/>
+            </x14:dataBar>
+          </x14:cfRule>
+          <xm:sqref>G32</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="dataBar" id="{0F128E99-3825-427B-918E-F1991F049FF5}">
+            <x14:dataBar minLength="0" maxLength="100" border="1" negativeBarBorderColorSameAsPositive="0">
+              <x14:cfvo type="autoMin"/>
+              <x14:cfvo type="autoMax"/>
+              <x14:borderColor rgb="FF638EC6"/>
+              <x14:negativeFillColor rgb="FFFF0000"/>
+              <x14:negativeBorderColor rgb="FFFF0000"/>
+              <x14:axisColor rgb="FF000000"/>
+            </x14:dataBar>
+          </x14:cfRule>
+          <xm:sqref>E31:E34</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="dataBar" id="{1F1D83C4-66BA-4FA9-92A2-5DB63140CBEE}">
+            <x14:dataBar minLength="0" maxLength="100" border="1" negativeBarBorderColorSameAsPositive="0">
+              <x14:cfvo type="autoMin"/>
+              <x14:cfvo type="autoMax"/>
+              <x14:borderColor rgb="FF638EC6"/>
+              <x14:negativeFillColor rgb="FFFF0000"/>
+              <x14:negativeBorderColor rgb="FFFF0000"/>
+              <x14:axisColor rgb="FF000000"/>
+            </x14:dataBar>
+          </x14:cfRule>
+          <xm:sqref>F31:F34</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="dataBar" id="{56E66349-051E-4E72-9416-78BD355D6659}">
+            <x14:dataBar minLength="0" maxLength="100" border="1" negativeBarBorderColorSameAsPositive="0">
+              <x14:cfvo type="autoMin"/>
+              <x14:cfvo type="autoMax"/>
+              <x14:borderColor rgb="FF638EC6"/>
+              <x14:negativeFillColor rgb="FFFF0000"/>
+              <x14:negativeBorderColor rgb="FFFF0000"/>
+              <x14:axisColor rgb="FF000000"/>
+            </x14:dataBar>
+          </x14:cfRule>
+          <xm:sqref>G33:G34 G31</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="dataBar" id="{1AF772BD-AAA5-44A8-8A48-4B1AE05CC4FF}">
+            <x14:dataBar minLength="0" maxLength="100" border="1" negativeBarBorderColorSameAsPositive="0">
+              <x14:cfvo type="autoMin"/>
+              <x14:cfvo type="autoMax"/>
+              <x14:borderColor rgb="FF638EC6"/>
+              <x14:negativeFillColor rgb="FFFF0000"/>
+              <x14:negativeBorderColor rgb="FFFF0000"/>
+              <x14:axisColor rgb="FF000000"/>
+            </x14:dataBar>
+          </x14:cfRule>
+          <xm:sqref>H33:H34 H31</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="dataBar" id="{CF289883-97EC-4E47-9B10-A254BFA7401B}">
+            <x14:dataBar minLength="0" maxLength="100" border="1" negativeBarBorderColorSameAsPositive="0">
+              <x14:cfvo type="autoMin"/>
+              <x14:cfvo type="autoMax"/>
+              <x14:borderColor rgb="FF638EC6"/>
+              <x14:negativeFillColor rgb="FFFF0000"/>
+              <x14:negativeBorderColor rgb="FFFF0000"/>
+              <x14:axisColor rgb="FF000000"/>
+            </x14:dataBar>
+          </x14:cfRule>
+          <xm:sqref>H2:H31 H33:H34</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="dataBar" id="{C76DA141-81F0-4F73-A2C7-FDA3AC1430D7}">
+            <x14:dataBar minLength="0" maxLength="100" border="1" negativeBarBorderColorSameAsPositive="0">
+              <x14:cfvo type="autoMin"/>
+              <x14:cfvo type="autoMax"/>
+              <x14:borderColor rgb="FF638EC6"/>
+              <x14:negativeFillColor rgb="FFFF0000"/>
+              <x14:negativeBorderColor rgb="FFFF0000"/>
+              <x14:axisColor rgb="FF000000"/>
+            </x14:dataBar>
+          </x14:cfRule>
+          <xm:sqref>G2:G31 G33:G34</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="dataBar" id="{7856EB04-3B28-4659-992A-9ADF56C2DACC}">
+            <x14:dataBar minLength="0" maxLength="100" border="1" negativeBarBorderColorSameAsPositive="0">
+              <x14:cfvo type="autoMin"/>
+              <x14:cfvo type="autoMax"/>
+              <x14:borderColor rgb="FF638EC6"/>
+              <x14:negativeFillColor rgb="FFFF0000"/>
+              <x14:negativeBorderColor rgb="FFFF0000"/>
+              <x14:axisColor rgb="FF000000"/>
+            </x14:dataBar>
+          </x14:cfRule>
+          <xm:sqref>F2:F34</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="dataBar" id="{B7960D7A-EF1F-4A5D-9214-B4D75B3034F9}">
+            <x14:dataBar minLength="0" maxLength="100" border="1" negativeBarBorderColorSameAsPositive="0">
+              <x14:cfvo type="autoMin"/>
+              <x14:cfvo type="autoMax"/>
+              <x14:borderColor rgb="FF638EC6"/>
+              <x14:negativeFillColor rgb="FFFF0000"/>
+              <x14:negativeBorderColor rgb="FFFF0000"/>
+              <x14:axisColor rgb="FF000000"/>
+            </x14:dataBar>
+          </x14:cfRule>
+          <xm:sqref>E2:E34</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="dataBar" id="{3DF2229F-5932-4705-ABC6-10E81DF4A8EE}">
             <x14:dataBar minLength="0" maxLength="100" border="1" negativeBarBorderColorSameAsPositive="0">
               <x14:cfvo type="autoMin"/>
@@ -14098,85 +13691,7 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <xm:sqref>C17:C37</xm:sqref>
-        </x14:conditionalFormatting>
-        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{357C300A-CD54-4C7C-B82D-A9C4F0910D8D}">
-            <x14:dataBar minLength="0" maxLength="100" border="1" negativeBarBorderColorSameAsPositive="0">
-              <x14:cfvo type="autoMin"/>
-              <x14:cfvo type="autoMax"/>
-              <x14:borderColor rgb="FF638EC6"/>
-              <x14:negativeFillColor rgb="FFFF0000"/>
-              <x14:negativeBorderColor rgb="FFFF0000"/>
-              <x14:axisColor rgb="FF000000"/>
-            </x14:dataBar>
-          </x14:cfRule>
-          <xm:sqref>C17:C37</xm:sqref>
-        </x14:conditionalFormatting>
-        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{74106AB9-EC1F-4D57-93D7-CB3A0EBBC877}">
-            <x14:dataBar minLength="0" maxLength="100" border="1" negativeBarBorderColorSameAsPositive="0">
-              <x14:cfvo type="autoMin"/>
-              <x14:cfvo type="autoMax"/>
-              <x14:borderColor rgb="FF638EC6"/>
-              <x14:negativeFillColor rgb="FFFF0000"/>
-              <x14:negativeBorderColor rgb="FFFF0000"/>
-              <x14:axisColor rgb="FF000000"/>
-            </x14:dataBar>
-          </x14:cfRule>
-          <xm:sqref>C17:C37</xm:sqref>
-        </x14:conditionalFormatting>
-        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{943CA12E-51AA-458E-880C-677FFCE34113}">
-            <x14:dataBar minLength="0" maxLength="100" border="1" negativeBarBorderColorSameAsPositive="0">
-              <x14:cfvo type="autoMin"/>
-              <x14:cfvo type="autoMax"/>
-              <x14:borderColor rgb="FF638EC6"/>
-              <x14:negativeFillColor rgb="FFFF0000"/>
-              <x14:negativeBorderColor rgb="FFFF0000"/>
-              <x14:axisColor rgb="FF000000"/>
-            </x14:dataBar>
-          </x14:cfRule>
-          <xm:sqref>C17:C37</xm:sqref>
-        </x14:conditionalFormatting>
-        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{37F8FE6F-B9AE-4B08-BEE5-6A817E2BAE6E}">
-            <x14:dataBar minLength="0" maxLength="100" border="1" negativeBarBorderColorSameAsPositive="0">
-              <x14:cfvo type="autoMin"/>
-              <x14:cfvo type="autoMax"/>
-              <x14:borderColor rgb="FF638EC6"/>
-              <x14:negativeFillColor rgb="FFFF0000"/>
-              <x14:negativeBorderColor rgb="FFFF0000"/>
-              <x14:axisColor rgb="FF000000"/>
-            </x14:dataBar>
-          </x14:cfRule>
-          <xm:sqref>C17:C37</xm:sqref>
-        </x14:conditionalFormatting>
-        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{F8B8C439-27F4-42D0-A43E-1443942774A0}">
-            <x14:dataBar minLength="0" maxLength="100" border="1" negativeBarBorderColorSameAsPositive="0">
-              <x14:cfvo type="autoMin"/>
-              <x14:cfvo type="autoMax"/>
-              <x14:borderColor rgb="FF638EC6"/>
-              <x14:negativeFillColor rgb="FFFF0000"/>
-              <x14:negativeBorderColor rgb="FFFF0000"/>
-              <x14:axisColor rgb="FF000000"/>
-            </x14:dataBar>
-          </x14:cfRule>
-          <xm:sqref>C17:C37</xm:sqref>
-        </x14:conditionalFormatting>
-        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{341CA779-030B-4640-9922-C84DC6FCD290}">
-            <x14:dataBar minLength="0" maxLength="100" border="1" negativeBarBorderColorSameAsPositive="0">
-              <x14:cfvo type="autoMin"/>
-              <x14:cfvo type="autoMax"/>
-              <x14:borderColor rgb="FF638EC6"/>
-              <x14:negativeFillColor rgb="FFFF0000"/>
-              <x14:negativeBorderColor rgb="FFFF0000"/>
-              <x14:axisColor rgb="FF000000"/>
-            </x14:dataBar>
-          </x14:cfRule>
-          <xm:sqref>C17:C37</xm:sqref>
+          <xm:sqref>C17:C34</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="dataBar" id="{7223CB01-D6ED-4702-AE0A-7553595ABDE7}">
@@ -14189,72 +13704,7 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <xm:sqref>D17:D37</xm:sqref>
-        </x14:conditionalFormatting>
-        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{A3FEFDB7-DDBE-4DC4-9BC3-4CD8529A821A}">
-            <x14:dataBar minLength="0" maxLength="100" border="1" negativeBarBorderColorSameAsPositive="0">
-              <x14:cfvo type="autoMin"/>
-              <x14:cfvo type="autoMax"/>
-              <x14:borderColor rgb="FF638EC6"/>
-              <x14:negativeFillColor rgb="FFFF0000"/>
-              <x14:negativeBorderColor rgb="FFFF0000"/>
-              <x14:axisColor rgb="FF000000"/>
-            </x14:dataBar>
-          </x14:cfRule>
-          <xm:sqref>D17:D37</xm:sqref>
-        </x14:conditionalFormatting>
-        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{826285C2-8872-454B-93A5-873D2EBFD138}">
-            <x14:dataBar minLength="0" maxLength="100" border="1" negativeBarBorderColorSameAsPositive="0">
-              <x14:cfvo type="autoMin"/>
-              <x14:cfvo type="autoMax"/>
-              <x14:borderColor rgb="FF638EC6"/>
-              <x14:negativeFillColor rgb="FFFF0000"/>
-              <x14:negativeBorderColor rgb="FFFF0000"/>
-              <x14:axisColor rgb="FF000000"/>
-            </x14:dataBar>
-          </x14:cfRule>
-          <xm:sqref>D17:D37</xm:sqref>
-        </x14:conditionalFormatting>
-        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{2370B446-180F-41DB-8412-F8C7A8AA1419}">
-            <x14:dataBar minLength="0" maxLength="100" border="1" negativeBarBorderColorSameAsPositive="0">
-              <x14:cfvo type="autoMin"/>
-              <x14:cfvo type="autoMax"/>
-              <x14:borderColor rgb="FF638EC6"/>
-              <x14:negativeFillColor rgb="FFFF0000"/>
-              <x14:negativeBorderColor rgb="FFFF0000"/>
-              <x14:axisColor rgb="FF000000"/>
-            </x14:dataBar>
-          </x14:cfRule>
-          <xm:sqref>D17:D37</xm:sqref>
-        </x14:conditionalFormatting>
-        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{3661F3DC-9400-4E37-8958-69EB3C3C1E56}">
-            <x14:dataBar minLength="0" maxLength="100" border="1" negativeBarBorderColorSameAsPositive="0">
-              <x14:cfvo type="autoMin"/>
-              <x14:cfvo type="autoMax"/>
-              <x14:borderColor rgb="FF638EC6"/>
-              <x14:negativeFillColor rgb="FFFF0000"/>
-              <x14:negativeBorderColor rgb="FFFF0000"/>
-              <x14:axisColor rgb="FF000000"/>
-            </x14:dataBar>
-          </x14:cfRule>
-          <xm:sqref>D17:D37</xm:sqref>
-        </x14:conditionalFormatting>
-        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{E6E65159-60FE-4DD5-AFD7-545873CB36CA}">
-            <x14:dataBar minLength="0" maxLength="100" border="1" negativeBarBorderColorSameAsPositive="0">
-              <x14:cfvo type="autoMin"/>
-              <x14:cfvo type="autoMax"/>
-              <x14:borderColor rgb="FF638EC6"/>
-              <x14:negativeFillColor rgb="FFFF0000"/>
-              <x14:negativeBorderColor rgb="FFFF0000"/>
-              <x14:axisColor rgb="FF000000"/>
-            </x14:dataBar>
-          </x14:cfRule>
-          <xm:sqref>D17:D37</xm:sqref>
+          <xm:sqref>D17:D34</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="dataBar" id="{F5EA6C89-95A4-4F8F-8703-AD56A2E56606}">
@@ -14267,7 +13717,7 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <xm:sqref>D2:D37</xm:sqref>
+          <xm:sqref>D2:D34</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="dataBar" id="{274C563F-56A1-4928-9E8E-FAB14D2D5FE6}">
@@ -14280,7 +13730,33 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <xm:sqref>C2:C37</xm:sqref>
+          <xm:sqref>C2:C34</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="dataBar" id="{EE933291-4BF2-40D1-B039-7298BD31B845}">
+            <x14:dataBar minLength="0" maxLength="100" border="1" negativeBarBorderColorSameAsPositive="0">
+              <x14:cfvo type="autoMin"/>
+              <x14:cfvo type="autoMax"/>
+              <x14:borderColor rgb="FF638EC6"/>
+              <x14:negativeFillColor rgb="FFFF0000"/>
+              <x14:negativeBorderColor rgb="FFFF0000"/>
+              <x14:axisColor rgb="FF000000"/>
+            </x14:dataBar>
+          </x14:cfRule>
+          <xm:sqref>G2:G34</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="dataBar" id="{D3ABBB82-F4CF-4EE0-9BFF-219C1FD236DA}">
+            <x14:dataBar minLength="0" maxLength="100" border="1" negativeBarBorderColorSameAsPositive="0">
+              <x14:cfvo type="autoMin"/>
+              <x14:cfvo type="autoMax"/>
+              <x14:borderColor rgb="FF638EC6"/>
+              <x14:negativeFillColor rgb="FFFF0000"/>
+              <x14:negativeBorderColor rgb="FFFF0000"/>
+              <x14:axisColor rgb="FF000000"/>
+            </x14:dataBar>
+          </x14:cfRule>
+          <xm:sqref>H2:H34</xm:sqref>
         </x14:conditionalFormatting>
       </x14:conditionalFormattings>
     </ext>
@@ -14588,7 +14064,7 @@
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="15" type="noConversion"/>
+  <phoneticPr fontId="16" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
@@ -15377,13 +14853,13 @@
       </c>
     </row>
     <row r="35" spans="2:11" x14ac:dyDescent="0.15">
-      <c r="B35" s="78">
+      <c r="B35" s="82">
         <v>6</v>
       </c>
-      <c r="C35" s="78" t="s">
+      <c r="C35" s="82" t="s">
         <v>62</v>
       </c>
-      <c r="D35" s="78" t="s">
+      <c r="D35" s="82" t="s">
         <v>63</v>
       </c>
       <c r="E35" s="11" t="s">
@@ -15411,9 +14887,9 @@
       </c>
     </row>
     <row r="36" spans="2:11" x14ac:dyDescent="0.15">
-      <c r="B36" s="78"/>
-      <c r="C36" s="78"/>
-      <c r="D36" s="78"/>
+      <c r="B36" s="82"/>
+      <c r="C36" s="82"/>
+      <c r="D36" s="82"/>
       <c r="E36" s="28" t="s">
         <v>1</v>
       </c>
@@ -15439,9 +14915,9 @@
       </c>
     </row>
     <row r="37" spans="2:11" x14ac:dyDescent="0.15">
-      <c r="B37" s="78"/>
-      <c r="C37" s="78"/>
-      <c r="D37" s="78"/>
+      <c r="B37" s="82"/>
+      <c r="C37" s="82"/>
+      <c r="D37" s="82"/>
       <c r="E37" s="28" t="s">
         <v>2</v>
       </c>
@@ -15468,6 +14944,18 @@
     </row>
   </sheetData>
   <mergeCells count="21">
+    <mergeCell ref="B35:B37"/>
+    <mergeCell ref="C35:C37"/>
+    <mergeCell ref="D35:D37"/>
+    <mergeCell ref="B29:B33"/>
+    <mergeCell ref="C29:C33"/>
+    <mergeCell ref="D29:D33"/>
+    <mergeCell ref="B19:B21"/>
+    <mergeCell ref="C19:C21"/>
+    <mergeCell ref="D19:D21"/>
+    <mergeCell ref="B23:B27"/>
+    <mergeCell ref="C23:C27"/>
+    <mergeCell ref="D23:D27"/>
     <mergeCell ref="B13:B17"/>
     <mergeCell ref="C13:C17"/>
     <mergeCell ref="D13:D17"/>
@@ -15477,20 +14965,8 @@
     <mergeCell ref="D8:D11"/>
     <mergeCell ref="C4:C6"/>
     <mergeCell ref="C8:C11"/>
-    <mergeCell ref="B19:B21"/>
-    <mergeCell ref="C19:C21"/>
-    <mergeCell ref="D19:D21"/>
-    <mergeCell ref="B23:B27"/>
-    <mergeCell ref="C23:C27"/>
-    <mergeCell ref="D23:D27"/>
-    <mergeCell ref="B35:B37"/>
-    <mergeCell ref="C35:C37"/>
-    <mergeCell ref="D35:D37"/>
-    <mergeCell ref="B29:B33"/>
-    <mergeCell ref="C29:C33"/>
-    <mergeCell ref="D29:D33"/>
   </mergeCells>
-  <phoneticPr fontId="15" type="noConversion"/>
+  <phoneticPr fontId="16" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
   <drawing r:id="rId2"/>
@@ -16136,7 +15612,7 @@
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="15" type="noConversion"/>
+  <phoneticPr fontId="16" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
@@ -16184,11 +15660,11 @@
         <v>94</v>
       </c>
       <c r="I2" s="2"/>
-      <c r="K2" s="83" t="s">
+      <c r="K2" s="84" t="s">
         <v>7</v>
       </c>
-      <c r="L2" s="84"/>
-      <c r="M2" s="85"/>
+      <c r="L2" s="85"/>
+      <c r="M2" s="86"/>
       <c r="O2" t="s">
         <v>23</v>
       </c>
@@ -16384,11 +15860,11 @@
       <c r="I8" s="9">
         <v>47</v>
       </c>
-      <c r="K8" s="82" t="s">
+      <c r="K8" s="83" t="s">
         <v>11</v>
       </c>
-      <c r="L8" s="82"/>
-      <c r="M8" s="82"/>
+      <c r="L8" s="83"/>
+      <c r="M8" s="83"/>
       <c r="O8" t="s">
         <v>23</v>
       </c>
@@ -16418,11 +15894,11 @@
       <c r="I9" s="1">
         <v>39</v>
       </c>
-      <c r="K9" s="82" t="s">
+      <c r="K9" s="83" t="s">
         <v>12</v>
       </c>
-      <c r="L9" s="82"/>
-      <c r="M9" s="82"/>
+      <c r="L9" s="83"/>
+      <c r="M9" s="83"/>
       <c r="O9" t="s">
         <v>23</v>
       </c>
@@ -16452,11 +15928,11 @@
       <c r="I10" s="1">
         <v>31</v>
       </c>
-      <c r="K10" s="82" t="s">
+      <c r="K10" s="83" t="s">
         <v>29</v>
       </c>
-      <c r="L10" s="82"/>
-      <c r="M10" s="82"/>
+      <c r="L10" s="83"/>
+      <c r="M10" s="83"/>
       <c r="O10" t="s">
         <v>23</v>
       </c>
@@ -16486,9 +15962,9 @@
       <c r="I11" s="8">
         <v>23</v>
       </c>
-      <c r="K11" s="82"/>
-      <c r="L11" s="82"/>
-      <c r="M11" s="82"/>
+      <c r="K11" s="83"/>
+      <c r="L11" s="83"/>
+      <c r="M11" s="83"/>
       <c r="O11" t="s">
         <v>23</v>
       </c>
@@ -16619,11 +16095,11 @@
       <c r="I18" s="9">
         <v>95</v>
       </c>
-      <c r="K18" s="83" t="s">
+      <c r="K18" s="84" t="s">
         <v>7</v>
       </c>
-      <c r="L18" s="84"/>
-      <c r="M18" s="85"/>
+      <c r="L18" s="85"/>
+      <c r="M18" s="86"/>
       <c r="O18" t="s">
         <v>26</v>
       </c>
@@ -16758,11 +16234,11 @@
       <c r="I22" s="9">
         <v>63</v>
       </c>
-      <c r="K22" s="82" t="s">
+      <c r="K22" s="83" t="s">
         <v>11</v>
       </c>
-      <c r="L22" s="82"/>
-      <c r="M22" s="82"/>
+      <c r="L22" s="83"/>
+      <c r="M22" s="83"/>
       <c r="O22" t="s">
         <v>25</v>
       </c>
@@ -16792,11 +16268,11 @@
       <c r="I23" s="8">
         <v>55</v>
       </c>
-      <c r="K23" s="82" t="s">
+      <c r="K23" s="83" t="s">
         <v>12</v>
       </c>
-      <c r="L23" s="82"/>
-      <c r="M23" s="82"/>
+      <c r="L23" s="83"/>
+      <c r="M23" s="83"/>
       <c r="O23" t="s">
         <v>25</v>
       </c>
@@ -16826,11 +16302,11 @@
       <c r="I24" s="8">
         <v>47</v>
       </c>
-      <c r="K24" s="82" t="s">
+      <c r="K24" s="83" t="s">
         <v>27</v>
       </c>
-      <c r="L24" s="82"/>
-      <c r="M24" s="82"/>
+      <c r="L24" s="83"/>
+      <c r="M24" s="83"/>
       <c r="O24" t="s">
         <v>25</v>
       </c>
@@ -16860,11 +16336,11 @@
       <c r="I25" s="9">
         <v>39</v>
       </c>
-      <c r="K25" s="82" t="s">
+      <c r="K25" s="83" t="s">
         <v>28</v>
       </c>
-      <c r="L25" s="82"/>
-      <c r="M25" s="82"/>
+      <c r="L25" s="83"/>
+      <c r="M25" s="83"/>
       <c r="O25" t="s">
         <v>25</v>
       </c>
@@ -16894,9 +16370,9 @@
       <c r="I26" s="8">
         <v>31</v>
       </c>
-      <c r="K26" s="86"/>
-      <c r="L26" s="86"/>
-      <c r="M26" s="86"/>
+      <c r="K26" s="87"/>
+      <c r="L26" s="87"/>
+      <c r="M26" s="87"/>
       <c r="O26" t="s">
         <v>25</v>
       </c>
@@ -16926,9 +16402,9 @@
       <c r="I27" s="9">
         <v>23</v>
       </c>
-      <c r="K27" s="86"/>
-      <c r="L27" s="86"/>
-      <c r="M27" s="86"/>
+      <c r="K27" s="87"/>
+      <c r="L27" s="87"/>
+      <c r="M27" s="87"/>
       <c r="O27" t="s">
         <v>25</v>
       </c>
@@ -17051,11 +16527,11 @@
       <c r="I34" s="9">
         <v>95</v>
       </c>
-      <c r="K34" s="83" t="s">
+      <c r="K34" s="84" t="s">
         <v>7</v>
       </c>
-      <c r="L34" s="84"/>
-      <c r="M34" s="85"/>
+      <c r="L34" s="85"/>
+      <c r="M34" s="86"/>
       <c r="O34" t="s">
         <v>31</v>
       </c>
@@ -17190,11 +16666,11 @@
       <c r="I38" s="9">
         <v>63</v>
       </c>
-      <c r="K38" s="82" t="s">
+      <c r="K38" s="83" t="s">
         <v>11</v>
       </c>
-      <c r="L38" s="82"/>
-      <c r="M38" s="82"/>
+      <c r="L38" s="83"/>
+      <c r="M38" s="83"/>
       <c r="O38" t="s">
         <v>30</v>
       </c>
@@ -17224,11 +16700,11 @@
       <c r="I39" s="9">
         <v>55</v>
       </c>
-      <c r="K39" s="82" t="s">
+      <c r="K39" s="83" t="s">
         <v>12</v>
       </c>
-      <c r="L39" s="82"/>
-      <c r="M39" s="82"/>
+      <c r="L39" s="83"/>
+      <c r="M39" s="83"/>
       <c r="O39" t="s">
         <v>30</v>
       </c>
@@ -17258,11 +16734,11 @@
       <c r="I40" s="9">
         <v>47</v>
       </c>
-      <c r="K40" s="82" t="s">
+      <c r="K40" s="83" t="s">
         <v>27</v>
       </c>
-      <c r="L40" s="82"/>
-      <c r="M40" s="82"/>
+      <c r="L40" s="83"/>
+      <c r="M40" s="83"/>
       <c r="O40" t="s">
         <v>30</v>
       </c>
@@ -17292,11 +16768,11 @@
       <c r="I41" s="9">
         <v>39</v>
       </c>
-      <c r="K41" s="82" t="s">
+      <c r="K41" s="83" t="s">
         <v>28</v>
       </c>
-      <c r="L41" s="82"/>
-      <c r="M41" s="82"/>
+      <c r="L41" s="83"/>
+      <c r="M41" s="83"/>
       <c r="O41" t="s">
         <v>30</v>
       </c>
@@ -17326,9 +16802,9 @@
       <c r="I42" s="8">
         <v>31</v>
       </c>
-      <c r="K42" s="82"/>
-      <c r="L42" s="82"/>
-      <c r="M42" s="82"/>
+      <c r="K42" s="83"/>
+      <c r="L42" s="83"/>
+      <c r="M42" s="83"/>
       <c r="O42" t="s">
         <v>30</v>
       </c>
@@ -17358,9 +16834,9 @@
       <c r="I43" s="9">
         <v>23</v>
       </c>
-      <c r="K43" s="82"/>
-      <c r="L43" s="82"/>
-      <c r="M43" s="82"/>
+      <c r="K43" s="83"/>
+      <c r="L43" s="83"/>
+      <c r="M43" s="83"/>
       <c r="O43" t="s">
         <v>30</v>
       </c>
@@ -17477,11 +16953,11 @@
       <c r="I50" s="8">
         <v>95</v>
       </c>
-      <c r="K50" s="83" t="s">
+      <c r="K50" s="84" t="s">
         <v>7</v>
       </c>
-      <c r="L50" s="84"/>
-      <c r="M50" s="85"/>
+      <c r="L50" s="85"/>
+      <c r="M50" s="86"/>
       <c r="O50" t="s">
         <v>35</v>
       </c>
@@ -17616,11 +17092,11 @@
       <c r="I54" s="8">
         <v>63</v>
       </c>
-      <c r="K54" s="82" t="s">
+      <c r="K54" s="83" t="s">
         <v>11</v>
       </c>
-      <c r="L54" s="82"/>
-      <c r="M54" s="82"/>
+      <c r="L54" s="83"/>
+      <c r="M54" s="83"/>
       <c r="O54" t="s">
         <v>33</v>
       </c>
@@ -17650,11 +17126,11 @@
       <c r="I55" s="9">
         <v>55</v>
       </c>
-      <c r="K55" s="82" t="s">
+      <c r="K55" s="83" t="s">
         <v>12</v>
       </c>
-      <c r="L55" s="82"/>
-      <c r="M55" s="82"/>
+      <c r="L55" s="83"/>
+      <c r="M55" s="83"/>
       <c r="O55" t="s">
         <v>33</v>
       </c>
@@ -17684,11 +17160,11 @@
       <c r="I56" s="9">
         <v>47</v>
       </c>
-      <c r="K56" s="82" t="s">
+      <c r="K56" s="83" t="s">
         <v>27</v>
       </c>
-      <c r="L56" s="82"/>
-      <c r="M56" s="82"/>
+      <c r="L56" s="83"/>
+      <c r="M56" s="83"/>
       <c r="O56" t="s">
         <v>33</v>
       </c>
@@ -17718,11 +17194,11 @@
       <c r="I57" s="9">
         <v>39</v>
       </c>
-      <c r="K57" s="82" t="s">
+      <c r="K57" s="83" t="s">
         <v>28</v>
       </c>
-      <c r="L57" s="82"/>
-      <c r="M57" s="82"/>
+      <c r="L57" s="83"/>
+      <c r="M57" s="83"/>
       <c r="O57" t="s">
         <v>33</v>
       </c>
@@ -17752,9 +17228,9 @@
       <c r="I58" s="9">
         <v>31</v>
       </c>
-      <c r="K58" s="82"/>
-      <c r="L58" s="82"/>
-      <c r="M58" s="82"/>
+      <c r="K58" s="83"/>
+      <c r="L58" s="83"/>
+      <c r="M58" s="83"/>
       <c r="O58" t="s">
         <v>33</v>
       </c>
@@ -17784,9 +17260,9 @@
       <c r="I59" s="9">
         <v>23</v>
       </c>
-      <c r="K59" s="82"/>
-      <c r="L59" s="82"/>
-      <c r="M59" s="82"/>
+      <c r="K59" s="83"/>
+      <c r="L59" s="83"/>
+      <c r="M59" s="83"/>
       <c r="O59" t="s">
         <v>33</v>
       </c>
@@ -17903,11 +17379,11 @@
       <c r="I66" s="8">
         <v>95</v>
       </c>
-      <c r="K66" s="83" t="s">
+      <c r="K66" s="84" t="s">
         <v>7</v>
       </c>
-      <c r="L66" s="84"/>
-      <c r="M66" s="85"/>
+      <c r="L66" s="85"/>
+      <c r="M66" s="86"/>
       <c r="O66" t="s">
         <v>38</v>
       </c>
@@ -18042,11 +17518,11 @@
       <c r="I70" s="9">
         <v>63</v>
       </c>
-      <c r="K70" s="82" t="s">
+      <c r="K70" s="83" t="s">
         <v>11</v>
       </c>
-      <c r="L70" s="82"/>
-      <c r="M70" s="82"/>
+      <c r="L70" s="83"/>
+      <c r="M70" s="83"/>
       <c r="O70" t="s">
         <v>36</v>
       </c>
@@ -18076,11 +17552,11 @@
       <c r="I71" s="9">
         <v>55</v>
       </c>
-      <c r="K71" s="82" t="s">
+      <c r="K71" s="83" t="s">
         <v>12</v>
       </c>
-      <c r="L71" s="82"/>
-      <c r="M71" s="82"/>
+      <c r="L71" s="83"/>
+      <c r="M71" s="83"/>
       <c r="O71" t="s">
         <v>36</v>
       </c>
@@ -18110,11 +17586,11 @@
       <c r="I72" s="9">
         <v>47</v>
       </c>
-      <c r="K72" s="82" t="s">
+      <c r="K72" s="83" t="s">
         <v>27</v>
       </c>
-      <c r="L72" s="82"/>
-      <c r="M72" s="82"/>
+      <c r="L72" s="83"/>
+      <c r="M72" s="83"/>
       <c r="O72" t="s">
         <v>36</v>
       </c>
@@ -18144,11 +17620,11 @@
       <c r="I73" s="9">
         <v>39</v>
       </c>
-      <c r="K73" s="82" t="s">
+      <c r="K73" s="83" t="s">
         <v>28</v>
       </c>
-      <c r="L73" s="82"/>
-      <c r="M73" s="82"/>
+      <c r="L73" s="83"/>
+      <c r="M73" s="83"/>
       <c r="O73" t="s">
         <v>36</v>
       </c>
@@ -18178,9 +17654,9 @@
       <c r="I74" s="9">
         <v>31</v>
       </c>
-      <c r="K74" s="82"/>
-      <c r="L74" s="82"/>
-      <c r="M74" s="82"/>
+      <c r="K74" s="83"/>
+      <c r="L74" s="83"/>
+      <c r="M74" s="83"/>
       <c r="O74" t="s">
         <v>36</v>
       </c>
@@ -18210,9 +17686,9 @@
       <c r="I75" s="9">
         <v>23</v>
       </c>
-      <c r="K75" s="82"/>
-      <c r="L75" s="82"/>
-      <c r="M75" s="82"/>
+      <c r="K75" s="83"/>
+      <c r="L75" s="83"/>
+      <c r="M75" s="83"/>
       <c r="O75" t="s">
         <v>36</v>
       </c>
@@ -18329,11 +17805,11 @@
       <c r="I82" s="8">
         <v>95</v>
       </c>
-      <c r="K82" s="83" t="s">
+      <c r="K82" s="84" t="s">
         <v>7</v>
       </c>
-      <c r="L82" s="84"/>
-      <c r="M82" s="85"/>
+      <c r="L82" s="85"/>
+      <c r="M82" s="86"/>
       <c r="O82" t="s">
         <v>40</v>
       </c>
@@ -18468,11 +17944,11 @@
       <c r="I86" s="8">
         <v>63</v>
       </c>
-      <c r="K86" s="82" t="s">
+      <c r="K86" s="83" t="s">
         <v>11</v>
       </c>
-      <c r="L86" s="82"/>
-      <c r="M86" s="82"/>
+      <c r="L86" s="83"/>
+      <c r="M86" s="83"/>
       <c r="O86" t="s">
         <v>39</v>
       </c>
@@ -18502,11 +17978,11 @@
       <c r="I87" s="8">
         <v>55</v>
       </c>
-      <c r="K87" s="82" t="s">
+      <c r="K87" s="83" t="s">
         <v>12</v>
       </c>
-      <c r="L87" s="82"/>
-      <c r="M87" s="82"/>
+      <c r="L87" s="83"/>
+      <c r="M87" s="83"/>
       <c r="O87" t="s">
         <v>39</v>
       </c>
@@ -18536,11 +18012,11 @@
       <c r="I88" s="1">
         <v>47</v>
       </c>
-      <c r="K88" s="82" t="s">
+      <c r="K88" s="83" t="s">
         <v>27</v>
       </c>
-      <c r="L88" s="82"/>
-      <c r="M88" s="82"/>
+      <c r="L88" s="83"/>
+      <c r="M88" s="83"/>
       <c r="O88" t="s">
         <v>39</v>
       </c>
@@ -18570,11 +18046,11 @@
       <c r="I89" s="8">
         <v>39</v>
       </c>
-      <c r="K89" s="82" t="s">
+      <c r="K89" s="83" t="s">
         <v>28</v>
       </c>
-      <c r="L89" s="82"/>
-      <c r="M89" s="82"/>
+      <c r="L89" s="83"/>
+      <c r="M89" s="83"/>
       <c r="O89" t="s">
         <v>39</v>
       </c>
@@ -18604,9 +18080,9 @@
       <c r="I90" s="1">
         <v>31</v>
       </c>
-      <c r="K90" s="82"/>
-      <c r="L90" s="82"/>
-      <c r="M90" s="82"/>
+      <c r="K90" s="83"/>
+      <c r="L90" s="83"/>
+      <c r="M90" s="83"/>
       <c r="O90" t="s">
         <v>39</v>
       </c>
@@ -18636,9 +18112,9 @@
       <c r="I91" s="8">
         <v>23</v>
       </c>
-      <c r="K91" s="82"/>
-      <c r="L91" s="82"/>
-      <c r="M91" s="82"/>
+      <c r="K91" s="83"/>
+      <c r="L91" s="83"/>
+      <c r="M91" s="83"/>
       <c r="O91" t="s">
         <v>39</v>
       </c>
@@ -18755,11 +18231,11 @@
       <c r="I98" s="8">
         <v>95</v>
       </c>
-      <c r="K98" s="83" t="s">
+      <c r="K98" s="84" t="s">
         <v>7</v>
       </c>
-      <c r="L98" s="84"/>
-      <c r="M98" s="85"/>
+      <c r="L98" s="85"/>
+      <c r="M98" s="86"/>
       <c r="O98" t="s">
         <v>115</v>
       </c>
@@ -18894,11 +18370,11 @@
       <c r="I102" s="8">
         <v>63</v>
       </c>
-      <c r="K102" s="82" t="s">
+      <c r="K102" s="83" t="s">
         <v>11</v>
       </c>
-      <c r="L102" s="82"/>
-      <c r="M102" s="82"/>
+      <c r="L102" s="83"/>
+      <c r="M102" s="83"/>
       <c r="O102" t="s">
         <v>113</v>
       </c>
@@ -18928,11 +18404,11 @@
       <c r="I103" s="1">
         <v>55</v>
       </c>
-      <c r="K103" s="82" t="s">
+      <c r="K103" s="83" t="s">
         <v>12</v>
       </c>
-      <c r="L103" s="82"/>
-      <c r="M103" s="82"/>
+      <c r="L103" s="83"/>
+      <c r="M103" s="83"/>
       <c r="O103" t="s">
         <v>113</v>
       </c>
@@ -18962,11 +18438,11 @@
       <c r="I104" s="8">
         <v>47</v>
       </c>
-      <c r="K104" s="82" t="s">
+      <c r="K104" s="83" t="s">
         <v>27</v>
       </c>
-      <c r="L104" s="82"/>
-      <c r="M104" s="82"/>
+      <c r="L104" s="83"/>
+      <c r="M104" s="83"/>
       <c r="O104" t="s">
         <v>113</v>
       </c>
@@ -18996,11 +18472,11 @@
       <c r="I105" s="1">
         <v>39</v>
       </c>
-      <c r="K105" s="82" t="s">
+      <c r="K105" s="83" t="s">
         <v>28</v>
       </c>
-      <c r="L105" s="82"/>
-      <c r="M105" s="82"/>
+      <c r="L105" s="83"/>
+      <c r="M105" s="83"/>
       <c r="O105" t="s">
         <v>113</v>
       </c>
@@ -19030,9 +18506,9 @@
       <c r="I106" s="1">
         <v>31</v>
       </c>
-      <c r="K106" s="82"/>
-      <c r="L106" s="82"/>
-      <c r="M106" s="82"/>
+      <c r="K106" s="83"/>
+      <c r="L106" s="83"/>
+      <c r="M106" s="83"/>
       <c r="O106" t="s">
         <v>113</v>
       </c>
@@ -19062,9 +18538,9 @@
       <c r="I107" s="1">
         <v>23</v>
       </c>
-      <c r="K107" s="82"/>
-      <c r="L107" s="82"/>
-      <c r="M107" s="82"/>
+      <c r="K107" s="83"/>
+      <c r="L107" s="83"/>
+      <c r="M107" s="83"/>
       <c r="O107" t="s">
         <v>113</v>
       </c>
@@ -19181,11 +18657,11 @@
       <c r="I114" s="1">
         <v>95</v>
       </c>
-      <c r="K114" s="83" t="s">
+      <c r="K114" s="84" t="s">
         <v>7</v>
       </c>
-      <c r="L114" s="84"/>
-      <c r="M114" s="85"/>
+      <c r="L114" s="85"/>
+      <c r="M114" s="86"/>
       <c r="O114" t="s">
         <v>116</v>
       </c>
@@ -19320,11 +18796,11 @@
       <c r="I118" s="1">
         <v>63</v>
       </c>
-      <c r="K118" s="82" t="s">
+      <c r="K118" s="83" t="s">
         <v>11</v>
       </c>
-      <c r="L118" s="82"/>
-      <c r="M118" s="82"/>
+      <c r="L118" s="83"/>
+      <c r="M118" s="83"/>
       <c r="O118" t="s">
         <v>116</v>
       </c>
@@ -19354,11 +18830,11 @@
       <c r="I119" s="1">
         <v>55</v>
       </c>
-      <c r="K119" s="82" t="s">
+      <c r="K119" s="83" t="s">
         <v>12</v>
       </c>
-      <c r="L119" s="82"/>
-      <c r="M119" s="82"/>
+      <c r="L119" s="83"/>
+      <c r="M119" s="83"/>
       <c r="O119" t="s">
         <v>116</v>
       </c>
@@ -19388,11 +18864,11 @@
       <c r="I120" s="1">
         <v>47</v>
       </c>
-      <c r="K120" s="82" t="s">
+      <c r="K120" s="83" t="s">
         <v>27</v>
       </c>
-      <c r="L120" s="82"/>
-      <c r="M120" s="82"/>
+      <c r="L120" s="83"/>
+      <c r="M120" s="83"/>
       <c r="O120" t="s">
         <v>116</v>
       </c>
@@ -19422,11 +18898,11 @@
       <c r="I121" s="8">
         <v>39</v>
       </c>
-      <c r="K121" s="82" t="s">
+      <c r="K121" s="83" t="s">
         <v>28</v>
       </c>
-      <c r="L121" s="82"/>
-      <c r="M121" s="82"/>
+      <c r="L121" s="83"/>
+      <c r="M121" s="83"/>
       <c r="O121" t="s">
         <v>116</v>
       </c>
@@ -19456,9 +18932,9 @@
       <c r="I122" s="1">
         <v>31</v>
       </c>
-      <c r="K122" s="82"/>
-      <c r="L122" s="82"/>
-      <c r="M122" s="82"/>
+      <c r="K122" s="83"/>
+      <c r="L122" s="83"/>
+      <c r="M122" s="83"/>
       <c r="O122" t="s">
         <v>116</v>
       </c>
@@ -19488,9 +18964,9 @@
       <c r="I123" s="8">
         <v>23</v>
       </c>
-      <c r="K123" s="82"/>
-      <c r="L123" s="82"/>
-      <c r="M123" s="82"/>
+      <c r="K123" s="83"/>
+      <c r="L123" s="83"/>
+      <c r="M123" s="83"/>
       <c r="O123" t="s">
         <v>116</v>
       </c>
@@ -19607,11 +19083,11 @@
       <c r="I130" s="8">
         <v>95</v>
       </c>
-      <c r="K130" s="83" t="s">
+      <c r="K130" s="84" t="s">
         <v>7</v>
       </c>
-      <c r="L130" s="84"/>
-      <c r="M130" s="85"/>
+      <c r="L130" s="85"/>
+      <c r="M130" s="86"/>
       <c r="O130" t="s">
         <v>119</v>
       </c>
@@ -19746,11 +19222,11 @@
       <c r="I134" s="1">
         <v>63</v>
       </c>
-      <c r="K134" s="82" t="s">
+      <c r="K134" s="83" t="s">
         <v>11</v>
       </c>
-      <c r="L134" s="82"/>
-      <c r="M134" s="82"/>
+      <c r="L134" s="83"/>
+      <c r="M134" s="83"/>
       <c r="O134" t="s">
         <v>119</v>
       </c>
@@ -19780,11 +19256,11 @@
       <c r="I135" s="1">
         <v>55</v>
       </c>
-      <c r="K135" s="82" t="s">
+      <c r="K135" s="83" t="s">
         <v>12</v>
       </c>
-      <c r="L135" s="82"/>
-      <c r="M135" s="82"/>
+      <c r="L135" s="83"/>
+      <c r="M135" s="83"/>
       <c r="O135" t="s">
         <v>119</v>
       </c>
@@ -19814,11 +19290,11 @@
       <c r="I136" s="1">
         <v>47</v>
       </c>
-      <c r="K136" s="82" t="s">
+      <c r="K136" s="83" t="s">
         <v>27</v>
       </c>
-      <c r="L136" s="82"/>
-      <c r="M136" s="82"/>
+      <c r="L136" s="83"/>
+      <c r="M136" s="83"/>
       <c r="O136" t="s">
         <v>119</v>
       </c>
@@ -19848,11 +19324,11 @@
       <c r="I137" s="1">
         <v>39</v>
       </c>
-      <c r="K137" s="82" t="s">
+      <c r="K137" s="83" t="s">
         <v>28</v>
       </c>
-      <c r="L137" s="82"/>
-      <c r="M137" s="82"/>
+      <c r="L137" s="83"/>
+      <c r="M137" s="83"/>
       <c r="O137" t="s">
         <v>119</v>
       </c>
@@ -19882,9 +19358,9 @@
       <c r="I138" s="1">
         <v>31</v>
       </c>
-      <c r="K138" s="82"/>
-      <c r="L138" s="82"/>
-      <c r="M138" s="82"/>
+      <c r="K138" s="83"/>
+      <c r="L138" s="83"/>
+      <c r="M138" s="83"/>
       <c r="O138" t="s">
         <v>119</v>
       </c>
@@ -19914,9 +19390,9 @@
       <c r="I139" s="8">
         <v>23</v>
       </c>
-      <c r="K139" s="82"/>
-      <c r="L139" s="82"/>
-      <c r="M139" s="82"/>
+      <c r="K139" s="83"/>
+      <c r="L139" s="83"/>
+      <c r="M139" s="83"/>
       <c r="O139" t="s">
         <v>119</v>
       </c>
@@ -20033,11 +19509,11 @@
       <c r="I146" s="1">
         <v>95</v>
       </c>
-      <c r="K146" s="83" t="s">
+      <c r="K146" s="84" t="s">
         <v>7</v>
       </c>
-      <c r="L146" s="84"/>
-      <c r="M146" s="85"/>
+      <c r="L146" s="85"/>
+      <c r="M146" s="86"/>
       <c r="O146" t="s">
         <v>122</v>
       </c>
@@ -20172,11 +19648,11 @@
       <c r="I150" s="3">
         <v>63</v>
       </c>
-      <c r="K150" s="82" t="s">
+      <c r="K150" s="83" t="s">
         <v>11</v>
       </c>
-      <c r="L150" s="82"/>
-      <c r="M150" s="82"/>
+      <c r="L150" s="83"/>
+      <c r="M150" s="83"/>
       <c r="O150" t="s">
         <v>122</v>
       </c>
@@ -20206,11 +19682,11 @@
       <c r="I151" s="3">
         <v>55</v>
       </c>
-      <c r="K151" s="82" t="s">
+      <c r="K151" s="83" t="s">
         <v>12</v>
       </c>
-      <c r="L151" s="82"/>
-      <c r="M151" s="82"/>
+      <c r="L151" s="83"/>
+      <c r="M151" s="83"/>
       <c r="O151" t="s">
         <v>122</v>
       </c>
@@ -20240,11 +19716,11 @@
       <c r="I152" s="8">
         <v>47</v>
       </c>
-      <c r="K152" s="82" t="s">
+      <c r="K152" s="83" t="s">
         <v>27</v>
       </c>
-      <c r="L152" s="82"/>
-      <c r="M152" s="82"/>
+      <c r="L152" s="83"/>
+      <c r="M152" s="83"/>
       <c r="O152" t="s">
         <v>122</v>
       </c>
@@ -20274,11 +19750,11 @@
       <c r="I153" s="8">
         <v>39</v>
       </c>
-      <c r="K153" s="82" t="s">
+      <c r="K153" s="83" t="s">
         <v>28</v>
       </c>
-      <c r="L153" s="82"/>
-      <c r="M153" s="82"/>
+      <c r="L153" s="83"/>
+      <c r="M153" s="83"/>
       <c r="O153" t="s">
         <v>122</v>
       </c>
@@ -20308,9 +19784,9 @@
       <c r="I154" s="3">
         <v>31</v>
       </c>
-      <c r="K154" s="82"/>
-      <c r="L154" s="82"/>
-      <c r="M154" s="82"/>
+      <c r="K154" s="83"/>
+      <c r="L154" s="83"/>
+      <c r="M154" s="83"/>
       <c r="O154" t="s">
         <v>122</v>
       </c>
@@ -20340,9 +19816,9 @@
       <c r="I155" s="3">
         <v>23</v>
       </c>
-      <c r="K155" s="82"/>
-      <c r="L155" s="82"/>
-      <c r="M155" s="82"/>
+      <c r="K155" s="83"/>
+      <c r="L155" s="83"/>
+      <c r="M155" s="83"/>
       <c r="O155" t="s">
         <v>122</v>
       </c>
@@ -20480,11 +19956,11 @@
       <c r="I165" s="9">
         <v>95</v>
       </c>
-      <c r="K165" s="83" t="s">
+      <c r="K165" s="84" t="s">
         <v>7</v>
       </c>
-      <c r="L165" s="84"/>
-      <c r="M165" s="85"/>
+      <c r="L165" s="85"/>
+      <c r="M165" s="86"/>
       <c r="O165" t="s">
         <v>122</v>
       </c>
@@ -20619,11 +20095,11 @@
       <c r="I169" s="9">
         <v>63</v>
       </c>
-      <c r="K169" s="82" t="s">
+      <c r="K169" s="83" t="s">
         <v>11</v>
       </c>
-      <c r="L169" s="82"/>
-      <c r="M169" s="82"/>
+      <c r="L169" s="83"/>
+      <c r="M169" s="83"/>
       <c r="O169" t="s">
         <v>122</v>
       </c>
@@ -20653,11 +20129,11 @@
       <c r="I170" s="9">
         <v>55</v>
       </c>
-      <c r="K170" s="82" t="s">
+      <c r="K170" s="83" t="s">
         <v>12</v>
       </c>
-      <c r="L170" s="82"/>
-      <c r="M170" s="82"/>
+      <c r="L170" s="83"/>
+      <c r="M170" s="83"/>
       <c r="O170" t="s">
         <v>122</v>
       </c>
@@ -20687,11 +20163,11 @@
       <c r="I171" s="9">
         <v>47</v>
       </c>
-      <c r="K171" s="82" t="s">
+      <c r="K171" s="83" t="s">
         <v>27</v>
       </c>
-      <c r="L171" s="82"/>
-      <c r="M171" s="82"/>
+      <c r="L171" s="83"/>
+      <c r="M171" s="83"/>
       <c r="O171" t="s">
         <v>122</v>
       </c>
@@ -20721,11 +20197,11 @@
       <c r="I172" s="9">
         <v>39</v>
       </c>
-      <c r="K172" s="82" t="s">
+      <c r="K172" s="83" t="s">
         <v>28</v>
       </c>
-      <c r="L172" s="82"/>
-      <c r="M172" s="82"/>
+      <c r="L172" s="83"/>
+      <c r="M172" s="83"/>
       <c r="O172" t="s">
         <v>122</v>
       </c>
@@ -20755,9 +20231,9 @@
       <c r="I173" s="9">
         <v>31</v>
       </c>
-      <c r="K173" s="82"/>
-      <c r="L173" s="82"/>
-      <c r="M173" s="82"/>
+      <c r="K173" s="83"/>
+      <c r="L173" s="83"/>
+      <c r="M173" s="83"/>
       <c r="O173" t="s">
         <v>122</v>
       </c>
@@ -20787,9 +20263,9 @@
       <c r="I174" s="9">
         <v>23</v>
       </c>
-      <c r="K174" s="82"/>
-      <c r="L174" s="82"/>
-      <c r="M174" s="82"/>
+      <c r="K174" s="83"/>
+      <c r="L174" s="83"/>
+      <c r="M174" s="83"/>
       <c r="O174" t="s">
         <v>122</v>
       </c>
@@ -20875,18 +20351,53 @@
     </row>
   </sheetData>
   <mergeCells count="75">
-    <mergeCell ref="K88:M88"/>
-    <mergeCell ref="K89:M89"/>
-    <mergeCell ref="K90:M90"/>
-    <mergeCell ref="K56:M56"/>
-    <mergeCell ref="K57:M57"/>
-    <mergeCell ref="K59:M59"/>
-    <mergeCell ref="K86:M86"/>
-    <mergeCell ref="K87:M87"/>
-    <mergeCell ref="K71:M71"/>
-    <mergeCell ref="K72:M72"/>
-    <mergeCell ref="K73:M73"/>
-    <mergeCell ref="K70:M70"/>
+    <mergeCell ref="K173:M173"/>
+    <mergeCell ref="K174:M174"/>
+    <mergeCell ref="K165:M165"/>
+    <mergeCell ref="K169:M169"/>
+    <mergeCell ref="K170:M170"/>
+    <mergeCell ref="K171:M171"/>
+    <mergeCell ref="K172:M172"/>
+    <mergeCell ref="K153:M153"/>
+    <mergeCell ref="K154:M154"/>
+    <mergeCell ref="K155:M155"/>
+    <mergeCell ref="K139:M139"/>
+    <mergeCell ref="K146:M146"/>
+    <mergeCell ref="K150:M150"/>
+    <mergeCell ref="K151:M151"/>
+    <mergeCell ref="K152:M152"/>
+    <mergeCell ref="K134:M134"/>
+    <mergeCell ref="K135:M135"/>
+    <mergeCell ref="K136:M136"/>
+    <mergeCell ref="K137:M137"/>
+    <mergeCell ref="K138:M138"/>
+    <mergeCell ref="K120:M120"/>
+    <mergeCell ref="K121:M121"/>
+    <mergeCell ref="K122:M122"/>
+    <mergeCell ref="K123:M123"/>
+    <mergeCell ref="K130:M130"/>
+    <mergeCell ref="K106:M106"/>
+    <mergeCell ref="K107:M107"/>
+    <mergeCell ref="K114:M114"/>
+    <mergeCell ref="K118:M118"/>
+    <mergeCell ref="K119:M119"/>
+    <mergeCell ref="K98:M98"/>
+    <mergeCell ref="K102:M102"/>
+    <mergeCell ref="K103:M103"/>
+    <mergeCell ref="K104:M104"/>
+    <mergeCell ref="K105:M105"/>
+    <mergeCell ref="K2:M2"/>
+    <mergeCell ref="K18:M18"/>
+    <mergeCell ref="K34:M34"/>
+    <mergeCell ref="K50:M50"/>
+    <mergeCell ref="K66:M66"/>
+    <mergeCell ref="K8:M8"/>
+    <mergeCell ref="K9:M9"/>
+    <mergeCell ref="K42:M42"/>
+    <mergeCell ref="K43:M43"/>
+    <mergeCell ref="K58:M58"/>
+    <mergeCell ref="K26:M26"/>
+    <mergeCell ref="K27:M27"/>
     <mergeCell ref="K91:M91"/>
     <mergeCell ref="K10:M10"/>
     <mergeCell ref="K11:M11"/>
@@ -20903,55 +20414,20 @@
     <mergeCell ref="K82:M82"/>
     <mergeCell ref="K74:M74"/>
     <mergeCell ref="K75:M75"/>
-    <mergeCell ref="K2:M2"/>
-    <mergeCell ref="K18:M18"/>
-    <mergeCell ref="K34:M34"/>
-    <mergeCell ref="K50:M50"/>
-    <mergeCell ref="K66:M66"/>
-    <mergeCell ref="K8:M8"/>
-    <mergeCell ref="K9:M9"/>
-    <mergeCell ref="K42:M42"/>
-    <mergeCell ref="K43:M43"/>
-    <mergeCell ref="K58:M58"/>
-    <mergeCell ref="K26:M26"/>
-    <mergeCell ref="K27:M27"/>
-    <mergeCell ref="K98:M98"/>
-    <mergeCell ref="K102:M102"/>
-    <mergeCell ref="K103:M103"/>
-    <mergeCell ref="K104:M104"/>
-    <mergeCell ref="K105:M105"/>
-    <mergeCell ref="K106:M106"/>
-    <mergeCell ref="K107:M107"/>
-    <mergeCell ref="K114:M114"/>
-    <mergeCell ref="K118:M118"/>
-    <mergeCell ref="K119:M119"/>
-    <mergeCell ref="K120:M120"/>
-    <mergeCell ref="K121:M121"/>
-    <mergeCell ref="K122:M122"/>
-    <mergeCell ref="K123:M123"/>
-    <mergeCell ref="K130:M130"/>
-    <mergeCell ref="K134:M134"/>
-    <mergeCell ref="K135:M135"/>
-    <mergeCell ref="K136:M136"/>
-    <mergeCell ref="K137:M137"/>
-    <mergeCell ref="K138:M138"/>
-    <mergeCell ref="K153:M153"/>
-    <mergeCell ref="K154:M154"/>
-    <mergeCell ref="K155:M155"/>
-    <mergeCell ref="K139:M139"/>
-    <mergeCell ref="K146:M146"/>
-    <mergeCell ref="K150:M150"/>
-    <mergeCell ref="K151:M151"/>
-    <mergeCell ref="K152:M152"/>
-    <mergeCell ref="K173:M173"/>
-    <mergeCell ref="K174:M174"/>
-    <mergeCell ref="K165:M165"/>
-    <mergeCell ref="K169:M169"/>
-    <mergeCell ref="K170:M170"/>
-    <mergeCell ref="K171:M171"/>
-    <mergeCell ref="K172:M172"/>
+    <mergeCell ref="K88:M88"/>
+    <mergeCell ref="K89:M89"/>
+    <mergeCell ref="K90:M90"/>
+    <mergeCell ref="K56:M56"/>
+    <mergeCell ref="K57:M57"/>
+    <mergeCell ref="K59:M59"/>
+    <mergeCell ref="K86:M86"/>
+    <mergeCell ref="K87:M87"/>
+    <mergeCell ref="K71:M71"/>
+    <mergeCell ref="K72:M72"/>
+    <mergeCell ref="K73:M73"/>
+    <mergeCell ref="K70:M70"/>
   </mergeCells>
-  <phoneticPr fontId="15" type="noConversion"/>
+  <phoneticPr fontId="16" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
   <drawing r:id="rId2"/>
@@ -20960,10 +20436,10 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AC31"/>
+  <dimension ref="A1:AC32"/>
   <sheetViews>
-    <sheetView topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="O31" sqref="A1:O31"/>
+    <sheetView topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="P33" sqref="P33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -21044,12 +20520,12 @@
       <c r="O1" s="29" t="s">
         <v>72</v>
       </c>
-      <c r="R1" s="87"/>
-      <c r="S1" s="87"/>
-      <c r="T1" s="87"/>
-      <c r="U1" s="87"/>
-      <c r="V1" s="88"/>
-      <c r="W1" s="88"/>
+      <c r="R1" s="88"/>
+      <c r="S1" s="88"/>
+      <c r="T1" s="88"/>
+      <c r="U1" s="88"/>
+      <c r="V1" s="89"/>
+      <c r="W1" s="89"/>
       <c r="X1" s="32"/>
       <c r="Z1" s="30"/>
       <c r="AA1" s="30"/>
@@ -22388,42 +21864,42 @@
       </c>
       <c r="D26" s="76">
         <f>塔_属性!C26</f>
-        <v>82</v>
+        <v>55</v>
       </c>
       <c r="E26" s="29" t="s">
         <v>70</v>
       </c>
       <c r="F26" s="76">
         <f>塔_属性!D26</f>
-        <v>189</v>
+        <v>169</v>
       </c>
       <c r="G26" s="29" t="s">
         <v>70</v>
       </c>
       <c r="H26" s="29">
         <f>塔_属性!E26</f>
-        <v>139</v>
+        <v>159</v>
       </c>
       <c r="I26" s="29" t="s">
         <v>70</v>
       </c>
       <c r="J26" s="29">
         <f>塔_属性!F26</f>
-        <v>224</v>
+        <v>244</v>
       </c>
       <c r="K26" s="29" t="s">
         <v>70</v>
       </c>
       <c r="L26" s="31">
         <f>塔_属性!G26</f>
-        <v>88.7</v>
+        <v>98.7</v>
       </c>
       <c r="M26" s="29" t="s">
         <v>70</v>
       </c>
       <c r="N26" s="31">
         <f>塔_属性!H26</f>
-        <v>69.400000000000006</v>
+        <v>79.400000000000006</v>
       </c>
       <c r="O26" s="29" t="s">
         <v>72</v>
@@ -22554,7 +22030,7 @@
       </c>
       <c r="F29" s="76">
         <f>塔_属性!D29</f>
-        <v>243</v>
+        <v>203</v>
       </c>
       <c r="G29" s="29" t="s">
         <v>70</v>
@@ -22600,7 +22076,7 @@
       </c>
       <c r="D30" s="76">
         <f>塔_属性!C30</f>
-        <v>56</v>
+        <v>79</v>
       </c>
       <c r="E30" s="29" t="s">
         <v>70</v>
@@ -22621,21 +22097,21 @@
       </c>
       <c r="J30" s="29">
         <f>塔_属性!F30</f>
-        <v>224</v>
+        <v>294</v>
       </c>
       <c r="K30" s="29" t="s">
         <v>70</v>
       </c>
       <c r="L30" s="31">
         <f>塔_属性!G30</f>
-        <v>59.9</v>
+        <v>99.9</v>
       </c>
       <c r="M30" s="29" t="s">
         <v>70</v>
       </c>
       <c r="N30" s="31">
         <f>塔_属性!H30</f>
-        <v>44.25</v>
+        <v>74.25</v>
       </c>
       <c r="O30" s="29" t="s">
         <v>72</v>
@@ -22653,7 +22129,7 @@
       </c>
       <c r="D31" s="76">
         <f>塔_属性!C31</f>
-        <v>43</v>
+        <v>98</v>
       </c>
       <c r="E31" s="29" t="s">
         <v>70</v>
@@ -22691,6 +22167,59 @@
         <v>31.25</v>
       </c>
       <c r="O31" s="29" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="32" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="A32" s="29" t="s">
+        <v>71</v>
+      </c>
+      <c r="B32" s="29">
+        <v>30</v>
+      </c>
+      <c r="C32" s="29" t="s">
+        <v>70</v>
+      </c>
+      <c r="D32" s="76">
+        <f>塔_属性!C32</f>
+        <v>110</v>
+      </c>
+      <c r="E32" s="29" t="s">
+        <v>70</v>
+      </c>
+      <c r="F32" s="76">
+        <f>塔_属性!D32</f>
+        <v>243</v>
+      </c>
+      <c r="G32" s="29" t="s">
+        <v>70</v>
+      </c>
+      <c r="H32" s="29">
+        <f>塔_属性!E32</f>
+        <v>139</v>
+      </c>
+      <c r="I32" s="29" t="s">
+        <v>70</v>
+      </c>
+      <c r="J32" s="29">
+        <f>塔_属性!F32</f>
+        <v>177</v>
+      </c>
+      <c r="K32" s="29" t="s">
+        <v>70</v>
+      </c>
+      <c r="L32" s="31">
+        <f>塔_属性!G32</f>
+        <v>194.9</v>
+      </c>
+      <c r="M32" s="29" t="s">
+        <v>70</v>
+      </c>
+      <c r="N32" s="31">
+        <f>塔_属性!H32</f>
+        <v>162.1</v>
+      </c>
+      <c r="O32" s="29" t="s">
         <v>69</v>
       </c>
     </row>
@@ -22700,7 +22229,7 @@
     <mergeCell ref="T1:U1"/>
     <mergeCell ref="V1:W1"/>
   </mergeCells>
-  <phoneticPr fontId="15" type="noConversion"/>
+  <phoneticPr fontId="16" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="200" verticalDpi="200" r:id="rId1"/>
 </worksheet>
@@ -23245,7 +22774,7 @@
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="15" type="noConversion"/>
+  <phoneticPr fontId="16" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="200" verticalDpi="200" r:id="rId1"/>
 </worksheet>
@@ -23272,7 +22801,7 @@
         <v>112</v>
       </c>
       <c r="B1" s="47">
-        <f>塔_属性!G49</f>
+        <f>塔_属性!G46</f>
         <v>0.8</v>
       </c>
       <c r="C1" s="33" t="s">
@@ -23284,7 +22813,7 @@
         <v>111</v>
       </c>
       <c r="B2" s="48">
-        <f>塔_属性!H49</f>
+        <f>塔_属性!H46</f>
         <v>0.4</v>
       </c>
       <c r="C2" s="33" t="s">
@@ -23296,7 +22825,7 @@
         <v>138</v>
       </c>
       <c r="B3" s="49">
-        <f>塔_属性!C48</f>
+        <f>塔_属性!C45</f>
         <v>100</v>
       </c>
       <c r="C3" s="33" t="s">
@@ -23308,7 +22837,7 @@
         <v>139</v>
       </c>
       <c r="B4" s="49">
-        <f>塔_属性!D48</f>
+        <f>塔_属性!D45</f>
         <v>200</v>
       </c>
       <c r="C4" s="33" t="s">
@@ -23320,7 +22849,7 @@
         <v>142</v>
       </c>
       <c r="B5" s="49">
-        <f>塔_属性!G51</f>
+        <f>塔_属性!G48</f>
         <v>1.2</v>
       </c>
       <c r="C5" s="33" t="s">
@@ -23332,7 +22861,7 @@
         <v>143</v>
       </c>
       <c r="B6" s="49">
-        <f>塔_属性!H51</f>
+        <f>塔_属性!H48</f>
         <v>2.1</v>
       </c>
       <c r="C6" s="33" t="s">
@@ -23344,7 +22873,7 @@
         <v>140</v>
       </c>
       <c r="B7" s="49">
-        <f>塔_属性!C50</f>
+        <f>塔_属性!C47</f>
         <v>100</v>
       </c>
       <c r="C7" s="33" t="s">
@@ -23356,7 +22885,7 @@
         <v>141</v>
       </c>
       <c r="B8" s="49">
-        <f>塔_属性!D50</f>
+        <f>塔_属性!D47</f>
         <v>200</v>
       </c>
       <c r="C8" s="33" t="s">
@@ -23368,7 +22897,7 @@
         <v>144</v>
       </c>
       <c r="B9" s="49">
-        <f>塔_属性!E47</f>
+        <f>塔_属性!E44</f>
         <v>150</v>
       </c>
       <c r="C9" s="33" t="s">
@@ -23380,7 +22909,7 @@
         <v>145</v>
       </c>
       <c r="B10" s="49">
-        <f>塔_属性!F47</f>
+        <f>塔_属性!F44</f>
         <v>220</v>
       </c>
       <c r="C10" s="33" t="s">
@@ -23393,7 +22922,7 @@
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="15" type="noConversion"/>
+  <phoneticPr fontId="16" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>

--- a/_DESIGN_.xlsx
+++ b/_DESIGN_.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="889" uniqueCount="233">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="897" uniqueCount="233">
   <si>
     <t>红色的格子表示敌人移动的路径点</t>
     <phoneticPr fontId="16" type="noConversion"/>
@@ -2177,16 +2177,10 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="177" fontId="11" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="177" fontId="6" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
@@ -2200,6 +2194,12 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="11" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="15" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -2463,11 +2463,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="104802560"/>
-        <c:axId val="104808448"/>
+        <c:axId val="100370688"/>
+        <c:axId val="100376576"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="104802560"/>
+        <c:axId val="100370688"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2477,12 +2477,12 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="104808448"/>
+        <c:crossAx val="100376576"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="104808448"/>
+        <c:axId val="100376576"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2511,7 +2511,7 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="104802560"/>
+        <c:crossAx val="100370688"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -7123,13 +7123,13 @@
   <dimension ref="A1:X49"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="D31" sqref="D31"/>
+      <selection activeCell="F32" sqref="F32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="5.875" style="29" customWidth="1"/>
-    <col min="2" max="2" width="4.375" style="29" customWidth="1"/>
+    <col min="1" max="1" width="9.375" style="29" customWidth="1"/>
+    <col min="2" max="2" width="3.25" style="29" customWidth="1"/>
     <col min="3" max="5" width="15.625" style="29" customWidth="1"/>
     <col min="6" max="6" width="15.625" style="31" customWidth="1"/>
     <col min="7" max="8" width="15.625" style="42" customWidth="1"/>
@@ -7202,28 +7202,28 @@
       </c>
     </row>
     <row r="2" spans="1:24" x14ac:dyDescent="0.15">
-      <c r="A2" s="77" t="s">
+      <c r="A2" s="75" t="s">
         <v>201</v>
       </c>
       <c r="B2" s="29">
         <v>0</v>
       </c>
-      <c r="C2" s="70">
+      <c r="C2" s="76">
         <v>67</v>
       </c>
-      <c r="D2" s="70">
+      <c r="D2" s="76">
         <v>232</v>
       </c>
-      <c r="E2" s="71">
+      <c r="E2" s="70">
         <v>145</v>
       </c>
-      <c r="F2" s="71">
+      <c r="F2" s="70">
         <v>272</v>
       </c>
-      <c r="G2" s="72">
+      <c r="G2" s="71">
         <v>48.4</v>
       </c>
-      <c r="H2" s="72">
+      <c r="H2" s="71">
         <v>21.78</v>
       </c>
       <c r="I2">
@@ -7273,28 +7273,28 @@
       <c r="X2" s="38"/>
     </row>
     <row r="3" spans="1:24" x14ac:dyDescent="0.15">
-      <c r="A3" s="77" t="s">
+      <c r="A3" s="75" t="s">
         <v>200</v>
       </c>
       <c r="B3" s="29">
         <v>1</v>
       </c>
-      <c r="C3" s="70">
+      <c r="C3" s="76">
         <v>52</v>
       </c>
-      <c r="D3" s="70">
+      <c r="D3" s="76">
         <v>185</v>
       </c>
-      <c r="E3" s="71">
+      <c r="E3" s="70">
         <v>166</v>
       </c>
-      <c r="F3" s="71">
+      <c r="F3" s="70">
         <v>274</v>
       </c>
-      <c r="G3" s="72">
+      <c r="G3" s="71">
         <v>60</v>
       </c>
-      <c r="H3" s="72">
+      <c r="H3" s="71">
         <v>21.25</v>
       </c>
       <c r="I3">
@@ -7343,31 +7343,31 @@
         <f t="shared" si="5"/>
         <v>15.58071198822439</v>
       </c>
-      <c r="X3" s="75"/>
+      <c r="X3" s="73"/>
     </row>
     <row r="4" spans="1:24" x14ac:dyDescent="0.15">
-      <c r="A4" s="77" t="s">
+      <c r="A4" s="75" t="s">
         <v>202</v>
       </c>
       <c r="B4" s="29">
         <v>2</v>
       </c>
-      <c r="C4" s="70">
+      <c r="C4" s="76">
         <v>46</v>
       </c>
-      <c r="D4" s="70">
+      <c r="D4" s="76">
         <v>159</v>
       </c>
-      <c r="E4" s="71">
+      <c r="E4" s="70">
         <v>146</v>
       </c>
-      <c r="F4" s="71">
+      <c r="F4" s="70">
         <v>191</v>
       </c>
-      <c r="G4" s="72">
+      <c r="G4" s="71">
         <v>51</v>
       </c>
-      <c r="H4" s="72">
+      <c r="H4" s="71">
         <v>23.5</v>
       </c>
       <c r="I4">
@@ -7416,31 +7416,31 @@
         <f t="shared" si="5"/>
         <v>8.8134591258727983</v>
       </c>
-      <c r="X4" s="75"/>
+      <c r="X4" s="73"/>
     </row>
     <row r="5" spans="1:24" x14ac:dyDescent="0.15">
-      <c r="A5" s="77" t="s">
+      <c r="A5" s="75" t="s">
         <v>203</v>
       </c>
       <c r="B5" s="29">
         <v>3</v>
       </c>
-      <c r="C5" s="70">
+      <c r="C5" s="76">
         <v>52</v>
       </c>
-      <c r="D5" s="70">
+      <c r="D5" s="76">
         <v>206</v>
       </c>
-      <c r="E5" s="71">
+      <c r="E5" s="70">
         <v>139</v>
       </c>
-      <c r="F5" s="71">
+      <c r="F5" s="70">
         <v>201</v>
       </c>
-      <c r="G5" s="72">
+      <c r="G5" s="71">
         <v>64.2</v>
       </c>
-      <c r="H5" s="72">
+      <c r="H5" s="71">
         <v>21.87</v>
       </c>
       <c r="I5">
@@ -7487,31 +7487,31 @@
         <f t="shared" si="5"/>
         <v>15.81633610490525</v>
       </c>
-      <c r="X5" s="75"/>
+      <c r="X5" s="73"/>
     </row>
     <row r="6" spans="1:24" x14ac:dyDescent="0.15">
-      <c r="A6" s="77" t="s">
+      <c r="A6" s="75" t="s">
         <v>204</v>
       </c>
       <c r="B6" s="29">
         <v>4</v>
       </c>
-      <c r="C6" s="70">
+      <c r="C6" s="76">
         <v>50</v>
       </c>
-      <c r="D6" s="70">
+      <c r="D6" s="76">
         <v>160</v>
       </c>
-      <c r="E6" s="71">
+      <c r="E6" s="70">
         <v>132</v>
       </c>
-      <c r="F6" s="71">
+      <c r="F6" s="70">
         <v>218</v>
       </c>
-      <c r="G6" s="72">
+      <c r="G6" s="71">
         <v>58.7</v>
       </c>
-      <c r="H6" s="72">
+      <c r="H6" s="71">
         <v>29.4</v>
       </c>
       <c r="I6">
@@ -7560,31 +7560,31 @@
         <f t="shared" si="5"/>
         <v>5.9111228777644165</v>
       </c>
-      <c r="X6" s="75"/>
+      <c r="X6" s="73"/>
     </row>
     <row r="7" spans="1:24" x14ac:dyDescent="0.15">
-      <c r="A7" s="77" t="s">
+      <c r="A7" s="75" t="s">
         <v>205</v>
       </c>
       <c r="B7" s="29">
         <v>5</v>
       </c>
-      <c r="C7" s="70">
+      <c r="C7" s="76">
         <v>88</v>
       </c>
-      <c r="D7" s="70">
+      <c r="D7" s="76">
         <v>292</v>
       </c>
-      <c r="E7" s="71">
+      <c r="E7" s="70">
         <v>218</v>
       </c>
-      <c r="F7" s="71">
+      <c r="F7" s="70">
         <v>326</v>
       </c>
-      <c r="G7" s="72">
+      <c r="G7" s="71">
         <v>88.3</v>
       </c>
-      <c r="H7" s="72">
+      <c r="H7" s="71">
         <v>34.99</v>
       </c>
       <c r="I7">
@@ -7633,31 +7633,31 @@
         <f t="shared" si="5"/>
         <v>11.522125349289595</v>
       </c>
-      <c r="X7" s="75"/>
+      <c r="X7" s="73"/>
     </row>
     <row r="8" spans="1:24" x14ac:dyDescent="0.15">
-      <c r="A8" s="77" t="s">
+      <c r="A8" s="75" t="s">
         <v>206</v>
       </c>
       <c r="B8" s="29">
         <v>6</v>
       </c>
-      <c r="C8" s="70">
+      <c r="C8" s="76">
         <v>119</v>
       </c>
-      <c r="D8" s="70">
-        <v>411</v>
-      </c>
-      <c r="E8" s="71">
+      <c r="D8" s="76">
+        <v>421</v>
+      </c>
+      <c r="E8" s="70">
         <v>130</v>
       </c>
-      <c r="F8" s="71">
+      <c r="F8" s="70">
         <v>261</v>
       </c>
-      <c r="G8" s="72">
+      <c r="G8" s="71">
         <v>80.8</v>
       </c>
-      <c r="H8" s="72">
+      <c r="H8" s="71">
         <v>37.54</v>
       </c>
       <c r="I8">
@@ -7666,7 +7666,7 @@
       </c>
       <c r="J8" s="29">
         <f t="shared" si="7"/>
-        <v>2857.5119872136388</v>
+        <v>2927.0378263185935</v>
       </c>
       <c r="K8" s="31">
         <v>1</v>
@@ -7686,11 +7686,11 @@
       </c>
       <c r="P8" s="29">
         <f t="shared" si="1"/>
-        <v>2857.5119872136388</v>
+        <v>2927.0378263185935</v>
       </c>
       <c r="Q8" s="30">
         <f t="shared" si="2"/>
-        <v>2.4537815126050422</v>
+        <v>2.53781512605042</v>
       </c>
       <c r="R8" s="30">
         <f t="shared" si="3"/>
@@ -7702,33 +7702,33 @@
       </c>
       <c r="T8" s="30">
         <f t="shared" si="5"/>
-        <v>13.92482020470989</v>
-      </c>
-      <c r="X8" s="75"/>
+        <v>14.287954516260008</v>
+      </c>
+      <c r="X8" s="73"/>
     </row>
     <row r="9" spans="1:24" x14ac:dyDescent="0.15">
-      <c r="A9" s="77" t="s">
+      <c r="A9" s="75" t="s">
         <v>207</v>
       </c>
       <c r="B9" s="29">
         <v>7</v>
       </c>
-      <c r="C9" s="73">
+      <c r="C9" s="77">
         <v>42</v>
       </c>
-      <c r="D9" s="73">
+      <c r="D9" s="77">
         <v>159</v>
       </c>
-      <c r="E9" s="71">
+      <c r="E9" s="70">
         <v>132</v>
       </c>
-      <c r="F9" s="71">
+      <c r="F9" s="70">
         <v>215</v>
       </c>
-      <c r="G9" s="72">
+      <c r="G9" s="71">
         <v>51.6</v>
       </c>
-      <c r="H9" s="72">
+      <c r="H9" s="71">
         <v>17.100000000000001</v>
       </c>
       <c r="I9">
@@ -7775,31 +7775,31 @@
         <f t="shared" si="5"/>
         <v>17.606554264448999</v>
       </c>
-      <c r="X9" s="75"/>
+      <c r="X9" s="73"/>
     </row>
     <row r="10" spans="1:24" x14ac:dyDescent="0.15">
-      <c r="A10" s="77" t="s">
+      <c r="A10" s="75" t="s">
         <v>208</v>
       </c>
       <c r="B10" s="29">
         <v>8</v>
       </c>
-      <c r="C10" s="73">
+      <c r="C10" s="77">
         <v>59</v>
       </c>
-      <c r="D10" s="73">
+      <c r="D10" s="77">
         <v>147</v>
       </c>
-      <c r="E10" s="71">
+      <c r="E10" s="70">
         <v>149</v>
       </c>
-      <c r="F10" s="71">
+      <c r="F10" s="70">
         <v>191</v>
       </c>
-      <c r="G10" s="72">
+      <c r="G10" s="71">
         <v>45.7</v>
       </c>
-      <c r="H10" s="72">
+      <c r="H10" s="71">
         <v>19.399999999999999</v>
       </c>
       <c r="I10">
@@ -7846,31 +7846,31 @@
         <f t="shared" si="5"/>
         <v>6.5236206898573634</v>
       </c>
-      <c r="X10" s="75"/>
+      <c r="X10" s="73"/>
     </row>
     <row r="11" spans="1:24" x14ac:dyDescent="0.15">
-      <c r="A11" s="77" t="s">
+      <c r="A11" s="75" t="s">
         <v>209</v>
       </c>
       <c r="B11" s="29">
         <v>9</v>
       </c>
-      <c r="C11" s="73">
+      <c r="C11" s="77">
         <v>44</v>
       </c>
-      <c r="D11" s="73">
+      <c r="D11" s="77">
         <v>142</v>
       </c>
-      <c r="E11" s="71">
+      <c r="E11" s="70">
         <v>189</v>
       </c>
-      <c r="F11" s="71">
+      <c r="F11" s="70">
         <v>305</v>
       </c>
-      <c r="G11" s="72">
+      <c r="G11" s="71">
         <v>99.2</v>
       </c>
-      <c r="H11" s="72">
+      <c r="H11" s="71">
         <v>66</v>
       </c>
       <c r="I11">
@@ -7917,31 +7917,31 @@
         <f t="shared" ref="T11" si="17">P11/O11-1</f>
         <v>6.8278309793461318</v>
       </c>
-      <c r="X11" s="75"/>
+      <c r="X11" s="73"/>
     </row>
     <row r="12" spans="1:24" x14ac:dyDescent="0.15">
-      <c r="A12" s="77" t="s">
+      <c r="A12" s="75" t="s">
         <v>210</v>
       </c>
       <c r="B12" s="29">
         <v>10</v>
       </c>
-      <c r="C12" s="73">
+      <c r="C12" s="77">
         <v>47</v>
       </c>
-      <c r="D12" s="73">
+      <c r="D12" s="77">
         <v>305</v>
       </c>
-      <c r="E12" s="71">
+      <c r="E12" s="70">
         <v>95</v>
       </c>
-      <c r="F12" s="71">
+      <c r="F12" s="70">
         <v>335</v>
       </c>
-      <c r="G12" s="72">
+      <c r="G12" s="71">
         <v>98.8</v>
       </c>
-      <c r="H12" s="72">
+      <c r="H12" s="71">
         <v>17.899999999999999</v>
       </c>
       <c r="I12">
@@ -7988,31 +7988,31 @@
         <f t="shared" ref="T12:T15" si="25">P12/O12-1</f>
         <v>125.30690597884227</v>
       </c>
-      <c r="X12" s="75"/>
+      <c r="X12" s="73"/>
     </row>
     <row r="13" spans="1:24" x14ac:dyDescent="0.15">
-      <c r="A13" s="77" t="s">
+      <c r="A13" s="75" t="s">
         <v>211</v>
       </c>
       <c r="B13" s="29">
         <v>11</v>
       </c>
-      <c r="C13" s="73">
+      <c r="C13" s="77">
         <v>29</v>
       </c>
-      <c r="D13" s="73">
+      <c r="D13" s="77">
         <v>120</v>
       </c>
-      <c r="E13" s="71">
+      <c r="E13" s="70">
         <v>165</v>
       </c>
-      <c r="F13" s="71">
+      <c r="F13" s="70">
         <v>232</v>
       </c>
-      <c r="G13" s="72">
+      <c r="G13" s="71">
         <v>191.2</v>
       </c>
-      <c r="H13" s="72">
+      <c r="H13" s="71">
         <v>98.4</v>
       </c>
       <c r="I13">
@@ -8059,31 +8059,31 @@
         <f t="shared" si="25"/>
         <v>10.305247597930522</v>
       </c>
-      <c r="X13" s="75"/>
+      <c r="X13" s="73"/>
     </row>
     <row r="14" spans="1:24" x14ac:dyDescent="0.15">
-      <c r="A14" s="77" t="s">
+      <c r="A14" s="75" t="s">
         <v>212</v>
       </c>
       <c r="B14" s="29">
         <v>12</v>
       </c>
-      <c r="C14" s="73">
+      <c r="C14" s="77">
         <v>41</v>
       </c>
-      <c r="D14" s="73">
+      <c r="D14" s="77">
         <v>129</v>
       </c>
-      <c r="E14" s="71">
+      <c r="E14" s="70">
         <v>131</v>
       </c>
-      <c r="F14" s="71">
+      <c r="F14" s="70">
         <v>296</v>
       </c>
-      <c r="G14" s="72">
+      <c r="G14" s="71">
         <v>92</v>
       </c>
-      <c r="H14" s="72">
+      <c r="H14" s="71">
         <v>38.9</v>
       </c>
       <c r="I14">
@@ -8130,31 +8130,31 @@
         <f t="shared" si="25"/>
         <v>15.81374648868842</v>
       </c>
-      <c r="X14" s="75"/>
+      <c r="X14" s="73"/>
     </row>
     <row r="15" spans="1:24" x14ac:dyDescent="0.15">
-      <c r="A15" s="77" t="s">
+      <c r="A15" s="75" t="s">
         <v>213</v>
       </c>
       <c r="B15" s="29">
         <v>13</v>
       </c>
-      <c r="C15" s="73">
+      <c r="C15" s="77">
         <v>104</v>
       </c>
-      <c r="D15" s="73">
+      <c r="D15" s="77">
         <v>375</v>
       </c>
-      <c r="E15" s="71">
+      <c r="E15" s="70">
         <v>158</v>
       </c>
-      <c r="F15" s="71">
+      <c r="F15" s="70">
         <v>189</v>
       </c>
-      <c r="G15" s="72">
+      <c r="G15" s="71">
         <v>62.8</v>
       </c>
-      <c r="H15" s="74">
+      <c r="H15" s="72">
         <v>30.2</v>
       </c>
       <c r="I15">
@@ -8201,31 +8201,31 @@
         <f t="shared" si="25"/>
         <v>7.9692338322252834</v>
       </c>
-      <c r="X15" s="75"/>
+      <c r="X15" s="73"/>
     </row>
     <row r="16" spans="1:24" x14ac:dyDescent="0.15">
-      <c r="A16" s="77" t="s">
+      <c r="A16" s="75" t="s">
         <v>214</v>
       </c>
       <c r="B16" s="29">
         <v>14</v>
       </c>
-      <c r="C16" s="73">
+      <c r="C16" s="77">
         <v>139</v>
       </c>
-      <c r="D16" s="73">
+      <c r="D16" s="77">
         <v>327</v>
       </c>
-      <c r="E16" s="71">
+      <c r="E16" s="70">
         <v>290</v>
       </c>
-      <c r="F16" s="71">
+      <c r="F16" s="70">
         <v>509</v>
       </c>
-      <c r="G16" s="72">
+      <c r="G16" s="71">
         <v>120</v>
       </c>
-      <c r="H16" s="74">
+      <c r="H16" s="72">
         <v>68.8</v>
       </c>
       <c r="I16">
@@ -8272,40 +8272,40 @@
         <f t="shared" ref="T16" si="33">P16/O16-1</f>
         <v>6.2018744266815906</v>
       </c>
-      <c r="X16" s="75"/>
+      <c r="X16" s="73"/>
     </row>
     <row r="17" spans="1:24" x14ac:dyDescent="0.15">
-      <c r="A17" s="77" t="s">
+      <c r="A17" s="75" t="s">
         <v>215</v>
       </c>
       <c r="B17" s="29">
         <v>15</v>
       </c>
-      <c r="C17" s="73">
-        <v>86</v>
-      </c>
-      <c r="D17" s="73">
-        <v>229</v>
-      </c>
-      <c r="E17" s="71">
+      <c r="C17" s="77">
+        <v>99.759999999999991</v>
+      </c>
+      <c r="D17" s="76">
+        <v>265.64</v>
+      </c>
+      <c r="E17" s="70">
         <v>147</v>
       </c>
-      <c r="F17" s="71">
+      <c r="F17" s="70">
         <v>221</v>
       </c>
-      <c r="G17" s="72">
+      <c r="G17" s="71">
         <v>58.1</v>
       </c>
-      <c r="H17" s="74">
+      <c r="H17" s="72">
         <v>34.4</v>
       </c>
       <c r="I17">
         <f t="shared" ref="I17:I18" si="34">C17*E17/G17</f>
-        <v>217.59036144578312</v>
+        <v>252.40481927710843</v>
       </c>
       <c r="J17" s="29">
         <f t="shared" ref="J17:J18" si="35">D17*F17/H17</f>
-        <v>1471.1918604651164</v>
+        <v>1706.5825581395347</v>
       </c>
       <c r="K17" s="31">
         <v>10</v>
@@ -8321,15 +8321,15 @@
       </c>
       <c r="O17" s="29">
         <f t="shared" ref="O17" si="36">K17*C17*E17/G17+M17</f>
-        <v>2175.9036144578313</v>
+        <v>2524.0481927710839</v>
       </c>
       <c r="P17" s="29">
         <f t="shared" ref="P17" si="37">K17*D17*F17/H17+N17</f>
-        <v>14711.918604651164</v>
+        <v>17065.825581395347</v>
       </c>
       <c r="Q17" s="30">
         <f t="shared" ref="Q17" si="38">D17/C17-1</f>
-        <v>1.6627906976744184</v>
+        <v>1.6627906976744189</v>
       </c>
       <c r="R17" s="30">
         <f t="shared" ref="R17" si="39">F17/E17-1</f>
@@ -8343,40 +8343,40 @@
         <f t="shared" ref="T17" si="41">P17/O17-1</f>
         <v>5.7612914960467698</v>
       </c>
-      <c r="X17" s="75"/>
+      <c r="X17" s="73"/>
     </row>
     <row r="18" spans="1:24" x14ac:dyDescent="0.15">
-      <c r="A18" s="77" t="s">
+      <c r="A18" s="75" t="s">
         <v>216</v>
       </c>
       <c r="B18" s="29">
         <v>16</v>
       </c>
-      <c r="C18" s="73">
-        <v>55</v>
-      </c>
-      <c r="D18" s="73">
-        <v>171</v>
-      </c>
-      <c r="E18" s="71">
+      <c r="C18" s="77">
+        <v>63.8</v>
+      </c>
+      <c r="D18" s="77">
+        <v>198.35999999999999</v>
+      </c>
+      <c r="E18" s="70">
         <v>101</v>
       </c>
-      <c r="F18" s="71">
+      <c r="F18" s="70">
         <v>167</v>
       </c>
-      <c r="G18" s="72">
+      <c r="G18" s="71">
         <v>76.7</v>
       </c>
-      <c r="H18" s="72">
+      <c r="H18" s="71">
         <v>64.400000000000006</v>
       </c>
       <c r="I18">
         <f t="shared" si="34"/>
-        <v>72.425032594524112</v>
+        <v>84.013037809647969</v>
       </c>
       <c r="J18" s="29">
         <f t="shared" si="35"/>
-        <v>443.43167701863348</v>
+        <v>514.38074534161478</v>
       </c>
       <c r="K18" s="31">
         <v>10</v>
@@ -8392,11 +8392,11 @@
       </c>
       <c r="O18" s="29">
         <f t="shared" ref="O18:O31" si="42">K18*C18*E18/G18+M18</f>
-        <v>724.25032594524123</v>
+        <v>840.13037809647972</v>
       </c>
       <c r="P18" s="29">
         <f t="shared" ref="P18:P31" si="43">K18*D18*F18/H18+N18</f>
-        <v>4434.3167701863349</v>
+        <v>5143.8074534161487</v>
       </c>
       <c r="Q18" s="30">
         <f t="shared" ref="Q18:Q31" si="44">D18/C18-1</f>
@@ -8412,42 +8412,42 @@
       </c>
       <c r="T18" s="30">
         <f t="shared" ref="T18:T31" si="47">P18/O18-1</f>
-        <v>5.1226299959188459</v>
-      </c>
-      <c r="X18" s="75"/>
+        <v>5.1226299959188468</v>
+      </c>
+      <c r="X18" s="73"/>
     </row>
     <row r="19" spans="1:24" x14ac:dyDescent="0.15">
-      <c r="A19" s="77" t="s">
+      <c r="A19" s="75" t="s">
         <v>217</v>
       </c>
       <c r="B19" s="29">
         <v>17</v>
       </c>
-      <c r="C19" s="73">
-        <v>99</v>
-      </c>
-      <c r="D19" s="73">
-        <v>334</v>
-      </c>
-      <c r="E19" s="71">
+      <c r="C19" s="77">
+        <v>114.83999999999999</v>
+      </c>
+      <c r="D19" s="77">
+        <v>387.44</v>
+      </c>
+      <c r="E19" s="70">
         <v>160</v>
       </c>
-      <c r="F19" s="71">
+      <c r="F19" s="70">
         <v>233</v>
       </c>
-      <c r="G19" s="72">
+      <c r="G19" s="71">
         <v>36.200000000000003</v>
       </c>
-      <c r="H19" s="72">
+      <c r="H19" s="71">
         <v>22.8</v>
       </c>
       <c r="I19">
         <f t="shared" ref="I19" si="48">C19*E19/G19</f>
-        <v>437.5690607734806</v>
+        <v>507.58011049723746</v>
       </c>
       <c r="J19" s="29">
         <f t="shared" ref="J19" si="49">D19*F19/H19</f>
-        <v>3413.2456140350878</v>
+        <v>3959.3649122807019</v>
       </c>
       <c r="K19" s="31">
         <v>10</v>
@@ -8463,15 +8463,15 @@
       </c>
       <c r="O19" s="29">
         <f t="shared" si="42"/>
-        <v>4375.6906077348067</v>
+        <v>5075.8011049723746</v>
       </c>
       <c r="P19" s="29">
         <f t="shared" si="43"/>
-        <v>34132.456140350878</v>
+        <v>39593.649122807023</v>
       </c>
       <c r="Q19" s="30">
         <f t="shared" si="44"/>
-        <v>2.3737373737373737</v>
+        <v>2.3737373737373741</v>
       </c>
       <c r="R19" s="30">
         <f t="shared" si="45"/>
@@ -8483,42 +8483,42 @@
       </c>
       <c r="T19" s="30">
         <f t="shared" si="47"/>
-        <v>6.8004729310650367</v>
-      </c>
-      <c r="X19" s="75"/>
+        <v>6.8004729310650394</v>
+      </c>
+      <c r="X19" s="73"/>
     </row>
     <row r="20" spans="1:24" x14ac:dyDescent="0.15">
-      <c r="A20" s="77" t="s">
+      <c r="A20" s="75" t="s">
         <v>218</v>
       </c>
       <c r="B20" s="29">
         <v>18</v>
       </c>
-      <c r="C20" s="73">
-        <v>83</v>
-      </c>
-      <c r="D20" s="73">
-        <v>161</v>
-      </c>
-      <c r="E20" s="71">
+      <c r="C20" s="77">
+        <v>96.279999999999987</v>
+      </c>
+      <c r="D20" s="77">
+        <v>186.76</v>
+      </c>
+      <c r="E20" s="70">
         <v>158</v>
       </c>
-      <c r="F20" s="71">
+      <c r="F20" s="70">
         <v>312</v>
       </c>
-      <c r="G20" s="72">
+      <c r="G20" s="71">
         <v>47.2</v>
       </c>
-      <c r="H20" s="72">
+      <c r="H20" s="71">
         <v>23.8</v>
       </c>
       <c r="I20">
         <f t="shared" ref="I20" si="50">C20*E20/G20</f>
-        <v>277.83898305084745</v>
+        <v>322.29322033898296</v>
       </c>
       <c r="J20" s="29">
         <f t="shared" ref="J20" si="51">D20*F20/H20</f>
-        <v>2110.5882352941176</v>
+        <v>2448.2823529411762</v>
       </c>
       <c r="K20" s="31">
         <v>10</v>
@@ -8534,15 +8534,15 @@
       </c>
       <c r="O20" s="29">
         <f t="shared" si="42"/>
-        <v>2778.3898305084745</v>
+        <v>3222.9322033898297</v>
       </c>
       <c r="P20" s="29">
         <f t="shared" si="43"/>
-        <v>21105.882352941175</v>
+        <v>24482.823529411762</v>
       </c>
       <c r="Q20" s="30">
         <f t="shared" si="44"/>
-        <v>0.93975903614457823</v>
+        <v>0.93975903614457845</v>
       </c>
       <c r="R20" s="30">
         <f t="shared" si="45"/>
@@ -8554,42 +8554,42 @@
       </c>
       <c r="T20" s="30">
         <f t="shared" si="47"/>
-        <v>6.5964438543451536</v>
-      </c>
-      <c r="X20" s="75"/>
+        <v>6.5964438543451553</v>
+      </c>
+      <c r="X20" s="73"/>
     </row>
     <row r="21" spans="1:24" x14ac:dyDescent="0.15">
-      <c r="A21" s="77" t="s">
+      <c r="A21" s="75" t="s">
         <v>219</v>
       </c>
       <c r="B21" s="29">
         <v>19</v>
       </c>
-      <c r="C21" s="73">
-        <v>69</v>
-      </c>
-      <c r="D21" s="73">
-        <v>120</v>
-      </c>
-      <c r="E21" s="71">
+      <c r="C21" s="77">
+        <v>80.039999999999992</v>
+      </c>
+      <c r="D21" s="77">
+        <v>139.19999999999999</v>
+      </c>
+      <c r="E21" s="70">
         <v>114</v>
       </c>
-      <c r="F21" s="71">
+      <c r="F21" s="70">
         <v>191</v>
       </c>
-      <c r="G21" s="72">
+      <c r="G21" s="71">
         <v>62.1</v>
       </c>
-      <c r="H21" s="74">
+      <c r="H21" s="72">
         <v>39.4</v>
       </c>
       <c r="I21">
         <f t="shared" ref="I21:I22" si="52">C21*E21/G21</f>
-        <v>126.66666666666666</v>
+        <v>146.93333333333331</v>
       </c>
       <c r="J21" s="29">
         <f t="shared" ref="J21:J22" si="53">D21*F21/H21</f>
-        <v>581.72588832487315</v>
+        <v>674.80203045685278</v>
       </c>
       <c r="K21" s="31">
         <v>10</v>
@@ -8605,11 +8605,11 @@
       </c>
       <c r="O21" s="29">
         <f t="shared" si="42"/>
-        <v>1266.6666666666667</v>
+        <v>1469.3333333333333</v>
       </c>
       <c r="P21" s="29">
         <f t="shared" si="43"/>
-        <v>5817.2588832487309</v>
+        <v>6748.0203045685284</v>
       </c>
       <c r="Q21" s="30">
         <f t="shared" si="44"/>
@@ -8625,42 +8625,42 @@
       </c>
       <c r="T21" s="30">
         <f t="shared" si="47"/>
-        <v>3.5925728025647876</v>
-      </c>
-      <c r="X21" s="75"/>
+        <v>3.5925728025647885</v>
+      </c>
+      <c r="X21" s="73"/>
     </row>
     <row r="22" spans="1:24" x14ac:dyDescent="0.15">
-      <c r="A22" s="77" t="s">
+      <c r="A22" s="75" t="s">
         <v>220</v>
       </c>
       <c r="B22" s="29">
         <v>20</v>
       </c>
-      <c r="C22" s="73">
-        <v>96</v>
-      </c>
-      <c r="D22" s="73">
-        <v>193</v>
-      </c>
-      <c r="E22" s="71">
+      <c r="C22" s="77">
+        <v>111.35999999999999</v>
+      </c>
+      <c r="D22" s="77">
+        <v>223.88</v>
+      </c>
+      <c r="E22" s="70">
         <v>180</v>
       </c>
-      <c r="F22" s="71">
+      <c r="F22" s="70">
         <v>235</v>
       </c>
-      <c r="G22" s="72">
+      <c r="G22" s="71">
         <v>80.400000000000006</v>
       </c>
-      <c r="H22" s="74">
+      <c r="H22" s="72">
         <v>43.110999999999997</v>
       </c>
       <c r="I22">
         <f t="shared" si="52"/>
-        <v>214.92537313432834</v>
+        <v>249.31343283582083</v>
       </c>
       <c r="J22" s="29">
         <f t="shared" si="53"/>
-        <v>1052.0516805455684</v>
+        <v>1220.3799494328593</v>
       </c>
       <c r="K22" s="31">
         <v>10</v>
@@ -8676,15 +8676,15 @@
       </c>
       <c r="O22" s="29">
         <f t="shared" si="42"/>
-        <v>2149.2537313432836</v>
+        <v>2493.1343283582082</v>
       </c>
       <c r="P22" s="29">
         <f t="shared" si="43"/>
-        <v>10520.516805455685</v>
+        <v>12203.799494328594</v>
       </c>
       <c r="Q22" s="30">
         <f t="shared" si="44"/>
-        <v>1.0104166666666665</v>
+        <v>1.010416666666667</v>
       </c>
       <c r="R22" s="30">
         <f t="shared" si="45"/>
@@ -8696,42 +8696,42 @@
       </c>
       <c r="T22" s="30">
         <f t="shared" si="47"/>
-        <v>3.894962680316187</v>
-      </c>
-      <c r="X22" s="75"/>
+        <v>3.8949626803161879</v>
+      </c>
+      <c r="X22" s="73"/>
     </row>
     <row r="23" spans="1:24" x14ac:dyDescent="0.15">
-      <c r="A23" s="77" t="s">
+      <c r="A23" s="75" t="s">
         <v>221</v>
       </c>
       <c r="B23" s="29">
         <v>21</v>
       </c>
-      <c r="C23" s="73">
-        <v>93</v>
-      </c>
-      <c r="D23" s="73">
-        <v>271</v>
-      </c>
-      <c r="E23" s="71">
+      <c r="C23" s="77">
+        <v>107.88</v>
+      </c>
+      <c r="D23" s="77">
+        <v>314.35999999999996</v>
+      </c>
+      <c r="E23" s="70">
         <v>150</v>
       </c>
-      <c r="F23" s="71">
+      <c r="F23" s="70">
         <v>218</v>
       </c>
-      <c r="G23" s="72">
+      <c r="G23" s="71">
         <v>55.5</v>
       </c>
-      <c r="H23" s="74">
+      <c r="H23" s="72">
         <v>30.1</v>
       </c>
       <c r="I23">
         <f t="shared" ref="I23:I31" si="54">C23*E23/G23</f>
-        <v>251.35135135135135</v>
+        <v>291.56756756756755</v>
       </c>
       <c r="J23" s="29">
         <f t="shared" ref="J23:J31" si="55">D23*F23/H23</f>
-        <v>1962.7242524916942</v>
+        <v>2276.7601328903652</v>
       </c>
       <c r="K23" s="31">
         <v>10</v>
@@ -8747,15 +8747,15 @@
       </c>
       <c r="O23" s="29">
         <f t="shared" si="42"/>
-        <v>2513.5135135135133</v>
+        <v>2915.6756756756758</v>
       </c>
       <c r="P23" s="29">
         <f t="shared" si="43"/>
-        <v>19627.242524916943</v>
+        <v>22767.601328903653</v>
       </c>
       <c r="Q23" s="30">
         <f t="shared" si="44"/>
-        <v>1.913978494623656</v>
+        <v>1.9139784946236555</v>
       </c>
       <c r="R23" s="30">
         <f t="shared" si="45"/>
@@ -8767,42 +8767,42 @@
       </c>
       <c r="T23" s="30">
         <f t="shared" si="47"/>
-        <v>6.8086878862572791</v>
-      </c>
-      <c r="X23" s="75"/>
+        <v>6.8086878862572773</v>
+      </c>
+      <c r="X23" s="73"/>
     </row>
     <row r="24" spans="1:24" x14ac:dyDescent="0.15">
-      <c r="A24" s="77" t="s">
+      <c r="A24" s="75" t="s">
         <v>222</v>
       </c>
       <c r="B24" s="29">
         <v>22</v>
       </c>
-      <c r="C24" s="73">
-        <v>82</v>
-      </c>
-      <c r="D24" s="73">
-        <v>223</v>
-      </c>
-      <c r="E24" s="71">
+      <c r="C24" s="77">
+        <v>95.11999999999999</v>
+      </c>
+      <c r="D24" s="77">
+        <v>258.68</v>
+      </c>
+      <c r="E24" s="70">
         <v>148</v>
       </c>
-      <c r="F24" s="71">
+      <c r="F24" s="70">
         <v>238</v>
       </c>
-      <c r="G24" s="72">
+      <c r="G24" s="71">
         <v>288.89999999999998</v>
       </c>
-      <c r="H24" s="74">
+      <c r="H24" s="72">
         <v>182.1</v>
       </c>
       <c r="I24">
         <f t="shared" si="54"/>
-        <v>42.007615091727246</v>
+        <v>48.728833506403596</v>
       </c>
       <c r="J24" s="29">
         <f t="shared" si="55"/>
-        <v>291.45524437122464</v>
+        <v>338.08808347062057</v>
       </c>
       <c r="K24" s="31">
         <v>10</v>
@@ -8818,11 +8818,11 @@
       </c>
       <c r="O24" s="29">
         <f t="shared" si="42"/>
-        <v>420.07615091727246</v>
+        <v>487.28833506403595</v>
       </c>
       <c r="P24" s="29">
         <f t="shared" si="43"/>
-        <v>2914.5524437122463</v>
+        <v>3380.8808347062054</v>
       </c>
       <c r="Q24" s="30">
         <f t="shared" si="44"/>
@@ -8838,42 +8838,42 @@
       </c>
       <c r="T24" s="30">
         <f t="shared" si="47"/>
-        <v>5.9381526119682588</v>
-      </c>
-      <c r="X24" s="75"/>
+        <v>5.9381526119682597</v>
+      </c>
+      <c r="X24" s="73"/>
     </row>
     <row r="25" spans="1:24" x14ac:dyDescent="0.15">
-      <c r="A25" s="77" t="s">
+      <c r="A25" s="75" t="s">
         <v>223</v>
       </c>
       <c r="B25" s="29">
         <v>23</v>
       </c>
-      <c r="C25" s="73">
-        <v>108</v>
-      </c>
-      <c r="D25" s="73">
-        <v>299</v>
-      </c>
-      <c r="E25" s="71">
+      <c r="C25" s="77">
+        <v>125.27999999999999</v>
+      </c>
+      <c r="D25" s="77">
+        <v>346.84</v>
+      </c>
+      <c r="E25" s="70">
         <v>199</v>
       </c>
-      <c r="F25" s="71">
+      <c r="F25" s="70">
         <v>268</v>
       </c>
-      <c r="G25" s="72">
+      <c r="G25" s="71">
         <v>89.7</v>
       </c>
-      <c r="H25" s="74">
+      <c r="H25" s="72">
         <v>53.9</v>
       </c>
       <c r="I25">
         <f t="shared" si="54"/>
-        <v>239.59866220735785</v>
+        <v>277.93444816053506</v>
       </c>
       <c r="J25" s="29">
         <f t="shared" si="55"/>
-        <v>1486.6790352504638</v>
+        <v>1724.547680890538</v>
       </c>
       <c r="K25" s="31">
         <v>10</v>
@@ -8889,11 +8889,11 @@
       </c>
       <c r="O25" s="29">
         <f t="shared" si="42"/>
-        <v>2395.9866220735785</v>
+        <v>2779.3444816053507</v>
       </c>
       <c r="P25" s="29">
         <f t="shared" si="43"/>
-        <v>14866.790352504639</v>
+        <v>17245.47680890538</v>
       </c>
       <c r="Q25" s="30">
         <f t="shared" si="44"/>
@@ -8911,40 +8911,40 @@
         <f t="shared" si="47"/>
         <v>5.2048720203781231</v>
       </c>
-      <c r="X25" s="75"/>
+      <c r="X25" s="73"/>
     </row>
     <row r="26" spans="1:24" x14ac:dyDescent="0.15">
-      <c r="A26" s="77" t="s">
+      <c r="A26" s="75" t="s">
         <v>224</v>
       </c>
       <c r="B26" s="29">
         <v>24</v>
       </c>
-      <c r="C26" s="73">
-        <v>55</v>
-      </c>
-      <c r="D26" s="73">
-        <v>169</v>
-      </c>
-      <c r="E26" s="71">
+      <c r="C26" s="77">
+        <v>63.8</v>
+      </c>
+      <c r="D26" s="76">
+        <v>196.04</v>
+      </c>
+      <c r="E26" s="70">
         <v>159</v>
       </c>
-      <c r="F26" s="71">
+      <c r="F26" s="70">
         <v>244</v>
       </c>
-      <c r="G26" s="72">
+      <c r="G26" s="71">
         <v>98.7</v>
       </c>
-      <c r="H26" s="72">
+      <c r="H26" s="71">
         <v>79.400000000000006</v>
       </c>
       <c r="I26">
         <f t="shared" si="54"/>
-        <v>88.60182370820668</v>
+        <v>102.77811550151975</v>
       </c>
       <c r="J26" s="29">
         <f t="shared" si="55"/>
-        <v>519.34508816120899</v>
+        <v>602.44030226700238</v>
       </c>
       <c r="K26" s="31">
         <v>10</v>
@@ -8960,11 +8960,11 @@
       </c>
       <c r="O26" s="29">
         <f t="shared" si="42"/>
-        <v>886.01823708206689</v>
+        <v>1027.7811550151976</v>
       </c>
       <c r="P26" s="29">
         <f t="shared" si="43"/>
-        <v>5193.4508816120906</v>
+        <v>6024.4030226700243</v>
       </c>
       <c r="Q26" s="30">
         <f t="shared" si="44"/>
@@ -8980,42 +8980,42 @@
       </c>
       <c r="T26" s="30">
         <f t="shared" si="47"/>
-        <v>4.8615620584918622</v>
-      </c>
-      <c r="X26" s="75"/>
+        <v>4.8615620584918613</v>
+      </c>
+      <c r="X26" s="73"/>
     </row>
     <row r="27" spans="1:24" x14ac:dyDescent="0.15">
-      <c r="A27" s="77" t="s">
+      <c r="A27" s="75" t="s">
         <v>225</v>
       </c>
       <c r="B27" s="29">
         <v>25</v>
       </c>
-      <c r="C27" s="73">
-        <v>72</v>
-      </c>
-      <c r="D27" s="73">
-        <v>219</v>
-      </c>
-      <c r="E27" s="71">
+      <c r="C27" s="77">
+        <v>83.52</v>
+      </c>
+      <c r="D27" s="77">
+        <v>254.04</v>
+      </c>
+      <c r="E27" s="70">
         <v>148</v>
       </c>
-      <c r="F27" s="71">
+      <c r="F27" s="70">
         <v>238</v>
       </c>
-      <c r="G27" s="72">
+      <c r="G27" s="71">
         <v>58.9</v>
       </c>
-      <c r="H27" s="74">
+      <c r="H27" s="72">
         <v>39.1</v>
       </c>
       <c r="I27">
         <f t="shared" si="54"/>
-        <v>180.91680814940577</v>
+        <v>209.86349745331069</v>
       </c>
       <c r="J27" s="29">
         <f t="shared" si="55"/>
-        <v>1333.0434782608695</v>
+        <v>1546.3304347826086</v>
       </c>
       <c r="K27" s="31">
         <v>10</v>
@@ -9031,11 +9031,11 @@
       </c>
       <c r="O27" s="29">
         <f t="shared" si="42"/>
-        <v>1809.1680814940578</v>
+        <v>2098.6349745331067</v>
       </c>
       <c r="P27" s="29">
         <f t="shared" si="43"/>
-        <v>13330.434782608696</v>
+        <v>15463.304347826088</v>
       </c>
       <c r="Q27" s="30">
         <f t="shared" si="44"/>
@@ -9051,42 +9051,42 @@
       </c>
       <c r="T27" s="30">
         <f t="shared" si="47"/>
-        <v>6.3682677242459853</v>
-      </c>
-      <c r="X27" s="75"/>
+        <v>6.3682677242459862</v>
+      </c>
+      <c r="X27" s="73"/>
     </row>
     <row r="28" spans="1:24" x14ac:dyDescent="0.15">
-      <c r="A28" s="77" t="s">
+      <c r="A28" s="75" t="s">
         <v>226</v>
       </c>
       <c r="B28" s="29">
         <v>26</v>
       </c>
-      <c r="C28" s="73">
-        <v>42</v>
-      </c>
-      <c r="D28" s="73">
-        <v>231</v>
-      </c>
-      <c r="E28" s="71">
-        <v>139</v>
-      </c>
-      <c r="F28" s="71">
+      <c r="C28" s="77">
+        <v>153.11999999999998</v>
+      </c>
+      <c r="D28" s="77">
+        <v>381</v>
+      </c>
+      <c r="E28" s="70">
+        <v>129</v>
+      </c>
+      <c r="F28" s="70">
         <v>201</v>
       </c>
-      <c r="G28" s="72">
-        <v>64.2</v>
-      </c>
-      <c r="H28" s="72">
-        <v>26.87</v>
+      <c r="G28" s="71">
+        <v>130.19999999999999</v>
+      </c>
+      <c r="H28" s="71">
+        <v>89.87</v>
       </c>
       <c r="I28">
         <f t="shared" si="54"/>
-        <v>90.934579439252332</v>
+        <v>151.70875576036863</v>
       </c>
       <c r="J28" s="29">
         <f t="shared" si="55"/>
-        <v>1727.986602158541</v>
+        <v>852.1308556804272</v>
       </c>
       <c r="K28" s="31">
         <v>10</v>
@@ -9102,62 +9102,62 @@
       </c>
       <c r="O28" s="29">
         <f t="shared" si="42"/>
-        <v>909.34579439252332</v>
+        <v>1517.0875576036867</v>
       </c>
       <c r="P28" s="29">
         <f t="shared" si="43"/>
-        <v>17279.866021585411</v>
+        <v>8521.3085568042716</v>
       </c>
       <c r="Q28" s="30">
         <f t="shared" si="44"/>
-        <v>4.5</v>
+        <v>1.4882445141065834</v>
       </c>
       <c r="R28" s="30">
         <f t="shared" si="45"/>
-        <v>0.44604316546762579</v>
+        <v>0.55813953488372103</v>
       </c>
       <c r="S28" s="30">
         <f t="shared" si="46"/>
-        <v>1.3892817268328992</v>
+        <v>0.44875931901635679</v>
       </c>
       <c r="T28" s="30">
         <f t="shared" si="47"/>
-        <v>18.002524813048705</v>
-      </c>
-      <c r="X28" s="75"/>
+        <v>4.6168864572748136</v>
+      </c>
+      <c r="X28" s="73"/>
     </row>
     <row r="29" spans="1:24" x14ac:dyDescent="0.15">
-      <c r="A29" s="77" t="s">
+      <c r="A29" s="75" t="s">
         <v>227</v>
       </c>
       <c r="B29" s="29">
         <v>27</v>
       </c>
-      <c r="C29" s="73">
-        <v>98</v>
-      </c>
-      <c r="D29" s="73">
-        <v>203</v>
-      </c>
-      <c r="E29" s="71">
+      <c r="C29" s="77">
+        <v>113.67999999999999</v>
+      </c>
+      <c r="D29" s="77">
+        <v>235.48</v>
+      </c>
+      <c r="E29" s="70">
         <v>275</v>
       </c>
-      <c r="F29" s="71">
+      <c r="F29" s="70">
         <v>382</v>
       </c>
-      <c r="G29" s="72">
+      <c r="G29" s="71">
         <v>79</v>
       </c>
-      <c r="H29" s="72">
+      <c r="H29" s="71">
         <v>43.25</v>
       </c>
       <c r="I29">
         <f t="shared" si="54"/>
-        <v>341.13924050632909</v>
+        <v>395.72151898734171</v>
       </c>
       <c r="J29" s="29">
         <f t="shared" si="55"/>
-        <v>1792.971098265896</v>
+        <v>2079.8464739884394</v>
       </c>
       <c r="K29" s="31">
         <v>10</v>
@@ -9173,11 +9173,11 @@
       </c>
       <c r="O29" s="29">
         <f t="shared" si="42"/>
-        <v>3411.3924050632913</v>
+        <v>3957.2151898734178</v>
       </c>
       <c r="P29" s="29">
         <f t="shared" si="43"/>
-        <v>17929.710982658959</v>
+        <v>20798.464739884388</v>
       </c>
       <c r="Q29" s="30">
         <f t="shared" si="44"/>
@@ -9193,42 +9193,42 @@
       </c>
       <c r="T29" s="30">
         <f t="shared" si="47"/>
-        <v>4.2558336461226629</v>
-      </c>
-      <c r="X29" s="75"/>
+        <v>4.255833646122662</v>
+      </c>
+      <c r="X29" s="73"/>
     </row>
     <row r="30" spans="1:24" x14ac:dyDescent="0.15">
-      <c r="A30" s="77" t="s">
+      <c r="A30" s="75" t="s">
         <v>228</v>
       </c>
       <c r="B30" s="29">
         <v>28</v>
       </c>
-      <c r="C30" s="73">
-        <v>79</v>
-      </c>
-      <c r="D30" s="73">
-        <v>214</v>
-      </c>
-      <c r="E30" s="71">
+      <c r="C30" s="77">
+        <v>91.64</v>
+      </c>
+      <c r="D30" s="77">
+        <v>248.23999999999998</v>
+      </c>
+      <c r="E30" s="70">
         <v>137</v>
       </c>
-      <c r="F30" s="71">
+      <c r="F30" s="70">
         <v>294</v>
       </c>
-      <c r="G30" s="72">
+      <c r="G30" s="71">
         <v>99.9</v>
       </c>
-      <c r="H30" s="72">
+      <c r="H30" s="71">
         <v>74.25</v>
       </c>
       <c r="I30">
         <f t="shared" si="54"/>
-        <v>108.33833833833833</v>
+        <v>125.67247247247246</v>
       </c>
       <c r="J30" s="29">
         <f t="shared" si="55"/>
-        <v>847.35353535353534</v>
+        <v>982.930101010101</v>
       </c>
       <c r="K30" s="31">
         <v>10</v>
@@ -9244,11 +9244,11 @@
       </c>
       <c r="O30" s="29">
         <f t="shared" si="42"/>
-        <v>1083.3833833833833</v>
+        <v>1256.7247247247246</v>
       </c>
       <c r="P30" s="29">
         <f t="shared" si="43"/>
-        <v>8473.5353535353534</v>
+        <v>9829.3010101010077</v>
       </c>
       <c r="Q30" s="30">
         <f t="shared" si="44"/>
@@ -9264,42 +9264,42 @@
       </c>
       <c r="T30" s="30">
         <f t="shared" si="47"/>
-        <v>6.8213635943655353</v>
-      </c>
-      <c r="X30" s="75"/>
+        <v>6.8213635943655335</v>
+      </c>
+      <c r="X30" s="73"/>
     </row>
     <row r="31" spans="1:24" x14ac:dyDescent="0.15">
-      <c r="A31" s="77" t="s">
+      <c r="A31" s="75" t="s">
         <v>229</v>
       </c>
       <c r="B31" s="29">
         <v>29</v>
       </c>
-      <c r="C31" s="73">
-        <v>98</v>
-      </c>
-      <c r="D31" s="73">
-        <v>163</v>
-      </c>
-      <c r="E31" s="71">
-        <v>187</v>
-      </c>
-      <c r="F31" s="71">
-        <v>264</v>
-      </c>
-      <c r="G31" s="72">
+      <c r="C31" s="77">
+        <v>122.23</v>
+      </c>
+      <c r="D31" s="77">
+        <v>190.08</v>
+      </c>
+      <c r="E31" s="70">
+        <v>306</v>
+      </c>
+      <c r="F31" s="70">
+        <v>540</v>
+      </c>
+      <c r="G31" s="71">
         <v>55.5</v>
       </c>
-      <c r="H31" s="72">
+      <c r="H31" s="71">
         <v>31.25</v>
       </c>
       <c r="I31">
         <f t="shared" si="54"/>
-        <v>330.19819819819821</v>
+        <v>673.91675675675685</v>
       </c>
       <c r="J31" s="29">
         <f t="shared" si="55"/>
-        <v>1377.0239999999999</v>
+        <v>3284.5824000000002</v>
       </c>
       <c r="K31" s="31">
         <v>10</v>
@@ -9315,19 +9315,19 @@
       </c>
       <c r="O31" s="29">
         <f t="shared" si="42"/>
-        <v>3301.9819819819818</v>
+        <v>6739.1675675675669</v>
       </c>
       <c r="P31" s="29">
         <f t="shared" si="43"/>
-        <v>13770.24</v>
+        <v>32845.824000000001</v>
       </c>
       <c r="Q31" s="30">
         <f t="shared" si="44"/>
-        <v>0.66326530612244894</v>
+        <v>0.55510103902478947</v>
       </c>
       <c r="R31" s="30">
         <f t="shared" si="45"/>
-        <v>0.41176470588235303</v>
+        <v>0.76470588235294112</v>
       </c>
       <c r="S31" s="30">
         <f t="shared" si="46"/>
@@ -9335,42 +9335,42 @@
       </c>
       <c r="T31" s="30">
         <f t="shared" si="47"/>
-        <v>3.1702953181272511</v>
-      </c>
-      <c r="X31" s="75"/>
+        <v>3.8738696093671052</v>
+      </c>
+      <c r="X31" s="73"/>
     </row>
     <row r="32" spans="1:24" x14ac:dyDescent="0.15">
-      <c r="A32" s="77" t="s">
+      <c r="A32" s="75" t="s">
         <v>230</v>
       </c>
       <c r="B32" s="29">
         <v>30</v>
       </c>
-      <c r="C32" s="73">
-        <v>110</v>
-      </c>
-      <c r="D32" s="73">
-        <v>243</v>
-      </c>
-      <c r="E32" s="71">
-        <v>139</v>
-      </c>
-      <c r="F32" s="71">
+      <c r="C32" s="77">
+        <v>127.6</v>
+      </c>
+      <c r="D32" s="77">
+        <v>281.88</v>
+      </c>
+      <c r="E32" s="70">
+        <v>130</v>
+      </c>
+      <c r="F32" s="70">
         <v>177</v>
       </c>
-      <c r="G32" s="72">
+      <c r="G32" s="71">
         <v>194.9</v>
       </c>
-      <c r="H32" s="74">
+      <c r="H32" s="72">
         <v>162.1</v>
       </c>
       <c r="I32">
         <f t="shared" ref="I32:I34" si="56">C32*E32/G32</f>
-        <v>78.450487429451002</v>
+        <v>85.110312981015909</v>
       </c>
       <c r="J32" s="29">
         <f t="shared" ref="J32:J34" si="57">D32*F32/H32</f>
-        <v>265.33621221468229</v>
+        <v>307.79000616903147</v>
       </c>
       <c r="K32" s="31">
         <v>10</v>
@@ -9386,11 +9386,11 @@
       </c>
       <c r="O32" s="29">
         <f t="shared" ref="O32:O34" si="58">K32*C32*E32/G32+M32</f>
-        <v>784.50487429450993</v>
+        <v>851.10312981015898</v>
       </c>
       <c r="P32" s="29">
         <f t="shared" ref="P32:P34" si="59">K32*D32*F32/H32+N32</f>
-        <v>2653.3621221468229</v>
+        <v>3077.9000616903149</v>
       </c>
       <c r="Q32" s="30">
         <f t="shared" ref="Q32:Q34" si="60">D32/C32-1</f>
@@ -9398,7 +9398,7 @@
       </c>
       <c r="R32" s="30">
         <f t="shared" ref="R32:R34" si="61">F32/E32-1</f>
-        <v>0.27338129496402885</v>
+        <v>0.36153846153846159</v>
       </c>
       <c r="S32" s="30">
         <f t="shared" ref="S32:S34" si="62">G32/H32-1</f>
@@ -9406,41 +9406,41 @@
       </c>
       <c r="T32" s="30">
         <f t="shared" ref="T32:T34" si="63">P32/O32-1</f>
-        <v>2.3822124107679254</v>
+        <v>2.6163655776672439</v>
       </c>
     </row>
     <row r="33" spans="1:20" x14ac:dyDescent="0.15">
-      <c r="A33" s="77" t="s">
+      <c r="A33" s="75" t="s">
         <v>231</v>
       </c>
       <c r="B33" s="29">
         <v>31</v>
       </c>
-      <c r="C33" s="73">
-        <v>43</v>
-      </c>
-      <c r="D33" s="73">
-        <v>163</v>
-      </c>
-      <c r="E33" s="71">
-        <v>187</v>
-      </c>
-      <c r="F33" s="71">
-        <v>264</v>
-      </c>
-      <c r="G33" s="72">
-        <v>55.5</v>
-      </c>
-      <c r="H33" s="72">
-        <v>31.25</v>
+      <c r="C33" s="77">
+        <v>107.88</v>
+      </c>
+      <c r="D33" s="77">
+        <v>192.55999999999997</v>
+      </c>
+      <c r="E33" s="70">
+        <v>217</v>
+      </c>
+      <c r="F33" s="70">
+        <v>324</v>
+      </c>
+      <c r="G33" s="71">
+        <v>58.5</v>
+      </c>
+      <c r="H33" s="71">
+        <v>37.75</v>
       </c>
       <c r="I33">
         <f t="shared" si="56"/>
-        <v>144.88288288288288</v>
+        <v>400.1702564102564</v>
       </c>
       <c r="J33" s="29">
         <f t="shared" si="57"/>
-        <v>1377.0239999999999</v>
+        <v>1652.7003973509932</v>
       </c>
       <c r="K33" s="31">
         <v>10</v>
@@ -9456,61 +9456,61 @@
       </c>
       <c r="O33" s="29">
         <f t="shared" si="58"/>
-        <v>1448.8288288288288</v>
+        <v>4001.7025641025639</v>
       </c>
       <c r="P33" s="29">
         <f t="shared" si="59"/>
-        <v>13770.24</v>
+        <v>16527.003973509931</v>
       </c>
       <c r="Q33" s="30">
         <f t="shared" si="60"/>
-        <v>2.7906976744186047</v>
+        <v>0.78494623655913953</v>
       </c>
       <c r="R33" s="30">
         <f t="shared" si="61"/>
-        <v>0.41176470588235303</v>
+        <v>0.49308755760368661</v>
       </c>
       <c r="S33" s="30">
         <f t="shared" si="62"/>
-        <v>0.77600000000000002</v>
+        <v>0.54966887417218535</v>
       </c>
       <c r="T33" s="30">
         <f t="shared" si="63"/>
-        <v>8.5043939808481532</v>
+        <v>3.1299930988789857</v>
       </c>
     </row>
     <row r="34" spans="1:20" x14ac:dyDescent="0.15">
-      <c r="A34" s="77" t="s">
+      <c r="A34" s="75" t="s">
         <v>232</v>
       </c>
       <c r="B34" s="29">
         <v>32</v>
       </c>
-      <c r="C34" s="73">
-        <v>43</v>
-      </c>
-      <c r="D34" s="73">
-        <v>163</v>
-      </c>
-      <c r="E34" s="71">
+      <c r="C34" s="77">
+        <v>49.879999999999995</v>
+      </c>
+      <c r="D34" s="77">
+        <v>189.07999999999998</v>
+      </c>
+      <c r="E34" s="70">
         <v>187</v>
       </c>
-      <c r="F34" s="71">
+      <c r="F34" s="70">
         <v>264</v>
       </c>
-      <c r="G34" s="72">
+      <c r="G34" s="71">
         <v>55.5</v>
       </c>
-      <c r="H34" s="72">
+      <c r="H34" s="71">
         <v>31.25</v>
       </c>
       <c r="I34">
         <f t="shared" si="56"/>
-        <v>144.88288288288288</v>
+        <v>168.06414414414414</v>
       </c>
       <c r="J34" s="29">
         <f t="shared" si="57"/>
-        <v>1377.0239999999999</v>
+        <v>1597.3478399999999</v>
       </c>
       <c r="K34" s="31">
         <v>10</v>
@@ -9526,11 +9526,11 @@
       </c>
       <c r="O34" s="29">
         <f t="shared" si="58"/>
-        <v>1448.8288288288288</v>
+        <v>1680.6414414414412</v>
       </c>
       <c r="P34" s="29">
         <f t="shared" si="59"/>
-        <v>13770.24</v>
+        <v>15973.478399999998</v>
       </c>
       <c r="Q34" s="30">
         <f t="shared" si="60"/>
@@ -9650,7 +9650,7 @@
   </sheetData>
   <phoneticPr fontId="16" type="noConversion"/>
   <conditionalFormatting sqref="C2:C16">
-    <cfRule type="dataBar" priority="250">
+    <cfRule type="dataBar" priority="267">
       <dataBar>
         <cfvo type="min"/>
         <cfvo type="max"/>
@@ -9664,7 +9664,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D2:D16">
-    <cfRule type="dataBar" priority="256">
+    <cfRule type="dataBar" priority="273">
       <dataBar>
         <cfvo type="min"/>
         <cfvo type="max"/>
@@ -9678,7 +9678,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E2:E21">
-    <cfRule type="dataBar" priority="255">
+    <cfRule type="dataBar" priority="272">
       <dataBar>
         <cfvo type="min"/>
         <cfvo type="max"/>
@@ -9692,7 +9692,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F2:F21">
-    <cfRule type="dataBar" priority="254">
+    <cfRule type="dataBar" priority="271">
       <dataBar>
         <cfvo type="min"/>
         <cfvo type="max"/>
@@ -9706,7 +9706,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G2:G21">
-    <cfRule type="dataBar" priority="253">
+    <cfRule type="dataBar" priority="270">
       <dataBar>
         <cfvo type="min"/>
         <cfvo type="max"/>
@@ -9720,7 +9720,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H2:H21">
-    <cfRule type="dataBar" priority="252">
+    <cfRule type="dataBar" priority="269">
       <dataBar>
         <cfvo type="min"/>
         <cfvo type="max"/>
@@ -9734,7 +9734,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C2:D16">
-    <cfRule type="dataBar" priority="251">
+    <cfRule type="dataBar" priority="268">
       <dataBar>
         <cfvo type="min"/>
         <cfvo type="max"/>
@@ -9748,7 +9748,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E22">
-    <cfRule type="dataBar" priority="248">
+    <cfRule type="dataBar" priority="265">
       <dataBar>
         <cfvo type="min"/>
         <cfvo type="max"/>
@@ -9762,7 +9762,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F22">
-    <cfRule type="dataBar" priority="247">
+    <cfRule type="dataBar" priority="264">
       <dataBar>
         <cfvo type="min"/>
         <cfvo type="max"/>
@@ -9776,7 +9776,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G22">
-    <cfRule type="dataBar" priority="246">
+    <cfRule type="dataBar" priority="263">
       <dataBar>
         <cfvo type="min"/>
         <cfvo type="max"/>
@@ -9790,7 +9790,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H22">
-    <cfRule type="dataBar" priority="245">
+    <cfRule type="dataBar" priority="262">
       <dataBar>
         <cfvo type="min"/>
         <cfvo type="max"/>
@@ -9804,7 +9804,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C2:C16">
-    <cfRule type="dataBar" priority="242">
+    <cfRule type="dataBar" priority="259">
       <dataBar>
         <cfvo type="min"/>
         <cfvo type="max"/>
@@ -9818,7 +9818,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D2:D16">
-    <cfRule type="dataBar" priority="241">
+    <cfRule type="dataBar" priority="258">
       <dataBar>
         <cfvo type="min"/>
         <cfvo type="max"/>
@@ -9832,7 +9832,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E2:E22">
-    <cfRule type="dataBar" priority="240">
+    <cfRule type="dataBar" priority="257">
       <dataBar>
         <cfvo type="min"/>
         <cfvo type="max"/>
@@ -9846,7 +9846,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F2:F22">
-    <cfRule type="dataBar" priority="239">
+    <cfRule type="dataBar" priority="256">
       <dataBar>
         <cfvo type="min"/>
         <cfvo type="max"/>
@@ -9860,7 +9860,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G2:G22">
-    <cfRule type="dataBar" priority="238">
+    <cfRule type="dataBar" priority="255">
       <dataBar>
         <cfvo type="min"/>
         <cfvo type="max"/>
@@ -9874,7 +9874,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H2:H22">
-    <cfRule type="dataBar" priority="237">
+    <cfRule type="dataBar" priority="254">
       <dataBar>
         <cfvo type="min"/>
         <cfvo type="max"/>
@@ -9888,7 +9888,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E23">
-    <cfRule type="dataBar" priority="235">
+    <cfRule type="dataBar" priority="252">
       <dataBar>
         <cfvo type="min"/>
         <cfvo type="max"/>
@@ -9902,7 +9902,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F23">
-    <cfRule type="dataBar" priority="234">
+    <cfRule type="dataBar" priority="251">
       <dataBar>
         <cfvo type="min"/>
         <cfvo type="max"/>
@@ -9916,7 +9916,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G23">
-    <cfRule type="dataBar" priority="233">
+    <cfRule type="dataBar" priority="250">
       <dataBar>
         <cfvo type="min"/>
         <cfvo type="max"/>
@@ -9930,7 +9930,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H23">
-    <cfRule type="dataBar" priority="232">
+    <cfRule type="dataBar" priority="249">
       <dataBar>
         <cfvo type="min"/>
         <cfvo type="max"/>
@@ -9944,7 +9944,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E23">
-    <cfRule type="dataBar" priority="227">
+    <cfRule type="dataBar" priority="244">
       <dataBar>
         <cfvo type="min"/>
         <cfvo type="max"/>
@@ -9958,7 +9958,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F23">
-    <cfRule type="dataBar" priority="226">
+    <cfRule type="dataBar" priority="243">
       <dataBar>
         <cfvo type="min"/>
         <cfvo type="max"/>
@@ -9972,7 +9972,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G23">
-    <cfRule type="dataBar" priority="225">
+    <cfRule type="dataBar" priority="242">
       <dataBar>
         <cfvo type="min"/>
         <cfvo type="max"/>
@@ -9986,7 +9986,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H23">
-    <cfRule type="dataBar" priority="224">
+    <cfRule type="dataBar" priority="241">
       <dataBar>
         <cfvo type="min"/>
         <cfvo type="max"/>
@@ -10000,7 +10000,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E24">
-    <cfRule type="dataBar" priority="222">
+    <cfRule type="dataBar" priority="239">
       <dataBar>
         <cfvo type="min"/>
         <cfvo type="max"/>
@@ -10014,7 +10014,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F24">
-    <cfRule type="dataBar" priority="221">
+    <cfRule type="dataBar" priority="238">
       <dataBar>
         <cfvo type="min"/>
         <cfvo type="max"/>
@@ -10028,7 +10028,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G24">
-    <cfRule type="dataBar" priority="220">
+    <cfRule type="dataBar" priority="237">
       <dataBar>
         <cfvo type="min"/>
         <cfvo type="max"/>
@@ -10042,7 +10042,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H24">
-    <cfRule type="dataBar" priority="219">
+    <cfRule type="dataBar" priority="236">
       <dataBar>
         <cfvo type="min"/>
         <cfvo type="max"/>
@@ -10056,7 +10056,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E24">
-    <cfRule type="dataBar" priority="214">
+    <cfRule type="dataBar" priority="231">
       <dataBar>
         <cfvo type="min"/>
         <cfvo type="max"/>
@@ -10070,7 +10070,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F24">
-    <cfRule type="dataBar" priority="213">
+    <cfRule type="dataBar" priority="230">
       <dataBar>
         <cfvo type="min"/>
         <cfvo type="max"/>
@@ -10084,7 +10084,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G24">
-    <cfRule type="dataBar" priority="212">
+    <cfRule type="dataBar" priority="229">
       <dataBar>
         <cfvo type="min"/>
         <cfvo type="max"/>
@@ -10098,7 +10098,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H24">
-    <cfRule type="dataBar" priority="211">
+    <cfRule type="dataBar" priority="228">
       <dataBar>
         <cfvo type="min"/>
         <cfvo type="max"/>
@@ -10112,7 +10112,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E25">
-    <cfRule type="dataBar" priority="209">
+    <cfRule type="dataBar" priority="226">
       <dataBar>
         <cfvo type="min"/>
         <cfvo type="max"/>
@@ -10126,7 +10126,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F25">
-    <cfRule type="dataBar" priority="208">
+    <cfRule type="dataBar" priority="225">
       <dataBar>
         <cfvo type="min"/>
         <cfvo type="max"/>
@@ -10140,7 +10140,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G25">
-    <cfRule type="dataBar" priority="207">
+    <cfRule type="dataBar" priority="224">
       <dataBar>
         <cfvo type="min"/>
         <cfvo type="max"/>
@@ -10154,7 +10154,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H25">
-    <cfRule type="dataBar" priority="206">
+    <cfRule type="dataBar" priority="223">
       <dataBar>
         <cfvo type="min"/>
         <cfvo type="max"/>
@@ -10168,7 +10168,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E25">
-    <cfRule type="dataBar" priority="201">
+    <cfRule type="dataBar" priority="218">
       <dataBar>
         <cfvo type="min"/>
         <cfvo type="max"/>
@@ -10182,7 +10182,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F25">
-    <cfRule type="dataBar" priority="200">
+    <cfRule type="dataBar" priority="217">
       <dataBar>
         <cfvo type="min"/>
         <cfvo type="max"/>
@@ -10196,7 +10196,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G25">
-    <cfRule type="dataBar" priority="199">
+    <cfRule type="dataBar" priority="216">
       <dataBar>
         <cfvo type="min"/>
         <cfvo type="max"/>
@@ -10210,7 +10210,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H25">
-    <cfRule type="dataBar" priority="198">
+    <cfRule type="dataBar" priority="215">
       <dataBar>
         <cfvo type="min"/>
         <cfvo type="max"/>
@@ -10224,7 +10224,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C2:C16">
-    <cfRule type="dataBar" priority="197">
+    <cfRule type="dataBar" priority="214">
       <dataBar>
         <cfvo type="min"/>
         <cfvo type="max"/>
@@ -10238,7 +10238,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D2:D16">
-    <cfRule type="dataBar" priority="196">
+    <cfRule type="dataBar" priority="213">
       <dataBar>
         <cfvo type="min"/>
         <cfvo type="max"/>
@@ -10252,7 +10252,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E2:E25">
-    <cfRule type="dataBar" priority="195">
+    <cfRule type="dataBar" priority="212">
       <dataBar>
         <cfvo type="min"/>
         <cfvo type="max"/>
@@ -10266,7 +10266,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F2:F25">
-    <cfRule type="dataBar" priority="194">
+    <cfRule type="dataBar" priority="211">
       <dataBar>
         <cfvo type="min"/>
         <cfvo type="max"/>
@@ -10280,7 +10280,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G2:G25">
-    <cfRule type="dataBar" priority="193">
+    <cfRule type="dataBar" priority="210">
       <dataBar>
         <cfvo type="min"/>
         <cfvo type="max"/>
@@ -10294,7 +10294,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H2:H25">
-    <cfRule type="dataBar" priority="192">
+    <cfRule type="dataBar" priority="209">
       <dataBar>
         <cfvo type="min"/>
         <cfvo type="max"/>
@@ -10308,7 +10308,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E26">
-    <cfRule type="dataBar" priority="190">
+    <cfRule type="dataBar" priority="207">
       <dataBar>
         <cfvo type="min"/>
         <cfvo type="max"/>
@@ -10322,7 +10322,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F26">
-    <cfRule type="dataBar" priority="189">
+    <cfRule type="dataBar" priority="206">
       <dataBar>
         <cfvo type="min"/>
         <cfvo type="max"/>
@@ -10336,7 +10336,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G26">
-    <cfRule type="dataBar" priority="188">
+    <cfRule type="dataBar" priority="205">
       <dataBar>
         <cfvo type="min"/>
         <cfvo type="max"/>
@@ -10350,7 +10350,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H26">
-    <cfRule type="dataBar" priority="187">
+    <cfRule type="dataBar" priority="204">
       <dataBar>
         <cfvo type="min"/>
         <cfvo type="max"/>
@@ -10364,7 +10364,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E26">
-    <cfRule type="dataBar" priority="182">
+    <cfRule type="dataBar" priority="199">
       <dataBar>
         <cfvo type="min"/>
         <cfvo type="max"/>
@@ -10378,7 +10378,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F26">
-    <cfRule type="dataBar" priority="181">
+    <cfRule type="dataBar" priority="198">
       <dataBar>
         <cfvo type="min"/>
         <cfvo type="max"/>
@@ -10392,7 +10392,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G26">
-    <cfRule type="dataBar" priority="180">
+    <cfRule type="dataBar" priority="197">
       <dataBar>
         <cfvo type="min"/>
         <cfvo type="max"/>
@@ -10406,7 +10406,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H26">
-    <cfRule type="dataBar" priority="179">
+    <cfRule type="dataBar" priority="196">
       <dataBar>
         <cfvo type="min"/>
         <cfvo type="max"/>
@@ -10420,7 +10420,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E26">
-    <cfRule type="dataBar" priority="176">
+    <cfRule type="dataBar" priority="193">
       <dataBar>
         <cfvo type="min"/>
         <cfvo type="max"/>
@@ -10434,7 +10434,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F26">
-    <cfRule type="dataBar" priority="175">
+    <cfRule type="dataBar" priority="192">
       <dataBar>
         <cfvo type="min"/>
         <cfvo type="max"/>
@@ -10448,7 +10448,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G26">
-    <cfRule type="dataBar" priority="174">
+    <cfRule type="dataBar" priority="191">
       <dataBar>
         <cfvo type="min"/>
         <cfvo type="max"/>
@@ -10462,7 +10462,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H26">
-    <cfRule type="dataBar" priority="173">
+    <cfRule type="dataBar" priority="190">
       <dataBar>
         <cfvo type="min"/>
         <cfvo type="max"/>
@@ -10476,7 +10476,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C2:C16">
-    <cfRule type="dataBar" priority="172">
+    <cfRule type="dataBar" priority="189">
       <dataBar>
         <cfvo type="min"/>
         <cfvo type="max"/>
@@ -10490,7 +10490,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E27">
-    <cfRule type="dataBar" priority="170">
+    <cfRule type="dataBar" priority="187">
       <dataBar>
         <cfvo type="min"/>
         <cfvo type="max"/>
@@ -10504,7 +10504,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F27">
-    <cfRule type="dataBar" priority="169">
+    <cfRule type="dataBar" priority="186">
       <dataBar>
         <cfvo type="min"/>
         <cfvo type="max"/>
@@ -10518,7 +10518,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G27">
-    <cfRule type="dataBar" priority="168">
+    <cfRule type="dataBar" priority="185">
       <dataBar>
         <cfvo type="min"/>
         <cfvo type="max"/>
@@ -10532,7 +10532,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H27">
-    <cfRule type="dataBar" priority="167">
+    <cfRule type="dataBar" priority="184">
       <dataBar>
         <cfvo type="min"/>
         <cfvo type="max"/>
@@ -10546,7 +10546,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E27">
-    <cfRule type="dataBar" priority="162">
+    <cfRule type="dataBar" priority="179">
       <dataBar>
         <cfvo type="min"/>
         <cfvo type="max"/>
@@ -10560,7 +10560,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F27">
-    <cfRule type="dataBar" priority="161">
+    <cfRule type="dataBar" priority="178">
       <dataBar>
         <cfvo type="min"/>
         <cfvo type="max"/>
@@ -10574,7 +10574,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G27">
-    <cfRule type="dataBar" priority="160">
+    <cfRule type="dataBar" priority="177">
       <dataBar>
         <cfvo type="min"/>
         <cfvo type="max"/>
@@ -10588,7 +10588,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H27">
-    <cfRule type="dataBar" priority="159">
+    <cfRule type="dataBar" priority="176">
       <dataBar>
         <cfvo type="min"/>
         <cfvo type="max"/>
@@ -10602,7 +10602,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E27">
-    <cfRule type="dataBar" priority="156">
+    <cfRule type="dataBar" priority="173">
       <dataBar>
         <cfvo type="min"/>
         <cfvo type="max"/>
@@ -10616,7 +10616,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F27">
-    <cfRule type="dataBar" priority="155">
+    <cfRule type="dataBar" priority="172">
       <dataBar>
         <cfvo type="min"/>
         <cfvo type="max"/>
@@ -10630,7 +10630,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G27">
-    <cfRule type="dataBar" priority="154">
+    <cfRule type="dataBar" priority="171">
       <dataBar>
         <cfvo type="min"/>
         <cfvo type="max"/>
@@ -10644,7 +10644,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H27">
-    <cfRule type="dataBar" priority="153">
+    <cfRule type="dataBar" priority="170">
       <dataBar>
         <cfvo type="min"/>
         <cfvo type="max"/>
@@ -10658,7 +10658,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H2:H27">
-    <cfRule type="dataBar" priority="151">
+    <cfRule type="dataBar" priority="168">
       <dataBar>
         <cfvo type="min"/>
         <cfvo type="max"/>
@@ -10672,7 +10672,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G2:G27">
-    <cfRule type="dataBar" priority="150">
+    <cfRule type="dataBar" priority="167">
       <dataBar>
         <cfvo type="min"/>
         <cfvo type="max"/>
@@ -10686,7 +10686,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F2:F27">
-    <cfRule type="dataBar" priority="149">
+    <cfRule type="dataBar" priority="166">
       <dataBar>
         <cfvo type="min"/>
         <cfvo type="max"/>
@@ -10700,7 +10700,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E2:E27">
-    <cfRule type="dataBar" priority="148">
+    <cfRule type="dataBar" priority="165">
       <dataBar>
         <cfvo type="min"/>
         <cfvo type="max"/>
@@ -10714,7 +10714,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D2:D16">
-    <cfRule type="dataBar" priority="147">
+    <cfRule type="dataBar" priority="164">
       <dataBar>
         <cfvo type="min"/>
         <cfvo type="max"/>
@@ -10728,7 +10728,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C2:C16">
-    <cfRule type="dataBar" priority="146">
+    <cfRule type="dataBar" priority="163">
       <dataBar>
         <cfvo type="min"/>
         <cfvo type="max"/>
@@ -10742,7 +10742,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E28">
-    <cfRule type="dataBar" priority="144">
+    <cfRule type="dataBar" priority="161">
       <dataBar>
         <cfvo type="min"/>
         <cfvo type="max"/>
@@ -10756,7 +10756,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F28">
-    <cfRule type="dataBar" priority="143">
+    <cfRule type="dataBar" priority="160">
       <dataBar>
         <cfvo type="min"/>
         <cfvo type="max"/>
@@ -10770,7 +10770,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G28">
-    <cfRule type="dataBar" priority="142">
+    <cfRule type="dataBar" priority="159">
       <dataBar>
         <cfvo type="min"/>
         <cfvo type="max"/>
@@ -10784,7 +10784,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H28">
-    <cfRule type="dataBar" priority="141">
+    <cfRule type="dataBar" priority="158">
       <dataBar>
         <cfvo type="min"/>
         <cfvo type="max"/>
@@ -10798,7 +10798,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E28">
-    <cfRule type="dataBar" priority="136">
+    <cfRule type="dataBar" priority="153">
       <dataBar>
         <cfvo type="min"/>
         <cfvo type="max"/>
@@ -10812,7 +10812,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F28">
-    <cfRule type="dataBar" priority="135">
+    <cfRule type="dataBar" priority="152">
       <dataBar>
         <cfvo type="min"/>
         <cfvo type="max"/>
@@ -10826,7 +10826,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G28">
-    <cfRule type="dataBar" priority="134">
+    <cfRule type="dataBar" priority="151">
       <dataBar>
         <cfvo type="min"/>
         <cfvo type="max"/>
@@ -10840,7 +10840,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H28">
-    <cfRule type="dataBar" priority="133">
+    <cfRule type="dataBar" priority="150">
       <dataBar>
         <cfvo type="min"/>
         <cfvo type="max"/>
@@ -10854,7 +10854,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E28">
-    <cfRule type="dataBar" priority="130">
+    <cfRule type="dataBar" priority="147">
       <dataBar>
         <cfvo type="min"/>
         <cfvo type="max"/>
@@ -10868,7 +10868,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F28">
-    <cfRule type="dataBar" priority="129">
+    <cfRule type="dataBar" priority="146">
       <dataBar>
         <cfvo type="min"/>
         <cfvo type="max"/>
@@ -10882,7 +10882,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G28">
-    <cfRule type="dataBar" priority="128">
+    <cfRule type="dataBar" priority="145">
       <dataBar>
         <cfvo type="min"/>
         <cfvo type="max"/>
@@ -10896,7 +10896,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H28">
-    <cfRule type="dataBar" priority="127">
+    <cfRule type="dataBar" priority="144">
       <dataBar>
         <cfvo type="min"/>
         <cfvo type="max"/>
@@ -10910,7 +10910,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H28">
-    <cfRule type="dataBar" priority="125">
+    <cfRule type="dataBar" priority="142">
       <dataBar>
         <cfvo type="min"/>
         <cfvo type="max"/>
@@ -10924,7 +10924,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G28">
-    <cfRule type="dataBar" priority="124">
+    <cfRule type="dataBar" priority="141">
       <dataBar>
         <cfvo type="min"/>
         <cfvo type="max"/>
@@ -10938,7 +10938,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F28">
-    <cfRule type="dataBar" priority="123">
+    <cfRule type="dataBar" priority="140">
       <dataBar>
         <cfvo type="min"/>
         <cfvo type="max"/>
@@ -10952,7 +10952,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E28">
-    <cfRule type="dataBar" priority="122">
+    <cfRule type="dataBar" priority="139">
       <dataBar>
         <cfvo type="min"/>
         <cfvo type="max"/>
@@ -10966,7 +10966,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E29">
-    <cfRule type="dataBar" priority="118">
+    <cfRule type="dataBar" priority="135">
       <dataBar>
         <cfvo type="min"/>
         <cfvo type="max"/>
@@ -10980,7 +10980,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F29">
-    <cfRule type="dataBar" priority="117">
+    <cfRule type="dataBar" priority="134">
       <dataBar>
         <cfvo type="min"/>
         <cfvo type="max"/>
@@ -10994,7 +10994,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G29">
-    <cfRule type="dataBar" priority="116">
+    <cfRule type="dataBar" priority="133">
       <dataBar>
         <cfvo type="min"/>
         <cfvo type="max"/>
@@ -11008,7 +11008,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H29">
-    <cfRule type="dataBar" priority="115">
+    <cfRule type="dataBar" priority="132">
       <dataBar>
         <cfvo type="min"/>
         <cfvo type="max"/>
@@ -11022,7 +11022,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E29">
-    <cfRule type="dataBar" priority="110">
+    <cfRule type="dataBar" priority="127">
       <dataBar>
         <cfvo type="min"/>
         <cfvo type="max"/>
@@ -11036,7 +11036,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F29">
-    <cfRule type="dataBar" priority="109">
+    <cfRule type="dataBar" priority="126">
       <dataBar>
         <cfvo type="min"/>
         <cfvo type="max"/>
@@ -11050,7 +11050,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G29">
-    <cfRule type="dataBar" priority="108">
+    <cfRule type="dataBar" priority="125">
       <dataBar>
         <cfvo type="min"/>
         <cfvo type="max"/>
@@ -11064,7 +11064,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H29">
-    <cfRule type="dataBar" priority="107">
+    <cfRule type="dataBar" priority="124">
       <dataBar>
         <cfvo type="min"/>
         <cfvo type="max"/>
@@ -11078,7 +11078,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E29">
-    <cfRule type="dataBar" priority="104">
+    <cfRule type="dataBar" priority="121">
       <dataBar>
         <cfvo type="min"/>
         <cfvo type="max"/>
@@ -11092,7 +11092,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F29">
-    <cfRule type="dataBar" priority="103">
+    <cfRule type="dataBar" priority="120">
       <dataBar>
         <cfvo type="min"/>
         <cfvo type="max"/>
@@ -11106,7 +11106,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G29">
-    <cfRule type="dataBar" priority="102">
+    <cfRule type="dataBar" priority="119">
       <dataBar>
         <cfvo type="min"/>
         <cfvo type="max"/>
@@ -11120,7 +11120,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H29">
-    <cfRule type="dataBar" priority="101">
+    <cfRule type="dataBar" priority="118">
       <dataBar>
         <cfvo type="min"/>
         <cfvo type="max"/>
@@ -11134,7 +11134,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H29">
-    <cfRule type="dataBar" priority="99">
+    <cfRule type="dataBar" priority="116">
       <dataBar>
         <cfvo type="min"/>
         <cfvo type="max"/>
@@ -11148,7 +11148,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G29">
-    <cfRule type="dataBar" priority="98">
+    <cfRule type="dataBar" priority="115">
       <dataBar>
         <cfvo type="min"/>
         <cfvo type="max"/>
@@ -11162,7 +11162,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F29">
-    <cfRule type="dataBar" priority="97">
+    <cfRule type="dataBar" priority="114">
       <dataBar>
         <cfvo type="min"/>
         <cfvo type="max"/>
@@ -11176,7 +11176,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E29">
-    <cfRule type="dataBar" priority="96">
+    <cfRule type="dataBar" priority="113">
       <dataBar>
         <cfvo type="min"/>
         <cfvo type="max"/>
@@ -11190,7 +11190,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E30">
-    <cfRule type="dataBar" priority="92">
+    <cfRule type="dataBar" priority="109">
       <dataBar>
         <cfvo type="min"/>
         <cfvo type="max"/>
@@ -11204,7 +11204,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F30">
-    <cfRule type="dataBar" priority="91">
+    <cfRule type="dataBar" priority="108">
       <dataBar>
         <cfvo type="min"/>
         <cfvo type="max"/>
@@ -11218,7 +11218,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G30">
-    <cfRule type="dataBar" priority="90">
+    <cfRule type="dataBar" priority="107">
       <dataBar>
         <cfvo type="min"/>
         <cfvo type="max"/>
@@ -11232,7 +11232,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H30">
-    <cfRule type="dataBar" priority="89">
+    <cfRule type="dataBar" priority="106">
       <dataBar>
         <cfvo type="min"/>
         <cfvo type="max"/>
@@ -11246,7 +11246,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E30">
-    <cfRule type="dataBar" priority="84">
+    <cfRule type="dataBar" priority="101">
       <dataBar>
         <cfvo type="min"/>
         <cfvo type="max"/>
@@ -11260,7 +11260,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F30">
-    <cfRule type="dataBar" priority="83">
+    <cfRule type="dataBar" priority="100">
       <dataBar>
         <cfvo type="min"/>
         <cfvo type="max"/>
@@ -11274,7 +11274,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G30">
-    <cfRule type="dataBar" priority="82">
+    <cfRule type="dataBar" priority="99">
       <dataBar>
         <cfvo type="min"/>
         <cfvo type="max"/>
@@ -11288,7 +11288,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H30">
-    <cfRule type="dataBar" priority="81">
+    <cfRule type="dataBar" priority="98">
       <dataBar>
         <cfvo type="min"/>
         <cfvo type="max"/>
@@ -11302,7 +11302,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E30">
-    <cfRule type="dataBar" priority="78">
+    <cfRule type="dataBar" priority="95">
       <dataBar>
         <cfvo type="min"/>
         <cfvo type="max"/>
@@ -11316,7 +11316,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F30">
-    <cfRule type="dataBar" priority="77">
+    <cfRule type="dataBar" priority="94">
       <dataBar>
         <cfvo type="min"/>
         <cfvo type="max"/>
@@ -11330,7 +11330,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G30">
-    <cfRule type="dataBar" priority="76">
+    <cfRule type="dataBar" priority="93">
       <dataBar>
         <cfvo type="min"/>
         <cfvo type="max"/>
@@ -11344,7 +11344,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H30">
-    <cfRule type="dataBar" priority="75">
+    <cfRule type="dataBar" priority="92">
       <dataBar>
         <cfvo type="min"/>
         <cfvo type="max"/>
@@ -11358,7 +11358,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H30">
-    <cfRule type="dataBar" priority="73">
+    <cfRule type="dataBar" priority="90">
       <dataBar>
         <cfvo type="min"/>
         <cfvo type="max"/>
@@ -11372,7 +11372,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G30">
-    <cfRule type="dataBar" priority="72">
+    <cfRule type="dataBar" priority="89">
       <dataBar>
         <cfvo type="min"/>
         <cfvo type="max"/>
@@ -11386,7 +11386,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F30">
-    <cfRule type="dataBar" priority="71">
+    <cfRule type="dataBar" priority="88">
       <dataBar>
         <cfvo type="min"/>
         <cfvo type="max"/>
@@ -11400,7 +11400,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E30">
-    <cfRule type="dataBar" priority="70">
+    <cfRule type="dataBar" priority="87">
       <dataBar>
         <cfvo type="min"/>
         <cfvo type="max"/>
@@ -11414,7 +11414,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D2:D16">
-    <cfRule type="dataBar" priority="37">
+    <cfRule type="dataBar" priority="54">
       <dataBar>
         <cfvo type="min"/>
         <cfvo type="max"/>
@@ -11428,7 +11428,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C2:C16">
-    <cfRule type="dataBar" priority="36">
+    <cfRule type="dataBar" priority="53">
       <dataBar>
         <cfvo type="min"/>
         <cfvo type="max"/>
@@ -11442,7 +11442,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G32">
-    <cfRule type="dataBar" priority="18">
+    <cfRule type="dataBar" priority="35">
       <dataBar>
         <cfvo type="min"/>
         <cfvo type="max"/>
@@ -11456,7 +11456,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H32">
-    <cfRule type="dataBar" priority="17">
+    <cfRule type="dataBar" priority="34">
       <dataBar>
         <cfvo type="min"/>
         <cfvo type="max"/>
@@ -11470,7 +11470,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G32">
-    <cfRule type="dataBar" priority="16">
+    <cfRule type="dataBar" priority="33">
       <dataBar>
         <cfvo type="min"/>
         <cfvo type="max"/>
@@ -11484,7 +11484,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H32">
-    <cfRule type="dataBar" priority="15">
+    <cfRule type="dataBar" priority="32">
       <dataBar>
         <cfvo type="min"/>
         <cfvo type="max"/>
@@ -11498,7 +11498,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G32">
-    <cfRule type="dataBar" priority="14">
+    <cfRule type="dataBar" priority="31">
       <dataBar>
         <cfvo type="min"/>
         <cfvo type="max"/>
@@ -11512,7 +11512,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H32">
-    <cfRule type="dataBar" priority="13">
+    <cfRule type="dataBar" priority="30">
       <dataBar>
         <cfvo type="min"/>
         <cfvo type="max"/>
@@ -11526,7 +11526,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H32">
-    <cfRule type="dataBar" priority="12">
+    <cfRule type="dataBar" priority="29">
       <dataBar>
         <cfvo type="min"/>
         <cfvo type="max"/>
@@ -11540,7 +11540,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G32">
-    <cfRule type="dataBar" priority="11">
+    <cfRule type="dataBar" priority="28">
       <dataBar>
         <cfvo type="min"/>
         <cfvo type="max"/>
@@ -11554,7 +11554,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H32">
-    <cfRule type="dataBar" priority="19">
+    <cfRule type="dataBar" priority="36">
       <dataBar>
         <cfvo type="min"/>
         <cfvo type="max"/>
@@ -11568,7 +11568,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G32">
-    <cfRule type="dataBar" priority="20">
+    <cfRule type="dataBar" priority="37">
       <dataBar>
         <cfvo type="min"/>
         <cfvo type="max"/>
@@ -11582,7 +11582,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E31:E34">
-    <cfRule type="dataBar" priority="330">
+    <cfRule type="dataBar" priority="347">
       <dataBar>
         <cfvo type="min"/>
         <cfvo type="max"/>
@@ -11596,7 +11596,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F31:F34">
-    <cfRule type="dataBar" priority="332">
+    <cfRule type="dataBar" priority="349">
       <dataBar>
         <cfvo type="min"/>
         <cfvo type="max"/>
@@ -11610,7 +11610,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G33:G34 G31">
-    <cfRule type="dataBar" priority="334">
+    <cfRule type="dataBar" priority="351">
       <dataBar>
         <cfvo type="min"/>
         <cfvo type="max"/>
@@ -11624,7 +11624,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H33:H34 H31">
-    <cfRule type="dataBar" priority="337">
+    <cfRule type="dataBar" priority="354">
       <dataBar>
         <cfvo type="min"/>
         <cfvo type="max"/>
@@ -11638,7 +11638,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H2:H31 H33:H34">
-    <cfRule type="dataBar" priority="340">
+    <cfRule type="dataBar" priority="357">
       <dataBar>
         <cfvo type="min"/>
         <cfvo type="max"/>
@@ -11652,7 +11652,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G2:G31 G33:G34">
-    <cfRule type="dataBar" priority="343">
+    <cfRule type="dataBar" priority="360">
       <dataBar>
         <cfvo type="min"/>
         <cfvo type="max"/>
@@ -11666,7 +11666,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F2:F34">
-    <cfRule type="dataBar" priority="3">
+    <cfRule type="dataBar" priority="20">
       <dataBar>
         <cfvo type="min"/>
         <cfvo type="max"/>
@@ -11680,7 +11680,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E2:E34">
-    <cfRule type="dataBar" priority="4">
+    <cfRule type="dataBar" priority="21">
       <dataBar>
         <cfvo type="min"/>
         <cfvo type="max"/>
@@ -11693,36 +11693,8 @@
       </extLst>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C17:C34">
-    <cfRule type="dataBar" priority="350">
-      <dataBar>
-        <cfvo type="min"/>
-        <cfvo type="max"/>
-        <color rgb="FF638EC6"/>
-      </dataBar>
-      <extLst>
-        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{3DF2229F-5932-4705-ABC6-10E81DF4A8EE}</x14:id>
-        </ext>
-      </extLst>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D17:D34">
-    <cfRule type="dataBar" priority="352">
-      <dataBar>
-        <cfvo type="min"/>
-        <cfvo type="max"/>
-        <color rgb="FF638EC6"/>
-      </dataBar>
-      <extLst>
-        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{7223CB01-D6ED-4702-AE0A-7553595ABDE7}</x14:id>
-        </ext>
-      </extLst>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D2:D34">
-    <cfRule type="dataBar" priority="354">
+  <conditionalFormatting sqref="D2:D16">
+    <cfRule type="dataBar" priority="371">
       <dataBar>
         <cfvo type="min"/>
         <cfvo type="max"/>
@@ -11735,8 +11707,8 @@
       </extLst>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C2:C34">
-    <cfRule type="dataBar" priority="356">
+  <conditionalFormatting sqref="C2:C16">
+    <cfRule type="dataBar" priority="373">
       <dataBar>
         <cfvo type="min"/>
         <cfvo type="max"/>
@@ -11750,7 +11722,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G2:G34">
-    <cfRule type="dataBar" priority="2">
+    <cfRule type="dataBar" priority="19">
       <dataBar>
         <cfvo type="min"/>
         <cfvo type="max"/>
@@ -11764,6 +11736,244 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H2:H34">
+    <cfRule type="dataBar" priority="18">
+      <dataBar>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FF638EC6"/>
+      </dataBar>
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
+          <x14:id>{D3ABBB82-F4CF-4EE0-9BFF-219C1FD236DA}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C17:C34">
+    <cfRule type="dataBar" priority="15">
+      <dataBar>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FF638EC6"/>
+      </dataBar>
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
+          <x14:id>{7B7A07E1-4839-4C1A-8751-95FBF6E1F267}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C17:C34">
+    <cfRule type="dataBar" priority="16">
+      <dataBar>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FF638EC6"/>
+      </dataBar>
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
+          <x14:id>{2CBE7325-20B7-4395-A583-FFB05F025B3D}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C17:C34">
+    <cfRule type="dataBar" priority="14">
+      <dataBar>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FF638EC6"/>
+      </dataBar>
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
+          <x14:id>{58E23E72-3428-4E15-960B-EAD9459D7E40}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C17:C34">
+    <cfRule type="dataBar" priority="13">
+      <dataBar>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FF638EC6"/>
+      </dataBar>
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
+          <x14:id>{5DC7F251-41A7-4316-BCE2-4D370C1CD182}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C17:C34">
+    <cfRule type="dataBar" priority="12">
+      <dataBar>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FF638EC6"/>
+      </dataBar>
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
+          <x14:id>{24B20904-8670-40C6-8E46-83062F906484}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C17:C34">
+    <cfRule type="dataBar" priority="11">
+      <dataBar>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FF638EC6"/>
+      </dataBar>
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
+          <x14:id>{ACB56EF2-AF55-414B-A856-5AC08E54A3F4}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C17:C34">
+    <cfRule type="dataBar" priority="10">
+      <dataBar>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FF638EC6"/>
+      </dataBar>
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
+          <x14:id>{5561F1A3-B8EC-467E-8F1D-AAAE62A70C12}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C17:C34">
+    <cfRule type="dataBar" priority="17">
+      <dataBar>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FF638EC6"/>
+      </dataBar>
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
+          <x14:id>{9A51C553-9B8E-4A4E-B80C-4FC31847F80A}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D17:D34">
+    <cfRule type="dataBar" priority="8">
+      <dataBar>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FF638EC6"/>
+      </dataBar>
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
+          <x14:id>{5ED9AB25-6CAF-4E90-AE43-4C8B7530A116}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D17:D34">
+    <cfRule type="dataBar" priority="7">
+      <dataBar>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FF638EC6"/>
+      </dataBar>
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
+          <x14:id>{925CAC86-BD8F-4DD7-8EB8-9D93B40B3F20}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D17:D34">
+    <cfRule type="dataBar" priority="6">
+      <dataBar>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FF638EC6"/>
+      </dataBar>
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
+          <x14:id>{453A751B-2267-4AB2-985C-4207E2024436}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D17:D34">
+    <cfRule type="dataBar" priority="5">
+      <dataBar>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FF638EC6"/>
+      </dataBar>
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
+          <x14:id>{7C7BC0CA-818A-4127-BC7B-BD279CEE46E4}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D17:D34">
+    <cfRule type="dataBar" priority="4">
+      <dataBar>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FF638EC6"/>
+      </dataBar>
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
+          <x14:id>{2772B639-B89A-4CAF-A88A-E578AE8B864D}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D17:D34">
+    <cfRule type="dataBar" priority="3">
+      <dataBar>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FF638EC6"/>
+      </dataBar>
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
+          <x14:id>{9B5280B4-92F8-44C9-B739-204B9F3630DA}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D17:D34">
+    <cfRule type="dataBar" priority="9">
+      <dataBar>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FF638EC6"/>
+      </dataBar>
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
+          <x14:id>{0550ACD6-899D-4CA0-874F-6DB51E7EDB31}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C2:C34">
+    <cfRule type="dataBar" priority="2">
+      <dataBar>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FF638EC6"/>
+      </dataBar>
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
+          <x14:id>{AFC78398-5C23-428B-965F-C1C282303653}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D2:D34">
     <cfRule type="dataBar" priority="1">
       <dataBar>
         <cfvo type="min"/>
@@ -11772,7 +11982,7 @@
       </dataBar>
       <extLst>
         <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{D3ABBB82-F4CF-4EE0-9BFF-219C1FD236DA}</x14:id>
+          <x14:id>{DCC10511-3BA0-403B-B8E4-EACC8E1DEDC9}</x14:id>
         </ext>
       </extLst>
     </cfRule>
@@ -13681,32 +13891,6 @@
           <xm:sqref>E2:E34</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{3DF2229F-5932-4705-ABC6-10E81DF4A8EE}">
-            <x14:dataBar minLength="0" maxLength="100" border="1" negativeBarBorderColorSameAsPositive="0">
-              <x14:cfvo type="autoMin"/>
-              <x14:cfvo type="autoMax"/>
-              <x14:borderColor rgb="FF638EC6"/>
-              <x14:negativeFillColor rgb="FFFF0000"/>
-              <x14:negativeBorderColor rgb="FFFF0000"/>
-              <x14:axisColor rgb="FF000000"/>
-            </x14:dataBar>
-          </x14:cfRule>
-          <xm:sqref>C17:C34</xm:sqref>
-        </x14:conditionalFormatting>
-        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{7223CB01-D6ED-4702-AE0A-7553595ABDE7}">
-            <x14:dataBar minLength="0" maxLength="100" border="1" negativeBarBorderColorSameAsPositive="0">
-              <x14:cfvo type="autoMin"/>
-              <x14:cfvo type="autoMax"/>
-              <x14:borderColor rgb="FF638EC6"/>
-              <x14:negativeFillColor rgb="FFFF0000"/>
-              <x14:negativeBorderColor rgb="FFFF0000"/>
-              <x14:axisColor rgb="FF000000"/>
-            </x14:dataBar>
-          </x14:cfRule>
-          <xm:sqref>D17:D34</xm:sqref>
-        </x14:conditionalFormatting>
-        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="dataBar" id="{F5EA6C89-95A4-4F8F-8703-AD56A2E56606}">
             <x14:dataBar minLength="0" maxLength="100" border="1" negativeBarBorderColorSameAsPositive="0">
               <x14:cfvo type="autoMin"/>
@@ -13717,7 +13901,7 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <xm:sqref>D2:D34</xm:sqref>
+          <xm:sqref>D2:D16</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="dataBar" id="{274C563F-56A1-4928-9E8E-FAB14D2D5FE6}">
@@ -13730,7 +13914,7 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <xm:sqref>C2:C34</xm:sqref>
+          <xm:sqref>C2:C16</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="dataBar" id="{EE933291-4BF2-40D1-B039-7298BD31B845}">
@@ -13757,6 +13941,227 @@
             </x14:dataBar>
           </x14:cfRule>
           <xm:sqref>H2:H34</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="dataBar" id="{7B7A07E1-4839-4C1A-8751-95FBF6E1F267}">
+            <x14:dataBar minLength="0" maxLength="100" border="1" negativeBarBorderColorSameAsPositive="0">
+              <x14:cfvo type="autoMin"/>
+              <x14:cfvo type="autoMax"/>
+              <x14:borderColor rgb="FF638EC6"/>
+              <x14:negativeFillColor rgb="FFFF0000"/>
+              <x14:negativeBorderColor rgb="FFFF0000"/>
+              <x14:axisColor rgb="FF000000"/>
+            </x14:dataBar>
+          </x14:cfRule>
+          <xm:sqref>C17:C34</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="dataBar" id="{2CBE7325-20B7-4395-A583-FFB05F025B3D}">
+            <x14:dataBar minLength="0" maxLength="100" border="1" negativeBarBorderColorSameAsPositive="0">
+              <x14:cfvo type="autoMin"/>
+              <x14:cfvo type="autoMax"/>
+              <x14:borderColor rgb="FF638EC6"/>
+              <x14:negativeFillColor rgb="FFFF0000"/>
+              <x14:negativeBorderColor rgb="FFFF0000"/>
+              <x14:axisColor rgb="FF000000"/>
+            </x14:dataBar>
+          </x14:cfRule>
+          <xm:sqref>C17:C34</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="dataBar" id="{58E23E72-3428-4E15-960B-EAD9459D7E40}">
+            <x14:dataBar minLength="0" maxLength="100" border="1" negativeBarBorderColorSameAsPositive="0">
+              <x14:cfvo type="autoMin"/>
+              <x14:cfvo type="autoMax"/>
+              <x14:borderColor rgb="FF638EC6"/>
+              <x14:negativeFillColor rgb="FFFF0000"/>
+              <x14:negativeBorderColor rgb="FFFF0000"/>
+              <x14:axisColor rgb="FF000000"/>
+            </x14:dataBar>
+          </x14:cfRule>
+          <xm:sqref>C17:C34</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="dataBar" id="{5DC7F251-41A7-4316-BCE2-4D370C1CD182}">
+            <x14:dataBar minLength="0" maxLength="100" border="1" negativeBarBorderColorSameAsPositive="0">
+              <x14:cfvo type="autoMin"/>
+              <x14:cfvo type="autoMax"/>
+              <x14:borderColor rgb="FF638EC6"/>
+              <x14:negativeFillColor rgb="FFFF0000"/>
+              <x14:negativeBorderColor rgb="FFFF0000"/>
+              <x14:axisColor rgb="FF000000"/>
+            </x14:dataBar>
+          </x14:cfRule>
+          <xm:sqref>C17:C34</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="dataBar" id="{24B20904-8670-40C6-8E46-83062F906484}">
+            <x14:dataBar minLength="0" maxLength="100" border="1" negativeBarBorderColorSameAsPositive="0">
+              <x14:cfvo type="autoMin"/>
+              <x14:cfvo type="autoMax"/>
+              <x14:borderColor rgb="FF638EC6"/>
+              <x14:negativeFillColor rgb="FFFF0000"/>
+              <x14:negativeBorderColor rgb="FFFF0000"/>
+              <x14:axisColor rgb="FF000000"/>
+            </x14:dataBar>
+          </x14:cfRule>
+          <xm:sqref>C17:C34</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="dataBar" id="{ACB56EF2-AF55-414B-A856-5AC08E54A3F4}">
+            <x14:dataBar minLength="0" maxLength="100" border="1" negativeBarBorderColorSameAsPositive="0">
+              <x14:cfvo type="autoMin"/>
+              <x14:cfvo type="autoMax"/>
+              <x14:borderColor rgb="FF638EC6"/>
+              <x14:negativeFillColor rgb="FFFF0000"/>
+              <x14:negativeBorderColor rgb="FFFF0000"/>
+              <x14:axisColor rgb="FF000000"/>
+            </x14:dataBar>
+          </x14:cfRule>
+          <xm:sqref>C17:C34</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="dataBar" id="{5561F1A3-B8EC-467E-8F1D-AAAE62A70C12}">
+            <x14:dataBar minLength="0" maxLength="100" border="1" negativeBarBorderColorSameAsPositive="0">
+              <x14:cfvo type="autoMin"/>
+              <x14:cfvo type="autoMax"/>
+              <x14:borderColor rgb="FF638EC6"/>
+              <x14:negativeFillColor rgb="FFFF0000"/>
+              <x14:negativeBorderColor rgb="FFFF0000"/>
+              <x14:axisColor rgb="FF000000"/>
+            </x14:dataBar>
+          </x14:cfRule>
+          <xm:sqref>C17:C34</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="dataBar" id="{9A51C553-9B8E-4A4E-B80C-4FC31847F80A}">
+            <x14:dataBar minLength="0" maxLength="100" border="1" negativeBarBorderColorSameAsPositive="0">
+              <x14:cfvo type="autoMin"/>
+              <x14:cfvo type="autoMax"/>
+              <x14:borderColor rgb="FF638EC6"/>
+              <x14:negativeFillColor rgb="FFFF0000"/>
+              <x14:negativeBorderColor rgb="FFFF0000"/>
+              <x14:axisColor rgb="FF000000"/>
+            </x14:dataBar>
+          </x14:cfRule>
+          <xm:sqref>C17:C34</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="dataBar" id="{5ED9AB25-6CAF-4E90-AE43-4C8B7530A116}">
+            <x14:dataBar minLength="0" maxLength="100" border="1" negativeBarBorderColorSameAsPositive="0">
+              <x14:cfvo type="autoMin"/>
+              <x14:cfvo type="autoMax"/>
+              <x14:borderColor rgb="FF638EC6"/>
+              <x14:negativeFillColor rgb="FFFF0000"/>
+              <x14:negativeBorderColor rgb="FFFF0000"/>
+              <x14:axisColor rgb="FF000000"/>
+            </x14:dataBar>
+          </x14:cfRule>
+          <xm:sqref>D17:D34</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="dataBar" id="{925CAC86-BD8F-4DD7-8EB8-9D93B40B3F20}">
+            <x14:dataBar minLength="0" maxLength="100" border="1" negativeBarBorderColorSameAsPositive="0">
+              <x14:cfvo type="autoMin"/>
+              <x14:cfvo type="autoMax"/>
+              <x14:borderColor rgb="FF638EC6"/>
+              <x14:negativeFillColor rgb="FFFF0000"/>
+              <x14:negativeBorderColor rgb="FFFF0000"/>
+              <x14:axisColor rgb="FF000000"/>
+            </x14:dataBar>
+          </x14:cfRule>
+          <xm:sqref>D17:D34</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="dataBar" id="{453A751B-2267-4AB2-985C-4207E2024436}">
+            <x14:dataBar minLength="0" maxLength="100" border="1" negativeBarBorderColorSameAsPositive="0">
+              <x14:cfvo type="autoMin"/>
+              <x14:cfvo type="autoMax"/>
+              <x14:borderColor rgb="FF638EC6"/>
+              <x14:negativeFillColor rgb="FFFF0000"/>
+              <x14:negativeBorderColor rgb="FFFF0000"/>
+              <x14:axisColor rgb="FF000000"/>
+            </x14:dataBar>
+          </x14:cfRule>
+          <xm:sqref>D17:D34</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="dataBar" id="{7C7BC0CA-818A-4127-BC7B-BD279CEE46E4}">
+            <x14:dataBar minLength="0" maxLength="100" border="1" negativeBarBorderColorSameAsPositive="0">
+              <x14:cfvo type="autoMin"/>
+              <x14:cfvo type="autoMax"/>
+              <x14:borderColor rgb="FF638EC6"/>
+              <x14:negativeFillColor rgb="FFFF0000"/>
+              <x14:negativeBorderColor rgb="FFFF0000"/>
+              <x14:axisColor rgb="FF000000"/>
+            </x14:dataBar>
+          </x14:cfRule>
+          <xm:sqref>D17:D34</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="dataBar" id="{2772B639-B89A-4CAF-A88A-E578AE8B864D}">
+            <x14:dataBar minLength="0" maxLength="100" border="1" negativeBarBorderColorSameAsPositive="0">
+              <x14:cfvo type="autoMin"/>
+              <x14:cfvo type="autoMax"/>
+              <x14:borderColor rgb="FF638EC6"/>
+              <x14:negativeFillColor rgb="FFFF0000"/>
+              <x14:negativeBorderColor rgb="FFFF0000"/>
+              <x14:axisColor rgb="FF000000"/>
+            </x14:dataBar>
+          </x14:cfRule>
+          <xm:sqref>D17:D34</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="dataBar" id="{9B5280B4-92F8-44C9-B739-204B9F3630DA}">
+            <x14:dataBar minLength="0" maxLength="100" border="1" negativeBarBorderColorSameAsPositive="0">
+              <x14:cfvo type="autoMin"/>
+              <x14:cfvo type="autoMax"/>
+              <x14:borderColor rgb="FF638EC6"/>
+              <x14:negativeFillColor rgb="FFFF0000"/>
+              <x14:negativeBorderColor rgb="FFFF0000"/>
+              <x14:axisColor rgb="FF000000"/>
+            </x14:dataBar>
+          </x14:cfRule>
+          <xm:sqref>D17:D34</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="dataBar" id="{0550ACD6-899D-4CA0-874F-6DB51E7EDB31}">
+            <x14:dataBar minLength="0" maxLength="100" border="1" negativeBarBorderColorSameAsPositive="0">
+              <x14:cfvo type="autoMin"/>
+              <x14:cfvo type="autoMax"/>
+              <x14:borderColor rgb="FF638EC6"/>
+              <x14:negativeFillColor rgb="FFFF0000"/>
+              <x14:negativeBorderColor rgb="FFFF0000"/>
+              <x14:axisColor rgb="FF000000"/>
+            </x14:dataBar>
+          </x14:cfRule>
+          <xm:sqref>D17:D34</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="dataBar" id="{AFC78398-5C23-428B-965F-C1C282303653}">
+            <x14:dataBar minLength="0" maxLength="100" border="1" negativeBarBorderColorSameAsPositive="0">
+              <x14:cfvo type="autoMin"/>
+              <x14:cfvo type="autoMax"/>
+              <x14:borderColor rgb="FF638EC6"/>
+              <x14:negativeFillColor rgb="FFFF0000"/>
+              <x14:negativeBorderColor rgb="FFFF0000"/>
+              <x14:axisColor rgb="FF000000"/>
+            </x14:dataBar>
+          </x14:cfRule>
+          <xm:sqref>C2:C34</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="dataBar" id="{DCC10511-3BA0-403B-B8E4-EACC8E1DEDC9}">
+            <x14:dataBar minLength="0" maxLength="100" border="1" negativeBarBorderColorSameAsPositive="0">
+              <x14:cfvo type="autoMin"/>
+              <x14:cfvo type="autoMax"/>
+              <x14:borderColor rgb="FF638EC6"/>
+              <x14:negativeFillColor rgb="FFFF0000"/>
+              <x14:negativeBorderColor rgb="FFFF0000"/>
+              <x14:axisColor rgb="FF000000"/>
+            </x14:dataBar>
+          </x14:cfRule>
+          <xm:sqref>D2:D34</xm:sqref>
         </x14:conditionalFormatting>
       </x14:conditionalFormattings>
     </ext>
@@ -20436,10 +20841,10 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AC32"/>
+  <dimension ref="A1:AC33"/>
   <sheetViews>
-    <sheetView topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="P33" sqref="P33"/>
+    <sheetView topLeftCell="A25" workbookViewId="0">
+      <selection activeCell="Q15" sqref="Q15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -20541,14 +20946,14 @@
       <c r="C2" s="29" t="s">
         <v>70</v>
       </c>
-      <c r="D2" s="76">
+      <c r="D2" s="74">
         <f>塔_属性!C2</f>
         <v>67</v>
       </c>
       <c r="E2" s="29" t="s">
         <v>70</v>
       </c>
-      <c r="F2" s="76">
+      <c r="F2" s="74">
         <f>塔_属性!D2</f>
         <v>232</v>
       </c>
@@ -20601,14 +21006,14 @@
       <c r="C3" s="29" t="s">
         <v>70</v>
       </c>
-      <c r="D3" s="76">
+      <c r="D3" s="74">
         <f>塔_属性!C3</f>
         <v>52</v>
       </c>
       <c r="E3" s="29" t="s">
         <v>70</v>
       </c>
-      <c r="F3" s="76">
+      <c r="F3" s="74">
         <f>塔_属性!D3</f>
         <v>185</v>
       </c>
@@ -20661,14 +21066,14 @@
       <c r="C4" s="29" t="s">
         <v>70</v>
       </c>
-      <c r="D4" s="76">
+      <c r="D4" s="74">
         <f>塔_属性!C4</f>
         <v>46</v>
       </c>
       <c r="E4" s="29" t="s">
         <v>70</v>
       </c>
-      <c r="F4" s="76">
+      <c r="F4" s="74">
         <f>塔_属性!D4</f>
         <v>159</v>
       </c>
@@ -20721,14 +21126,14 @@
       <c r="C5" s="29" t="s">
         <v>70</v>
       </c>
-      <c r="D5" s="76">
+      <c r="D5" s="74">
         <f>塔_属性!C5</f>
         <v>52</v>
       </c>
       <c r="E5" s="29" t="s">
         <v>70</v>
       </c>
-      <c r="F5" s="76">
+      <c r="F5" s="74">
         <f>塔_属性!D5</f>
         <v>206</v>
       </c>
@@ -20781,14 +21186,14 @@
       <c r="C6" s="29" t="s">
         <v>70</v>
       </c>
-      <c r="D6" s="76">
+      <c r="D6" s="74">
         <f>塔_属性!C6</f>
         <v>50</v>
       </c>
       <c r="E6" s="29" t="s">
         <v>70</v>
       </c>
-      <c r="F6" s="76">
+      <c r="F6" s="74">
         <f>塔_属性!D6</f>
         <v>160</v>
       </c>
@@ -20841,14 +21246,14 @@
       <c r="C7" s="29" t="s">
         <v>70</v>
       </c>
-      <c r="D7" s="76">
+      <c r="D7" s="74">
         <f>塔_属性!C7</f>
         <v>88</v>
       </c>
       <c r="E7" s="29" t="s">
         <v>70</v>
       </c>
-      <c r="F7" s="76">
+      <c r="F7" s="74">
         <f>塔_属性!D7</f>
         <v>292</v>
       </c>
@@ -20901,16 +21306,16 @@
       <c r="C8" s="29" t="s">
         <v>70</v>
       </c>
-      <c r="D8" s="76">
+      <c r="D8" s="74">
         <f>塔_属性!C8</f>
         <v>119</v>
       </c>
       <c r="E8" s="29" t="s">
         <v>70</v>
       </c>
-      <c r="F8" s="76">
+      <c r="F8" s="74">
         <f>塔_属性!D8</f>
-        <v>411</v>
+        <v>421</v>
       </c>
       <c r="G8" s="29" t="s">
         <v>70</v>
@@ -20961,14 +21366,14 @@
       <c r="C9" s="29" t="s">
         <v>70</v>
       </c>
-      <c r="D9" s="76">
+      <c r="D9" s="74">
         <f>塔_属性!C9</f>
         <v>42</v>
       </c>
       <c r="E9" s="29" t="s">
         <v>70</v>
       </c>
-      <c r="F9" s="76">
+      <c r="F9" s="74">
         <f>塔_属性!D9</f>
         <v>159</v>
       </c>
@@ -21014,14 +21419,14 @@
       <c r="C10" s="29" t="s">
         <v>70</v>
       </c>
-      <c r="D10" s="76">
+      <c r="D10" s="74">
         <f>塔_属性!C10</f>
         <v>59</v>
       </c>
       <c r="E10" s="29" t="s">
         <v>70</v>
       </c>
-      <c r="F10" s="76">
+      <c r="F10" s="74">
         <f>塔_属性!D10</f>
         <v>147</v>
       </c>
@@ -21067,14 +21472,14 @@
       <c r="C11" s="29" t="s">
         <v>70</v>
       </c>
-      <c r="D11" s="76">
+      <c r="D11" s="74">
         <f>塔_属性!C11</f>
         <v>44</v>
       </c>
       <c r="E11" s="29" t="s">
         <v>70</v>
       </c>
-      <c r="F11" s="76">
+      <c r="F11" s="74">
         <f>塔_属性!D11</f>
         <v>142</v>
       </c>
@@ -21120,14 +21525,14 @@
       <c r="C12" s="29" t="s">
         <v>70</v>
       </c>
-      <c r="D12" s="76">
+      <c r="D12" s="74">
         <f>塔_属性!C12</f>
         <v>47</v>
       </c>
       <c r="E12" s="29" t="s">
         <v>70</v>
       </c>
-      <c r="F12" s="76">
+      <c r="F12" s="74">
         <f>塔_属性!D12</f>
         <v>305</v>
       </c>
@@ -21173,14 +21578,14 @@
       <c r="C13" s="29" t="s">
         <v>70</v>
       </c>
-      <c r="D13" s="76">
+      <c r="D13" s="74">
         <f>塔_属性!C13</f>
         <v>29</v>
       </c>
       <c r="E13" s="29" t="s">
         <v>70</v>
       </c>
-      <c r="F13" s="76">
+      <c r="F13" s="74">
         <f>塔_属性!D13</f>
         <v>120</v>
       </c>
@@ -21226,14 +21631,14 @@
       <c r="C14" s="29" t="s">
         <v>70</v>
       </c>
-      <c r="D14" s="76">
+      <c r="D14" s="74">
         <f>塔_属性!C14</f>
         <v>41</v>
       </c>
       <c r="E14" s="29" t="s">
         <v>70</v>
       </c>
-      <c r="F14" s="76">
+      <c r="F14" s="74">
         <f>塔_属性!D14</f>
         <v>129</v>
       </c>
@@ -21279,14 +21684,14 @@
       <c r="C15" s="29" t="s">
         <v>70</v>
       </c>
-      <c r="D15" s="76">
+      <c r="D15" s="74">
         <f>塔_属性!C15</f>
         <v>104</v>
       </c>
       <c r="E15" s="29" t="s">
         <v>70</v>
       </c>
-      <c r="F15" s="76">
+      <c r="F15" s="74">
         <f>塔_属性!D15</f>
         <v>375</v>
       </c>
@@ -21332,14 +21737,14 @@
       <c r="C16" s="29" t="s">
         <v>70</v>
       </c>
-      <c r="D16" s="76">
+      <c r="D16" s="74">
         <f>塔_属性!C16</f>
         <v>139</v>
       </c>
       <c r="E16" s="29" t="s">
         <v>70</v>
       </c>
-      <c r="F16" s="76">
+      <c r="F16" s="74">
         <f>塔_属性!D16</f>
         <v>327</v>
       </c>
@@ -21385,16 +21790,16 @@
       <c r="C17" s="29" t="s">
         <v>70</v>
       </c>
-      <c r="D17" s="76">
+      <c r="D17" s="74">
         <f>塔_属性!C17</f>
-        <v>86</v>
+        <v>99.759999999999991</v>
       </c>
       <c r="E17" s="29" t="s">
         <v>70</v>
       </c>
-      <c r="F17" s="76">
+      <c r="F17" s="74">
         <f>塔_属性!D17</f>
-        <v>229</v>
+        <v>265.64</v>
       </c>
       <c r="G17" s="29" t="s">
         <v>70</v>
@@ -21438,16 +21843,16 @@
       <c r="C18" s="29" t="s">
         <v>70</v>
       </c>
-      <c r="D18" s="76">
+      <c r="D18" s="74">
         <f>塔_属性!C18</f>
-        <v>55</v>
+        <v>63.8</v>
       </c>
       <c r="E18" s="29" t="s">
         <v>70</v>
       </c>
-      <c r="F18" s="76">
+      <c r="F18" s="74">
         <f>塔_属性!D18</f>
-        <v>171</v>
+        <v>198.35999999999999</v>
       </c>
       <c r="G18" s="29" t="s">
         <v>70</v>
@@ -21491,16 +21896,16 @@
       <c r="C19" s="29" t="s">
         <v>70</v>
       </c>
-      <c r="D19" s="76">
+      <c r="D19" s="74">
         <f>塔_属性!C19</f>
-        <v>99</v>
+        <v>114.83999999999999</v>
       </c>
       <c r="E19" s="29" t="s">
         <v>70</v>
       </c>
-      <c r="F19" s="76">
+      <c r="F19" s="74">
         <f>塔_属性!D19</f>
-        <v>334</v>
+        <v>387.44</v>
       </c>
       <c r="G19" s="29" t="s">
         <v>70</v>
@@ -21544,16 +21949,16 @@
       <c r="C20" s="29" t="s">
         <v>70</v>
       </c>
-      <c r="D20" s="76">
+      <c r="D20" s="74">
         <f>塔_属性!C20</f>
-        <v>83</v>
+        <v>96.279999999999987</v>
       </c>
       <c r="E20" s="29" t="s">
         <v>70</v>
       </c>
-      <c r="F20" s="76">
+      <c r="F20" s="74">
         <f>塔_属性!D20</f>
-        <v>161</v>
+        <v>186.76</v>
       </c>
       <c r="G20" s="29" t="s">
         <v>70</v>
@@ -21597,16 +22002,16 @@
       <c r="C21" s="29" t="s">
         <v>70</v>
       </c>
-      <c r="D21" s="76">
+      <c r="D21" s="74">
         <f>塔_属性!C21</f>
-        <v>69</v>
+        <v>80.039999999999992</v>
       </c>
       <c r="E21" s="29" t="s">
         <v>70</v>
       </c>
-      <c r="F21" s="76">
+      <c r="F21" s="74">
         <f>塔_属性!D21</f>
-        <v>120</v>
+        <v>139.19999999999999</v>
       </c>
       <c r="G21" s="29" t="s">
         <v>70</v>
@@ -21650,16 +22055,16 @@
       <c r="C22" s="29" t="s">
         <v>70</v>
       </c>
-      <c r="D22" s="76">
+      <c r="D22" s="74">
         <f>塔_属性!C22</f>
-        <v>96</v>
+        <v>111.35999999999999</v>
       </c>
       <c r="E22" s="29" t="s">
         <v>70</v>
       </c>
-      <c r="F22" s="76">
+      <c r="F22" s="74">
         <f>塔_属性!D22</f>
-        <v>193</v>
+        <v>223.88</v>
       </c>
       <c r="G22" s="29" t="s">
         <v>70</v>
@@ -21703,16 +22108,16 @@
       <c r="C23" s="29" t="s">
         <v>70</v>
       </c>
-      <c r="D23" s="76">
+      <c r="D23" s="74">
         <f>塔_属性!C23</f>
-        <v>93</v>
+        <v>107.88</v>
       </c>
       <c r="E23" s="29" t="s">
         <v>70</v>
       </c>
-      <c r="F23" s="76">
+      <c r="F23" s="74">
         <f>塔_属性!D23</f>
-        <v>271</v>
+        <v>314.35999999999996</v>
       </c>
       <c r="G23" s="29" t="s">
         <v>70</v>
@@ -21756,16 +22161,16 @@
       <c r="C24" s="29" t="s">
         <v>70</v>
       </c>
-      <c r="D24" s="76">
+      <c r="D24" s="74">
         <f>塔_属性!C24</f>
-        <v>82</v>
+        <v>95.11999999999999</v>
       </c>
       <c r="E24" s="29" t="s">
         <v>70</v>
       </c>
-      <c r="F24" s="76">
+      <c r="F24" s="74">
         <f>塔_属性!D24</f>
-        <v>223</v>
+        <v>258.68</v>
       </c>
       <c r="G24" s="29" t="s">
         <v>70</v>
@@ -21809,16 +22214,16 @@
       <c r="C25" s="29" t="s">
         <v>70</v>
       </c>
-      <c r="D25" s="76">
+      <c r="D25" s="74">
         <f>塔_属性!C25</f>
-        <v>108</v>
+        <v>125.27999999999999</v>
       </c>
       <c r="E25" s="29" t="s">
         <v>70</v>
       </c>
-      <c r="F25" s="76">
+      <c r="F25" s="74">
         <f>塔_属性!D25</f>
-        <v>299</v>
+        <v>346.84</v>
       </c>
       <c r="G25" s="29" t="s">
         <v>70</v>
@@ -21862,16 +22267,16 @@
       <c r="C26" s="29" t="s">
         <v>70</v>
       </c>
-      <c r="D26" s="76">
+      <c r="D26" s="74">
         <f>塔_属性!C26</f>
-        <v>55</v>
+        <v>63.8</v>
       </c>
       <c r="E26" s="29" t="s">
         <v>70</v>
       </c>
-      <c r="F26" s="76">
+      <c r="F26" s="74">
         <f>塔_属性!D26</f>
-        <v>169</v>
+        <v>196.04</v>
       </c>
       <c r="G26" s="29" t="s">
         <v>70</v>
@@ -21915,16 +22320,16 @@
       <c r="C27" s="29" t="s">
         <v>70</v>
       </c>
-      <c r="D27" s="76">
+      <c r="D27" s="74">
         <f>塔_属性!C27</f>
-        <v>72</v>
+        <v>83.52</v>
       </c>
       <c r="E27" s="29" t="s">
         <v>70</v>
       </c>
-      <c r="F27" s="76">
+      <c r="F27" s="74">
         <f>塔_属性!D27</f>
-        <v>219</v>
+        <v>254.04</v>
       </c>
       <c r="G27" s="29" t="s">
         <v>70</v>
@@ -21968,23 +22373,23 @@
       <c r="C28" s="29" t="s">
         <v>70</v>
       </c>
-      <c r="D28" s="76">
+      <c r="D28" s="74">
         <f>塔_属性!C28</f>
-        <v>42</v>
+        <v>153.11999999999998</v>
       </c>
       <c r="E28" s="29" t="s">
         <v>70</v>
       </c>
-      <c r="F28" s="76">
+      <c r="F28" s="74">
         <f>塔_属性!D28</f>
-        <v>231</v>
+        <v>381</v>
       </c>
       <c r="G28" s="29" t="s">
         <v>70</v>
       </c>
       <c r="H28" s="29">
         <f>塔_属性!E28</f>
-        <v>139</v>
+        <v>129</v>
       </c>
       <c r="I28" s="29" t="s">
         <v>70</v>
@@ -21998,14 +22403,14 @@
       </c>
       <c r="L28" s="31">
         <f>塔_属性!G28</f>
-        <v>64.2</v>
+        <v>130.19999999999999</v>
       </c>
       <c r="M28" s="29" t="s">
         <v>70</v>
       </c>
       <c r="N28" s="31">
         <f>塔_属性!H28</f>
-        <v>26.87</v>
+        <v>89.87</v>
       </c>
       <c r="O28" s="29" t="s">
         <v>72</v>
@@ -22021,16 +22426,16 @@
       <c r="C29" s="29" t="s">
         <v>70</v>
       </c>
-      <c r="D29" s="76">
+      <c r="D29" s="74">
         <f>塔_属性!C29</f>
-        <v>98</v>
+        <v>113.67999999999999</v>
       </c>
       <c r="E29" s="29" t="s">
         <v>70</v>
       </c>
-      <c r="F29" s="76">
+      <c r="F29" s="74">
         <f>塔_属性!D29</f>
-        <v>203</v>
+        <v>235.48</v>
       </c>
       <c r="G29" s="29" t="s">
         <v>70</v>
@@ -22074,16 +22479,16 @@
       <c r="C30" s="29" t="s">
         <v>70</v>
       </c>
-      <c r="D30" s="76">
+      <c r="D30" s="74">
         <f>塔_属性!C30</f>
-        <v>79</v>
+        <v>91.64</v>
       </c>
       <c r="E30" s="29" t="s">
         <v>70</v>
       </c>
-      <c r="F30" s="76">
+      <c r="F30" s="74">
         <f>塔_属性!D30</f>
-        <v>214</v>
+        <v>248.23999999999998</v>
       </c>
       <c r="G30" s="29" t="s">
         <v>70</v>
@@ -22127,30 +22532,30 @@
       <c r="C31" s="29" t="s">
         <v>70</v>
       </c>
-      <c r="D31" s="76">
+      <c r="D31" s="74">
         <f>塔_属性!C31</f>
-        <v>98</v>
+        <v>122.23</v>
       </c>
       <c r="E31" s="29" t="s">
         <v>70</v>
       </c>
-      <c r="F31" s="76">
+      <c r="F31" s="74">
         <f>塔_属性!D31</f>
-        <v>163</v>
+        <v>190.08</v>
       </c>
       <c r="G31" s="29" t="s">
         <v>70</v>
       </c>
       <c r="H31" s="29">
         <f>塔_属性!E31</f>
-        <v>187</v>
+        <v>306</v>
       </c>
       <c r="I31" s="29" t="s">
         <v>70</v>
       </c>
       <c r="J31" s="29">
         <f>塔_属性!F31</f>
-        <v>264</v>
+        <v>540</v>
       </c>
       <c r="K31" s="29" t="s">
         <v>70</v>
@@ -22180,23 +22585,23 @@
       <c r="C32" s="29" t="s">
         <v>70</v>
       </c>
-      <c r="D32" s="76">
+      <c r="D32" s="74">
         <f>塔_属性!C32</f>
-        <v>110</v>
+        <v>127.6</v>
       </c>
       <c r="E32" s="29" t="s">
         <v>70</v>
       </c>
-      <c r="F32" s="76">
+      <c r="F32" s="74">
         <f>塔_属性!D32</f>
-        <v>243</v>
+        <v>281.88</v>
       </c>
       <c r="G32" s="29" t="s">
         <v>70</v>
       </c>
       <c r="H32" s="29">
         <f>塔_属性!E32</f>
-        <v>139</v>
+        <v>130</v>
       </c>
       <c r="I32" s="29" t="s">
         <v>70</v>
@@ -22220,6 +22625,59 @@
         <v>162.1</v>
       </c>
       <c r="O32" s="29" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="33" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="A33" s="29" t="s">
+        <v>71</v>
+      </c>
+      <c r="B33" s="29">
+        <v>31</v>
+      </c>
+      <c r="C33" s="29" t="s">
+        <v>70</v>
+      </c>
+      <c r="D33" s="74">
+        <f>塔_属性!C33</f>
+        <v>107.88</v>
+      </c>
+      <c r="E33" s="29" t="s">
+        <v>70</v>
+      </c>
+      <c r="F33" s="74">
+        <f>塔_属性!D33</f>
+        <v>192.55999999999997</v>
+      </c>
+      <c r="G33" s="29" t="s">
+        <v>70</v>
+      </c>
+      <c r="H33" s="29">
+        <f>塔_属性!E33</f>
+        <v>217</v>
+      </c>
+      <c r="I33" s="29" t="s">
+        <v>70</v>
+      </c>
+      <c r="J33" s="29">
+        <f>塔_属性!F33</f>
+        <v>324</v>
+      </c>
+      <c r="K33" s="29" t="s">
+        <v>70</v>
+      </c>
+      <c r="L33" s="31">
+        <f>塔_属性!G33</f>
+        <v>58.5</v>
+      </c>
+      <c r="M33" s="29" t="s">
+        <v>70</v>
+      </c>
+      <c r="N33" s="31">
+        <f>塔_属性!H33</f>
+        <v>37.75</v>
+      </c>
+      <c r="O33" s="29" t="s">
         <v>69</v>
       </c>
     </row>

--- a/_DESIGN_.xlsx
+++ b/_DESIGN_.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9302"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="-15" yWindow="-15" windowWidth="20520" windowHeight="3930" activeTab="1"/>
+    <workbookView xWindow="-15" yWindow="-15" windowWidth="20520" windowHeight="3930" activeTab="6"/>
   </bookViews>
   <sheets>
     <sheet name="游戏常数" sheetId="2" r:id="rId1"/>
@@ -2463,11 +2463,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="100370688"/>
-        <c:axId val="100376576"/>
+        <c:axId val="100104448"/>
+        <c:axId val="100114432"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="100370688"/>
+        <c:axId val="100104448"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2477,12 +2477,12 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="100376576"/>
+        <c:crossAx val="100114432"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="100376576"/>
+        <c:axId val="100114432"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2511,7 +2511,7 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="100370688"/>
+        <c:crossAx val="100104448"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -7122,8 +7122,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:X49"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="F32" sqref="F32"/>
+    <sheetView topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="F33" sqref="F33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -8992,30 +8992,30 @@
         <v>25</v>
       </c>
       <c r="C27" s="77">
-        <v>83.52</v>
+        <v>109.52</v>
       </c>
       <c r="D27" s="77">
-        <v>254.04</v>
+        <v>184.04</v>
       </c>
       <c r="E27" s="70">
-        <v>148</v>
+        <v>188</v>
       </c>
       <c r="F27" s="70">
         <v>238</v>
       </c>
       <c r="G27" s="71">
-        <v>58.9</v>
+        <v>48.9</v>
       </c>
       <c r="H27" s="72">
         <v>39.1</v>
       </c>
       <c r="I27">
         <f t="shared" si="54"/>
-        <v>209.86349745331069</v>
+        <v>421.05848670756643</v>
       </c>
       <c r="J27" s="29">
         <f t="shared" si="55"/>
-        <v>1546.3304347826086</v>
+        <v>1120.2434782608696</v>
       </c>
       <c r="K27" s="31">
         <v>10</v>
@@ -9031,27 +9031,27 @@
       </c>
       <c r="O27" s="29">
         <f t="shared" si="42"/>
-        <v>2098.6349745331067</v>
+        <v>4210.584867075665</v>
       </c>
       <c r="P27" s="29">
         <f t="shared" si="43"/>
-        <v>15463.304347826088</v>
+        <v>11202.434782608694</v>
       </c>
       <c r="Q27" s="30">
         <f t="shared" si="44"/>
-        <v>2.0416666666666665</v>
+        <v>0.68042366691015332</v>
       </c>
       <c r="R27" s="30">
         <f t="shared" si="45"/>
-        <v>0.60810810810810811</v>
+        <v>0.26595744680851063</v>
       </c>
       <c r="S27" s="30">
         <f t="shared" si="46"/>
-        <v>0.50639386189258295</v>
+        <v>0.25063938618925818</v>
       </c>
       <c r="T27" s="30">
         <f t="shared" si="47"/>
-        <v>6.3682677242459862</v>
+        <v>1.6605412635677399</v>
       </c>
       <c r="X27" s="73"/>
     </row>
@@ -9075,18 +9075,18 @@
         <v>201</v>
       </c>
       <c r="G28" s="71">
-        <v>130.19999999999999</v>
+        <v>140.19999999999999</v>
       </c>
       <c r="H28" s="71">
-        <v>89.87</v>
+        <v>99.87</v>
       </c>
       <c r="I28">
         <f t="shared" si="54"/>
-        <v>151.70875576036863</v>
+        <v>140.88787446504992</v>
       </c>
       <c r="J28" s="29">
         <f t="shared" si="55"/>
-        <v>852.1308556804272</v>
+        <v>766.80684890357463</v>
       </c>
       <c r="K28" s="31">
         <v>10</v>
@@ -9102,11 +9102,11 @@
       </c>
       <c r="O28" s="29">
         <f t="shared" si="42"/>
-        <v>1517.0875576036867</v>
+        <v>1408.8787446504994</v>
       </c>
       <c r="P28" s="29">
         <f t="shared" si="43"/>
-        <v>8521.3085568042716</v>
+        <v>7668.0684890357461</v>
       </c>
       <c r="Q28" s="30">
         <f t="shared" si="44"/>
@@ -9118,11 +9118,11 @@
       </c>
       <c r="S28" s="30">
         <f t="shared" si="46"/>
-        <v>0.44875931901635679</v>
+        <v>0.40382497246420335</v>
       </c>
       <c r="T28" s="30">
         <f t="shared" si="47"/>
-        <v>4.6168864572748136</v>
+        <v>4.4426745510579506</v>
       </c>
       <c r="X28" s="73"/>
     </row>
@@ -9276,30 +9276,30 @@
         <v>29</v>
       </c>
       <c r="C31" s="77">
-        <v>122.23</v>
+        <v>88.23</v>
       </c>
       <c r="D31" s="77">
-        <v>190.08</v>
+        <v>210.08</v>
       </c>
       <c r="E31" s="70">
-        <v>306</v>
+        <v>200</v>
       </c>
       <c r="F31" s="70">
-        <v>540</v>
+        <v>390</v>
       </c>
       <c r="G31" s="71">
-        <v>55.5</v>
+        <v>79.5</v>
       </c>
       <c r="H31" s="71">
-        <v>31.25</v>
+        <v>20.25</v>
       </c>
       <c r="I31">
         <f t="shared" si="54"/>
-        <v>673.91675675675685</v>
+        <v>221.96226415094338</v>
       </c>
       <c r="J31" s="29">
         <f t="shared" si="55"/>
-        <v>3284.5824000000002</v>
+        <v>4045.9851851851859</v>
       </c>
       <c r="K31" s="31">
         <v>10</v>
@@ -9315,27 +9315,27 @@
       </c>
       <c r="O31" s="29">
         <f t="shared" si="42"/>
-        <v>6739.1675675675669</v>
+        <v>2219.6226415094338</v>
       </c>
       <c r="P31" s="29">
         <f t="shared" si="43"/>
-        <v>32845.824000000001</v>
+        <v>40459.851851851854</v>
       </c>
       <c r="Q31" s="30">
         <f t="shared" si="44"/>
-        <v>0.55510103902478947</v>
+        <v>1.3810495296384451</v>
       </c>
       <c r="R31" s="30">
         <f t="shared" si="45"/>
-        <v>0.76470588235294112</v>
+        <v>0.95</v>
       </c>
       <c r="S31" s="30">
         <f t="shared" si="46"/>
-        <v>0.77600000000000002</v>
+        <v>2.925925925925926</v>
       </c>
       <c r="T31" s="30">
         <f t="shared" si="47"/>
-        <v>3.8738696093671052</v>
+        <v>17.228256954676542</v>
       </c>
       <c r="X31" s="73"/>
     </row>
@@ -9347,30 +9347,30 @@
         <v>30</v>
       </c>
       <c r="C32" s="77">
-        <v>127.6</v>
+        <v>67.599999999999994</v>
       </c>
       <c r="D32" s="77">
-        <v>281.88</v>
+        <v>101.88</v>
       </c>
       <c r="E32" s="70">
-        <v>130</v>
+        <v>101</v>
       </c>
       <c r="F32" s="70">
-        <v>177</v>
+        <v>149</v>
       </c>
       <c r="G32" s="71">
-        <v>194.9</v>
+        <v>234.9</v>
       </c>
       <c r="H32" s="72">
-        <v>162.1</v>
+        <v>152.1</v>
       </c>
       <c r="I32">
         <f t="shared" ref="I32:I34" si="56">C32*E32/G32</f>
-        <v>85.110312981015909</v>
+        <v>29.065985525755639</v>
       </c>
       <c r="J32" s="29">
         <f t="shared" ref="J32:J34" si="57">D32*F32/H32</f>
-        <v>307.79000616903147</v>
+        <v>99.803550295857988</v>
       </c>
       <c r="K32" s="31">
         <v>10</v>
@@ -9386,27 +9386,27 @@
       </c>
       <c r="O32" s="29">
         <f t="shared" ref="O32:O34" si="58">K32*C32*E32/G32+M32</f>
-        <v>851.10312981015898</v>
+        <v>290.65985525755639</v>
       </c>
       <c r="P32" s="29">
         <f t="shared" ref="P32:P34" si="59">K32*D32*F32/H32+N32</f>
-        <v>3077.9000616903149</v>
+        <v>998.03550295857985</v>
       </c>
       <c r="Q32" s="30">
         <f t="shared" ref="Q32:Q34" si="60">D32/C32-1</f>
-        <v>1.209090909090909</v>
+        <v>0.50710059171597632</v>
       </c>
       <c r="R32" s="30">
         <f t="shared" ref="R32:R34" si="61">F32/E32-1</f>
-        <v>0.36153846153846159</v>
+        <v>0.47524752475247523</v>
       </c>
       <c r="S32" s="30">
         <f t="shared" ref="S32:S34" si="62">G32/H32-1</f>
-        <v>0.20234423195558304</v>
+        <v>0.54437869822485219</v>
       </c>
       <c r="T32" s="30">
         <f t="shared" ref="T32:T34" si="63">P32/O32-1</f>
-        <v>2.6163655776672439</v>
+        <v>2.4336888459337165</v>
       </c>
     </row>
     <row r="33" spans="1:20" x14ac:dyDescent="0.15">
@@ -9429,18 +9429,18 @@
         <v>324</v>
       </c>
       <c r="G33" s="71">
-        <v>58.5</v>
+        <v>78.5</v>
       </c>
       <c r="H33" s="71">
-        <v>37.75</v>
+        <v>47.75</v>
       </c>
       <c r="I33">
         <f t="shared" si="56"/>
-        <v>400.1702564102564</v>
+        <v>298.216050955414</v>
       </c>
       <c r="J33" s="29">
         <f t="shared" si="57"/>
-        <v>1652.7003973509932</v>
+        <v>1306.5851308900521</v>
       </c>
       <c r="K33" s="31">
         <v>10</v>
@@ -9456,11 +9456,11 @@
       </c>
       <c r="O33" s="29">
         <f t="shared" si="58"/>
-        <v>4001.7025641025639</v>
+        <v>2982.1605095541399</v>
       </c>
       <c r="P33" s="29">
         <f t="shared" si="59"/>
-        <v>16527.003973509931</v>
+        <v>13065.851308900521</v>
       </c>
       <c r="Q33" s="30">
         <f t="shared" si="60"/>
@@ -9472,11 +9472,11 @@
       </c>
       <c r="S33" s="30">
         <f t="shared" si="62"/>
-        <v>0.54966887417218535</v>
+        <v>0.64397905759162311</v>
       </c>
       <c r="T33" s="30">
         <f t="shared" si="63"/>
-        <v>3.1299930988789857</v>
+        <v>3.3813373784008647</v>
       </c>
     </row>
     <row r="34" spans="1:20" x14ac:dyDescent="0.15">
@@ -20843,8 +20843,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AC33"/>
   <sheetViews>
-    <sheetView topLeftCell="A25" workbookViewId="0">
-      <selection activeCell="Q15" sqref="Q15"/>
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="P34" sqref="P34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -22322,21 +22322,21 @@
       </c>
       <c r="D27" s="74">
         <f>塔_属性!C27</f>
-        <v>83.52</v>
+        <v>109.52</v>
       </c>
       <c r="E27" s="29" t="s">
         <v>70</v>
       </c>
       <c r="F27" s="74">
         <f>塔_属性!D27</f>
-        <v>254.04</v>
+        <v>184.04</v>
       </c>
       <c r="G27" s="29" t="s">
         <v>70</v>
       </c>
       <c r="H27" s="29">
         <f>塔_属性!E27</f>
-        <v>148</v>
+        <v>188</v>
       </c>
       <c r="I27" s="29" t="s">
         <v>70</v>
@@ -22350,7 +22350,7 @@
       </c>
       <c r="L27" s="31">
         <f>塔_属性!G27</f>
-        <v>58.9</v>
+        <v>48.9</v>
       </c>
       <c r="M27" s="29" t="s">
         <v>70</v>
@@ -22403,14 +22403,14 @@
       </c>
       <c r="L28" s="31">
         <f>塔_属性!G28</f>
-        <v>130.19999999999999</v>
+        <v>140.19999999999999</v>
       </c>
       <c r="M28" s="29" t="s">
         <v>70</v>
       </c>
       <c r="N28" s="31">
         <f>塔_属性!H28</f>
-        <v>89.87</v>
+        <v>99.87</v>
       </c>
       <c r="O28" s="29" t="s">
         <v>72</v>
@@ -22534,42 +22534,42 @@
       </c>
       <c r="D31" s="74">
         <f>塔_属性!C31</f>
-        <v>122.23</v>
+        <v>88.23</v>
       </c>
       <c r="E31" s="29" t="s">
         <v>70</v>
       </c>
       <c r="F31" s="74">
         <f>塔_属性!D31</f>
-        <v>190.08</v>
+        <v>210.08</v>
       </c>
       <c r="G31" s="29" t="s">
         <v>70</v>
       </c>
       <c r="H31" s="29">
         <f>塔_属性!E31</f>
-        <v>306</v>
+        <v>200</v>
       </c>
       <c r="I31" s="29" t="s">
         <v>70</v>
       </c>
       <c r="J31" s="29">
         <f>塔_属性!F31</f>
-        <v>540</v>
+        <v>390</v>
       </c>
       <c r="K31" s="29" t="s">
         <v>70</v>
       </c>
       <c r="L31" s="31">
         <f>塔_属性!G31</f>
-        <v>55.5</v>
+        <v>79.5</v>
       </c>
       <c r="M31" s="29" t="s">
         <v>70</v>
       </c>
       <c r="N31" s="31">
         <f>塔_属性!H31</f>
-        <v>31.25</v>
+        <v>20.25</v>
       </c>
       <c r="O31" s="29" t="s">
         <v>72</v>
@@ -22587,42 +22587,42 @@
       </c>
       <c r="D32" s="74">
         <f>塔_属性!C32</f>
-        <v>127.6</v>
+        <v>67.599999999999994</v>
       </c>
       <c r="E32" s="29" t="s">
         <v>70</v>
       </c>
       <c r="F32" s="74">
         <f>塔_属性!D32</f>
-        <v>281.88</v>
+        <v>101.88</v>
       </c>
       <c r="G32" s="29" t="s">
         <v>70</v>
       </c>
       <c r="H32" s="29">
         <f>塔_属性!E32</f>
-        <v>130</v>
+        <v>101</v>
       </c>
       <c r="I32" s="29" t="s">
         <v>70</v>
       </c>
       <c r="J32" s="29">
         <f>塔_属性!F32</f>
-        <v>177</v>
+        <v>149</v>
       </c>
       <c r="K32" s="29" t="s">
         <v>70</v>
       </c>
       <c r="L32" s="31">
         <f>塔_属性!G32</f>
-        <v>194.9</v>
+        <v>234.9</v>
       </c>
       <c r="M32" s="29" t="s">
         <v>70</v>
       </c>
       <c r="N32" s="31">
         <f>塔_属性!H32</f>
-        <v>162.1</v>
+        <v>152.1</v>
       </c>
       <c r="O32" s="29" t="s">
         <v>72</v>
@@ -22668,14 +22668,14 @@
       </c>
       <c r="L33" s="31">
         <f>塔_属性!G33</f>
-        <v>58.5</v>
+        <v>78.5</v>
       </c>
       <c r="M33" s="29" t="s">
         <v>70</v>
       </c>
       <c r="N33" s="31">
         <f>塔_属性!H33</f>
-        <v>37.75</v>
+        <v>47.75</v>
       </c>
       <c r="O33" s="29" t="s">
         <v>69</v>

--- a/_DESIGN_.xlsx
+++ b/_DESIGN_.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9302"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="-15" yWindow="-15" windowWidth="20520" windowHeight="3930" activeTab="6"/>
+    <workbookView xWindow="-15" yWindow="-15" windowWidth="20520" windowHeight="3930" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="游戏常数" sheetId="2" r:id="rId1"/>
@@ -2204,6 +2204,9 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -2211,9 +2214,6 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
@@ -2463,11 +2463,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="100104448"/>
-        <c:axId val="100114432"/>
+        <c:axId val="98777728"/>
+        <c:axId val="98804096"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="100104448"/>
+        <c:axId val="98777728"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2477,12 +2477,12 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="100114432"/>
+        <c:crossAx val="98804096"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="100114432"/>
+        <c:axId val="98804096"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2511,7 +2511,7 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="100104448"/>
+        <c:crossAx val="98777728"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -7122,8 +7122,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:X49"/>
   <sheetViews>
-    <sheetView topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="F33" sqref="F33"/>
+    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
+      <selection activeCell="H32" sqref="H32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -9276,16 +9276,16 @@
         <v>29</v>
       </c>
       <c r="C31" s="77">
-        <v>88.23</v>
+        <v>48.23</v>
       </c>
       <c r="D31" s="77">
-        <v>210.08</v>
+        <v>160.08000000000001</v>
       </c>
       <c r="E31" s="70">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="F31" s="70">
-        <v>390</v>
+        <v>380</v>
       </c>
       <c r="G31" s="71">
         <v>79.5</v>
@@ -9295,11 +9295,11 @@
       </c>
       <c r="I31">
         <f t="shared" si="54"/>
-        <v>221.96226415094338</v>
+        <v>120.11999999999999</v>
       </c>
       <c r="J31" s="29">
         <f t="shared" si="55"/>
-        <v>4045.9851851851859</v>
+        <v>3003.9703703703703</v>
       </c>
       <c r="K31" s="31">
         <v>10</v>
@@ -9315,19 +9315,19 @@
       </c>
       <c r="O31" s="29">
         <f t="shared" si="42"/>
-        <v>2219.6226415094338</v>
+        <v>1201.1999999999998</v>
       </c>
       <c r="P31" s="29">
         <f t="shared" si="43"/>
-        <v>40459.851851851854</v>
+        <v>30039.703703703708</v>
       </c>
       <c r="Q31" s="30">
         <f t="shared" si="44"/>
-        <v>1.3810495296384451</v>
+        <v>2.319095998341282</v>
       </c>
       <c r="R31" s="30">
         <f t="shared" si="45"/>
-        <v>0.95</v>
+        <v>0.91919191919191912</v>
       </c>
       <c r="S31" s="30">
         <f t="shared" si="46"/>
@@ -9335,7 +9335,7 @@
       </c>
       <c r="T31" s="30">
         <f t="shared" si="47"/>
-        <v>17.228256954676542</v>
+        <v>24.008078341411682</v>
       </c>
       <c r="X31" s="73"/>
     </row>
@@ -14538,13 +14538,13 @@
       <c r="H3" s="13"/>
     </row>
     <row r="4" spans="1:12" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B4" s="79">
+      <c r="B4" s="80">
         <v>0</v>
       </c>
-      <c r="C4" s="79" t="s">
+      <c r="C4" s="80" t="s">
         <v>44</v>
       </c>
-      <c r="D4" s="79" t="s">
+      <c r="D4" s="80" t="s">
         <v>50</v>
       </c>
       <c r="E4" s="15" t="s">
@@ -14572,9 +14572,9 @@
       </c>
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="B5" s="80"/>
-      <c r="C5" s="80"/>
-      <c r="D5" s="80"/>
+      <c r="B5" s="81"/>
+      <c r="C5" s="81"/>
+      <c r="D5" s="81"/>
       <c r="E5" s="15" t="s">
         <v>1</v>
       </c>
@@ -14600,9 +14600,9 @@
       </c>
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="B6" s="81"/>
-      <c r="C6" s="81"/>
-      <c r="D6" s="81"/>
+      <c r="B6" s="82"/>
+      <c r="C6" s="82"/>
+      <c r="D6" s="82"/>
       <c r="E6" s="19" t="s">
         <v>2</v>
       </c>
@@ -14638,13 +14638,13 @@
       <c r="L7" s="24"/>
     </row>
     <row r="8" spans="1:12" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B8" s="79">
+      <c r="B8" s="80">
         <v>1</v>
       </c>
-      <c r="C8" s="79" t="s">
+      <c r="C8" s="80" t="s">
         <v>45</v>
       </c>
-      <c r="D8" s="79" t="s">
+      <c r="D8" s="80" t="s">
         <v>52</v>
       </c>
       <c r="E8" s="21" t="s">
@@ -14672,9 +14672,9 @@
       </c>
     </row>
     <row r="9" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="B9" s="80"/>
-      <c r="C9" s="80"/>
-      <c r="D9" s="80"/>
+      <c r="B9" s="81"/>
+      <c r="C9" s="81"/>
+      <c r="D9" s="81"/>
       <c r="E9" s="15" t="s">
         <v>1</v>
       </c>
@@ -14700,9 +14700,9 @@
       </c>
     </row>
     <row r="10" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="B10" s="80"/>
-      <c r="C10" s="80"/>
-      <c r="D10" s="80"/>
+      <c r="B10" s="81"/>
+      <c r="C10" s="81"/>
+      <c r="D10" s="81"/>
       <c r="E10" s="15" t="s">
         <v>2</v>
       </c>
@@ -14728,9 +14728,9 @@
       </c>
     </row>
     <row r="11" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="B11" s="81"/>
-      <c r="C11" s="81"/>
-      <c r="D11" s="81"/>
+      <c r="B11" s="82"/>
+      <c r="C11" s="82"/>
+      <c r="D11" s="82"/>
       <c r="E11" s="19" t="s">
         <v>43</v>
       </c>
@@ -14760,13 +14760,13 @@
       <c r="K12" s="25"/>
     </row>
     <row r="13" spans="1:12" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B13" s="79">
+      <c r="B13" s="80">
         <v>2</v>
       </c>
-      <c r="C13" s="79" t="s">
+      <c r="C13" s="80" t="s">
         <v>46</v>
       </c>
-      <c r="D13" s="79" t="s">
+      <c r="D13" s="80" t="s">
         <v>53</v>
       </c>
       <c r="E13" s="21" t="s">
@@ -14794,9 +14794,9 @@
       </c>
     </row>
     <row r="14" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="B14" s="80"/>
-      <c r="C14" s="80"/>
-      <c r="D14" s="80"/>
+      <c r="B14" s="81"/>
+      <c r="C14" s="81"/>
+      <c r="D14" s="81"/>
       <c r="E14" s="15" t="s">
         <v>1</v>
       </c>
@@ -14822,9 +14822,9 @@
       </c>
     </row>
     <row r="15" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="B15" s="80"/>
-      <c r="C15" s="80"/>
-      <c r="D15" s="80"/>
+      <c r="B15" s="81"/>
+      <c r="C15" s="81"/>
+      <c r="D15" s="81"/>
       <c r="E15" s="15" t="s">
         <v>2</v>
       </c>
@@ -14850,9 +14850,9 @@
       </c>
     </row>
     <row r="16" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="B16" s="80"/>
-      <c r="C16" s="80"/>
-      <c r="D16" s="80"/>
+      <c r="B16" s="81"/>
+      <c r="C16" s="81"/>
+      <c r="D16" s="81"/>
       <c r="E16" s="11" t="s">
         <v>65</v>
       </c>
@@ -14873,9 +14873,9 @@
       </c>
     </row>
     <row r="17" spans="2:11" x14ac:dyDescent="0.15">
-      <c r="B17" s="81"/>
-      <c r="C17" s="81"/>
-      <c r="D17" s="81"/>
+      <c r="B17" s="82"/>
+      <c r="C17" s="82"/>
+      <c r="D17" s="82"/>
       <c r="E17" s="11" t="s">
         <v>66</v>
       </c>
@@ -14896,13 +14896,13 @@
       </c>
     </row>
     <row r="19" spans="2:11" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B19" s="79">
+      <c r="B19" s="80">
         <v>3</v>
       </c>
-      <c r="C19" s="79" t="s">
+      <c r="C19" s="80" t="s">
         <v>47</v>
       </c>
-      <c r="D19" s="79" t="s">
+      <c r="D19" s="80" t="s">
         <v>54</v>
       </c>
       <c r="E19" s="15" t="s">
@@ -14930,9 +14930,9 @@
       </c>
     </row>
     <row r="20" spans="2:11" x14ac:dyDescent="0.15">
-      <c r="B20" s="80"/>
-      <c r="C20" s="80"/>
-      <c r="D20" s="80"/>
+      <c r="B20" s="81"/>
+      <c r="C20" s="81"/>
+      <c r="D20" s="81"/>
       <c r="E20" s="15" t="s">
         <v>1</v>
       </c>
@@ -14958,9 +14958,9 @@
       </c>
     </row>
     <row r="21" spans="2:11" x14ac:dyDescent="0.15">
-      <c r="B21" s="81"/>
-      <c r="C21" s="81"/>
-      <c r="D21" s="81"/>
+      <c r="B21" s="82"/>
+      <c r="C21" s="82"/>
+      <c r="D21" s="82"/>
       <c r="E21" s="15" t="s">
         <v>2</v>
       </c>
@@ -14986,13 +14986,13 @@
       </c>
     </row>
     <row r="23" spans="2:11" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B23" s="79">
+      <c r="B23" s="80">
         <v>4</v>
       </c>
-      <c r="C23" s="79" t="s">
+      <c r="C23" s="80" t="s">
         <v>48</v>
       </c>
-      <c r="D23" s="79" t="s">
+      <c r="D23" s="80" t="s">
         <v>55</v>
       </c>
       <c r="E23" s="15" t="s">
@@ -15020,9 +15020,9 @@
       </c>
     </row>
     <row r="24" spans="2:11" x14ac:dyDescent="0.15">
-      <c r="B24" s="80"/>
-      <c r="C24" s="80"/>
-      <c r="D24" s="80"/>
+      <c r="B24" s="81"/>
+      <c r="C24" s="81"/>
+      <c r="D24" s="81"/>
       <c r="E24" s="15" t="s">
         <v>1</v>
       </c>
@@ -15048,9 +15048,9 @@
       </c>
     </row>
     <row r="25" spans="2:11" x14ac:dyDescent="0.15">
-      <c r="B25" s="80"/>
-      <c r="C25" s="80"/>
-      <c r="D25" s="80"/>
+      <c r="B25" s="81"/>
+      <c r="C25" s="81"/>
+      <c r="D25" s="81"/>
       <c r="E25" s="15" t="s">
         <v>2</v>
       </c>
@@ -15076,9 +15076,9 @@
       </c>
     </row>
     <row r="26" spans="2:11" x14ac:dyDescent="0.15">
-      <c r="B26" s="80"/>
-      <c r="C26" s="80"/>
-      <c r="D26" s="80"/>
+      <c r="B26" s="81"/>
+      <c r="C26" s="81"/>
+      <c r="D26" s="81"/>
       <c r="E26" s="11" t="s">
         <v>67</v>
       </c>
@@ -15099,9 +15099,9 @@
       </c>
     </row>
     <row r="27" spans="2:11" x14ac:dyDescent="0.15">
-      <c r="B27" s="81"/>
-      <c r="C27" s="81"/>
-      <c r="D27" s="81"/>
+      <c r="B27" s="82"/>
+      <c r="C27" s="82"/>
+      <c r="D27" s="82"/>
       <c r="E27" s="11" t="s">
         <v>68</v>
       </c>
@@ -15122,13 +15122,13 @@
       </c>
     </row>
     <row r="29" spans="2:11" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B29" s="79">
+      <c r="B29" s="80">
         <v>5</v>
       </c>
-      <c r="C29" s="79" t="s">
+      <c r="C29" s="80" t="s">
         <v>49</v>
       </c>
-      <c r="D29" s="79" t="s">
+      <c r="D29" s="80" t="s">
         <v>56</v>
       </c>
       <c r="E29" s="15" t="s">
@@ -15156,9 +15156,9 @@
       </c>
     </row>
     <row r="30" spans="2:11" x14ac:dyDescent="0.15">
-      <c r="B30" s="80"/>
-      <c r="C30" s="80"/>
-      <c r="D30" s="80"/>
+      <c r="B30" s="81"/>
+      <c r="C30" s="81"/>
+      <c r="D30" s="81"/>
       <c r="E30" s="15" t="s">
         <v>1</v>
       </c>
@@ -15184,9 +15184,9 @@
       </c>
     </row>
     <row r="31" spans="2:11" x14ac:dyDescent="0.15">
-      <c r="B31" s="80"/>
-      <c r="C31" s="80"/>
-      <c r="D31" s="80"/>
+      <c r="B31" s="81"/>
+      <c r="C31" s="81"/>
+      <c r="D31" s="81"/>
       <c r="E31" s="15" t="s">
         <v>2</v>
       </c>
@@ -15212,9 +15212,9 @@
       </c>
     </row>
     <row r="32" spans="2:11" x14ac:dyDescent="0.15">
-      <c r="B32" s="80"/>
-      <c r="C32" s="80"/>
-      <c r="D32" s="80"/>
+      <c r="B32" s="81"/>
+      <c r="C32" s="81"/>
+      <c r="D32" s="81"/>
       <c r="E32" s="15" t="s">
         <v>57</v>
       </c>
@@ -15235,9 +15235,9 @@
       </c>
     </row>
     <row r="33" spans="2:11" x14ac:dyDescent="0.15">
-      <c r="B33" s="81"/>
-      <c r="C33" s="81"/>
-      <c r="D33" s="81"/>
+      <c r="B33" s="82"/>
+      <c r="C33" s="82"/>
+      <c r="D33" s="82"/>
       <c r="E33" s="11" t="s">
         <v>64</v>
       </c>
@@ -15258,13 +15258,13 @@
       </c>
     </row>
     <row r="35" spans="2:11" x14ac:dyDescent="0.15">
-      <c r="B35" s="82">
+      <c r="B35" s="79">
         <v>6</v>
       </c>
-      <c r="C35" s="82" t="s">
+      <c r="C35" s="79" t="s">
         <v>62</v>
       </c>
-      <c r="D35" s="82" t="s">
+      <c r="D35" s="79" t="s">
         <v>63</v>
       </c>
       <c r="E35" s="11" t="s">
@@ -15292,9 +15292,9 @@
       </c>
     </row>
     <row r="36" spans="2:11" x14ac:dyDescent="0.15">
-      <c r="B36" s="82"/>
-      <c r="C36" s="82"/>
-      <c r="D36" s="82"/>
+      <c r="B36" s="79"/>
+      <c r="C36" s="79"/>
+      <c r="D36" s="79"/>
       <c r="E36" s="28" t="s">
         <v>1</v>
       </c>
@@ -15320,9 +15320,9 @@
       </c>
     </row>
     <row r="37" spans="2:11" x14ac:dyDescent="0.15">
-      <c r="B37" s="82"/>
-      <c r="C37" s="82"/>
-      <c r="D37" s="82"/>
+      <c r="B37" s="79"/>
+      <c r="C37" s="79"/>
+      <c r="D37" s="79"/>
       <c r="E37" s="28" t="s">
         <v>2</v>
       </c>
@@ -15349,18 +15349,6 @@
     </row>
   </sheetData>
   <mergeCells count="21">
-    <mergeCell ref="B35:B37"/>
-    <mergeCell ref="C35:C37"/>
-    <mergeCell ref="D35:D37"/>
-    <mergeCell ref="B29:B33"/>
-    <mergeCell ref="C29:C33"/>
-    <mergeCell ref="D29:D33"/>
-    <mergeCell ref="B19:B21"/>
-    <mergeCell ref="C19:C21"/>
-    <mergeCell ref="D19:D21"/>
-    <mergeCell ref="B23:B27"/>
-    <mergeCell ref="C23:C27"/>
-    <mergeCell ref="D23:D27"/>
     <mergeCell ref="B13:B17"/>
     <mergeCell ref="C13:C17"/>
     <mergeCell ref="D13:D17"/>
@@ -15370,6 +15358,18 @@
     <mergeCell ref="D8:D11"/>
     <mergeCell ref="C4:C6"/>
     <mergeCell ref="C8:C11"/>
+    <mergeCell ref="B19:B21"/>
+    <mergeCell ref="C19:C21"/>
+    <mergeCell ref="D19:D21"/>
+    <mergeCell ref="B23:B27"/>
+    <mergeCell ref="C23:C27"/>
+    <mergeCell ref="D23:D27"/>
+    <mergeCell ref="B35:B37"/>
+    <mergeCell ref="C35:C37"/>
+    <mergeCell ref="D35:D37"/>
+    <mergeCell ref="B29:B33"/>
+    <mergeCell ref="C29:C33"/>
+    <mergeCell ref="D29:D33"/>
   </mergeCells>
   <phoneticPr fontId="16" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -20756,53 +20756,18 @@
     </row>
   </sheetData>
   <mergeCells count="75">
-    <mergeCell ref="K173:M173"/>
-    <mergeCell ref="K174:M174"/>
-    <mergeCell ref="K165:M165"/>
-    <mergeCell ref="K169:M169"/>
-    <mergeCell ref="K170:M170"/>
-    <mergeCell ref="K171:M171"/>
-    <mergeCell ref="K172:M172"/>
-    <mergeCell ref="K153:M153"/>
-    <mergeCell ref="K154:M154"/>
-    <mergeCell ref="K155:M155"/>
-    <mergeCell ref="K139:M139"/>
-    <mergeCell ref="K146:M146"/>
-    <mergeCell ref="K150:M150"/>
-    <mergeCell ref="K151:M151"/>
-    <mergeCell ref="K152:M152"/>
-    <mergeCell ref="K134:M134"/>
-    <mergeCell ref="K135:M135"/>
-    <mergeCell ref="K136:M136"/>
-    <mergeCell ref="K137:M137"/>
-    <mergeCell ref="K138:M138"/>
-    <mergeCell ref="K120:M120"/>
-    <mergeCell ref="K121:M121"/>
-    <mergeCell ref="K122:M122"/>
-    <mergeCell ref="K123:M123"/>
-    <mergeCell ref="K130:M130"/>
-    <mergeCell ref="K106:M106"/>
-    <mergeCell ref="K107:M107"/>
-    <mergeCell ref="K114:M114"/>
-    <mergeCell ref="K118:M118"/>
-    <mergeCell ref="K119:M119"/>
-    <mergeCell ref="K98:M98"/>
-    <mergeCell ref="K102:M102"/>
-    <mergeCell ref="K103:M103"/>
-    <mergeCell ref="K104:M104"/>
-    <mergeCell ref="K105:M105"/>
-    <mergeCell ref="K2:M2"/>
-    <mergeCell ref="K18:M18"/>
-    <mergeCell ref="K34:M34"/>
-    <mergeCell ref="K50:M50"/>
-    <mergeCell ref="K66:M66"/>
-    <mergeCell ref="K8:M8"/>
-    <mergeCell ref="K9:M9"/>
-    <mergeCell ref="K42:M42"/>
-    <mergeCell ref="K43:M43"/>
-    <mergeCell ref="K58:M58"/>
-    <mergeCell ref="K26:M26"/>
-    <mergeCell ref="K27:M27"/>
+    <mergeCell ref="K88:M88"/>
+    <mergeCell ref="K89:M89"/>
+    <mergeCell ref="K90:M90"/>
+    <mergeCell ref="K56:M56"/>
+    <mergeCell ref="K57:M57"/>
+    <mergeCell ref="K59:M59"/>
+    <mergeCell ref="K86:M86"/>
+    <mergeCell ref="K87:M87"/>
+    <mergeCell ref="K71:M71"/>
+    <mergeCell ref="K72:M72"/>
+    <mergeCell ref="K73:M73"/>
+    <mergeCell ref="K70:M70"/>
     <mergeCell ref="K91:M91"/>
     <mergeCell ref="K10:M10"/>
     <mergeCell ref="K11:M11"/>
@@ -20819,18 +20784,53 @@
     <mergeCell ref="K82:M82"/>
     <mergeCell ref="K74:M74"/>
     <mergeCell ref="K75:M75"/>
-    <mergeCell ref="K88:M88"/>
-    <mergeCell ref="K89:M89"/>
-    <mergeCell ref="K90:M90"/>
-    <mergeCell ref="K56:M56"/>
-    <mergeCell ref="K57:M57"/>
-    <mergeCell ref="K59:M59"/>
-    <mergeCell ref="K86:M86"/>
-    <mergeCell ref="K87:M87"/>
-    <mergeCell ref="K71:M71"/>
-    <mergeCell ref="K72:M72"/>
-    <mergeCell ref="K73:M73"/>
-    <mergeCell ref="K70:M70"/>
+    <mergeCell ref="K2:M2"/>
+    <mergeCell ref="K18:M18"/>
+    <mergeCell ref="K34:M34"/>
+    <mergeCell ref="K50:M50"/>
+    <mergeCell ref="K66:M66"/>
+    <mergeCell ref="K8:M8"/>
+    <mergeCell ref="K9:M9"/>
+    <mergeCell ref="K42:M42"/>
+    <mergeCell ref="K43:M43"/>
+    <mergeCell ref="K58:M58"/>
+    <mergeCell ref="K26:M26"/>
+    <mergeCell ref="K27:M27"/>
+    <mergeCell ref="K98:M98"/>
+    <mergeCell ref="K102:M102"/>
+    <mergeCell ref="K103:M103"/>
+    <mergeCell ref="K104:M104"/>
+    <mergeCell ref="K105:M105"/>
+    <mergeCell ref="K106:M106"/>
+    <mergeCell ref="K107:M107"/>
+    <mergeCell ref="K114:M114"/>
+    <mergeCell ref="K118:M118"/>
+    <mergeCell ref="K119:M119"/>
+    <mergeCell ref="K120:M120"/>
+    <mergeCell ref="K121:M121"/>
+    <mergeCell ref="K122:M122"/>
+    <mergeCell ref="K123:M123"/>
+    <mergeCell ref="K130:M130"/>
+    <mergeCell ref="K134:M134"/>
+    <mergeCell ref="K135:M135"/>
+    <mergeCell ref="K136:M136"/>
+    <mergeCell ref="K137:M137"/>
+    <mergeCell ref="K138:M138"/>
+    <mergeCell ref="K153:M153"/>
+    <mergeCell ref="K154:M154"/>
+    <mergeCell ref="K155:M155"/>
+    <mergeCell ref="K139:M139"/>
+    <mergeCell ref="K146:M146"/>
+    <mergeCell ref="K150:M150"/>
+    <mergeCell ref="K151:M151"/>
+    <mergeCell ref="K152:M152"/>
+    <mergeCell ref="K173:M173"/>
+    <mergeCell ref="K174:M174"/>
+    <mergeCell ref="K165:M165"/>
+    <mergeCell ref="K169:M169"/>
+    <mergeCell ref="K170:M170"/>
+    <mergeCell ref="K171:M171"/>
+    <mergeCell ref="K172:M172"/>
   </mergeCells>
   <phoneticPr fontId="16" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -20843,7 +20843,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AC33"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+    <sheetView topLeftCell="A10" workbookViewId="0">
       <selection activeCell="P34" sqref="P34"/>
     </sheetView>
   </sheetViews>
@@ -22534,28 +22534,28 @@
       </c>
       <c r="D31" s="74">
         <f>塔_属性!C31</f>
-        <v>88.23</v>
+        <v>48.23</v>
       </c>
       <c r="E31" s="29" t="s">
         <v>70</v>
       </c>
       <c r="F31" s="74">
         <f>塔_属性!D31</f>
-        <v>210.08</v>
+        <v>160.08000000000001</v>
       </c>
       <c r="G31" s="29" t="s">
         <v>70</v>
       </c>
       <c r="H31" s="29">
         <f>塔_属性!E31</f>
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="I31" s="29" t="s">
         <v>70</v>
       </c>
       <c r="J31" s="29">
         <f>塔_属性!F31</f>
-        <v>390</v>
+        <v>380</v>
       </c>
       <c r="K31" s="29" t="s">
         <v>70</v>

--- a/_DESIGN_.xlsx
+++ b/_DESIGN_.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9302"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="-15" yWindow="-15" windowWidth="20520" windowHeight="3930" activeTab="1"/>
+    <workbookView xWindow="-15" yWindow="-15" windowWidth="20520" windowHeight="3930" activeTab="6"/>
   </bookViews>
   <sheets>
     <sheet name="游戏常数" sheetId="2" r:id="rId1"/>
@@ -2204,9 +2204,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -2214,6 +2211,9 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
@@ -2463,11 +2463,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="98777728"/>
-        <c:axId val="98804096"/>
+        <c:axId val="95852800"/>
+        <c:axId val="95870976"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="98777728"/>
+        <c:axId val="95852800"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2477,12 +2477,12 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="98804096"/>
+        <c:crossAx val="95870976"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="98804096"/>
+        <c:axId val="95870976"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2511,7 +2511,7 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="98777728"/>
+        <c:crossAx val="95852800"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -7122,8 +7122,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:X49"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
-      <selection activeCell="H32" sqref="H32"/>
+    <sheetView topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="H19" sqref="H19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -8436,18 +8436,18 @@
         <v>233</v>
       </c>
       <c r="G19" s="71">
-        <v>36.200000000000003</v>
+        <v>42.2</v>
       </c>
       <c r="H19" s="71">
-        <v>22.8</v>
+        <v>23.8</v>
       </c>
       <c r="I19">
         <f t="shared" ref="I19" si="48">C19*E19/G19</f>
-        <v>507.58011049723746</v>
+        <v>435.41232227488143</v>
       </c>
       <c r="J19" s="29">
         <f t="shared" ref="J19" si="49">D19*F19/H19</f>
-        <v>3959.3649122807019</v>
+        <v>3793.0050420168068</v>
       </c>
       <c r="K19" s="31">
         <v>10</v>
@@ -8463,11 +8463,11 @@
       </c>
       <c r="O19" s="29">
         <f t="shared" si="42"/>
-        <v>5075.8011049723746</v>
+        <v>4354.1232227488144</v>
       </c>
       <c r="P19" s="29">
         <f t="shared" si="43"/>
-        <v>39593.649122807023</v>
+        <v>37930.050420168067</v>
       </c>
       <c r="Q19" s="30">
         <f t="shared" si="44"/>
@@ -8479,11 +8479,11 @@
       </c>
       <c r="S19" s="30">
         <f t="shared" si="46"/>
-        <v>0.58771929824561409</v>
+        <v>0.77310924369747913</v>
       </c>
       <c r="T19" s="30">
         <f t="shared" si="47"/>
-        <v>6.8004729310650394</v>
+        <v>7.7112946693829052</v>
       </c>
       <c r="X19" s="73"/>
     </row>
@@ -8643,24 +8643,24 @@
         <v>223.88</v>
       </c>
       <c r="E22" s="70">
-        <v>180</v>
+        <v>150</v>
       </c>
       <c r="F22" s="70">
-        <v>235</v>
+        <v>195</v>
       </c>
       <c r="G22" s="71">
-        <v>80.400000000000006</v>
+        <v>70.400000000000006</v>
       </c>
       <c r="H22" s="72">
         <v>43.110999999999997</v>
       </c>
       <c r="I22">
         <f t="shared" si="52"/>
-        <v>249.31343283582083</v>
+        <v>237.2727272727272</v>
       </c>
       <c r="J22" s="29">
         <f t="shared" si="53"/>
-        <v>1220.3799494328593</v>
+        <v>1012.6557027208834</v>
       </c>
       <c r="K22" s="31">
         <v>10</v>
@@ -8676,11 +8676,11 @@
       </c>
       <c r="O22" s="29">
         <f t="shared" si="42"/>
-        <v>2493.1343283582082</v>
+        <v>2372.7272727272725</v>
       </c>
       <c r="P22" s="29">
         <f t="shared" si="43"/>
-        <v>12203.799494328594</v>
+        <v>10126.557027208835</v>
       </c>
       <c r="Q22" s="30">
         <f t="shared" si="44"/>
@@ -8688,15 +8688,15 @@
       </c>
       <c r="R22" s="30">
         <f t="shared" si="45"/>
-        <v>0.30555555555555558</v>
+        <v>0.30000000000000004</v>
       </c>
       <c r="S22" s="30">
         <f t="shared" si="46"/>
-        <v>0.86495326018881524</v>
+        <v>0.63299389946881335</v>
       </c>
       <c r="T22" s="30">
         <f t="shared" si="47"/>
-        <v>3.8949626803161879</v>
+        <v>3.2678975976742217</v>
       </c>
       <c r="X22" s="73"/>
     </row>
@@ -8708,10 +8708,10 @@
         <v>21</v>
       </c>
       <c r="C23" s="77">
-        <v>107.88</v>
+        <v>147.88</v>
       </c>
       <c r="D23" s="77">
-        <v>314.35999999999996</v>
+        <v>324.36</v>
       </c>
       <c r="E23" s="70">
         <v>150</v>
@@ -8727,11 +8727,11 @@
       </c>
       <c r="I23">
         <f t="shared" ref="I23:I31" si="54">C23*E23/G23</f>
-        <v>291.56756756756755</v>
+        <v>399.67567567567568</v>
       </c>
       <c r="J23" s="29">
         <f t="shared" ref="J23:J31" si="55">D23*F23/H23</f>
-        <v>2276.7601328903652</v>
+        <v>2349.1853820598003</v>
       </c>
       <c r="K23" s="31">
         <v>10</v>
@@ -8747,15 +8747,15 @@
       </c>
       <c r="O23" s="29">
         <f t="shared" si="42"/>
-        <v>2915.6756756756758</v>
+        <v>3996.7567567567567</v>
       </c>
       <c r="P23" s="29">
         <f t="shared" si="43"/>
-        <v>22767.601328903653</v>
+        <v>23491.853820598008</v>
       </c>
       <c r="Q23" s="30">
         <f t="shared" si="44"/>
-        <v>1.9139784946236555</v>
+        <v>1.1934000540979173</v>
       </c>
       <c r="R23" s="30">
         <f t="shared" si="45"/>
@@ -8767,7 +8767,7 @@
       </c>
       <c r="T23" s="30">
         <f t="shared" si="47"/>
-        <v>6.8086878862572773</v>
+        <v>4.8777291815128905</v>
       </c>
       <c r="X23" s="73"/>
     </row>
@@ -14538,13 +14538,13 @@
       <c r="H3" s="13"/>
     </row>
     <row r="4" spans="1:12" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B4" s="80">
+      <c r="B4" s="79">
         <v>0</v>
       </c>
-      <c r="C4" s="80" t="s">
+      <c r="C4" s="79" t="s">
         <v>44</v>
       </c>
-      <c r="D4" s="80" t="s">
+      <c r="D4" s="79" t="s">
         <v>50</v>
       </c>
       <c r="E4" s="15" t="s">
@@ -14572,9 +14572,9 @@
       </c>
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="B5" s="81"/>
-      <c r="C5" s="81"/>
-      <c r="D5" s="81"/>
+      <c r="B5" s="80"/>
+      <c r="C5" s="80"/>
+      <c r="D5" s="80"/>
       <c r="E5" s="15" t="s">
         <v>1</v>
       </c>
@@ -14600,9 +14600,9 @@
       </c>
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="B6" s="82"/>
-      <c r="C6" s="82"/>
-      <c r="D6" s="82"/>
+      <c r="B6" s="81"/>
+      <c r="C6" s="81"/>
+      <c r="D6" s="81"/>
       <c r="E6" s="19" t="s">
         <v>2</v>
       </c>
@@ -14638,13 +14638,13 @@
       <c r="L7" s="24"/>
     </row>
     <row r="8" spans="1:12" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B8" s="80">
+      <c r="B8" s="79">
         <v>1</v>
       </c>
-      <c r="C8" s="80" t="s">
+      <c r="C8" s="79" t="s">
         <v>45</v>
       </c>
-      <c r="D8" s="80" t="s">
+      <c r="D8" s="79" t="s">
         <v>52</v>
       </c>
       <c r="E8" s="21" t="s">
@@ -14672,9 +14672,9 @@
       </c>
     </row>
     <row r="9" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="B9" s="81"/>
-      <c r="C9" s="81"/>
-      <c r="D9" s="81"/>
+      <c r="B9" s="80"/>
+      <c r="C9" s="80"/>
+      <c r="D9" s="80"/>
       <c r="E9" s="15" t="s">
         <v>1</v>
       </c>
@@ -14700,9 +14700,9 @@
       </c>
     </row>
     <row r="10" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="B10" s="81"/>
-      <c r="C10" s="81"/>
-      <c r="D10" s="81"/>
+      <c r="B10" s="80"/>
+      <c r="C10" s="80"/>
+      <c r="D10" s="80"/>
       <c r="E10" s="15" t="s">
         <v>2</v>
       </c>
@@ -14728,9 +14728,9 @@
       </c>
     </row>
     <row r="11" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="B11" s="82"/>
-      <c r="C11" s="82"/>
-      <c r="D11" s="82"/>
+      <c r="B11" s="81"/>
+      <c r="C11" s="81"/>
+      <c r="D11" s="81"/>
       <c r="E11" s="19" t="s">
         <v>43</v>
       </c>
@@ -14760,13 +14760,13 @@
       <c r="K12" s="25"/>
     </row>
     <row r="13" spans="1:12" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B13" s="80">
+      <c r="B13" s="79">
         <v>2</v>
       </c>
-      <c r="C13" s="80" t="s">
+      <c r="C13" s="79" t="s">
         <v>46</v>
       </c>
-      <c r="D13" s="80" t="s">
+      <c r="D13" s="79" t="s">
         <v>53</v>
       </c>
       <c r="E13" s="21" t="s">
@@ -14794,9 +14794,9 @@
       </c>
     </row>
     <row r="14" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="B14" s="81"/>
-      <c r="C14" s="81"/>
-      <c r="D14" s="81"/>
+      <c r="B14" s="80"/>
+      <c r="C14" s="80"/>
+      <c r="D14" s="80"/>
       <c r="E14" s="15" t="s">
         <v>1</v>
       </c>
@@ -14822,9 +14822,9 @@
       </c>
     </row>
     <row r="15" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="B15" s="81"/>
-      <c r="C15" s="81"/>
-      <c r="D15" s="81"/>
+      <c r="B15" s="80"/>
+      <c r="C15" s="80"/>
+      <c r="D15" s="80"/>
       <c r="E15" s="15" t="s">
         <v>2</v>
       </c>
@@ -14850,9 +14850,9 @@
       </c>
     </row>
     <row r="16" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="B16" s="81"/>
-      <c r="C16" s="81"/>
-      <c r="D16" s="81"/>
+      <c r="B16" s="80"/>
+      <c r="C16" s="80"/>
+      <c r="D16" s="80"/>
       <c r="E16" s="11" t="s">
         <v>65</v>
       </c>
@@ -14873,9 +14873,9 @@
       </c>
     </row>
     <row r="17" spans="2:11" x14ac:dyDescent="0.15">
-      <c r="B17" s="82"/>
-      <c r="C17" s="82"/>
-      <c r="D17" s="82"/>
+      <c r="B17" s="81"/>
+      <c r="C17" s="81"/>
+      <c r="D17" s="81"/>
       <c r="E17" s="11" t="s">
         <v>66</v>
       </c>
@@ -14896,13 +14896,13 @@
       </c>
     </row>
     <row r="19" spans="2:11" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B19" s="80">
+      <c r="B19" s="79">
         <v>3</v>
       </c>
-      <c r="C19" s="80" t="s">
+      <c r="C19" s="79" t="s">
         <v>47</v>
       </c>
-      <c r="D19" s="80" t="s">
+      <c r="D19" s="79" t="s">
         <v>54</v>
       </c>
       <c r="E19" s="15" t="s">
@@ -14930,9 +14930,9 @@
       </c>
     </row>
     <row r="20" spans="2:11" x14ac:dyDescent="0.15">
-      <c r="B20" s="81"/>
-      <c r="C20" s="81"/>
-      <c r="D20" s="81"/>
+      <c r="B20" s="80"/>
+      <c r="C20" s="80"/>
+      <c r="D20" s="80"/>
       <c r="E20" s="15" t="s">
         <v>1</v>
       </c>
@@ -14958,9 +14958,9 @@
       </c>
     </row>
     <row r="21" spans="2:11" x14ac:dyDescent="0.15">
-      <c r="B21" s="82"/>
-      <c r="C21" s="82"/>
-      <c r="D21" s="82"/>
+      <c r="B21" s="81"/>
+      <c r="C21" s="81"/>
+      <c r="D21" s="81"/>
       <c r="E21" s="15" t="s">
         <v>2</v>
       </c>
@@ -14986,13 +14986,13 @@
       </c>
     </row>
     <row r="23" spans="2:11" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B23" s="80">
+      <c r="B23" s="79">
         <v>4</v>
       </c>
-      <c r="C23" s="80" t="s">
+      <c r="C23" s="79" t="s">
         <v>48</v>
       </c>
-      <c r="D23" s="80" t="s">
+      <c r="D23" s="79" t="s">
         <v>55</v>
       </c>
       <c r="E23" s="15" t="s">
@@ -15020,9 +15020,9 @@
       </c>
     </row>
     <row r="24" spans="2:11" x14ac:dyDescent="0.15">
-      <c r="B24" s="81"/>
-      <c r="C24" s="81"/>
-      <c r="D24" s="81"/>
+      <c r="B24" s="80"/>
+      <c r="C24" s="80"/>
+      <c r="D24" s="80"/>
       <c r="E24" s="15" t="s">
         <v>1</v>
       </c>
@@ -15048,9 +15048,9 @@
       </c>
     </row>
     <row r="25" spans="2:11" x14ac:dyDescent="0.15">
-      <c r="B25" s="81"/>
-      <c r="C25" s="81"/>
-      <c r="D25" s="81"/>
+      <c r="B25" s="80"/>
+      <c r="C25" s="80"/>
+      <c r="D25" s="80"/>
       <c r="E25" s="15" t="s">
         <v>2</v>
       </c>
@@ -15076,9 +15076,9 @@
       </c>
     </row>
     <row r="26" spans="2:11" x14ac:dyDescent="0.15">
-      <c r="B26" s="81"/>
-      <c r="C26" s="81"/>
-      <c r="D26" s="81"/>
+      <c r="B26" s="80"/>
+      <c r="C26" s="80"/>
+      <c r="D26" s="80"/>
       <c r="E26" s="11" t="s">
         <v>67</v>
       </c>
@@ -15099,9 +15099,9 @@
       </c>
     </row>
     <row r="27" spans="2:11" x14ac:dyDescent="0.15">
-      <c r="B27" s="82"/>
-      <c r="C27" s="82"/>
-      <c r="D27" s="82"/>
+      <c r="B27" s="81"/>
+      <c r="C27" s="81"/>
+      <c r="D27" s="81"/>
       <c r="E27" s="11" t="s">
         <v>68</v>
       </c>
@@ -15122,13 +15122,13 @@
       </c>
     </row>
     <row r="29" spans="2:11" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B29" s="80">
+      <c r="B29" s="79">
         <v>5</v>
       </c>
-      <c r="C29" s="80" t="s">
+      <c r="C29" s="79" t="s">
         <v>49</v>
       </c>
-      <c r="D29" s="80" t="s">
+      <c r="D29" s="79" t="s">
         <v>56</v>
       </c>
       <c r="E29" s="15" t="s">
@@ -15156,9 +15156,9 @@
       </c>
     </row>
     <row r="30" spans="2:11" x14ac:dyDescent="0.15">
-      <c r="B30" s="81"/>
-      <c r="C30" s="81"/>
-      <c r="D30" s="81"/>
+      <c r="B30" s="80"/>
+      <c r="C30" s="80"/>
+      <c r="D30" s="80"/>
       <c r="E30" s="15" t="s">
         <v>1</v>
       </c>
@@ -15184,9 +15184,9 @@
       </c>
     </row>
     <row r="31" spans="2:11" x14ac:dyDescent="0.15">
-      <c r="B31" s="81"/>
-      <c r="C31" s="81"/>
-      <c r="D31" s="81"/>
+      <c r="B31" s="80"/>
+      <c r="C31" s="80"/>
+      <c r="D31" s="80"/>
       <c r="E31" s="15" t="s">
         <v>2</v>
       </c>
@@ -15212,9 +15212,9 @@
       </c>
     </row>
     <row r="32" spans="2:11" x14ac:dyDescent="0.15">
-      <c r="B32" s="81"/>
-      <c r="C32" s="81"/>
-      <c r="D32" s="81"/>
+      <c r="B32" s="80"/>
+      <c r="C32" s="80"/>
+      <c r="D32" s="80"/>
       <c r="E32" s="15" t="s">
         <v>57</v>
       </c>
@@ -15235,9 +15235,9 @@
       </c>
     </row>
     <row r="33" spans="2:11" x14ac:dyDescent="0.15">
-      <c r="B33" s="82"/>
-      <c r="C33" s="82"/>
-      <c r="D33" s="82"/>
+      <c r="B33" s="81"/>
+      <c r="C33" s="81"/>
+      <c r="D33" s="81"/>
       <c r="E33" s="11" t="s">
         <v>64</v>
       </c>
@@ -15258,13 +15258,13 @@
       </c>
     </row>
     <row r="35" spans="2:11" x14ac:dyDescent="0.15">
-      <c r="B35" s="79">
+      <c r="B35" s="82">
         <v>6</v>
       </c>
-      <c r="C35" s="79" t="s">
+      <c r="C35" s="82" t="s">
         <v>62</v>
       </c>
-      <c r="D35" s="79" t="s">
+      <c r="D35" s="82" t="s">
         <v>63</v>
       </c>
       <c r="E35" s="11" t="s">
@@ -15292,9 +15292,9 @@
       </c>
     </row>
     <row r="36" spans="2:11" x14ac:dyDescent="0.15">
-      <c r="B36" s="79"/>
-      <c r="C36" s="79"/>
-      <c r="D36" s="79"/>
+      <c r="B36" s="82"/>
+      <c r="C36" s="82"/>
+      <c r="D36" s="82"/>
       <c r="E36" s="28" t="s">
         <v>1</v>
       </c>
@@ -15320,9 +15320,9 @@
       </c>
     </row>
     <row r="37" spans="2:11" x14ac:dyDescent="0.15">
-      <c r="B37" s="79"/>
-      <c r="C37" s="79"/>
-      <c r="D37" s="79"/>
+      <c r="B37" s="82"/>
+      <c r="C37" s="82"/>
+      <c r="D37" s="82"/>
       <c r="E37" s="28" t="s">
         <v>2</v>
       </c>
@@ -15349,6 +15349,18 @@
     </row>
   </sheetData>
   <mergeCells count="21">
+    <mergeCell ref="B35:B37"/>
+    <mergeCell ref="C35:C37"/>
+    <mergeCell ref="D35:D37"/>
+    <mergeCell ref="B29:B33"/>
+    <mergeCell ref="C29:C33"/>
+    <mergeCell ref="D29:D33"/>
+    <mergeCell ref="B19:B21"/>
+    <mergeCell ref="C19:C21"/>
+    <mergeCell ref="D19:D21"/>
+    <mergeCell ref="B23:B27"/>
+    <mergeCell ref="C23:C27"/>
+    <mergeCell ref="D23:D27"/>
     <mergeCell ref="B13:B17"/>
     <mergeCell ref="C13:C17"/>
     <mergeCell ref="D13:D17"/>
@@ -15358,18 +15370,6 @@
     <mergeCell ref="D8:D11"/>
     <mergeCell ref="C4:C6"/>
     <mergeCell ref="C8:C11"/>
-    <mergeCell ref="B19:B21"/>
-    <mergeCell ref="C19:C21"/>
-    <mergeCell ref="D19:D21"/>
-    <mergeCell ref="B23:B27"/>
-    <mergeCell ref="C23:C27"/>
-    <mergeCell ref="D23:D27"/>
-    <mergeCell ref="B35:B37"/>
-    <mergeCell ref="C35:C37"/>
-    <mergeCell ref="D35:D37"/>
-    <mergeCell ref="B29:B33"/>
-    <mergeCell ref="C29:C33"/>
-    <mergeCell ref="D29:D33"/>
   </mergeCells>
   <phoneticPr fontId="16" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -20756,18 +20756,53 @@
     </row>
   </sheetData>
   <mergeCells count="75">
-    <mergeCell ref="K88:M88"/>
-    <mergeCell ref="K89:M89"/>
-    <mergeCell ref="K90:M90"/>
-    <mergeCell ref="K56:M56"/>
-    <mergeCell ref="K57:M57"/>
-    <mergeCell ref="K59:M59"/>
-    <mergeCell ref="K86:M86"/>
-    <mergeCell ref="K87:M87"/>
-    <mergeCell ref="K71:M71"/>
-    <mergeCell ref="K72:M72"/>
-    <mergeCell ref="K73:M73"/>
-    <mergeCell ref="K70:M70"/>
+    <mergeCell ref="K173:M173"/>
+    <mergeCell ref="K174:M174"/>
+    <mergeCell ref="K165:M165"/>
+    <mergeCell ref="K169:M169"/>
+    <mergeCell ref="K170:M170"/>
+    <mergeCell ref="K171:M171"/>
+    <mergeCell ref="K172:M172"/>
+    <mergeCell ref="K153:M153"/>
+    <mergeCell ref="K154:M154"/>
+    <mergeCell ref="K155:M155"/>
+    <mergeCell ref="K139:M139"/>
+    <mergeCell ref="K146:M146"/>
+    <mergeCell ref="K150:M150"/>
+    <mergeCell ref="K151:M151"/>
+    <mergeCell ref="K152:M152"/>
+    <mergeCell ref="K134:M134"/>
+    <mergeCell ref="K135:M135"/>
+    <mergeCell ref="K136:M136"/>
+    <mergeCell ref="K137:M137"/>
+    <mergeCell ref="K138:M138"/>
+    <mergeCell ref="K120:M120"/>
+    <mergeCell ref="K121:M121"/>
+    <mergeCell ref="K122:M122"/>
+    <mergeCell ref="K123:M123"/>
+    <mergeCell ref="K130:M130"/>
+    <mergeCell ref="K106:M106"/>
+    <mergeCell ref="K107:M107"/>
+    <mergeCell ref="K114:M114"/>
+    <mergeCell ref="K118:M118"/>
+    <mergeCell ref="K119:M119"/>
+    <mergeCell ref="K98:M98"/>
+    <mergeCell ref="K102:M102"/>
+    <mergeCell ref="K103:M103"/>
+    <mergeCell ref="K104:M104"/>
+    <mergeCell ref="K105:M105"/>
+    <mergeCell ref="K2:M2"/>
+    <mergeCell ref="K18:M18"/>
+    <mergeCell ref="K34:M34"/>
+    <mergeCell ref="K50:M50"/>
+    <mergeCell ref="K66:M66"/>
+    <mergeCell ref="K8:M8"/>
+    <mergeCell ref="K9:M9"/>
+    <mergeCell ref="K42:M42"/>
+    <mergeCell ref="K43:M43"/>
+    <mergeCell ref="K58:M58"/>
+    <mergeCell ref="K26:M26"/>
+    <mergeCell ref="K27:M27"/>
     <mergeCell ref="K91:M91"/>
     <mergeCell ref="K10:M10"/>
     <mergeCell ref="K11:M11"/>
@@ -20784,53 +20819,18 @@
     <mergeCell ref="K82:M82"/>
     <mergeCell ref="K74:M74"/>
     <mergeCell ref="K75:M75"/>
-    <mergeCell ref="K2:M2"/>
-    <mergeCell ref="K18:M18"/>
-    <mergeCell ref="K34:M34"/>
-    <mergeCell ref="K50:M50"/>
-    <mergeCell ref="K66:M66"/>
-    <mergeCell ref="K8:M8"/>
-    <mergeCell ref="K9:M9"/>
-    <mergeCell ref="K42:M42"/>
-    <mergeCell ref="K43:M43"/>
-    <mergeCell ref="K58:M58"/>
-    <mergeCell ref="K26:M26"/>
-    <mergeCell ref="K27:M27"/>
-    <mergeCell ref="K98:M98"/>
-    <mergeCell ref="K102:M102"/>
-    <mergeCell ref="K103:M103"/>
-    <mergeCell ref="K104:M104"/>
-    <mergeCell ref="K105:M105"/>
-    <mergeCell ref="K106:M106"/>
-    <mergeCell ref="K107:M107"/>
-    <mergeCell ref="K114:M114"/>
-    <mergeCell ref="K118:M118"/>
-    <mergeCell ref="K119:M119"/>
-    <mergeCell ref="K120:M120"/>
-    <mergeCell ref="K121:M121"/>
-    <mergeCell ref="K122:M122"/>
-    <mergeCell ref="K123:M123"/>
-    <mergeCell ref="K130:M130"/>
-    <mergeCell ref="K134:M134"/>
-    <mergeCell ref="K135:M135"/>
-    <mergeCell ref="K136:M136"/>
-    <mergeCell ref="K137:M137"/>
-    <mergeCell ref="K138:M138"/>
-    <mergeCell ref="K153:M153"/>
-    <mergeCell ref="K154:M154"/>
-    <mergeCell ref="K155:M155"/>
-    <mergeCell ref="K139:M139"/>
-    <mergeCell ref="K146:M146"/>
-    <mergeCell ref="K150:M150"/>
-    <mergeCell ref="K151:M151"/>
-    <mergeCell ref="K152:M152"/>
-    <mergeCell ref="K173:M173"/>
-    <mergeCell ref="K174:M174"/>
-    <mergeCell ref="K165:M165"/>
-    <mergeCell ref="K169:M169"/>
-    <mergeCell ref="K170:M170"/>
-    <mergeCell ref="K171:M171"/>
-    <mergeCell ref="K172:M172"/>
+    <mergeCell ref="K88:M88"/>
+    <mergeCell ref="K89:M89"/>
+    <mergeCell ref="K90:M90"/>
+    <mergeCell ref="K56:M56"/>
+    <mergeCell ref="K57:M57"/>
+    <mergeCell ref="K59:M59"/>
+    <mergeCell ref="K86:M86"/>
+    <mergeCell ref="K87:M87"/>
+    <mergeCell ref="K71:M71"/>
+    <mergeCell ref="K72:M72"/>
+    <mergeCell ref="K73:M73"/>
+    <mergeCell ref="K70:M70"/>
   </mergeCells>
   <phoneticPr fontId="16" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -20843,8 +20843,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AC33"/>
   <sheetViews>
-    <sheetView topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="P34" sqref="P34"/>
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="R24" sqref="R24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -21926,14 +21926,14 @@
       </c>
       <c r="L19" s="31">
         <f>塔_属性!G19</f>
-        <v>36.200000000000003</v>
+        <v>42.2</v>
       </c>
       <c r="M19" s="29" t="s">
         <v>70</v>
       </c>
       <c r="N19" s="31">
         <f>塔_属性!H19</f>
-        <v>22.8</v>
+        <v>23.8</v>
       </c>
       <c r="O19" s="29" t="s">
         <v>72</v>
@@ -22071,21 +22071,21 @@
       </c>
       <c r="H22" s="29">
         <f>塔_属性!E22</f>
-        <v>180</v>
+        <v>150</v>
       </c>
       <c r="I22" s="29" t="s">
         <v>70</v>
       </c>
       <c r="J22" s="29">
         <f>塔_属性!F22</f>
-        <v>235</v>
+        <v>195</v>
       </c>
       <c r="K22" s="29" t="s">
         <v>70</v>
       </c>
       <c r="L22" s="31">
         <f>塔_属性!G22</f>
-        <v>80.400000000000006</v>
+        <v>70.400000000000006</v>
       </c>
       <c r="M22" s="29" t="s">
         <v>70</v>
@@ -22110,14 +22110,14 @@
       </c>
       <c r="D23" s="74">
         <f>塔_属性!C23</f>
-        <v>107.88</v>
+        <v>147.88</v>
       </c>
       <c r="E23" s="29" t="s">
         <v>70</v>
       </c>
       <c r="F23" s="74">
         <f>塔_属性!D23</f>
-        <v>314.35999999999996</v>
+        <v>324.36</v>
       </c>
       <c r="G23" s="29" t="s">
         <v>70</v>

--- a/_DESIGN_.xlsx
+++ b/_DESIGN_.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9302"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="-15" yWindow="-15" windowWidth="20520" windowHeight="3930" activeTab="6"/>
+    <workbookView xWindow="-15" yWindow="-15" windowWidth="20520" windowHeight="3930" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="游戏常数" sheetId="2" r:id="rId1"/>
@@ -1986,7 +1986,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="90">
+  <cellXfs count="91">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="17" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -2237,6 +2237,9 @@
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -2463,11 +2466,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="95852800"/>
-        <c:axId val="95870976"/>
+        <c:axId val="101427456"/>
+        <c:axId val="101441536"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="95852800"/>
+        <c:axId val="101427456"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2477,12 +2480,12 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="95870976"/>
+        <c:crossAx val="101441536"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="95870976"/>
+        <c:axId val="101441536"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2511,7 +2514,7 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="95852800"/>
+        <c:crossAx val="101427456"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -7122,13 +7125,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:X49"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="H19" sqref="H19"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D26" sqref="D26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="9.375" style="29" customWidth="1"/>
+    <col min="1" max="1" width="10.5" style="29" customWidth="1"/>
     <col min="2" max="2" width="3.25" style="29" customWidth="1"/>
     <col min="3" max="5" width="15.625" style="29" customWidth="1"/>
     <col min="6" max="6" width="15.625" style="31" customWidth="1"/>
@@ -7202,7 +7205,7 @@
       </c>
     </row>
     <row r="2" spans="1:24" x14ac:dyDescent="0.15">
-      <c r="A2" s="75" t="s">
+      <c r="A2" s="90" t="s">
         <v>201</v>
       </c>
       <c r="B2" s="29">
@@ -7273,7 +7276,7 @@
       <c r="X2" s="38"/>
     </row>
     <row r="3" spans="1:24" x14ac:dyDescent="0.15">
-      <c r="A3" s="75" t="s">
+      <c r="A3" s="90" t="s">
         <v>200</v>
       </c>
       <c r="B3" s="29">
@@ -7346,7 +7349,7 @@
       <c r="X3" s="73"/>
     </row>
     <row r="4" spans="1:24" x14ac:dyDescent="0.15">
-      <c r="A4" s="75" t="s">
+      <c r="A4" s="90" t="s">
         <v>202</v>
       </c>
       <c r="B4" s="29">
@@ -7419,7 +7422,7 @@
       <c r="X4" s="73"/>
     </row>
     <row r="5" spans="1:24" x14ac:dyDescent="0.15">
-      <c r="A5" s="75" t="s">
+      <c r="A5" s="90" t="s">
         <v>203</v>
       </c>
       <c r="B5" s="29">
@@ -7490,7 +7493,7 @@
       <c r="X5" s="73"/>
     </row>
     <row r="6" spans="1:24" x14ac:dyDescent="0.15">
-      <c r="A6" s="75" t="s">
+      <c r="A6" s="90" t="s">
         <v>204</v>
       </c>
       <c r="B6" s="29">
@@ -7563,7 +7566,7 @@
       <c r="X6" s="73"/>
     </row>
     <row r="7" spans="1:24" x14ac:dyDescent="0.15">
-      <c r="A7" s="75" t="s">
+      <c r="A7" s="90" t="s">
         <v>205</v>
       </c>
       <c r="B7" s="29">
@@ -7636,7 +7639,7 @@
       <c r="X7" s="73"/>
     </row>
     <row r="8" spans="1:24" x14ac:dyDescent="0.15">
-      <c r="A8" s="75" t="s">
+      <c r="A8" s="90" t="s">
         <v>206</v>
       </c>
       <c r="B8" s="29">
@@ -7646,7 +7649,7 @@
         <v>119</v>
       </c>
       <c r="D8" s="76">
-        <v>421</v>
+        <v>410</v>
       </c>
       <c r="E8" s="70">
         <v>130</v>
@@ -7658,7 +7661,7 @@
         <v>80.8</v>
       </c>
       <c r="H8" s="71">
-        <v>37.54</v>
+        <v>34.54</v>
       </c>
       <c r="I8">
         <f t="shared" si="6"/>
@@ -7666,7 +7669,7 @@
       </c>
       <c r="J8" s="29">
         <f t="shared" si="7"/>
-        <v>2927.0378263185935</v>
+        <v>3098.1470758540822</v>
       </c>
       <c r="K8" s="31">
         <v>1</v>
@@ -7686,11 +7689,11 @@
       </c>
       <c r="P8" s="29">
         <f t="shared" si="1"/>
-        <v>2927.0378263185935</v>
+        <v>3098.1470758540822</v>
       </c>
       <c r="Q8" s="30">
         <f t="shared" si="2"/>
-        <v>2.53781512605042</v>
+        <v>2.4453781512605044</v>
       </c>
       <c r="R8" s="30">
         <f t="shared" si="3"/>
@@ -7698,16 +7701,16 @@
       </c>
       <c r="S8" s="30">
         <f t="shared" si="4"/>
-        <v>1.1523708044752263</v>
+        <v>1.3393167342211929</v>
       </c>
       <c r="T8" s="30">
         <f t="shared" si="5"/>
-        <v>14.287954516260008</v>
+        <v>15.181660228119576</v>
       </c>
       <c r="X8" s="73"/>
     </row>
     <row r="9" spans="1:24" x14ac:dyDescent="0.15">
-      <c r="A9" s="75" t="s">
+      <c r="A9" s="90" t="s">
         <v>207</v>
       </c>
       <c r="B9" s="29">
@@ -7729,7 +7732,7 @@
         <v>51.6</v>
       </c>
       <c r="H9" s="71">
-        <v>17.100000000000001</v>
+        <v>18.100000000000001</v>
       </c>
       <c r="I9">
         <f t="shared" si="6"/>
@@ -7737,7 +7740,7 @@
       </c>
       <c r="J9" s="29">
         <f t="shared" si="7"/>
-        <v>1999.1228070175437</v>
+        <v>1888.674033149171</v>
       </c>
       <c r="K9" s="31">
         <v>3</v>
@@ -7757,7 +7760,7 @@
       </c>
       <c r="P9" s="29">
         <f t="shared" si="1"/>
-        <v>5997.3684210526308</v>
+        <v>5666.022099447513</v>
       </c>
       <c r="Q9" s="30">
         <f t="shared" si="2"/>
@@ -7769,26 +7772,26 @@
       </c>
       <c r="S9" s="30">
         <f t="shared" si="4"/>
-        <v>2.0175438596491224</v>
+        <v>1.8508287292817678</v>
       </c>
       <c r="T9" s="30">
         <f t="shared" si="5"/>
-        <v>17.606554264448999</v>
+        <v>16.57856784099878</v>
       </c>
       <c r="X9" s="73"/>
     </row>
     <row r="10" spans="1:24" x14ac:dyDescent="0.15">
-      <c r="A10" s="75" t="s">
+      <c r="A10" s="90" t="s">
         <v>208</v>
       </c>
       <c r="B10" s="29">
         <v>8</v>
       </c>
       <c r="C10" s="77">
-        <v>59</v>
+        <v>39</v>
       </c>
       <c r="D10" s="77">
-        <v>147</v>
+        <v>127</v>
       </c>
       <c r="E10" s="70">
         <v>149</v>
@@ -7804,11 +7807,11 @@
       </c>
       <c r="I10">
         <f t="shared" si="6"/>
-        <v>192.363238512035</v>
+        <v>127.15536105032822</v>
       </c>
       <c r="J10" s="29">
         <f t="shared" si="7"/>
-        <v>1447.2680412371135</v>
+        <v>1250.3608247422681</v>
       </c>
       <c r="K10" s="31">
         <v>3</v>
@@ -7824,15 +7827,15 @@
       </c>
       <c r="O10" s="29">
         <f t="shared" ref="O10" si="8">K10*C10*E10/G10+M10</f>
-        <v>577.08971553610502</v>
+        <v>381.46608315098467</v>
       </c>
       <c r="P10" s="29">
         <f t="shared" ref="P10" si="9">K10*D10*F10/H10+N10</f>
-        <v>4341.8041237113403</v>
+        <v>3751.0824742268046</v>
       </c>
       <c r="Q10" s="30">
         <f t="shared" si="2"/>
-        <v>1.4915254237288136</v>
+        <v>2.2564102564102564</v>
       </c>
       <c r="R10" s="30">
         <f t="shared" si="3"/>
@@ -7844,12 +7847,12 @@
       </c>
       <c r="T10" s="30">
         <f t="shared" si="5"/>
-        <v>6.5236206898573634</v>
+        <v>8.8333315592362176</v>
       </c>
       <c r="X10" s="73"/>
     </row>
     <row r="11" spans="1:24" x14ac:dyDescent="0.15">
-      <c r="A11" s="75" t="s">
+      <c r="A11" s="90" t="s">
         <v>209</v>
       </c>
       <c r="B11" s="29">
@@ -7920,7 +7923,7 @@
       <c r="X11" s="73"/>
     </row>
     <row r="12" spans="1:24" x14ac:dyDescent="0.15">
-      <c r="A12" s="75" t="s">
+      <c r="A12" s="90" t="s">
         <v>210</v>
       </c>
       <c r="B12" s="29">
@@ -7991,7 +7994,7 @@
       <c r="X12" s="73"/>
     </row>
     <row r="13" spans="1:24" x14ac:dyDescent="0.15">
-      <c r="A13" s="75" t="s">
+      <c r="A13" s="90" t="s">
         <v>211</v>
       </c>
       <c r="B13" s="29">
@@ -8062,7 +8065,7 @@
       <c r="X13" s="73"/>
     </row>
     <row r="14" spans="1:24" x14ac:dyDescent="0.15">
-      <c r="A14" s="75" t="s">
+      <c r="A14" s="90" t="s">
         <v>212</v>
       </c>
       <c r="B14" s="29">
@@ -8133,7 +8136,7 @@
       <c r="X14" s="73"/>
     </row>
     <row r="15" spans="1:24" x14ac:dyDescent="0.15">
-      <c r="A15" s="75" t="s">
+      <c r="A15" s="90" t="s">
         <v>213</v>
       </c>
       <c r="B15" s="29">
@@ -8204,7 +8207,7 @@
       <c r="X15" s="73"/>
     </row>
     <row r="16" spans="1:24" x14ac:dyDescent="0.15">
-      <c r="A16" s="75" t="s">
+      <c r="A16" s="90" t="s">
         <v>214</v>
       </c>
       <c r="B16" s="29">
@@ -8275,7 +8278,7 @@
       <c r="X16" s="73"/>
     </row>
     <row r="17" spans="1:24" x14ac:dyDescent="0.15">
-      <c r="A17" s="75" t="s">
+      <c r="A17" s="90" t="s">
         <v>215</v>
       </c>
       <c r="B17" s="29">
@@ -8346,17 +8349,17 @@
       <c r="X17" s="73"/>
     </row>
     <row r="18" spans="1:24" x14ac:dyDescent="0.15">
-      <c r="A18" s="75" t="s">
+      <c r="A18" s="90" t="s">
         <v>216</v>
       </c>
       <c r="B18" s="29">
         <v>16</v>
       </c>
       <c r="C18" s="77">
-        <v>63.8</v>
+        <v>53.8</v>
       </c>
       <c r="D18" s="77">
-        <v>198.35999999999999</v>
+        <v>118.36</v>
       </c>
       <c r="E18" s="70">
         <v>101</v>
@@ -8372,11 +8375,11 @@
       </c>
       <c r="I18">
         <f t="shared" si="34"/>
-        <v>84.013037809647969</v>
+        <v>70.844850065189036</v>
       </c>
       <c r="J18" s="29">
         <f t="shared" si="35"/>
-        <v>514.38074534161478</v>
+        <v>306.92732919254655</v>
       </c>
       <c r="K18" s="31">
         <v>10</v>
@@ -8392,15 +8395,15 @@
       </c>
       <c r="O18" s="29">
         <f t="shared" ref="O18:O31" si="42">K18*C18*E18/G18+M18</f>
-        <v>840.13037809647972</v>
+        <v>708.44850065189041</v>
       </c>
       <c r="P18" s="29">
         <f t="shared" ref="P18:P31" si="43">K18*D18*F18/H18+N18</f>
-        <v>5143.8074534161487</v>
+        <v>3069.2732919254654</v>
       </c>
       <c r="Q18" s="30">
         <f t="shared" ref="Q18:Q31" si="44">D18/C18-1</f>
-        <v>2.1090909090909089</v>
+        <v>1.2000000000000002</v>
       </c>
       <c r="R18" s="30">
         <f t="shared" ref="R18:R31" si="45">F18/E18-1</f>
@@ -8412,12 +8415,12 @@
       </c>
       <c r="T18" s="30">
         <f t="shared" ref="T18:T31" si="47">P18/O18-1</f>
-        <v>5.1226299959188468</v>
+        <v>3.3323873070536862</v>
       </c>
       <c r="X18" s="73"/>
     </row>
     <row r="19" spans="1:24" x14ac:dyDescent="0.15">
-      <c r="A19" s="75" t="s">
+      <c r="A19" s="90" t="s">
         <v>217</v>
       </c>
       <c r="B19" s="29">
@@ -8430,7 +8433,7 @@
         <v>387.44</v>
       </c>
       <c r="E19" s="70">
-        <v>160</v>
+        <v>155</v>
       </c>
       <c r="F19" s="70">
         <v>233</v>
@@ -8443,7 +8446,7 @@
       </c>
       <c r="I19">
         <f t="shared" ref="I19" si="48">C19*E19/G19</f>
-        <v>435.41232227488143</v>
+        <v>421.80568720379136</v>
       </c>
       <c r="J19" s="29">
         <f t="shared" ref="J19" si="49">D19*F19/H19</f>
@@ -8463,7 +8466,7 @@
       </c>
       <c r="O19" s="29">
         <f t="shared" si="42"/>
-        <v>4354.1232227488144</v>
+        <v>4218.0568720379133</v>
       </c>
       <c r="P19" s="29">
         <f t="shared" si="43"/>
@@ -8475,7 +8478,7 @@
       </c>
       <c r="R19" s="30">
         <f t="shared" si="45"/>
-        <v>0.45625000000000004</v>
+        <v>0.50322580645161286</v>
       </c>
       <c r="S19" s="30">
         <f t="shared" si="46"/>
@@ -8483,12 +8486,12 @@
       </c>
       <c r="T19" s="30">
         <f t="shared" si="47"/>
-        <v>7.7112946693829052</v>
+        <v>7.9923041748468719</v>
       </c>
       <c r="X19" s="73"/>
     </row>
     <row r="20" spans="1:24" x14ac:dyDescent="0.15">
-      <c r="A20" s="75" t="s">
+      <c r="A20" s="90" t="s">
         <v>218</v>
       </c>
       <c r="B20" s="29">
@@ -8559,17 +8562,17 @@
       <c r="X20" s="73"/>
     </row>
     <row r="21" spans="1:24" x14ac:dyDescent="0.15">
-      <c r="A21" s="75" t="s">
+      <c r="A21" s="90" t="s">
         <v>219</v>
       </c>
       <c r="B21" s="29">
         <v>19</v>
       </c>
       <c r="C21" s="77">
-        <v>80.039999999999992</v>
+        <v>69.040000000000006</v>
       </c>
       <c r="D21" s="77">
-        <v>139.19999999999999</v>
+        <v>90.2</v>
       </c>
       <c r="E21" s="70">
         <v>114</v>
@@ -8585,11 +8588,11 @@
       </c>
       <c r="I21">
         <f t="shared" ref="I21:I22" si="52">C21*E21/G21</f>
-        <v>146.93333333333331</v>
+        <v>126.7400966183575</v>
       </c>
       <c r="J21" s="29">
         <f t="shared" ref="J21:J22" si="53">D21*F21/H21</f>
-        <v>674.80203045685278</v>
+        <v>437.26395939086296</v>
       </c>
       <c r="K21" s="31">
         <v>10</v>
@@ -8605,15 +8608,15 @@
       </c>
       <c r="O21" s="29">
         <f t="shared" si="42"/>
-        <v>1469.3333333333333</v>
+        <v>1267.4009661835748</v>
       </c>
       <c r="P21" s="29">
         <f t="shared" si="43"/>
-        <v>6748.0203045685284</v>
+        <v>4372.6395939086296</v>
       </c>
       <c r="Q21" s="30">
         <f t="shared" si="44"/>
-        <v>0.73913043478260865</v>
+        <v>0.30648899188876011</v>
       </c>
       <c r="R21" s="30">
         <f t="shared" si="45"/>
@@ -8625,12 +8628,12 @@
       </c>
       <c r="T21" s="30">
         <f t="shared" si="47"/>
-        <v>3.5925728025647885</v>
+        <v>2.4500838413241994</v>
       </c>
       <c r="X21" s="73"/>
     </row>
     <row r="22" spans="1:24" x14ac:dyDescent="0.15">
-      <c r="A22" s="75" t="s">
+      <c r="A22" s="90" t="s">
         <v>220</v>
       </c>
       <c r="B22" s="29">
@@ -8701,7 +8704,7 @@
       <c r="X22" s="73"/>
     </row>
     <row r="23" spans="1:24" x14ac:dyDescent="0.15">
-      <c r="A23" s="75" t="s">
+      <c r="A23" s="90" t="s">
         <v>221</v>
       </c>
       <c r="B23" s="29">
@@ -8772,7 +8775,7 @@
       <c r="X23" s="73"/>
     </row>
     <row r="24" spans="1:24" x14ac:dyDescent="0.15">
-      <c r="A24" s="75" t="s">
+      <c r="A24" s="90" t="s">
         <v>222</v>
       </c>
       <c r="B24" s="29">
@@ -8782,27 +8785,27 @@
         <v>95.11999999999999</v>
       </c>
       <c r="D24" s="77">
-        <v>258.68</v>
+        <v>218.68</v>
       </c>
       <c r="E24" s="70">
         <v>148</v>
       </c>
       <c r="F24" s="70">
-        <v>238</v>
+        <v>222</v>
       </c>
       <c r="G24" s="71">
-        <v>288.89999999999998</v>
+        <v>302.89999999999998</v>
       </c>
       <c r="H24" s="72">
-        <v>182.1</v>
+        <v>197.1</v>
       </c>
       <c r="I24">
         <f t="shared" si="54"/>
-        <v>48.728833506403596</v>
+        <v>46.476592934962035</v>
       </c>
       <c r="J24" s="29">
         <f t="shared" si="55"/>
-        <v>338.08808347062057</v>
+        <v>246.30624048706241</v>
       </c>
       <c r="K24" s="31">
         <v>10</v>
@@ -8818,32 +8821,32 @@
       </c>
       <c r="O24" s="29">
         <f t="shared" si="42"/>
-        <v>487.28833506403595</v>
+        <v>464.76592934962031</v>
       </c>
       <c r="P24" s="29">
         <f t="shared" si="43"/>
-        <v>3380.8808347062054</v>
+        <v>2463.0624048706245</v>
       </c>
       <c r="Q24" s="30">
         <f t="shared" si="44"/>
-        <v>1.7195121951219514</v>
+        <v>1.2989907485281753</v>
       </c>
       <c r="R24" s="30">
         <f t="shared" si="45"/>
-        <v>0.60810810810810811</v>
+        <v>0.5</v>
       </c>
       <c r="S24" s="30">
         <f t="shared" si="46"/>
-        <v>0.58649093904448102</v>
+        <v>0.53678335870116678</v>
       </c>
       <c r="T24" s="30">
         <f t="shared" si="47"/>
-        <v>5.9381526119682597</v>
+        <v>4.2995760862190586</v>
       </c>
       <c r="X24" s="73"/>
     </row>
     <row r="25" spans="1:24" x14ac:dyDescent="0.15">
-      <c r="A25" s="75" t="s">
+      <c r="A25" s="90" t="s">
         <v>223</v>
       </c>
       <c r="B25" s="29">
@@ -8914,7 +8917,7 @@
       <c r="X25" s="73"/>
     </row>
     <row r="26" spans="1:24" x14ac:dyDescent="0.15">
-      <c r="A26" s="75" t="s">
+      <c r="A26" s="90" t="s">
         <v>224</v>
       </c>
       <c r="B26" s="29">
@@ -8985,7 +8988,7 @@
       <c r="X26" s="73"/>
     </row>
     <row r="27" spans="1:24" x14ac:dyDescent="0.15">
-      <c r="A27" s="75" t="s">
+      <c r="A27" s="90" t="s">
         <v>225</v>
       </c>
       <c r="B27" s="29">
@@ -9056,17 +9059,17 @@
       <c r="X27" s="73"/>
     </row>
     <row r="28" spans="1:24" x14ac:dyDescent="0.15">
-      <c r="A28" s="75" t="s">
+      <c r="A28" s="90" t="s">
         <v>226</v>
       </c>
       <c r="B28" s="29">
         <v>26</v>
       </c>
       <c r="C28" s="77">
-        <v>153.11999999999998</v>
+        <v>143.12</v>
       </c>
       <c r="D28" s="77">
-        <v>381</v>
+        <v>349</v>
       </c>
       <c r="E28" s="70">
         <v>129</v>
@@ -9075,18 +9078,18 @@
         <v>201</v>
       </c>
       <c r="G28" s="71">
-        <v>140.19999999999999</v>
+        <v>142.19999999999999</v>
       </c>
       <c r="H28" s="71">
-        <v>99.87</v>
+        <v>108.87</v>
       </c>
       <c r="I28">
         <f t="shared" si="54"/>
-        <v>140.88787446504992</v>
+        <v>129.83459915611814</v>
       </c>
       <c r="J28" s="29">
         <f t="shared" si="55"/>
-        <v>766.80684890357463</v>
+        <v>644.33728299807103</v>
       </c>
       <c r="K28" s="31">
         <v>10</v>
@@ -9102,15 +9105,15 @@
       </c>
       <c r="O28" s="29">
         <f t="shared" si="42"/>
-        <v>1408.8787446504994</v>
+        <v>1298.3459915611816</v>
       </c>
       <c r="P28" s="29">
         <f t="shared" si="43"/>
-        <v>7668.0684890357461</v>
+        <v>6443.3728299807108</v>
       </c>
       <c r="Q28" s="30">
         <f t="shared" si="44"/>
-        <v>1.4882445141065834</v>
+        <v>1.4385131358300725</v>
       </c>
       <c r="R28" s="30">
         <f t="shared" si="45"/>
@@ -9118,16 +9121,16 @@
       </c>
       <c r="S28" s="30">
         <f t="shared" si="46"/>
-        <v>0.40382497246420335</v>
+        <v>0.30614494351060872</v>
       </c>
       <c r="T28" s="30">
         <f t="shared" si="47"/>
-        <v>4.4426745510579506</v>
+        <v>3.9627548217967306</v>
       </c>
       <c r="X28" s="73"/>
     </row>
     <row r="29" spans="1:24" x14ac:dyDescent="0.15">
-      <c r="A29" s="75" t="s">
+      <c r="A29" s="90" t="s">
         <v>227</v>
       </c>
       <c r="B29" s="29">
@@ -9198,7 +9201,7 @@
       <c r="X29" s="73"/>
     </row>
     <row r="30" spans="1:24" x14ac:dyDescent="0.15">
-      <c r="A30" s="75" t="s">
+      <c r="A30" s="90" t="s">
         <v>228</v>
       </c>
       <c r="B30" s="29">
@@ -9269,7 +9272,7 @@
       <c r="X30" s="73"/>
     </row>
     <row r="31" spans="1:24" x14ac:dyDescent="0.15">
-      <c r="A31" s="75" t="s">
+      <c r="A31" s="90" t="s">
         <v>229</v>
       </c>
       <c r="B31" s="29">
@@ -9340,7 +9343,7 @@
       <c r="X31" s="73"/>
     </row>
     <row r="32" spans="1:24" x14ac:dyDescent="0.15">
-      <c r="A32" s="75" t="s">
+      <c r="A32" s="90" t="s">
         <v>230</v>
       </c>
       <c r="B32" s="29">
@@ -9410,7 +9413,7 @@
       </c>
     </row>
     <row r="33" spans="1:20" x14ac:dyDescent="0.15">
-      <c r="A33" s="75" t="s">
+      <c r="A33" s="90" t="s">
         <v>231</v>
       </c>
       <c r="B33" s="29">
@@ -20843,8 +20846,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AC33"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="R24" sqref="R24"/>
+    <sheetView topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="S27" sqref="S27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -21315,7 +21318,7 @@
       </c>
       <c r="F8" s="74">
         <f>塔_属性!D8</f>
-        <v>421</v>
+        <v>410</v>
       </c>
       <c r="G8" s="29" t="s">
         <v>70</v>
@@ -21343,7 +21346,7 @@
       </c>
       <c r="N8" s="31">
         <f>塔_属性!H8</f>
-        <v>37.54</v>
+        <v>34.54</v>
       </c>
       <c r="O8" s="29" t="s">
         <v>72</v>
@@ -21403,7 +21406,7 @@
       </c>
       <c r="N9" s="31">
         <f>塔_属性!H9</f>
-        <v>17.100000000000001</v>
+        <v>18.100000000000001</v>
       </c>
       <c r="O9" s="29" t="s">
         <v>72</v>
@@ -21421,14 +21424,14 @@
       </c>
       <c r="D10" s="74">
         <f>塔_属性!C10</f>
-        <v>59</v>
+        <v>39</v>
       </c>
       <c r="E10" s="29" t="s">
         <v>70</v>
       </c>
       <c r="F10" s="74">
         <f>塔_属性!D10</f>
-        <v>147</v>
+        <v>127</v>
       </c>
       <c r="G10" s="29" t="s">
         <v>70</v>
@@ -21845,14 +21848,14 @@
       </c>
       <c r="D18" s="74">
         <f>塔_属性!C18</f>
-        <v>63.8</v>
+        <v>53.8</v>
       </c>
       <c r="E18" s="29" t="s">
         <v>70</v>
       </c>
       <c r="F18" s="74">
         <f>塔_属性!D18</f>
-        <v>198.35999999999999</v>
+        <v>118.36</v>
       </c>
       <c r="G18" s="29" t="s">
         <v>70</v>
@@ -21912,7 +21915,7 @@
       </c>
       <c r="H19" s="29">
         <f>塔_属性!E19</f>
-        <v>160</v>
+        <v>155</v>
       </c>
       <c r="I19" s="29" t="s">
         <v>70</v>
@@ -22004,14 +22007,14 @@
       </c>
       <c r="D21" s="74">
         <f>塔_属性!C21</f>
-        <v>80.039999999999992</v>
+        <v>69.040000000000006</v>
       </c>
       <c r="E21" s="29" t="s">
         <v>70</v>
       </c>
       <c r="F21" s="74">
         <f>塔_属性!D21</f>
-        <v>139.19999999999999</v>
+        <v>90.2</v>
       </c>
       <c r="G21" s="29" t="s">
         <v>70</v>
@@ -22170,7 +22173,7 @@
       </c>
       <c r="F24" s="74">
         <f>塔_属性!D24</f>
-        <v>258.68</v>
+        <v>218.68</v>
       </c>
       <c r="G24" s="29" t="s">
         <v>70</v>
@@ -22184,21 +22187,21 @@
       </c>
       <c r="J24" s="29">
         <f>塔_属性!F24</f>
-        <v>238</v>
+        <v>222</v>
       </c>
       <c r="K24" s="29" t="s">
         <v>70</v>
       </c>
       <c r="L24" s="31">
         <f>塔_属性!G24</f>
-        <v>288.89999999999998</v>
+        <v>302.89999999999998</v>
       </c>
       <c r="M24" s="29" t="s">
         <v>70</v>
       </c>
       <c r="N24" s="31">
         <f>塔_属性!H24</f>
-        <v>182.1</v>
+        <v>197.1</v>
       </c>
       <c r="O24" s="29" t="s">
         <v>72</v>
@@ -22375,14 +22378,14 @@
       </c>
       <c r="D28" s="74">
         <f>塔_属性!C28</f>
-        <v>153.11999999999998</v>
+        <v>143.12</v>
       </c>
       <c r="E28" s="29" t="s">
         <v>70</v>
       </c>
       <c r="F28" s="74">
         <f>塔_属性!D28</f>
-        <v>381</v>
+        <v>349</v>
       </c>
       <c r="G28" s="29" t="s">
         <v>70</v>
@@ -22403,14 +22406,14 @@
       </c>
       <c r="L28" s="31">
         <f>塔_属性!G28</f>
-        <v>140.19999999999999</v>
+        <v>142.19999999999999</v>
       </c>
       <c r="M28" s="29" t="s">
         <v>70</v>
       </c>
       <c r="N28" s="31">
         <f>塔_属性!H28</f>
-        <v>99.87</v>
+        <v>108.87</v>
       </c>
       <c r="O28" s="29" t="s">
         <v>72</v>

--- a/_DESIGN_.xlsx
+++ b/_DESIGN_.xlsx
@@ -30,109 +30,109 @@
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="897" uniqueCount="233">
   <si>
     <t>红色的格子表示敌人移动的路径点</t>
-    <phoneticPr fontId="16" type="noConversion"/>
+    <phoneticPr fontId="17" type="noConversion"/>
   </si>
   <si>
     <t>塔攻击范围</t>
-    <phoneticPr fontId="16" type="noConversion"/>
+    <phoneticPr fontId="17" type="noConversion"/>
   </si>
   <si>
     <t>塔攻击间隔</t>
-    <phoneticPr fontId="16" type="noConversion"/>
+    <phoneticPr fontId="17" type="noConversion"/>
   </si>
   <si>
     <t>怪生命值</t>
-    <phoneticPr fontId="16" type="noConversion"/>
+    <phoneticPr fontId="17" type="noConversion"/>
   </si>
   <si>
     <t>怪移动速度</t>
-    <phoneticPr fontId="16" type="noConversion"/>
+    <phoneticPr fontId="17" type="noConversion"/>
   </si>
   <si>
     <t>最小值</t>
-    <phoneticPr fontId="16" type="noConversion"/>
+    <phoneticPr fontId="17" type="noConversion"/>
   </si>
   <si>
     <t>最大值</t>
-    <phoneticPr fontId="16" type="noConversion"/>
+    <phoneticPr fontId="17" type="noConversion"/>
   </si>
   <si>
     <t>初始资源</t>
-    <phoneticPr fontId="16" type="noConversion"/>
+    <phoneticPr fontId="17" type="noConversion"/>
   </si>
   <si>
     <t>R</t>
-    <phoneticPr fontId="16" type="noConversion"/>
+    <phoneticPr fontId="17" type="noConversion"/>
   </si>
   <si>
     <t>G</t>
-    <phoneticPr fontId="16" type="noConversion"/>
+    <phoneticPr fontId="17" type="noConversion"/>
   </si>
   <si>
     <t>B</t>
-    <phoneticPr fontId="16" type="noConversion"/>
+    <phoneticPr fontId="17" type="noConversion"/>
   </si>
   <si>
     <t>怪序列</t>
-    <phoneticPr fontId="16" type="noConversion"/>
+    <phoneticPr fontId="17" type="noConversion"/>
   </si>
   <si>
     <t>1,1,1,1,1,1,1,1,1,1</t>
-    <phoneticPr fontId="16" type="noConversion"/>
+    <phoneticPr fontId="17" type="noConversion"/>
   </si>
   <si>
     <t>游戏常数</t>
-    <phoneticPr fontId="16" type="noConversion"/>
+    <phoneticPr fontId="17" type="noConversion"/>
   </si>
   <si>
     <t>属性</t>
-    <phoneticPr fontId="16" type="noConversion"/>
+    <phoneticPr fontId="17" type="noConversion"/>
   </si>
   <si>
     <t>塔攻击</t>
-    <phoneticPr fontId="16" type="noConversion"/>
+    <phoneticPr fontId="17" type="noConversion"/>
   </si>
   <si>
     <t>种类</t>
-    <phoneticPr fontId="16" type="noConversion"/>
+    <phoneticPr fontId="17" type="noConversion"/>
   </si>
   <si>
     <t>ID</t>
-    <phoneticPr fontId="16" type="noConversion"/>
+    <phoneticPr fontId="17" type="noConversion"/>
   </si>
   <si>
     <t>黄色的格子表示可放置塔的位置</t>
-    <phoneticPr fontId="16" type="noConversion"/>
+    <phoneticPr fontId="17" type="noConversion"/>
   </si>
   <si>
     <t>A</t>
-    <phoneticPr fontId="16" type="noConversion"/>
+    <phoneticPr fontId="17" type="noConversion"/>
   </si>
   <si>
     <t>B</t>
-    <phoneticPr fontId="16" type="noConversion"/>
+    <phoneticPr fontId="17" type="noConversion"/>
   </si>
   <si>
     <t>属性上限</t>
-    <phoneticPr fontId="16" type="noConversion"/>
+    <phoneticPr fontId="17" type="noConversion"/>
   </si>
   <si>
     <t>属性下限</t>
-    <phoneticPr fontId="16" type="noConversion"/>
+    <phoneticPr fontId="17" type="noConversion"/>
   </si>
   <si>
     <t>Lv.1</t>
   </si>
   <si>
     <t>Lv.1</t>
-    <phoneticPr fontId="16" type="noConversion"/>
+    <phoneticPr fontId="17" type="noConversion"/>
   </si>
   <si>
     <t>Lv.2</t>
   </si>
   <si>
     <t>Lv.2</t>
-    <phoneticPr fontId="16" type="noConversion"/>
+    <phoneticPr fontId="17" type="noConversion"/>
   </si>
   <si>
     <t>1,1,1,1,1,1,1,1,1,2</t>
@@ -142,255 +142,255 @@
   </si>
   <si>
     <t>2,2,2,2,2,2,2,2,2,2</t>
-    <phoneticPr fontId="16" type="noConversion"/>
+    <phoneticPr fontId="17" type="noConversion"/>
   </si>
   <si>
     <t>Lv.3</t>
   </si>
   <si>
     <t>Lv.3</t>
-    <phoneticPr fontId="16" type="noConversion"/>
+    <phoneticPr fontId="17" type="noConversion"/>
   </si>
   <si>
     <t>Lv.3</t>
-    <phoneticPr fontId="16" type="noConversion"/>
+    <phoneticPr fontId="17" type="noConversion"/>
   </si>
   <si>
     <t>Lv.4</t>
   </si>
   <si>
     <t>Lv.4</t>
-    <phoneticPr fontId="16" type="noConversion"/>
+    <phoneticPr fontId="17" type="noConversion"/>
   </si>
   <si>
     <t>Lv.4</t>
-    <phoneticPr fontId="16" type="noConversion"/>
+    <phoneticPr fontId="17" type="noConversion"/>
   </si>
   <si>
     <t>Lv.5</t>
   </si>
   <si>
     <t>Lv.5</t>
-    <phoneticPr fontId="16" type="noConversion"/>
+    <phoneticPr fontId="17" type="noConversion"/>
   </si>
   <si>
     <t>Lv.5</t>
-    <phoneticPr fontId="16" type="noConversion"/>
+    <phoneticPr fontId="17" type="noConversion"/>
   </si>
   <si>
     <t>Lv.6</t>
   </si>
   <si>
     <t>Lv.6</t>
-    <phoneticPr fontId="16" type="noConversion"/>
+    <phoneticPr fontId="17" type="noConversion"/>
   </si>
   <si>
     <t>属性中间值</t>
-    <phoneticPr fontId="16" type="noConversion"/>
+    <phoneticPr fontId="17" type="noConversion"/>
   </si>
   <si>
     <t>属性中间值X</t>
-    <phoneticPr fontId="16" type="noConversion"/>
+    <phoneticPr fontId="17" type="noConversion"/>
   </si>
   <si>
     <t>溅射范围</t>
-    <phoneticPr fontId="16" type="noConversion"/>
+    <phoneticPr fontId="17" type="noConversion"/>
   </si>
   <si>
     <t>CANNON</t>
-    <phoneticPr fontId="16" type="noConversion"/>
+    <phoneticPr fontId="17" type="noConversion"/>
   </si>
   <si>
     <t>CANNON_TYPE_SPLASH</t>
-    <phoneticPr fontId="16" type="noConversion"/>
+    <phoneticPr fontId="17" type="noConversion"/>
   </si>
   <si>
     <t>CANNON_TYPE_SLOW_ONE</t>
-    <phoneticPr fontId="16" type="noConversion"/>
+    <phoneticPr fontId="17" type="noConversion"/>
   </si>
   <si>
     <t>CANNON_TYPE_PENETRATE</t>
-    <phoneticPr fontId="16" type="noConversion"/>
+    <phoneticPr fontId="17" type="noConversion"/>
   </si>
   <si>
     <t>CANNON_TYPE_POISONOUS_ONE</t>
-    <phoneticPr fontId="16" type="noConversion"/>
+    <phoneticPr fontId="17" type="noConversion"/>
   </si>
   <si>
     <t>CANNON_TYPE_RAGE</t>
-    <phoneticPr fontId="16" type="noConversion"/>
+    <phoneticPr fontId="17" type="noConversion"/>
   </si>
   <si>
     <t>普通</t>
-    <phoneticPr fontId="16" type="noConversion"/>
+    <phoneticPr fontId="17" type="noConversion"/>
   </si>
   <si>
     <t>中文</t>
-    <phoneticPr fontId="16" type="noConversion"/>
+    <phoneticPr fontId="17" type="noConversion"/>
   </si>
   <si>
     <t>溅射</t>
-    <phoneticPr fontId="16" type="noConversion"/>
+    <phoneticPr fontId="17" type="noConversion"/>
   </si>
   <si>
     <t>单减速</t>
-    <phoneticPr fontId="16" type="noConversion"/>
+    <phoneticPr fontId="17" type="noConversion"/>
   </si>
   <si>
     <t>穿透</t>
-    <phoneticPr fontId="16" type="noConversion"/>
+    <phoneticPr fontId="17" type="noConversion"/>
   </si>
   <si>
     <t>单毒</t>
-    <phoneticPr fontId="16" type="noConversion"/>
+    <phoneticPr fontId="17" type="noConversion"/>
   </si>
   <si>
     <t>狂暴</t>
-    <phoneticPr fontId="16" type="noConversion"/>
+    <phoneticPr fontId="17" type="noConversion"/>
   </si>
   <si>
     <t>触发次数</t>
-    <phoneticPr fontId="16" type="noConversion"/>
+    <phoneticPr fontId="17" type="noConversion"/>
   </si>
   <si>
     <t>0,1,2,3</t>
-    <phoneticPr fontId="16" type="noConversion"/>
+    <phoneticPr fontId="17" type="noConversion"/>
   </si>
   <si>
     <t>0,1</t>
-    <phoneticPr fontId="16" type="noConversion"/>
+    <phoneticPr fontId="17" type="noConversion"/>
   </si>
   <si>
     <t>0,1,2</t>
-    <phoneticPr fontId="16" type="noConversion"/>
+    <phoneticPr fontId="17" type="noConversion"/>
   </si>
   <si>
     <t>0,1,2,3</t>
-    <phoneticPr fontId="16" type="noConversion"/>
+    <phoneticPr fontId="17" type="noConversion"/>
   </si>
   <si>
     <t>CANNON_TYPE_MAGIC</t>
-    <phoneticPr fontId="16" type="noConversion"/>
+    <phoneticPr fontId="17" type="noConversion"/>
   </si>
   <si>
     <t>魔法</t>
-    <phoneticPr fontId="16" type="noConversion"/>
+    <phoneticPr fontId="17" type="noConversion"/>
   </si>
   <si>
     <t>狂暴因子</t>
-    <phoneticPr fontId="16" type="noConversion"/>
+    <phoneticPr fontId="17" type="noConversion"/>
   </si>
   <si>
     <t>减速因子</t>
-    <phoneticPr fontId="16" type="noConversion"/>
+    <phoneticPr fontId="17" type="noConversion"/>
   </si>
   <si>
     <t>减速时间</t>
-    <phoneticPr fontId="16" type="noConversion"/>
+    <phoneticPr fontId="17" type="noConversion"/>
   </si>
   <si>
     <t>毒伤害</t>
-    <phoneticPr fontId="16" type="noConversion"/>
+    <phoneticPr fontId="17" type="noConversion"/>
   </si>
   <si>
     <t>毒时间</t>
-    <phoneticPr fontId="16" type="noConversion"/>
+    <phoneticPr fontId="17" type="noConversion"/>
   </si>
   <si>
     <t>]]</t>
-    <phoneticPr fontId="18" type="noConversion"/>
+    <phoneticPr fontId="19" type="noConversion"/>
   </si>
   <si>
     <t>,</t>
-    <phoneticPr fontId="18" type="noConversion"/>
+    <phoneticPr fontId="19" type="noConversion"/>
   </si>
   <si>
     <t>[</t>
-    <phoneticPr fontId="18" type="noConversion"/>
+    <phoneticPr fontId="19" type="noConversion"/>
   </si>
   <si>
     <t>],</t>
-    <phoneticPr fontId="18" type="noConversion"/>
+    <phoneticPr fontId="19" type="noConversion"/>
   </si>
   <si>
     <t>sp</t>
-    <phoneticPr fontId="18" type="noConversion"/>
+    <phoneticPr fontId="19" type="noConversion"/>
   </si>
   <si>
     <t>DPS.rate</t>
-    <phoneticPr fontId="18" type="noConversion"/>
+    <phoneticPr fontId="19" type="noConversion"/>
   </si>
   <si>
     <t>inter.rate</t>
-    <phoneticPr fontId="18" type="noConversion"/>
+    <phoneticPr fontId="19" type="noConversion"/>
   </si>
   <si>
     <t>range.rate</t>
-    <phoneticPr fontId="18" type="noConversion"/>
+    <phoneticPr fontId="19" type="noConversion"/>
   </si>
   <si>
     <t>att.rate</t>
-    <phoneticPr fontId="18" type="noConversion"/>
+    <phoneticPr fontId="19" type="noConversion"/>
   </si>
   <si>
     <t>DPS</t>
-    <phoneticPr fontId="18" type="noConversion"/>
+    <phoneticPr fontId="19" type="noConversion"/>
   </si>
   <si>
     <t>DPS.extra</t>
-    <phoneticPr fontId="18" type="noConversion"/>
+    <phoneticPr fontId="19" type="noConversion"/>
   </si>
   <si>
     <t>DPS.factor</t>
-    <phoneticPr fontId="18" type="noConversion"/>
+    <phoneticPr fontId="19" type="noConversion"/>
   </si>
   <si>
     <t>"intervalUpperLimits"</t>
-    <phoneticPr fontId="18" type="noConversion"/>
+    <phoneticPr fontId="19" type="noConversion"/>
   </si>
   <si>
     <t>"intervalLowerLimits"</t>
-    <phoneticPr fontId="18" type="noConversion"/>
+    <phoneticPr fontId="19" type="noConversion"/>
   </si>
   <si>
     <t>"rangeUpperLimit"</t>
-    <phoneticPr fontId="18" type="noConversion"/>
+    <phoneticPr fontId="19" type="noConversion"/>
   </si>
   <si>
     <t>"rangeLowerLimit"</t>
-    <phoneticPr fontId="18" type="noConversion"/>
+    <phoneticPr fontId="19" type="noConversion"/>
   </si>
   <si>
     <t>"_attackUpperLimit"</t>
-    <phoneticPr fontId="18" type="noConversion"/>
+    <phoneticPr fontId="19" type="noConversion"/>
   </si>
   <si>
     <t>"_attackLowerLimit"</t>
-    <phoneticPr fontId="18" type="noConversion"/>
+    <phoneticPr fontId="19" type="noConversion"/>
   </si>
   <si>
     <t>"ID"</t>
-    <phoneticPr fontId="18" type="noConversion"/>
+    <phoneticPr fontId="19" type="noConversion"/>
   </si>
   <si>
     <t>[[</t>
-    <phoneticPr fontId="18" type="noConversion"/>
+    <phoneticPr fontId="19" type="noConversion"/>
   </si>
   <si>
     <t>false</t>
-    <phoneticPr fontId="18" type="noConversion"/>
+    <phoneticPr fontId="19" type="noConversion"/>
   </si>
   <si>
     <t>,</t>
-    <phoneticPr fontId="18" type="noConversion"/>
+    <phoneticPr fontId="19" type="noConversion"/>
   </si>
   <si>
     <t>[</t>
-    <phoneticPr fontId="18" type="noConversion"/>
+    <phoneticPr fontId="19" type="noConversion"/>
   </si>
   <si>
     <t>],</t>
-    <phoneticPr fontId="18" type="noConversion"/>
+    <phoneticPr fontId="19" type="noConversion"/>
   </si>
   <si>
     <t>10</t>
@@ -421,143 +421,143 @@
   </si>
   <si>
     <t>1</t>
-    <phoneticPr fontId="18" type="noConversion"/>
+    <phoneticPr fontId="19" type="noConversion"/>
   </si>
   <si>
     <t>"antiMagic"</t>
-    <phoneticPr fontId="18" type="noConversion"/>
+    <phoneticPr fontId="19" type="noConversion"/>
   </si>
   <si>
     <t>"armor"</t>
-    <phoneticPr fontId="18" type="noConversion"/>
+    <phoneticPr fontId="19" type="noConversion"/>
   </si>
   <si>
     <t>"moveSpeed"</t>
-    <phoneticPr fontId="18" type="noConversion"/>
+    <phoneticPr fontId="19" type="noConversion"/>
   </si>
   <si>
     <t>"hitPoints"</t>
-    <phoneticPr fontId="18" type="noConversion"/>
+    <phoneticPr fontId="19" type="noConversion"/>
   </si>
   <si>
     <t>"isBoss"</t>
-    <phoneticPr fontId="18" type="noConversion"/>
+    <phoneticPr fontId="19" type="noConversion"/>
   </si>
   <si>
     <t>"ID"</t>
-    <phoneticPr fontId="18" type="noConversion"/>
+    <phoneticPr fontId="19" type="noConversion"/>
   </si>
   <si>
     <t>[[</t>
-    <phoneticPr fontId="18" type="noConversion"/>
+    <phoneticPr fontId="19" type="noConversion"/>
   </si>
   <si>
     <t>}</t>
-    <phoneticPr fontId="18" type="noConversion"/>
+    <phoneticPr fontId="19" type="noConversion"/>
   </si>
   <si>
     <t>"_slowFactorUpperLimit":</t>
-    <phoneticPr fontId="18" type="noConversion"/>
+    <phoneticPr fontId="19" type="noConversion"/>
   </si>
   <si>
     <t>{"_slowFactorLowerLimit":</t>
-    <phoneticPr fontId="18" type="noConversion"/>
+    <phoneticPr fontId="19" type="noConversion"/>
   </si>
   <si>
     <t>Lv.7</t>
   </si>
   <si>
     <t>Lv.7</t>
-    <phoneticPr fontId="16" type="noConversion"/>
+    <phoneticPr fontId="17" type="noConversion"/>
   </si>
   <si>
     <t>Lv.7</t>
-    <phoneticPr fontId="16" type="noConversion"/>
+    <phoneticPr fontId="17" type="noConversion"/>
   </si>
   <si>
     <t>Lv.8</t>
   </si>
   <si>
     <t>Lv.8</t>
-    <phoneticPr fontId="16" type="noConversion"/>
+    <phoneticPr fontId="17" type="noConversion"/>
   </si>
   <si>
     <t>Lv.8</t>
-    <phoneticPr fontId="16" type="noConversion"/>
+    <phoneticPr fontId="17" type="noConversion"/>
   </si>
   <si>
     <t>Lv.9</t>
   </si>
   <si>
     <t>Lv.9</t>
-    <phoneticPr fontId="16" type="noConversion"/>
+    <phoneticPr fontId="17" type="noConversion"/>
   </si>
   <si>
     <t>Lv.9</t>
-    <phoneticPr fontId="16" type="noConversion"/>
+    <phoneticPr fontId="17" type="noConversion"/>
   </si>
   <si>
     <t>Lv.10</t>
   </si>
   <si>
     <t>Lv.10</t>
-    <phoneticPr fontId="16" type="noConversion"/>
+    <phoneticPr fontId="17" type="noConversion"/>
   </si>
   <si>
     <t>Lv.10</t>
-    <phoneticPr fontId="16" type="noConversion"/>
+    <phoneticPr fontId="17" type="noConversion"/>
   </si>
   <si>
     <t>0,1,2,3,4</t>
-    <phoneticPr fontId="16" type="noConversion"/>
+    <phoneticPr fontId="17" type="noConversion"/>
   </si>
   <si>
     <t>0,1,2,4</t>
-    <phoneticPr fontId="16" type="noConversion"/>
+    <phoneticPr fontId="17" type="noConversion"/>
   </si>
   <si>
     <t>0,2,4,5</t>
-    <phoneticPr fontId="16" type="noConversion"/>
+    <phoneticPr fontId="17" type="noConversion"/>
   </si>
   <si>
     <t>1,2,3,4,6</t>
-    <phoneticPr fontId="16" type="noConversion"/>
+    <phoneticPr fontId="17" type="noConversion"/>
   </si>
   <si>
     <t>0,2,3,4,6</t>
-    <phoneticPr fontId="16" type="noConversion"/>
+    <phoneticPr fontId="17" type="noConversion"/>
   </si>
   <si>
     <t>增长率</t>
-    <phoneticPr fontId="16" type="noConversion"/>
+    <phoneticPr fontId="17" type="noConversion"/>
   </si>
   <si>
     <t>塔攻击力</t>
-    <phoneticPr fontId="16" type="noConversion"/>
+    <phoneticPr fontId="17" type="noConversion"/>
   </si>
   <si>
     <t>塔攻击范围</t>
-    <phoneticPr fontId="16" type="noConversion"/>
+    <phoneticPr fontId="17" type="noConversion"/>
   </si>
   <si>
     <t>塔攻击间隔</t>
-    <phoneticPr fontId="16" type="noConversion"/>
+    <phoneticPr fontId="17" type="noConversion"/>
   </si>
   <si>
     <t>DPS_basic</t>
-    <phoneticPr fontId="16" type="noConversion"/>
+    <phoneticPr fontId="17" type="noConversion"/>
   </si>
   <si>
     <t>valid items</t>
-    <phoneticPr fontId="16" type="noConversion"/>
+    <phoneticPr fontId="17" type="noConversion"/>
   </si>
   <si>
     <t>ID</t>
-    <phoneticPr fontId="18" type="noConversion"/>
+    <phoneticPr fontId="19" type="noConversion"/>
   </si>
   <si>
     <t>"_attackLowerLimit"</t>
-    <phoneticPr fontId="18" type="noConversion"/>
+    <phoneticPr fontId="19" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -585,7 +585,7 @@
       </rPr>
       <t>Limit":</t>
     </r>
-    <phoneticPr fontId="18" type="noConversion"/>
+    <phoneticPr fontId="19" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -613,7 +613,7 @@
       </rPr>
       <t>UpperLimit":</t>
     </r>
-    <phoneticPr fontId="18" type="noConversion"/>
+    <phoneticPr fontId="19" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -630,7 +630,7 @@
       </rPr>
       <t>Limit":</t>
     </r>
-    <phoneticPr fontId="18" type="noConversion"/>
+    <phoneticPr fontId="19" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -647,7 +647,7 @@
       </rPr>
       <t>UpperLimit":</t>
     </r>
-    <phoneticPr fontId="18" type="noConversion"/>
+    <phoneticPr fontId="19" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -664,7 +664,7 @@
       </rPr>
       <t>Limit":</t>
     </r>
-    <phoneticPr fontId="18" type="noConversion"/>
+    <phoneticPr fontId="19" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -681,7 +681,7 @@
       </rPr>
       <t>UpperLimit":</t>
     </r>
-    <phoneticPr fontId="18" type="noConversion"/>
+    <phoneticPr fontId="19" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -698,7 +698,7 @@
       </rPr>
       <t>Limit":</t>
     </r>
-    <phoneticPr fontId="18" type="noConversion"/>
+    <phoneticPr fontId="19" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -715,7 +715,7 @@
       </rPr>
       <t>UpperLimit":</t>
     </r>
-    <phoneticPr fontId="18" type="noConversion"/>
+    <phoneticPr fontId="19" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -732,7 +732,7 @@
       </rPr>
       <t>plash</t>
     </r>
-    <phoneticPr fontId="16" type="noConversion"/>
+    <phoneticPr fontId="17" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -749,7 +749,7 @@
       </rPr>
       <t>l</t>
     </r>
-    <phoneticPr fontId="16" type="noConversion"/>
+    <phoneticPr fontId="17" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -766,7 +766,7 @@
       </rPr>
       <t>ime</t>
     </r>
-    <phoneticPr fontId="16" type="noConversion"/>
+    <phoneticPr fontId="17" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -783,99 +783,99 @@
       </rPr>
       <t>actor</t>
     </r>
-    <phoneticPr fontId="16" type="noConversion"/>
+    <phoneticPr fontId="17" type="noConversion"/>
   </si>
   <si>
     <t>ra</t>
-    <phoneticPr fontId="16" type="noConversion"/>
+    <phoneticPr fontId="17" type="noConversion"/>
   </si>
   <si>
     <t>po</t>
-    <phoneticPr fontId="16" type="noConversion"/>
+    <phoneticPr fontId="17" type="noConversion"/>
   </si>
   <si>
     <t>po</t>
-    <phoneticPr fontId="16" type="noConversion"/>
+    <phoneticPr fontId="17" type="noConversion"/>
   </si>
   <si>
     <t>s</t>
-    <phoneticPr fontId="16" type="noConversion"/>
+    <phoneticPr fontId="17" type="noConversion"/>
   </si>
   <si>
     <t>增长率</t>
-    <phoneticPr fontId="16" type="noConversion"/>
+    <phoneticPr fontId="17" type="noConversion"/>
   </si>
   <si>
     <t>总增长率</t>
-    <phoneticPr fontId="16" type="noConversion"/>
+    <phoneticPr fontId="17" type="noConversion"/>
   </si>
   <si>
     <t>减速</t>
-    <phoneticPr fontId="16" type="noConversion"/>
+    <phoneticPr fontId="17" type="noConversion"/>
   </si>
   <si>
     <t>怪护甲</t>
-    <phoneticPr fontId="16" type="noConversion"/>
+    <phoneticPr fontId="17" type="noConversion"/>
   </si>
   <si>
     <t>普通</t>
-    <phoneticPr fontId="16" type="noConversion"/>
+    <phoneticPr fontId="17" type="noConversion"/>
   </si>
   <si>
     <t>10</t>
-    <phoneticPr fontId="18" type="noConversion"/>
+    <phoneticPr fontId="19" type="noConversion"/>
   </si>
   <si>
     <t>200</t>
-    <phoneticPr fontId="16" type="noConversion"/>
+    <phoneticPr fontId="17" type="noConversion"/>
   </si>
   <si>
     <t>8000</t>
-    <phoneticPr fontId="16" type="noConversion"/>
+    <phoneticPr fontId="17" type="noConversion"/>
   </si>
   <si>
     <t>6000</t>
-    <phoneticPr fontId="16" type="noConversion"/>
+    <phoneticPr fontId="17" type="noConversion"/>
   </si>
   <si>
     <t>10000</t>
-    <phoneticPr fontId="16" type="noConversion"/>
+    <phoneticPr fontId="17" type="noConversion"/>
   </si>
   <si>
     <t>特种</t>
-    <phoneticPr fontId="16" type="noConversion"/>
+    <phoneticPr fontId="17" type="noConversion"/>
   </si>
   <si>
     <t>额外资源奖励</t>
-    <phoneticPr fontId="16" type="noConversion"/>
+    <phoneticPr fontId="17" type="noConversion"/>
   </si>
   <si>
     <t>给沿途敌人加血</t>
-    <phoneticPr fontId="16" type="noConversion"/>
+    <phoneticPr fontId="17" type="noConversion"/>
   </si>
   <si>
     <t>死后复活成小怪</t>
-    <phoneticPr fontId="16" type="noConversion"/>
+    <phoneticPr fontId="17" type="noConversion"/>
   </si>
   <si>
     <t>Lv</t>
-    <phoneticPr fontId="16" type="noConversion"/>
+    <phoneticPr fontId="17" type="noConversion"/>
   </si>
   <si>
     <t>波数</t>
-    <phoneticPr fontId="16" type="noConversion"/>
+    <phoneticPr fontId="17" type="noConversion"/>
   </si>
   <si>
     <t>塔数</t>
-    <phoneticPr fontId="16" type="noConversion"/>
+    <phoneticPr fontId="17" type="noConversion"/>
   </si>
   <si>
     <t>玩法</t>
-    <phoneticPr fontId="16" type="noConversion"/>
+    <phoneticPr fontId="17" type="noConversion"/>
   </si>
   <si>
     <t>解锁</t>
-    <phoneticPr fontId="16" type="noConversion"/>
+    <phoneticPr fontId="17" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -892,197 +892,66 @@
       </rPr>
       <t>]</t>
     </r>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>35</t>
-    <phoneticPr fontId="18" type="noConversion"/>
+    <phoneticPr fontId="19" type="noConversion"/>
   </si>
   <si>
     <t>长度</t>
-    <phoneticPr fontId="16" type="noConversion"/>
+    <phoneticPr fontId="17" type="noConversion"/>
   </si>
   <si>
     <t>资源</t>
-    <phoneticPr fontId="16" type="noConversion"/>
+    <phoneticPr fontId="17" type="noConversion"/>
   </si>
   <si>
     <t>怪最高等级</t>
-    <phoneticPr fontId="16" type="noConversion"/>
+    <phoneticPr fontId="17" type="noConversion"/>
   </si>
   <si>
     <t>congratulations</t>
-    <phoneticPr fontId="16" type="noConversion"/>
+    <phoneticPr fontId="17" type="noConversion"/>
   </si>
   <si>
     <t>CONGRATULATIONS</t>
-    <phoneticPr fontId="16" type="noConversion"/>
+    <phoneticPr fontId="17" type="noConversion"/>
   </si>
   <si>
     <t>400</t>
-    <phoneticPr fontId="16" type="noConversion"/>
+    <phoneticPr fontId="17" type="noConversion"/>
   </si>
   <si>
     <t>800</t>
-    <phoneticPr fontId="16" type="noConversion"/>
+    <phoneticPr fontId="17" type="noConversion"/>
   </si>
   <si>
     <t>1500</t>
-    <phoneticPr fontId="16" type="noConversion"/>
+    <phoneticPr fontId="17" type="noConversion"/>
   </si>
   <si>
     <t>2500</t>
-    <phoneticPr fontId="16" type="noConversion"/>
+    <phoneticPr fontId="17" type="noConversion"/>
   </si>
   <si>
     <t>4000</t>
-    <phoneticPr fontId="16" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>4</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="2"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>0</t>
-    </r>
-    <phoneticPr fontId="16" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>5</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="2"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>0</t>
-    </r>
-    <phoneticPr fontId="16" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>6</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="2"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>0</t>
-    </r>
-    <phoneticPr fontId="16" type="noConversion"/>
-  </si>
-  <si>
-    <t>75</t>
-    <phoneticPr fontId="16" type="noConversion"/>
-  </si>
-  <si>
-    <t>90</t>
-    <phoneticPr fontId="16" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>1</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="2"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>10</t>
-    </r>
-    <phoneticPr fontId="16" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>1</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="2"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>30</t>
-    </r>
-    <phoneticPr fontId="16" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>1</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="2"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>50</t>
-    </r>
-    <phoneticPr fontId="16" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>1</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="2"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>75</t>
-    </r>
-    <phoneticPr fontId="16" type="noConversion"/>
+    <phoneticPr fontId="17" type="noConversion"/>
   </si>
   <si>
     <t>ACGILNORSTU!</t>
-    <phoneticPr fontId="16" type="noConversion"/>
+    <phoneticPr fontId="17" type="noConversion"/>
   </si>
   <si>
     <t>护甲&gt;=30时 速度&gt;=4.5时</t>
-    <phoneticPr fontId="16" type="noConversion"/>
+    <phoneticPr fontId="17" type="noConversion"/>
   </si>
   <si>
     <t>2.6</t>
   </si>
   <si>
     <t>2.6</t>
-    <phoneticPr fontId="16" type="noConversion"/>
+    <phoneticPr fontId="17" type="noConversion"/>
   </si>
   <si>
     <t>2.6</t>
-    <phoneticPr fontId="16" type="noConversion"/>
+    <phoneticPr fontId="17" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -1099,7 +968,7 @@
       </rPr>
       <t>IMIT</t>
     </r>
-    <phoneticPr fontId="16" type="noConversion"/>
+    <phoneticPr fontId="17" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -1116,7 +985,7 @@
       </rPr>
       <t>plash</t>
     </r>
-    <phoneticPr fontId="18" type="noConversion"/>
+    <phoneticPr fontId="19" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -1133,11 +1002,11 @@
       </rPr>
       <t>annon</t>
     </r>
-    <phoneticPr fontId="18" type="noConversion"/>
+    <phoneticPr fontId="19" type="noConversion"/>
   </si>
   <si>
     <t>slowOne</t>
-    <phoneticPr fontId="18" type="noConversion"/>
+    <phoneticPr fontId="19" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -1154,7 +1023,7 @@
       </rPr>
       <t>netrate</t>
     </r>
-    <phoneticPr fontId="18" type="noConversion"/>
+    <phoneticPr fontId="19" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -1171,7 +1040,7 @@
       </rPr>
       <t>isonous</t>
     </r>
-    <phoneticPr fontId="18" type="noConversion"/>
+    <phoneticPr fontId="19" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -1188,7 +1057,7 @@
       </rPr>
       <t>ge</t>
     </r>
-    <phoneticPr fontId="18" type="noConversion"/>
+    <phoneticPr fontId="19" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -1205,7 +1074,7 @@
       </rPr>
       <t>gic</t>
     </r>
-    <phoneticPr fontId="18" type="noConversion"/>
+    <phoneticPr fontId="19" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -1222,7 +1091,7 @@
       </rPr>
       <t>ple</t>
     </r>
-    <phoneticPr fontId="16" type="noConversion"/>
+    <phoneticPr fontId="17" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -1239,7 +1108,7 @@
       </rPr>
       <t>agicSlowLine</t>
     </r>
-    <phoneticPr fontId="16" type="noConversion"/>
+    <phoneticPr fontId="17" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -1256,7 +1125,7 @@
       </rPr>
       <t>roducer</t>
     </r>
-    <phoneticPr fontId="16" type="noConversion"/>
+    <phoneticPr fontId="17" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -1273,11 +1142,11 @@
       </rPr>
       <t>onsumer</t>
     </r>
-    <phoneticPr fontId="16" type="noConversion"/>
+    <phoneticPr fontId="17" type="noConversion"/>
   </si>
   <si>
     <t>chains</t>
-    <phoneticPr fontId="16" type="noConversion"/>
+    <phoneticPr fontId="17" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -1294,7 +1163,7 @@
       </rPr>
       <t>ounce</t>
     </r>
-    <phoneticPr fontId="16" type="noConversion"/>
+    <phoneticPr fontId="17" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -1311,7 +1180,7 @@
       </rPr>
       <t>reaker</t>
     </r>
-    <phoneticPr fontId="16" type="noConversion"/>
+    <phoneticPr fontId="17" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -1328,7 +1197,7 @@
       </rPr>
       <t>niper</t>
     </r>
-    <phoneticPr fontId="16" type="noConversion"/>
+    <phoneticPr fontId="17" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -1345,7 +1214,7 @@
       </rPr>
       <t>adow</t>
     </r>
-    <phoneticPr fontId="16" type="noConversion"/>
+    <phoneticPr fontId="17" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -1362,7 +1231,7 @@
       </rPr>
       <t>oisonousMulti</t>
     </r>
-    <phoneticPr fontId="16" type="noConversion"/>
+    <phoneticPr fontId="17" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -1379,7 +1248,7 @@
       </rPr>
       <t>ltiTarget</t>
     </r>
-    <phoneticPr fontId="16" type="noConversion"/>
+    <phoneticPr fontId="17" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -1396,7 +1265,7 @@
       </rPr>
       <t>idge</t>
     </r>
-    <phoneticPr fontId="16" type="noConversion"/>
+    <phoneticPr fontId="17" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -1413,11 +1282,11 @@
       </rPr>
       <t>rmirRemover</t>
     </r>
-    <phoneticPr fontId="16" type="noConversion"/>
+    <phoneticPr fontId="17" type="noConversion"/>
   </si>
   <si>
     <t>tracing</t>
-    <phoneticPr fontId="16" type="noConversion"/>
+    <phoneticPr fontId="17" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -1434,7 +1303,7 @@
       </rPr>
       <t>aping</t>
     </r>
-    <phoneticPr fontId="16" type="noConversion"/>
+    <phoneticPr fontId="17" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -1451,7 +1320,7 @@
       </rPr>
       <t>ower</t>
     </r>
-    <phoneticPr fontId="16" type="noConversion"/>
+    <phoneticPr fontId="17" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -1468,7 +1337,7 @@
       </rPr>
       <t>ocus</t>
     </r>
-    <phoneticPr fontId="16" type="noConversion"/>
+    <phoneticPr fontId="17" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -1485,7 +1354,7 @@
       </rPr>
       <t>uperPosisonous</t>
     </r>
-    <phoneticPr fontId="16" type="noConversion"/>
+    <phoneticPr fontId="17" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -1502,7 +1371,7 @@
       </rPr>
       <t>licate</t>
     </r>
-    <phoneticPr fontId="16" type="noConversion"/>
+    <phoneticPr fontId="17" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -1519,7 +1388,7 @@
       </rPr>
       <t>argeWave</t>
     </r>
-    <phoneticPr fontId="16" type="noConversion"/>
+    <phoneticPr fontId="17" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -1536,7 +1405,7 @@
       </rPr>
       <t>plashOnBoss</t>
     </r>
-    <phoneticPr fontId="16" type="noConversion"/>
+    <phoneticPr fontId="17" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -1553,7 +1422,7 @@
       </rPr>
       <t>xpodeOnDeath</t>
     </r>
-    <phoneticPr fontId="16" type="noConversion"/>
+    <phoneticPr fontId="17" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -1570,7 +1439,7 @@
       </rPr>
       <t>iral</t>
     </r>
-    <phoneticPr fontId="18" type="noConversion"/>
+    <phoneticPr fontId="19" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -1587,7 +1456,7 @@
       </rPr>
       <t>roove</t>
     </r>
-    <phoneticPr fontId="16" type="noConversion"/>
+    <phoneticPr fontId="17" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -1604,7 +1473,7 @@
       </rPr>
       <t>ook</t>
     </r>
-    <phoneticPr fontId="16" type="noConversion"/>
+    <phoneticPr fontId="17" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -1621,7 +1490,42 @@
       </rPr>
       <t>lock</t>
     </r>
-    <phoneticPr fontId="16" type="noConversion"/>
+    <phoneticPr fontId="17" type="noConversion"/>
+  </si>
+  <si>
+    <t>45</t>
+  </si>
+  <si>
+    <t>40</t>
+  </si>
+  <si>
+    <t>25</t>
+  </si>
+  <si>
+    <t>30</t>
+  </si>
+  <si>
+    <t>35</t>
+  </si>
+  <si>
+    <t>60</t>
+    <phoneticPr fontId="17" type="noConversion"/>
+  </si>
+  <si>
+    <t>55</t>
+    <phoneticPr fontId="17" type="noConversion"/>
+  </si>
+  <si>
+    <t>50</t>
+    <phoneticPr fontId="17" type="noConversion"/>
+  </si>
+  <si>
+    <t>60</t>
+    <phoneticPr fontId="17" type="noConversion"/>
+  </si>
+  <si>
+    <t>20</t>
+    <phoneticPr fontId="19" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -1633,12 +1537,20 @@
     <numFmt numFmtId="177" formatCode="0.0_);[Red]\(0.0\)"/>
     <numFmt numFmtId="178" formatCode="0_ "/>
   </numFmts>
-  <fonts count="19" x14ac:knownFonts="1">
+  <fonts count="20" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
       <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <family val="2"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -1982,14 +1894,14 @@
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="91">
+  <cellXfs count="92">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="17" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="18" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -2058,46 +1970,46 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="1">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="15" fillId="0" borderId="0" xfId="1" applyNumberFormat="1">
+    <xf numFmtId="176" fontId="16" fillId="0" borderId="0" xfId="1" applyNumberFormat="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="15" fillId="0" borderId="0" xfId="1" applyNumberFormat="1">
+    <xf numFmtId="177" fontId="16" fillId="0" borderId="0" xfId="1" applyNumberFormat="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="15" fillId="0" borderId="0" xfId="1" applyNumberFormat="1">
+    <xf numFmtId="49" fontId="16" fillId="0" borderId="0" xfId="1" applyNumberFormat="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="178" fontId="15" fillId="0" borderId="0" xfId="1" applyNumberFormat="1">
+    <xf numFmtId="178" fontId="16" fillId="0" borderId="0" xfId="1" applyNumberFormat="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="14" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1">
+    <xf numFmtId="49" fontId="15" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="12" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1">
+    <xf numFmtId="49" fontId="13" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="11" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1">
+    <xf numFmtId="177" fontId="12" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
@@ -2106,19 +2018,19 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="1" applyFont="1">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="1" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="10" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1">
+    <xf numFmtId="49" fontId="11" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="1" applyNumberFormat="1">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="1" applyNumberFormat="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
@@ -2127,79 +2039,85 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="9" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1">
+    <xf numFmtId="49" fontId="10" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="15" fillId="0" borderId="10" xfId="1" applyNumberFormat="1" applyBorder="1">
+    <xf numFmtId="49" fontId="16" fillId="0" borderId="10" xfId="1" applyNumberFormat="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="9" fillId="0" borderId="11" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1">
+    <xf numFmtId="49" fontId="10" fillId="0" borderId="11" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="15" fillId="0" borderId="12" xfId="1" applyNumberFormat="1" applyBorder="1">
+    <xf numFmtId="49" fontId="16" fillId="0" borderId="12" xfId="1" applyNumberFormat="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="9" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1">
+    <xf numFmtId="49" fontId="10" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="15" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyBorder="1">
+    <xf numFmtId="49" fontId="16" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="9" fillId="0" borderId="13" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1">
+    <xf numFmtId="49" fontId="10" fillId="0" borderId="13" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="8" fillId="0" borderId="13" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
+    <xf numFmtId="49" fontId="9" fillId="0" borderId="13" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="7" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1">
+    <xf numFmtId="49" fontId="8" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="49" fontId="6" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="16" fillId="0" borderId="14" xfId="1" applyNumberFormat="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="5" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="49" fontId="5" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="15" fillId="0" borderId="14" xfId="1" applyNumberFormat="1" applyBorder="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="4" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="49" fontId="4" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1">
+    <xf numFmtId="177" fontId="12" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="7" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="16" fillId="0" borderId="0" xfId="1" applyNumberFormat="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="177" fontId="11" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="1" fontId="12" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="6" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="1" fontId="16" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="15" fillId="0" borderId="0" xfId="1" applyNumberFormat="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1">
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="11" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="15" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -2231,14 +2149,11 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="177" fontId="15" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="177" fontId="16" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1">
-      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -2466,11 +2381,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="101427456"/>
-        <c:axId val="101441536"/>
+        <c:axId val="111778048"/>
+        <c:axId val="111788032"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="101427456"/>
+        <c:axId val="111778048"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2480,12 +2395,12 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="101441536"/>
+        <c:crossAx val="111788032"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="101441536"/>
+        <c:axId val="111788032"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2514,7 +2429,7 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="101427456"/>
+        <c:crossAx val="111778048"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -6309,7 +6224,7 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:9" x14ac:dyDescent="0.15">
-      <c r="B2" s="78" t="s">
+      <c r="B2" s="80" t="s">
         <v>13</v>
       </c>
       <c r="C2" s="36"/>
@@ -6333,7 +6248,7 @@
       </c>
     </row>
     <row r="3" spans="2:9" x14ac:dyDescent="0.15">
-      <c r="B3" s="78"/>
+      <c r="B3" s="80"/>
       <c r="C3" s="37" t="s">
         <v>131</v>
       </c>
@@ -6353,7 +6268,7 @@
       <c r="I3" s="1"/>
     </row>
     <row r="4" spans="2:9" x14ac:dyDescent="0.15">
-      <c r="B4" s="78"/>
+      <c r="B4" s="80"/>
       <c r="C4" s="37" t="s">
         <v>132</v>
       </c>
@@ -6373,7 +6288,7 @@
       <c r="I4" s="1"/>
     </row>
     <row r="5" spans="2:9" x14ac:dyDescent="0.15">
-      <c r="B5" s="78"/>
+      <c r="B5" s="80"/>
       <c r="C5" s="37" t="s">
         <v>133</v>
       </c>
@@ -6393,7 +6308,7 @@
       <c r="I5" s="1"/>
     </row>
     <row r="6" spans="2:9" x14ac:dyDescent="0.15">
-      <c r="B6" s="78"/>
+      <c r="B6" s="80"/>
       <c r="C6" s="50" t="s">
         <v>156</v>
       </c>
@@ -6405,7 +6320,7 @@
       <c r="I6" s="1"/>
     </row>
     <row r="7" spans="2:9" x14ac:dyDescent="0.15">
-      <c r="B7" s="78"/>
+      <c r="B7" s="80"/>
       <c r="C7" s="36"/>
       <c r="D7" s="36"/>
       <c r="E7" s="36"/>
@@ -6415,7 +6330,7 @@
       <c r="I7" s="1"/>
     </row>
     <row r="8" spans="2:9" x14ac:dyDescent="0.15">
-      <c r="B8" s="78"/>
+      <c r="B8" s="80"/>
       <c r="C8" s="51"/>
       <c r="D8" s="51"/>
       <c r="E8" s="51"/>
@@ -6425,7 +6340,7 @@
       <c r="I8" s="1"/>
     </row>
     <row r="9" spans="2:9" x14ac:dyDescent="0.15">
-      <c r="B9" s="78"/>
+      <c r="B9" s="80"/>
       <c r="C9" s="51"/>
       <c r="D9" s="51"/>
       <c r="E9" s="51"/>
@@ -6435,7 +6350,7 @@
       <c r="I9" s="1"/>
     </row>
     <row r="10" spans="2:9" x14ac:dyDescent="0.15">
-      <c r="B10" s="78"/>
+      <c r="B10" s="80"/>
       <c r="C10" s="51" t="s">
         <v>3</v>
       </c>
@@ -6451,7 +6366,7 @@
       <c r="I10" s="1"/>
     </row>
     <row r="11" spans="2:9" x14ac:dyDescent="0.15">
-      <c r="B11" s="78"/>
+      <c r="B11" s="80"/>
       <c r="C11" s="51" t="s">
         <v>157</v>
       </c>
@@ -6467,7 +6382,7 @@
       <c r="I11" s="1"/>
     </row>
     <row r="12" spans="2:9" x14ac:dyDescent="0.15">
-      <c r="B12" s="78"/>
+      <c r="B12" s="80"/>
       <c r="C12" s="51" t="s">
         <v>4</v>
       </c>
@@ -6486,7 +6401,7 @@
   <mergeCells count="1">
     <mergeCell ref="B2:B12"/>
   </mergeCells>
-  <phoneticPr fontId="16" type="noConversion"/>
+  <phoneticPr fontId="17" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
@@ -6523,19 +6438,19 @@
         <v>170</v>
       </c>
       <c r="D1" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="E1" s="12" t="s">
         <v>171</v>
       </c>
       <c r="F1" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="G1" t="s">
         <v>172</v>
       </c>
       <c r="H1" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.15">
@@ -6796,7 +6711,7 @@
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="16" type="noConversion"/>
+  <phoneticPr fontId="17" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -7098,12 +7013,12 @@
     </row>
     <row r="10" spans="1:94" x14ac:dyDescent="0.15">
       <c r="AK10" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
     </row>
     <row r="11" spans="1:94" x14ac:dyDescent="0.15">
       <c r="AK11" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
     </row>
     <row r="13" spans="1:94" x14ac:dyDescent="0.15">
@@ -7111,11 +7026,11 @@
     </row>
     <row r="18" spans="18:18" x14ac:dyDescent="0.15">
       <c r="R18" t="s">
-        <v>194</v>
+        <v>184</v>
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="16" type="noConversion"/>
+  <phoneticPr fontId="17" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
@@ -7125,8 +7040,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:X49"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D26" sqref="D26"/>
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="F18" sqref="F18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -7205,8 +7120,8 @@
       </c>
     </row>
     <row r="2" spans="1:24" x14ac:dyDescent="0.15">
-      <c r="A2" s="90" t="s">
-        <v>201</v>
+      <c r="A2" s="78" t="s">
+        <v>191</v>
       </c>
       <c r="B2" s="29">
         <v>0</v>
@@ -7276,8 +7191,8 @@
       <c r="X2" s="38"/>
     </row>
     <row r="3" spans="1:24" x14ac:dyDescent="0.15">
-      <c r="A3" s="90" t="s">
-        <v>200</v>
+      <c r="A3" s="78" t="s">
+        <v>190</v>
       </c>
       <c r="B3" s="29">
         <v>1</v>
@@ -7349,8 +7264,8 @@
       <c r="X3" s="73"/>
     </row>
     <row r="4" spans="1:24" x14ac:dyDescent="0.15">
-      <c r="A4" s="90" t="s">
-        <v>202</v>
+      <c r="A4" s="78" t="s">
+        <v>192</v>
       </c>
       <c r="B4" s="29">
         <v>2</v>
@@ -7422,8 +7337,8 @@
       <c r="X4" s="73"/>
     </row>
     <row r="5" spans="1:24" x14ac:dyDescent="0.15">
-      <c r="A5" s="90" t="s">
-        <v>203</v>
+      <c r="A5" s="78" t="s">
+        <v>193</v>
       </c>
       <c r="B5" s="29">
         <v>3</v>
@@ -7493,8 +7408,8 @@
       <c r="X5" s="73"/>
     </row>
     <row r="6" spans="1:24" x14ac:dyDescent="0.15">
-      <c r="A6" s="90" t="s">
-        <v>204</v>
+      <c r="A6" s="78" t="s">
+        <v>194</v>
       </c>
       <c r="B6" s="29">
         <v>4</v>
@@ -7566,8 +7481,8 @@
       <c r="X6" s="73"/>
     </row>
     <row r="7" spans="1:24" x14ac:dyDescent="0.15">
-      <c r="A7" s="90" t="s">
-        <v>205</v>
+      <c r="A7" s="78" t="s">
+        <v>195</v>
       </c>
       <c r="B7" s="29">
         <v>5</v>
@@ -7639,8 +7554,8 @@
       <c r="X7" s="73"/>
     </row>
     <row r="8" spans="1:24" x14ac:dyDescent="0.15">
-      <c r="A8" s="90" t="s">
-        <v>206</v>
+      <c r="A8" s="78" t="s">
+        <v>196</v>
       </c>
       <c r="B8" s="29">
         <v>6</v>
@@ -7710,8 +7625,8 @@
       <c r="X8" s="73"/>
     </row>
     <row r="9" spans="1:24" x14ac:dyDescent="0.15">
-      <c r="A9" s="90" t="s">
-        <v>207</v>
+      <c r="A9" s="78" t="s">
+        <v>197</v>
       </c>
       <c r="B9" s="29">
         <v>7</v>
@@ -7781,8 +7696,8 @@
       <c r="X9" s="73"/>
     </row>
     <row r="10" spans="1:24" x14ac:dyDescent="0.15">
-      <c r="A10" s="90" t="s">
-        <v>208</v>
+      <c r="A10" s="78" t="s">
+        <v>198</v>
       </c>
       <c r="B10" s="29">
         <v>8</v>
@@ -7852,8 +7767,8 @@
       <c r="X10" s="73"/>
     </row>
     <row r="11" spans="1:24" x14ac:dyDescent="0.15">
-      <c r="A11" s="90" t="s">
-        <v>209</v>
+      <c r="A11" s="78" t="s">
+        <v>199</v>
       </c>
       <c r="B11" s="29">
         <v>9</v>
@@ -7923,8 +7838,8 @@
       <c r="X11" s="73"/>
     </row>
     <row r="12" spans="1:24" x14ac:dyDescent="0.15">
-      <c r="A12" s="90" t="s">
-        <v>210</v>
+      <c r="A12" s="78" t="s">
+        <v>200</v>
       </c>
       <c r="B12" s="29">
         <v>10</v>
@@ -7994,8 +7909,8 @@
       <c r="X12" s="73"/>
     </row>
     <row r="13" spans="1:24" x14ac:dyDescent="0.15">
-      <c r="A13" s="90" t="s">
-        <v>211</v>
+      <c r="A13" s="78" t="s">
+        <v>201</v>
       </c>
       <c r="B13" s="29">
         <v>11</v>
@@ -8065,8 +7980,8 @@
       <c r="X13" s="73"/>
     </row>
     <row r="14" spans="1:24" x14ac:dyDescent="0.15">
-      <c r="A14" s="90" t="s">
-        <v>212</v>
+      <c r="A14" s="78" t="s">
+        <v>202</v>
       </c>
       <c r="B14" s="29">
         <v>12</v>
@@ -8136,8 +8051,8 @@
       <c r="X14" s="73"/>
     </row>
     <row r="15" spans="1:24" x14ac:dyDescent="0.15">
-      <c r="A15" s="90" t="s">
-        <v>213</v>
+      <c r="A15" s="78" t="s">
+        <v>203</v>
       </c>
       <c r="B15" s="29">
         <v>13</v>
@@ -8207,8 +8122,8 @@
       <c r="X15" s="73"/>
     </row>
     <row r="16" spans="1:24" x14ac:dyDescent="0.15">
-      <c r="A16" s="90" t="s">
-        <v>214</v>
+      <c r="A16" s="78" t="s">
+        <v>204</v>
       </c>
       <c r="B16" s="29">
         <v>14</v>
@@ -8278,37 +8193,37 @@
       <c r="X16" s="73"/>
     </row>
     <row r="17" spans="1:24" x14ac:dyDescent="0.15">
-      <c r="A17" s="90" t="s">
-        <v>215</v>
+      <c r="A17" s="78" t="s">
+        <v>205</v>
       </c>
       <c r="B17" s="29">
         <v>15</v>
       </c>
       <c r="C17" s="77">
-        <v>99.759999999999991</v>
+        <v>98.76</v>
       </c>
       <c r="D17" s="76">
-        <v>265.64</v>
+        <v>195.64</v>
       </c>
       <c r="E17" s="70">
         <v>147</v>
       </c>
       <c r="F17" s="70">
-        <v>221</v>
+        <v>211</v>
       </c>
       <c r="G17" s="71">
-        <v>58.1</v>
+        <v>68.099999999999994</v>
       </c>
       <c r="H17" s="72">
-        <v>34.4</v>
+        <v>44.4</v>
       </c>
       <c r="I17">
         <f t="shared" ref="I17:I18" si="34">C17*E17/G17</f>
-        <v>252.40481927710843</v>
+        <v>213.1823788546256</v>
       </c>
       <c r="J17" s="29">
         <f t="shared" ref="J17:J18" si="35">D17*F17/H17</f>
-        <v>1706.5825581395347</v>
+        <v>929.73063063063057</v>
       </c>
       <c r="K17" s="31">
         <v>10</v>
@@ -8324,33 +8239,33 @@
       </c>
       <c r="O17" s="29">
         <f t="shared" ref="O17" si="36">K17*C17*E17/G17+M17</f>
-        <v>2524.0481927710839</v>
+        <v>2131.8237885462559</v>
       </c>
       <c r="P17" s="29">
         <f t="shared" ref="P17" si="37">K17*D17*F17/H17+N17</f>
-        <v>17065.825581395347</v>
+        <v>9297.3063063063055</v>
       </c>
       <c r="Q17" s="30">
         <f t="shared" ref="Q17" si="38">D17/C17-1</f>
-        <v>1.6627906976744189</v>
+        <v>0.98096395301741568</v>
       </c>
       <c r="R17" s="30">
         <f t="shared" ref="R17" si="39">F17/E17-1</f>
-        <v>0.50340136054421758</v>
+        <v>0.43537414965986398</v>
       </c>
       <c r="S17" s="30">
         <f t="shared" ref="S17" si="40">G17/H17-1</f>
-        <v>0.68895348837209314</v>
+        <v>0.53378378378378377</v>
       </c>
       <c r="T17" s="30">
         <f t="shared" ref="T17" si="41">P17/O17-1</f>
-        <v>5.7612914960467698</v>
+        <v>3.3611983111635935</v>
       </c>
       <c r="X17" s="73"/>
     </row>
     <row r="18" spans="1:24" x14ac:dyDescent="0.15">
-      <c r="A18" s="90" t="s">
-        <v>216</v>
+      <c r="A18" s="78" t="s">
+        <v>206</v>
       </c>
       <c r="B18" s="29">
         <v>16</v>
@@ -8420,8 +8335,8 @@
       <c r="X18" s="73"/>
     </row>
     <row r="19" spans="1:24" x14ac:dyDescent="0.15">
-      <c r="A19" s="90" t="s">
-        <v>217</v>
+      <c r="A19" s="78" t="s">
+        <v>207</v>
       </c>
       <c r="B19" s="29">
         <v>17</v>
@@ -8491,8 +8406,8 @@
       <c r="X19" s="73"/>
     </row>
     <row r="20" spans="1:24" x14ac:dyDescent="0.15">
-      <c r="A20" s="90" t="s">
-        <v>218</v>
+      <c r="A20" s="78" t="s">
+        <v>208</v>
       </c>
       <c r="B20" s="29">
         <v>18</v>
@@ -8501,7 +8416,7 @@
         <v>96.279999999999987</v>
       </c>
       <c r="D20" s="77">
-        <v>186.76</v>
+        <v>226.76</v>
       </c>
       <c r="E20" s="70">
         <v>158</v>
@@ -8521,7 +8436,7 @@
       </c>
       <c r="J20" s="29">
         <f t="shared" ref="J20" si="51">D20*F20/H20</f>
-        <v>2448.2823529411762</v>
+        <v>2972.6521008403361</v>
       </c>
       <c r="K20" s="31">
         <v>10</v>
@@ -8541,11 +8456,11 @@
       </c>
       <c r="P20" s="29">
         <f t="shared" si="43"/>
-        <v>24482.823529411762</v>
+        <v>29726.521008403357</v>
       </c>
       <c r="Q20" s="30">
         <f t="shared" si="44"/>
-        <v>0.93975903614457845</v>
+        <v>1.3552139592854178</v>
       </c>
       <c r="R20" s="30">
         <f t="shared" si="45"/>
@@ -8557,13 +8472,13 @@
       </c>
       <c r="T20" s="30">
         <f t="shared" si="47"/>
-        <v>6.5964438543451553</v>
+        <v>8.2234397537551267</v>
       </c>
       <c r="X20" s="73"/>
     </row>
     <row r="21" spans="1:24" x14ac:dyDescent="0.15">
-      <c r="A21" s="90" t="s">
-        <v>219</v>
+      <c r="A21" s="78" t="s">
+        <v>209</v>
       </c>
       <c r="B21" s="29">
         <v>19</v>
@@ -8633,8 +8548,8 @@
       <c r="X21" s="73"/>
     </row>
     <row r="22" spans="1:24" x14ac:dyDescent="0.15">
-      <c r="A22" s="90" t="s">
-        <v>220</v>
+      <c r="A22" s="78" t="s">
+        <v>210</v>
       </c>
       <c r="B22" s="29">
         <v>20</v>
@@ -8704,8 +8619,8 @@
       <c r="X22" s="73"/>
     </row>
     <row r="23" spans="1:24" x14ac:dyDescent="0.15">
-      <c r="A23" s="90" t="s">
-        <v>221</v>
+      <c r="A23" s="78" t="s">
+        <v>211</v>
       </c>
       <c r="B23" s="29">
         <v>21</v>
@@ -8775,8 +8690,8 @@
       <c r="X23" s="73"/>
     </row>
     <row r="24" spans="1:24" x14ac:dyDescent="0.15">
-      <c r="A24" s="90" t="s">
-        <v>222</v>
+      <c r="A24" s="78" t="s">
+        <v>212</v>
       </c>
       <c r="B24" s="29">
         <v>22</v>
@@ -8846,14 +8761,14 @@
       <c r="X24" s="73"/>
     </row>
     <row r="25" spans="1:24" x14ac:dyDescent="0.15">
-      <c r="A25" s="90" t="s">
-        <v>223</v>
+      <c r="A25" s="78" t="s">
+        <v>213</v>
       </c>
       <c r="B25" s="29">
         <v>23</v>
       </c>
       <c r="C25" s="77">
-        <v>125.27999999999999</v>
+        <v>125.28</v>
       </c>
       <c r="D25" s="77">
         <v>346.84</v>
@@ -8872,7 +8787,7 @@
       </c>
       <c r="I25">
         <f t="shared" si="54"/>
-        <v>277.93444816053506</v>
+        <v>277.93444816053511</v>
       </c>
       <c r="J25" s="29">
         <f t="shared" si="55"/>
@@ -8900,7 +8815,7 @@
       </c>
       <c r="Q25" s="30">
         <f t="shared" si="44"/>
-        <v>1.7685185185185186</v>
+        <v>1.7685185185185182</v>
       </c>
       <c r="R25" s="30">
         <f t="shared" si="45"/>
@@ -8917,8 +8832,8 @@
       <c r="X25" s="73"/>
     </row>
     <row r="26" spans="1:24" x14ac:dyDescent="0.15">
-      <c r="A26" s="90" t="s">
-        <v>224</v>
+      <c r="A26" s="78" t="s">
+        <v>214</v>
       </c>
       <c r="B26" s="29">
         <v>24</v>
@@ -8988,8 +8903,8 @@
       <c r="X26" s="73"/>
     </row>
     <row r="27" spans="1:24" x14ac:dyDescent="0.15">
-      <c r="A27" s="90" t="s">
-        <v>225</v>
+      <c r="A27" s="78" t="s">
+        <v>215</v>
       </c>
       <c r="B27" s="29">
         <v>25</v>
@@ -9059,8 +8974,8 @@
       <c r="X27" s="73"/>
     </row>
     <row r="28" spans="1:24" x14ac:dyDescent="0.15">
-      <c r="A28" s="90" t="s">
-        <v>226</v>
+      <c r="A28" s="78" t="s">
+        <v>216</v>
       </c>
       <c r="B28" s="29">
         <v>26</v>
@@ -9130,8 +9045,8 @@
       <c r="X28" s="73"/>
     </row>
     <row r="29" spans="1:24" x14ac:dyDescent="0.15">
-      <c r="A29" s="90" t="s">
-        <v>227</v>
+      <c r="A29" s="78" t="s">
+        <v>217</v>
       </c>
       <c r="B29" s="29">
         <v>27</v>
@@ -9201,17 +9116,17 @@
       <c r="X29" s="73"/>
     </row>
     <row r="30" spans="1:24" x14ac:dyDescent="0.15">
-      <c r="A30" s="90" t="s">
-        <v>228</v>
+      <c r="A30" s="78" t="s">
+        <v>218</v>
       </c>
       <c r="B30" s="29">
         <v>28</v>
       </c>
       <c r="C30" s="77">
-        <v>91.64</v>
+        <v>141.63999999999999</v>
       </c>
       <c r="D30" s="77">
-        <v>248.23999999999998</v>
+        <v>298.24</v>
       </c>
       <c r="E30" s="70">
         <v>137</v>
@@ -9227,11 +9142,11 @@
       </c>
       <c r="I30">
         <f t="shared" si="54"/>
-        <v>125.67247247247246</v>
+        <v>194.241041041041</v>
       </c>
       <c r="J30" s="29">
         <f t="shared" si="55"/>
-        <v>982.930101010101</v>
+        <v>1180.9098989898989</v>
       </c>
       <c r="K30" s="31">
         <v>10</v>
@@ -9247,15 +9162,15 @@
       </c>
       <c r="O30" s="29">
         <f t="shared" si="42"/>
-        <v>1256.7247247247246</v>
+        <v>1942.4104104104101</v>
       </c>
       <c r="P30" s="29">
         <f t="shared" si="43"/>
-        <v>9829.3010101010077</v>
+        <v>11809.09898989899</v>
       </c>
       <c r="Q30" s="30">
         <f t="shared" si="44"/>
-        <v>1.7088607594936707</v>
+        <v>1.1056198813894382</v>
       </c>
       <c r="R30" s="30">
         <f t="shared" si="45"/>
@@ -9267,13 +9182,13 @@
       </c>
       <c r="T30" s="30">
         <f t="shared" si="47"/>
-        <v>6.8213635943655335</v>
+        <v>5.0796106356348538</v>
       </c>
       <c r="X30" s="73"/>
     </row>
     <row r="31" spans="1:24" x14ac:dyDescent="0.15">
-      <c r="A31" s="90" t="s">
-        <v>229</v>
+      <c r="A31" s="78" t="s">
+        <v>219</v>
       </c>
       <c r="B31" s="29">
         <v>29</v>
@@ -9343,8 +9258,8 @@
       <c r="X31" s="73"/>
     </row>
     <row r="32" spans="1:24" x14ac:dyDescent="0.15">
-      <c r="A32" s="90" t="s">
-        <v>230</v>
+      <c r="A32" s="78" t="s">
+        <v>220</v>
       </c>
       <c r="B32" s="29">
         <v>30</v>
@@ -9413,8 +9328,8 @@
       </c>
     </row>
     <row r="33" spans="1:20" x14ac:dyDescent="0.15">
-      <c r="A33" s="90" t="s">
-        <v>231</v>
+      <c r="A33" s="78" t="s">
+        <v>221</v>
       </c>
       <c r="B33" s="29">
         <v>31</v>
@@ -9484,7 +9399,7 @@
     </row>
     <row r="34" spans="1:20" x14ac:dyDescent="0.15">
       <c r="A34" s="75" t="s">
-        <v>232</v>
+        <v>222</v>
       </c>
       <c r="B34" s="29">
         <v>32</v>
@@ -9554,7 +9469,7 @@
     </row>
     <row r="40" spans="1:20" x14ac:dyDescent="0.15">
       <c r="A40" s="69" t="s">
-        <v>199</v>
+        <v>189</v>
       </c>
       <c r="D40" s="29">
         <v>450</v>
@@ -9651,7 +9566,7 @@
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="16" type="noConversion"/>
+  <phoneticPr fontId="17" type="noConversion"/>
   <conditionalFormatting sqref="C2:C16">
     <cfRule type="dataBar" priority="267">
       <dataBar>
@@ -14177,7 +14092,7 @@
   <dimension ref="A1:I14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="I8" sqref="I8"/>
+      <selection activeCell="I6" sqref="I6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -14212,7 +14127,7 @@
       <c r="G1" s="33"/>
       <c r="H1" s="33"/>
       <c r="I1" s="67" t="s">
-        <v>195</v>
+        <v>185</v>
       </c>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.15">
@@ -14226,10 +14141,10 @@
         <v>159</v>
       </c>
       <c r="D2" s="68" t="s">
-        <v>198</v>
-      </c>
-      <c r="E2" s="65" t="s">
-        <v>174</v>
+        <v>188</v>
+      </c>
+      <c r="E2" s="79" t="s">
+        <v>232</v>
       </c>
       <c r="F2" s="57" t="s">
         <v>89</v>
@@ -14251,10 +14166,10 @@
         <v>160</v>
       </c>
       <c r="D3" s="68" t="s">
-        <v>197</v>
-      </c>
-      <c r="E3" s="65" t="s">
-        <v>185</v>
+        <v>187</v>
+      </c>
+      <c r="E3" s="79" t="s">
+        <v>225</v>
       </c>
       <c r="F3" s="57" t="s">
         <v>89</v>
@@ -14271,13 +14186,13 @@
         <v>89</v>
       </c>
       <c r="C4" s="65" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="D4" s="68" t="s">
-        <v>197</v>
-      </c>
-      <c r="E4" s="65" t="s">
-        <v>186</v>
+        <v>187</v>
+      </c>
+      <c r="E4" s="79" t="s">
+        <v>226</v>
       </c>
       <c r="F4" s="57" t="s">
         <v>89</v>
@@ -14294,13 +14209,13 @@
         <v>89</v>
       </c>
       <c r="C5" s="65" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="D5" s="68" t="s">
-        <v>196</v>
-      </c>
-      <c r="E5" s="65" t="s">
-        <v>187</v>
+        <v>186</v>
+      </c>
+      <c r="E5" s="79" t="s">
+        <v>227</v>
       </c>
       <c r="F5" s="57" t="s">
         <v>89</v>
@@ -14317,13 +14232,13 @@
         <v>89</v>
       </c>
       <c r="C6" s="65" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="D6" s="68" t="s">
-        <v>196</v>
-      </c>
-      <c r="E6" s="65" t="s">
-        <v>188</v>
+        <v>186</v>
+      </c>
+      <c r="E6" s="79" t="s">
+        <v>224</v>
       </c>
       <c r="F6" s="57" t="s">
         <v>89</v>
@@ -14340,13 +14255,13 @@
         <v>89</v>
       </c>
       <c r="C7" s="65" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="D7" s="68" t="s">
-        <v>196</v>
-      </c>
-      <c r="E7" s="65" t="s">
-        <v>189</v>
+        <v>186</v>
+      </c>
+      <c r="E7" s="79" t="s">
+        <v>223</v>
       </c>
       <c r="F7" s="57" t="s">
         <v>89</v>
@@ -14363,13 +14278,13 @@
         <v>89</v>
       </c>
       <c r="C8" s="65" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="D8" s="68" t="s">
-        <v>196</v>
-      </c>
-      <c r="E8" s="65" t="s">
-        <v>190</v>
+        <v>186</v>
+      </c>
+      <c r="E8" s="79" t="s">
+        <v>230</v>
       </c>
       <c r="F8" s="57" t="s">
         <v>89</v>
@@ -14389,10 +14304,10 @@
         <v>162</v>
       </c>
       <c r="D9" s="68" t="s">
-        <v>196</v>
-      </c>
-      <c r="E9" s="65" t="s">
-        <v>191</v>
+        <v>186</v>
+      </c>
+      <c r="E9" s="79" t="s">
+        <v>229</v>
       </c>
       <c r="F9" s="57" t="s">
         <v>89</v>
@@ -14412,10 +14327,10 @@
         <v>161</v>
       </c>
       <c r="D10" s="68" t="s">
-        <v>196</v>
-      </c>
-      <c r="E10" s="65" t="s">
-        <v>192</v>
+        <v>186</v>
+      </c>
+      <c r="E10" s="79" t="s">
+        <v>231</v>
       </c>
       <c r="F10" s="57" t="s">
         <v>89</v>
@@ -14435,10 +14350,10 @@
         <v>163</v>
       </c>
       <c r="D11" s="68" t="s">
-        <v>197</v>
-      </c>
-      <c r="E11" s="65" t="s">
-        <v>193</v>
+        <v>187</v>
+      </c>
+      <c r="E11" s="79" t="s">
+        <v>228</v>
       </c>
       <c r="F11" s="57" t="s">
         <v>89</v>
@@ -14472,7 +14387,7 @@
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="16" type="noConversion"/>
+  <phoneticPr fontId="17" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
@@ -14541,13 +14456,13 @@
       <c r="H3" s="13"/>
     </row>
     <row r="4" spans="1:12" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B4" s="79">
+      <c r="B4" s="81">
         <v>0</v>
       </c>
-      <c r="C4" s="79" t="s">
+      <c r="C4" s="81" t="s">
         <v>44</v>
       </c>
-      <c r="D4" s="79" t="s">
+      <c r="D4" s="81" t="s">
         <v>50</v>
       </c>
       <c r="E4" s="15" t="s">
@@ -14575,9 +14490,9 @@
       </c>
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="B5" s="80"/>
-      <c r="C5" s="80"/>
-      <c r="D5" s="80"/>
+      <c r="B5" s="82"/>
+      <c r="C5" s="82"/>
+      <c r="D5" s="82"/>
       <c r="E5" s="15" t="s">
         <v>1</v>
       </c>
@@ -14603,9 +14518,9 @@
       </c>
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="B6" s="81"/>
-      <c r="C6" s="81"/>
-      <c r="D6" s="81"/>
+      <c r="B6" s="83"/>
+      <c r="C6" s="83"/>
+      <c r="D6" s="83"/>
       <c r="E6" s="19" t="s">
         <v>2</v>
       </c>
@@ -14641,13 +14556,13 @@
       <c r="L7" s="24"/>
     </row>
     <row r="8" spans="1:12" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B8" s="79">
+      <c r="B8" s="81">
         <v>1</v>
       </c>
-      <c r="C8" s="79" t="s">
+      <c r="C8" s="81" t="s">
         <v>45</v>
       </c>
-      <c r="D8" s="79" t="s">
+      <c r="D8" s="81" t="s">
         <v>52</v>
       </c>
       <c r="E8" s="21" t="s">
@@ -14675,9 +14590,9 @@
       </c>
     </row>
     <row r="9" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="B9" s="80"/>
-      <c r="C9" s="80"/>
-      <c r="D9" s="80"/>
+      <c r="B9" s="82"/>
+      <c r="C9" s="82"/>
+      <c r="D9" s="82"/>
       <c r="E9" s="15" t="s">
         <v>1</v>
       </c>
@@ -14703,9 +14618,9 @@
       </c>
     </row>
     <row r="10" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="B10" s="80"/>
-      <c r="C10" s="80"/>
-      <c r="D10" s="80"/>
+      <c r="B10" s="82"/>
+      <c r="C10" s="82"/>
+      <c r="D10" s="82"/>
       <c r="E10" s="15" t="s">
         <v>2</v>
       </c>
@@ -14731,9 +14646,9 @@
       </c>
     </row>
     <row r="11" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="B11" s="81"/>
-      <c r="C11" s="81"/>
-      <c r="D11" s="81"/>
+      <c r="B11" s="83"/>
+      <c r="C11" s="83"/>
+      <c r="D11" s="83"/>
       <c r="E11" s="19" t="s">
         <v>43</v>
       </c>
@@ -14763,13 +14678,13 @@
       <c r="K12" s="25"/>
     </row>
     <row r="13" spans="1:12" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B13" s="79">
+      <c r="B13" s="81">
         <v>2</v>
       </c>
-      <c r="C13" s="79" t="s">
+      <c r="C13" s="81" t="s">
         <v>46</v>
       </c>
-      <c r="D13" s="79" t="s">
+      <c r="D13" s="81" t="s">
         <v>53</v>
       </c>
       <c r="E13" s="21" t="s">
@@ -14797,9 +14712,9 @@
       </c>
     </row>
     <row r="14" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="B14" s="80"/>
-      <c r="C14" s="80"/>
-      <c r="D14" s="80"/>
+      <c r="B14" s="82"/>
+      <c r="C14" s="82"/>
+      <c r="D14" s="82"/>
       <c r="E14" s="15" t="s">
         <v>1</v>
       </c>
@@ -14825,9 +14740,9 @@
       </c>
     </row>
     <row r="15" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="B15" s="80"/>
-      <c r="C15" s="80"/>
-      <c r="D15" s="80"/>
+      <c r="B15" s="82"/>
+      <c r="C15" s="82"/>
+      <c r="D15" s="82"/>
       <c r="E15" s="15" t="s">
         <v>2</v>
       </c>
@@ -14853,9 +14768,9 @@
       </c>
     </row>
     <row r="16" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="B16" s="80"/>
-      <c r="C16" s="80"/>
-      <c r="D16" s="80"/>
+      <c r="B16" s="82"/>
+      <c r="C16" s="82"/>
+      <c r="D16" s="82"/>
       <c r="E16" s="11" t="s">
         <v>65</v>
       </c>
@@ -14876,9 +14791,9 @@
       </c>
     </row>
     <row r="17" spans="2:11" x14ac:dyDescent="0.15">
-      <c r="B17" s="81"/>
-      <c r="C17" s="81"/>
-      <c r="D17" s="81"/>
+      <c r="B17" s="83"/>
+      <c r="C17" s="83"/>
+      <c r="D17" s="83"/>
       <c r="E17" s="11" t="s">
         <v>66</v>
       </c>
@@ -14899,13 +14814,13 @@
       </c>
     </row>
     <row r="19" spans="2:11" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B19" s="79">
+      <c r="B19" s="81">
         <v>3</v>
       </c>
-      <c r="C19" s="79" t="s">
+      <c r="C19" s="81" t="s">
         <v>47</v>
       </c>
-      <c r="D19" s="79" t="s">
+      <c r="D19" s="81" t="s">
         <v>54</v>
       </c>
       <c r="E19" s="15" t="s">
@@ -14933,9 +14848,9 @@
       </c>
     </row>
     <row r="20" spans="2:11" x14ac:dyDescent="0.15">
-      <c r="B20" s="80"/>
-      <c r="C20" s="80"/>
-      <c r="D20" s="80"/>
+      <c r="B20" s="82"/>
+      <c r="C20" s="82"/>
+      <c r="D20" s="82"/>
       <c r="E20" s="15" t="s">
         <v>1</v>
       </c>
@@ -14961,9 +14876,9 @@
       </c>
     </row>
     <row r="21" spans="2:11" x14ac:dyDescent="0.15">
-      <c r="B21" s="81"/>
-      <c r="C21" s="81"/>
-      <c r="D21" s="81"/>
+      <c r="B21" s="83"/>
+      <c r="C21" s="83"/>
+      <c r="D21" s="83"/>
       <c r="E21" s="15" t="s">
         <v>2</v>
       </c>
@@ -14989,13 +14904,13 @@
       </c>
     </row>
     <row r="23" spans="2:11" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B23" s="79">
+      <c r="B23" s="81">
         <v>4</v>
       </c>
-      <c r="C23" s="79" t="s">
+      <c r="C23" s="81" t="s">
         <v>48</v>
       </c>
-      <c r="D23" s="79" t="s">
+      <c r="D23" s="81" t="s">
         <v>55</v>
       </c>
       <c r="E23" s="15" t="s">
@@ -15023,9 +14938,9 @@
       </c>
     </row>
     <row r="24" spans="2:11" x14ac:dyDescent="0.15">
-      <c r="B24" s="80"/>
-      <c r="C24" s="80"/>
-      <c r="D24" s="80"/>
+      <c r="B24" s="82"/>
+      <c r="C24" s="82"/>
+      <c r="D24" s="82"/>
       <c r="E24" s="15" t="s">
         <v>1</v>
       </c>
@@ -15051,9 +14966,9 @@
       </c>
     </row>
     <row r="25" spans="2:11" x14ac:dyDescent="0.15">
-      <c r="B25" s="80"/>
-      <c r="C25" s="80"/>
-      <c r="D25" s="80"/>
+      <c r="B25" s="82"/>
+      <c r="C25" s="82"/>
+      <c r="D25" s="82"/>
       <c r="E25" s="15" t="s">
         <v>2</v>
       </c>
@@ -15079,9 +14994,9 @@
       </c>
     </row>
     <row r="26" spans="2:11" x14ac:dyDescent="0.15">
-      <c r="B26" s="80"/>
-      <c r="C26" s="80"/>
-      <c r="D26" s="80"/>
+      <c r="B26" s="82"/>
+      <c r="C26" s="82"/>
+      <c r="D26" s="82"/>
       <c r="E26" s="11" t="s">
         <v>67</v>
       </c>
@@ -15102,9 +15017,9 @@
       </c>
     </row>
     <row r="27" spans="2:11" x14ac:dyDescent="0.15">
-      <c r="B27" s="81"/>
-      <c r="C27" s="81"/>
-      <c r="D27" s="81"/>
+      <c r="B27" s="83"/>
+      <c r="C27" s="83"/>
+      <c r="D27" s="83"/>
       <c r="E27" s="11" t="s">
         <v>68</v>
       </c>
@@ -15125,13 +15040,13 @@
       </c>
     </row>
     <row r="29" spans="2:11" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B29" s="79">
+      <c r="B29" s="81">
         <v>5</v>
       </c>
-      <c r="C29" s="79" t="s">
+      <c r="C29" s="81" t="s">
         <v>49</v>
       </c>
-      <c r="D29" s="79" t="s">
+      <c r="D29" s="81" t="s">
         <v>56</v>
       </c>
       <c r="E29" s="15" t="s">
@@ -15159,9 +15074,9 @@
       </c>
     </row>
     <row r="30" spans="2:11" x14ac:dyDescent="0.15">
-      <c r="B30" s="80"/>
-      <c r="C30" s="80"/>
-      <c r="D30" s="80"/>
+      <c r="B30" s="82"/>
+      <c r="C30" s="82"/>
+      <c r="D30" s="82"/>
       <c r="E30" s="15" t="s">
         <v>1</v>
       </c>
@@ -15187,9 +15102,9 @@
       </c>
     </row>
     <row r="31" spans="2:11" x14ac:dyDescent="0.15">
-      <c r="B31" s="80"/>
-      <c r="C31" s="80"/>
-      <c r="D31" s="80"/>
+      <c r="B31" s="82"/>
+      <c r="C31" s="82"/>
+      <c r="D31" s="82"/>
       <c r="E31" s="15" t="s">
         <v>2</v>
       </c>
@@ -15215,9 +15130,9 @@
       </c>
     </row>
     <row r="32" spans="2:11" x14ac:dyDescent="0.15">
-      <c r="B32" s="80"/>
-      <c r="C32" s="80"/>
-      <c r="D32" s="80"/>
+      <c r="B32" s="82"/>
+      <c r="C32" s="82"/>
+      <c r="D32" s="82"/>
       <c r="E32" s="15" t="s">
         <v>57</v>
       </c>
@@ -15238,9 +15153,9 @@
       </c>
     </row>
     <row r="33" spans="2:11" x14ac:dyDescent="0.15">
-      <c r="B33" s="81"/>
-      <c r="C33" s="81"/>
-      <c r="D33" s="81"/>
+      <c r="B33" s="83"/>
+      <c r="C33" s="83"/>
+      <c r="D33" s="83"/>
       <c r="E33" s="11" t="s">
         <v>64</v>
       </c>
@@ -15261,13 +15176,13 @@
       </c>
     </row>
     <row r="35" spans="2:11" x14ac:dyDescent="0.15">
-      <c r="B35" s="82">
+      <c r="B35" s="84">
         <v>6</v>
       </c>
-      <c r="C35" s="82" t="s">
+      <c r="C35" s="84" t="s">
         <v>62</v>
       </c>
-      <c r="D35" s="82" t="s">
+      <c r="D35" s="84" t="s">
         <v>63</v>
       </c>
       <c r="E35" s="11" t="s">
@@ -15295,9 +15210,9 @@
       </c>
     </row>
     <row r="36" spans="2:11" x14ac:dyDescent="0.15">
-      <c r="B36" s="82"/>
-      <c r="C36" s="82"/>
-      <c r="D36" s="82"/>
+      <c r="B36" s="84"/>
+      <c r="C36" s="84"/>
+      <c r="D36" s="84"/>
       <c r="E36" s="28" t="s">
         <v>1</v>
       </c>
@@ -15323,9 +15238,9 @@
       </c>
     </row>
     <row r="37" spans="2:11" x14ac:dyDescent="0.15">
-      <c r="B37" s="82"/>
-      <c r="C37" s="82"/>
-      <c r="D37" s="82"/>
+      <c r="B37" s="84"/>
+      <c r="C37" s="84"/>
+      <c r="D37" s="84"/>
       <c r="E37" s="28" t="s">
         <v>2</v>
       </c>
@@ -15374,7 +15289,7 @@
     <mergeCell ref="C4:C6"/>
     <mergeCell ref="C8:C11"/>
   </mergeCells>
-  <phoneticPr fontId="16" type="noConversion"/>
+  <phoneticPr fontId="17" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
   <drawing r:id="rId2"/>
@@ -16020,7 +15935,7 @@
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="16" type="noConversion"/>
+  <phoneticPr fontId="17" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
@@ -16068,11 +15983,11 @@
         <v>94</v>
       </c>
       <c r="I2" s="2"/>
-      <c r="K2" s="84" t="s">
+      <c r="K2" s="86" t="s">
         <v>7</v>
       </c>
-      <c r="L2" s="85"/>
-      <c r="M2" s="86"/>
+      <c r="L2" s="87"/>
+      <c r="M2" s="88"/>
       <c r="O2" t="s">
         <v>23</v>
       </c>
@@ -16268,11 +16183,11 @@
       <c r="I8" s="9">
         <v>47</v>
       </c>
-      <c r="K8" s="83" t="s">
+      <c r="K8" s="85" t="s">
         <v>11</v>
       </c>
-      <c r="L8" s="83"/>
-      <c r="M8" s="83"/>
+      <c r="L8" s="85"/>
+      <c r="M8" s="85"/>
       <c r="O8" t="s">
         <v>23</v>
       </c>
@@ -16302,11 +16217,11 @@
       <c r="I9" s="1">
         <v>39</v>
       </c>
-      <c r="K9" s="83" t="s">
+      <c r="K9" s="85" t="s">
         <v>12</v>
       </c>
-      <c r="L9" s="83"/>
-      <c r="M9" s="83"/>
+      <c r="L9" s="85"/>
+      <c r="M9" s="85"/>
       <c r="O9" t="s">
         <v>23</v>
       </c>
@@ -16336,11 +16251,11 @@
       <c r="I10" s="1">
         <v>31</v>
       </c>
-      <c r="K10" s="83" t="s">
+      <c r="K10" s="85" t="s">
         <v>29</v>
       </c>
-      <c r="L10" s="83"/>
-      <c r="M10" s="83"/>
+      <c r="L10" s="85"/>
+      <c r="M10" s="85"/>
       <c r="O10" t="s">
         <v>23</v>
       </c>
@@ -16370,9 +16285,9 @@
       <c r="I11" s="8">
         <v>23</v>
       </c>
-      <c r="K11" s="83"/>
-      <c r="L11" s="83"/>
-      <c r="M11" s="83"/>
+      <c r="K11" s="85"/>
+      <c r="L11" s="85"/>
+      <c r="M11" s="85"/>
       <c r="O11" t="s">
         <v>23</v>
       </c>
@@ -16503,11 +16418,11 @@
       <c r="I18" s="9">
         <v>95</v>
       </c>
-      <c r="K18" s="84" t="s">
+      <c r="K18" s="86" t="s">
         <v>7</v>
       </c>
-      <c r="L18" s="85"/>
-      <c r="M18" s="86"/>
+      <c r="L18" s="87"/>
+      <c r="M18" s="88"/>
       <c r="O18" t="s">
         <v>26</v>
       </c>
@@ -16642,11 +16557,11 @@
       <c r="I22" s="9">
         <v>63</v>
       </c>
-      <c r="K22" s="83" t="s">
+      <c r="K22" s="85" t="s">
         <v>11</v>
       </c>
-      <c r="L22" s="83"/>
-      <c r="M22" s="83"/>
+      <c r="L22" s="85"/>
+      <c r="M22" s="85"/>
       <c r="O22" t="s">
         <v>25</v>
       </c>
@@ -16676,11 +16591,11 @@
       <c r="I23" s="8">
         <v>55</v>
       </c>
-      <c r="K23" s="83" t="s">
+      <c r="K23" s="85" t="s">
         <v>12</v>
       </c>
-      <c r="L23" s="83"/>
-      <c r="M23" s="83"/>
+      <c r="L23" s="85"/>
+      <c r="M23" s="85"/>
       <c r="O23" t="s">
         <v>25</v>
       </c>
@@ -16710,11 +16625,11 @@
       <c r="I24" s="8">
         <v>47</v>
       </c>
-      <c r="K24" s="83" t="s">
+      <c r="K24" s="85" t="s">
         <v>27</v>
       </c>
-      <c r="L24" s="83"/>
-      <c r="M24" s="83"/>
+      <c r="L24" s="85"/>
+      <c r="M24" s="85"/>
       <c r="O24" t="s">
         <v>25</v>
       </c>
@@ -16744,11 +16659,11 @@
       <c r="I25" s="9">
         <v>39</v>
       </c>
-      <c r="K25" s="83" t="s">
+      <c r="K25" s="85" t="s">
         <v>28</v>
       </c>
-      <c r="L25" s="83"/>
-      <c r="M25" s="83"/>
+      <c r="L25" s="85"/>
+      <c r="M25" s="85"/>
       <c r="O25" t="s">
         <v>25</v>
       </c>
@@ -16778,9 +16693,9 @@
       <c r="I26" s="8">
         <v>31</v>
       </c>
-      <c r="K26" s="87"/>
-      <c r="L26" s="87"/>
-      <c r="M26" s="87"/>
+      <c r="K26" s="89"/>
+      <c r="L26" s="89"/>
+      <c r="M26" s="89"/>
       <c r="O26" t="s">
         <v>25</v>
       </c>
@@ -16810,9 +16725,9 @@
       <c r="I27" s="9">
         <v>23</v>
       </c>
-      <c r="K27" s="87"/>
-      <c r="L27" s="87"/>
-      <c r="M27" s="87"/>
+      <c r="K27" s="89"/>
+      <c r="L27" s="89"/>
+      <c r="M27" s="89"/>
       <c r="O27" t="s">
         <v>25</v>
       </c>
@@ -16935,11 +16850,11 @@
       <c r="I34" s="9">
         <v>95</v>
       </c>
-      <c r="K34" s="84" t="s">
+      <c r="K34" s="86" t="s">
         <v>7</v>
       </c>
-      <c r="L34" s="85"/>
-      <c r="M34" s="86"/>
+      <c r="L34" s="87"/>
+      <c r="M34" s="88"/>
       <c r="O34" t="s">
         <v>31</v>
       </c>
@@ -17074,11 +16989,11 @@
       <c r="I38" s="9">
         <v>63</v>
       </c>
-      <c r="K38" s="83" t="s">
+      <c r="K38" s="85" t="s">
         <v>11</v>
       </c>
-      <c r="L38" s="83"/>
-      <c r="M38" s="83"/>
+      <c r="L38" s="85"/>
+      <c r="M38" s="85"/>
       <c r="O38" t="s">
         <v>30</v>
       </c>
@@ -17108,11 +17023,11 @@
       <c r="I39" s="9">
         <v>55</v>
       </c>
-      <c r="K39" s="83" t="s">
+      <c r="K39" s="85" t="s">
         <v>12</v>
       </c>
-      <c r="L39" s="83"/>
-      <c r="M39" s="83"/>
+      <c r="L39" s="85"/>
+      <c r="M39" s="85"/>
       <c r="O39" t="s">
         <v>30</v>
       </c>
@@ -17142,11 +17057,11 @@
       <c r="I40" s="9">
         <v>47</v>
       </c>
-      <c r="K40" s="83" t="s">
+      <c r="K40" s="85" t="s">
         <v>27</v>
       </c>
-      <c r="L40" s="83"/>
-      <c r="M40" s="83"/>
+      <c r="L40" s="85"/>
+      <c r="M40" s="85"/>
       <c r="O40" t="s">
         <v>30</v>
       </c>
@@ -17176,11 +17091,11 @@
       <c r="I41" s="9">
         <v>39</v>
       </c>
-      <c r="K41" s="83" t="s">
+      <c r="K41" s="85" t="s">
         <v>28</v>
       </c>
-      <c r="L41" s="83"/>
-      <c r="M41" s="83"/>
+      <c r="L41" s="85"/>
+      <c r="M41" s="85"/>
       <c r="O41" t="s">
         <v>30</v>
       </c>
@@ -17210,9 +17125,9 @@
       <c r="I42" s="8">
         <v>31</v>
       </c>
-      <c r="K42" s="83"/>
-      <c r="L42" s="83"/>
-      <c r="M42" s="83"/>
+      <c r="K42" s="85"/>
+      <c r="L42" s="85"/>
+      <c r="M42" s="85"/>
       <c r="O42" t="s">
         <v>30</v>
       </c>
@@ -17242,9 +17157,9 @@
       <c r="I43" s="9">
         <v>23</v>
       </c>
-      <c r="K43" s="83"/>
-      <c r="L43" s="83"/>
-      <c r="M43" s="83"/>
+      <c r="K43" s="85"/>
+      <c r="L43" s="85"/>
+      <c r="M43" s="85"/>
       <c r="O43" t="s">
         <v>30</v>
       </c>
@@ -17361,11 +17276,11 @@
       <c r="I50" s="8">
         <v>95</v>
       </c>
-      <c r="K50" s="84" t="s">
+      <c r="K50" s="86" t="s">
         <v>7</v>
       </c>
-      <c r="L50" s="85"/>
-      <c r="M50" s="86"/>
+      <c r="L50" s="87"/>
+      <c r="M50" s="88"/>
       <c r="O50" t="s">
         <v>35</v>
       </c>
@@ -17500,11 +17415,11 @@
       <c r="I54" s="8">
         <v>63</v>
       </c>
-      <c r="K54" s="83" t="s">
+      <c r="K54" s="85" t="s">
         <v>11</v>
       </c>
-      <c r="L54" s="83"/>
-      <c r="M54" s="83"/>
+      <c r="L54" s="85"/>
+      <c r="M54" s="85"/>
       <c r="O54" t="s">
         <v>33</v>
       </c>
@@ -17534,11 +17449,11 @@
       <c r="I55" s="9">
         <v>55</v>
       </c>
-      <c r="K55" s="83" t="s">
+      <c r="K55" s="85" t="s">
         <v>12</v>
       </c>
-      <c r="L55" s="83"/>
-      <c r="M55" s="83"/>
+      <c r="L55" s="85"/>
+      <c r="M55" s="85"/>
       <c r="O55" t="s">
         <v>33</v>
       </c>
@@ -17568,11 +17483,11 @@
       <c r="I56" s="9">
         <v>47</v>
       </c>
-      <c r="K56" s="83" t="s">
+      <c r="K56" s="85" t="s">
         <v>27</v>
       </c>
-      <c r="L56" s="83"/>
-      <c r="M56" s="83"/>
+      <c r="L56" s="85"/>
+      <c r="M56" s="85"/>
       <c r="O56" t="s">
         <v>33</v>
       </c>
@@ -17602,11 +17517,11 @@
       <c r="I57" s="9">
         <v>39</v>
       </c>
-      <c r="K57" s="83" t="s">
+      <c r="K57" s="85" t="s">
         <v>28</v>
       </c>
-      <c r="L57" s="83"/>
-      <c r="M57" s="83"/>
+      <c r="L57" s="85"/>
+      <c r="M57" s="85"/>
       <c r="O57" t="s">
         <v>33</v>
       </c>
@@ -17636,9 +17551,9 @@
       <c r="I58" s="9">
         <v>31</v>
       </c>
-      <c r="K58" s="83"/>
-      <c r="L58" s="83"/>
-      <c r="M58" s="83"/>
+      <c r="K58" s="85"/>
+      <c r="L58" s="85"/>
+      <c r="M58" s="85"/>
       <c r="O58" t="s">
         <v>33</v>
       </c>
@@ -17668,9 +17583,9 @@
       <c r="I59" s="9">
         <v>23</v>
       </c>
-      <c r="K59" s="83"/>
-      <c r="L59" s="83"/>
-      <c r="M59" s="83"/>
+      <c r="K59" s="85"/>
+      <c r="L59" s="85"/>
+      <c r="M59" s="85"/>
       <c r="O59" t="s">
         <v>33</v>
       </c>
@@ -17787,11 +17702,11 @@
       <c r="I66" s="8">
         <v>95</v>
       </c>
-      <c r="K66" s="84" t="s">
+      <c r="K66" s="86" t="s">
         <v>7</v>
       </c>
-      <c r="L66" s="85"/>
-      <c r="M66" s="86"/>
+      <c r="L66" s="87"/>
+      <c r="M66" s="88"/>
       <c r="O66" t="s">
         <v>38</v>
       </c>
@@ -17926,11 +17841,11 @@
       <c r="I70" s="9">
         <v>63</v>
       </c>
-      <c r="K70" s="83" t="s">
+      <c r="K70" s="85" t="s">
         <v>11</v>
       </c>
-      <c r="L70" s="83"/>
-      <c r="M70" s="83"/>
+      <c r="L70" s="85"/>
+      <c r="M70" s="85"/>
       <c r="O70" t="s">
         <v>36</v>
       </c>
@@ -17960,11 +17875,11 @@
       <c r="I71" s="9">
         <v>55</v>
       </c>
-      <c r="K71" s="83" t="s">
+      <c r="K71" s="85" t="s">
         <v>12</v>
       </c>
-      <c r="L71" s="83"/>
-      <c r="M71" s="83"/>
+      <c r="L71" s="85"/>
+      <c r="M71" s="85"/>
       <c r="O71" t="s">
         <v>36</v>
       </c>
@@ -17994,11 +17909,11 @@
       <c r="I72" s="9">
         <v>47</v>
       </c>
-      <c r="K72" s="83" t="s">
+      <c r="K72" s="85" t="s">
         <v>27</v>
       </c>
-      <c r="L72" s="83"/>
-      <c r="M72" s="83"/>
+      <c r="L72" s="85"/>
+      <c r="M72" s="85"/>
       <c r="O72" t="s">
         <v>36</v>
       </c>
@@ -18028,11 +17943,11 @@
       <c r="I73" s="9">
         <v>39</v>
       </c>
-      <c r="K73" s="83" t="s">
+      <c r="K73" s="85" t="s">
         <v>28</v>
       </c>
-      <c r="L73" s="83"/>
-      <c r="M73" s="83"/>
+      <c r="L73" s="85"/>
+      <c r="M73" s="85"/>
       <c r="O73" t="s">
         <v>36</v>
       </c>
@@ -18062,9 +17977,9 @@
       <c r="I74" s="9">
         <v>31</v>
       </c>
-      <c r="K74" s="83"/>
-      <c r="L74" s="83"/>
-      <c r="M74" s="83"/>
+      <c r="K74" s="85"/>
+      <c r="L74" s="85"/>
+      <c r="M74" s="85"/>
       <c r="O74" t="s">
         <v>36</v>
       </c>
@@ -18094,9 +18009,9 @@
       <c r="I75" s="9">
         <v>23</v>
       </c>
-      <c r="K75" s="83"/>
-      <c r="L75" s="83"/>
-      <c r="M75" s="83"/>
+      <c r="K75" s="85"/>
+      <c r="L75" s="85"/>
+      <c r="M75" s="85"/>
       <c r="O75" t="s">
         <v>36</v>
       </c>
@@ -18213,11 +18128,11 @@
       <c r="I82" s="8">
         <v>95</v>
       </c>
-      <c r="K82" s="84" t="s">
+      <c r="K82" s="86" t="s">
         <v>7</v>
       </c>
-      <c r="L82" s="85"/>
-      <c r="M82" s="86"/>
+      <c r="L82" s="87"/>
+      <c r="M82" s="88"/>
       <c r="O82" t="s">
         <v>40</v>
       </c>
@@ -18352,11 +18267,11 @@
       <c r="I86" s="8">
         <v>63</v>
       </c>
-      <c r="K86" s="83" t="s">
+      <c r="K86" s="85" t="s">
         <v>11</v>
       </c>
-      <c r="L86" s="83"/>
-      <c r="M86" s="83"/>
+      <c r="L86" s="85"/>
+      <c r="M86" s="85"/>
       <c r="O86" t="s">
         <v>39</v>
       </c>
@@ -18386,11 +18301,11 @@
       <c r="I87" s="8">
         <v>55</v>
       </c>
-      <c r="K87" s="83" t="s">
+      <c r="K87" s="85" t="s">
         <v>12</v>
       </c>
-      <c r="L87" s="83"/>
-      <c r="M87" s="83"/>
+      <c r="L87" s="85"/>
+      <c r="M87" s="85"/>
       <c r="O87" t="s">
         <v>39</v>
       </c>
@@ -18420,11 +18335,11 @@
       <c r="I88" s="1">
         <v>47</v>
       </c>
-      <c r="K88" s="83" t="s">
+      <c r="K88" s="85" t="s">
         <v>27</v>
       </c>
-      <c r="L88" s="83"/>
-      <c r="M88" s="83"/>
+      <c r="L88" s="85"/>
+      <c r="M88" s="85"/>
       <c r="O88" t="s">
         <v>39</v>
       </c>
@@ -18454,11 +18369,11 @@
       <c r="I89" s="8">
         <v>39</v>
       </c>
-      <c r="K89" s="83" t="s">
+      <c r="K89" s="85" t="s">
         <v>28</v>
       </c>
-      <c r="L89" s="83"/>
-      <c r="M89" s="83"/>
+      <c r="L89" s="85"/>
+      <c r="M89" s="85"/>
       <c r="O89" t="s">
         <v>39</v>
       </c>
@@ -18488,9 +18403,9 @@
       <c r="I90" s="1">
         <v>31</v>
       </c>
-      <c r="K90" s="83"/>
-      <c r="L90" s="83"/>
-      <c r="M90" s="83"/>
+      <c r="K90" s="85"/>
+      <c r="L90" s="85"/>
+      <c r="M90" s="85"/>
       <c r="O90" t="s">
         <v>39</v>
       </c>
@@ -18520,9 +18435,9 @@
       <c r="I91" s="8">
         <v>23</v>
       </c>
-      <c r="K91" s="83"/>
-      <c r="L91" s="83"/>
-      <c r="M91" s="83"/>
+      <c r="K91" s="85"/>
+      <c r="L91" s="85"/>
+      <c r="M91" s="85"/>
       <c r="O91" t="s">
         <v>39</v>
       </c>
@@ -18639,11 +18554,11 @@
       <c r="I98" s="8">
         <v>95</v>
       </c>
-      <c r="K98" s="84" t="s">
+      <c r="K98" s="86" t="s">
         <v>7</v>
       </c>
-      <c r="L98" s="85"/>
-      <c r="M98" s="86"/>
+      <c r="L98" s="87"/>
+      <c r="M98" s="88"/>
       <c r="O98" t="s">
         <v>115</v>
       </c>
@@ -18778,11 +18693,11 @@
       <c r="I102" s="8">
         <v>63</v>
       </c>
-      <c r="K102" s="83" t="s">
+      <c r="K102" s="85" t="s">
         <v>11</v>
       </c>
-      <c r="L102" s="83"/>
-      <c r="M102" s="83"/>
+      <c r="L102" s="85"/>
+      <c r="M102" s="85"/>
       <c r="O102" t="s">
         <v>113</v>
       </c>
@@ -18812,11 +18727,11 @@
       <c r="I103" s="1">
         <v>55</v>
       </c>
-      <c r="K103" s="83" t="s">
+      <c r="K103" s="85" t="s">
         <v>12</v>
       </c>
-      <c r="L103" s="83"/>
-      <c r="M103" s="83"/>
+      <c r="L103" s="85"/>
+      <c r="M103" s="85"/>
       <c r="O103" t="s">
         <v>113</v>
       </c>
@@ -18846,11 +18761,11 @@
       <c r="I104" s="8">
         <v>47</v>
       </c>
-      <c r="K104" s="83" t="s">
+      <c r="K104" s="85" t="s">
         <v>27</v>
       </c>
-      <c r="L104" s="83"/>
-      <c r="M104" s="83"/>
+      <c r="L104" s="85"/>
+      <c r="M104" s="85"/>
       <c r="O104" t="s">
         <v>113</v>
       </c>
@@ -18880,11 +18795,11 @@
       <c r="I105" s="1">
         <v>39</v>
       </c>
-      <c r="K105" s="83" t="s">
+      <c r="K105" s="85" t="s">
         <v>28</v>
       </c>
-      <c r="L105" s="83"/>
-      <c r="M105" s="83"/>
+      <c r="L105" s="85"/>
+      <c r="M105" s="85"/>
       <c r="O105" t="s">
         <v>113</v>
       </c>
@@ -18914,9 +18829,9 @@
       <c r="I106" s="1">
         <v>31</v>
       </c>
-      <c r="K106" s="83"/>
-      <c r="L106" s="83"/>
-      <c r="M106" s="83"/>
+      <c r="K106" s="85"/>
+      <c r="L106" s="85"/>
+      <c r="M106" s="85"/>
       <c r="O106" t="s">
         <v>113</v>
       </c>
@@ -18946,9 +18861,9 @@
       <c r="I107" s="1">
         <v>23</v>
       </c>
-      <c r="K107" s="83"/>
-      <c r="L107" s="83"/>
-      <c r="M107" s="83"/>
+      <c r="K107" s="85"/>
+      <c r="L107" s="85"/>
+      <c r="M107" s="85"/>
       <c r="O107" t="s">
         <v>113</v>
       </c>
@@ -19065,11 +18980,11 @@
       <c r="I114" s="1">
         <v>95</v>
       </c>
-      <c r="K114" s="84" t="s">
+      <c r="K114" s="86" t="s">
         <v>7</v>
       </c>
-      <c r="L114" s="85"/>
-      <c r="M114" s="86"/>
+      <c r="L114" s="87"/>
+      <c r="M114" s="88"/>
       <c r="O114" t="s">
         <v>116</v>
       </c>
@@ -19204,11 +19119,11 @@
       <c r="I118" s="1">
         <v>63</v>
       </c>
-      <c r="K118" s="83" t="s">
+      <c r="K118" s="85" t="s">
         <v>11</v>
       </c>
-      <c r="L118" s="83"/>
-      <c r="M118" s="83"/>
+      <c r="L118" s="85"/>
+      <c r="M118" s="85"/>
       <c r="O118" t="s">
         <v>116</v>
       </c>
@@ -19238,11 +19153,11 @@
       <c r="I119" s="1">
         <v>55</v>
       </c>
-      <c r="K119" s="83" t="s">
+      <c r="K119" s="85" t="s">
         <v>12</v>
       </c>
-      <c r="L119" s="83"/>
-      <c r="M119" s="83"/>
+      <c r="L119" s="85"/>
+      <c r="M119" s="85"/>
       <c r="O119" t="s">
         <v>116</v>
       </c>
@@ -19272,11 +19187,11 @@
       <c r="I120" s="1">
         <v>47</v>
       </c>
-      <c r="K120" s="83" t="s">
+      <c r="K120" s="85" t="s">
         <v>27</v>
       </c>
-      <c r="L120" s="83"/>
-      <c r="M120" s="83"/>
+      <c r="L120" s="85"/>
+      <c r="M120" s="85"/>
       <c r="O120" t="s">
         <v>116</v>
       </c>
@@ -19306,11 +19221,11 @@
       <c r="I121" s="8">
         <v>39</v>
       </c>
-      <c r="K121" s="83" t="s">
+      <c r="K121" s="85" t="s">
         <v>28</v>
       </c>
-      <c r="L121" s="83"/>
-      <c r="M121" s="83"/>
+      <c r="L121" s="85"/>
+      <c r="M121" s="85"/>
       <c r="O121" t="s">
         <v>116</v>
       </c>
@@ -19340,9 +19255,9 @@
       <c r="I122" s="1">
         <v>31</v>
       </c>
-      <c r="K122" s="83"/>
-      <c r="L122" s="83"/>
-      <c r="M122" s="83"/>
+      <c r="K122" s="85"/>
+      <c r="L122" s="85"/>
+      <c r="M122" s="85"/>
       <c r="O122" t="s">
         <v>116</v>
       </c>
@@ -19372,9 +19287,9 @@
       <c r="I123" s="8">
         <v>23</v>
       </c>
-      <c r="K123" s="83"/>
-      <c r="L123" s="83"/>
-      <c r="M123" s="83"/>
+      <c r="K123" s="85"/>
+      <c r="L123" s="85"/>
+      <c r="M123" s="85"/>
       <c r="O123" t="s">
         <v>116</v>
       </c>
@@ -19491,11 +19406,11 @@
       <c r="I130" s="8">
         <v>95</v>
       </c>
-      <c r="K130" s="84" t="s">
+      <c r="K130" s="86" t="s">
         <v>7</v>
       </c>
-      <c r="L130" s="85"/>
-      <c r="M130" s="86"/>
+      <c r="L130" s="87"/>
+      <c r="M130" s="88"/>
       <c r="O130" t="s">
         <v>119</v>
       </c>
@@ -19630,11 +19545,11 @@
       <c r="I134" s="1">
         <v>63</v>
       </c>
-      <c r="K134" s="83" t="s">
+      <c r="K134" s="85" t="s">
         <v>11</v>
       </c>
-      <c r="L134" s="83"/>
-      <c r="M134" s="83"/>
+      <c r="L134" s="85"/>
+      <c r="M134" s="85"/>
       <c r="O134" t="s">
         <v>119</v>
       </c>
@@ -19664,11 +19579,11 @@
       <c r="I135" s="1">
         <v>55</v>
       </c>
-      <c r="K135" s="83" t="s">
+      <c r="K135" s="85" t="s">
         <v>12</v>
       </c>
-      <c r="L135" s="83"/>
-      <c r="M135" s="83"/>
+      <c r="L135" s="85"/>
+      <c r="M135" s="85"/>
       <c r="O135" t="s">
         <v>119</v>
       </c>
@@ -19698,11 +19613,11 @@
       <c r="I136" s="1">
         <v>47</v>
       </c>
-      <c r="K136" s="83" t="s">
+      <c r="K136" s="85" t="s">
         <v>27</v>
       </c>
-      <c r="L136" s="83"/>
-      <c r="M136" s="83"/>
+      <c r="L136" s="85"/>
+      <c r="M136" s="85"/>
       <c r="O136" t="s">
         <v>119</v>
       </c>
@@ -19732,11 +19647,11 @@
       <c r="I137" s="1">
         <v>39</v>
       </c>
-      <c r="K137" s="83" t="s">
+      <c r="K137" s="85" t="s">
         <v>28</v>
       </c>
-      <c r="L137" s="83"/>
-      <c r="M137" s="83"/>
+      <c r="L137" s="85"/>
+      <c r="M137" s="85"/>
       <c r="O137" t="s">
         <v>119</v>
       </c>
@@ -19766,9 +19681,9 @@
       <c r="I138" s="1">
         <v>31</v>
       </c>
-      <c r="K138" s="83"/>
-      <c r="L138" s="83"/>
-      <c r="M138" s="83"/>
+      <c r="K138" s="85"/>
+      <c r="L138" s="85"/>
+      <c r="M138" s="85"/>
       <c r="O138" t="s">
         <v>119</v>
       </c>
@@ -19798,9 +19713,9 @@
       <c r="I139" s="8">
         <v>23</v>
       </c>
-      <c r="K139" s="83"/>
-      <c r="L139" s="83"/>
-      <c r="M139" s="83"/>
+      <c r="K139" s="85"/>
+      <c r="L139" s="85"/>
+      <c r="M139" s="85"/>
       <c r="O139" t="s">
         <v>119</v>
       </c>
@@ -19917,11 +19832,11 @@
       <c r="I146" s="1">
         <v>95</v>
       </c>
-      <c r="K146" s="84" t="s">
+      <c r="K146" s="86" t="s">
         <v>7</v>
       </c>
-      <c r="L146" s="85"/>
-      <c r="M146" s="86"/>
+      <c r="L146" s="87"/>
+      <c r="M146" s="88"/>
       <c r="O146" t="s">
         <v>122</v>
       </c>
@@ -20056,11 +19971,11 @@
       <c r="I150" s="3">
         <v>63</v>
       </c>
-      <c r="K150" s="83" t="s">
+      <c r="K150" s="85" t="s">
         <v>11</v>
       </c>
-      <c r="L150" s="83"/>
-      <c r="M150" s="83"/>
+      <c r="L150" s="85"/>
+      <c r="M150" s="85"/>
       <c r="O150" t="s">
         <v>122</v>
       </c>
@@ -20090,11 +20005,11 @@
       <c r="I151" s="3">
         <v>55</v>
       </c>
-      <c r="K151" s="83" t="s">
+      <c r="K151" s="85" t="s">
         <v>12</v>
       </c>
-      <c r="L151" s="83"/>
-      <c r="M151" s="83"/>
+      <c r="L151" s="85"/>
+      <c r="M151" s="85"/>
       <c r="O151" t="s">
         <v>122</v>
       </c>
@@ -20124,11 +20039,11 @@
       <c r="I152" s="8">
         <v>47</v>
       </c>
-      <c r="K152" s="83" t="s">
+      <c r="K152" s="85" t="s">
         <v>27</v>
       </c>
-      <c r="L152" s="83"/>
-      <c r="M152" s="83"/>
+      <c r="L152" s="85"/>
+      <c r="M152" s="85"/>
       <c r="O152" t="s">
         <v>122</v>
       </c>
@@ -20158,11 +20073,11 @@
       <c r="I153" s="8">
         <v>39</v>
       </c>
-      <c r="K153" s="83" t="s">
+      <c r="K153" s="85" t="s">
         <v>28</v>
       </c>
-      <c r="L153" s="83"/>
-      <c r="M153" s="83"/>
+      <c r="L153" s="85"/>
+      <c r="M153" s="85"/>
       <c r="O153" t="s">
         <v>122</v>
       </c>
@@ -20192,9 +20107,9 @@
       <c r="I154" s="3">
         <v>31</v>
       </c>
-      <c r="K154" s="83"/>
-      <c r="L154" s="83"/>
-      <c r="M154" s="83"/>
+      <c r="K154" s="85"/>
+      <c r="L154" s="85"/>
+      <c r="M154" s="85"/>
       <c r="O154" t="s">
         <v>122</v>
       </c>
@@ -20224,9 +20139,9 @@
       <c r="I155" s="3">
         <v>23</v>
       </c>
-      <c r="K155" s="83"/>
-      <c r="L155" s="83"/>
-      <c r="M155" s="83"/>
+      <c r="K155" s="85"/>
+      <c r="L155" s="85"/>
+      <c r="M155" s="85"/>
       <c r="O155" t="s">
         <v>122</v>
       </c>
@@ -20364,11 +20279,11 @@
       <c r="I165" s="9">
         <v>95</v>
       </c>
-      <c r="K165" s="84" t="s">
+      <c r="K165" s="86" t="s">
         <v>7</v>
       </c>
-      <c r="L165" s="85"/>
-      <c r="M165" s="86"/>
+      <c r="L165" s="87"/>
+      <c r="M165" s="88"/>
       <c r="O165" t="s">
         <v>122</v>
       </c>
@@ -20503,11 +20418,11 @@
       <c r="I169" s="9">
         <v>63</v>
       </c>
-      <c r="K169" s="83" t="s">
+      <c r="K169" s="85" t="s">
         <v>11</v>
       </c>
-      <c r="L169" s="83"/>
-      <c r="M169" s="83"/>
+      <c r="L169" s="85"/>
+      <c r="M169" s="85"/>
       <c r="O169" t="s">
         <v>122</v>
       </c>
@@ -20537,11 +20452,11 @@
       <c r="I170" s="9">
         <v>55</v>
       </c>
-      <c r="K170" s="83" t="s">
+      <c r="K170" s="85" t="s">
         <v>12</v>
       </c>
-      <c r="L170" s="83"/>
-      <c r="M170" s="83"/>
+      <c r="L170" s="85"/>
+      <c r="M170" s="85"/>
       <c r="O170" t="s">
         <v>122</v>
       </c>
@@ -20571,11 +20486,11 @@
       <c r="I171" s="9">
         <v>47</v>
       </c>
-      <c r="K171" s="83" t="s">
+      <c r="K171" s="85" t="s">
         <v>27</v>
       </c>
-      <c r="L171" s="83"/>
-      <c r="M171" s="83"/>
+      <c r="L171" s="85"/>
+      <c r="M171" s="85"/>
       <c r="O171" t="s">
         <v>122</v>
       </c>
@@ -20605,11 +20520,11 @@
       <c r="I172" s="9">
         <v>39</v>
       </c>
-      <c r="K172" s="83" t="s">
+      <c r="K172" s="85" t="s">
         <v>28</v>
       </c>
-      <c r="L172" s="83"/>
-      <c r="M172" s="83"/>
+      <c r="L172" s="85"/>
+      <c r="M172" s="85"/>
       <c r="O172" t="s">
         <v>122</v>
       </c>
@@ -20639,9 +20554,9 @@
       <c r="I173" s="9">
         <v>31</v>
       </c>
-      <c r="K173" s="83"/>
-      <c r="L173" s="83"/>
-      <c r="M173" s="83"/>
+      <c r="K173" s="85"/>
+      <c r="L173" s="85"/>
+      <c r="M173" s="85"/>
       <c r="O173" t="s">
         <v>122</v>
       </c>
@@ -20671,9 +20586,9 @@
       <c r="I174" s="9">
         <v>23</v>
       </c>
-      <c r="K174" s="83"/>
-      <c r="L174" s="83"/>
-      <c r="M174" s="83"/>
+      <c r="K174" s="85"/>
+      <c r="L174" s="85"/>
+      <c r="M174" s="85"/>
       <c r="O174" t="s">
         <v>122</v>
       </c>
@@ -20835,7 +20750,7 @@
     <mergeCell ref="K73:M73"/>
     <mergeCell ref="K70:M70"/>
   </mergeCells>
-  <phoneticPr fontId="16" type="noConversion"/>
+  <phoneticPr fontId="17" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
   <drawing r:id="rId2"/>
@@ -20928,12 +20843,12 @@
       <c r="O1" s="29" t="s">
         <v>72</v>
       </c>
-      <c r="R1" s="88"/>
-      <c r="S1" s="88"/>
-      <c r="T1" s="88"/>
-      <c r="U1" s="88"/>
-      <c r="V1" s="89"/>
-      <c r="W1" s="89"/>
+      <c r="R1" s="90"/>
+      <c r="S1" s="90"/>
+      <c r="T1" s="90"/>
+      <c r="U1" s="90"/>
+      <c r="V1" s="91"/>
+      <c r="W1" s="91"/>
       <c r="X1" s="32"/>
       <c r="Z1" s="30"/>
       <c r="AA1" s="30"/>
@@ -21795,14 +21710,14 @@
       </c>
       <c r="D17" s="74">
         <f>塔_属性!C17</f>
-        <v>99.759999999999991</v>
+        <v>98.76</v>
       </c>
       <c r="E17" s="29" t="s">
         <v>70</v>
       </c>
       <c r="F17" s="74">
         <f>塔_属性!D17</f>
-        <v>265.64</v>
+        <v>195.64</v>
       </c>
       <c r="G17" s="29" t="s">
         <v>70</v>
@@ -21816,21 +21731,21 @@
       </c>
       <c r="J17" s="29">
         <f>塔_属性!F17</f>
-        <v>221</v>
+        <v>211</v>
       </c>
       <c r="K17" s="29" t="s">
         <v>70</v>
       </c>
       <c r="L17" s="31">
         <f>塔_属性!G17</f>
-        <v>58.1</v>
+        <v>68.099999999999994</v>
       </c>
       <c r="M17" s="29" t="s">
         <v>70</v>
       </c>
       <c r="N17" s="31">
         <f>塔_属性!H17</f>
-        <v>34.4</v>
+        <v>44.4</v>
       </c>
       <c r="O17" s="29" t="s">
         <v>72</v>
@@ -21961,7 +21876,7 @@
       </c>
       <c r="F20" s="74">
         <f>塔_属性!D20</f>
-        <v>186.76</v>
+        <v>226.76</v>
       </c>
       <c r="G20" s="29" t="s">
         <v>70</v>
@@ -22219,7 +22134,7 @@
       </c>
       <c r="D25" s="74">
         <f>塔_属性!C25</f>
-        <v>125.27999999999999</v>
+        <v>125.28</v>
       </c>
       <c r="E25" s="29" t="s">
         <v>70</v>
@@ -22484,14 +22399,14 @@
       </c>
       <c r="D30" s="74">
         <f>塔_属性!C30</f>
-        <v>91.64</v>
+        <v>141.63999999999999</v>
       </c>
       <c r="E30" s="29" t="s">
         <v>70</v>
       </c>
       <c r="F30" s="74">
         <f>塔_属性!D30</f>
-        <v>248.23999999999998</v>
+        <v>298.24</v>
       </c>
       <c r="G30" s="29" t="s">
         <v>70</v>
@@ -22690,7 +22605,7 @@
     <mergeCell ref="T1:U1"/>
     <mergeCell ref="V1:W1"/>
   </mergeCells>
-  <phoneticPr fontId="16" type="noConversion"/>
+  <phoneticPr fontId="17" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="200" verticalDpi="200" r:id="rId1"/>
 </worksheet>
@@ -22701,7 +22616,7 @@
   <dimension ref="A1:Q11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="N16" sqref="N16"/>
+      <selection activeCell="J11" sqref="J11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -22798,7 +22713,7 @@
       </c>
       <c r="J2" s="33" t="str">
         <f>怪_属性!E2</f>
-        <v>35</v>
+        <v>20</v>
       </c>
       <c r="K2" s="48" t="s">
         <v>90</v>
@@ -22845,7 +22760,7 @@
       </c>
       <c r="J3" s="33" t="str">
         <f>怪_属性!E3</f>
-        <v>40</v>
+        <v>25</v>
       </c>
       <c r="K3" s="48" t="s">
         <v>70</v>
@@ -22892,7 +22807,7 @@
       </c>
       <c r="J4" s="33" t="str">
         <f>怪_属性!E4</f>
-        <v>50</v>
+        <v>30</v>
       </c>
       <c r="K4" s="48" t="s">
         <v>70</v>
@@ -22939,7 +22854,7 @@
       </c>
       <c r="J5" s="33" t="str">
         <f>怪_属性!E5</f>
-        <v>60</v>
+        <v>35</v>
       </c>
       <c r="K5" s="48" t="s">
         <v>70</v>
@@ -22986,7 +22901,7 @@
       </c>
       <c r="J6" s="33" t="str">
         <f>怪_属性!E6</f>
-        <v>75</v>
+        <v>40</v>
       </c>
       <c r="K6" s="48" t="s">
         <v>70</v>
@@ -23033,7 +22948,7 @@
       </c>
       <c r="J7" s="33" t="str">
         <f>怪_属性!E7</f>
-        <v>90</v>
+        <v>45</v>
       </c>
       <c r="K7" s="48" t="s">
         <v>70</v>
@@ -23080,7 +22995,7 @@
       </c>
       <c r="J8" s="33" t="str">
         <f>怪_属性!E8</f>
-        <v>110</v>
+        <v>50</v>
       </c>
       <c r="K8" s="48" t="s">
         <v>70</v>
@@ -23127,7 +23042,7 @@
       </c>
       <c r="J9" s="33" t="str">
         <f>怪_属性!E9</f>
-        <v>130</v>
+        <v>55</v>
       </c>
       <c r="K9" s="48" t="s">
         <v>70</v>
@@ -23174,7 +23089,7 @@
       </c>
       <c r="J10" s="33" t="str">
         <f>怪_属性!E10</f>
-        <v>150</v>
+        <v>60</v>
       </c>
       <c r="K10" s="48" t="s">
         <v>70</v>
@@ -23221,7 +23136,7 @@
       </c>
       <c r="J11" s="33" t="str">
         <f>怪_属性!E11</f>
-        <v>175</v>
+        <v>60</v>
       </c>
       <c r="K11" s="48" t="s">
         <v>70</v>
@@ -23235,7 +23150,7 @@
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="16" type="noConversion"/>
+  <phoneticPr fontId="17" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="200" verticalDpi="200" r:id="rId1"/>
 </worksheet>
@@ -23383,7 +23298,7 @@
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="16" type="noConversion"/>
+  <phoneticPr fontId="17" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>

--- a/_DESIGN_.xlsx
+++ b/_DESIGN_.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9302"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="-15" yWindow="-15" windowWidth="20520" windowHeight="3930" activeTab="1"/>
+    <workbookView xWindow="-15" yWindow="-15" windowWidth="20520" windowHeight="3930" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="游戏常数" sheetId="2" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="897" uniqueCount="233">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="897" uniqueCount="232">
   <si>
     <t>红色的格子表示敌人移动的路径点</t>
     <phoneticPr fontId="17" type="noConversion"/>
@@ -943,17 +943,6 @@
     <phoneticPr fontId="17" type="noConversion"/>
   </si>
   <si>
-    <t>2.6</t>
-  </si>
-  <si>
-    <t>2.6</t>
-    <phoneticPr fontId="17" type="noConversion"/>
-  </si>
-  <si>
-    <t>2.6</t>
-    <phoneticPr fontId="17" type="noConversion"/>
-  </si>
-  <si>
     <r>
       <t>L</t>
     </r>
@@ -1527,6 +1516,39 @@
     <t>20</t>
     <phoneticPr fontId="19" type="noConversion"/>
   </si>
+  <si>
+    <r>
+      <t>1</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="2"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>56.0</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>1</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="2"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>56.0</t>
+    </r>
+    <phoneticPr fontId="17" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
@@ -2083,9 +2105,6 @@
     <xf numFmtId="49" fontId="5" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="5" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1" applyFont="1">
       <alignment vertical="center"/>
     </xf>
@@ -2122,6 +2141,9 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -2129,9 +2151,6 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
@@ -2154,6 +2173,9 @@
     </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -2381,11 +2403,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="111778048"/>
-        <c:axId val="111788032"/>
+        <c:axId val="99924224"/>
+        <c:axId val="99934208"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="111778048"/>
+        <c:axId val="99924224"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2395,12 +2417,12 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="111788032"/>
+        <c:crossAx val="99934208"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="111788032"/>
+        <c:axId val="99934208"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2429,7 +2451,7 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="111778048"/>
+        <c:crossAx val="99924224"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -6224,7 +6246,7 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:9" x14ac:dyDescent="0.15">
-      <c r="B2" s="80" t="s">
+      <c r="B2" s="79" t="s">
         <v>13</v>
       </c>
       <c r="C2" s="36"/>
@@ -6248,7 +6270,7 @@
       </c>
     </row>
     <row r="3" spans="2:9" x14ac:dyDescent="0.15">
-      <c r="B3" s="80"/>
+      <c r="B3" s="79"/>
       <c r="C3" s="37" t="s">
         <v>131</v>
       </c>
@@ -6268,7 +6290,7 @@
       <c r="I3" s="1"/>
     </row>
     <row r="4" spans="2:9" x14ac:dyDescent="0.15">
-      <c r="B4" s="80"/>
+      <c r="B4" s="79"/>
       <c r="C4" s="37" t="s">
         <v>132</v>
       </c>
@@ -6288,7 +6310,7 @@
       <c r="I4" s="1"/>
     </row>
     <row r="5" spans="2:9" x14ac:dyDescent="0.15">
-      <c r="B5" s="80"/>
+      <c r="B5" s="79"/>
       <c r="C5" s="37" t="s">
         <v>133</v>
       </c>
@@ -6308,7 +6330,7 @@
       <c r="I5" s="1"/>
     </row>
     <row r="6" spans="2:9" x14ac:dyDescent="0.15">
-      <c r="B6" s="80"/>
+      <c r="B6" s="79"/>
       <c r="C6" s="50" t="s">
         <v>156</v>
       </c>
@@ -6320,7 +6342,7 @@
       <c r="I6" s="1"/>
     </row>
     <row r="7" spans="2:9" x14ac:dyDescent="0.15">
-      <c r="B7" s="80"/>
+      <c r="B7" s="79"/>
       <c r="C7" s="36"/>
       <c r="D7" s="36"/>
       <c r="E7" s="36"/>
@@ -6330,7 +6352,7 @@
       <c r="I7" s="1"/>
     </row>
     <row r="8" spans="2:9" x14ac:dyDescent="0.15">
-      <c r="B8" s="80"/>
+      <c r="B8" s="79"/>
       <c r="C8" s="51"/>
       <c r="D8" s="51"/>
       <c r="E8" s="51"/>
@@ -6340,7 +6362,7 @@
       <c r="I8" s="1"/>
     </row>
     <row r="9" spans="2:9" x14ac:dyDescent="0.15">
-      <c r="B9" s="80"/>
+      <c r="B9" s="79"/>
       <c r="C9" s="51"/>
       <c r="D9" s="51"/>
       <c r="E9" s="51"/>
@@ -6350,7 +6372,7 @@
       <c r="I9" s="1"/>
     </row>
     <row r="10" spans="2:9" x14ac:dyDescent="0.15">
-      <c r="B10" s="80"/>
+      <c r="B10" s="79"/>
       <c r="C10" s="51" t="s">
         <v>3</v>
       </c>
@@ -6366,7 +6388,7 @@
       <c r="I10" s="1"/>
     </row>
     <row r="11" spans="2:9" x14ac:dyDescent="0.15">
-      <c r="B11" s="80"/>
+      <c r="B11" s="79"/>
       <c r="C11" s="51" t="s">
         <v>157</v>
       </c>
@@ -6382,7 +6404,7 @@
       <c r="I11" s="1"/>
     </row>
     <row r="12" spans="2:9" x14ac:dyDescent="0.15">
-      <c r="B12" s="80"/>
+      <c r="B12" s="79"/>
       <c r="C12" s="51" t="s">
         <v>4</v>
       </c>
@@ -7040,7 +7062,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:X49"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+    <sheetView topLeftCell="A10" workbookViewId="0">
       <selection activeCell="F18" sqref="F18"/>
     </sheetView>
   </sheetViews>
@@ -7120,28 +7142,28 @@
       </c>
     </row>
     <row r="2" spans="1:24" x14ac:dyDescent="0.15">
-      <c r="A2" s="78" t="s">
-        <v>191</v>
+      <c r="A2" s="77" t="s">
+        <v>188</v>
       </c>
       <c r="B2" s="29">
         <v>0</v>
       </c>
-      <c r="C2" s="76">
+      <c r="C2" s="75">
         <v>67</v>
       </c>
-      <c r="D2" s="76">
+      <c r="D2" s="75">
         <v>232</v>
       </c>
-      <c r="E2" s="70">
+      <c r="E2" s="69">
         <v>145</v>
       </c>
-      <c r="F2" s="70">
+      <c r="F2" s="69">
         <v>272</v>
       </c>
-      <c r="G2" s="71">
+      <c r="G2" s="70">
         <v>48.4</v>
       </c>
-      <c r="H2" s="71">
+      <c r="H2" s="70">
         <v>21.78</v>
       </c>
       <c r="I2">
@@ -7191,28 +7213,28 @@
       <c r="X2" s="38"/>
     </row>
     <row r="3" spans="1:24" x14ac:dyDescent="0.15">
-      <c r="A3" s="78" t="s">
-        <v>190</v>
+      <c r="A3" s="77" t="s">
+        <v>187</v>
       </c>
       <c r="B3" s="29">
         <v>1</v>
       </c>
-      <c r="C3" s="76">
+      <c r="C3" s="75">
         <v>52</v>
       </c>
-      <c r="D3" s="76">
+      <c r="D3" s="75">
         <v>185</v>
       </c>
-      <c r="E3" s="70">
+      <c r="E3" s="69">
         <v>166</v>
       </c>
-      <c r="F3" s="70">
+      <c r="F3" s="69">
         <v>274</v>
       </c>
-      <c r="G3" s="71">
+      <c r="G3" s="70">
         <v>60</v>
       </c>
-      <c r="H3" s="71">
+      <c r="H3" s="70">
         <v>21.25</v>
       </c>
       <c r="I3">
@@ -7261,31 +7283,31 @@
         <f t="shared" si="5"/>
         <v>15.58071198822439</v>
       </c>
-      <c r="X3" s="73"/>
+      <c r="X3" s="72"/>
     </row>
     <row r="4" spans="1:24" x14ac:dyDescent="0.15">
-      <c r="A4" s="78" t="s">
-        <v>192</v>
+      <c r="A4" s="77" t="s">
+        <v>189</v>
       </c>
       <c r="B4" s="29">
         <v>2</v>
       </c>
-      <c r="C4" s="76">
+      <c r="C4" s="75">
         <v>46</v>
       </c>
-      <c r="D4" s="76">
+      <c r="D4" s="75">
         <v>159</v>
       </c>
-      <c r="E4" s="70">
+      <c r="E4" s="69">
         <v>146</v>
       </c>
-      <c r="F4" s="70">
+      <c r="F4" s="69">
         <v>191</v>
       </c>
-      <c r="G4" s="71">
+      <c r="G4" s="70">
         <v>51</v>
       </c>
-      <c r="H4" s="71">
+      <c r="H4" s="70">
         <v>23.5</v>
       </c>
       <c r="I4">
@@ -7334,31 +7356,31 @@
         <f t="shared" si="5"/>
         <v>8.8134591258727983</v>
       </c>
-      <c r="X4" s="73"/>
+      <c r="X4" s="72"/>
     </row>
     <row r="5" spans="1:24" x14ac:dyDescent="0.15">
-      <c r="A5" s="78" t="s">
-        <v>193</v>
+      <c r="A5" s="77" t="s">
+        <v>190</v>
       </c>
       <c r="B5" s="29">
         <v>3</v>
       </c>
-      <c r="C5" s="76">
+      <c r="C5" s="75">
         <v>52</v>
       </c>
-      <c r="D5" s="76">
+      <c r="D5" s="75">
         <v>206</v>
       </c>
-      <c r="E5" s="70">
+      <c r="E5" s="69">
         <v>139</v>
       </c>
-      <c r="F5" s="70">
+      <c r="F5" s="69">
         <v>201</v>
       </c>
-      <c r="G5" s="71">
+      <c r="G5" s="70">
         <v>64.2</v>
       </c>
-      <c r="H5" s="71">
+      <c r="H5" s="70">
         <v>21.87</v>
       </c>
       <c r="I5">
@@ -7405,31 +7427,31 @@
         <f t="shared" si="5"/>
         <v>15.81633610490525</v>
       </c>
-      <c r="X5" s="73"/>
+      <c r="X5" s="72"/>
     </row>
     <row r="6" spans="1:24" x14ac:dyDescent="0.15">
-      <c r="A6" s="78" t="s">
-        <v>194</v>
+      <c r="A6" s="77" t="s">
+        <v>191</v>
       </c>
       <c r="B6" s="29">
         <v>4</v>
       </c>
-      <c r="C6" s="76">
+      <c r="C6" s="75">
         <v>50</v>
       </c>
-      <c r="D6" s="76">
+      <c r="D6" s="75">
         <v>160</v>
       </c>
-      <c r="E6" s="70">
+      <c r="E6" s="69">
         <v>132</v>
       </c>
-      <c r="F6" s="70">
+      <c r="F6" s="69">
         <v>218</v>
       </c>
-      <c r="G6" s="71">
+      <c r="G6" s="70">
         <v>58.7</v>
       </c>
-      <c r="H6" s="71">
+      <c r="H6" s="70">
         <v>29.4</v>
       </c>
       <c r="I6">
@@ -7478,31 +7500,31 @@
         <f t="shared" si="5"/>
         <v>5.9111228777644165</v>
       </c>
-      <c r="X6" s="73"/>
+      <c r="X6" s="72"/>
     </row>
     <row r="7" spans="1:24" x14ac:dyDescent="0.15">
-      <c r="A7" s="78" t="s">
-        <v>195</v>
+      <c r="A7" s="77" t="s">
+        <v>192</v>
       </c>
       <c r="B7" s="29">
         <v>5</v>
       </c>
-      <c r="C7" s="76">
+      <c r="C7" s="75">
         <v>88</v>
       </c>
-      <c r="D7" s="76">
+      <c r="D7" s="75">
         <v>292</v>
       </c>
-      <c r="E7" s="70">
+      <c r="E7" s="69">
         <v>218</v>
       </c>
-      <c r="F7" s="70">
+      <c r="F7" s="69">
         <v>326</v>
       </c>
-      <c r="G7" s="71">
+      <c r="G7" s="70">
         <v>88.3</v>
       </c>
-      <c r="H7" s="71">
+      <c r="H7" s="70">
         <v>34.99</v>
       </c>
       <c r="I7">
@@ -7551,31 +7573,31 @@
         <f t="shared" si="5"/>
         <v>11.522125349289595</v>
       </c>
-      <c r="X7" s="73"/>
+      <c r="X7" s="72"/>
     </row>
     <row r="8" spans="1:24" x14ac:dyDescent="0.15">
-      <c r="A8" s="78" t="s">
-        <v>196</v>
+      <c r="A8" s="77" t="s">
+        <v>193</v>
       </c>
       <c r="B8" s="29">
         <v>6</v>
       </c>
-      <c r="C8" s="76">
+      <c r="C8" s="75">
         <v>119</v>
       </c>
-      <c r="D8" s="76">
+      <c r="D8" s="75">
         <v>410</v>
       </c>
-      <c r="E8" s="70">
+      <c r="E8" s="69">
         <v>130</v>
       </c>
-      <c r="F8" s="70">
+      <c r="F8" s="69">
         <v>261</v>
       </c>
-      <c r="G8" s="71">
+      <c r="G8" s="70">
         <v>80.8</v>
       </c>
-      <c r="H8" s="71">
+      <c r="H8" s="70">
         <v>34.54</v>
       </c>
       <c r="I8">
@@ -7622,31 +7644,31 @@
         <f t="shared" si="5"/>
         <v>15.181660228119576</v>
       </c>
-      <c r="X8" s="73"/>
+      <c r="X8" s="72"/>
     </row>
     <row r="9" spans="1:24" x14ac:dyDescent="0.15">
-      <c r="A9" s="78" t="s">
-        <v>197</v>
+      <c r="A9" s="77" t="s">
+        <v>194</v>
       </c>
       <c r="B9" s="29">
         <v>7</v>
       </c>
-      <c r="C9" s="77">
+      <c r="C9" s="76">
         <v>42</v>
       </c>
-      <c r="D9" s="77">
+      <c r="D9" s="76">
         <v>159</v>
       </c>
-      <c r="E9" s="70">
+      <c r="E9" s="69">
         <v>132</v>
       </c>
-      <c r="F9" s="70">
+      <c r="F9" s="69">
         <v>215</v>
       </c>
-      <c r="G9" s="71">
+      <c r="G9" s="70">
         <v>51.6</v>
       </c>
-      <c r="H9" s="71">
+      <c r="H9" s="70">
         <v>18.100000000000001</v>
       </c>
       <c r="I9">
@@ -7693,31 +7715,31 @@
         <f t="shared" si="5"/>
         <v>16.57856784099878</v>
       </c>
-      <c r="X9" s="73"/>
+      <c r="X9" s="72"/>
     </row>
     <row r="10" spans="1:24" x14ac:dyDescent="0.15">
-      <c r="A10" s="78" t="s">
-        <v>198</v>
+      <c r="A10" s="77" t="s">
+        <v>195</v>
       </c>
       <c r="B10" s="29">
         <v>8</v>
       </c>
-      <c r="C10" s="77">
+      <c r="C10" s="76">
         <v>39</v>
       </c>
-      <c r="D10" s="77">
+      <c r="D10" s="76">
         <v>127</v>
       </c>
-      <c r="E10" s="70">
+      <c r="E10" s="69">
         <v>149</v>
       </c>
-      <c r="F10" s="70">
+      <c r="F10" s="69">
         <v>191</v>
       </c>
-      <c r="G10" s="71">
+      <c r="G10" s="70">
         <v>45.7</v>
       </c>
-      <c r="H10" s="71">
+      <c r="H10" s="70">
         <v>19.399999999999999</v>
       </c>
       <c r="I10">
@@ -7764,31 +7786,31 @@
         <f t="shared" si="5"/>
         <v>8.8333315592362176</v>
       </c>
-      <c r="X10" s="73"/>
+      <c r="X10" s="72"/>
     </row>
     <row r="11" spans="1:24" x14ac:dyDescent="0.15">
-      <c r="A11" s="78" t="s">
-        <v>199</v>
+      <c r="A11" s="77" t="s">
+        <v>196</v>
       </c>
       <c r="B11" s="29">
         <v>9</v>
       </c>
-      <c r="C11" s="77">
+      <c r="C11" s="76">
         <v>44</v>
       </c>
-      <c r="D11" s="77">
+      <c r="D11" s="76">
         <v>142</v>
       </c>
-      <c r="E11" s="70">
+      <c r="E11" s="69">
         <v>189</v>
       </c>
-      <c r="F11" s="70">
+      <c r="F11" s="69">
         <v>305</v>
       </c>
-      <c r="G11" s="71">
+      <c r="G11" s="70">
         <v>99.2</v>
       </c>
-      <c r="H11" s="71">
+      <c r="H11" s="70">
         <v>66</v>
       </c>
       <c r="I11">
@@ -7835,31 +7857,31 @@
         <f t="shared" ref="T11" si="17">P11/O11-1</f>
         <v>6.8278309793461318</v>
       </c>
-      <c r="X11" s="73"/>
+      <c r="X11" s="72"/>
     </row>
     <row r="12" spans="1:24" x14ac:dyDescent="0.15">
-      <c r="A12" s="78" t="s">
-        <v>200</v>
+      <c r="A12" s="77" t="s">
+        <v>197</v>
       </c>
       <c r="B12" s="29">
         <v>10</v>
       </c>
-      <c r="C12" s="77">
+      <c r="C12" s="76">
         <v>47</v>
       </c>
-      <c r="D12" s="77">
+      <c r="D12" s="76">
         <v>305</v>
       </c>
-      <c r="E12" s="70">
+      <c r="E12" s="69">
         <v>95</v>
       </c>
-      <c r="F12" s="70">
+      <c r="F12" s="69">
         <v>335</v>
       </c>
-      <c r="G12" s="71">
+      <c r="G12" s="70">
         <v>98.8</v>
       </c>
-      <c r="H12" s="71">
+      <c r="H12" s="70">
         <v>17.899999999999999</v>
       </c>
       <c r="I12">
@@ -7906,31 +7928,31 @@
         <f t="shared" ref="T12:T15" si="25">P12/O12-1</f>
         <v>125.30690597884227</v>
       </c>
-      <c r="X12" s="73"/>
+      <c r="X12" s="72"/>
     </row>
     <row r="13" spans="1:24" x14ac:dyDescent="0.15">
-      <c r="A13" s="78" t="s">
-        <v>201</v>
+      <c r="A13" s="77" t="s">
+        <v>198</v>
       </c>
       <c r="B13" s="29">
         <v>11</v>
       </c>
-      <c r="C13" s="77">
+      <c r="C13" s="76">
         <v>29</v>
       </c>
-      <c r="D13" s="77">
+      <c r="D13" s="76">
         <v>120</v>
       </c>
-      <c r="E13" s="70">
+      <c r="E13" s="69">
         <v>165</v>
       </c>
-      <c r="F13" s="70">
+      <c r="F13" s="69">
         <v>232</v>
       </c>
-      <c r="G13" s="71">
+      <c r="G13" s="70">
         <v>191.2</v>
       </c>
-      <c r="H13" s="71">
+      <c r="H13" s="70">
         <v>98.4</v>
       </c>
       <c r="I13">
@@ -7977,31 +7999,31 @@
         <f t="shared" si="25"/>
         <v>10.305247597930522</v>
       </c>
-      <c r="X13" s="73"/>
+      <c r="X13" s="72"/>
     </row>
     <row r="14" spans="1:24" x14ac:dyDescent="0.15">
-      <c r="A14" s="78" t="s">
-        <v>202</v>
+      <c r="A14" s="77" t="s">
+        <v>199</v>
       </c>
       <c r="B14" s="29">
         <v>12</v>
       </c>
-      <c r="C14" s="77">
+      <c r="C14" s="76">
         <v>41</v>
       </c>
-      <c r="D14" s="77">
+      <c r="D14" s="76">
         <v>129</v>
       </c>
-      <c r="E14" s="70">
+      <c r="E14" s="69">
         <v>131</v>
       </c>
-      <c r="F14" s="70">
+      <c r="F14" s="69">
         <v>296</v>
       </c>
-      <c r="G14" s="71">
+      <c r="G14" s="70">
         <v>92</v>
       </c>
-      <c r="H14" s="71">
+      <c r="H14" s="70">
         <v>38.9</v>
       </c>
       <c r="I14">
@@ -8048,31 +8070,31 @@
         <f t="shared" si="25"/>
         <v>15.81374648868842</v>
       </c>
-      <c r="X14" s="73"/>
+      <c r="X14" s="72"/>
     </row>
     <row r="15" spans="1:24" x14ac:dyDescent="0.15">
-      <c r="A15" s="78" t="s">
-        <v>203</v>
+      <c r="A15" s="77" t="s">
+        <v>200</v>
       </c>
       <c r="B15" s="29">
         <v>13</v>
       </c>
-      <c r="C15" s="77">
+      <c r="C15" s="76">
         <v>104</v>
       </c>
-      <c r="D15" s="77">
+      <c r="D15" s="76">
         <v>375</v>
       </c>
-      <c r="E15" s="70">
+      <c r="E15" s="69">
         <v>158</v>
       </c>
-      <c r="F15" s="70">
+      <c r="F15" s="69">
         <v>189</v>
       </c>
-      <c r="G15" s="71">
+      <c r="G15" s="70">
         <v>62.8</v>
       </c>
-      <c r="H15" s="72">
+      <c r="H15" s="71">
         <v>30.2</v>
       </c>
       <c r="I15">
@@ -8119,31 +8141,31 @@
         <f t="shared" si="25"/>
         <v>7.9692338322252834</v>
       </c>
-      <c r="X15" s="73"/>
+      <c r="X15" s="72"/>
     </row>
     <row r="16" spans="1:24" x14ac:dyDescent="0.15">
-      <c r="A16" s="78" t="s">
-        <v>204</v>
+      <c r="A16" s="77" t="s">
+        <v>201</v>
       </c>
       <c r="B16" s="29">
         <v>14</v>
       </c>
-      <c r="C16" s="77">
+      <c r="C16" s="76">
         <v>139</v>
       </c>
-      <c r="D16" s="77">
+      <c r="D16" s="76">
         <v>327</v>
       </c>
-      <c r="E16" s="70">
+      <c r="E16" s="69">
         <v>290</v>
       </c>
-      <c r="F16" s="70">
+      <c r="F16" s="69">
         <v>509</v>
       </c>
-      <c r="G16" s="71">
+      <c r="G16" s="70">
         <v>120</v>
       </c>
-      <c r="H16" s="72">
+      <c r="H16" s="71">
         <v>68.8</v>
       </c>
       <c r="I16">
@@ -8190,31 +8212,31 @@
         <f t="shared" ref="T16" si="33">P16/O16-1</f>
         <v>6.2018744266815906</v>
       </c>
-      <c r="X16" s="73"/>
+      <c r="X16" s="72"/>
     </row>
     <row r="17" spans="1:24" x14ac:dyDescent="0.15">
-      <c r="A17" s="78" t="s">
-        <v>205</v>
+      <c r="A17" s="77" t="s">
+        <v>202</v>
       </c>
       <c r="B17" s="29">
         <v>15</v>
       </c>
-      <c r="C17" s="77">
+      <c r="C17" s="76">
         <v>98.76</v>
       </c>
-      <c r="D17" s="76">
+      <c r="D17" s="75">
         <v>195.64</v>
       </c>
-      <c r="E17" s="70">
+      <c r="E17" s="69">
         <v>147</v>
       </c>
-      <c r="F17" s="70">
+      <c r="F17" s="69">
         <v>211</v>
       </c>
-      <c r="G17" s="71">
+      <c r="G17" s="70">
         <v>68.099999999999994</v>
       </c>
-      <c r="H17" s="72">
+      <c r="H17" s="71">
         <v>44.4</v>
       </c>
       <c r="I17">
@@ -8261,31 +8283,31 @@
         <f t="shared" ref="T17" si="41">P17/O17-1</f>
         <v>3.3611983111635935</v>
       </c>
-      <c r="X17" s="73"/>
+      <c r="X17" s="72"/>
     </row>
     <row r="18" spans="1:24" x14ac:dyDescent="0.15">
-      <c r="A18" s="78" t="s">
-        <v>206</v>
+      <c r="A18" s="77" t="s">
+        <v>203</v>
       </c>
       <c r="B18" s="29">
         <v>16</v>
       </c>
-      <c r="C18" s="77">
+      <c r="C18" s="76">
         <v>53.8</v>
       </c>
-      <c r="D18" s="77">
+      <c r="D18" s="76">
         <v>118.36</v>
       </c>
-      <c r="E18" s="70">
+      <c r="E18" s="69">
         <v>101</v>
       </c>
-      <c r="F18" s="70">
+      <c r="F18" s="69">
         <v>167</v>
       </c>
-      <c r="G18" s="71">
+      <c r="G18" s="70">
         <v>76.7</v>
       </c>
-      <c r="H18" s="71">
+      <c r="H18" s="70">
         <v>64.400000000000006</v>
       </c>
       <c r="I18">
@@ -8332,31 +8354,31 @@
         <f t="shared" ref="T18:T31" si="47">P18/O18-1</f>
         <v>3.3323873070536862</v>
       </c>
-      <c r="X18" s="73"/>
+      <c r="X18" s="72"/>
     </row>
     <row r="19" spans="1:24" x14ac:dyDescent="0.15">
-      <c r="A19" s="78" t="s">
-        <v>207</v>
+      <c r="A19" s="77" t="s">
+        <v>204</v>
       </c>
       <c r="B19" s="29">
         <v>17</v>
       </c>
-      <c r="C19" s="77">
+      <c r="C19" s="76">
         <v>114.83999999999999</v>
       </c>
-      <c r="D19" s="77">
+      <c r="D19" s="76">
         <v>387.44</v>
       </c>
-      <c r="E19" s="70">
+      <c r="E19" s="69">
         <v>155</v>
       </c>
-      <c r="F19" s="70">
+      <c r="F19" s="69">
         <v>233</v>
       </c>
-      <c r="G19" s="71">
+      <c r="G19" s="70">
         <v>42.2</v>
       </c>
-      <c r="H19" s="71">
+      <c r="H19" s="70">
         <v>23.8</v>
       </c>
       <c r="I19">
@@ -8403,31 +8425,31 @@
         <f t="shared" si="47"/>
         <v>7.9923041748468719</v>
       </c>
-      <c r="X19" s="73"/>
+      <c r="X19" s="72"/>
     </row>
     <row r="20" spans="1:24" x14ac:dyDescent="0.15">
-      <c r="A20" s="78" t="s">
-        <v>208</v>
+      <c r="A20" s="77" t="s">
+        <v>205</v>
       </c>
       <c r="B20" s="29">
         <v>18</v>
       </c>
-      <c r="C20" s="77">
+      <c r="C20" s="76">
         <v>96.279999999999987</v>
       </c>
-      <c r="D20" s="77">
+      <c r="D20" s="76">
         <v>226.76</v>
       </c>
-      <c r="E20" s="70">
+      <c r="E20" s="69">
         <v>158</v>
       </c>
-      <c r="F20" s="70">
+      <c r="F20" s="69">
         <v>312</v>
       </c>
-      <c r="G20" s="71">
+      <c r="G20" s="70">
         <v>47.2</v>
       </c>
-      <c r="H20" s="71">
+      <c r="H20" s="70">
         <v>23.8</v>
       </c>
       <c r="I20">
@@ -8474,31 +8496,31 @@
         <f t="shared" si="47"/>
         <v>8.2234397537551267</v>
       </c>
-      <c r="X20" s="73"/>
+      <c r="X20" s="72"/>
     </row>
     <row r="21" spans="1:24" x14ac:dyDescent="0.15">
-      <c r="A21" s="78" t="s">
-        <v>209</v>
+      <c r="A21" s="77" t="s">
+        <v>206</v>
       </c>
       <c r="B21" s="29">
         <v>19</v>
       </c>
-      <c r="C21" s="77">
+      <c r="C21" s="76">
         <v>69.040000000000006</v>
       </c>
-      <c r="D21" s="77">
+      <c r="D21" s="76">
         <v>90.2</v>
       </c>
-      <c r="E21" s="70">
+      <c r="E21" s="69">
         <v>114</v>
       </c>
-      <c r="F21" s="70">
+      <c r="F21" s="69">
         <v>191</v>
       </c>
-      <c r="G21" s="71">
+      <c r="G21" s="70">
         <v>62.1</v>
       </c>
-      <c r="H21" s="72">
+      <c r="H21" s="71">
         <v>39.4</v>
       </c>
       <c r="I21">
@@ -8545,31 +8567,31 @@
         <f t="shared" si="47"/>
         <v>2.4500838413241994</v>
       </c>
-      <c r="X21" s="73"/>
+      <c r="X21" s="72"/>
     </row>
     <row r="22" spans="1:24" x14ac:dyDescent="0.15">
-      <c r="A22" s="78" t="s">
-        <v>210</v>
+      <c r="A22" s="77" t="s">
+        <v>207</v>
       </c>
       <c r="B22" s="29">
         <v>20</v>
       </c>
-      <c r="C22" s="77">
+      <c r="C22" s="76">
         <v>111.35999999999999</v>
       </c>
-      <c r="D22" s="77">
+      <c r="D22" s="76">
         <v>223.88</v>
       </c>
-      <c r="E22" s="70">
+      <c r="E22" s="69">
         <v>150</v>
       </c>
-      <c r="F22" s="70">
+      <c r="F22" s="69">
         <v>195</v>
       </c>
-      <c r="G22" s="71">
+      <c r="G22" s="70">
         <v>70.400000000000006</v>
       </c>
-      <c r="H22" s="72">
+      <c r="H22" s="71">
         <v>43.110999999999997</v>
       </c>
       <c r="I22">
@@ -8616,31 +8638,31 @@
         <f t="shared" si="47"/>
         <v>3.2678975976742217</v>
       </c>
-      <c r="X22" s="73"/>
+      <c r="X22" s="72"/>
     </row>
     <row r="23" spans="1:24" x14ac:dyDescent="0.15">
-      <c r="A23" s="78" t="s">
-        <v>211</v>
+      <c r="A23" s="77" t="s">
+        <v>208</v>
       </c>
       <c r="B23" s="29">
         <v>21</v>
       </c>
-      <c r="C23" s="77">
+      <c r="C23" s="76">
         <v>147.88</v>
       </c>
-      <c r="D23" s="77">
+      <c r="D23" s="76">
         <v>324.36</v>
       </c>
-      <c r="E23" s="70">
+      <c r="E23" s="69">
         <v>150</v>
       </c>
-      <c r="F23" s="70">
+      <c r="F23" s="69">
         <v>218</v>
       </c>
-      <c r="G23" s="71">
+      <c r="G23" s="70">
         <v>55.5</v>
       </c>
-      <c r="H23" s="72">
+      <c r="H23" s="71">
         <v>30.1</v>
       </c>
       <c r="I23">
@@ -8687,31 +8709,31 @@
         <f t="shared" si="47"/>
         <v>4.8777291815128905</v>
       </c>
-      <c r="X23" s="73"/>
+      <c r="X23" s="72"/>
     </row>
     <row r="24" spans="1:24" x14ac:dyDescent="0.15">
-      <c r="A24" s="78" t="s">
-        <v>212</v>
+      <c r="A24" s="77" t="s">
+        <v>209</v>
       </c>
       <c r="B24" s="29">
         <v>22</v>
       </c>
-      <c r="C24" s="77">
+      <c r="C24" s="76">
         <v>95.11999999999999</v>
       </c>
-      <c r="D24" s="77">
+      <c r="D24" s="76">
         <v>218.68</v>
       </c>
-      <c r="E24" s="70">
+      <c r="E24" s="69">
         <v>148</v>
       </c>
-      <c r="F24" s="70">
+      <c r="F24" s="69">
         <v>222</v>
       </c>
-      <c r="G24" s="71">
+      <c r="G24" s="70">
         <v>302.89999999999998</v>
       </c>
-      <c r="H24" s="72">
+      <c r="H24" s="71">
         <v>197.1</v>
       </c>
       <c r="I24">
@@ -8758,31 +8780,31 @@
         <f t="shared" si="47"/>
         <v>4.2995760862190586</v>
       </c>
-      <c r="X24" s="73"/>
+      <c r="X24" s="72"/>
     </row>
     <row r="25" spans="1:24" x14ac:dyDescent="0.15">
-      <c r="A25" s="78" t="s">
-        <v>213</v>
+      <c r="A25" s="77" t="s">
+        <v>210</v>
       </c>
       <c r="B25" s="29">
         <v>23</v>
       </c>
-      <c r="C25" s="77">
+      <c r="C25" s="76">
         <v>125.28</v>
       </c>
-      <c r="D25" s="77">
+      <c r="D25" s="76">
         <v>346.84</v>
       </c>
-      <c r="E25" s="70">
+      <c r="E25" s="69">
         <v>199</v>
       </c>
-      <c r="F25" s="70">
+      <c r="F25" s="69">
         <v>268</v>
       </c>
-      <c r="G25" s="71">
+      <c r="G25" s="70">
         <v>89.7</v>
       </c>
-      <c r="H25" s="72">
+      <c r="H25" s="71">
         <v>53.9</v>
       </c>
       <c r="I25">
@@ -8829,31 +8851,31 @@
         <f t="shared" si="47"/>
         <v>5.2048720203781231</v>
       </c>
-      <c r="X25" s="73"/>
+      <c r="X25" s="72"/>
     </row>
     <row r="26" spans="1:24" x14ac:dyDescent="0.15">
-      <c r="A26" s="78" t="s">
-        <v>214</v>
+      <c r="A26" s="77" t="s">
+        <v>211</v>
       </c>
       <c r="B26" s="29">
         <v>24</v>
       </c>
-      <c r="C26" s="77">
+      <c r="C26" s="76">
         <v>63.8</v>
       </c>
-      <c r="D26" s="76">
+      <c r="D26" s="75">
         <v>196.04</v>
       </c>
-      <c r="E26" s="70">
+      <c r="E26" s="69">
         <v>159</v>
       </c>
-      <c r="F26" s="70">
+      <c r="F26" s="69">
         <v>244</v>
       </c>
-      <c r="G26" s="71">
+      <c r="G26" s="70">
         <v>98.7</v>
       </c>
-      <c r="H26" s="71">
+      <c r="H26" s="70">
         <v>79.400000000000006</v>
       </c>
       <c r="I26">
@@ -8900,31 +8922,31 @@
         <f t="shared" si="47"/>
         <v>4.8615620584918613</v>
       </c>
-      <c r="X26" s="73"/>
+      <c r="X26" s="72"/>
     </row>
     <row r="27" spans="1:24" x14ac:dyDescent="0.15">
-      <c r="A27" s="78" t="s">
-        <v>215</v>
+      <c r="A27" s="77" t="s">
+        <v>212</v>
       </c>
       <c r="B27" s="29">
         <v>25</v>
       </c>
-      <c r="C27" s="77">
+      <c r="C27" s="76">
         <v>109.52</v>
       </c>
-      <c r="D27" s="77">
+      <c r="D27" s="76">
         <v>184.04</v>
       </c>
-      <c r="E27" s="70">
+      <c r="E27" s="69">
         <v>188</v>
       </c>
-      <c r="F27" s="70">
+      <c r="F27" s="69">
         <v>238</v>
       </c>
-      <c r="G27" s="71">
+      <c r="G27" s="70">
         <v>48.9</v>
       </c>
-      <c r="H27" s="72">
+      <c r="H27" s="71">
         <v>39.1</v>
       </c>
       <c r="I27">
@@ -8971,31 +8993,31 @@
         <f t="shared" si="47"/>
         <v>1.6605412635677399</v>
       </c>
-      <c r="X27" s="73"/>
+      <c r="X27" s="72"/>
     </row>
     <row r="28" spans="1:24" x14ac:dyDescent="0.15">
-      <c r="A28" s="78" t="s">
-        <v>216</v>
+      <c r="A28" s="77" t="s">
+        <v>213</v>
       </c>
       <c r="B28" s="29">
         <v>26</v>
       </c>
-      <c r="C28" s="77">
+      <c r="C28" s="76">
         <v>143.12</v>
       </c>
-      <c r="D28" s="77">
+      <c r="D28" s="76">
         <v>349</v>
       </c>
-      <c r="E28" s="70">
+      <c r="E28" s="69">
         <v>129</v>
       </c>
-      <c r="F28" s="70">
+      <c r="F28" s="69">
         <v>201</v>
       </c>
-      <c r="G28" s="71">
+      <c r="G28" s="70">
         <v>142.19999999999999</v>
       </c>
-      <c r="H28" s="71">
+      <c r="H28" s="70">
         <v>108.87</v>
       </c>
       <c r="I28">
@@ -9042,31 +9064,31 @@
         <f t="shared" si="47"/>
         <v>3.9627548217967306</v>
       </c>
-      <c r="X28" s="73"/>
+      <c r="X28" s="72"/>
     </row>
     <row r="29" spans="1:24" x14ac:dyDescent="0.15">
-      <c r="A29" s="78" t="s">
-        <v>217</v>
+      <c r="A29" s="77" t="s">
+        <v>214</v>
       </c>
       <c r="B29" s="29">
         <v>27</v>
       </c>
-      <c r="C29" s="77">
+      <c r="C29" s="76">
         <v>113.67999999999999</v>
       </c>
-      <c r="D29" s="77">
+      <c r="D29" s="76">
         <v>235.48</v>
       </c>
-      <c r="E29" s="70">
+      <c r="E29" s="69">
         <v>275</v>
       </c>
-      <c r="F29" s="70">
+      <c r="F29" s="69">
         <v>382</v>
       </c>
-      <c r="G29" s="71">
+      <c r="G29" s="70">
         <v>79</v>
       </c>
-      <c r="H29" s="71">
+      <c r="H29" s="70">
         <v>43.25</v>
       </c>
       <c r="I29">
@@ -9113,31 +9135,31 @@
         <f t="shared" si="47"/>
         <v>4.255833646122662</v>
       </c>
-      <c r="X29" s="73"/>
+      <c r="X29" s="72"/>
     </row>
     <row r="30" spans="1:24" x14ac:dyDescent="0.15">
-      <c r="A30" s="78" t="s">
-        <v>218</v>
+      <c r="A30" s="77" t="s">
+        <v>215</v>
       </c>
       <c r="B30" s="29">
         <v>28</v>
       </c>
-      <c r="C30" s="77">
+      <c r="C30" s="76">
         <v>141.63999999999999</v>
       </c>
-      <c r="D30" s="77">
+      <c r="D30" s="76">
         <v>298.24</v>
       </c>
-      <c r="E30" s="70">
+      <c r="E30" s="69">
         <v>137</v>
       </c>
-      <c r="F30" s="70">
+      <c r="F30" s="69">
         <v>294</v>
       </c>
-      <c r="G30" s="71">
+      <c r="G30" s="70">
         <v>99.9</v>
       </c>
-      <c r="H30" s="71">
+      <c r="H30" s="70">
         <v>74.25</v>
       </c>
       <c r="I30">
@@ -9184,31 +9206,31 @@
         <f t="shared" si="47"/>
         <v>5.0796106356348538</v>
       </c>
-      <c r="X30" s="73"/>
+      <c r="X30" s="72"/>
     </row>
     <row r="31" spans="1:24" x14ac:dyDescent="0.15">
-      <c r="A31" s="78" t="s">
-        <v>219</v>
+      <c r="A31" s="77" t="s">
+        <v>216</v>
       </c>
       <c r="B31" s="29">
         <v>29</v>
       </c>
-      <c r="C31" s="77">
+      <c r="C31" s="76">
         <v>48.23</v>
       </c>
-      <c r="D31" s="77">
+      <c r="D31" s="76">
         <v>160.08000000000001</v>
       </c>
-      <c r="E31" s="70">
+      <c r="E31" s="69">
         <v>198</v>
       </c>
-      <c r="F31" s="70">
+      <c r="F31" s="69">
         <v>380</v>
       </c>
-      <c r="G31" s="71">
+      <c r="G31" s="70">
         <v>79.5</v>
       </c>
-      <c r="H31" s="71">
+      <c r="H31" s="70">
         <v>20.25</v>
       </c>
       <c r="I31">
@@ -9255,31 +9277,31 @@
         <f t="shared" si="47"/>
         <v>24.008078341411682</v>
       </c>
-      <c r="X31" s="73"/>
+      <c r="X31" s="72"/>
     </row>
     <row r="32" spans="1:24" x14ac:dyDescent="0.15">
-      <c r="A32" s="78" t="s">
-        <v>220</v>
+      <c r="A32" s="77" t="s">
+        <v>217</v>
       </c>
       <c r="B32" s="29">
         <v>30</v>
       </c>
-      <c r="C32" s="77">
+      <c r="C32" s="76">
         <v>67.599999999999994</v>
       </c>
-      <c r="D32" s="77">
+      <c r="D32" s="76">
         <v>101.88</v>
       </c>
-      <c r="E32" s="70">
+      <c r="E32" s="69">
         <v>101</v>
       </c>
-      <c r="F32" s="70">
+      <c r="F32" s="69">
         <v>149</v>
       </c>
-      <c r="G32" s="71">
+      <c r="G32" s="70">
         <v>234.9</v>
       </c>
-      <c r="H32" s="72">
+      <c r="H32" s="71">
         <v>152.1</v>
       </c>
       <c r="I32">
@@ -9328,28 +9350,28 @@
       </c>
     </row>
     <row r="33" spans="1:20" x14ac:dyDescent="0.15">
-      <c r="A33" s="78" t="s">
-        <v>221</v>
+      <c r="A33" s="77" t="s">
+        <v>218</v>
       </c>
       <c r="B33" s="29">
         <v>31</v>
       </c>
-      <c r="C33" s="77">
+      <c r="C33" s="76">
         <v>107.88</v>
       </c>
-      <c r="D33" s="77">
+      <c r="D33" s="76">
         <v>192.55999999999997</v>
       </c>
-      <c r="E33" s="70">
+      <c r="E33" s="69">
         <v>217</v>
       </c>
-      <c r="F33" s="70">
+      <c r="F33" s="69">
         <v>324</v>
       </c>
-      <c r="G33" s="71">
+      <c r="G33" s="70">
         <v>78.5</v>
       </c>
-      <c r="H33" s="71">
+      <c r="H33" s="70">
         <v>47.75</v>
       </c>
       <c r="I33">
@@ -9398,28 +9420,28 @@
       </c>
     </row>
     <row r="34" spans="1:20" x14ac:dyDescent="0.15">
-      <c r="A34" s="75" t="s">
-        <v>222</v>
+      <c r="A34" s="74" t="s">
+        <v>219</v>
       </c>
       <c r="B34" s="29">
         <v>32</v>
       </c>
-      <c r="C34" s="77">
+      <c r="C34" s="76">
         <v>49.879999999999995</v>
       </c>
-      <c r="D34" s="77">
+      <c r="D34" s="76">
         <v>189.07999999999998</v>
       </c>
-      <c r="E34" s="70">
+      <c r="E34" s="69">
         <v>187</v>
       </c>
-      <c r="F34" s="70">
+      <c r="F34" s="69">
         <v>264</v>
       </c>
-      <c r="G34" s="71">
+      <c r="G34" s="70">
         <v>55.5</v>
       </c>
-      <c r="H34" s="71">
+      <c r="H34" s="70">
         <v>31.25</v>
       </c>
       <c r="I34">
@@ -9468,8 +9490,8 @@
       </c>
     </row>
     <row r="40" spans="1:20" x14ac:dyDescent="0.15">
-      <c r="A40" s="69" t="s">
-        <v>189</v>
+      <c r="A40" s="68" t="s">
+        <v>186</v>
       </c>
       <c r="D40" s="29">
         <v>450</v>
@@ -14091,8 +14113,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I14"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="I6" sqref="I6"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="L13" sqref="L13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -14140,11 +14162,11 @@
       <c r="C2" s="56" t="s">
         <v>159</v>
       </c>
-      <c r="D2" s="68" t="s">
-        <v>188</v>
-      </c>
-      <c r="E2" s="79" t="s">
-        <v>232</v>
+      <c r="D2" s="91" t="s">
+        <v>231</v>
+      </c>
+      <c r="E2" s="78" t="s">
+        <v>229</v>
       </c>
       <c r="F2" s="57" t="s">
         <v>89</v>
@@ -14165,11 +14187,11 @@
       <c r="C3" s="56" t="s">
         <v>160</v>
       </c>
-      <c r="D3" s="68" t="s">
-        <v>187</v>
-      </c>
-      <c r="E3" s="79" t="s">
-        <v>225</v>
+      <c r="D3" s="91" t="s">
+        <v>231</v>
+      </c>
+      <c r="E3" s="78" t="s">
+        <v>222</v>
       </c>
       <c r="F3" s="57" t="s">
         <v>89</v>
@@ -14188,11 +14210,11 @@
       <c r="C4" s="65" t="s">
         <v>179</v>
       </c>
-      <c r="D4" s="68" t="s">
-        <v>187</v>
-      </c>
-      <c r="E4" s="79" t="s">
-        <v>226</v>
+      <c r="D4" s="91" t="s">
+        <v>231</v>
+      </c>
+      <c r="E4" s="78" t="s">
+        <v>223</v>
       </c>
       <c r="F4" s="57" t="s">
         <v>89</v>
@@ -14211,11 +14233,11 @@
       <c r="C5" s="65" t="s">
         <v>180</v>
       </c>
-      <c r="D5" s="68" t="s">
-        <v>186</v>
-      </c>
-      <c r="E5" s="79" t="s">
-        <v>227</v>
+      <c r="D5" s="91" t="s">
+        <v>230</v>
+      </c>
+      <c r="E5" s="78" t="s">
+        <v>224</v>
       </c>
       <c r="F5" s="57" t="s">
         <v>89</v>
@@ -14234,11 +14256,11 @@
       <c r="C6" s="65" t="s">
         <v>181</v>
       </c>
-      <c r="D6" s="68" t="s">
-        <v>186</v>
-      </c>
-      <c r="E6" s="79" t="s">
-        <v>224</v>
+      <c r="D6" s="91" t="s">
+        <v>230</v>
+      </c>
+      <c r="E6" s="78" t="s">
+        <v>221</v>
       </c>
       <c r="F6" s="57" t="s">
         <v>89</v>
@@ -14257,11 +14279,11 @@
       <c r="C7" s="65" t="s">
         <v>182</v>
       </c>
-      <c r="D7" s="68" t="s">
-        <v>186</v>
-      </c>
-      <c r="E7" s="79" t="s">
-        <v>223</v>
+      <c r="D7" s="91" t="s">
+        <v>230</v>
+      </c>
+      <c r="E7" s="78" t="s">
+        <v>220</v>
       </c>
       <c r="F7" s="57" t="s">
         <v>89</v>
@@ -14280,11 +14302,11 @@
       <c r="C8" s="65" t="s">
         <v>183</v>
       </c>
-      <c r="D8" s="68" t="s">
-        <v>186</v>
-      </c>
-      <c r="E8" s="79" t="s">
+      <c r="D8" s="91" t="s">
         <v>230</v>
+      </c>
+      <c r="E8" s="78" t="s">
+        <v>227</v>
       </c>
       <c r="F8" s="57" t="s">
         <v>89</v>
@@ -14303,11 +14325,11 @@
       <c r="C9" s="61" t="s">
         <v>162</v>
       </c>
-      <c r="D9" s="68" t="s">
-        <v>186</v>
-      </c>
-      <c r="E9" s="79" t="s">
-        <v>229</v>
+      <c r="D9" s="91" t="s">
+        <v>230</v>
+      </c>
+      <c r="E9" s="78" t="s">
+        <v>226</v>
       </c>
       <c r="F9" s="57" t="s">
         <v>89</v>
@@ -14326,11 +14348,11 @@
       <c r="C10" s="61" t="s">
         <v>161</v>
       </c>
-      <c r="D10" s="68" t="s">
-        <v>186</v>
-      </c>
-      <c r="E10" s="79" t="s">
-        <v>231</v>
+      <c r="D10" s="91" t="s">
+        <v>230</v>
+      </c>
+      <c r="E10" s="78" t="s">
+        <v>228</v>
       </c>
       <c r="F10" s="57" t="s">
         <v>89</v>
@@ -14349,11 +14371,11 @@
       <c r="C11" s="61" t="s">
         <v>163</v>
       </c>
-      <c r="D11" s="68" t="s">
-        <v>187</v>
-      </c>
-      <c r="E11" s="79" t="s">
-        <v>228</v>
+      <c r="D11" s="91" t="s">
+        <v>230</v>
+      </c>
+      <c r="E11" s="78" t="s">
+        <v>225</v>
       </c>
       <c r="F11" s="57" t="s">
         <v>89</v>
@@ -15176,13 +15198,13 @@
       </c>
     </row>
     <row r="35" spans="2:11" x14ac:dyDescent="0.15">
-      <c r="B35" s="84">
+      <c r="B35" s="80">
         <v>6</v>
       </c>
-      <c r="C35" s="84" t="s">
+      <c r="C35" s="80" t="s">
         <v>62</v>
       </c>
-      <c r="D35" s="84" t="s">
+      <c r="D35" s="80" t="s">
         <v>63</v>
       </c>
       <c r="E35" s="11" t="s">
@@ -15210,9 +15232,9 @@
       </c>
     </row>
     <row r="36" spans="2:11" x14ac:dyDescent="0.15">
-      <c r="B36" s="84"/>
-      <c r="C36" s="84"/>
-      <c r="D36" s="84"/>
+      <c r="B36" s="80"/>
+      <c r="C36" s="80"/>
+      <c r="D36" s="80"/>
       <c r="E36" s="28" t="s">
         <v>1</v>
       </c>
@@ -15238,9 +15260,9 @@
       </c>
     </row>
     <row r="37" spans="2:11" x14ac:dyDescent="0.15">
-      <c r="B37" s="84"/>
-      <c r="C37" s="84"/>
-      <c r="D37" s="84"/>
+      <c r="B37" s="80"/>
+      <c r="C37" s="80"/>
+      <c r="D37" s="80"/>
       <c r="E37" s="28" t="s">
         <v>2</v>
       </c>
@@ -15267,18 +15289,6 @@
     </row>
   </sheetData>
   <mergeCells count="21">
-    <mergeCell ref="B35:B37"/>
-    <mergeCell ref="C35:C37"/>
-    <mergeCell ref="D35:D37"/>
-    <mergeCell ref="B29:B33"/>
-    <mergeCell ref="C29:C33"/>
-    <mergeCell ref="D29:D33"/>
-    <mergeCell ref="B19:B21"/>
-    <mergeCell ref="C19:C21"/>
-    <mergeCell ref="D19:D21"/>
-    <mergeCell ref="B23:B27"/>
-    <mergeCell ref="C23:C27"/>
-    <mergeCell ref="D23:D27"/>
     <mergeCell ref="B13:B17"/>
     <mergeCell ref="C13:C17"/>
     <mergeCell ref="D13:D17"/>
@@ -15288,6 +15298,18 @@
     <mergeCell ref="D8:D11"/>
     <mergeCell ref="C4:C6"/>
     <mergeCell ref="C8:C11"/>
+    <mergeCell ref="B19:B21"/>
+    <mergeCell ref="C19:C21"/>
+    <mergeCell ref="D19:D21"/>
+    <mergeCell ref="B23:B27"/>
+    <mergeCell ref="C23:C27"/>
+    <mergeCell ref="D23:D27"/>
+    <mergeCell ref="B35:B37"/>
+    <mergeCell ref="C35:C37"/>
+    <mergeCell ref="D35:D37"/>
+    <mergeCell ref="B29:B33"/>
+    <mergeCell ref="C29:C33"/>
+    <mergeCell ref="D29:D33"/>
   </mergeCells>
   <phoneticPr fontId="17" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -15983,11 +16005,11 @@
         <v>94</v>
       </c>
       <c r="I2" s="2"/>
-      <c r="K2" s="86" t="s">
+      <c r="K2" s="85" t="s">
         <v>7</v>
       </c>
-      <c r="L2" s="87"/>
-      <c r="M2" s="88"/>
+      <c r="L2" s="86"/>
+      <c r="M2" s="87"/>
       <c r="O2" t="s">
         <v>23</v>
       </c>
@@ -16183,11 +16205,11 @@
       <c r="I8" s="9">
         <v>47</v>
       </c>
-      <c r="K8" s="85" t="s">
+      <c r="K8" s="84" t="s">
         <v>11</v>
       </c>
-      <c r="L8" s="85"/>
-      <c r="M8" s="85"/>
+      <c r="L8" s="84"/>
+      <c r="M8" s="84"/>
       <c r="O8" t="s">
         <v>23</v>
       </c>
@@ -16217,11 +16239,11 @@
       <c r="I9" s="1">
         <v>39</v>
       </c>
-      <c r="K9" s="85" t="s">
+      <c r="K9" s="84" t="s">
         <v>12</v>
       </c>
-      <c r="L9" s="85"/>
-      <c r="M9" s="85"/>
+      <c r="L9" s="84"/>
+      <c r="M9" s="84"/>
       <c r="O9" t="s">
         <v>23</v>
       </c>
@@ -16251,11 +16273,11 @@
       <c r="I10" s="1">
         <v>31</v>
       </c>
-      <c r="K10" s="85" t="s">
+      <c r="K10" s="84" t="s">
         <v>29</v>
       </c>
-      <c r="L10" s="85"/>
-      <c r="M10" s="85"/>
+      <c r="L10" s="84"/>
+      <c r="M10" s="84"/>
       <c r="O10" t="s">
         <v>23</v>
       </c>
@@ -16285,9 +16307,9 @@
       <c r="I11" s="8">
         <v>23</v>
       </c>
-      <c r="K11" s="85"/>
-      <c r="L11" s="85"/>
-      <c r="M11" s="85"/>
+      <c r="K11" s="84"/>
+      <c r="L11" s="84"/>
+      <c r="M11" s="84"/>
       <c r="O11" t="s">
         <v>23</v>
       </c>
@@ -16418,11 +16440,11 @@
       <c r="I18" s="9">
         <v>95</v>
       </c>
-      <c r="K18" s="86" t="s">
+      <c r="K18" s="85" t="s">
         <v>7</v>
       </c>
-      <c r="L18" s="87"/>
-      <c r="M18" s="88"/>
+      <c r="L18" s="86"/>
+      <c r="M18" s="87"/>
       <c r="O18" t="s">
         <v>26</v>
       </c>
@@ -16557,11 +16579,11 @@
       <c r="I22" s="9">
         <v>63</v>
       </c>
-      <c r="K22" s="85" t="s">
+      <c r="K22" s="84" t="s">
         <v>11</v>
       </c>
-      <c r="L22" s="85"/>
-      <c r="M22" s="85"/>
+      <c r="L22" s="84"/>
+      <c r="M22" s="84"/>
       <c r="O22" t="s">
         <v>25</v>
       </c>
@@ -16591,11 +16613,11 @@
       <c r="I23" s="8">
         <v>55</v>
       </c>
-      <c r="K23" s="85" t="s">
+      <c r="K23" s="84" t="s">
         <v>12</v>
       </c>
-      <c r="L23" s="85"/>
-      <c r="M23" s="85"/>
+      <c r="L23" s="84"/>
+      <c r="M23" s="84"/>
       <c r="O23" t="s">
         <v>25</v>
       </c>
@@ -16625,11 +16647,11 @@
       <c r="I24" s="8">
         <v>47</v>
       </c>
-      <c r="K24" s="85" t="s">
+      <c r="K24" s="84" t="s">
         <v>27</v>
       </c>
-      <c r="L24" s="85"/>
-      <c r="M24" s="85"/>
+      <c r="L24" s="84"/>
+      <c r="M24" s="84"/>
       <c r="O24" t="s">
         <v>25</v>
       </c>
@@ -16659,11 +16681,11 @@
       <c r="I25" s="9">
         <v>39</v>
       </c>
-      <c r="K25" s="85" t="s">
+      <c r="K25" s="84" t="s">
         <v>28</v>
       </c>
-      <c r="L25" s="85"/>
-      <c r="M25" s="85"/>
+      <c r="L25" s="84"/>
+      <c r="M25" s="84"/>
       <c r="O25" t="s">
         <v>25</v>
       </c>
@@ -16693,9 +16715,9 @@
       <c r="I26" s="8">
         <v>31</v>
       </c>
-      <c r="K26" s="89"/>
-      <c r="L26" s="89"/>
-      <c r="M26" s="89"/>
+      <c r="K26" s="88"/>
+      <c r="L26" s="88"/>
+      <c r="M26" s="88"/>
       <c r="O26" t="s">
         <v>25</v>
       </c>
@@ -16725,9 +16747,9 @@
       <c r="I27" s="9">
         <v>23</v>
       </c>
-      <c r="K27" s="89"/>
-      <c r="L27" s="89"/>
-      <c r="M27" s="89"/>
+      <c r="K27" s="88"/>
+      <c r="L27" s="88"/>
+      <c r="M27" s="88"/>
       <c r="O27" t="s">
         <v>25</v>
       </c>
@@ -16850,11 +16872,11 @@
       <c r="I34" s="9">
         <v>95</v>
       </c>
-      <c r="K34" s="86" t="s">
+      <c r="K34" s="85" t="s">
         <v>7</v>
       </c>
-      <c r="L34" s="87"/>
-      <c r="M34" s="88"/>
+      <c r="L34" s="86"/>
+      <c r="M34" s="87"/>
       <c r="O34" t="s">
         <v>31</v>
       </c>
@@ -16989,11 +17011,11 @@
       <c r="I38" s="9">
         <v>63</v>
       </c>
-      <c r="K38" s="85" t="s">
+      <c r="K38" s="84" t="s">
         <v>11</v>
       </c>
-      <c r="L38" s="85"/>
-      <c r="M38" s="85"/>
+      <c r="L38" s="84"/>
+      <c r="M38" s="84"/>
       <c r="O38" t="s">
         <v>30</v>
       </c>
@@ -17023,11 +17045,11 @@
       <c r="I39" s="9">
         <v>55</v>
       </c>
-      <c r="K39" s="85" t="s">
+      <c r="K39" s="84" t="s">
         <v>12</v>
       </c>
-      <c r="L39" s="85"/>
-      <c r="M39" s="85"/>
+      <c r="L39" s="84"/>
+      <c r="M39" s="84"/>
       <c r="O39" t="s">
         <v>30</v>
       </c>
@@ -17057,11 +17079,11 @@
       <c r="I40" s="9">
         <v>47</v>
       </c>
-      <c r="K40" s="85" t="s">
+      <c r="K40" s="84" t="s">
         <v>27</v>
       </c>
-      <c r="L40" s="85"/>
-      <c r="M40" s="85"/>
+      <c r="L40" s="84"/>
+      <c r="M40" s="84"/>
       <c r="O40" t="s">
         <v>30</v>
       </c>
@@ -17091,11 +17113,11 @@
       <c r="I41" s="9">
         <v>39</v>
       </c>
-      <c r="K41" s="85" t="s">
+      <c r="K41" s="84" t="s">
         <v>28</v>
       </c>
-      <c r="L41" s="85"/>
-      <c r="M41" s="85"/>
+      <c r="L41" s="84"/>
+      <c r="M41" s="84"/>
       <c r="O41" t="s">
         <v>30</v>
       </c>
@@ -17125,9 +17147,9 @@
       <c r="I42" s="8">
         <v>31</v>
       </c>
-      <c r="K42" s="85"/>
-      <c r="L42" s="85"/>
-      <c r="M42" s="85"/>
+      <c r="K42" s="84"/>
+      <c r="L42" s="84"/>
+      <c r="M42" s="84"/>
       <c r="O42" t="s">
         <v>30</v>
       </c>
@@ -17157,9 +17179,9 @@
       <c r="I43" s="9">
         <v>23</v>
       </c>
-      <c r="K43" s="85"/>
-      <c r="L43" s="85"/>
-      <c r="M43" s="85"/>
+      <c r="K43" s="84"/>
+      <c r="L43" s="84"/>
+      <c r="M43" s="84"/>
       <c r="O43" t="s">
         <v>30</v>
       </c>
@@ -17276,11 +17298,11 @@
       <c r="I50" s="8">
         <v>95</v>
       </c>
-      <c r="K50" s="86" t="s">
+      <c r="K50" s="85" t="s">
         <v>7</v>
       </c>
-      <c r="L50" s="87"/>
-      <c r="M50" s="88"/>
+      <c r="L50" s="86"/>
+      <c r="M50" s="87"/>
       <c r="O50" t="s">
         <v>35</v>
       </c>
@@ -17415,11 +17437,11 @@
       <c r="I54" s="8">
         <v>63</v>
       </c>
-      <c r="K54" s="85" t="s">
+      <c r="K54" s="84" t="s">
         <v>11</v>
       </c>
-      <c r="L54" s="85"/>
-      <c r="M54" s="85"/>
+      <c r="L54" s="84"/>
+      <c r="M54" s="84"/>
       <c r="O54" t="s">
         <v>33</v>
       </c>
@@ -17449,11 +17471,11 @@
       <c r="I55" s="9">
         <v>55</v>
       </c>
-      <c r="K55" s="85" t="s">
+      <c r="K55" s="84" t="s">
         <v>12</v>
       </c>
-      <c r="L55" s="85"/>
-      <c r="M55" s="85"/>
+      <c r="L55" s="84"/>
+      <c r="M55" s="84"/>
       <c r="O55" t="s">
         <v>33</v>
       </c>
@@ -17483,11 +17505,11 @@
       <c r="I56" s="9">
         <v>47</v>
       </c>
-      <c r="K56" s="85" t="s">
+      <c r="K56" s="84" t="s">
         <v>27</v>
       </c>
-      <c r="L56" s="85"/>
-      <c r="M56" s="85"/>
+      <c r="L56" s="84"/>
+      <c r="M56" s="84"/>
       <c r="O56" t="s">
         <v>33</v>
       </c>
@@ -17517,11 +17539,11 @@
       <c r="I57" s="9">
         <v>39</v>
       </c>
-      <c r="K57" s="85" t="s">
+      <c r="K57" s="84" t="s">
         <v>28</v>
       </c>
-      <c r="L57" s="85"/>
-      <c r="M57" s="85"/>
+      <c r="L57" s="84"/>
+      <c r="M57" s="84"/>
       <c r="O57" t="s">
         <v>33</v>
       </c>
@@ -17551,9 +17573,9 @@
       <c r="I58" s="9">
         <v>31</v>
       </c>
-      <c r="K58" s="85"/>
-      <c r="L58" s="85"/>
-      <c r="M58" s="85"/>
+      <c r="K58" s="84"/>
+      <c r="L58" s="84"/>
+      <c r="M58" s="84"/>
       <c r="O58" t="s">
         <v>33</v>
       </c>
@@ -17583,9 +17605,9 @@
       <c r="I59" s="9">
         <v>23</v>
       </c>
-      <c r="K59" s="85"/>
-      <c r="L59" s="85"/>
-      <c r="M59" s="85"/>
+      <c r="K59" s="84"/>
+      <c r="L59" s="84"/>
+      <c r="M59" s="84"/>
       <c r="O59" t="s">
         <v>33</v>
       </c>
@@ -17702,11 +17724,11 @@
       <c r="I66" s="8">
         <v>95</v>
       </c>
-      <c r="K66" s="86" t="s">
+      <c r="K66" s="85" t="s">
         <v>7</v>
       </c>
-      <c r="L66" s="87"/>
-      <c r="M66" s="88"/>
+      <c r="L66" s="86"/>
+      <c r="M66" s="87"/>
       <c r="O66" t="s">
         <v>38</v>
       </c>
@@ -17841,11 +17863,11 @@
       <c r="I70" s="9">
         <v>63</v>
       </c>
-      <c r="K70" s="85" t="s">
+      <c r="K70" s="84" t="s">
         <v>11</v>
       </c>
-      <c r="L70" s="85"/>
-      <c r="M70" s="85"/>
+      <c r="L70" s="84"/>
+      <c r="M70" s="84"/>
       <c r="O70" t="s">
         <v>36</v>
       </c>
@@ -17875,11 +17897,11 @@
       <c r="I71" s="9">
         <v>55</v>
       </c>
-      <c r="K71" s="85" t="s">
+      <c r="K71" s="84" t="s">
         <v>12</v>
       </c>
-      <c r="L71" s="85"/>
-      <c r="M71" s="85"/>
+      <c r="L71" s="84"/>
+      <c r="M71" s="84"/>
       <c r="O71" t="s">
         <v>36</v>
       </c>
@@ -17909,11 +17931,11 @@
       <c r="I72" s="9">
         <v>47</v>
       </c>
-      <c r="K72" s="85" t="s">
+      <c r="K72" s="84" t="s">
         <v>27</v>
       </c>
-      <c r="L72" s="85"/>
-      <c r="M72" s="85"/>
+      <c r="L72" s="84"/>
+      <c r="M72" s="84"/>
       <c r="O72" t="s">
         <v>36</v>
       </c>
@@ -17943,11 +17965,11 @@
       <c r="I73" s="9">
         <v>39</v>
       </c>
-      <c r="K73" s="85" t="s">
+      <c r="K73" s="84" t="s">
         <v>28</v>
       </c>
-      <c r="L73" s="85"/>
-      <c r="M73" s="85"/>
+      <c r="L73" s="84"/>
+      <c r="M73" s="84"/>
       <c r="O73" t="s">
         <v>36</v>
       </c>
@@ -17977,9 +17999,9 @@
       <c r="I74" s="9">
         <v>31</v>
       </c>
-      <c r="K74" s="85"/>
-      <c r="L74" s="85"/>
-      <c r="M74" s="85"/>
+      <c r="K74" s="84"/>
+      <c r="L74" s="84"/>
+      <c r="M74" s="84"/>
       <c r="O74" t="s">
         <v>36</v>
       </c>
@@ -18009,9 +18031,9 @@
       <c r="I75" s="9">
         <v>23</v>
       </c>
-      <c r="K75" s="85"/>
-      <c r="L75" s="85"/>
-      <c r="M75" s="85"/>
+      <c r="K75" s="84"/>
+      <c r="L75" s="84"/>
+      <c r="M75" s="84"/>
       <c r="O75" t="s">
         <v>36</v>
       </c>
@@ -18128,11 +18150,11 @@
       <c r="I82" s="8">
         <v>95</v>
       </c>
-      <c r="K82" s="86" t="s">
+      <c r="K82" s="85" t="s">
         <v>7</v>
       </c>
-      <c r="L82" s="87"/>
-      <c r="M82" s="88"/>
+      <c r="L82" s="86"/>
+      <c r="M82" s="87"/>
       <c r="O82" t="s">
         <v>40</v>
       </c>
@@ -18267,11 +18289,11 @@
       <c r="I86" s="8">
         <v>63</v>
       </c>
-      <c r="K86" s="85" t="s">
+      <c r="K86" s="84" t="s">
         <v>11</v>
       </c>
-      <c r="L86" s="85"/>
-      <c r="M86" s="85"/>
+      <c r="L86" s="84"/>
+      <c r="M86" s="84"/>
       <c r="O86" t="s">
         <v>39</v>
       </c>
@@ -18301,11 +18323,11 @@
       <c r="I87" s="8">
         <v>55</v>
       </c>
-      <c r="K87" s="85" t="s">
+      <c r="K87" s="84" t="s">
         <v>12</v>
       </c>
-      <c r="L87" s="85"/>
-      <c r="M87" s="85"/>
+      <c r="L87" s="84"/>
+      <c r="M87" s="84"/>
       <c r="O87" t="s">
         <v>39</v>
       </c>
@@ -18335,11 +18357,11 @@
       <c r="I88" s="1">
         <v>47</v>
       </c>
-      <c r="K88" s="85" t="s">
+      <c r="K88" s="84" t="s">
         <v>27</v>
       </c>
-      <c r="L88" s="85"/>
-      <c r="M88" s="85"/>
+      <c r="L88" s="84"/>
+      <c r="M88" s="84"/>
       <c r="O88" t="s">
         <v>39</v>
       </c>
@@ -18369,11 +18391,11 @@
       <c r="I89" s="8">
         <v>39</v>
       </c>
-      <c r="K89" s="85" t="s">
+      <c r="K89" s="84" t="s">
         <v>28</v>
       </c>
-      <c r="L89" s="85"/>
-      <c r="M89" s="85"/>
+      <c r="L89" s="84"/>
+      <c r="M89" s="84"/>
       <c r="O89" t="s">
         <v>39</v>
       </c>
@@ -18403,9 +18425,9 @@
       <c r="I90" s="1">
         <v>31</v>
       </c>
-      <c r="K90" s="85"/>
-      <c r="L90" s="85"/>
-      <c r="M90" s="85"/>
+      <c r="K90" s="84"/>
+      <c r="L90" s="84"/>
+      <c r="M90" s="84"/>
       <c r="O90" t="s">
         <v>39</v>
       </c>
@@ -18435,9 +18457,9 @@
       <c r="I91" s="8">
         <v>23</v>
       </c>
-      <c r="K91" s="85"/>
-      <c r="L91" s="85"/>
-      <c r="M91" s="85"/>
+      <c r="K91" s="84"/>
+      <c r="L91" s="84"/>
+      <c r="M91" s="84"/>
       <c r="O91" t="s">
         <v>39</v>
       </c>
@@ -18554,11 +18576,11 @@
       <c r="I98" s="8">
         <v>95</v>
       </c>
-      <c r="K98" s="86" t="s">
+      <c r="K98" s="85" t="s">
         <v>7</v>
       </c>
-      <c r="L98" s="87"/>
-      <c r="M98" s="88"/>
+      <c r="L98" s="86"/>
+      <c r="M98" s="87"/>
       <c r="O98" t="s">
         <v>115</v>
       </c>
@@ -18693,11 +18715,11 @@
       <c r="I102" s="8">
         <v>63</v>
       </c>
-      <c r="K102" s="85" t="s">
+      <c r="K102" s="84" t="s">
         <v>11</v>
       </c>
-      <c r="L102" s="85"/>
-      <c r="M102" s="85"/>
+      <c r="L102" s="84"/>
+      <c r="M102" s="84"/>
       <c r="O102" t="s">
         <v>113</v>
       </c>
@@ -18727,11 +18749,11 @@
       <c r="I103" s="1">
         <v>55</v>
       </c>
-      <c r="K103" s="85" t="s">
+      <c r="K103" s="84" t="s">
         <v>12</v>
       </c>
-      <c r="L103" s="85"/>
-      <c r="M103" s="85"/>
+      <c r="L103" s="84"/>
+      <c r="M103" s="84"/>
       <c r="O103" t="s">
         <v>113</v>
       </c>
@@ -18761,11 +18783,11 @@
       <c r="I104" s="8">
         <v>47</v>
       </c>
-      <c r="K104" s="85" t="s">
+      <c r="K104" s="84" t="s">
         <v>27</v>
       </c>
-      <c r="L104" s="85"/>
-      <c r="M104" s="85"/>
+      <c r="L104" s="84"/>
+      <c r="M104" s="84"/>
       <c r="O104" t="s">
         <v>113</v>
       </c>
@@ -18795,11 +18817,11 @@
       <c r="I105" s="1">
         <v>39</v>
       </c>
-      <c r="K105" s="85" t="s">
+      <c r="K105" s="84" t="s">
         <v>28</v>
       </c>
-      <c r="L105" s="85"/>
-      <c r="M105" s="85"/>
+      <c r="L105" s="84"/>
+      <c r="M105" s="84"/>
       <c r="O105" t="s">
         <v>113</v>
       </c>
@@ -18829,9 +18851,9 @@
       <c r="I106" s="1">
         <v>31</v>
       </c>
-      <c r="K106" s="85"/>
-      <c r="L106" s="85"/>
-      <c r="M106" s="85"/>
+      <c r="K106" s="84"/>
+      <c r="L106" s="84"/>
+      <c r="M106" s="84"/>
       <c r="O106" t="s">
         <v>113</v>
       </c>
@@ -18861,9 +18883,9 @@
       <c r="I107" s="1">
         <v>23</v>
       </c>
-      <c r="K107" s="85"/>
-      <c r="L107" s="85"/>
-      <c r="M107" s="85"/>
+      <c r="K107" s="84"/>
+      <c r="L107" s="84"/>
+      <c r="M107" s="84"/>
       <c r="O107" t="s">
         <v>113</v>
       </c>
@@ -18980,11 +19002,11 @@
       <c r="I114" s="1">
         <v>95</v>
       </c>
-      <c r="K114" s="86" t="s">
+      <c r="K114" s="85" t="s">
         <v>7</v>
       </c>
-      <c r="L114" s="87"/>
-      <c r="M114" s="88"/>
+      <c r="L114" s="86"/>
+      <c r="M114" s="87"/>
       <c r="O114" t="s">
         <v>116</v>
       </c>
@@ -19119,11 +19141,11 @@
       <c r="I118" s="1">
         <v>63</v>
       </c>
-      <c r="K118" s="85" t="s">
+      <c r="K118" s="84" t="s">
         <v>11</v>
       </c>
-      <c r="L118" s="85"/>
-      <c r="M118" s="85"/>
+      <c r="L118" s="84"/>
+      <c r="M118" s="84"/>
       <c r="O118" t="s">
         <v>116</v>
       </c>
@@ -19153,11 +19175,11 @@
       <c r="I119" s="1">
         <v>55</v>
       </c>
-      <c r="K119" s="85" t="s">
+      <c r="K119" s="84" t="s">
         <v>12</v>
       </c>
-      <c r="L119" s="85"/>
-      <c r="M119" s="85"/>
+      <c r="L119" s="84"/>
+      <c r="M119" s="84"/>
       <c r="O119" t="s">
         <v>116</v>
       </c>
@@ -19187,11 +19209,11 @@
       <c r="I120" s="1">
         <v>47</v>
       </c>
-      <c r="K120" s="85" t="s">
+      <c r="K120" s="84" t="s">
         <v>27</v>
       </c>
-      <c r="L120" s="85"/>
-      <c r="M120" s="85"/>
+      <c r="L120" s="84"/>
+      <c r="M120" s="84"/>
       <c r="O120" t="s">
         <v>116</v>
       </c>
@@ -19221,11 +19243,11 @@
       <c r="I121" s="8">
         <v>39</v>
       </c>
-      <c r="K121" s="85" t="s">
+      <c r="K121" s="84" t="s">
         <v>28</v>
       </c>
-      <c r="L121" s="85"/>
-      <c r="M121" s="85"/>
+      <c r="L121" s="84"/>
+      <c r="M121" s="84"/>
       <c r="O121" t="s">
         <v>116</v>
       </c>
@@ -19255,9 +19277,9 @@
       <c r="I122" s="1">
         <v>31</v>
       </c>
-      <c r="K122" s="85"/>
-      <c r="L122" s="85"/>
-      <c r="M122" s="85"/>
+      <c r="K122" s="84"/>
+      <c r="L122" s="84"/>
+      <c r="M122" s="84"/>
       <c r="O122" t="s">
         <v>116</v>
       </c>
@@ -19287,9 +19309,9 @@
       <c r="I123" s="8">
         <v>23</v>
       </c>
-      <c r="K123" s="85"/>
-      <c r="L123" s="85"/>
-      <c r="M123" s="85"/>
+      <c r="K123" s="84"/>
+      <c r="L123" s="84"/>
+      <c r="M123" s="84"/>
       <c r="O123" t="s">
         <v>116</v>
       </c>
@@ -19406,11 +19428,11 @@
       <c r="I130" s="8">
         <v>95</v>
       </c>
-      <c r="K130" s="86" t="s">
+      <c r="K130" s="85" t="s">
         <v>7</v>
       </c>
-      <c r="L130" s="87"/>
-      <c r="M130" s="88"/>
+      <c r="L130" s="86"/>
+      <c r="M130" s="87"/>
       <c r="O130" t="s">
         <v>119</v>
       </c>
@@ -19545,11 +19567,11 @@
       <c r="I134" s="1">
         <v>63</v>
       </c>
-      <c r="K134" s="85" t="s">
+      <c r="K134" s="84" t="s">
         <v>11</v>
       </c>
-      <c r="L134" s="85"/>
-      <c r="M134" s="85"/>
+      <c r="L134" s="84"/>
+      <c r="M134" s="84"/>
       <c r="O134" t="s">
         <v>119</v>
       </c>
@@ -19579,11 +19601,11 @@
       <c r="I135" s="1">
         <v>55</v>
       </c>
-      <c r="K135" s="85" t="s">
+      <c r="K135" s="84" t="s">
         <v>12</v>
       </c>
-      <c r="L135" s="85"/>
-      <c r="M135" s="85"/>
+      <c r="L135" s="84"/>
+      <c r="M135" s="84"/>
       <c r="O135" t="s">
         <v>119</v>
       </c>
@@ -19613,11 +19635,11 @@
       <c r="I136" s="1">
         <v>47</v>
       </c>
-      <c r="K136" s="85" t="s">
+      <c r="K136" s="84" t="s">
         <v>27</v>
       </c>
-      <c r="L136" s="85"/>
-      <c r="M136" s="85"/>
+      <c r="L136" s="84"/>
+      <c r="M136" s="84"/>
       <c r="O136" t="s">
         <v>119</v>
       </c>
@@ -19647,11 +19669,11 @@
       <c r="I137" s="1">
         <v>39</v>
       </c>
-      <c r="K137" s="85" t="s">
+      <c r="K137" s="84" t="s">
         <v>28</v>
       </c>
-      <c r="L137" s="85"/>
-      <c r="M137" s="85"/>
+      <c r="L137" s="84"/>
+      <c r="M137" s="84"/>
       <c r="O137" t="s">
         <v>119</v>
       </c>
@@ -19681,9 +19703,9 @@
       <c r="I138" s="1">
         <v>31</v>
       </c>
-      <c r="K138" s="85"/>
-      <c r="L138" s="85"/>
-      <c r="M138" s="85"/>
+      <c r="K138" s="84"/>
+      <c r="L138" s="84"/>
+      <c r="M138" s="84"/>
       <c r="O138" t="s">
         <v>119</v>
       </c>
@@ -19713,9 +19735,9 @@
       <c r="I139" s="8">
         <v>23</v>
       </c>
-      <c r="K139" s="85"/>
-      <c r="L139" s="85"/>
-      <c r="M139" s="85"/>
+      <c r="K139" s="84"/>
+      <c r="L139" s="84"/>
+      <c r="M139" s="84"/>
       <c r="O139" t="s">
         <v>119</v>
       </c>
@@ -19832,11 +19854,11 @@
       <c r="I146" s="1">
         <v>95</v>
       </c>
-      <c r="K146" s="86" t="s">
+      <c r="K146" s="85" t="s">
         <v>7</v>
       </c>
-      <c r="L146" s="87"/>
-      <c r="M146" s="88"/>
+      <c r="L146" s="86"/>
+      <c r="M146" s="87"/>
       <c r="O146" t="s">
         <v>122</v>
       </c>
@@ -19971,11 +19993,11 @@
       <c r="I150" s="3">
         <v>63</v>
       </c>
-      <c r="K150" s="85" t="s">
+      <c r="K150" s="84" t="s">
         <v>11</v>
       </c>
-      <c r="L150" s="85"/>
-      <c r="M150" s="85"/>
+      <c r="L150" s="84"/>
+      <c r="M150" s="84"/>
       <c r="O150" t="s">
         <v>122</v>
       </c>
@@ -20005,11 +20027,11 @@
       <c r="I151" s="3">
         <v>55</v>
       </c>
-      <c r="K151" s="85" t="s">
+      <c r="K151" s="84" t="s">
         <v>12</v>
       </c>
-      <c r="L151" s="85"/>
-      <c r="M151" s="85"/>
+      <c r="L151" s="84"/>
+      <c r="M151" s="84"/>
       <c r="O151" t="s">
         <v>122</v>
       </c>
@@ -20039,11 +20061,11 @@
       <c r="I152" s="8">
         <v>47</v>
       </c>
-      <c r="K152" s="85" t="s">
+      <c r="K152" s="84" t="s">
         <v>27</v>
       </c>
-      <c r="L152" s="85"/>
-      <c r="M152" s="85"/>
+      <c r="L152" s="84"/>
+      <c r="M152" s="84"/>
       <c r="O152" t="s">
         <v>122</v>
       </c>
@@ -20073,11 +20095,11 @@
       <c r="I153" s="8">
         <v>39</v>
       </c>
-      <c r="K153" s="85" t="s">
+      <c r="K153" s="84" t="s">
         <v>28</v>
       </c>
-      <c r="L153" s="85"/>
-      <c r="M153" s="85"/>
+      <c r="L153" s="84"/>
+      <c r="M153" s="84"/>
       <c r="O153" t="s">
         <v>122</v>
       </c>
@@ -20107,9 +20129,9 @@
       <c r="I154" s="3">
         <v>31</v>
       </c>
-      <c r="K154" s="85"/>
-      <c r="L154" s="85"/>
-      <c r="M154" s="85"/>
+      <c r="K154" s="84"/>
+      <c r="L154" s="84"/>
+      <c r="M154" s="84"/>
       <c r="O154" t="s">
         <v>122</v>
       </c>
@@ -20139,9 +20161,9 @@
       <c r="I155" s="3">
         <v>23</v>
       </c>
-      <c r="K155" s="85"/>
-      <c r="L155" s="85"/>
-      <c r="M155" s="85"/>
+      <c r="K155" s="84"/>
+      <c r="L155" s="84"/>
+      <c r="M155" s="84"/>
       <c r="O155" t="s">
         <v>122</v>
       </c>
@@ -20279,11 +20301,11 @@
       <c r="I165" s="9">
         <v>95</v>
       </c>
-      <c r="K165" s="86" t="s">
+      <c r="K165" s="85" t="s">
         <v>7</v>
       </c>
-      <c r="L165" s="87"/>
-      <c r="M165" s="88"/>
+      <c r="L165" s="86"/>
+      <c r="M165" s="87"/>
       <c r="O165" t="s">
         <v>122</v>
       </c>
@@ -20418,11 +20440,11 @@
       <c r="I169" s="9">
         <v>63</v>
       </c>
-      <c r="K169" s="85" t="s">
+      <c r="K169" s="84" t="s">
         <v>11</v>
       </c>
-      <c r="L169" s="85"/>
-      <c r="M169" s="85"/>
+      <c r="L169" s="84"/>
+      <c r="M169" s="84"/>
       <c r="O169" t="s">
         <v>122</v>
       </c>
@@ -20452,11 +20474,11 @@
       <c r="I170" s="9">
         <v>55</v>
       </c>
-      <c r="K170" s="85" t="s">
+      <c r="K170" s="84" t="s">
         <v>12</v>
       </c>
-      <c r="L170" s="85"/>
-      <c r="M170" s="85"/>
+      <c r="L170" s="84"/>
+      <c r="M170" s="84"/>
       <c r="O170" t="s">
         <v>122</v>
       </c>
@@ -20486,11 +20508,11 @@
       <c r="I171" s="9">
         <v>47</v>
       </c>
-      <c r="K171" s="85" t="s">
+      <c r="K171" s="84" t="s">
         <v>27</v>
       </c>
-      <c r="L171" s="85"/>
-      <c r="M171" s="85"/>
+      <c r="L171" s="84"/>
+      <c r="M171" s="84"/>
       <c r="O171" t="s">
         <v>122</v>
       </c>
@@ -20520,11 +20542,11 @@
       <c r="I172" s="9">
         <v>39</v>
       </c>
-      <c r="K172" s="85" t="s">
+      <c r="K172" s="84" t="s">
         <v>28</v>
       </c>
-      <c r="L172" s="85"/>
-      <c r="M172" s="85"/>
+      <c r="L172" s="84"/>
+      <c r="M172" s="84"/>
       <c r="O172" t="s">
         <v>122</v>
       </c>
@@ -20554,9 +20576,9 @@
       <c r="I173" s="9">
         <v>31</v>
       </c>
-      <c r="K173" s="85"/>
-      <c r="L173" s="85"/>
-      <c r="M173" s="85"/>
+      <c r="K173" s="84"/>
+      <c r="L173" s="84"/>
+      <c r="M173" s="84"/>
       <c r="O173" t="s">
         <v>122</v>
       </c>
@@ -20586,9 +20608,9 @@
       <c r="I174" s="9">
         <v>23</v>
       </c>
-      <c r="K174" s="85"/>
-      <c r="L174" s="85"/>
-      <c r="M174" s="85"/>
+      <c r="K174" s="84"/>
+      <c r="L174" s="84"/>
+      <c r="M174" s="84"/>
       <c r="O174" t="s">
         <v>122</v>
       </c>
@@ -20674,53 +20696,18 @@
     </row>
   </sheetData>
   <mergeCells count="75">
-    <mergeCell ref="K173:M173"/>
-    <mergeCell ref="K174:M174"/>
-    <mergeCell ref="K165:M165"/>
-    <mergeCell ref="K169:M169"/>
-    <mergeCell ref="K170:M170"/>
-    <mergeCell ref="K171:M171"/>
-    <mergeCell ref="K172:M172"/>
-    <mergeCell ref="K153:M153"/>
-    <mergeCell ref="K154:M154"/>
-    <mergeCell ref="K155:M155"/>
-    <mergeCell ref="K139:M139"/>
-    <mergeCell ref="K146:M146"/>
-    <mergeCell ref="K150:M150"/>
-    <mergeCell ref="K151:M151"/>
-    <mergeCell ref="K152:M152"/>
-    <mergeCell ref="K134:M134"/>
-    <mergeCell ref="K135:M135"/>
-    <mergeCell ref="K136:M136"/>
-    <mergeCell ref="K137:M137"/>
-    <mergeCell ref="K138:M138"/>
-    <mergeCell ref="K120:M120"/>
-    <mergeCell ref="K121:M121"/>
-    <mergeCell ref="K122:M122"/>
-    <mergeCell ref="K123:M123"/>
-    <mergeCell ref="K130:M130"/>
-    <mergeCell ref="K106:M106"/>
-    <mergeCell ref="K107:M107"/>
-    <mergeCell ref="K114:M114"/>
-    <mergeCell ref="K118:M118"/>
-    <mergeCell ref="K119:M119"/>
-    <mergeCell ref="K98:M98"/>
-    <mergeCell ref="K102:M102"/>
-    <mergeCell ref="K103:M103"/>
-    <mergeCell ref="K104:M104"/>
-    <mergeCell ref="K105:M105"/>
-    <mergeCell ref="K2:M2"/>
-    <mergeCell ref="K18:M18"/>
-    <mergeCell ref="K34:M34"/>
-    <mergeCell ref="K50:M50"/>
-    <mergeCell ref="K66:M66"/>
-    <mergeCell ref="K8:M8"/>
-    <mergeCell ref="K9:M9"/>
-    <mergeCell ref="K42:M42"/>
-    <mergeCell ref="K43:M43"/>
-    <mergeCell ref="K58:M58"/>
-    <mergeCell ref="K26:M26"/>
-    <mergeCell ref="K27:M27"/>
+    <mergeCell ref="K88:M88"/>
+    <mergeCell ref="K89:M89"/>
+    <mergeCell ref="K90:M90"/>
+    <mergeCell ref="K56:M56"/>
+    <mergeCell ref="K57:M57"/>
+    <mergeCell ref="K59:M59"/>
+    <mergeCell ref="K86:M86"/>
+    <mergeCell ref="K87:M87"/>
+    <mergeCell ref="K71:M71"/>
+    <mergeCell ref="K72:M72"/>
+    <mergeCell ref="K73:M73"/>
+    <mergeCell ref="K70:M70"/>
     <mergeCell ref="K91:M91"/>
     <mergeCell ref="K10:M10"/>
     <mergeCell ref="K11:M11"/>
@@ -20737,18 +20724,53 @@
     <mergeCell ref="K82:M82"/>
     <mergeCell ref="K74:M74"/>
     <mergeCell ref="K75:M75"/>
-    <mergeCell ref="K88:M88"/>
-    <mergeCell ref="K89:M89"/>
-    <mergeCell ref="K90:M90"/>
-    <mergeCell ref="K56:M56"/>
-    <mergeCell ref="K57:M57"/>
-    <mergeCell ref="K59:M59"/>
-    <mergeCell ref="K86:M86"/>
-    <mergeCell ref="K87:M87"/>
-    <mergeCell ref="K71:M71"/>
-    <mergeCell ref="K72:M72"/>
-    <mergeCell ref="K73:M73"/>
-    <mergeCell ref="K70:M70"/>
+    <mergeCell ref="K2:M2"/>
+    <mergeCell ref="K18:M18"/>
+    <mergeCell ref="K34:M34"/>
+    <mergeCell ref="K50:M50"/>
+    <mergeCell ref="K66:M66"/>
+    <mergeCell ref="K8:M8"/>
+    <mergeCell ref="K9:M9"/>
+    <mergeCell ref="K42:M42"/>
+    <mergeCell ref="K43:M43"/>
+    <mergeCell ref="K58:M58"/>
+    <mergeCell ref="K26:M26"/>
+    <mergeCell ref="K27:M27"/>
+    <mergeCell ref="K98:M98"/>
+    <mergeCell ref="K102:M102"/>
+    <mergeCell ref="K103:M103"/>
+    <mergeCell ref="K104:M104"/>
+    <mergeCell ref="K105:M105"/>
+    <mergeCell ref="K106:M106"/>
+    <mergeCell ref="K107:M107"/>
+    <mergeCell ref="K114:M114"/>
+    <mergeCell ref="K118:M118"/>
+    <mergeCell ref="K119:M119"/>
+    <mergeCell ref="K120:M120"/>
+    <mergeCell ref="K121:M121"/>
+    <mergeCell ref="K122:M122"/>
+    <mergeCell ref="K123:M123"/>
+    <mergeCell ref="K130:M130"/>
+    <mergeCell ref="K134:M134"/>
+    <mergeCell ref="K135:M135"/>
+    <mergeCell ref="K136:M136"/>
+    <mergeCell ref="K137:M137"/>
+    <mergeCell ref="K138:M138"/>
+    <mergeCell ref="K153:M153"/>
+    <mergeCell ref="K154:M154"/>
+    <mergeCell ref="K155:M155"/>
+    <mergeCell ref="K139:M139"/>
+    <mergeCell ref="K146:M146"/>
+    <mergeCell ref="K150:M150"/>
+    <mergeCell ref="K151:M151"/>
+    <mergeCell ref="K152:M152"/>
+    <mergeCell ref="K173:M173"/>
+    <mergeCell ref="K174:M174"/>
+    <mergeCell ref="K165:M165"/>
+    <mergeCell ref="K169:M169"/>
+    <mergeCell ref="K170:M170"/>
+    <mergeCell ref="K171:M171"/>
+    <mergeCell ref="K172:M172"/>
   </mergeCells>
   <phoneticPr fontId="17" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -20843,12 +20865,12 @@
       <c r="O1" s="29" t="s">
         <v>72</v>
       </c>
-      <c r="R1" s="90"/>
-      <c r="S1" s="90"/>
-      <c r="T1" s="90"/>
-      <c r="U1" s="90"/>
-      <c r="V1" s="91"/>
-      <c r="W1" s="91"/>
+      <c r="R1" s="89"/>
+      <c r="S1" s="89"/>
+      <c r="T1" s="89"/>
+      <c r="U1" s="89"/>
+      <c r="V1" s="90"/>
+      <c r="W1" s="90"/>
       <c r="X1" s="32"/>
       <c r="Z1" s="30"/>
       <c r="AA1" s="30"/>
@@ -20864,14 +20886,14 @@
       <c r="C2" s="29" t="s">
         <v>70</v>
       </c>
-      <c r="D2" s="74">
+      <c r="D2" s="73">
         <f>塔_属性!C2</f>
         <v>67</v>
       </c>
       <c r="E2" s="29" t="s">
         <v>70</v>
       </c>
-      <c r="F2" s="74">
+      <c r="F2" s="73">
         <f>塔_属性!D2</f>
         <v>232</v>
       </c>
@@ -20924,14 +20946,14 @@
       <c r="C3" s="29" t="s">
         <v>70</v>
       </c>
-      <c r="D3" s="74">
+      <c r="D3" s="73">
         <f>塔_属性!C3</f>
         <v>52</v>
       </c>
       <c r="E3" s="29" t="s">
         <v>70</v>
       </c>
-      <c r="F3" s="74">
+      <c r="F3" s="73">
         <f>塔_属性!D3</f>
         <v>185</v>
       </c>
@@ -20984,14 +21006,14 @@
       <c r="C4" s="29" t="s">
         <v>70</v>
       </c>
-      <c r="D4" s="74">
+      <c r="D4" s="73">
         <f>塔_属性!C4</f>
         <v>46</v>
       </c>
       <c r="E4" s="29" t="s">
         <v>70</v>
       </c>
-      <c r="F4" s="74">
+      <c r="F4" s="73">
         <f>塔_属性!D4</f>
         <v>159</v>
       </c>
@@ -21044,14 +21066,14 @@
       <c r="C5" s="29" t="s">
         <v>70</v>
       </c>
-      <c r="D5" s="74">
+      <c r="D5" s="73">
         <f>塔_属性!C5</f>
         <v>52</v>
       </c>
       <c r="E5" s="29" t="s">
         <v>70</v>
       </c>
-      <c r="F5" s="74">
+      <c r="F5" s="73">
         <f>塔_属性!D5</f>
         <v>206</v>
       </c>
@@ -21104,14 +21126,14 @@
       <c r="C6" s="29" t="s">
         <v>70</v>
       </c>
-      <c r="D6" s="74">
+      <c r="D6" s="73">
         <f>塔_属性!C6</f>
         <v>50</v>
       </c>
       <c r="E6" s="29" t="s">
         <v>70</v>
       </c>
-      <c r="F6" s="74">
+      <c r="F6" s="73">
         <f>塔_属性!D6</f>
         <v>160</v>
       </c>
@@ -21164,14 +21186,14 @@
       <c r="C7" s="29" t="s">
         <v>70</v>
       </c>
-      <c r="D7" s="74">
+      <c r="D7" s="73">
         <f>塔_属性!C7</f>
         <v>88</v>
       </c>
       <c r="E7" s="29" t="s">
         <v>70</v>
       </c>
-      <c r="F7" s="74">
+      <c r="F7" s="73">
         <f>塔_属性!D7</f>
         <v>292</v>
       </c>
@@ -21224,14 +21246,14 @@
       <c r="C8" s="29" t="s">
         <v>70</v>
       </c>
-      <c r="D8" s="74">
+      <c r="D8" s="73">
         <f>塔_属性!C8</f>
         <v>119</v>
       </c>
       <c r="E8" s="29" t="s">
         <v>70</v>
       </c>
-      <c r="F8" s="74">
+      <c r="F8" s="73">
         <f>塔_属性!D8</f>
         <v>410</v>
       </c>
@@ -21284,14 +21306,14 @@
       <c r="C9" s="29" t="s">
         <v>70</v>
       </c>
-      <c r="D9" s="74">
+      <c r="D9" s="73">
         <f>塔_属性!C9</f>
         <v>42</v>
       </c>
       <c r="E9" s="29" t="s">
         <v>70</v>
       </c>
-      <c r="F9" s="74">
+      <c r="F9" s="73">
         <f>塔_属性!D9</f>
         <v>159</v>
       </c>
@@ -21337,14 +21359,14 @@
       <c r="C10" s="29" t="s">
         <v>70</v>
       </c>
-      <c r="D10" s="74">
+      <c r="D10" s="73">
         <f>塔_属性!C10</f>
         <v>39</v>
       </c>
       <c r="E10" s="29" t="s">
         <v>70</v>
       </c>
-      <c r="F10" s="74">
+      <c r="F10" s="73">
         <f>塔_属性!D10</f>
         <v>127</v>
       </c>
@@ -21390,14 +21412,14 @@
       <c r="C11" s="29" t="s">
         <v>70</v>
       </c>
-      <c r="D11" s="74">
+      <c r="D11" s="73">
         <f>塔_属性!C11</f>
         <v>44</v>
       </c>
       <c r="E11" s="29" t="s">
         <v>70</v>
       </c>
-      <c r="F11" s="74">
+      <c r="F11" s="73">
         <f>塔_属性!D11</f>
         <v>142</v>
       </c>
@@ -21443,14 +21465,14 @@
       <c r="C12" s="29" t="s">
         <v>70</v>
       </c>
-      <c r="D12" s="74">
+      <c r="D12" s="73">
         <f>塔_属性!C12</f>
         <v>47</v>
       </c>
       <c r="E12" s="29" t="s">
         <v>70</v>
       </c>
-      <c r="F12" s="74">
+      <c r="F12" s="73">
         <f>塔_属性!D12</f>
         <v>305</v>
       </c>
@@ -21496,14 +21518,14 @@
       <c r="C13" s="29" t="s">
         <v>70</v>
       </c>
-      <c r="D13" s="74">
+      <c r="D13" s="73">
         <f>塔_属性!C13</f>
         <v>29</v>
       </c>
       <c r="E13" s="29" t="s">
         <v>70</v>
       </c>
-      <c r="F13" s="74">
+      <c r="F13" s="73">
         <f>塔_属性!D13</f>
         <v>120</v>
       </c>
@@ -21549,14 +21571,14 @@
       <c r="C14" s="29" t="s">
         <v>70</v>
       </c>
-      <c r="D14" s="74">
+      <c r="D14" s="73">
         <f>塔_属性!C14</f>
         <v>41</v>
       </c>
       <c r="E14" s="29" t="s">
         <v>70</v>
       </c>
-      <c r="F14" s="74">
+      <c r="F14" s="73">
         <f>塔_属性!D14</f>
         <v>129</v>
       </c>
@@ -21602,14 +21624,14 @@
       <c r="C15" s="29" t="s">
         <v>70</v>
       </c>
-      <c r="D15" s="74">
+      <c r="D15" s="73">
         <f>塔_属性!C15</f>
         <v>104</v>
       </c>
       <c r="E15" s="29" t="s">
         <v>70</v>
       </c>
-      <c r="F15" s="74">
+      <c r="F15" s="73">
         <f>塔_属性!D15</f>
         <v>375</v>
       </c>
@@ -21655,14 +21677,14 @@
       <c r="C16" s="29" t="s">
         <v>70</v>
       </c>
-      <c r="D16" s="74">
+      <c r="D16" s="73">
         <f>塔_属性!C16</f>
         <v>139</v>
       </c>
       <c r="E16" s="29" t="s">
         <v>70</v>
       </c>
-      <c r="F16" s="74">
+      <c r="F16" s="73">
         <f>塔_属性!D16</f>
         <v>327</v>
       </c>
@@ -21708,14 +21730,14 @@
       <c r="C17" s="29" t="s">
         <v>70</v>
       </c>
-      <c r="D17" s="74">
+      <c r="D17" s="73">
         <f>塔_属性!C17</f>
         <v>98.76</v>
       </c>
       <c r="E17" s="29" t="s">
         <v>70</v>
       </c>
-      <c r="F17" s="74">
+      <c r="F17" s="73">
         <f>塔_属性!D17</f>
         <v>195.64</v>
       </c>
@@ -21761,14 +21783,14 @@
       <c r="C18" s="29" t="s">
         <v>70</v>
       </c>
-      <c r="D18" s="74">
+      <c r="D18" s="73">
         <f>塔_属性!C18</f>
         <v>53.8</v>
       </c>
       <c r="E18" s="29" t="s">
         <v>70</v>
       </c>
-      <c r="F18" s="74">
+      <c r="F18" s="73">
         <f>塔_属性!D18</f>
         <v>118.36</v>
       </c>
@@ -21814,14 +21836,14 @@
       <c r="C19" s="29" t="s">
         <v>70</v>
       </c>
-      <c r="D19" s="74">
+      <c r="D19" s="73">
         <f>塔_属性!C19</f>
         <v>114.83999999999999</v>
       </c>
       <c r="E19" s="29" t="s">
         <v>70</v>
       </c>
-      <c r="F19" s="74">
+      <c r="F19" s="73">
         <f>塔_属性!D19</f>
         <v>387.44</v>
       </c>
@@ -21867,14 +21889,14 @@
       <c r="C20" s="29" t="s">
         <v>70</v>
       </c>
-      <c r="D20" s="74">
+      <c r="D20" s="73">
         <f>塔_属性!C20</f>
         <v>96.279999999999987</v>
       </c>
       <c r="E20" s="29" t="s">
         <v>70</v>
       </c>
-      <c r="F20" s="74">
+      <c r="F20" s="73">
         <f>塔_属性!D20</f>
         <v>226.76</v>
       </c>
@@ -21920,14 +21942,14 @@
       <c r="C21" s="29" t="s">
         <v>70</v>
       </c>
-      <c r="D21" s="74">
+      <c r="D21" s="73">
         <f>塔_属性!C21</f>
         <v>69.040000000000006</v>
       </c>
       <c r="E21" s="29" t="s">
         <v>70</v>
       </c>
-      <c r="F21" s="74">
+      <c r="F21" s="73">
         <f>塔_属性!D21</f>
         <v>90.2</v>
       </c>
@@ -21973,14 +21995,14 @@
       <c r="C22" s="29" t="s">
         <v>70</v>
       </c>
-      <c r="D22" s="74">
+      <c r="D22" s="73">
         <f>塔_属性!C22</f>
         <v>111.35999999999999</v>
       </c>
       <c r="E22" s="29" t="s">
         <v>70</v>
       </c>
-      <c r="F22" s="74">
+      <c r="F22" s="73">
         <f>塔_属性!D22</f>
         <v>223.88</v>
       </c>
@@ -22026,14 +22048,14 @@
       <c r="C23" s="29" t="s">
         <v>70</v>
       </c>
-      <c r="D23" s="74">
+      <c r="D23" s="73">
         <f>塔_属性!C23</f>
         <v>147.88</v>
       </c>
       <c r="E23" s="29" t="s">
         <v>70</v>
       </c>
-      <c r="F23" s="74">
+      <c r="F23" s="73">
         <f>塔_属性!D23</f>
         <v>324.36</v>
       </c>
@@ -22079,14 +22101,14 @@
       <c r="C24" s="29" t="s">
         <v>70</v>
       </c>
-      <c r="D24" s="74">
+      <c r="D24" s="73">
         <f>塔_属性!C24</f>
         <v>95.11999999999999</v>
       </c>
       <c r="E24" s="29" t="s">
         <v>70</v>
       </c>
-      <c r="F24" s="74">
+      <c r="F24" s="73">
         <f>塔_属性!D24</f>
         <v>218.68</v>
       </c>
@@ -22132,14 +22154,14 @@
       <c r="C25" s="29" t="s">
         <v>70</v>
       </c>
-      <c r="D25" s="74">
+      <c r="D25" s="73">
         <f>塔_属性!C25</f>
         <v>125.28</v>
       </c>
       <c r="E25" s="29" t="s">
         <v>70</v>
       </c>
-      <c r="F25" s="74">
+      <c r="F25" s="73">
         <f>塔_属性!D25</f>
         <v>346.84</v>
       </c>
@@ -22185,14 +22207,14 @@
       <c r="C26" s="29" t="s">
         <v>70</v>
       </c>
-      <c r="D26" s="74">
+      <c r="D26" s="73">
         <f>塔_属性!C26</f>
         <v>63.8</v>
       </c>
       <c r="E26" s="29" t="s">
         <v>70</v>
       </c>
-      <c r="F26" s="74">
+      <c r="F26" s="73">
         <f>塔_属性!D26</f>
         <v>196.04</v>
       </c>
@@ -22238,14 +22260,14 @@
       <c r="C27" s="29" t="s">
         <v>70</v>
       </c>
-      <c r="D27" s="74">
+      <c r="D27" s="73">
         <f>塔_属性!C27</f>
         <v>109.52</v>
       </c>
       <c r="E27" s="29" t="s">
         <v>70</v>
       </c>
-      <c r="F27" s="74">
+      <c r="F27" s="73">
         <f>塔_属性!D27</f>
         <v>184.04</v>
       </c>
@@ -22291,14 +22313,14 @@
       <c r="C28" s="29" t="s">
         <v>70</v>
       </c>
-      <c r="D28" s="74">
+      <c r="D28" s="73">
         <f>塔_属性!C28</f>
         <v>143.12</v>
       </c>
       <c r="E28" s="29" t="s">
         <v>70</v>
       </c>
-      <c r="F28" s="74">
+      <c r="F28" s="73">
         <f>塔_属性!D28</f>
         <v>349</v>
       </c>
@@ -22344,14 +22366,14 @@
       <c r="C29" s="29" t="s">
         <v>70</v>
       </c>
-      <c r="D29" s="74">
+      <c r="D29" s="73">
         <f>塔_属性!C29</f>
         <v>113.67999999999999</v>
       </c>
       <c r="E29" s="29" t="s">
         <v>70</v>
       </c>
-      <c r="F29" s="74">
+      <c r="F29" s="73">
         <f>塔_属性!D29</f>
         <v>235.48</v>
       </c>
@@ -22397,14 +22419,14 @@
       <c r="C30" s="29" t="s">
         <v>70</v>
       </c>
-      <c r="D30" s="74">
+      <c r="D30" s="73">
         <f>塔_属性!C30</f>
         <v>141.63999999999999</v>
       </c>
       <c r="E30" s="29" t="s">
         <v>70</v>
       </c>
-      <c r="F30" s="74">
+      <c r="F30" s="73">
         <f>塔_属性!D30</f>
         <v>298.24</v>
       </c>
@@ -22450,14 +22472,14 @@
       <c r="C31" s="29" t="s">
         <v>70</v>
       </c>
-      <c r="D31" s="74">
+      <c r="D31" s="73">
         <f>塔_属性!C31</f>
         <v>48.23</v>
       </c>
       <c r="E31" s="29" t="s">
         <v>70</v>
       </c>
-      <c r="F31" s="74">
+      <c r="F31" s="73">
         <f>塔_属性!D31</f>
         <v>160.08000000000001</v>
       </c>
@@ -22503,14 +22525,14 @@
       <c r="C32" s="29" t="s">
         <v>70</v>
       </c>
-      <c r="D32" s="74">
+      <c r="D32" s="73">
         <f>塔_属性!C32</f>
         <v>67.599999999999994</v>
       </c>
       <c r="E32" s="29" t="s">
         <v>70</v>
       </c>
-      <c r="F32" s="74">
+      <c r="F32" s="73">
         <f>塔_属性!D32</f>
         <v>101.88</v>
       </c>
@@ -22556,14 +22578,14 @@
       <c r="C33" s="29" t="s">
         <v>70</v>
       </c>
-      <c r="D33" s="74">
+      <c r="D33" s="73">
         <f>塔_属性!C33</f>
         <v>107.88</v>
       </c>
       <c r="E33" s="29" t="s">
         <v>70</v>
       </c>
-      <c r="F33" s="74">
+      <c r="F33" s="73">
         <f>塔_属性!D33</f>
         <v>192.55999999999997</v>
       </c>
@@ -22706,7 +22728,7 @@
       </c>
       <c r="H2" s="33" t="str">
         <f>怪_属性!D2</f>
-        <v>2.6</v>
+        <v>156.0</v>
       </c>
       <c r="I2" s="48" t="s">
         <v>90</v>
@@ -22753,7 +22775,7 @@
       </c>
       <c r="H3" s="33" t="str">
         <f>怪_属性!D3</f>
-        <v>2.6</v>
+        <v>156.0</v>
       </c>
       <c r="I3" s="48" t="s">
         <v>70</v>
@@ -22800,7 +22822,7 @@
       </c>
       <c r="H4" s="33" t="str">
         <f>怪_属性!D4</f>
-        <v>2.6</v>
+        <v>156.0</v>
       </c>
       <c r="I4" s="48" t="s">
         <v>70</v>
@@ -22847,7 +22869,7 @@
       </c>
       <c r="H5" s="33" t="str">
         <f>怪_属性!D5</f>
-        <v>2.6</v>
+        <v>156.0</v>
       </c>
       <c r="I5" s="48" t="s">
         <v>70</v>
@@ -22894,7 +22916,7 @@
       </c>
       <c r="H6" s="33" t="str">
         <f>怪_属性!D6</f>
-        <v>2.6</v>
+        <v>156.0</v>
       </c>
       <c r="I6" s="48" t="s">
         <v>70</v>
@@ -22941,7 +22963,7 @@
       </c>
       <c r="H7" s="33" t="str">
         <f>怪_属性!D7</f>
-        <v>2.6</v>
+        <v>156.0</v>
       </c>
       <c r="I7" s="48" t="s">
         <v>70</v>
@@ -22988,7 +23010,7 @@
       </c>
       <c r="H8" s="33" t="str">
         <f>怪_属性!D8</f>
-        <v>2.6</v>
+        <v>156.0</v>
       </c>
       <c r="I8" s="48" t="s">
         <v>70</v>
@@ -23035,7 +23057,7 @@
       </c>
       <c r="H9" s="33" t="str">
         <f>怪_属性!D9</f>
-        <v>2.6</v>
+        <v>156.0</v>
       </c>
       <c r="I9" s="48" t="s">
         <v>70</v>
@@ -23082,7 +23104,7 @@
       </c>
       <c r="H10" s="33" t="str">
         <f>怪_属性!D10</f>
-        <v>2.6</v>
+        <v>156.0</v>
       </c>
       <c r="I10" s="48" t="s">
         <v>70</v>
@@ -23129,7 +23151,7 @@
       </c>
       <c r="H11" s="33" t="str">
         <f>怪_属性!D11</f>
-        <v>2.6</v>
+        <v>156.0</v>
       </c>
       <c r="I11" s="48" t="s">
         <v>70</v>

--- a/_DESIGN_.xlsx
+++ b/_DESIGN_.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9302"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="-15" yWindow="-15" windowWidth="20520" windowHeight="3930" activeTab="2"/>
+    <workbookView xWindow="-15" yWindow="-15" windowWidth="20520" windowHeight="3930" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="游戏常数" sheetId="2" r:id="rId1"/>
@@ -30,109 +30,109 @@
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="897" uniqueCount="232">
   <si>
     <t>红色的格子表示敌人移动的路径点</t>
-    <phoneticPr fontId="17" type="noConversion"/>
+    <phoneticPr fontId="18" type="noConversion"/>
   </si>
   <si>
     <t>塔攻击范围</t>
-    <phoneticPr fontId="17" type="noConversion"/>
+    <phoneticPr fontId="18" type="noConversion"/>
   </si>
   <si>
     <t>塔攻击间隔</t>
-    <phoneticPr fontId="17" type="noConversion"/>
+    <phoneticPr fontId="18" type="noConversion"/>
   </si>
   <si>
     <t>怪生命值</t>
-    <phoneticPr fontId="17" type="noConversion"/>
+    <phoneticPr fontId="18" type="noConversion"/>
   </si>
   <si>
     <t>怪移动速度</t>
-    <phoneticPr fontId="17" type="noConversion"/>
+    <phoneticPr fontId="18" type="noConversion"/>
   </si>
   <si>
     <t>最小值</t>
-    <phoneticPr fontId="17" type="noConversion"/>
+    <phoneticPr fontId="18" type="noConversion"/>
   </si>
   <si>
     <t>最大值</t>
-    <phoneticPr fontId="17" type="noConversion"/>
+    <phoneticPr fontId="18" type="noConversion"/>
   </si>
   <si>
     <t>初始资源</t>
-    <phoneticPr fontId="17" type="noConversion"/>
+    <phoneticPr fontId="18" type="noConversion"/>
   </si>
   <si>
     <t>R</t>
-    <phoneticPr fontId="17" type="noConversion"/>
+    <phoneticPr fontId="18" type="noConversion"/>
   </si>
   <si>
     <t>G</t>
-    <phoneticPr fontId="17" type="noConversion"/>
+    <phoneticPr fontId="18" type="noConversion"/>
   </si>
   <si>
     <t>B</t>
-    <phoneticPr fontId="17" type="noConversion"/>
+    <phoneticPr fontId="18" type="noConversion"/>
   </si>
   <si>
     <t>怪序列</t>
-    <phoneticPr fontId="17" type="noConversion"/>
+    <phoneticPr fontId="18" type="noConversion"/>
   </si>
   <si>
     <t>1,1,1,1,1,1,1,1,1,1</t>
-    <phoneticPr fontId="17" type="noConversion"/>
+    <phoneticPr fontId="18" type="noConversion"/>
   </si>
   <si>
     <t>游戏常数</t>
-    <phoneticPr fontId="17" type="noConversion"/>
+    <phoneticPr fontId="18" type="noConversion"/>
   </si>
   <si>
     <t>属性</t>
-    <phoneticPr fontId="17" type="noConversion"/>
+    <phoneticPr fontId="18" type="noConversion"/>
   </si>
   <si>
     <t>塔攻击</t>
-    <phoneticPr fontId="17" type="noConversion"/>
+    <phoneticPr fontId="18" type="noConversion"/>
   </si>
   <si>
     <t>种类</t>
-    <phoneticPr fontId="17" type="noConversion"/>
+    <phoneticPr fontId="18" type="noConversion"/>
   </si>
   <si>
     <t>ID</t>
-    <phoneticPr fontId="17" type="noConversion"/>
+    <phoneticPr fontId="18" type="noConversion"/>
   </si>
   <si>
     <t>黄色的格子表示可放置塔的位置</t>
-    <phoneticPr fontId="17" type="noConversion"/>
+    <phoneticPr fontId="18" type="noConversion"/>
   </si>
   <si>
     <t>A</t>
-    <phoneticPr fontId="17" type="noConversion"/>
+    <phoneticPr fontId="18" type="noConversion"/>
   </si>
   <si>
     <t>B</t>
-    <phoneticPr fontId="17" type="noConversion"/>
+    <phoneticPr fontId="18" type="noConversion"/>
   </si>
   <si>
     <t>属性上限</t>
-    <phoneticPr fontId="17" type="noConversion"/>
+    <phoneticPr fontId="18" type="noConversion"/>
   </si>
   <si>
     <t>属性下限</t>
-    <phoneticPr fontId="17" type="noConversion"/>
+    <phoneticPr fontId="18" type="noConversion"/>
   </si>
   <si>
     <t>Lv.1</t>
   </si>
   <si>
     <t>Lv.1</t>
-    <phoneticPr fontId="17" type="noConversion"/>
+    <phoneticPr fontId="18" type="noConversion"/>
   </si>
   <si>
     <t>Lv.2</t>
   </si>
   <si>
     <t>Lv.2</t>
-    <phoneticPr fontId="17" type="noConversion"/>
+    <phoneticPr fontId="18" type="noConversion"/>
   </si>
   <si>
     <t>1,1,1,1,1,1,1,1,1,2</t>
@@ -142,255 +142,255 @@
   </si>
   <si>
     <t>2,2,2,2,2,2,2,2,2,2</t>
-    <phoneticPr fontId="17" type="noConversion"/>
+    <phoneticPr fontId="18" type="noConversion"/>
   </si>
   <si>
     <t>Lv.3</t>
   </si>
   <si>
     <t>Lv.3</t>
-    <phoneticPr fontId="17" type="noConversion"/>
+    <phoneticPr fontId="18" type="noConversion"/>
   </si>
   <si>
     <t>Lv.3</t>
-    <phoneticPr fontId="17" type="noConversion"/>
+    <phoneticPr fontId="18" type="noConversion"/>
   </si>
   <si>
     <t>Lv.4</t>
   </si>
   <si>
     <t>Lv.4</t>
-    <phoneticPr fontId="17" type="noConversion"/>
+    <phoneticPr fontId="18" type="noConversion"/>
   </si>
   <si>
     <t>Lv.4</t>
-    <phoneticPr fontId="17" type="noConversion"/>
+    <phoneticPr fontId="18" type="noConversion"/>
   </si>
   <si>
     <t>Lv.5</t>
   </si>
   <si>
     <t>Lv.5</t>
-    <phoneticPr fontId="17" type="noConversion"/>
+    <phoneticPr fontId="18" type="noConversion"/>
   </si>
   <si>
     <t>Lv.5</t>
-    <phoneticPr fontId="17" type="noConversion"/>
+    <phoneticPr fontId="18" type="noConversion"/>
   </si>
   <si>
     <t>Lv.6</t>
   </si>
   <si>
     <t>Lv.6</t>
-    <phoneticPr fontId="17" type="noConversion"/>
+    <phoneticPr fontId="18" type="noConversion"/>
   </si>
   <si>
     <t>属性中间值</t>
-    <phoneticPr fontId="17" type="noConversion"/>
+    <phoneticPr fontId="18" type="noConversion"/>
   </si>
   <si>
     <t>属性中间值X</t>
-    <phoneticPr fontId="17" type="noConversion"/>
+    <phoneticPr fontId="18" type="noConversion"/>
   </si>
   <si>
     <t>溅射范围</t>
-    <phoneticPr fontId="17" type="noConversion"/>
+    <phoneticPr fontId="18" type="noConversion"/>
   </si>
   <si>
     <t>CANNON</t>
-    <phoneticPr fontId="17" type="noConversion"/>
+    <phoneticPr fontId="18" type="noConversion"/>
   </si>
   <si>
     <t>CANNON_TYPE_SPLASH</t>
-    <phoneticPr fontId="17" type="noConversion"/>
+    <phoneticPr fontId="18" type="noConversion"/>
   </si>
   <si>
     <t>CANNON_TYPE_SLOW_ONE</t>
-    <phoneticPr fontId="17" type="noConversion"/>
+    <phoneticPr fontId="18" type="noConversion"/>
   </si>
   <si>
     <t>CANNON_TYPE_PENETRATE</t>
-    <phoneticPr fontId="17" type="noConversion"/>
+    <phoneticPr fontId="18" type="noConversion"/>
   </si>
   <si>
     <t>CANNON_TYPE_POISONOUS_ONE</t>
-    <phoneticPr fontId="17" type="noConversion"/>
+    <phoneticPr fontId="18" type="noConversion"/>
   </si>
   <si>
     <t>CANNON_TYPE_RAGE</t>
-    <phoneticPr fontId="17" type="noConversion"/>
+    <phoneticPr fontId="18" type="noConversion"/>
   </si>
   <si>
     <t>普通</t>
-    <phoneticPr fontId="17" type="noConversion"/>
+    <phoneticPr fontId="18" type="noConversion"/>
   </si>
   <si>
     <t>中文</t>
-    <phoneticPr fontId="17" type="noConversion"/>
+    <phoneticPr fontId="18" type="noConversion"/>
   </si>
   <si>
     <t>溅射</t>
-    <phoneticPr fontId="17" type="noConversion"/>
+    <phoneticPr fontId="18" type="noConversion"/>
   </si>
   <si>
     <t>单减速</t>
-    <phoneticPr fontId="17" type="noConversion"/>
+    <phoneticPr fontId="18" type="noConversion"/>
   </si>
   <si>
     <t>穿透</t>
-    <phoneticPr fontId="17" type="noConversion"/>
+    <phoneticPr fontId="18" type="noConversion"/>
   </si>
   <si>
     <t>单毒</t>
-    <phoneticPr fontId="17" type="noConversion"/>
+    <phoneticPr fontId="18" type="noConversion"/>
   </si>
   <si>
     <t>狂暴</t>
-    <phoneticPr fontId="17" type="noConversion"/>
+    <phoneticPr fontId="18" type="noConversion"/>
   </si>
   <si>
     <t>触发次数</t>
-    <phoneticPr fontId="17" type="noConversion"/>
+    <phoneticPr fontId="18" type="noConversion"/>
   </si>
   <si>
     <t>0,1,2,3</t>
-    <phoneticPr fontId="17" type="noConversion"/>
+    <phoneticPr fontId="18" type="noConversion"/>
   </si>
   <si>
     <t>0,1</t>
-    <phoneticPr fontId="17" type="noConversion"/>
+    <phoneticPr fontId="18" type="noConversion"/>
   </si>
   <si>
     <t>0,1,2</t>
-    <phoneticPr fontId="17" type="noConversion"/>
+    <phoneticPr fontId="18" type="noConversion"/>
   </si>
   <si>
     <t>0,1,2,3</t>
-    <phoneticPr fontId="17" type="noConversion"/>
+    <phoneticPr fontId="18" type="noConversion"/>
   </si>
   <si>
     <t>CANNON_TYPE_MAGIC</t>
-    <phoneticPr fontId="17" type="noConversion"/>
+    <phoneticPr fontId="18" type="noConversion"/>
   </si>
   <si>
     <t>魔法</t>
-    <phoneticPr fontId="17" type="noConversion"/>
+    <phoneticPr fontId="18" type="noConversion"/>
   </si>
   <si>
     <t>狂暴因子</t>
-    <phoneticPr fontId="17" type="noConversion"/>
+    <phoneticPr fontId="18" type="noConversion"/>
   </si>
   <si>
     <t>减速因子</t>
-    <phoneticPr fontId="17" type="noConversion"/>
+    <phoneticPr fontId="18" type="noConversion"/>
   </si>
   <si>
     <t>减速时间</t>
-    <phoneticPr fontId="17" type="noConversion"/>
+    <phoneticPr fontId="18" type="noConversion"/>
   </si>
   <si>
     <t>毒伤害</t>
-    <phoneticPr fontId="17" type="noConversion"/>
+    <phoneticPr fontId="18" type="noConversion"/>
   </si>
   <si>
     <t>毒时间</t>
-    <phoneticPr fontId="17" type="noConversion"/>
+    <phoneticPr fontId="18" type="noConversion"/>
   </si>
   <si>
     <t>]]</t>
-    <phoneticPr fontId="19" type="noConversion"/>
+    <phoneticPr fontId="20" type="noConversion"/>
   </si>
   <si>
     <t>,</t>
-    <phoneticPr fontId="19" type="noConversion"/>
+    <phoneticPr fontId="20" type="noConversion"/>
   </si>
   <si>
     <t>[</t>
-    <phoneticPr fontId="19" type="noConversion"/>
+    <phoneticPr fontId="20" type="noConversion"/>
   </si>
   <si>
     <t>],</t>
-    <phoneticPr fontId="19" type="noConversion"/>
+    <phoneticPr fontId="20" type="noConversion"/>
   </si>
   <si>
     <t>sp</t>
-    <phoneticPr fontId="19" type="noConversion"/>
+    <phoneticPr fontId="20" type="noConversion"/>
   </si>
   <si>
     <t>DPS.rate</t>
-    <phoneticPr fontId="19" type="noConversion"/>
+    <phoneticPr fontId="20" type="noConversion"/>
   </si>
   <si>
     <t>inter.rate</t>
-    <phoneticPr fontId="19" type="noConversion"/>
+    <phoneticPr fontId="20" type="noConversion"/>
   </si>
   <si>
     <t>range.rate</t>
-    <phoneticPr fontId="19" type="noConversion"/>
+    <phoneticPr fontId="20" type="noConversion"/>
   </si>
   <si>
     <t>att.rate</t>
-    <phoneticPr fontId="19" type="noConversion"/>
+    <phoneticPr fontId="20" type="noConversion"/>
   </si>
   <si>
     <t>DPS</t>
-    <phoneticPr fontId="19" type="noConversion"/>
+    <phoneticPr fontId="20" type="noConversion"/>
   </si>
   <si>
     <t>DPS.extra</t>
-    <phoneticPr fontId="19" type="noConversion"/>
+    <phoneticPr fontId="20" type="noConversion"/>
   </si>
   <si>
     <t>DPS.factor</t>
-    <phoneticPr fontId="19" type="noConversion"/>
+    <phoneticPr fontId="20" type="noConversion"/>
   </si>
   <si>
     <t>"intervalUpperLimits"</t>
-    <phoneticPr fontId="19" type="noConversion"/>
+    <phoneticPr fontId="20" type="noConversion"/>
   </si>
   <si>
     <t>"intervalLowerLimits"</t>
-    <phoneticPr fontId="19" type="noConversion"/>
+    <phoneticPr fontId="20" type="noConversion"/>
   </si>
   <si>
     <t>"rangeUpperLimit"</t>
-    <phoneticPr fontId="19" type="noConversion"/>
+    <phoneticPr fontId="20" type="noConversion"/>
   </si>
   <si>
     <t>"rangeLowerLimit"</t>
-    <phoneticPr fontId="19" type="noConversion"/>
+    <phoneticPr fontId="20" type="noConversion"/>
   </si>
   <si>
     <t>"_attackUpperLimit"</t>
-    <phoneticPr fontId="19" type="noConversion"/>
+    <phoneticPr fontId="20" type="noConversion"/>
   </si>
   <si>
     <t>"_attackLowerLimit"</t>
-    <phoneticPr fontId="19" type="noConversion"/>
+    <phoneticPr fontId="20" type="noConversion"/>
   </si>
   <si>
     <t>"ID"</t>
-    <phoneticPr fontId="19" type="noConversion"/>
+    <phoneticPr fontId="20" type="noConversion"/>
   </si>
   <si>
     <t>[[</t>
-    <phoneticPr fontId="19" type="noConversion"/>
+    <phoneticPr fontId="20" type="noConversion"/>
   </si>
   <si>
     <t>false</t>
-    <phoneticPr fontId="19" type="noConversion"/>
+    <phoneticPr fontId="20" type="noConversion"/>
   </si>
   <si>
     <t>,</t>
-    <phoneticPr fontId="19" type="noConversion"/>
+    <phoneticPr fontId="20" type="noConversion"/>
   </si>
   <si>
     <t>[</t>
-    <phoneticPr fontId="19" type="noConversion"/>
+    <phoneticPr fontId="20" type="noConversion"/>
   </si>
   <si>
     <t>],</t>
-    <phoneticPr fontId="19" type="noConversion"/>
+    <phoneticPr fontId="20" type="noConversion"/>
   </si>
   <si>
     <t>10</t>
@@ -421,143 +421,143 @@
   </si>
   <si>
     <t>1</t>
-    <phoneticPr fontId="19" type="noConversion"/>
+    <phoneticPr fontId="20" type="noConversion"/>
   </si>
   <si>
     <t>"antiMagic"</t>
-    <phoneticPr fontId="19" type="noConversion"/>
+    <phoneticPr fontId="20" type="noConversion"/>
   </si>
   <si>
     <t>"armor"</t>
-    <phoneticPr fontId="19" type="noConversion"/>
+    <phoneticPr fontId="20" type="noConversion"/>
   </si>
   <si>
     <t>"moveSpeed"</t>
-    <phoneticPr fontId="19" type="noConversion"/>
+    <phoneticPr fontId="20" type="noConversion"/>
   </si>
   <si>
     <t>"hitPoints"</t>
-    <phoneticPr fontId="19" type="noConversion"/>
+    <phoneticPr fontId="20" type="noConversion"/>
   </si>
   <si>
     <t>"isBoss"</t>
-    <phoneticPr fontId="19" type="noConversion"/>
+    <phoneticPr fontId="20" type="noConversion"/>
   </si>
   <si>
     <t>"ID"</t>
-    <phoneticPr fontId="19" type="noConversion"/>
+    <phoneticPr fontId="20" type="noConversion"/>
   </si>
   <si>
     <t>[[</t>
-    <phoneticPr fontId="19" type="noConversion"/>
+    <phoneticPr fontId="20" type="noConversion"/>
   </si>
   <si>
     <t>}</t>
-    <phoneticPr fontId="19" type="noConversion"/>
+    <phoneticPr fontId="20" type="noConversion"/>
   </si>
   <si>
     <t>"_slowFactorUpperLimit":</t>
-    <phoneticPr fontId="19" type="noConversion"/>
+    <phoneticPr fontId="20" type="noConversion"/>
   </si>
   <si>
     <t>{"_slowFactorLowerLimit":</t>
-    <phoneticPr fontId="19" type="noConversion"/>
+    <phoneticPr fontId="20" type="noConversion"/>
   </si>
   <si>
     <t>Lv.7</t>
   </si>
   <si>
     <t>Lv.7</t>
-    <phoneticPr fontId="17" type="noConversion"/>
+    <phoneticPr fontId="18" type="noConversion"/>
   </si>
   <si>
     <t>Lv.7</t>
-    <phoneticPr fontId="17" type="noConversion"/>
+    <phoneticPr fontId="18" type="noConversion"/>
   </si>
   <si>
     <t>Lv.8</t>
   </si>
   <si>
     <t>Lv.8</t>
-    <phoneticPr fontId="17" type="noConversion"/>
+    <phoneticPr fontId="18" type="noConversion"/>
   </si>
   <si>
     <t>Lv.8</t>
-    <phoneticPr fontId="17" type="noConversion"/>
+    <phoneticPr fontId="18" type="noConversion"/>
   </si>
   <si>
     <t>Lv.9</t>
   </si>
   <si>
     <t>Lv.9</t>
-    <phoneticPr fontId="17" type="noConversion"/>
+    <phoneticPr fontId="18" type="noConversion"/>
   </si>
   <si>
     <t>Lv.9</t>
-    <phoneticPr fontId="17" type="noConversion"/>
+    <phoneticPr fontId="18" type="noConversion"/>
   </si>
   <si>
     <t>Lv.10</t>
   </si>
   <si>
     <t>Lv.10</t>
-    <phoneticPr fontId="17" type="noConversion"/>
+    <phoneticPr fontId="18" type="noConversion"/>
   </si>
   <si>
     <t>Lv.10</t>
-    <phoneticPr fontId="17" type="noConversion"/>
+    <phoneticPr fontId="18" type="noConversion"/>
   </si>
   <si>
     <t>0,1,2,3,4</t>
-    <phoneticPr fontId="17" type="noConversion"/>
+    <phoneticPr fontId="18" type="noConversion"/>
   </si>
   <si>
     <t>0,1,2,4</t>
-    <phoneticPr fontId="17" type="noConversion"/>
+    <phoneticPr fontId="18" type="noConversion"/>
   </si>
   <si>
     <t>0,2,4,5</t>
-    <phoneticPr fontId="17" type="noConversion"/>
+    <phoneticPr fontId="18" type="noConversion"/>
   </si>
   <si>
     <t>1,2,3,4,6</t>
-    <phoneticPr fontId="17" type="noConversion"/>
+    <phoneticPr fontId="18" type="noConversion"/>
   </si>
   <si>
     <t>0,2,3,4,6</t>
-    <phoneticPr fontId="17" type="noConversion"/>
+    <phoneticPr fontId="18" type="noConversion"/>
   </si>
   <si>
     <t>增长率</t>
-    <phoneticPr fontId="17" type="noConversion"/>
+    <phoneticPr fontId="18" type="noConversion"/>
   </si>
   <si>
     <t>塔攻击力</t>
-    <phoneticPr fontId="17" type="noConversion"/>
+    <phoneticPr fontId="18" type="noConversion"/>
   </si>
   <si>
     <t>塔攻击范围</t>
-    <phoneticPr fontId="17" type="noConversion"/>
+    <phoneticPr fontId="18" type="noConversion"/>
   </si>
   <si>
     <t>塔攻击间隔</t>
-    <phoneticPr fontId="17" type="noConversion"/>
+    <phoneticPr fontId="18" type="noConversion"/>
   </si>
   <si>
     <t>DPS_basic</t>
-    <phoneticPr fontId="17" type="noConversion"/>
+    <phoneticPr fontId="18" type="noConversion"/>
   </si>
   <si>
     <t>valid items</t>
-    <phoneticPr fontId="17" type="noConversion"/>
+    <phoneticPr fontId="18" type="noConversion"/>
   </si>
   <si>
     <t>ID</t>
-    <phoneticPr fontId="19" type="noConversion"/>
+    <phoneticPr fontId="20" type="noConversion"/>
   </si>
   <si>
     <t>"_attackLowerLimit"</t>
-    <phoneticPr fontId="19" type="noConversion"/>
+    <phoneticPr fontId="20" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -585,7 +585,7 @@
       </rPr>
       <t>Limit":</t>
     </r>
-    <phoneticPr fontId="19" type="noConversion"/>
+    <phoneticPr fontId="20" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -613,7 +613,7 @@
       </rPr>
       <t>UpperLimit":</t>
     </r>
-    <phoneticPr fontId="19" type="noConversion"/>
+    <phoneticPr fontId="20" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -630,7 +630,7 @@
       </rPr>
       <t>Limit":</t>
     </r>
-    <phoneticPr fontId="19" type="noConversion"/>
+    <phoneticPr fontId="20" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -647,7 +647,7 @@
       </rPr>
       <t>UpperLimit":</t>
     </r>
-    <phoneticPr fontId="19" type="noConversion"/>
+    <phoneticPr fontId="20" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -664,7 +664,7 @@
       </rPr>
       <t>Limit":</t>
     </r>
-    <phoneticPr fontId="19" type="noConversion"/>
+    <phoneticPr fontId="20" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -681,7 +681,7 @@
       </rPr>
       <t>UpperLimit":</t>
     </r>
-    <phoneticPr fontId="19" type="noConversion"/>
+    <phoneticPr fontId="20" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -698,7 +698,7 @@
       </rPr>
       <t>Limit":</t>
     </r>
-    <phoneticPr fontId="19" type="noConversion"/>
+    <phoneticPr fontId="20" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -715,7 +715,7 @@
       </rPr>
       <t>UpperLimit":</t>
     </r>
-    <phoneticPr fontId="19" type="noConversion"/>
+    <phoneticPr fontId="20" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -732,7 +732,7 @@
       </rPr>
       <t>plash</t>
     </r>
-    <phoneticPr fontId="17" type="noConversion"/>
+    <phoneticPr fontId="18" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -749,7 +749,7 @@
       </rPr>
       <t>l</t>
     </r>
-    <phoneticPr fontId="17" type="noConversion"/>
+    <phoneticPr fontId="18" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -766,7 +766,7 @@
       </rPr>
       <t>ime</t>
     </r>
-    <phoneticPr fontId="17" type="noConversion"/>
+    <phoneticPr fontId="18" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -783,99 +783,99 @@
       </rPr>
       <t>actor</t>
     </r>
-    <phoneticPr fontId="17" type="noConversion"/>
+    <phoneticPr fontId="18" type="noConversion"/>
   </si>
   <si>
     <t>ra</t>
-    <phoneticPr fontId="17" type="noConversion"/>
+    <phoneticPr fontId="18" type="noConversion"/>
   </si>
   <si>
     <t>po</t>
-    <phoneticPr fontId="17" type="noConversion"/>
+    <phoneticPr fontId="18" type="noConversion"/>
   </si>
   <si>
     <t>po</t>
-    <phoneticPr fontId="17" type="noConversion"/>
+    <phoneticPr fontId="18" type="noConversion"/>
   </si>
   <si>
     <t>s</t>
-    <phoneticPr fontId="17" type="noConversion"/>
+    <phoneticPr fontId="18" type="noConversion"/>
   </si>
   <si>
     <t>增长率</t>
-    <phoneticPr fontId="17" type="noConversion"/>
+    <phoneticPr fontId="18" type="noConversion"/>
   </si>
   <si>
     <t>总增长率</t>
-    <phoneticPr fontId="17" type="noConversion"/>
+    <phoneticPr fontId="18" type="noConversion"/>
   </si>
   <si>
     <t>减速</t>
-    <phoneticPr fontId="17" type="noConversion"/>
+    <phoneticPr fontId="18" type="noConversion"/>
   </si>
   <si>
     <t>怪护甲</t>
-    <phoneticPr fontId="17" type="noConversion"/>
+    <phoneticPr fontId="18" type="noConversion"/>
   </si>
   <si>
     <t>普通</t>
-    <phoneticPr fontId="17" type="noConversion"/>
+    <phoneticPr fontId="18" type="noConversion"/>
   </si>
   <si>
     <t>10</t>
-    <phoneticPr fontId="19" type="noConversion"/>
+    <phoneticPr fontId="20" type="noConversion"/>
   </si>
   <si>
     <t>200</t>
-    <phoneticPr fontId="17" type="noConversion"/>
+    <phoneticPr fontId="18" type="noConversion"/>
   </si>
   <si>
     <t>8000</t>
-    <phoneticPr fontId="17" type="noConversion"/>
+    <phoneticPr fontId="18" type="noConversion"/>
   </si>
   <si>
     <t>6000</t>
-    <phoneticPr fontId="17" type="noConversion"/>
+    <phoneticPr fontId="18" type="noConversion"/>
   </si>
   <si>
     <t>10000</t>
-    <phoneticPr fontId="17" type="noConversion"/>
+    <phoneticPr fontId="18" type="noConversion"/>
   </si>
   <si>
     <t>特种</t>
-    <phoneticPr fontId="17" type="noConversion"/>
+    <phoneticPr fontId="18" type="noConversion"/>
   </si>
   <si>
     <t>额外资源奖励</t>
-    <phoneticPr fontId="17" type="noConversion"/>
+    <phoneticPr fontId="18" type="noConversion"/>
   </si>
   <si>
     <t>给沿途敌人加血</t>
-    <phoneticPr fontId="17" type="noConversion"/>
+    <phoneticPr fontId="18" type="noConversion"/>
   </si>
   <si>
     <t>死后复活成小怪</t>
-    <phoneticPr fontId="17" type="noConversion"/>
+    <phoneticPr fontId="18" type="noConversion"/>
   </si>
   <si>
     <t>Lv</t>
-    <phoneticPr fontId="17" type="noConversion"/>
+    <phoneticPr fontId="18" type="noConversion"/>
   </si>
   <si>
     <t>波数</t>
-    <phoneticPr fontId="17" type="noConversion"/>
+    <phoneticPr fontId="18" type="noConversion"/>
   </si>
   <si>
     <t>塔数</t>
-    <phoneticPr fontId="17" type="noConversion"/>
+    <phoneticPr fontId="18" type="noConversion"/>
   </si>
   <si>
     <t>玩法</t>
-    <phoneticPr fontId="17" type="noConversion"/>
+    <phoneticPr fontId="18" type="noConversion"/>
   </si>
   <si>
     <t>解锁</t>
-    <phoneticPr fontId="17" type="noConversion"/>
+    <phoneticPr fontId="18" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -892,55 +892,55 @@
       </rPr>
       <t>]</t>
     </r>
-    <phoneticPr fontId="19" type="noConversion"/>
+    <phoneticPr fontId="20" type="noConversion"/>
   </si>
   <si>
     <t>长度</t>
-    <phoneticPr fontId="17" type="noConversion"/>
+    <phoneticPr fontId="18" type="noConversion"/>
   </si>
   <si>
     <t>资源</t>
-    <phoneticPr fontId="17" type="noConversion"/>
+    <phoneticPr fontId="18" type="noConversion"/>
   </si>
   <si>
     <t>怪最高等级</t>
-    <phoneticPr fontId="17" type="noConversion"/>
+    <phoneticPr fontId="18" type="noConversion"/>
   </si>
   <si>
     <t>congratulations</t>
-    <phoneticPr fontId="17" type="noConversion"/>
+    <phoneticPr fontId="18" type="noConversion"/>
   </si>
   <si>
     <t>CONGRATULATIONS</t>
-    <phoneticPr fontId="17" type="noConversion"/>
+    <phoneticPr fontId="18" type="noConversion"/>
   </si>
   <si>
     <t>400</t>
-    <phoneticPr fontId="17" type="noConversion"/>
+    <phoneticPr fontId="18" type="noConversion"/>
   </si>
   <si>
     <t>800</t>
-    <phoneticPr fontId="17" type="noConversion"/>
+    <phoneticPr fontId="18" type="noConversion"/>
   </si>
   <si>
     <t>1500</t>
-    <phoneticPr fontId="17" type="noConversion"/>
+    <phoneticPr fontId="18" type="noConversion"/>
   </si>
   <si>
     <t>2500</t>
-    <phoneticPr fontId="17" type="noConversion"/>
+    <phoneticPr fontId="18" type="noConversion"/>
   </si>
   <si>
     <t>4000</t>
-    <phoneticPr fontId="17" type="noConversion"/>
+    <phoneticPr fontId="18" type="noConversion"/>
   </si>
   <si>
     <t>ACGILNORSTU!</t>
-    <phoneticPr fontId="17" type="noConversion"/>
+    <phoneticPr fontId="18" type="noConversion"/>
   </si>
   <si>
     <t>护甲&gt;=30时 速度&gt;=4.5时</t>
-    <phoneticPr fontId="17" type="noConversion"/>
+    <phoneticPr fontId="18" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -957,7 +957,7 @@
       </rPr>
       <t>IMIT</t>
     </r>
-    <phoneticPr fontId="17" type="noConversion"/>
+    <phoneticPr fontId="18" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -974,7 +974,7 @@
       </rPr>
       <t>plash</t>
     </r>
-    <phoneticPr fontId="19" type="noConversion"/>
+    <phoneticPr fontId="20" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -991,11 +991,11 @@
       </rPr>
       <t>annon</t>
     </r>
-    <phoneticPr fontId="19" type="noConversion"/>
+    <phoneticPr fontId="20" type="noConversion"/>
   </si>
   <si>
     <t>slowOne</t>
-    <phoneticPr fontId="19" type="noConversion"/>
+    <phoneticPr fontId="20" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -1012,7 +1012,7 @@
       </rPr>
       <t>netrate</t>
     </r>
-    <phoneticPr fontId="19" type="noConversion"/>
+    <phoneticPr fontId="20" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -1029,7 +1029,7 @@
       </rPr>
       <t>isonous</t>
     </r>
-    <phoneticPr fontId="19" type="noConversion"/>
+    <phoneticPr fontId="20" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -1046,7 +1046,7 @@
       </rPr>
       <t>ge</t>
     </r>
-    <phoneticPr fontId="19" type="noConversion"/>
+    <phoneticPr fontId="20" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -1063,7 +1063,7 @@
       </rPr>
       <t>gic</t>
     </r>
-    <phoneticPr fontId="19" type="noConversion"/>
+    <phoneticPr fontId="20" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -1080,7 +1080,7 @@
       </rPr>
       <t>ple</t>
     </r>
-    <phoneticPr fontId="17" type="noConversion"/>
+    <phoneticPr fontId="18" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -1097,7 +1097,7 @@
       </rPr>
       <t>agicSlowLine</t>
     </r>
-    <phoneticPr fontId="17" type="noConversion"/>
+    <phoneticPr fontId="18" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -1114,7 +1114,7 @@
       </rPr>
       <t>roducer</t>
     </r>
-    <phoneticPr fontId="17" type="noConversion"/>
+    <phoneticPr fontId="18" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -1131,11 +1131,11 @@
       </rPr>
       <t>onsumer</t>
     </r>
-    <phoneticPr fontId="17" type="noConversion"/>
+    <phoneticPr fontId="18" type="noConversion"/>
   </si>
   <si>
     <t>chains</t>
-    <phoneticPr fontId="17" type="noConversion"/>
+    <phoneticPr fontId="18" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -1152,7 +1152,7 @@
       </rPr>
       <t>ounce</t>
     </r>
-    <phoneticPr fontId="17" type="noConversion"/>
+    <phoneticPr fontId="18" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -1169,7 +1169,7 @@
       </rPr>
       <t>reaker</t>
     </r>
-    <phoneticPr fontId="17" type="noConversion"/>
+    <phoneticPr fontId="18" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -1186,7 +1186,7 @@
       </rPr>
       <t>niper</t>
     </r>
-    <phoneticPr fontId="17" type="noConversion"/>
+    <phoneticPr fontId="18" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -1203,7 +1203,7 @@
       </rPr>
       <t>adow</t>
     </r>
-    <phoneticPr fontId="17" type="noConversion"/>
+    <phoneticPr fontId="18" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -1220,7 +1220,7 @@
       </rPr>
       <t>oisonousMulti</t>
     </r>
-    <phoneticPr fontId="17" type="noConversion"/>
+    <phoneticPr fontId="18" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -1237,7 +1237,7 @@
       </rPr>
       <t>ltiTarget</t>
     </r>
-    <phoneticPr fontId="17" type="noConversion"/>
+    <phoneticPr fontId="18" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -1254,7 +1254,7 @@
       </rPr>
       <t>idge</t>
     </r>
-    <phoneticPr fontId="17" type="noConversion"/>
+    <phoneticPr fontId="18" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -1271,11 +1271,11 @@
       </rPr>
       <t>rmirRemover</t>
     </r>
-    <phoneticPr fontId="17" type="noConversion"/>
+    <phoneticPr fontId="18" type="noConversion"/>
   </si>
   <si>
     <t>tracing</t>
-    <phoneticPr fontId="17" type="noConversion"/>
+    <phoneticPr fontId="18" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -1292,7 +1292,7 @@
       </rPr>
       <t>aping</t>
     </r>
-    <phoneticPr fontId="17" type="noConversion"/>
+    <phoneticPr fontId="18" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -1309,7 +1309,7 @@
       </rPr>
       <t>ower</t>
     </r>
-    <phoneticPr fontId="17" type="noConversion"/>
+    <phoneticPr fontId="18" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -1326,7 +1326,7 @@
       </rPr>
       <t>ocus</t>
     </r>
-    <phoneticPr fontId="17" type="noConversion"/>
+    <phoneticPr fontId="18" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -1343,7 +1343,7 @@
       </rPr>
       <t>uperPosisonous</t>
     </r>
-    <phoneticPr fontId="17" type="noConversion"/>
+    <phoneticPr fontId="18" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -1360,7 +1360,7 @@
       </rPr>
       <t>licate</t>
     </r>
-    <phoneticPr fontId="17" type="noConversion"/>
+    <phoneticPr fontId="18" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -1377,7 +1377,7 @@
       </rPr>
       <t>argeWave</t>
     </r>
-    <phoneticPr fontId="17" type="noConversion"/>
+    <phoneticPr fontId="18" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -1394,7 +1394,7 @@
       </rPr>
       <t>plashOnBoss</t>
     </r>
-    <phoneticPr fontId="17" type="noConversion"/>
+    <phoneticPr fontId="18" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -1411,7 +1411,7 @@
       </rPr>
       <t>xpodeOnDeath</t>
     </r>
-    <phoneticPr fontId="17" type="noConversion"/>
+    <phoneticPr fontId="18" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -1428,7 +1428,7 @@
       </rPr>
       <t>iral</t>
     </r>
-    <phoneticPr fontId="19" type="noConversion"/>
+    <phoneticPr fontId="20" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -1445,7 +1445,7 @@
       </rPr>
       <t>roove</t>
     </r>
-    <phoneticPr fontId="17" type="noConversion"/>
+    <phoneticPr fontId="18" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -1462,7 +1462,7 @@
       </rPr>
       <t>ook</t>
     </r>
-    <phoneticPr fontId="17" type="noConversion"/>
+    <phoneticPr fontId="18" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -1479,7 +1479,7 @@
       </rPr>
       <t>lock</t>
     </r>
-    <phoneticPr fontId="17" type="noConversion"/>
+    <phoneticPr fontId="18" type="noConversion"/>
   </si>
   <si>
     <t>45</t>
@@ -1498,23 +1498,23 @@
   </si>
   <si>
     <t>60</t>
-    <phoneticPr fontId="17" type="noConversion"/>
+    <phoneticPr fontId="18" type="noConversion"/>
   </si>
   <si>
     <t>55</t>
-    <phoneticPr fontId="17" type="noConversion"/>
+    <phoneticPr fontId="18" type="noConversion"/>
   </si>
   <si>
     <t>50</t>
-    <phoneticPr fontId="17" type="noConversion"/>
+    <phoneticPr fontId="18" type="noConversion"/>
   </si>
   <si>
     <t>60</t>
-    <phoneticPr fontId="17" type="noConversion"/>
+    <phoneticPr fontId="18" type="noConversion"/>
   </si>
   <si>
     <t>20</t>
-    <phoneticPr fontId="19" type="noConversion"/>
+    <phoneticPr fontId="20" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -1547,7 +1547,7 @@
       </rPr>
       <t>56.0</t>
     </r>
-    <phoneticPr fontId="17" type="noConversion"/>
+    <phoneticPr fontId="18" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -1559,12 +1559,20 @@
     <numFmt numFmtId="177" formatCode="0.0_);[Red]\(0.0\)"/>
     <numFmt numFmtId="178" formatCode="0_ "/>
   </numFmts>
-  <fonts count="20" x14ac:knownFonts="1">
+  <fonts count="21" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
       <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <family val="2"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -1916,14 +1924,14 @@
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
   <cellXfs count="92">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="18" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="19" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1992,46 +2000,46 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="1">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="16" fillId="0" borderId="0" xfId="1" applyNumberFormat="1">
+    <xf numFmtId="176" fontId="17" fillId="0" borderId="0" xfId="1" applyNumberFormat="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="16" fillId="0" borderId="0" xfId="1" applyNumberFormat="1">
+    <xf numFmtId="177" fontId="17" fillId="0" borderId="0" xfId="1" applyNumberFormat="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="16" fillId="0" borderId="0" xfId="1" applyNumberFormat="1">
+    <xf numFmtId="49" fontId="17" fillId="0" borderId="0" xfId="1" applyNumberFormat="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="178" fontId="16" fillId="0" borderId="0" xfId="1" applyNumberFormat="1">
+    <xf numFmtId="178" fontId="17" fillId="0" borderId="0" xfId="1" applyNumberFormat="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="15" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1">
+    <xf numFmtId="49" fontId="16" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="13" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1">
+    <xf numFmtId="49" fontId="14" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="12" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1">
+    <xf numFmtId="177" fontId="13" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
@@ -2040,19 +2048,19 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="1" applyFont="1">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="1" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="11" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1">
+    <xf numFmtId="49" fontId="12" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="1" applyNumberFormat="1">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="1" applyNumberFormat="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
@@ -2061,78 +2069,81 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="10" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1">
+    <xf numFmtId="49" fontId="11" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="16" fillId="0" borderId="10" xfId="1" applyNumberFormat="1" applyBorder="1">
+    <xf numFmtId="49" fontId="17" fillId="0" borderId="10" xfId="1" applyNumberFormat="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="10" fillId="0" borderId="11" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1">
+    <xf numFmtId="49" fontId="11" fillId="0" borderId="11" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="16" fillId="0" borderId="12" xfId="1" applyNumberFormat="1" applyBorder="1">
+    <xf numFmtId="49" fontId="17" fillId="0" borderId="12" xfId="1" applyNumberFormat="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="10" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1">
+    <xf numFmtId="49" fontId="11" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="16" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyBorder="1">
+    <xf numFmtId="49" fontId="17" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="10" fillId="0" borderId="13" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1">
+    <xf numFmtId="49" fontId="11" fillId="0" borderId="13" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="9" fillId="0" borderId="13" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
+    <xf numFmtId="49" fontId="10" fillId="0" borderId="13" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="8" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1">
+    <xf numFmtId="49" fontId="9" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="49" fontId="6" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1">
+    <xf numFmtId="49" fontId="7" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="16" fillId="0" borderId="14" xfId="1" applyNumberFormat="1" applyBorder="1">
+    <xf numFmtId="49" fontId="17" fillId="0" borderId="14" xfId="1" applyNumberFormat="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="5" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1">
+    <xf numFmtId="49" fontId="6" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="1" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="177" fontId="13" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="8" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="17" fillId="0" borderId="0" xfId="1" applyNumberFormat="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="177" fontId="12" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="1" fontId="13" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="7" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="1" fontId="17" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="16" fillId="0" borderId="0" xfId="1" applyNumberFormat="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="12" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="16" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1">
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1">
@@ -2141,9 +2152,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -2151,6 +2159,9 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
@@ -2168,14 +2179,11 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="177" fontId="16" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="177" fontId="17" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -2403,11 +2411,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="99924224"/>
-        <c:axId val="99934208"/>
+        <c:axId val="99531008"/>
+        <c:axId val="99540992"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="99924224"/>
+        <c:axId val="99531008"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2417,12 +2425,12 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="99934208"/>
+        <c:crossAx val="99540992"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="99934208"/>
+        <c:axId val="99540992"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2451,7 +2459,7 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="99924224"/>
+        <c:crossAx val="99531008"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -6246,7 +6254,7 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:9" x14ac:dyDescent="0.15">
-      <c r="B2" s="79" t="s">
+      <c r="B2" s="80" t="s">
         <v>13</v>
       </c>
       <c r="C2" s="36"/>
@@ -6270,7 +6278,7 @@
       </c>
     </row>
     <row r="3" spans="2:9" x14ac:dyDescent="0.15">
-      <c r="B3" s="79"/>
+      <c r="B3" s="80"/>
       <c r="C3" s="37" t="s">
         <v>131</v>
       </c>
@@ -6290,7 +6298,7 @@
       <c r="I3" s="1"/>
     </row>
     <row r="4" spans="2:9" x14ac:dyDescent="0.15">
-      <c r="B4" s="79"/>
+      <c r="B4" s="80"/>
       <c r="C4" s="37" t="s">
         <v>132</v>
       </c>
@@ -6310,7 +6318,7 @@
       <c r="I4" s="1"/>
     </row>
     <row r="5" spans="2:9" x14ac:dyDescent="0.15">
-      <c r="B5" s="79"/>
+      <c r="B5" s="80"/>
       <c r="C5" s="37" t="s">
         <v>133</v>
       </c>
@@ -6330,7 +6338,7 @@
       <c r="I5" s="1"/>
     </row>
     <row r="6" spans="2:9" x14ac:dyDescent="0.15">
-      <c r="B6" s="79"/>
+      <c r="B6" s="80"/>
       <c r="C6" s="50" t="s">
         <v>156</v>
       </c>
@@ -6342,7 +6350,7 @@
       <c r="I6" s="1"/>
     </row>
     <row r="7" spans="2:9" x14ac:dyDescent="0.15">
-      <c r="B7" s="79"/>
+      <c r="B7" s="80"/>
       <c r="C7" s="36"/>
       <c r="D7" s="36"/>
       <c r="E7" s="36"/>
@@ -6352,7 +6360,7 @@
       <c r="I7" s="1"/>
     </row>
     <row r="8" spans="2:9" x14ac:dyDescent="0.15">
-      <c r="B8" s="79"/>
+      <c r="B8" s="80"/>
       <c r="C8" s="51"/>
       <c r="D8" s="51"/>
       <c r="E8" s="51"/>
@@ -6362,7 +6370,7 @@
       <c r="I8" s="1"/>
     </row>
     <row r="9" spans="2:9" x14ac:dyDescent="0.15">
-      <c r="B9" s="79"/>
+      <c r="B9" s="80"/>
       <c r="C9" s="51"/>
       <c r="D9" s="51"/>
       <c r="E9" s="51"/>
@@ -6372,7 +6380,7 @@
       <c r="I9" s="1"/>
     </row>
     <row r="10" spans="2:9" x14ac:dyDescent="0.15">
-      <c r="B10" s="79"/>
+      <c r="B10" s="80"/>
       <c r="C10" s="51" t="s">
         <v>3</v>
       </c>
@@ -6388,7 +6396,7 @@
       <c r="I10" s="1"/>
     </row>
     <row r="11" spans="2:9" x14ac:dyDescent="0.15">
-      <c r="B11" s="79"/>
+      <c r="B11" s="80"/>
       <c r="C11" s="51" t="s">
         <v>157</v>
       </c>
@@ -6404,7 +6412,7 @@
       <c r="I11" s="1"/>
     </row>
     <row r="12" spans="2:9" x14ac:dyDescent="0.15">
-      <c r="B12" s="79"/>
+      <c r="B12" s="80"/>
       <c r="C12" s="51" t="s">
         <v>4</v>
       </c>
@@ -6423,7 +6431,7 @@
   <mergeCells count="1">
     <mergeCell ref="B2:B12"/>
   </mergeCells>
-  <phoneticPr fontId="17" type="noConversion"/>
+  <phoneticPr fontId="18" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
@@ -6733,7 +6741,7 @@
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="17" type="noConversion"/>
+  <phoneticPr fontId="18" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -7052,7 +7060,7 @@
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="17" type="noConversion"/>
+  <phoneticPr fontId="18" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
@@ -7062,8 +7070,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:X49"/>
   <sheetViews>
-    <sheetView topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="F18" sqref="F18"/>
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="C10" sqref="C10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -7654,10 +7662,10 @@
         <v>7</v>
       </c>
       <c r="C9" s="76">
-        <v>42</v>
+        <v>52</v>
       </c>
       <c r="D9" s="76">
-        <v>159</v>
+        <v>179</v>
       </c>
       <c r="E9" s="69">
         <v>132</v>
@@ -7673,11 +7681,11 @@
       </c>
       <c r="I9">
         <f t="shared" si="6"/>
-        <v>107.44186046511628</v>
+        <v>133.02325581395348</v>
       </c>
       <c r="J9" s="29">
         <f t="shared" si="7"/>
-        <v>1888.674033149171</v>
+        <v>2126.243093922652</v>
       </c>
       <c r="K9" s="31">
         <v>3</v>
@@ -7693,15 +7701,15 @@
       </c>
       <c r="O9" s="29">
         <f t="shared" si="0"/>
-        <v>322.32558139534882</v>
+        <v>399.06976744186045</v>
       </c>
       <c r="P9" s="29">
         <f t="shared" si="1"/>
-        <v>5666.022099447513</v>
+        <v>6378.7292817679554</v>
       </c>
       <c r="Q9" s="30">
         <f t="shared" si="2"/>
-        <v>2.7857142857142856</v>
+        <v>2.4423076923076925</v>
       </c>
       <c r="R9" s="30">
         <f t="shared" si="3"/>
@@ -7713,7 +7721,7 @@
       </c>
       <c r="T9" s="30">
         <f t="shared" si="5"/>
-        <v>16.57856784099878</v>
+        <v>14.983995286481473</v>
       </c>
       <c r="X9" s="72"/>
     </row>
@@ -8367,7 +8375,7 @@
         <v>114.83999999999999</v>
       </c>
       <c r="D19" s="76">
-        <v>387.44</v>
+        <v>287.44</v>
       </c>
       <c r="E19" s="69">
         <v>155</v>
@@ -8379,7 +8387,7 @@
         <v>42.2</v>
       </c>
       <c r="H19" s="70">
-        <v>23.8</v>
+        <v>29.8</v>
       </c>
       <c r="I19">
         <f t="shared" ref="I19" si="48">C19*E19/G19</f>
@@ -8387,7 +8395,7 @@
       </c>
       <c r="J19" s="29">
         <f t="shared" ref="J19" si="49">D19*F19/H19</f>
-        <v>3793.0050420168068</v>
+        <v>2247.4335570469798</v>
       </c>
       <c r="K19" s="31">
         <v>10</v>
@@ -8407,11 +8415,11 @@
       </c>
       <c r="P19" s="29">
         <f t="shared" si="43"/>
-        <v>37930.050420168067</v>
+        <v>22474.335570469801</v>
       </c>
       <c r="Q19" s="30">
         <f t="shared" si="44"/>
-        <v>2.3737373737373741</v>
+        <v>1.5029606408916756</v>
       </c>
       <c r="R19" s="30">
         <f t="shared" si="45"/>
@@ -8419,11 +8427,11 @@
       </c>
       <c r="S19" s="30">
         <f t="shared" si="46"/>
-        <v>0.77310924369747913</v>
+        <v>0.41610738255033564</v>
       </c>
       <c r="T19" s="30">
         <f t="shared" si="47"/>
-        <v>7.9923041748468719</v>
+        <v>4.3281253079955615</v>
       </c>
       <c r="X19" s="72"/>
     </row>
@@ -9588,7 +9596,7 @@
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="17" type="noConversion"/>
+  <phoneticPr fontId="18" type="noConversion"/>
   <conditionalFormatting sqref="C2:C16">
     <cfRule type="dataBar" priority="267">
       <dataBar>
@@ -14113,7 +14121,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I14"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="L13" sqref="L13"/>
     </sheetView>
   </sheetViews>
@@ -14162,7 +14170,7 @@
       <c r="C2" s="56" t="s">
         <v>159</v>
       </c>
-      <c r="D2" s="91" t="s">
+      <c r="D2" s="79" t="s">
         <v>231</v>
       </c>
       <c r="E2" s="78" t="s">
@@ -14187,7 +14195,7 @@
       <c r="C3" s="56" t="s">
         <v>160</v>
       </c>
-      <c r="D3" s="91" t="s">
+      <c r="D3" s="79" t="s">
         <v>231</v>
       </c>
       <c r="E3" s="78" t="s">
@@ -14210,7 +14218,7 @@
       <c r="C4" s="65" t="s">
         <v>179</v>
       </c>
-      <c r="D4" s="91" t="s">
+      <c r="D4" s="79" t="s">
         <v>231</v>
       </c>
       <c r="E4" s="78" t="s">
@@ -14233,7 +14241,7 @@
       <c r="C5" s="65" t="s">
         <v>180</v>
       </c>
-      <c r="D5" s="91" t="s">
+      <c r="D5" s="79" t="s">
         <v>230</v>
       </c>
       <c r="E5" s="78" t="s">
@@ -14256,7 +14264,7 @@
       <c r="C6" s="65" t="s">
         <v>181</v>
       </c>
-      <c r="D6" s="91" t="s">
+      <c r="D6" s="79" t="s">
         <v>230</v>
       </c>
       <c r="E6" s="78" t="s">
@@ -14279,7 +14287,7 @@
       <c r="C7" s="65" t="s">
         <v>182</v>
       </c>
-      <c r="D7" s="91" t="s">
+      <c r="D7" s="79" t="s">
         <v>230</v>
       </c>
       <c r="E7" s="78" t="s">
@@ -14302,7 +14310,7 @@
       <c r="C8" s="65" t="s">
         <v>183</v>
       </c>
-      <c r="D8" s="91" t="s">
+      <c r="D8" s="79" t="s">
         <v>230</v>
       </c>
       <c r="E8" s="78" t="s">
@@ -14325,7 +14333,7 @@
       <c r="C9" s="61" t="s">
         <v>162</v>
       </c>
-      <c r="D9" s="91" t="s">
+      <c r="D9" s="79" t="s">
         <v>230</v>
       </c>
       <c r="E9" s="78" t="s">
@@ -14348,7 +14356,7 @@
       <c r="C10" s="61" t="s">
         <v>161</v>
       </c>
-      <c r="D10" s="91" t="s">
+      <c r="D10" s="79" t="s">
         <v>230</v>
       </c>
       <c r="E10" s="78" t="s">
@@ -14371,7 +14379,7 @@
       <c r="C11" s="61" t="s">
         <v>163</v>
       </c>
-      <c r="D11" s="91" t="s">
+      <c r="D11" s="79" t="s">
         <v>230</v>
       </c>
       <c r="E11" s="78" t="s">
@@ -14409,7 +14417,7 @@
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="17" type="noConversion"/>
+  <phoneticPr fontId="18" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
@@ -15198,13 +15206,13 @@
       </c>
     </row>
     <row r="35" spans="2:11" x14ac:dyDescent="0.15">
-      <c r="B35" s="80">
+      <c r="B35" s="84">
         <v>6</v>
       </c>
-      <c r="C35" s="80" t="s">
+      <c r="C35" s="84" t="s">
         <v>62</v>
       </c>
-      <c r="D35" s="80" t="s">
+      <c r="D35" s="84" t="s">
         <v>63</v>
       </c>
       <c r="E35" s="11" t="s">
@@ -15232,9 +15240,9 @@
       </c>
     </row>
     <row r="36" spans="2:11" x14ac:dyDescent="0.15">
-      <c r="B36" s="80"/>
-      <c r="C36" s="80"/>
-      <c r="D36" s="80"/>
+      <c r="B36" s="84"/>
+      <c r="C36" s="84"/>
+      <c r="D36" s="84"/>
       <c r="E36" s="28" t="s">
         <v>1</v>
       </c>
@@ -15260,9 +15268,9 @@
       </c>
     </row>
     <row r="37" spans="2:11" x14ac:dyDescent="0.15">
-      <c r="B37" s="80"/>
-      <c r="C37" s="80"/>
-      <c r="D37" s="80"/>
+      <c r="B37" s="84"/>
+      <c r="C37" s="84"/>
+      <c r="D37" s="84"/>
       <c r="E37" s="28" t="s">
         <v>2</v>
       </c>
@@ -15289,6 +15297,18 @@
     </row>
   </sheetData>
   <mergeCells count="21">
+    <mergeCell ref="B35:B37"/>
+    <mergeCell ref="C35:C37"/>
+    <mergeCell ref="D35:D37"/>
+    <mergeCell ref="B29:B33"/>
+    <mergeCell ref="C29:C33"/>
+    <mergeCell ref="D29:D33"/>
+    <mergeCell ref="B19:B21"/>
+    <mergeCell ref="C19:C21"/>
+    <mergeCell ref="D19:D21"/>
+    <mergeCell ref="B23:B27"/>
+    <mergeCell ref="C23:C27"/>
+    <mergeCell ref="D23:D27"/>
     <mergeCell ref="B13:B17"/>
     <mergeCell ref="C13:C17"/>
     <mergeCell ref="D13:D17"/>
@@ -15298,20 +15318,8 @@
     <mergeCell ref="D8:D11"/>
     <mergeCell ref="C4:C6"/>
     <mergeCell ref="C8:C11"/>
-    <mergeCell ref="B19:B21"/>
-    <mergeCell ref="C19:C21"/>
-    <mergeCell ref="D19:D21"/>
-    <mergeCell ref="B23:B27"/>
-    <mergeCell ref="C23:C27"/>
-    <mergeCell ref="D23:D27"/>
-    <mergeCell ref="B35:B37"/>
-    <mergeCell ref="C35:C37"/>
-    <mergeCell ref="D35:D37"/>
-    <mergeCell ref="B29:B33"/>
-    <mergeCell ref="C29:C33"/>
-    <mergeCell ref="D29:D33"/>
   </mergeCells>
-  <phoneticPr fontId="17" type="noConversion"/>
+  <phoneticPr fontId="18" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
   <drawing r:id="rId2"/>
@@ -15957,7 +15965,7 @@
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="17" type="noConversion"/>
+  <phoneticPr fontId="18" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
@@ -16005,11 +16013,11 @@
         <v>94</v>
       </c>
       <c r="I2" s="2"/>
-      <c r="K2" s="85" t="s">
+      <c r="K2" s="86" t="s">
         <v>7</v>
       </c>
-      <c r="L2" s="86"/>
-      <c r="M2" s="87"/>
+      <c r="L2" s="87"/>
+      <c r="M2" s="88"/>
       <c r="O2" t="s">
         <v>23</v>
       </c>
@@ -16205,11 +16213,11 @@
       <c r="I8" s="9">
         <v>47</v>
       </c>
-      <c r="K8" s="84" t="s">
+      <c r="K8" s="85" t="s">
         <v>11</v>
       </c>
-      <c r="L8" s="84"/>
-      <c r="M8" s="84"/>
+      <c r="L8" s="85"/>
+      <c r="M8" s="85"/>
       <c r="O8" t="s">
         <v>23</v>
       </c>
@@ -16239,11 +16247,11 @@
       <c r="I9" s="1">
         <v>39</v>
       </c>
-      <c r="K9" s="84" t="s">
+      <c r="K9" s="85" t="s">
         <v>12</v>
       </c>
-      <c r="L9" s="84"/>
-      <c r="M9" s="84"/>
+      <c r="L9" s="85"/>
+      <c r="M9" s="85"/>
       <c r="O9" t="s">
         <v>23</v>
       </c>
@@ -16273,11 +16281,11 @@
       <c r="I10" s="1">
         <v>31</v>
       </c>
-      <c r="K10" s="84" t="s">
+      <c r="K10" s="85" t="s">
         <v>29</v>
       </c>
-      <c r="L10" s="84"/>
-      <c r="M10" s="84"/>
+      <c r="L10" s="85"/>
+      <c r="M10" s="85"/>
       <c r="O10" t="s">
         <v>23</v>
       </c>
@@ -16307,9 +16315,9 @@
       <c r="I11" s="8">
         <v>23</v>
       </c>
-      <c r="K11" s="84"/>
-      <c r="L11" s="84"/>
-      <c r="M11" s="84"/>
+      <c r="K11" s="85"/>
+      <c r="L11" s="85"/>
+      <c r="M11" s="85"/>
       <c r="O11" t="s">
         <v>23</v>
       </c>
@@ -16440,11 +16448,11 @@
       <c r="I18" s="9">
         <v>95</v>
       </c>
-      <c r="K18" s="85" t="s">
+      <c r="K18" s="86" t="s">
         <v>7</v>
       </c>
-      <c r="L18" s="86"/>
-      <c r="M18" s="87"/>
+      <c r="L18" s="87"/>
+      <c r="M18" s="88"/>
       <c r="O18" t="s">
         <v>26</v>
       </c>
@@ -16579,11 +16587,11 @@
       <c r="I22" s="9">
         <v>63</v>
       </c>
-      <c r="K22" s="84" t="s">
+      <c r="K22" s="85" t="s">
         <v>11</v>
       </c>
-      <c r="L22" s="84"/>
-      <c r="M22" s="84"/>
+      <c r="L22" s="85"/>
+      <c r="M22" s="85"/>
       <c r="O22" t="s">
         <v>25</v>
       </c>
@@ -16613,11 +16621,11 @@
       <c r="I23" s="8">
         <v>55</v>
       </c>
-      <c r="K23" s="84" t="s">
+      <c r="K23" s="85" t="s">
         <v>12</v>
       </c>
-      <c r="L23" s="84"/>
-      <c r="M23" s="84"/>
+      <c r="L23" s="85"/>
+      <c r="M23" s="85"/>
       <c r="O23" t="s">
         <v>25</v>
       </c>
@@ -16647,11 +16655,11 @@
       <c r="I24" s="8">
         <v>47</v>
       </c>
-      <c r="K24" s="84" t="s">
+      <c r="K24" s="85" t="s">
         <v>27</v>
       </c>
-      <c r="L24" s="84"/>
-      <c r="M24" s="84"/>
+      <c r="L24" s="85"/>
+      <c r="M24" s="85"/>
       <c r="O24" t="s">
         <v>25</v>
       </c>
@@ -16681,11 +16689,11 @@
       <c r="I25" s="9">
         <v>39</v>
       </c>
-      <c r="K25" s="84" t="s">
+      <c r="K25" s="85" t="s">
         <v>28</v>
       </c>
-      <c r="L25" s="84"/>
-      <c r="M25" s="84"/>
+      <c r="L25" s="85"/>
+      <c r="M25" s="85"/>
       <c r="O25" t="s">
         <v>25</v>
       </c>
@@ -16715,9 +16723,9 @@
       <c r="I26" s="8">
         <v>31</v>
       </c>
-      <c r="K26" s="88"/>
-      <c r="L26" s="88"/>
-      <c r="M26" s="88"/>
+      <c r="K26" s="89"/>
+      <c r="L26" s="89"/>
+      <c r="M26" s="89"/>
       <c r="O26" t="s">
         <v>25</v>
       </c>
@@ -16747,9 +16755,9 @@
       <c r="I27" s="9">
         <v>23</v>
       </c>
-      <c r="K27" s="88"/>
-      <c r="L27" s="88"/>
-      <c r="M27" s="88"/>
+      <c r="K27" s="89"/>
+      <c r="L27" s="89"/>
+      <c r="M27" s="89"/>
       <c r="O27" t="s">
         <v>25</v>
       </c>
@@ -16872,11 +16880,11 @@
       <c r="I34" s="9">
         <v>95</v>
       </c>
-      <c r="K34" s="85" t="s">
+      <c r="K34" s="86" t="s">
         <v>7</v>
       </c>
-      <c r="L34" s="86"/>
-      <c r="M34" s="87"/>
+      <c r="L34" s="87"/>
+      <c r="M34" s="88"/>
       <c r="O34" t="s">
         <v>31</v>
       </c>
@@ -17011,11 +17019,11 @@
       <c r="I38" s="9">
         <v>63</v>
       </c>
-      <c r="K38" s="84" t="s">
+      <c r="K38" s="85" t="s">
         <v>11</v>
       </c>
-      <c r="L38" s="84"/>
-      <c r="M38" s="84"/>
+      <c r="L38" s="85"/>
+      <c r="M38" s="85"/>
       <c r="O38" t="s">
         <v>30</v>
       </c>
@@ -17045,11 +17053,11 @@
       <c r="I39" s="9">
         <v>55</v>
       </c>
-      <c r="K39" s="84" t="s">
+      <c r="K39" s="85" t="s">
         <v>12</v>
       </c>
-      <c r="L39" s="84"/>
-      <c r="M39" s="84"/>
+      <c r="L39" s="85"/>
+      <c r="M39" s="85"/>
       <c r="O39" t="s">
         <v>30</v>
       </c>
@@ -17079,11 +17087,11 @@
       <c r="I40" s="9">
         <v>47</v>
       </c>
-      <c r="K40" s="84" t="s">
+      <c r="K40" s="85" t="s">
         <v>27</v>
       </c>
-      <c r="L40" s="84"/>
-      <c r="M40" s="84"/>
+      <c r="L40" s="85"/>
+      <c r="M40" s="85"/>
       <c r="O40" t="s">
         <v>30</v>
       </c>
@@ -17113,11 +17121,11 @@
       <c r="I41" s="9">
         <v>39</v>
       </c>
-      <c r="K41" s="84" t="s">
+      <c r="K41" s="85" t="s">
         <v>28</v>
       </c>
-      <c r="L41" s="84"/>
-      <c r="M41" s="84"/>
+      <c r="L41" s="85"/>
+      <c r="M41" s="85"/>
       <c r="O41" t="s">
         <v>30</v>
       </c>
@@ -17147,9 +17155,9 @@
       <c r="I42" s="8">
         <v>31</v>
       </c>
-      <c r="K42" s="84"/>
-      <c r="L42" s="84"/>
-      <c r="M42" s="84"/>
+      <c r="K42" s="85"/>
+      <c r="L42" s="85"/>
+      <c r="M42" s="85"/>
       <c r="O42" t="s">
         <v>30</v>
       </c>
@@ -17179,9 +17187,9 @@
       <c r="I43" s="9">
         <v>23</v>
       </c>
-      <c r="K43" s="84"/>
-      <c r="L43" s="84"/>
-      <c r="M43" s="84"/>
+      <c r="K43" s="85"/>
+      <c r="L43" s="85"/>
+      <c r="M43" s="85"/>
       <c r="O43" t="s">
         <v>30</v>
       </c>
@@ -17298,11 +17306,11 @@
       <c r="I50" s="8">
         <v>95</v>
       </c>
-      <c r="K50" s="85" t="s">
+      <c r="K50" s="86" t="s">
         <v>7</v>
       </c>
-      <c r="L50" s="86"/>
-      <c r="M50" s="87"/>
+      <c r="L50" s="87"/>
+      <c r="M50" s="88"/>
       <c r="O50" t="s">
         <v>35</v>
       </c>
@@ -17437,11 +17445,11 @@
       <c r="I54" s="8">
         <v>63</v>
       </c>
-      <c r="K54" s="84" t="s">
+      <c r="K54" s="85" t="s">
         <v>11</v>
       </c>
-      <c r="L54" s="84"/>
-      <c r="M54" s="84"/>
+      <c r="L54" s="85"/>
+      <c r="M54" s="85"/>
       <c r="O54" t="s">
         <v>33</v>
       </c>
@@ -17471,11 +17479,11 @@
       <c r="I55" s="9">
         <v>55</v>
       </c>
-      <c r="K55" s="84" t="s">
+      <c r="K55" s="85" t="s">
         <v>12</v>
       </c>
-      <c r="L55" s="84"/>
-      <c r="M55" s="84"/>
+      <c r="L55" s="85"/>
+      <c r="M55" s="85"/>
       <c r="O55" t="s">
         <v>33</v>
       </c>
@@ -17505,11 +17513,11 @@
       <c r="I56" s="9">
         <v>47</v>
       </c>
-      <c r="K56" s="84" t="s">
+      <c r="K56" s="85" t="s">
         <v>27</v>
       </c>
-      <c r="L56" s="84"/>
-      <c r="M56" s="84"/>
+      <c r="L56" s="85"/>
+      <c r="M56" s="85"/>
       <c r="O56" t="s">
         <v>33</v>
       </c>
@@ -17539,11 +17547,11 @@
       <c r="I57" s="9">
         <v>39</v>
       </c>
-      <c r="K57" s="84" t="s">
+      <c r="K57" s="85" t="s">
         <v>28</v>
       </c>
-      <c r="L57" s="84"/>
-      <c r="M57" s="84"/>
+      <c r="L57" s="85"/>
+      <c r="M57" s="85"/>
       <c r="O57" t="s">
         <v>33</v>
       </c>
@@ -17573,9 +17581,9 @@
       <c r="I58" s="9">
         <v>31</v>
       </c>
-      <c r="K58" s="84"/>
-      <c r="L58" s="84"/>
-      <c r="M58" s="84"/>
+      <c r="K58" s="85"/>
+      <c r="L58" s="85"/>
+      <c r="M58" s="85"/>
       <c r="O58" t="s">
         <v>33</v>
       </c>
@@ -17605,9 +17613,9 @@
       <c r="I59" s="9">
         <v>23</v>
       </c>
-      <c r="K59" s="84"/>
-      <c r="L59" s="84"/>
-      <c r="M59" s="84"/>
+      <c r="K59" s="85"/>
+      <c r="L59" s="85"/>
+      <c r="M59" s="85"/>
       <c r="O59" t="s">
         <v>33</v>
       </c>
@@ -17724,11 +17732,11 @@
       <c r="I66" s="8">
         <v>95</v>
       </c>
-      <c r="K66" s="85" t="s">
+      <c r="K66" s="86" t="s">
         <v>7</v>
       </c>
-      <c r="L66" s="86"/>
-      <c r="M66" s="87"/>
+      <c r="L66" s="87"/>
+      <c r="M66" s="88"/>
       <c r="O66" t="s">
         <v>38</v>
       </c>
@@ -17863,11 +17871,11 @@
       <c r="I70" s="9">
         <v>63</v>
       </c>
-      <c r="K70" s="84" t="s">
+      <c r="K70" s="85" t="s">
         <v>11</v>
       </c>
-      <c r="L70" s="84"/>
-      <c r="M70" s="84"/>
+      <c r="L70" s="85"/>
+      <c r="M70" s="85"/>
       <c r="O70" t="s">
         <v>36</v>
       </c>
@@ -17897,11 +17905,11 @@
       <c r="I71" s="9">
         <v>55</v>
       </c>
-      <c r="K71" s="84" t="s">
+      <c r="K71" s="85" t="s">
         <v>12</v>
       </c>
-      <c r="L71" s="84"/>
-      <c r="M71" s="84"/>
+      <c r="L71" s="85"/>
+      <c r="M71" s="85"/>
       <c r="O71" t="s">
         <v>36</v>
       </c>
@@ -17931,11 +17939,11 @@
       <c r="I72" s="9">
         <v>47</v>
       </c>
-      <c r="K72" s="84" t="s">
+      <c r="K72" s="85" t="s">
         <v>27</v>
       </c>
-      <c r="L72" s="84"/>
-      <c r="M72" s="84"/>
+      <c r="L72" s="85"/>
+      <c r="M72" s="85"/>
       <c r="O72" t="s">
         <v>36</v>
       </c>
@@ -17965,11 +17973,11 @@
       <c r="I73" s="9">
         <v>39</v>
       </c>
-      <c r="K73" s="84" t="s">
+      <c r="K73" s="85" t="s">
         <v>28</v>
       </c>
-      <c r="L73" s="84"/>
-      <c r="M73" s="84"/>
+      <c r="L73" s="85"/>
+      <c r="M73" s="85"/>
       <c r="O73" t="s">
         <v>36</v>
       </c>
@@ -17999,9 +18007,9 @@
       <c r="I74" s="9">
         <v>31</v>
       </c>
-      <c r="K74" s="84"/>
-      <c r="L74" s="84"/>
-      <c r="M74" s="84"/>
+      <c r="K74" s="85"/>
+      <c r="L74" s="85"/>
+      <c r="M74" s="85"/>
       <c r="O74" t="s">
         <v>36</v>
       </c>
@@ -18031,9 +18039,9 @@
       <c r="I75" s="9">
         <v>23</v>
       </c>
-      <c r="K75" s="84"/>
-      <c r="L75" s="84"/>
-      <c r="M75" s="84"/>
+      <c r="K75" s="85"/>
+      <c r="L75" s="85"/>
+      <c r="M75" s="85"/>
       <c r="O75" t="s">
         <v>36</v>
       </c>
@@ -18150,11 +18158,11 @@
       <c r="I82" s="8">
         <v>95</v>
       </c>
-      <c r="K82" s="85" t="s">
+      <c r="K82" s="86" t="s">
         <v>7</v>
       </c>
-      <c r="L82" s="86"/>
-      <c r="M82" s="87"/>
+      <c r="L82" s="87"/>
+      <c r="M82" s="88"/>
       <c r="O82" t="s">
         <v>40</v>
       </c>
@@ -18289,11 +18297,11 @@
       <c r="I86" s="8">
         <v>63</v>
       </c>
-      <c r="K86" s="84" t="s">
+      <c r="K86" s="85" t="s">
         <v>11</v>
       </c>
-      <c r="L86" s="84"/>
-      <c r="M86" s="84"/>
+      <c r="L86" s="85"/>
+      <c r="M86" s="85"/>
       <c r="O86" t="s">
         <v>39</v>
       </c>
@@ -18323,11 +18331,11 @@
       <c r="I87" s="8">
         <v>55</v>
       </c>
-      <c r="K87" s="84" t="s">
+      <c r="K87" s="85" t="s">
         <v>12</v>
       </c>
-      <c r="L87" s="84"/>
-      <c r="M87" s="84"/>
+      <c r="L87" s="85"/>
+      <c r="M87" s="85"/>
       <c r="O87" t="s">
         <v>39</v>
       </c>
@@ -18357,11 +18365,11 @@
       <c r="I88" s="1">
         <v>47</v>
       </c>
-      <c r="K88" s="84" t="s">
+      <c r="K88" s="85" t="s">
         <v>27</v>
       </c>
-      <c r="L88" s="84"/>
-      <c r="M88" s="84"/>
+      <c r="L88" s="85"/>
+      <c r="M88" s="85"/>
       <c r="O88" t="s">
         <v>39</v>
       </c>
@@ -18391,11 +18399,11 @@
       <c r="I89" s="8">
         <v>39</v>
       </c>
-      <c r="K89" s="84" t="s">
+      <c r="K89" s="85" t="s">
         <v>28</v>
       </c>
-      <c r="L89" s="84"/>
-      <c r="M89" s="84"/>
+      <c r="L89" s="85"/>
+      <c r="M89" s="85"/>
       <c r="O89" t="s">
         <v>39</v>
       </c>
@@ -18425,9 +18433,9 @@
       <c r="I90" s="1">
         <v>31</v>
       </c>
-      <c r="K90" s="84"/>
-      <c r="L90" s="84"/>
-      <c r="M90" s="84"/>
+      <c r="K90" s="85"/>
+      <c r="L90" s="85"/>
+      <c r="M90" s="85"/>
       <c r="O90" t="s">
         <v>39</v>
       </c>
@@ -18457,9 +18465,9 @@
       <c r="I91" s="8">
         <v>23</v>
       </c>
-      <c r="K91" s="84"/>
-      <c r="L91" s="84"/>
-      <c r="M91" s="84"/>
+      <c r="K91" s="85"/>
+      <c r="L91" s="85"/>
+      <c r="M91" s="85"/>
       <c r="O91" t="s">
         <v>39</v>
       </c>
@@ -18576,11 +18584,11 @@
       <c r="I98" s="8">
         <v>95</v>
       </c>
-      <c r="K98" s="85" t="s">
+      <c r="K98" s="86" t="s">
         <v>7</v>
       </c>
-      <c r="L98" s="86"/>
-      <c r="M98" s="87"/>
+      <c r="L98" s="87"/>
+      <c r="M98" s="88"/>
       <c r="O98" t="s">
         <v>115</v>
       </c>
@@ -18715,11 +18723,11 @@
       <c r="I102" s="8">
         <v>63</v>
       </c>
-      <c r="K102" s="84" t="s">
+      <c r="K102" s="85" t="s">
         <v>11</v>
       </c>
-      <c r="L102" s="84"/>
-      <c r="M102" s="84"/>
+      <c r="L102" s="85"/>
+      <c r="M102" s="85"/>
       <c r="O102" t="s">
         <v>113</v>
       </c>
@@ -18749,11 +18757,11 @@
       <c r="I103" s="1">
         <v>55</v>
       </c>
-      <c r="K103" s="84" t="s">
+      <c r="K103" s="85" t="s">
         <v>12</v>
       </c>
-      <c r="L103" s="84"/>
-      <c r="M103" s="84"/>
+      <c r="L103" s="85"/>
+      <c r="M103" s="85"/>
       <c r="O103" t="s">
         <v>113</v>
       </c>
@@ -18783,11 +18791,11 @@
       <c r="I104" s="8">
         <v>47</v>
       </c>
-      <c r="K104" s="84" t="s">
+      <c r="K104" s="85" t="s">
         <v>27</v>
       </c>
-      <c r="L104" s="84"/>
-      <c r="M104" s="84"/>
+      <c r="L104" s="85"/>
+      <c r="M104" s="85"/>
       <c r="O104" t="s">
         <v>113</v>
       </c>
@@ -18817,11 +18825,11 @@
       <c r="I105" s="1">
         <v>39</v>
       </c>
-      <c r="K105" s="84" t="s">
+      <c r="K105" s="85" t="s">
         <v>28</v>
       </c>
-      <c r="L105" s="84"/>
-      <c r="M105" s="84"/>
+      <c r="L105" s="85"/>
+      <c r="M105" s="85"/>
       <c r="O105" t="s">
         <v>113</v>
       </c>
@@ -18851,9 +18859,9 @@
       <c r="I106" s="1">
         <v>31</v>
       </c>
-      <c r="K106" s="84"/>
-      <c r="L106" s="84"/>
-      <c r="M106" s="84"/>
+      <c r="K106" s="85"/>
+      <c r="L106" s="85"/>
+      <c r="M106" s="85"/>
       <c r="O106" t="s">
         <v>113</v>
       </c>
@@ -18883,9 +18891,9 @@
       <c r="I107" s="1">
         <v>23</v>
       </c>
-      <c r="K107" s="84"/>
-      <c r="L107" s="84"/>
-      <c r="M107" s="84"/>
+      <c r="K107" s="85"/>
+      <c r="L107" s="85"/>
+      <c r="M107" s="85"/>
       <c r="O107" t="s">
         <v>113</v>
       </c>
@@ -19002,11 +19010,11 @@
       <c r="I114" s="1">
         <v>95</v>
       </c>
-      <c r="K114" s="85" t="s">
+      <c r="K114" s="86" t="s">
         <v>7</v>
       </c>
-      <c r="L114" s="86"/>
-      <c r="M114" s="87"/>
+      <c r="L114" s="87"/>
+      <c r="M114" s="88"/>
       <c r="O114" t="s">
         <v>116</v>
       </c>
@@ -19141,11 +19149,11 @@
       <c r="I118" s="1">
         <v>63</v>
       </c>
-      <c r="K118" s="84" t="s">
+      <c r="K118" s="85" t="s">
         <v>11</v>
       </c>
-      <c r="L118" s="84"/>
-      <c r="M118" s="84"/>
+      <c r="L118" s="85"/>
+      <c r="M118" s="85"/>
       <c r="O118" t="s">
         <v>116</v>
       </c>
@@ -19175,11 +19183,11 @@
       <c r="I119" s="1">
         <v>55</v>
       </c>
-      <c r="K119" s="84" t="s">
+      <c r="K119" s="85" t="s">
         <v>12</v>
       </c>
-      <c r="L119" s="84"/>
-      <c r="M119" s="84"/>
+      <c r="L119" s="85"/>
+      <c r="M119" s="85"/>
       <c r="O119" t="s">
         <v>116</v>
       </c>
@@ -19209,11 +19217,11 @@
       <c r="I120" s="1">
         <v>47</v>
       </c>
-      <c r="K120" s="84" t="s">
+      <c r="K120" s="85" t="s">
         <v>27</v>
       </c>
-      <c r="L120" s="84"/>
-      <c r="M120" s="84"/>
+      <c r="L120" s="85"/>
+      <c r="M120" s="85"/>
       <c r="O120" t="s">
         <v>116</v>
       </c>
@@ -19243,11 +19251,11 @@
       <c r="I121" s="8">
         <v>39</v>
       </c>
-      <c r="K121" s="84" t="s">
+      <c r="K121" s="85" t="s">
         <v>28</v>
       </c>
-      <c r="L121" s="84"/>
-      <c r="M121" s="84"/>
+      <c r="L121" s="85"/>
+      <c r="M121" s="85"/>
       <c r="O121" t="s">
         <v>116</v>
       </c>
@@ -19277,9 +19285,9 @@
       <c r="I122" s="1">
         <v>31</v>
       </c>
-      <c r="K122" s="84"/>
-      <c r="L122" s="84"/>
-      <c r="M122" s="84"/>
+      <c r="K122" s="85"/>
+      <c r="L122" s="85"/>
+      <c r="M122" s="85"/>
       <c r="O122" t="s">
         <v>116</v>
       </c>
@@ -19309,9 +19317,9 @@
       <c r="I123" s="8">
         <v>23</v>
       </c>
-      <c r="K123" s="84"/>
-      <c r="L123" s="84"/>
-      <c r="M123" s="84"/>
+      <c r="K123" s="85"/>
+      <c r="L123" s="85"/>
+      <c r="M123" s="85"/>
       <c r="O123" t="s">
         <v>116</v>
       </c>
@@ -19428,11 +19436,11 @@
       <c r="I130" s="8">
         <v>95</v>
       </c>
-      <c r="K130" s="85" t="s">
+      <c r="K130" s="86" t="s">
         <v>7</v>
       </c>
-      <c r="L130" s="86"/>
-      <c r="M130" s="87"/>
+      <c r="L130" s="87"/>
+      <c r="M130" s="88"/>
       <c r="O130" t="s">
         <v>119</v>
       </c>
@@ -19567,11 +19575,11 @@
       <c r="I134" s="1">
         <v>63</v>
       </c>
-      <c r="K134" s="84" t="s">
+      <c r="K134" s="85" t="s">
         <v>11</v>
       </c>
-      <c r="L134" s="84"/>
-      <c r="M134" s="84"/>
+      <c r="L134" s="85"/>
+      <c r="M134" s="85"/>
       <c r="O134" t="s">
         <v>119</v>
       </c>
@@ -19601,11 +19609,11 @@
       <c r="I135" s="1">
         <v>55</v>
       </c>
-      <c r="K135" s="84" t="s">
+      <c r="K135" s="85" t="s">
         <v>12</v>
       </c>
-      <c r="L135" s="84"/>
-      <c r="M135" s="84"/>
+      <c r="L135" s="85"/>
+      <c r="M135" s="85"/>
       <c r="O135" t="s">
         <v>119</v>
       </c>
@@ -19635,11 +19643,11 @@
       <c r="I136" s="1">
         <v>47</v>
       </c>
-      <c r="K136" s="84" t="s">
+      <c r="K136" s="85" t="s">
         <v>27</v>
       </c>
-      <c r="L136" s="84"/>
-      <c r="M136" s="84"/>
+      <c r="L136" s="85"/>
+      <c r="M136" s="85"/>
       <c r="O136" t="s">
         <v>119</v>
       </c>
@@ -19669,11 +19677,11 @@
       <c r="I137" s="1">
         <v>39</v>
       </c>
-      <c r="K137" s="84" t="s">
+      <c r="K137" s="85" t="s">
         <v>28</v>
       </c>
-      <c r="L137" s="84"/>
-      <c r="M137" s="84"/>
+      <c r="L137" s="85"/>
+      <c r="M137" s="85"/>
       <c r="O137" t="s">
         <v>119</v>
       </c>
@@ -19703,9 +19711,9 @@
       <c r="I138" s="1">
         <v>31</v>
       </c>
-      <c r="K138" s="84"/>
-      <c r="L138" s="84"/>
-      <c r="M138" s="84"/>
+      <c r="K138" s="85"/>
+      <c r="L138" s="85"/>
+      <c r="M138" s="85"/>
       <c r="O138" t="s">
         <v>119</v>
       </c>
@@ -19735,9 +19743,9 @@
       <c r="I139" s="8">
         <v>23</v>
       </c>
-      <c r="K139" s="84"/>
-      <c r="L139" s="84"/>
-      <c r="M139" s="84"/>
+      <c r="K139" s="85"/>
+      <c r="L139" s="85"/>
+      <c r="M139" s="85"/>
       <c r="O139" t="s">
         <v>119</v>
       </c>
@@ -19854,11 +19862,11 @@
       <c r="I146" s="1">
         <v>95</v>
       </c>
-      <c r="K146" s="85" t="s">
+      <c r="K146" s="86" t="s">
         <v>7</v>
       </c>
-      <c r="L146" s="86"/>
-      <c r="M146" s="87"/>
+      <c r="L146" s="87"/>
+      <c r="M146" s="88"/>
       <c r="O146" t="s">
         <v>122</v>
       </c>
@@ -19993,11 +20001,11 @@
       <c r="I150" s="3">
         <v>63</v>
       </c>
-      <c r="K150" s="84" t="s">
+      <c r="K150" s="85" t="s">
         <v>11</v>
       </c>
-      <c r="L150" s="84"/>
-      <c r="M150" s="84"/>
+      <c r="L150" s="85"/>
+      <c r="M150" s="85"/>
       <c r="O150" t="s">
         <v>122</v>
       </c>
@@ -20027,11 +20035,11 @@
       <c r="I151" s="3">
         <v>55</v>
       </c>
-      <c r="K151" s="84" t="s">
+      <c r="K151" s="85" t="s">
         <v>12</v>
       </c>
-      <c r="L151" s="84"/>
-      <c r="M151" s="84"/>
+      <c r="L151" s="85"/>
+      <c r="M151" s="85"/>
       <c r="O151" t="s">
         <v>122</v>
       </c>
@@ -20061,11 +20069,11 @@
       <c r="I152" s="8">
         <v>47</v>
       </c>
-      <c r="K152" s="84" t="s">
+      <c r="K152" s="85" t="s">
         <v>27</v>
       </c>
-      <c r="L152" s="84"/>
-      <c r="M152" s="84"/>
+      <c r="L152" s="85"/>
+      <c r="M152" s="85"/>
       <c r="O152" t="s">
         <v>122</v>
       </c>
@@ -20095,11 +20103,11 @@
       <c r="I153" s="8">
         <v>39</v>
       </c>
-      <c r="K153" s="84" t="s">
+      <c r="K153" s="85" t="s">
         <v>28</v>
       </c>
-      <c r="L153" s="84"/>
-      <c r="M153" s="84"/>
+      <c r="L153" s="85"/>
+      <c r="M153" s="85"/>
       <c r="O153" t="s">
         <v>122</v>
       </c>
@@ -20129,9 +20137,9 @@
       <c r="I154" s="3">
         <v>31</v>
       </c>
-      <c r="K154" s="84"/>
-      <c r="L154" s="84"/>
-      <c r="M154" s="84"/>
+      <c r="K154" s="85"/>
+      <c r="L154" s="85"/>
+      <c r="M154" s="85"/>
       <c r="O154" t="s">
         <v>122</v>
       </c>
@@ -20161,9 +20169,9 @@
       <c r="I155" s="3">
         <v>23</v>
       </c>
-      <c r="K155" s="84"/>
-      <c r="L155" s="84"/>
-      <c r="M155" s="84"/>
+      <c r="K155" s="85"/>
+      <c r="L155" s="85"/>
+      <c r="M155" s="85"/>
       <c r="O155" t="s">
         <v>122</v>
       </c>
@@ -20301,11 +20309,11 @@
       <c r="I165" s="9">
         <v>95</v>
       </c>
-      <c r="K165" s="85" t="s">
+      <c r="K165" s="86" t="s">
         <v>7</v>
       </c>
-      <c r="L165" s="86"/>
-      <c r="M165" s="87"/>
+      <c r="L165" s="87"/>
+      <c r="M165" s="88"/>
       <c r="O165" t="s">
         <v>122</v>
       </c>
@@ -20440,11 +20448,11 @@
       <c r="I169" s="9">
         <v>63</v>
       </c>
-      <c r="K169" s="84" t="s">
+      <c r="K169" s="85" t="s">
         <v>11</v>
       </c>
-      <c r="L169" s="84"/>
-      <c r="M169" s="84"/>
+      <c r="L169" s="85"/>
+      <c r="M169" s="85"/>
       <c r="O169" t="s">
         <v>122</v>
       </c>
@@ -20474,11 +20482,11 @@
       <c r="I170" s="9">
         <v>55</v>
       </c>
-      <c r="K170" s="84" t="s">
+      <c r="K170" s="85" t="s">
         <v>12</v>
       </c>
-      <c r="L170" s="84"/>
-      <c r="M170" s="84"/>
+      <c r="L170" s="85"/>
+      <c r="M170" s="85"/>
       <c r="O170" t="s">
         <v>122</v>
       </c>
@@ -20508,11 +20516,11 @@
       <c r="I171" s="9">
         <v>47</v>
       </c>
-      <c r="K171" s="84" t="s">
+      <c r="K171" s="85" t="s">
         <v>27</v>
       </c>
-      <c r="L171" s="84"/>
-      <c r="M171" s="84"/>
+      <c r="L171" s="85"/>
+      <c r="M171" s="85"/>
       <c r="O171" t="s">
         <v>122</v>
       </c>
@@ -20542,11 +20550,11 @@
       <c r="I172" s="9">
         <v>39</v>
       </c>
-      <c r="K172" s="84" t="s">
+      <c r="K172" s="85" t="s">
         <v>28</v>
       </c>
-      <c r="L172" s="84"/>
-      <c r="M172" s="84"/>
+      <c r="L172" s="85"/>
+      <c r="M172" s="85"/>
       <c r="O172" t="s">
         <v>122</v>
       </c>
@@ -20576,9 +20584,9 @@
       <c r="I173" s="9">
         <v>31</v>
       </c>
-      <c r="K173" s="84"/>
-      <c r="L173" s="84"/>
-      <c r="M173" s="84"/>
+      <c r="K173" s="85"/>
+      <c r="L173" s="85"/>
+      <c r="M173" s="85"/>
       <c r="O173" t="s">
         <v>122</v>
       </c>
@@ -20608,9 +20616,9 @@
       <c r="I174" s="9">
         <v>23</v>
       </c>
-      <c r="K174" s="84"/>
-      <c r="L174" s="84"/>
-      <c r="M174" s="84"/>
+      <c r="K174" s="85"/>
+      <c r="L174" s="85"/>
+      <c r="M174" s="85"/>
       <c r="O174" t="s">
         <v>122</v>
       </c>
@@ -20696,18 +20704,53 @@
     </row>
   </sheetData>
   <mergeCells count="75">
-    <mergeCell ref="K88:M88"/>
-    <mergeCell ref="K89:M89"/>
-    <mergeCell ref="K90:M90"/>
-    <mergeCell ref="K56:M56"/>
-    <mergeCell ref="K57:M57"/>
-    <mergeCell ref="K59:M59"/>
-    <mergeCell ref="K86:M86"/>
-    <mergeCell ref="K87:M87"/>
-    <mergeCell ref="K71:M71"/>
-    <mergeCell ref="K72:M72"/>
-    <mergeCell ref="K73:M73"/>
-    <mergeCell ref="K70:M70"/>
+    <mergeCell ref="K173:M173"/>
+    <mergeCell ref="K174:M174"/>
+    <mergeCell ref="K165:M165"/>
+    <mergeCell ref="K169:M169"/>
+    <mergeCell ref="K170:M170"/>
+    <mergeCell ref="K171:M171"/>
+    <mergeCell ref="K172:M172"/>
+    <mergeCell ref="K153:M153"/>
+    <mergeCell ref="K154:M154"/>
+    <mergeCell ref="K155:M155"/>
+    <mergeCell ref="K139:M139"/>
+    <mergeCell ref="K146:M146"/>
+    <mergeCell ref="K150:M150"/>
+    <mergeCell ref="K151:M151"/>
+    <mergeCell ref="K152:M152"/>
+    <mergeCell ref="K134:M134"/>
+    <mergeCell ref="K135:M135"/>
+    <mergeCell ref="K136:M136"/>
+    <mergeCell ref="K137:M137"/>
+    <mergeCell ref="K138:M138"/>
+    <mergeCell ref="K120:M120"/>
+    <mergeCell ref="K121:M121"/>
+    <mergeCell ref="K122:M122"/>
+    <mergeCell ref="K123:M123"/>
+    <mergeCell ref="K130:M130"/>
+    <mergeCell ref="K106:M106"/>
+    <mergeCell ref="K107:M107"/>
+    <mergeCell ref="K114:M114"/>
+    <mergeCell ref="K118:M118"/>
+    <mergeCell ref="K119:M119"/>
+    <mergeCell ref="K98:M98"/>
+    <mergeCell ref="K102:M102"/>
+    <mergeCell ref="K103:M103"/>
+    <mergeCell ref="K104:M104"/>
+    <mergeCell ref="K105:M105"/>
+    <mergeCell ref="K2:M2"/>
+    <mergeCell ref="K18:M18"/>
+    <mergeCell ref="K34:M34"/>
+    <mergeCell ref="K50:M50"/>
+    <mergeCell ref="K66:M66"/>
+    <mergeCell ref="K8:M8"/>
+    <mergeCell ref="K9:M9"/>
+    <mergeCell ref="K42:M42"/>
+    <mergeCell ref="K43:M43"/>
+    <mergeCell ref="K58:M58"/>
+    <mergeCell ref="K26:M26"/>
+    <mergeCell ref="K27:M27"/>
     <mergeCell ref="K91:M91"/>
     <mergeCell ref="K10:M10"/>
     <mergeCell ref="K11:M11"/>
@@ -20724,55 +20767,20 @@
     <mergeCell ref="K82:M82"/>
     <mergeCell ref="K74:M74"/>
     <mergeCell ref="K75:M75"/>
-    <mergeCell ref="K2:M2"/>
-    <mergeCell ref="K18:M18"/>
-    <mergeCell ref="K34:M34"/>
-    <mergeCell ref="K50:M50"/>
-    <mergeCell ref="K66:M66"/>
-    <mergeCell ref="K8:M8"/>
-    <mergeCell ref="K9:M9"/>
-    <mergeCell ref="K42:M42"/>
-    <mergeCell ref="K43:M43"/>
-    <mergeCell ref="K58:M58"/>
-    <mergeCell ref="K26:M26"/>
-    <mergeCell ref="K27:M27"/>
-    <mergeCell ref="K98:M98"/>
-    <mergeCell ref="K102:M102"/>
-    <mergeCell ref="K103:M103"/>
-    <mergeCell ref="K104:M104"/>
-    <mergeCell ref="K105:M105"/>
-    <mergeCell ref="K106:M106"/>
-    <mergeCell ref="K107:M107"/>
-    <mergeCell ref="K114:M114"/>
-    <mergeCell ref="K118:M118"/>
-    <mergeCell ref="K119:M119"/>
-    <mergeCell ref="K120:M120"/>
-    <mergeCell ref="K121:M121"/>
-    <mergeCell ref="K122:M122"/>
-    <mergeCell ref="K123:M123"/>
-    <mergeCell ref="K130:M130"/>
-    <mergeCell ref="K134:M134"/>
-    <mergeCell ref="K135:M135"/>
-    <mergeCell ref="K136:M136"/>
-    <mergeCell ref="K137:M137"/>
-    <mergeCell ref="K138:M138"/>
-    <mergeCell ref="K153:M153"/>
-    <mergeCell ref="K154:M154"/>
-    <mergeCell ref="K155:M155"/>
-    <mergeCell ref="K139:M139"/>
-    <mergeCell ref="K146:M146"/>
-    <mergeCell ref="K150:M150"/>
-    <mergeCell ref="K151:M151"/>
-    <mergeCell ref="K152:M152"/>
-    <mergeCell ref="K173:M173"/>
-    <mergeCell ref="K174:M174"/>
-    <mergeCell ref="K165:M165"/>
-    <mergeCell ref="K169:M169"/>
-    <mergeCell ref="K170:M170"/>
-    <mergeCell ref="K171:M171"/>
-    <mergeCell ref="K172:M172"/>
+    <mergeCell ref="K88:M88"/>
+    <mergeCell ref="K89:M89"/>
+    <mergeCell ref="K90:M90"/>
+    <mergeCell ref="K56:M56"/>
+    <mergeCell ref="K57:M57"/>
+    <mergeCell ref="K59:M59"/>
+    <mergeCell ref="K86:M86"/>
+    <mergeCell ref="K87:M87"/>
+    <mergeCell ref="K71:M71"/>
+    <mergeCell ref="K72:M72"/>
+    <mergeCell ref="K73:M73"/>
+    <mergeCell ref="K70:M70"/>
   </mergeCells>
-  <phoneticPr fontId="17" type="noConversion"/>
+  <phoneticPr fontId="18" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
   <drawing r:id="rId2"/>
@@ -20865,12 +20873,12 @@
       <c r="O1" s="29" t="s">
         <v>72</v>
       </c>
-      <c r="R1" s="89"/>
-      <c r="S1" s="89"/>
-      <c r="T1" s="89"/>
-      <c r="U1" s="89"/>
-      <c r="V1" s="90"/>
-      <c r="W1" s="90"/>
+      <c r="R1" s="90"/>
+      <c r="S1" s="90"/>
+      <c r="T1" s="90"/>
+      <c r="U1" s="90"/>
+      <c r="V1" s="91"/>
+      <c r="W1" s="91"/>
       <c r="X1" s="32"/>
       <c r="Z1" s="30"/>
       <c r="AA1" s="30"/>
@@ -21308,14 +21316,14 @@
       </c>
       <c r="D9" s="73">
         <f>塔_属性!C9</f>
-        <v>42</v>
+        <v>52</v>
       </c>
       <c r="E9" s="29" t="s">
         <v>70</v>
       </c>
       <c r="F9" s="73">
         <f>塔_属性!D9</f>
-        <v>159</v>
+        <v>179</v>
       </c>
       <c r="G9" s="29" t="s">
         <v>70</v>
@@ -21845,7 +21853,7 @@
       </c>
       <c r="F19" s="73">
         <f>塔_属性!D19</f>
-        <v>387.44</v>
+        <v>287.44</v>
       </c>
       <c r="G19" s="29" t="s">
         <v>70</v>
@@ -21873,7 +21881,7 @@
       </c>
       <c r="N19" s="31">
         <f>塔_属性!H19</f>
-        <v>23.8</v>
+        <v>29.8</v>
       </c>
       <c r="O19" s="29" t="s">
         <v>72</v>
@@ -22627,7 +22635,7 @@
     <mergeCell ref="T1:U1"/>
     <mergeCell ref="V1:W1"/>
   </mergeCells>
-  <phoneticPr fontId="17" type="noConversion"/>
+  <phoneticPr fontId="18" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="200" verticalDpi="200" r:id="rId1"/>
 </worksheet>
@@ -23172,7 +23180,7 @@
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="17" type="noConversion"/>
+  <phoneticPr fontId="18" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="200" verticalDpi="200" r:id="rId1"/>
 </worksheet>
@@ -23320,7 +23328,7 @@
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="17" type="noConversion"/>
+  <phoneticPr fontId="18" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>

--- a/_DESIGN_.xlsx
+++ b/_DESIGN_.xlsx
@@ -2411,11 +2411,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="99531008"/>
-        <c:axId val="99540992"/>
+        <c:axId val="101431552"/>
+        <c:axId val="101441536"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="99531008"/>
+        <c:axId val="101431552"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2425,12 +2425,12 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="99540992"/>
+        <c:crossAx val="101441536"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="99540992"/>
+        <c:axId val="101441536"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2459,7 +2459,7 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="99531008"/>
+        <c:crossAx val="101431552"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -7068,10 +7068,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:X49"/>
+  <dimension ref="A1:X65"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="C10" sqref="C10"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H32" sqref="H32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -7243,7 +7243,7 @@
         <v>60</v>
       </c>
       <c r="H3" s="70">
-        <v>21.25</v>
+        <v>25.25</v>
       </c>
       <c r="I3">
         <f t="shared" ref="I3:I10" si="6">C3*E3/G3</f>
@@ -7251,14 +7251,14 @@
       </c>
       <c r="J3" s="29">
         <f t="shared" ref="J3:J10" si="7">D3*F3/H3</f>
-        <v>2385.4117647058824</v>
+        <v>2007.5247524752476</v>
       </c>
       <c r="K3" s="31">
-        <f>E44/50</f>
+        <f>E60/50</f>
         <v>3</v>
       </c>
       <c r="L3" s="31">
-        <f>F44/50</f>
+        <f>F60/50</f>
         <v>4.4000000000000004</v>
       </c>
       <c r="M3" s="29">
@@ -7273,7 +7273,7 @@
       </c>
       <c r="P3" s="29">
         <f t="shared" si="1"/>
-        <v>7156.2352941176468</v>
+        <v>6022.5742574257429</v>
       </c>
       <c r="Q3" s="30">
         <f t="shared" si="2"/>
@@ -7285,11 +7285,11 @@
       </c>
       <c r="S3" s="30">
         <f t="shared" si="4"/>
-        <v>1.8235294117647061</v>
+        <v>1.3762376237623761</v>
       </c>
       <c r="T3" s="30">
         <f t="shared" si="5"/>
-        <v>15.58071198822439</v>
+        <v>12.954064544545279</v>
       </c>
       <c r="X3" s="72"/>
     </row>
@@ -7316,7 +7316,7 @@
         <v>51</v>
       </c>
       <c r="H4" s="70">
-        <v>23.5</v>
+        <v>29.5</v>
       </c>
       <c r="I4">
         <f t="shared" si="6"/>
@@ -7324,14 +7324,14 @@
       </c>
       <c r="J4" s="29">
         <f t="shared" si="7"/>
-        <v>1292.2978723404256</v>
+        <v>1029.457627118644</v>
       </c>
       <c r="K4" s="31">
-        <f>1/G46</f>
+        <f>1/G62</f>
         <v>1.25</v>
       </c>
       <c r="L4" s="31">
-        <f>1/H46</f>
+        <f>1/H62</f>
         <v>2.5</v>
       </c>
       <c r="M4" s="29">
@@ -7346,7 +7346,7 @@
       </c>
       <c r="P4" s="29">
         <f>K4*D4*F4/H4+N4</f>
-        <v>1615.372340425532</v>
+        <v>1286.8220338983051</v>
       </c>
       <c r="Q4" s="30">
         <f t="shared" si="2"/>
@@ -7358,11 +7358,11 @@
       </c>
       <c r="S4" s="30">
         <f t="shared" si="4"/>
-        <v>1.1702127659574466</v>
+        <v>0.72881355932203395</v>
       </c>
       <c r="T4" s="30">
         <f t="shared" si="5"/>
-        <v>8.8134591258727983</v>
+        <v>6.817501337559686</v>
       </c>
       <c r="X4" s="72"/>
     </row>
@@ -7389,7 +7389,7 @@
         <v>64.2</v>
       </c>
       <c r="H5" s="70">
-        <v>21.87</v>
+        <v>30.87</v>
       </c>
       <c r="I5">
         <f t="shared" si="6"/>
@@ -7397,7 +7397,7 @@
       </c>
       <c r="J5" s="29">
         <f t="shared" si="7"/>
-        <v>1893.2784636488338</v>
+        <v>1341.3022351797861</v>
       </c>
       <c r="K5" s="31">
         <v>3</v>
@@ -7417,7 +7417,7 @@
       </c>
       <c r="P5" s="29">
         <f t="shared" si="1"/>
-        <v>5679.8353909465022</v>
+        <v>4023.9067055393584</v>
       </c>
       <c r="Q5" s="30">
         <f t="shared" si="2"/>
@@ -7429,11 +7429,11 @@
       </c>
       <c r="S5" s="30">
         <f t="shared" si="4"/>
-        <v>1.9355281207133057</v>
+        <v>1.0796890184645287</v>
       </c>
       <c r="T5" s="30">
         <f t="shared" si="5"/>
-        <v>15.81633610490525</v>
+        <v>10.913614208431417</v>
       </c>
       <c r="X5" s="72"/>
     </row>
@@ -7477,11 +7477,11 @@
         <v>1</v>
       </c>
       <c r="M6" s="29">
-        <f>C47*G48</f>
+        <f>C63*G64</f>
         <v>120</v>
       </c>
       <c r="N6" s="29">
-        <f>D47*H48</f>
+        <f>D63*H64</f>
         <v>420</v>
       </c>
       <c r="O6" s="29">
@@ -7544,11 +7544,11 @@
         <v>2720.5487282080594</v>
       </c>
       <c r="K7" s="31">
-        <f>0.9/G49</f>
+        <f>0.9/G65</f>
         <v>1.8</v>
       </c>
       <c r="L7" s="31">
-        <f>0.9/H49</f>
+        <f>0.9/H65</f>
         <v>4.5</v>
       </c>
       <c r="M7" s="29">
@@ -7594,7 +7594,7 @@
         <v>119</v>
       </c>
       <c r="D8" s="75">
-        <v>410</v>
+        <v>409</v>
       </c>
       <c r="E8" s="69">
         <v>130</v>
@@ -7614,7 +7614,7 @@
       </c>
       <c r="J8" s="29">
         <f t="shared" si="7"/>
-        <v>3098.1470758540822</v>
+        <v>3090.5906195715115</v>
       </c>
       <c r="K8" s="31">
         <v>1</v>
@@ -7634,11 +7634,11 @@
       </c>
       <c r="P8" s="29">
         <f t="shared" si="1"/>
-        <v>3098.1470758540822</v>
+        <v>3090.5906195715115</v>
       </c>
       <c r="Q8" s="30">
         <f t="shared" si="2"/>
-        <v>2.4453781512605044</v>
+        <v>2.4369747899159662</v>
       </c>
       <c r="R8" s="30">
         <f t="shared" si="3"/>
@@ -7650,7 +7650,7 @@
       </c>
       <c r="T8" s="30">
         <f t="shared" si="5"/>
-        <v>15.181660228119576</v>
+        <v>15.142192764148554</v>
       </c>
       <c r="X8" s="72"/>
     </row>
@@ -7890,7 +7890,7 @@
         <v>98.8</v>
       </c>
       <c r="H12" s="70">
-        <v>17.899999999999999</v>
+        <v>20.9</v>
       </c>
       <c r="I12">
         <f t="shared" ref="I12:I15" si="18">C12*E12/G12</f>
@@ -7898,7 +7898,7 @@
       </c>
       <c r="J12" s="29">
         <f t="shared" ref="J12:J15" si="19">D12*F12/H12</f>
-        <v>5708.1005586592182</v>
+        <v>4888.7559808612441</v>
       </c>
       <c r="K12" s="31">
         <v>1</v>
@@ -7918,7 +7918,7 @@
       </c>
       <c r="P12" s="29">
         <f t="shared" ref="P12:P15" si="21">K12*D12*F12/H12+N12</f>
-        <v>5708.1005586592182</v>
+        <v>4888.7559808612441</v>
       </c>
       <c r="Q12" s="30">
         <f t="shared" ref="Q12:Q15" si="22">D12/C12-1</f>
@@ -7930,11 +7930,11 @@
       </c>
       <c r="S12" s="30">
         <f t="shared" ref="S12:S15" si="24">G12/H12-1</f>
-        <v>4.5195530726256985</v>
+        <v>3.7272727272727275</v>
       </c>
       <c r="T12" s="30">
         <f t="shared" ref="T12:T15" si="25">P12/O12-1</f>
-        <v>125.30690597884227</v>
+        <v>107.17672808714242</v>
       </c>
       <c r="X12" s="72"/>
     </row>
@@ -7958,18 +7958,18 @@
         <v>232</v>
       </c>
       <c r="G13" s="70">
-        <v>191.2</v>
+        <v>190.2</v>
       </c>
       <c r="H13" s="70">
-        <v>98.4</v>
+        <v>90.4</v>
       </c>
       <c r="I13">
         <f t="shared" si="18"/>
-        <v>25.026150627615063</v>
+        <v>25.157728706624606</v>
       </c>
       <c r="J13" s="29">
         <f t="shared" si="19"/>
-        <v>282.92682926829269</v>
+        <v>307.9646017699115</v>
       </c>
       <c r="K13" s="31">
         <v>10</v>
@@ -7985,11 +7985,11 @@
       </c>
       <c r="O13" s="29">
         <f t="shared" si="20"/>
-        <v>250.26150627615064</v>
+        <v>251.57728706624607</v>
       </c>
       <c r="P13" s="29">
         <f t="shared" si="21"/>
-        <v>2829.2682926829266</v>
+        <v>3079.646017699115</v>
       </c>
       <c r="Q13" s="30">
         <f t="shared" si="22"/>
@@ -8001,11 +8001,11 @@
       </c>
       <c r="S13" s="30">
         <f t="shared" si="24"/>
-        <v>0.94308943089430874</v>
+        <v>1.1039823008849554</v>
       </c>
       <c r="T13" s="30">
         <f t="shared" si="25"/>
-        <v>10.305247597930522</v>
+        <v>11.241351568785197</v>
       </c>
       <c r="X13" s="72"/>
     </row>
@@ -8026,13 +8026,13 @@
         <v>131</v>
       </c>
       <c r="F14" s="69">
-        <v>296</v>
+        <v>290</v>
       </c>
       <c r="G14" s="70">
         <v>92</v>
       </c>
       <c r="H14" s="70">
-        <v>38.9</v>
+        <v>40.9</v>
       </c>
       <c r="I14">
         <f t="shared" si="18"/>
@@ -8040,7 +8040,7 @@
       </c>
       <c r="J14" s="29">
         <f t="shared" si="19"/>
-        <v>981.59383033419022</v>
+        <v>914.66992665036673</v>
       </c>
       <c r="K14" s="31">
         <v>5</v>
@@ -8060,7 +8060,7 @@
       </c>
       <c r="P14" s="29">
         <f t="shared" si="21"/>
-        <v>4907.9691516709518</v>
+        <v>4573.3496332518343</v>
       </c>
       <c r="Q14" s="30">
         <f t="shared" si="22"/>
@@ -8068,15 +8068,15 @@
       </c>
       <c r="R14" s="30">
         <f t="shared" si="23"/>
-        <v>1.2595419847328246</v>
+        <v>1.2137404580152671</v>
       </c>
       <c r="S14" s="30">
         <f t="shared" si="24"/>
-        <v>1.3650385604113113</v>
+        <v>1.2493887530562349</v>
       </c>
       <c r="T14" s="30">
         <f t="shared" si="25"/>
-        <v>15.81374648868842</v>
+        <v>14.667405185595559</v>
       </c>
       <c r="X14" s="72"/>
     </row>
@@ -8103,7 +8103,7 @@
         <v>62.8</v>
       </c>
       <c r="H15" s="71">
-        <v>30.2</v>
+        <v>31.2</v>
       </c>
       <c r="I15">
         <f t="shared" si="18"/>
@@ -8111,7 +8111,7 @@
       </c>
       <c r="J15" s="29">
         <f t="shared" si="19"/>
-        <v>2346.8543046357618</v>
+        <v>2271.6346153846152</v>
       </c>
       <c r="K15" s="31">
         <v>1</v>
@@ -8131,7 +8131,7 @@
       </c>
       <c r="P15" s="29">
         <f t="shared" si="21"/>
-        <v>2346.8543046357618</v>
+        <v>2271.6346153846152</v>
       </c>
       <c r="Q15" s="30">
         <f t="shared" si="22"/>
@@ -8143,11 +8143,11 @@
       </c>
       <c r="S15" s="30">
         <f t="shared" si="24"/>
-        <v>1.0794701986754967</v>
+        <v>1.0128205128205128</v>
       </c>
       <c r="T15" s="30">
         <f t="shared" si="25"/>
-        <v>7.9692338322252834</v>
+        <v>7.6817583888847274</v>
       </c>
       <c r="X15" s="72"/>
     </row>
@@ -8387,7 +8387,7 @@
         <v>42.2</v>
       </c>
       <c r="H19" s="70">
-        <v>29.8</v>
+        <v>31.8</v>
       </c>
       <c r="I19">
         <f t="shared" ref="I19" si="48">C19*E19/G19</f>
@@ -8395,7 +8395,7 @@
       </c>
       <c r="J19" s="29">
         <f t="shared" ref="J19" si="49">D19*F19/H19</f>
-        <v>2247.4335570469798</v>
+        <v>2106.085534591195</v>
       </c>
       <c r="K19" s="31">
         <v>10</v>
@@ -8415,7 +8415,7 @@
       </c>
       <c r="P19" s="29">
         <f t="shared" si="43"/>
-        <v>22474.335570469801</v>
+        <v>21060.85534591195</v>
       </c>
       <c r="Q19" s="30">
         <f t="shared" si="44"/>
@@ -8427,11 +8427,11 @@
       </c>
       <c r="S19" s="30">
         <f t="shared" si="46"/>
-        <v>0.41610738255033564</v>
+        <v>0.32704402515723285</v>
       </c>
       <c r="T19" s="30">
         <f t="shared" si="47"/>
-        <v>4.3281253079955615</v>
+        <v>3.9930230873669093</v>
       </c>
       <c r="X19" s="72"/>
     </row>
@@ -8449,7 +8449,7 @@
         <v>226.76</v>
       </c>
       <c r="E20" s="69">
-        <v>158</v>
+        <v>138</v>
       </c>
       <c r="F20" s="69">
         <v>312</v>
@@ -8462,7 +8462,7 @@
       </c>
       <c r="I20">
         <f t="shared" ref="I20" si="50">C20*E20/G20</f>
-        <v>322.29322033898296</v>
+        <v>281.49661016949148</v>
       </c>
       <c r="J20" s="29">
         <f t="shared" ref="J20" si="51">D20*F20/H20</f>
@@ -8482,7 +8482,7 @@
       </c>
       <c r="O20" s="29">
         <f t="shared" si="42"/>
-        <v>3222.9322033898297</v>
+        <v>2814.9661016949144</v>
       </c>
       <c r="P20" s="29">
         <f t="shared" si="43"/>
@@ -8494,7 +8494,7 @@
       </c>
       <c r="R20" s="30">
         <f t="shared" si="45"/>
-        <v>0.97468354430379756</v>
+        <v>1.2608695652173911</v>
       </c>
       <c r="S20" s="30">
         <f t="shared" si="46"/>
@@ -8502,7 +8502,7 @@
       </c>
       <c r="T20" s="30">
         <f t="shared" si="47"/>
-        <v>8.2234397537551267</v>
+        <v>9.5601701528500733</v>
       </c>
       <c r="X20" s="72"/>
     </row>
@@ -8588,10 +8588,10 @@
         <v>111.35999999999999</v>
       </c>
       <c r="D22" s="76">
-        <v>223.88</v>
+        <v>303.88</v>
       </c>
       <c r="E22" s="69">
-        <v>150</v>
+        <v>140</v>
       </c>
       <c r="F22" s="69">
         <v>195</v>
@@ -8604,11 +8604,11 @@
       </c>
       <c r="I22">
         <f t="shared" si="52"/>
-        <v>237.2727272727272</v>
+        <v>221.45454545454541</v>
       </c>
       <c r="J22" s="29">
         <f t="shared" si="53"/>
-        <v>1012.6557027208834</v>
+        <v>1374.5123054440862</v>
       </c>
       <c r="K22" s="31">
         <v>10</v>
@@ -8624,19 +8624,19 @@
       </c>
       <c r="O22" s="29">
         <f t="shared" si="42"/>
-        <v>2372.7272727272725</v>
+        <v>2214.5454545454545</v>
       </c>
       <c r="P22" s="29">
         <f t="shared" si="43"/>
-        <v>10126.557027208835</v>
+        <v>13745.123054440863</v>
       </c>
       <c r="Q22" s="30">
         <f t="shared" si="44"/>
-        <v>1.010416666666667</v>
+        <v>1.7288074712643682</v>
       </c>
       <c r="R22" s="30">
         <f t="shared" si="45"/>
-        <v>0.30000000000000004</v>
+        <v>0.39285714285714279</v>
       </c>
       <c r="S22" s="30">
         <f t="shared" si="46"/>
@@ -8644,7 +8644,7 @@
       </c>
       <c r="T22" s="30">
         <f t="shared" si="47"/>
-        <v>3.2678975976742217</v>
+        <v>5.2067468636637724</v>
       </c>
       <c r="X22" s="72"/>
     </row>
@@ -8736,7 +8736,7 @@
         <v>148</v>
       </c>
       <c r="F24" s="69">
-        <v>222</v>
+        <v>198</v>
       </c>
       <c r="G24" s="70">
         <v>302.89999999999998</v>
@@ -8750,7 +8750,7 @@
       </c>
       <c r="J24" s="29">
         <f t="shared" si="55"/>
-        <v>246.30624048706241</v>
+        <v>219.6785388127854</v>
       </c>
       <c r="K24" s="31">
         <v>10</v>
@@ -8770,7 +8770,7 @@
       </c>
       <c r="P24" s="29">
         <f t="shared" si="43"/>
-        <v>2463.0624048706245</v>
+        <v>2196.7853881278543</v>
       </c>
       <c r="Q24" s="30">
         <f t="shared" si="44"/>
@@ -8778,7 +8778,7 @@
       </c>
       <c r="R24" s="30">
         <f t="shared" si="45"/>
-        <v>0.5</v>
+        <v>0.33783783783783794</v>
       </c>
       <c r="S24" s="30">
         <f t="shared" si="46"/>
@@ -8786,7 +8786,7 @@
       </c>
       <c r="T24" s="30">
         <f t="shared" si="47"/>
-        <v>4.2995760862190586</v>
+        <v>3.7266489417629449</v>
       </c>
       <c r="X24" s="72"/>
     </row>
@@ -8804,10 +8804,10 @@
         <v>346.84</v>
       </c>
       <c r="E25" s="69">
-        <v>199</v>
+        <v>169</v>
       </c>
       <c r="F25" s="69">
-        <v>268</v>
+        <v>219</v>
       </c>
       <c r="G25" s="70">
         <v>89.7</v>
@@ -8817,11 +8817,11 @@
       </c>
       <c r="I25">
         <f t="shared" si="54"/>
-        <v>277.93444816053511</v>
+        <v>236.03478260869565</v>
       </c>
       <c r="J25" s="29">
         <f t="shared" si="55"/>
-        <v>1724.547680890538</v>
+        <v>1409.2385899814469</v>
       </c>
       <c r="K25" s="31">
         <v>10</v>
@@ -8837,11 +8837,11 @@
       </c>
       <c r="O25" s="29">
         <f t="shared" si="42"/>
-        <v>2779.3444816053507</v>
+        <v>2360.347826086956</v>
       </c>
       <c r="P25" s="29">
         <f t="shared" si="43"/>
-        <v>17245.47680890538</v>
+        <v>14092.385899814471</v>
       </c>
       <c r="Q25" s="30">
         <f t="shared" si="44"/>
@@ -8849,7 +8849,7 @@
       </c>
       <c r="R25" s="30">
         <f t="shared" si="45"/>
-        <v>0.3467336683417086</v>
+        <v>0.29585798816568043</v>
       </c>
       <c r="S25" s="30">
         <f t="shared" si="46"/>
@@ -8857,7 +8857,7 @@
       </c>
       <c r="T25" s="30">
         <f t="shared" si="47"/>
-        <v>5.2048720203781231</v>
+        <v>4.9704700061842928</v>
       </c>
       <c r="X25" s="72"/>
     </row>
@@ -8881,14 +8881,14 @@
         <v>244</v>
       </c>
       <c r="G26" s="70">
-        <v>98.7</v>
+        <v>118.7</v>
       </c>
       <c r="H26" s="70">
         <v>79.400000000000006</v>
       </c>
       <c r="I26">
         <f t="shared" si="54"/>
-        <v>102.77811550151975</v>
+        <v>85.460825610783473</v>
       </c>
       <c r="J26" s="29">
         <f t="shared" si="55"/>
@@ -8908,7 +8908,7 @@
       </c>
       <c r="O26" s="29">
         <f t="shared" si="42"/>
-        <v>1027.7811550151976</v>
+        <v>854.6082561078349</v>
       </c>
       <c r="P26" s="29">
         <f t="shared" si="43"/>
@@ -8924,11 +8924,11 @@
       </c>
       <c r="S26" s="30">
         <f t="shared" si="46"/>
-        <v>0.24307304785894202</v>
+        <v>0.49496221662468498</v>
       </c>
       <c r="T26" s="30">
         <f t="shared" si="47"/>
-        <v>4.8615620584918613</v>
+        <v>6.0493152618336765</v>
       </c>
       <c r="X26" s="72"/>
     </row>
@@ -9023,18 +9023,18 @@
         <v>201</v>
       </c>
       <c r="G28" s="70">
-        <v>142.19999999999999</v>
+        <v>152.19999999999999</v>
       </c>
       <c r="H28" s="70">
-        <v>108.87</v>
+        <v>118.87</v>
       </c>
       <c r="I28">
         <f t="shared" si="54"/>
-        <v>129.83459915611814</v>
+        <v>121.30407358738502</v>
       </c>
       <c r="J28" s="29">
         <f t="shared" si="55"/>
-        <v>644.33728299807103</v>
+        <v>590.13207705897196</v>
       </c>
       <c r="K28" s="31">
         <v>10</v>
@@ -9050,11 +9050,11 @@
       </c>
       <c r="O28" s="29">
         <f t="shared" si="42"/>
-        <v>1298.3459915611816</v>
+        <v>1213.0407358738505</v>
       </c>
       <c r="P28" s="29">
         <f t="shared" si="43"/>
-        <v>6443.3728299807108</v>
+        <v>5901.3207705897194</v>
       </c>
       <c r="Q28" s="30">
         <f t="shared" si="44"/>
@@ -9066,11 +9066,11 @@
       </c>
       <c r="S28" s="30">
         <f t="shared" si="46"/>
-        <v>0.30614494351060872</v>
+        <v>0.28039034239084693</v>
       </c>
       <c r="T28" s="30">
         <f t="shared" si="47"/>
-        <v>3.9627548217967306</v>
+        <v>3.8648990887668129</v>
       </c>
       <c r="X28" s="72"/>
     </row>
@@ -9088,24 +9088,24 @@
         <v>235.48</v>
       </c>
       <c r="E29" s="69">
-        <v>275</v>
+        <v>265</v>
       </c>
       <c r="F29" s="69">
-        <v>382</v>
+        <v>372</v>
       </c>
       <c r="G29" s="70">
         <v>79</v>
       </c>
       <c r="H29" s="70">
-        <v>43.25</v>
+        <v>53.25</v>
       </c>
       <c r="I29">
         <f t="shared" si="54"/>
-        <v>395.72151898734171</v>
+        <v>381.33164556962021</v>
       </c>
       <c r="J29" s="29">
         <f t="shared" si="55"/>
-        <v>2079.8464739884394</v>
+        <v>1645.0433802816901</v>
       </c>
       <c r="K29" s="31">
         <v>10</v>
@@ -9121,11 +9121,11 @@
       </c>
       <c r="O29" s="29">
         <f t="shared" si="42"/>
-        <v>3957.2151898734178</v>
+        <v>3813.3164556962024</v>
       </c>
       <c r="P29" s="29">
         <f t="shared" si="43"/>
-        <v>20798.464739884388</v>
+        <v>16450.4338028169</v>
       </c>
       <c r="Q29" s="30">
         <f t="shared" si="44"/>
@@ -9133,15 +9133,15 @@
       </c>
       <c r="R29" s="30">
         <f t="shared" si="45"/>
-        <v>0.38909090909090915</v>
+        <v>0.40377358490566029</v>
       </c>
       <c r="S29" s="30">
         <f t="shared" si="46"/>
-        <v>0.82658959537572252</v>
+        <v>0.48356807511737099</v>
       </c>
       <c r="T29" s="30">
         <f t="shared" si="47"/>
-        <v>4.255833646122662</v>
+        <v>3.3139440416081394</v>
       </c>
       <c r="X29" s="72"/>
     </row>
@@ -9156,7 +9156,7 @@
         <v>141.63999999999999</v>
       </c>
       <c r="D30" s="76">
-        <v>298.24</v>
+        <v>268.24</v>
       </c>
       <c r="E30" s="69">
         <v>137</v>
@@ -9176,7 +9176,7 @@
       </c>
       <c r="J30" s="29">
         <f t="shared" si="55"/>
-        <v>1180.9098989898989</v>
+        <v>1062.1220202020202</v>
       </c>
       <c r="K30" s="31">
         <v>10</v>
@@ -9196,11 +9196,11 @@
       </c>
       <c r="P30" s="29">
         <f t="shared" si="43"/>
-        <v>11809.09898989899</v>
+        <v>10621.220202020202</v>
       </c>
       <c r="Q30" s="30">
         <f t="shared" si="44"/>
-        <v>1.1056198813894382</v>
+        <v>0.89381530641061868</v>
       </c>
       <c r="R30" s="30">
         <f t="shared" si="45"/>
@@ -9212,7 +9212,7 @@
       </c>
       <c r="T30" s="30">
         <f t="shared" si="47"/>
-        <v>5.0796106356348538</v>
+        <v>4.4680618190138581</v>
       </c>
       <c r="X30" s="72"/>
     </row>
@@ -9239,7 +9239,7 @@
         <v>79.5</v>
       </c>
       <c r="H31" s="70">
-        <v>20.25</v>
+        <v>19.25</v>
       </c>
       <c r="I31">
         <f t="shared" si="54"/>
@@ -9247,7 +9247,7 @@
       </c>
       <c r="J31" s="29">
         <f t="shared" si="55"/>
-        <v>3003.9703703703703</v>
+        <v>3160.0207792207793</v>
       </c>
       <c r="K31" s="31">
         <v>10</v>
@@ -9267,7 +9267,7 @@
       </c>
       <c r="P31" s="29">
         <f t="shared" si="43"/>
-        <v>30039.703703703708</v>
+        <v>31600.207792207799</v>
       </c>
       <c r="Q31" s="30">
         <f t="shared" si="44"/>
@@ -9279,11 +9279,11 @@
       </c>
       <c r="S31" s="30">
         <f t="shared" si="46"/>
-        <v>2.925925925925926</v>
+        <v>3.1298701298701301</v>
       </c>
       <c r="T31" s="30">
         <f t="shared" si="47"/>
-        <v>24.008078341411682</v>
+        <v>25.307199294212289</v>
       </c>
       <c r="X31" s="72"/>
     </row>
@@ -9497,101 +9497,101 @@
         <v>8.5043939808481532</v>
       </c>
     </row>
-    <row r="40" spans="1:20" x14ac:dyDescent="0.15">
-      <c r="A40" s="68" t="s">
+    <row r="56" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A56" s="68" t="s">
         <v>186</v>
       </c>
-      <c r="D40" s="29">
+      <c r="D56" s="29">
         <v>450</v>
       </c>
-      <c r="F40" s="31">
+      <c r="F56" s="31">
         <v>550</v>
       </c>
-      <c r="H40" s="42">
+      <c r="H56" s="42">
         <v>15</v>
       </c>
     </row>
-    <row r="44" spans="1:20" x14ac:dyDescent="0.15">
-      <c r="A44" s="29" t="s">
+    <row r="60" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A60" s="29" t="s">
         <v>73</v>
       </c>
-      <c r="B44" s="45" t="s">
+      <c r="B60" s="45" t="s">
         <v>146</v>
       </c>
-      <c r="E44" s="29">
+      <c r="E60" s="29">
         <v>150</v>
       </c>
-      <c r="F44" s="29">
+      <c r="F60" s="29">
         <v>220</v>
       </c>
     </row>
-    <row r="45" spans="1:20" x14ac:dyDescent="0.15">
-      <c r="A45" s="45" t="s">
+    <row r="61" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A61" s="45" t="s">
         <v>147</v>
       </c>
-      <c r="B45" s="45" t="s">
+      <c r="B61" s="45" t="s">
         <v>148</v>
       </c>
-      <c r="C45" s="29">
+      <c r="C61" s="29">
         <v>100</v>
       </c>
-      <c r="D45" s="29">
+      <c r="D61" s="29">
         <v>200</v>
       </c>
     </row>
-    <row r="46" spans="1:20" x14ac:dyDescent="0.15">
-      <c r="A46" s="45" t="s">
+    <row r="62" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A62" s="45" t="s">
         <v>147</v>
       </c>
-      <c r="B46" s="45" t="s">
+      <c r="B62" s="45" t="s">
         <v>149</v>
       </c>
-      <c r="G46" s="42">
+      <c r="G62" s="42">
         <v>0.8</v>
       </c>
-      <c r="H46" s="42">
+      <c r="H62" s="42">
         <v>0.4</v>
       </c>
     </row>
-    <row r="47" spans="1:20" x14ac:dyDescent="0.15">
-      <c r="A47" s="45" t="s">
+    <row r="63" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A63" s="45" t="s">
         <v>151</v>
       </c>
-      <c r="B47" s="45" t="s">
+      <c r="B63" s="45" t="s">
         <v>148</v>
       </c>
-      <c r="C47" s="29">
+      <c r="C63" s="29">
         <v>100</v>
       </c>
-      <c r="D47" s="29">
+      <c r="D63" s="29">
         <v>200</v>
       </c>
     </row>
-    <row r="48" spans="1:20" x14ac:dyDescent="0.15">
-      <c r="A48" s="45" t="s">
+    <row r="64" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A64" s="45" t="s">
         <v>152</v>
       </c>
-      <c r="B48" s="45" t="s">
+      <c r="B64" s="45" t="s">
         <v>149</v>
       </c>
-      <c r="G48" s="42">
+      <c r="G64" s="42">
         <v>1.2</v>
       </c>
-      <c r="H48" s="42">
+      <c r="H64" s="42">
         <v>2.1</v>
       </c>
     </row>
-    <row r="49" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A49" s="45" t="s">
+    <row r="65" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A65" s="45" t="s">
         <v>150</v>
       </c>
-      <c r="B49" s="45" t="s">
+      <c r="B65" s="45" t="s">
         <v>149</v>
       </c>
-      <c r="G49" s="42">
+      <c r="G65" s="42">
         <v>0.5</v>
       </c>
-      <c r="H49" s="42">
+      <c r="H65" s="42">
         <v>0.2</v>
       </c>
     </row>
@@ -20991,7 +20991,7 @@
       </c>
       <c r="N3" s="31">
         <f>塔_属性!H3</f>
-        <v>21.25</v>
+        <v>25.25</v>
       </c>
       <c r="O3" s="29" t="s">
         <v>72</v>
@@ -21051,7 +21051,7 @@
       </c>
       <c r="N4" s="31">
         <f>塔_属性!H4</f>
-        <v>23.5</v>
+        <v>29.5</v>
       </c>
       <c r="O4" s="29" t="s">
         <v>72</v>
@@ -21111,7 +21111,7 @@
       </c>
       <c r="N5" s="31">
         <f>塔_属性!H5</f>
-        <v>21.87</v>
+        <v>30.87</v>
       </c>
       <c r="O5" s="29" t="s">
         <v>72</v>
@@ -21263,7 +21263,7 @@
       </c>
       <c r="F8" s="73">
         <f>塔_属性!D8</f>
-        <v>410</v>
+        <v>409</v>
       </c>
       <c r="G8" s="29" t="s">
         <v>70</v>
@@ -21510,7 +21510,7 @@
       </c>
       <c r="N12" s="31">
         <f>塔_属性!H12</f>
-        <v>17.899999999999999</v>
+        <v>20.9</v>
       </c>
       <c r="O12" s="29" t="s">
         <v>72</v>
@@ -21556,14 +21556,14 @@
       </c>
       <c r="L13" s="31">
         <f>塔_属性!G13</f>
-        <v>191.2</v>
+        <v>190.2</v>
       </c>
       <c r="M13" s="29" t="s">
         <v>70</v>
       </c>
       <c r="N13" s="31">
         <f>塔_属性!H13</f>
-        <v>98.4</v>
+        <v>90.4</v>
       </c>
       <c r="O13" s="29" t="s">
         <v>72</v>
@@ -21602,7 +21602,7 @@
       </c>
       <c r="J14" s="29">
         <f>塔_属性!F14</f>
-        <v>296</v>
+        <v>290</v>
       </c>
       <c r="K14" s="29" t="s">
         <v>70</v>
@@ -21616,7 +21616,7 @@
       </c>
       <c r="N14" s="31">
         <f>塔_属性!H14</f>
-        <v>38.9</v>
+        <v>40.9</v>
       </c>
       <c r="O14" s="29" t="s">
         <v>72</v>
@@ -21669,7 +21669,7 @@
       </c>
       <c r="N15" s="31">
         <f>塔_属性!H15</f>
-        <v>30.2</v>
+        <v>31.2</v>
       </c>
       <c r="O15" s="29" t="s">
         <v>72</v>
@@ -21881,7 +21881,7 @@
       </c>
       <c r="N19" s="31">
         <f>塔_属性!H19</f>
-        <v>29.8</v>
+        <v>31.8</v>
       </c>
       <c r="O19" s="29" t="s">
         <v>72</v>
@@ -21913,7 +21913,7 @@
       </c>
       <c r="H20" s="29">
         <f>塔_属性!E20</f>
-        <v>158</v>
+        <v>138</v>
       </c>
       <c r="I20" s="29" t="s">
         <v>70</v>
@@ -22012,14 +22012,14 @@
       </c>
       <c r="F22" s="73">
         <f>塔_属性!D22</f>
-        <v>223.88</v>
+        <v>303.88</v>
       </c>
       <c r="G22" s="29" t="s">
         <v>70</v>
       </c>
       <c r="H22" s="29">
         <f>塔_属性!E22</f>
-        <v>150</v>
+        <v>140</v>
       </c>
       <c r="I22" s="29" t="s">
         <v>70</v>
@@ -22132,7 +22132,7 @@
       </c>
       <c r="J24" s="29">
         <f>塔_属性!F24</f>
-        <v>222</v>
+        <v>198</v>
       </c>
       <c r="K24" s="29" t="s">
         <v>70</v>
@@ -22178,14 +22178,14 @@
       </c>
       <c r="H25" s="29">
         <f>塔_属性!E25</f>
-        <v>199</v>
+        <v>169</v>
       </c>
       <c r="I25" s="29" t="s">
         <v>70</v>
       </c>
       <c r="J25" s="29">
         <f>塔_属性!F25</f>
-        <v>268</v>
+        <v>219</v>
       </c>
       <c r="K25" s="29" t="s">
         <v>70</v>
@@ -22245,7 +22245,7 @@
       </c>
       <c r="L26" s="31">
         <f>塔_属性!G26</f>
-        <v>98.7</v>
+        <v>118.7</v>
       </c>
       <c r="M26" s="29" t="s">
         <v>70</v>
@@ -22351,14 +22351,14 @@
       </c>
       <c r="L28" s="31">
         <f>塔_属性!G28</f>
-        <v>142.19999999999999</v>
+        <v>152.19999999999999</v>
       </c>
       <c r="M28" s="29" t="s">
         <v>70</v>
       </c>
       <c r="N28" s="31">
         <f>塔_属性!H28</f>
-        <v>108.87</v>
+        <v>118.87</v>
       </c>
       <c r="O28" s="29" t="s">
         <v>72</v>
@@ -22390,14 +22390,14 @@
       </c>
       <c r="H29" s="29">
         <f>塔_属性!E29</f>
-        <v>275</v>
+        <v>265</v>
       </c>
       <c r="I29" s="29" t="s">
         <v>70</v>
       </c>
       <c r="J29" s="29">
         <f>塔_属性!F29</f>
-        <v>382</v>
+        <v>372</v>
       </c>
       <c r="K29" s="29" t="s">
         <v>70</v>
@@ -22411,7 +22411,7 @@
       </c>
       <c r="N29" s="31">
         <f>塔_属性!H29</f>
-        <v>43.25</v>
+        <v>53.25</v>
       </c>
       <c r="O29" s="29" t="s">
         <v>72</v>
@@ -22436,7 +22436,7 @@
       </c>
       <c r="F30" s="73">
         <f>塔_属性!D30</f>
-        <v>298.24</v>
+        <v>268.24</v>
       </c>
       <c r="G30" s="29" t="s">
         <v>70</v>
@@ -22517,7 +22517,7 @@
       </c>
       <c r="N31" s="31">
         <f>塔_属性!H31</f>
-        <v>20.25</v>
+        <v>19.25</v>
       </c>
       <c r="O31" s="29" t="s">
         <v>72</v>
@@ -23207,7 +23207,7 @@
         <v>112</v>
       </c>
       <c r="B1" s="47">
-        <f>塔_属性!G46</f>
+        <f>塔_属性!G62</f>
         <v>0.8</v>
       </c>
       <c r="C1" s="33" t="s">
@@ -23219,7 +23219,7 @@
         <v>111</v>
       </c>
       <c r="B2" s="48">
-        <f>塔_属性!H46</f>
+        <f>塔_属性!H62</f>
         <v>0.4</v>
       </c>
       <c r="C2" s="33" t="s">
@@ -23231,7 +23231,7 @@
         <v>138</v>
       </c>
       <c r="B3" s="49">
-        <f>塔_属性!C45</f>
+        <f>塔_属性!C61</f>
         <v>100</v>
       </c>
       <c r="C3" s="33" t="s">
@@ -23243,7 +23243,7 @@
         <v>139</v>
       </c>
       <c r="B4" s="49">
-        <f>塔_属性!D45</f>
+        <f>塔_属性!D61</f>
         <v>200</v>
       </c>
       <c r="C4" s="33" t="s">
@@ -23255,7 +23255,7 @@
         <v>142</v>
       </c>
       <c r="B5" s="49">
-        <f>塔_属性!G48</f>
+        <f>塔_属性!G64</f>
         <v>1.2</v>
       </c>
       <c r="C5" s="33" t="s">
@@ -23267,7 +23267,7 @@
         <v>143</v>
       </c>
       <c r="B6" s="49">
-        <f>塔_属性!H48</f>
+        <f>塔_属性!H64</f>
         <v>2.1</v>
       </c>
       <c r="C6" s="33" t="s">
@@ -23279,7 +23279,7 @@
         <v>140</v>
       </c>
       <c r="B7" s="49">
-        <f>塔_属性!C47</f>
+        <f>塔_属性!C63</f>
         <v>100</v>
       </c>
       <c r="C7" s="33" t="s">
@@ -23291,7 +23291,7 @@
         <v>141</v>
       </c>
       <c r="B8" s="49">
-        <f>塔_属性!D47</f>
+        <f>塔_属性!D63</f>
         <v>200</v>
       </c>
       <c r="C8" s="33" t="s">
@@ -23303,7 +23303,7 @@
         <v>144</v>
       </c>
       <c r="B9" s="49">
-        <f>塔_属性!E44</f>
+        <f>塔_属性!E60</f>
         <v>150</v>
       </c>
       <c r="C9" s="33" t="s">
@@ -23315,7 +23315,7 @@
         <v>145</v>
       </c>
       <c r="B10" s="49">
-        <f>塔_属性!F44</f>
+        <f>塔_属性!F60</f>
         <v>220</v>
       </c>
       <c r="C10" s="33" t="s">

--- a/_DESIGN_.xlsx
+++ b/_DESIGN_.xlsx
@@ -27,112 +27,112 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="897" uniqueCount="232">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="901" uniqueCount="236">
   <si>
     <t>红色的格子表示敌人移动的路径点</t>
-    <phoneticPr fontId="18" type="noConversion"/>
+    <phoneticPr fontId="19" type="noConversion"/>
   </si>
   <si>
     <t>塔攻击范围</t>
-    <phoneticPr fontId="18" type="noConversion"/>
+    <phoneticPr fontId="19" type="noConversion"/>
   </si>
   <si>
     <t>塔攻击间隔</t>
-    <phoneticPr fontId="18" type="noConversion"/>
+    <phoneticPr fontId="19" type="noConversion"/>
   </si>
   <si>
     <t>怪生命值</t>
-    <phoneticPr fontId="18" type="noConversion"/>
+    <phoneticPr fontId="19" type="noConversion"/>
   </si>
   <si>
     <t>怪移动速度</t>
-    <phoneticPr fontId="18" type="noConversion"/>
+    <phoneticPr fontId="19" type="noConversion"/>
   </si>
   <si>
     <t>最小值</t>
-    <phoneticPr fontId="18" type="noConversion"/>
+    <phoneticPr fontId="19" type="noConversion"/>
   </si>
   <si>
     <t>最大值</t>
-    <phoneticPr fontId="18" type="noConversion"/>
+    <phoneticPr fontId="19" type="noConversion"/>
   </si>
   <si>
     <t>初始资源</t>
-    <phoneticPr fontId="18" type="noConversion"/>
+    <phoneticPr fontId="19" type="noConversion"/>
   </si>
   <si>
     <t>R</t>
-    <phoneticPr fontId="18" type="noConversion"/>
+    <phoneticPr fontId="19" type="noConversion"/>
   </si>
   <si>
     <t>G</t>
-    <phoneticPr fontId="18" type="noConversion"/>
+    <phoneticPr fontId="19" type="noConversion"/>
   </si>
   <si>
     <t>B</t>
-    <phoneticPr fontId="18" type="noConversion"/>
+    <phoneticPr fontId="19" type="noConversion"/>
   </si>
   <si>
     <t>怪序列</t>
-    <phoneticPr fontId="18" type="noConversion"/>
+    <phoneticPr fontId="19" type="noConversion"/>
   </si>
   <si>
     <t>1,1,1,1,1,1,1,1,1,1</t>
-    <phoneticPr fontId="18" type="noConversion"/>
+    <phoneticPr fontId="19" type="noConversion"/>
   </si>
   <si>
     <t>游戏常数</t>
-    <phoneticPr fontId="18" type="noConversion"/>
+    <phoneticPr fontId="19" type="noConversion"/>
   </si>
   <si>
     <t>属性</t>
-    <phoneticPr fontId="18" type="noConversion"/>
+    <phoneticPr fontId="19" type="noConversion"/>
   </si>
   <si>
     <t>塔攻击</t>
-    <phoneticPr fontId="18" type="noConversion"/>
+    <phoneticPr fontId="19" type="noConversion"/>
   </si>
   <si>
     <t>种类</t>
-    <phoneticPr fontId="18" type="noConversion"/>
+    <phoneticPr fontId="19" type="noConversion"/>
   </si>
   <si>
     <t>ID</t>
-    <phoneticPr fontId="18" type="noConversion"/>
+    <phoneticPr fontId="19" type="noConversion"/>
   </si>
   <si>
     <t>黄色的格子表示可放置塔的位置</t>
-    <phoneticPr fontId="18" type="noConversion"/>
+    <phoneticPr fontId="19" type="noConversion"/>
   </si>
   <si>
     <t>A</t>
-    <phoneticPr fontId="18" type="noConversion"/>
+    <phoneticPr fontId="19" type="noConversion"/>
   </si>
   <si>
     <t>B</t>
-    <phoneticPr fontId="18" type="noConversion"/>
+    <phoneticPr fontId="19" type="noConversion"/>
   </si>
   <si>
     <t>属性上限</t>
-    <phoneticPr fontId="18" type="noConversion"/>
+    <phoneticPr fontId="19" type="noConversion"/>
   </si>
   <si>
     <t>属性下限</t>
-    <phoneticPr fontId="18" type="noConversion"/>
+    <phoneticPr fontId="19" type="noConversion"/>
   </si>
   <si>
     <t>Lv.1</t>
   </si>
   <si>
     <t>Lv.1</t>
-    <phoneticPr fontId="18" type="noConversion"/>
+    <phoneticPr fontId="19" type="noConversion"/>
   </si>
   <si>
     <t>Lv.2</t>
   </si>
   <si>
     <t>Lv.2</t>
-    <phoneticPr fontId="18" type="noConversion"/>
+    <phoneticPr fontId="19" type="noConversion"/>
   </si>
   <si>
     <t>1,1,1,1,1,1,1,1,1,2</t>
@@ -142,255 +142,255 @@
   </si>
   <si>
     <t>2,2,2,2,2,2,2,2,2,2</t>
-    <phoneticPr fontId="18" type="noConversion"/>
+    <phoneticPr fontId="19" type="noConversion"/>
   </si>
   <si>
     <t>Lv.3</t>
   </si>
   <si>
     <t>Lv.3</t>
-    <phoneticPr fontId="18" type="noConversion"/>
+    <phoneticPr fontId="19" type="noConversion"/>
   </si>
   <si>
     <t>Lv.3</t>
-    <phoneticPr fontId="18" type="noConversion"/>
+    <phoneticPr fontId="19" type="noConversion"/>
   </si>
   <si>
     <t>Lv.4</t>
   </si>
   <si>
     <t>Lv.4</t>
-    <phoneticPr fontId="18" type="noConversion"/>
+    <phoneticPr fontId="19" type="noConversion"/>
   </si>
   <si>
     <t>Lv.4</t>
-    <phoneticPr fontId="18" type="noConversion"/>
+    <phoneticPr fontId="19" type="noConversion"/>
   </si>
   <si>
     <t>Lv.5</t>
   </si>
   <si>
     <t>Lv.5</t>
-    <phoneticPr fontId="18" type="noConversion"/>
+    <phoneticPr fontId="19" type="noConversion"/>
   </si>
   <si>
     <t>Lv.5</t>
-    <phoneticPr fontId="18" type="noConversion"/>
+    <phoneticPr fontId="19" type="noConversion"/>
   </si>
   <si>
     <t>Lv.6</t>
   </si>
   <si>
     <t>Lv.6</t>
-    <phoneticPr fontId="18" type="noConversion"/>
+    <phoneticPr fontId="19" type="noConversion"/>
   </si>
   <si>
     <t>属性中间值</t>
-    <phoneticPr fontId="18" type="noConversion"/>
+    <phoneticPr fontId="19" type="noConversion"/>
   </si>
   <si>
     <t>属性中间值X</t>
-    <phoneticPr fontId="18" type="noConversion"/>
+    <phoneticPr fontId="19" type="noConversion"/>
   </si>
   <si>
     <t>溅射范围</t>
-    <phoneticPr fontId="18" type="noConversion"/>
+    <phoneticPr fontId="19" type="noConversion"/>
   </si>
   <si>
     <t>CANNON</t>
-    <phoneticPr fontId="18" type="noConversion"/>
+    <phoneticPr fontId="19" type="noConversion"/>
   </si>
   <si>
     <t>CANNON_TYPE_SPLASH</t>
-    <phoneticPr fontId="18" type="noConversion"/>
+    <phoneticPr fontId="19" type="noConversion"/>
   </si>
   <si>
     <t>CANNON_TYPE_SLOW_ONE</t>
-    <phoneticPr fontId="18" type="noConversion"/>
+    <phoneticPr fontId="19" type="noConversion"/>
   </si>
   <si>
     <t>CANNON_TYPE_PENETRATE</t>
-    <phoneticPr fontId="18" type="noConversion"/>
+    <phoneticPr fontId="19" type="noConversion"/>
   </si>
   <si>
     <t>CANNON_TYPE_POISONOUS_ONE</t>
-    <phoneticPr fontId="18" type="noConversion"/>
+    <phoneticPr fontId="19" type="noConversion"/>
   </si>
   <si>
     <t>CANNON_TYPE_RAGE</t>
-    <phoneticPr fontId="18" type="noConversion"/>
+    <phoneticPr fontId="19" type="noConversion"/>
   </si>
   <si>
     <t>普通</t>
-    <phoneticPr fontId="18" type="noConversion"/>
+    <phoneticPr fontId="19" type="noConversion"/>
   </si>
   <si>
     <t>中文</t>
-    <phoneticPr fontId="18" type="noConversion"/>
+    <phoneticPr fontId="19" type="noConversion"/>
   </si>
   <si>
     <t>溅射</t>
-    <phoneticPr fontId="18" type="noConversion"/>
+    <phoneticPr fontId="19" type="noConversion"/>
   </si>
   <si>
     <t>单减速</t>
-    <phoneticPr fontId="18" type="noConversion"/>
+    <phoneticPr fontId="19" type="noConversion"/>
   </si>
   <si>
     <t>穿透</t>
-    <phoneticPr fontId="18" type="noConversion"/>
+    <phoneticPr fontId="19" type="noConversion"/>
   </si>
   <si>
     <t>单毒</t>
-    <phoneticPr fontId="18" type="noConversion"/>
+    <phoneticPr fontId="19" type="noConversion"/>
   </si>
   <si>
     <t>狂暴</t>
-    <phoneticPr fontId="18" type="noConversion"/>
+    <phoneticPr fontId="19" type="noConversion"/>
   </si>
   <si>
     <t>触发次数</t>
-    <phoneticPr fontId="18" type="noConversion"/>
+    <phoneticPr fontId="19" type="noConversion"/>
   </si>
   <si>
     <t>0,1,2,3</t>
-    <phoneticPr fontId="18" type="noConversion"/>
+    <phoneticPr fontId="19" type="noConversion"/>
   </si>
   <si>
     <t>0,1</t>
-    <phoneticPr fontId="18" type="noConversion"/>
+    <phoneticPr fontId="19" type="noConversion"/>
   </si>
   <si>
     <t>0,1,2</t>
-    <phoneticPr fontId="18" type="noConversion"/>
+    <phoneticPr fontId="19" type="noConversion"/>
   </si>
   <si>
     <t>0,1,2,3</t>
-    <phoneticPr fontId="18" type="noConversion"/>
+    <phoneticPr fontId="19" type="noConversion"/>
   </si>
   <si>
     <t>CANNON_TYPE_MAGIC</t>
-    <phoneticPr fontId="18" type="noConversion"/>
+    <phoneticPr fontId="19" type="noConversion"/>
   </si>
   <si>
     <t>魔法</t>
-    <phoneticPr fontId="18" type="noConversion"/>
+    <phoneticPr fontId="19" type="noConversion"/>
   </si>
   <si>
     <t>狂暴因子</t>
-    <phoneticPr fontId="18" type="noConversion"/>
+    <phoneticPr fontId="19" type="noConversion"/>
   </si>
   <si>
     <t>减速因子</t>
-    <phoneticPr fontId="18" type="noConversion"/>
+    <phoneticPr fontId="19" type="noConversion"/>
   </si>
   <si>
     <t>减速时间</t>
-    <phoneticPr fontId="18" type="noConversion"/>
+    <phoneticPr fontId="19" type="noConversion"/>
   </si>
   <si>
     <t>毒伤害</t>
-    <phoneticPr fontId="18" type="noConversion"/>
+    <phoneticPr fontId="19" type="noConversion"/>
   </si>
   <si>
     <t>毒时间</t>
-    <phoneticPr fontId="18" type="noConversion"/>
+    <phoneticPr fontId="19" type="noConversion"/>
   </si>
   <si>
     <t>]]</t>
-    <phoneticPr fontId="20" type="noConversion"/>
+    <phoneticPr fontId="21" type="noConversion"/>
   </si>
   <si>
     <t>,</t>
-    <phoneticPr fontId="20" type="noConversion"/>
+    <phoneticPr fontId="21" type="noConversion"/>
   </si>
   <si>
     <t>[</t>
-    <phoneticPr fontId="20" type="noConversion"/>
+    <phoneticPr fontId="21" type="noConversion"/>
   </si>
   <si>
     <t>],</t>
-    <phoneticPr fontId="20" type="noConversion"/>
+    <phoneticPr fontId="21" type="noConversion"/>
   </si>
   <si>
     <t>sp</t>
-    <phoneticPr fontId="20" type="noConversion"/>
+    <phoneticPr fontId="21" type="noConversion"/>
   </si>
   <si>
     <t>DPS.rate</t>
-    <phoneticPr fontId="20" type="noConversion"/>
+    <phoneticPr fontId="21" type="noConversion"/>
   </si>
   <si>
     <t>inter.rate</t>
-    <phoneticPr fontId="20" type="noConversion"/>
+    <phoneticPr fontId="21" type="noConversion"/>
   </si>
   <si>
     <t>range.rate</t>
-    <phoneticPr fontId="20" type="noConversion"/>
+    <phoneticPr fontId="21" type="noConversion"/>
   </si>
   <si>
     <t>att.rate</t>
-    <phoneticPr fontId="20" type="noConversion"/>
+    <phoneticPr fontId="21" type="noConversion"/>
   </si>
   <si>
     <t>DPS</t>
-    <phoneticPr fontId="20" type="noConversion"/>
+    <phoneticPr fontId="21" type="noConversion"/>
   </si>
   <si>
     <t>DPS.extra</t>
-    <phoneticPr fontId="20" type="noConversion"/>
+    <phoneticPr fontId="21" type="noConversion"/>
   </si>
   <si>
     <t>DPS.factor</t>
-    <phoneticPr fontId="20" type="noConversion"/>
+    <phoneticPr fontId="21" type="noConversion"/>
   </si>
   <si>
     <t>"intervalUpperLimits"</t>
-    <phoneticPr fontId="20" type="noConversion"/>
+    <phoneticPr fontId="21" type="noConversion"/>
   </si>
   <si>
     <t>"intervalLowerLimits"</t>
-    <phoneticPr fontId="20" type="noConversion"/>
+    <phoneticPr fontId="21" type="noConversion"/>
   </si>
   <si>
     <t>"rangeUpperLimit"</t>
-    <phoneticPr fontId="20" type="noConversion"/>
+    <phoneticPr fontId="21" type="noConversion"/>
   </si>
   <si>
     <t>"rangeLowerLimit"</t>
-    <phoneticPr fontId="20" type="noConversion"/>
+    <phoneticPr fontId="21" type="noConversion"/>
   </si>
   <si>
     <t>"_attackUpperLimit"</t>
-    <phoneticPr fontId="20" type="noConversion"/>
+    <phoneticPr fontId="21" type="noConversion"/>
   </si>
   <si>
     <t>"_attackLowerLimit"</t>
-    <phoneticPr fontId="20" type="noConversion"/>
+    <phoneticPr fontId="21" type="noConversion"/>
   </si>
   <si>
     <t>"ID"</t>
-    <phoneticPr fontId="20" type="noConversion"/>
+    <phoneticPr fontId="21" type="noConversion"/>
   </si>
   <si>
     <t>[[</t>
-    <phoneticPr fontId="20" type="noConversion"/>
+    <phoneticPr fontId="21" type="noConversion"/>
   </si>
   <si>
     <t>false</t>
-    <phoneticPr fontId="20" type="noConversion"/>
+    <phoneticPr fontId="21" type="noConversion"/>
   </si>
   <si>
     <t>,</t>
-    <phoneticPr fontId="20" type="noConversion"/>
+    <phoneticPr fontId="21" type="noConversion"/>
   </si>
   <si>
     <t>[</t>
-    <phoneticPr fontId="20" type="noConversion"/>
+    <phoneticPr fontId="21" type="noConversion"/>
   </si>
   <si>
     <t>],</t>
-    <phoneticPr fontId="20" type="noConversion"/>
+    <phoneticPr fontId="21" type="noConversion"/>
   </si>
   <si>
     <t>10</t>
@@ -421,143 +421,143 @@
   </si>
   <si>
     <t>1</t>
-    <phoneticPr fontId="20" type="noConversion"/>
+    <phoneticPr fontId="21" type="noConversion"/>
   </si>
   <si>
     <t>"antiMagic"</t>
-    <phoneticPr fontId="20" type="noConversion"/>
+    <phoneticPr fontId="21" type="noConversion"/>
   </si>
   <si>
     <t>"armor"</t>
-    <phoneticPr fontId="20" type="noConversion"/>
+    <phoneticPr fontId="21" type="noConversion"/>
   </si>
   <si>
     <t>"moveSpeed"</t>
-    <phoneticPr fontId="20" type="noConversion"/>
+    <phoneticPr fontId="21" type="noConversion"/>
   </si>
   <si>
     <t>"hitPoints"</t>
-    <phoneticPr fontId="20" type="noConversion"/>
+    <phoneticPr fontId="21" type="noConversion"/>
   </si>
   <si>
     <t>"isBoss"</t>
-    <phoneticPr fontId="20" type="noConversion"/>
+    <phoneticPr fontId="21" type="noConversion"/>
   </si>
   <si>
     <t>"ID"</t>
-    <phoneticPr fontId="20" type="noConversion"/>
+    <phoneticPr fontId="21" type="noConversion"/>
   </si>
   <si>
     <t>[[</t>
-    <phoneticPr fontId="20" type="noConversion"/>
+    <phoneticPr fontId="21" type="noConversion"/>
   </si>
   <si>
     <t>}</t>
-    <phoneticPr fontId="20" type="noConversion"/>
+    <phoneticPr fontId="21" type="noConversion"/>
   </si>
   <si>
     <t>"_slowFactorUpperLimit":</t>
-    <phoneticPr fontId="20" type="noConversion"/>
+    <phoneticPr fontId="21" type="noConversion"/>
   </si>
   <si>
     <t>{"_slowFactorLowerLimit":</t>
-    <phoneticPr fontId="20" type="noConversion"/>
+    <phoneticPr fontId="21" type="noConversion"/>
   </si>
   <si>
     <t>Lv.7</t>
   </si>
   <si>
     <t>Lv.7</t>
-    <phoneticPr fontId="18" type="noConversion"/>
+    <phoneticPr fontId="19" type="noConversion"/>
   </si>
   <si>
     <t>Lv.7</t>
-    <phoneticPr fontId="18" type="noConversion"/>
+    <phoneticPr fontId="19" type="noConversion"/>
   </si>
   <si>
     <t>Lv.8</t>
   </si>
   <si>
     <t>Lv.8</t>
-    <phoneticPr fontId="18" type="noConversion"/>
+    <phoneticPr fontId="19" type="noConversion"/>
   </si>
   <si>
     <t>Lv.8</t>
-    <phoneticPr fontId="18" type="noConversion"/>
+    <phoneticPr fontId="19" type="noConversion"/>
   </si>
   <si>
     <t>Lv.9</t>
   </si>
   <si>
     <t>Lv.9</t>
-    <phoneticPr fontId="18" type="noConversion"/>
+    <phoneticPr fontId="19" type="noConversion"/>
   </si>
   <si>
     <t>Lv.9</t>
-    <phoneticPr fontId="18" type="noConversion"/>
+    <phoneticPr fontId="19" type="noConversion"/>
   </si>
   <si>
     <t>Lv.10</t>
   </si>
   <si>
     <t>Lv.10</t>
-    <phoneticPr fontId="18" type="noConversion"/>
+    <phoneticPr fontId="19" type="noConversion"/>
   </si>
   <si>
     <t>Lv.10</t>
-    <phoneticPr fontId="18" type="noConversion"/>
+    <phoneticPr fontId="19" type="noConversion"/>
   </si>
   <si>
     <t>0,1,2,3,4</t>
-    <phoneticPr fontId="18" type="noConversion"/>
+    <phoneticPr fontId="19" type="noConversion"/>
   </si>
   <si>
     <t>0,1,2,4</t>
-    <phoneticPr fontId="18" type="noConversion"/>
+    <phoneticPr fontId="19" type="noConversion"/>
   </si>
   <si>
     <t>0,2,4,5</t>
-    <phoneticPr fontId="18" type="noConversion"/>
+    <phoneticPr fontId="19" type="noConversion"/>
   </si>
   <si>
     <t>1,2,3,4,6</t>
-    <phoneticPr fontId="18" type="noConversion"/>
+    <phoneticPr fontId="19" type="noConversion"/>
   </si>
   <si>
     <t>0,2,3,4,6</t>
-    <phoneticPr fontId="18" type="noConversion"/>
+    <phoneticPr fontId="19" type="noConversion"/>
   </si>
   <si>
     <t>增长率</t>
-    <phoneticPr fontId="18" type="noConversion"/>
+    <phoneticPr fontId="19" type="noConversion"/>
   </si>
   <si>
     <t>塔攻击力</t>
-    <phoneticPr fontId="18" type="noConversion"/>
+    <phoneticPr fontId="19" type="noConversion"/>
   </si>
   <si>
     <t>塔攻击范围</t>
-    <phoneticPr fontId="18" type="noConversion"/>
+    <phoneticPr fontId="19" type="noConversion"/>
   </si>
   <si>
     <t>塔攻击间隔</t>
-    <phoneticPr fontId="18" type="noConversion"/>
+    <phoneticPr fontId="19" type="noConversion"/>
   </si>
   <si>
     <t>DPS_basic</t>
-    <phoneticPr fontId="18" type="noConversion"/>
+    <phoneticPr fontId="19" type="noConversion"/>
   </si>
   <si>
     <t>valid items</t>
-    <phoneticPr fontId="18" type="noConversion"/>
+    <phoneticPr fontId="19" type="noConversion"/>
   </si>
   <si>
     <t>ID</t>
-    <phoneticPr fontId="20" type="noConversion"/>
+    <phoneticPr fontId="21" type="noConversion"/>
   </si>
   <si>
     <t>"_attackLowerLimit"</t>
-    <phoneticPr fontId="20" type="noConversion"/>
+    <phoneticPr fontId="21" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -585,7 +585,7 @@
       </rPr>
       <t>Limit":</t>
     </r>
-    <phoneticPr fontId="20" type="noConversion"/>
+    <phoneticPr fontId="21" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -613,7 +613,7 @@
       </rPr>
       <t>UpperLimit":</t>
     </r>
-    <phoneticPr fontId="20" type="noConversion"/>
+    <phoneticPr fontId="21" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -630,7 +630,7 @@
       </rPr>
       <t>Limit":</t>
     </r>
-    <phoneticPr fontId="20" type="noConversion"/>
+    <phoneticPr fontId="21" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -647,7 +647,7 @@
       </rPr>
       <t>UpperLimit":</t>
     </r>
-    <phoneticPr fontId="20" type="noConversion"/>
+    <phoneticPr fontId="21" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -664,7 +664,7 @@
       </rPr>
       <t>Limit":</t>
     </r>
-    <phoneticPr fontId="20" type="noConversion"/>
+    <phoneticPr fontId="21" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -681,7 +681,7 @@
       </rPr>
       <t>UpperLimit":</t>
     </r>
-    <phoneticPr fontId="20" type="noConversion"/>
+    <phoneticPr fontId="21" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -698,7 +698,7 @@
       </rPr>
       <t>Limit":</t>
     </r>
-    <phoneticPr fontId="20" type="noConversion"/>
+    <phoneticPr fontId="21" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -715,7 +715,7 @@
       </rPr>
       <t>UpperLimit":</t>
     </r>
-    <phoneticPr fontId="20" type="noConversion"/>
+    <phoneticPr fontId="21" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -732,7 +732,7 @@
       </rPr>
       <t>plash</t>
     </r>
-    <phoneticPr fontId="18" type="noConversion"/>
+    <phoneticPr fontId="19" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -749,7 +749,7 @@
       </rPr>
       <t>l</t>
     </r>
-    <phoneticPr fontId="18" type="noConversion"/>
+    <phoneticPr fontId="19" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -766,7 +766,7 @@
       </rPr>
       <t>ime</t>
     </r>
-    <phoneticPr fontId="18" type="noConversion"/>
+    <phoneticPr fontId="19" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -783,99 +783,99 @@
       </rPr>
       <t>actor</t>
     </r>
-    <phoneticPr fontId="18" type="noConversion"/>
+    <phoneticPr fontId="19" type="noConversion"/>
   </si>
   <si>
     <t>ra</t>
-    <phoneticPr fontId="18" type="noConversion"/>
+    <phoneticPr fontId="19" type="noConversion"/>
   </si>
   <si>
     <t>po</t>
-    <phoneticPr fontId="18" type="noConversion"/>
+    <phoneticPr fontId="19" type="noConversion"/>
   </si>
   <si>
     <t>po</t>
-    <phoneticPr fontId="18" type="noConversion"/>
+    <phoneticPr fontId="19" type="noConversion"/>
   </si>
   <si>
     <t>s</t>
-    <phoneticPr fontId="18" type="noConversion"/>
+    <phoneticPr fontId="19" type="noConversion"/>
   </si>
   <si>
     <t>增长率</t>
-    <phoneticPr fontId="18" type="noConversion"/>
+    <phoneticPr fontId="19" type="noConversion"/>
   </si>
   <si>
     <t>总增长率</t>
-    <phoneticPr fontId="18" type="noConversion"/>
+    <phoneticPr fontId="19" type="noConversion"/>
   </si>
   <si>
     <t>减速</t>
-    <phoneticPr fontId="18" type="noConversion"/>
+    <phoneticPr fontId="19" type="noConversion"/>
   </si>
   <si>
     <t>怪护甲</t>
-    <phoneticPr fontId="18" type="noConversion"/>
+    <phoneticPr fontId="19" type="noConversion"/>
   </si>
   <si>
     <t>普通</t>
-    <phoneticPr fontId="18" type="noConversion"/>
+    <phoneticPr fontId="19" type="noConversion"/>
   </si>
   <si>
     <t>10</t>
-    <phoneticPr fontId="20" type="noConversion"/>
+    <phoneticPr fontId="21" type="noConversion"/>
   </si>
   <si>
     <t>200</t>
-    <phoneticPr fontId="18" type="noConversion"/>
+    <phoneticPr fontId="19" type="noConversion"/>
   </si>
   <si>
     <t>8000</t>
-    <phoneticPr fontId="18" type="noConversion"/>
+    <phoneticPr fontId="19" type="noConversion"/>
   </si>
   <si>
     <t>6000</t>
-    <phoneticPr fontId="18" type="noConversion"/>
+    <phoneticPr fontId="19" type="noConversion"/>
   </si>
   <si>
     <t>10000</t>
-    <phoneticPr fontId="18" type="noConversion"/>
+    <phoneticPr fontId="19" type="noConversion"/>
   </si>
   <si>
     <t>特种</t>
-    <phoneticPr fontId="18" type="noConversion"/>
+    <phoneticPr fontId="19" type="noConversion"/>
   </si>
   <si>
     <t>额外资源奖励</t>
-    <phoneticPr fontId="18" type="noConversion"/>
+    <phoneticPr fontId="19" type="noConversion"/>
   </si>
   <si>
     <t>给沿途敌人加血</t>
-    <phoneticPr fontId="18" type="noConversion"/>
+    <phoneticPr fontId="19" type="noConversion"/>
   </si>
   <si>
     <t>死后复活成小怪</t>
-    <phoneticPr fontId="18" type="noConversion"/>
+    <phoneticPr fontId="19" type="noConversion"/>
   </si>
   <si>
     <t>Lv</t>
-    <phoneticPr fontId="18" type="noConversion"/>
+    <phoneticPr fontId="19" type="noConversion"/>
   </si>
   <si>
     <t>波数</t>
-    <phoneticPr fontId="18" type="noConversion"/>
+    <phoneticPr fontId="19" type="noConversion"/>
   </si>
   <si>
     <t>塔数</t>
-    <phoneticPr fontId="18" type="noConversion"/>
+    <phoneticPr fontId="19" type="noConversion"/>
   </si>
   <si>
     <t>玩法</t>
-    <phoneticPr fontId="18" type="noConversion"/>
+    <phoneticPr fontId="19" type="noConversion"/>
   </si>
   <si>
     <t>解锁</t>
-    <phoneticPr fontId="18" type="noConversion"/>
+    <phoneticPr fontId="19" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -892,55 +892,55 @@
       </rPr>
       <t>]</t>
     </r>
-    <phoneticPr fontId="20" type="noConversion"/>
+    <phoneticPr fontId="21" type="noConversion"/>
   </si>
   <si>
     <t>长度</t>
-    <phoneticPr fontId="18" type="noConversion"/>
+    <phoneticPr fontId="19" type="noConversion"/>
   </si>
   <si>
     <t>资源</t>
-    <phoneticPr fontId="18" type="noConversion"/>
+    <phoneticPr fontId="19" type="noConversion"/>
   </si>
   <si>
     <t>怪最高等级</t>
-    <phoneticPr fontId="18" type="noConversion"/>
+    <phoneticPr fontId="19" type="noConversion"/>
   </si>
   <si>
     <t>congratulations</t>
-    <phoneticPr fontId="18" type="noConversion"/>
+    <phoneticPr fontId="19" type="noConversion"/>
   </si>
   <si>
     <t>CONGRATULATIONS</t>
-    <phoneticPr fontId="18" type="noConversion"/>
+    <phoneticPr fontId="19" type="noConversion"/>
   </si>
   <si>
     <t>400</t>
-    <phoneticPr fontId="18" type="noConversion"/>
+    <phoneticPr fontId="19" type="noConversion"/>
   </si>
   <si>
     <t>800</t>
-    <phoneticPr fontId="18" type="noConversion"/>
+    <phoneticPr fontId="19" type="noConversion"/>
   </si>
   <si>
     <t>1500</t>
-    <phoneticPr fontId="18" type="noConversion"/>
+    <phoneticPr fontId="19" type="noConversion"/>
   </si>
   <si>
     <t>2500</t>
-    <phoneticPr fontId="18" type="noConversion"/>
+    <phoneticPr fontId="19" type="noConversion"/>
   </si>
   <si>
     <t>4000</t>
-    <phoneticPr fontId="18" type="noConversion"/>
+    <phoneticPr fontId="19" type="noConversion"/>
   </si>
   <si>
     <t>ACGILNORSTU!</t>
-    <phoneticPr fontId="18" type="noConversion"/>
+    <phoneticPr fontId="19" type="noConversion"/>
   </si>
   <si>
     <t>护甲&gt;=30时 速度&gt;=4.5时</t>
-    <phoneticPr fontId="18" type="noConversion"/>
+    <phoneticPr fontId="19" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -957,7 +957,7 @@
       </rPr>
       <t>IMIT</t>
     </r>
-    <phoneticPr fontId="18" type="noConversion"/>
+    <phoneticPr fontId="19" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -974,7 +974,7 @@
       </rPr>
       <t>plash</t>
     </r>
-    <phoneticPr fontId="20" type="noConversion"/>
+    <phoneticPr fontId="21" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -991,11 +991,11 @@
       </rPr>
       <t>annon</t>
     </r>
-    <phoneticPr fontId="20" type="noConversion"/>
+    <phoneticPr fontId="21" type="noConversion"/>
   </si>
   <si>
     <t>slowOne</t>
-    <phoneticPr fontId="20" type="noConversion"/>
+    <phoneticPr fontId="21" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -1012,7 +1012,7 @@
       </rPr>
       <t>netrate</t>
     </r>
-    <phoneticPr fontId="20" type="noConversion"/>
+    <phoneticPr fontId="21" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -1029,7 +1029,7 @@
       </rPr>
       <t>isonous</t>
     </r>
-    <phoneticPr fontId="20" type="noConversion"/>
+    <phoneticPr fontId="21" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -1046,7 +1046,7 @@
       </rPr>
       <t>ge</t>
     </r>
-    <phoneticPr fontId="20" type="noConversion"/>
+    <phoneticPr fontId="21" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -1063,7 +1063,7 @@
       </rPr>
       <t>gic</t>
     </r>
-    <phoneticPr fontId="20" type="noConversion"/>
+    <phoneticPr fontId="21" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -1080,7 +1080,7 @@
       </rPr>
       <t>ple</t>
     </r>
-    <phoneticPr fontId="18" type="noConversion"/>
+    <phoneticPr fontId="19" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -1097,7 +1097,7 @@
       </rPr>
       <t>agicSlowLine</t>
     </r>
-    <phoneticPr fontId="18" type="noConversion"/>
+    <phoneticPr fontId="19" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -1114,7 +1114,7 @@
       </rPr>
       <t>roducer</t>
     </r>
-    <phoneticPr fontId="18" type="noConversion"/>
+    <phoneticPr fontId="19" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -1131,11 +1131,11 @@
       </rPr>
       <t>onsumer</t>
     </r>
-    <phoneticPr fontId="18" type="noConversion"/>
+    <phoneticPr fontId="19" type="noConversion"/>
   </si>
   <si>
     <t>chains</t>
-    <phoneticPr fontId="18" type="noConversion"/>
+    <phoneticPr fontId="19" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -1152,7 +1152,7 @@
       </rPr>
       <t>ounce</t>
     </r>
-    <phoneticPr fontId="18" type="noConversion"/>
+    <phoneticPr fontId="19" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -1169,7 +1169,7 @@
       </rPr>
       <t>reaker</t>
     </r>
-    <phoneticPr fontId="18" type="noConversion"/>
+    <phoneticPr fontId="19" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -1186,7 +1186,7 @@
       </rPr>
       <t>niper</t>
     </r>
-    <phoneticPr fontId="18" type="noConversion"/>
+    <phoneticPr fontId="19" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -1203,7 +1203,7 @@
       </rPr>
       <t>adow</t>
     </r>
-    <phoneticPr fontId="18" type="noConversion"/>
+    <phoneticPr fontId="19" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -1220,7 +1220,7 @@
       </rPr>
       <t>oisonousMulti</t>
     </r>
-    <phoneticPr fontId="18" type="noConversion"/>
+    <phoneticPr fontId="19" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -1237,7 +1237,7 @@
       </rPr>
       <t>ltiTarget</t>
     </r>
-    <phoneticPr fontId="18" type="noConversion"/>
+    <phoneticPr fontId="19" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -1254,7 +1254,7 @@
       </rPr>
       <t>idge</t>
     </r>
-    <phoneticPr fontId="18" type="noConversion"/>
+    <phoneticPr fontId="19" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -1271,11 +1271,11 @@
       </rPr>
       <t>rmirRemover</t>
     </r>
-    <phoneticPr fontId="18" type="noConversion"/>
+    <phoneticPr fontId="19" type="noConversion"/>
   </si>
   <si>
     <t>tracing</t>
-    <phoneticPr fontId="18" type="noConversion"/>
+    <phoneticPr fontId="19" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -1292,7 +1292,7 @@
       </rPr>
       <t>aping</t>
     </r>
-    <phoneticPr fontId="18" type="noConversion"/>
+    <phoneticPr fontId="19" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -1309,7 +1309,7 @@
       </rPr>
       <t>ower</t>
     </r>
-    <phoneticPr fontId="18" type="noConversion"/>
+    <phoneticPr fontId="19" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -1326,7 +1326,7 @@
       </rPr>
       <t>ocus</t>
     </r>
-    <phoneticPr fontId="18" type="noConversion"/>
+    <phoneticPr fontId="19" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -1343,7 +1343,7 @@
       </rPr>
       <t>uperPosisonous</t>
     </r>
-    <phoneticPr fontId="18" type="noConversion"/>
+    <phoneticPr fontId="19" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -1360,7 +1360,7 @@
       </rPr>
       <t>licate</t>
     </r>
-    <phoneticPr fontId="18" type="noConversion"/>
+    <phoneticPr fontId="19" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -1377,7 +1377,7 @@
       </rPr>
       <t>argeWave</t>
     </r>
-    <phoneticPr fontId="18" type="noConversion"/>
+    <phoneticPr fontId="19" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -1394,7 +1394,7 @@
       </rPr>
       <t>plashOnBoss</t>
     </r>
-    <phoneticPr fontId="18" type="noConversion"/>
+    <phoneticPr fontId="19" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -1411,7 +1411,7 @@
       </rPr>
       <t>xpodeOnDeath</t>
     </r>
-    <phoneticPr fontId="18" type="noConversion"/>
+    <phoneticPr fontId="19" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -1428,7 +1428,7 @@
       </rPr>
       <t>iral</t>
     </r>
-    <phoneticPr fontId="20" type="noConversion"/>
+    <phoneticPr fontId="21" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -1445,7 +1445,7 @@
       </rPr>
       <t>roove</t>
     </r>
-    <phoneticPr fontId="18" type="noConversion"/>
+    <phoneticPr fontId="19" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -1462,7 +1462,7 @@
       </rPr>
       <t>ook</t>
     </r>
-    <phoneticPr fontId="18" type="noConversion"/>
+    <phoneticPr fontId="19" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -1479,7 +1479,7 @@
       </rPr>
       <t>lock</t>
     </r>
-    <phoneticPr fontId="18" type="noConversion"/>
+    <phoneticPr fontId="19" type="noConversion"/>
   </si>
   <si>
     <t>45</t>
@@ -1498,23 +1498,23 @@
   </si>
   <si>
     <t>60</t>
-    <phoneticPr fontId="18" type="noConversion"/>
+    <phoneticPr fontId="19" type="noConversion"/>
   </si>
   <si>
     <t>55</t>
-    <phoneticPr fontId="18" type="noConversion"/>
+    <phoneticPr fontId="19" type="noConversion"/>
   </si>
   <si>
     <t>50</t>
-    <phoneticPr fontId="18" type="noConversion"/>
+    <phoneticPr fontId="19" type="noConversion"/>
   </si>
   <si>
     <t>60</t>
-    <phoneticPr fontId="18" type="noConversion"/>
+    <phoneticPr fontId="19" type="noConversion"/>
   </si>
   <si>
     <t>20</t>
-    <phoneticPr fontId="20" type="noConversion"/>
+    <phoneticPr fontId="21" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -1547,7 +1547,75 @@
       </rPr>
       <t>56.0</t>
     </r>
-    <phoneticPr fontId="18" type="noConversion"/>
+    <phoneticPr fontId="19" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>b</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="2"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>ooster</t>
+    </r>
+    <phoneticPr fontId="19" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>f</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="2"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>ifth</t>
+    </r>
+    <phoneticPr fontId="19" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>b</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="2"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>lades</t>
+    </r>
+    <phoneticPr fontId="19" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>s</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="2"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>hadowLine</t>
+    </r>
+    <phoneticPr fontId="19" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -1559,12 +1627,20 @@
     <numFmt numFmtId="177" formatCode="0.0_);[Red]\(0.0\)"/>
     <numFmt numFmtId="178" formatCode="0_ "/>
   </numFmts>
-  <fonts count="21" x14ac:knownFonts="1">
+  <fonts count="22" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
       <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <family val="2"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -1924,14 +2000,14 @@
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="92">
+  <cellXfs count="93">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="19" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="20" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -2000,46 +2076,46 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="1">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="17" fillId="0" borderId="0" xfId="1" applyNumberFormat="1">
+    <xf numFmtId="176" fontId="18" fillId="0" borderId="0" xfId="1" applyNumberFormat="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="17" fillId="0" borderId="0" xfId="1" applyNumberFormat="1">
+    <xf numFmtId="177" fontId="18" fillId="0" borderId="0" xfId="1" applyNumberFormat="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="17" fillId="0" borderId="0" xfId="1" applyNumberFormat="1">
+    <xf numFmtId="49" fontId="18" fillId="0" borderId="0" xfId="1" applyNumberFormat="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="178" fontId="17" fillId="0" borderId="0" xfId="1" applyNumberFormat="1">
+    <xf numFmtId="178" fontId="18" fillId="0" borderId="0" xfId="1" applyNumberFormat="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="16" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1">
+    <xf numFmtId="49" fontId="17" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="14" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1">
+    <xf numFmtId="49" fontId="15" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="13" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1">
+    <xf numFmtId="177" fontId="14" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
@@ -2048,19 +2124,19 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="1" applyFont="1">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="1" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="12" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1">
+    <xf numFmtId="49" fontId="13" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="1" applyNumberFormat="1">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="1" applyNumberFormat="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
@@ -2069,84 +2145,87 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="11" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1">
+    <xf numFmtId="49" fontId="12" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="17" fillId="0" borderId="10" xfId="1" applyNumberFormat="1" applyBorder="1">
+    <xf numFmtId="49" fontId="18" fillId="0" borderId="10" xfId="1" applyNumberFormat="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="11" fillId="0" borderId="11" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1">
+    <xf numFmtId="49" fontId="12" fillId="0" borderId="11" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="17" fillId="0" borderId="12" xfId="1" applyNumberFormat="1" applyBorder="1">
+    <xf numFmtId="49" fontId="18" fillId="0" borderId="12" xfId="1" applyNumberFormat="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="11" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1">
+    <xf numFmtId="49" fontId="12" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="17" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyBorder="1">
+    <xf numFmtId="49" fontId="18" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="11" fillId="0" borderId="13" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1">
+    <xf numFmtId="49" fontId="12" fillId="0" borderId="13" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="10" fillId="0" borderId="13" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
+    <xf numFmtId="49" fontId="11" fillId="0" borderId="13" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="9" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1">
+    <xf numFmtId="49" fontId="10" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="49" fontId="7" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1">
+    <xf numFmtId="49" fontId="8" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="17" fillId="0" borderId="14" xfId="1" applyNumberFormat="1" applyBorder="1">
+    <xf numFmtId="49" fontId="18" fillId="0" borderId="14" xfId="1" applyNumberFormat="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="6" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1">
+    <xf numFmtId="49" fontId="7" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="1" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="177" fontId="14" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="9" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="18" fillId="0" borderId="0" xfId="1" applyNumberFormat="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="1" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="177" fontId="13" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="1" fontId="14" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="8" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="1" fontId="18" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="17" fillId="0" borderId="0" xfId="1" applyNumberFormat="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="13" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="17" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1">
+    <xf numFmtId="49" fontId="4" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="3" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
@@ -2179,10 +2258,10 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="177" fontId="17" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="177" fontId="18" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -2411,11 +2490,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="101431552"/>
-        <c:axId val="101441536"/>
+        <c:axId val="101042432"/>
+        <c:axId val="101052416"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="101431552"/>
+        <c:axId val="101042432"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2425,12 +2504,12 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="101441536"/>
+        <c:crossAx val="101052416"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="101441536"/>
+        <c:axId val="101052416"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2459,7 +2538,7 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="101431552"/>
+        <c:crossAx val="101042432"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -6254,7 +6333,7 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:9" x14ac:dyDescent="0.15">
-      <c r="B2" s="80" t="s">
+      <c r="B2" s="81" t="s">
         <v>13</v>
       </c>
       <c r="C2" s="36"/>
@@ -6278,7 +6357,7 @@
       </c>
     </row>
     <row r="3" spans="2:9" x14ac:dyDescent="0.15">
-      <c r="B3" s="80"/>
+      <c r="B3" s="81"/>
       <c r="C3" s="37" t="s">
         <v>131</v>
       </c>
@@ -6298,7 +6377,7 @@
       <c r="I3" s="1"/>
     </row>
     <row r="4" spans="2:9" x14ac:dyDescent="0.15">
-      <c r="B4" s="80"/>
+      <c r="B4" s="81"/>
       <c r="C4" s="37" t="s">
         <v>132</v>
       </c>
@@ -6318,7 +6397,7 @@
       <c r="I4" s="1"/>
     </row>
     <row r="5" spans="2:9" x14ac:dyDescent="0.15">
-      <c r="B5" s="80"/>
+      <c r="B5" s="81"/>
       <c r="C5" s="37" t="s">
         <v>133</v>
       </c>
@@ -6338,7 +6417,7 @@
       <c r="I5" s="1"/>
     </row>
     <row r="6" spans="2:9" x14ac:dyDescent="0.15">
-      <c r="B6" s="80"/>
+      <c r="B6" s="81"/>
       <c r="C6" s="50" t="s">
         <v>156</v>
       </c>
@@ -6350,7 +6429,7 @@
       <c r="I6" s="1"/>
     </row>
     <row r="7" spans="2:9" x14ac:dyDescent="0.15">
-      <c r="B7" s="80"/>
+      <c r="B7" s="81"/>
       <c r="C7" s="36"/>
       <c r="D7" s="36"/>
       <c r="E7" s="36"/>
@@ -6360,7 +6439,7 @@
       <c r="I7" s="1"/>
     </row>
     <row r="8" spans="2:9" x14ac:dyDescent="0.15">
-      <c r="B8" s="80"/>
+      <c r="B8" s="81"/>
       <c r="C8" s="51"/>
       <c r="D8" s="51"/>
       <c r="E8" s="51"/>
@@ -6370,7 +6449,7 @@
       <c r="I8" s="1"/>
     </row>
     <row r="9" spans="2:9" x14ac:dyDescent="0.15">
-      <c r="B9" s="80"/>
+      <c r="B9" s="81"/>
       <c r="C9" s="51"/>
       <c r="D9" s="51"/>
       <c r="E9" s="51"/>
@@ -6380,7 +6459,7 @@
       <c r="I9" s="1"/>
     </row>
     <row r="10" spans="2:9" x14ac:dyDescent="0.15">
-      <c r="B10" s="80"/>
+      <c r="B10" s="81"/>
       <c r="C10" s="51" t="s">
         <v>3</v>
       </c>
@@ -6396,7 +6475,7 @@
       <c r="I10" s="1"/>
     </row>
     <row r="11" spans="2:9" x14ac:dyDescent="0.15">
-      <c r="B11" s="80"/>
+      <c r="B11" s="81"/>
       <c r="C11" s="51" t="s">
         <v>157</v>
       </c>
@@ -6412,7 +6491,7 @@
       <c r="I11" s="1"/>
     </row>
     <row r="12" spans="2:9" x14ac:dyDescent="0.15">
-      <c r="B12" s="80"/>
+      <c r="B12" s="81"/>
       <c r="C12" s="51" t="s">
         <v>4</v>
       </c>
@@ -6431,7 +6510,7 @@
   <mergeCells count="1">
     <mergeCell ref="B2:B12"/>
   </mergeCells>
-  <phoneticPr fontId="18" type="noConversion"/>
+  <phoneticPr fontId="19" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
@@ -6741,7 +6820,7 @@
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="18" type="noConversion"/>
+  <phoneticPr fontId="19" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -7060,7 +7139,7 @@
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="18" type="noConversion"/>
+  <phoneticPr fontId="19" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
@@ -7071,7 +7150,7 @@
   <dimension ref="A1:X65"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H32" sqref="H32"/>
+      <selection activeCell="E4" sqref="E4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -7234,10 +7313,10 @@
         <v>185</v>
       </c>
       <c r="E3" s="69">
-        <v>166</v>
+        <v>176</v>
       </c>
       <c r="F3" s="69">
-        <v>274</v>
+        <v>234</v>
       </c>
       <c r="G3" s="70">
         <v>60</v>
@@ -7247,11 +7326,11 @@
       </c>
       <c r="I3">
         <f t="shared" ref="I3:I10" si="6">C3*E3/G3</f>
-        <v>143.86666666666667</v>
+        <v>152.53333333333333</v>
       </c>
       <c r="J3" s="29">
         <f t="shared" ref="J3:J10" si="7">D3*F3/H3</f>
-        <v>2007.5247524752476</v>
+        <v>1714.4554455445545</v>
       </c>
       <c r="K3" s="31">
         <f>E60/50</f>
@@ -7269,11 +7348,11 @@
       </c>
       <c r="O3" s="29">
         <f t="shared" si="0"/>
-        <v>431.6</v>
+        <v>457.6</v>
       </c>
       <c r="P3" s="29">
         <f t="shared" si="1"/>
-        <v>6022.5742574257429</v>
+        <v>5143.3663366336632</v>
       </c>
       <c r="Q3" s="30">
         <f t="shared" si="2"/>
@@ -7281,7 +7360,7 @@
       </c>
       <c r="R3" s="30">
         <f t="shared" si="3"/>
-        <v>0.65060240963855431</v>
+        <v>0.32954545454545459</v>
       </c>
       <c r="S3" s="30">
         <f t="shared" si="4"/>
@@ -7289,7 +7368,7 @@
       </c>
       <c r="T3" s="30">
         <f t="shared" si="5"/>
-        <v>12.954064544545279</v>
+        <v>10.239873987398738</v>
       </c>
       <c r="X3" s="72"/>
     </row>
@@ -7662,10 +7741,10 @@
         <v>7</v>
       </c>
       <c r="C9" s="76">
-        <v>52</v>
+        <v>62</v>
       </c>
       <c r="D9" s="76">
-        <v>179</v>
+        <v>199</v>
       </c>
       <c r="E9" s="69">
         <v>132</v>
@@ -7681,11 +7760,11 @@
       </c>
       <c r="I9">
         <f t="shared" si="6"/>
-        <v>133.02325581395348</v>
+        <v>158.6046511627907</v>
       </c>
       <c r="J9" s="29">
         <f t="shared" si="7"/>
-        <v>2126.243093922652</v>
+        <v>2363.8121546961324</v>
       </c>
       <c r="K9" s="31">
         <v>3</v>
@@ -7701,15 +7780,15 @@
       </c>
       <c r="O9" s="29">
         <f t="shared" si="0"/>
-        <v>399.06976744186045</v>
+        <v>475.81395348837208</v>
       </c>
       <c r="P9" s="29">
         <f t="shared" si="1"/>
-        <v>6378.7292817679554</v>
+        <v>7091.4364640883969</v>
       </c>
       <c r="Q9" s="30">
         <f t="shared" si="2"/>
-        <v>2.4423076923076925</v>
+        <v>2.2096774193548385</v>
       </c>
       <c r="R9" s="30">
         <f t="shared" si="3"/>
@@ -7721,7 +7800,7 @@
       </c>
       <c r="T9" s="30">
         <f t="shared" si="5"/>
-        <v>14.983995286481473</v>
+        <v>13.903800975356846</v>
       </c>
       <c r="X9" s="72"/>
     </row>
@@ -9497,6 +9576,68 @@
         <v>8.5043939808481532</v>
       </c>
     </row>
+    <row r="35" spans="1:20" x14ac:dyDescent="0.15">
+      <c r="A35" s="80" t="s">
+        <v>232</v>
+      </c>
+      <c r="B35" s="29">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="36" spans="1:20" x14ac:dyDescent="0.15">
+      <c r="A36" s="80" t="s">
+        <v>233</v>
+      </c>
+      <c r="B36" s="29">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="37" spans="1:20" x14ac:dyDescent="0.15">
+      <c r="A37" s="80" t="s">
+        <v>234</v>
+      </c>
+      <c r="B37" s="29">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="38" spans="1:20" x14ac:dyDescent="0.15">
+      <c r="A38" s="80" t="s">
+        <v>235</v>
+      </c>
+      <c r="B38" s="29">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="39" spans="1:20" x14ac:dyDescent="0.15">
+      <c r="B39" s="29">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="40" spans="1:20" x14ac:dyDescent="0.15">
+      <c r="B40" s="29">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="41" spans="1:20" x14ac:dyDescent="0.15">
+      <c r="B41" s="29">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="42" spans="1:20" x14ac:dyDescent="0.15">
+      <c r="B42" s="29">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="43" spans="1:20" x14ac:dyDescent="0.15">
+      <c r="B43" s="29">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="44" spans="1:20" x14ac:dyDescent="0.15">
+      <c r="B44" s="29">
+        <v>42</v>
+      </c>
+    </row>
     <row r="56" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A56" s="68" t="s">
         <v>186</v>
@@ -9596,9 +9737,9 @@
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="18" type="noConversion"/>
+  <phoneticPr fontId="19" type="noConversion"/>
   <conditionalFormatting sqref="C2:C16">
-    <cfRule type="dataBar" priority="267">
+    <cfRule type="dataBar" priority="269">
       <dataBar>
         <cfvo type="min"/>
         <cfvo type="max"/>
@@ -9612,7 +9753,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D2:D16">
-    <cfRule type="dataBar" priority="273">
+    <cfRule type="dataBar" priority="275">
       <dataBar>
         <cfvo type="min"/>
         <cfvo type="max"/>
@@ -9626,7 +9767,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E2:E21">
-    <cfRule type="dataBar" priority="272">
+    <cfRule type="dataBar" priority="274">
       <dataBar>
         <cfvo type="min"/>
         <cfvo type="max"/>
@@ -9640,7 +9781,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F2:F21">
-    <cfRule type="dataBar" priority="271">
+    <cfRule type="dataBar" priority="273">
       <dataBar>
         <cfvo type="min"/>
         <cfvo type="max"/>
@@ -9654,7 +9795,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G2:G21">
-    <cfRule type="dataBar" priority="270">
+    <cfRule type="dataBar" priority="272">
       <dataBar>
         <cfvo type="min"/>
         <cfvo type="max"/>
@@ -9668,7 +9809,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H2:H21">
-    <cfRule type="dataBar" priority="269">
+    <cfRule type="dataBar" priority="271">
       <dataBar>
         <cfvo type="min"/>
         <cfvo type="max"/>
@@ -9682,7 +9823,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C2:D16">
-    <cfRule type="dataBar" priority="268">
+    <cfRule type="dataBar" priority="270">
       <dataBar>
         <cfvo type="min"/>
         <cfvo type="max"/>
@@ -9696,7 +9837,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E22">
-    <cfRule type="dataBar" priority="265">
+    <cfRule type="dataBar" priority="267">
       <dataBar>
         <cfvo type="min"/>
         <cfvo type="max"/>
@@ -9710,7 +9851,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F22">
-    <cfRule type="dataBar" priority="264">
+    <cfRule type="dataBar" priority="266">
       <dataBar>
         <cfvo type="min"/>
         <cfvo type="max"/>
@@ -9724,7 +9865,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G22">
-    <cfRule type="dataBar" priority="263">
+    <cfRule type="dataBar" priority="265">
       <dataBar>
         <cfvo type="min"/>
         <cfvo type="max"/>
@@ -9738,7 +9879,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H22">
-    <cfRule type="dataBar" priority="262">
+    <cfRule type="dataBar" priority="264">
       <dataBar>
         <cfvo type="min"/>
         <cfvo type="max"/>
@@ -9752,7 +9893,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C2:C16">
-    <cfRule type="dataBar" priority="259">
+    <cfRule type="dataBar" priority="261">
       <dataBar>
         <cfvo type="min"/>
         <cfvo type="max"/>
@@ -9766,7 +9907,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D2:D16">
-    <cfRule type="dataBar" priority="258">
+    <cfRule type="dataBar" priority="260">
       <dataBar>
         <cfvo type="min"/>
         <cfvo type="max"/>
@@ -9780,7 +9921,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E2:E22">
-    <cfRule type="dataBar" priority="257">
+    <cfRule type="dataBar" priority="259">
       <dataBar>
         <cfvo type="min"/>
         <cfvo type="max"/>
@@ -9794,7 +9935,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F2:F22">
-    <cfRule type="dataBar" priority="256">
+    <cfRule type="dataBar" priority="258">
       <dataBar>
         <cfvo type="min"/>
         <cfvo type="max"/>
@@ -9808,7 +9949,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G2:G22">
-    <cfRule type="dataBar" priority="255">
+    <cfRule type="dataBar" priority="257">
       <dataBar>
         <cfvo type="min"/>
         <cfvo type="max"/>
@@ -9822,7 +9963,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H2:H22">
-    <cfRule type="dataBar" priority="254">
+    <cfRule type="dataBar" priority="256">
       <dataBar>
         <cfvo type="min"/>
         <cfvo type="max"/>
@@ -9836,7 +9977,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E23">
-    <cfRule type="dataBar" priority="252">
+    <cfRule type="dataBar" priority="254">
       <dataBar>
         <cfvo type="min"/>
         <cfvo type="max"/>
@@ -9850,7 +9991,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F23">
-    <cfRule type="dataBar" priority="251">
+    <cfRule type="dataBar" priority="253">
       <dataBar>
         <cfvo type="min"/>
         <cfvo type="max"/>
@@ -9864,7 +10005,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G23">
-    <cfRule type="dataBar" priority="250">
+    <cfRule type="dataBar" priority="252">
       <dataBar>
         <cfvo type="min"/>
         <cfvo type="max"/>
@@ -9878,7 +10019,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H23">
-    <cfRule type="dataBar" priority="249">
+    <cfRule type="dataBar" priority="251">
       <dataBar>
         <cfvo type="min"/>
         <cfvo type="max"/>
@@ -9892,7 +10033,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E23">
-    <cfRule type="dataBar" priority="244">
+    <cfRule type="dataBar" priority="246">
       <dataBar>
         <cfvo type="min"/>
         <cfvo type="max"/>
@@ -9906,7 +10047,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F23">
-    <cfRule type="dataBar" priority="243">
+    <cfRule type="dataBar" priority="245">
       <dataBar>
         <cfvo type="min"/>
         <cfvo type="max"/>
@@ -9920,7 +10061,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G23">
-    <cfRule type="dataBar" priority="242">
+    <cfRule type="dataBar" priority="244">
       <dataBar>
         <cfvo type="min"/>
         <cfvo type="max"/>
@@ -9934,7 +10075,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H23">
-    <cfRule type="dataBar" priority="241">
+    <cfRule type="dataBar" priority="243">
       <dataBar>
         <cfvo type="min"/>
         <cfvo type="max"/>
@@ -9948,7 +10089,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E24">
-    <cfRule type="dataBar" priority="239">
+    <cfRule type="dataBar" priority="241">
       <dataBar>
         <cfvo type="min"/>
         <cfvo type="max"/>
@@ -9962,7 +10103,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F24">
-    <cfRule type="dataBar" priority="238">
+    <cfRule type="dataBar" priority="240">
       <dataBar>
         <cfvo type="min"/>
         <cfvo type="max"/>
@@ -9976,7 +10117,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G24">
-    <cfRule type="dataBar" priority="237">
+    <cfRule type="dataBar" priority="239">
       <dataBar>
         <cfvo type="min"/>
         <cfvo type="max"/>
@@ -9990,7 +10131,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H24">
-    <cfRule type="dataBar" priority="236">
+    <cfRule type="dataBar" priority="238">
       <dataBar>
         <cfvo type="min"/>
         <cfvo type="max"/>
@@ -10004,7 +10145,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E24">
-    <cfRule type="dataBar" priority="231">
+    <cfRule type="dataBar" priority="233">
       <dataBar>
         <cfvo type="min"/>
         <cfvo type="max"/>
@@ -10018,7 +10159,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F24">
-    <cfRule type="dataBar" priority="230">
+    <cfRule type="dataBar" priority="232">
       <dataBar>
         <cfvo type="min"/>
         <cfvo type="max"/>
@@ -10032,7 +10173,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G24">
-    <cfRule type="dataBar" priority="229">
+    <cfRule type="dataBar" priority="231">
       <dataBar>
         <cfvo type="min"/>
         <cfvo type="max"/>
@@ -10046,7 +10187,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H24">
-    <cfRule type="dataBar" priority="228">
+    <cfRule type="dataBar" priority="230">
       <dataBar>
         <cfvo type="min"/>
         <cfvo type="max"/>
@@ -10060,7 +10201,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E25">
-    <cfRule type="dataBar" priority="226">
+    <cfRule type="dataBar" priority="228">
       <dataBar>
         <cfvo type="min"/>
         <cfvo type="max"/>
@@ -10074,7 +10215,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F25">
-    <cfRule type="dataBar" priority="225">
+    <cfRule type="dataBar" priority="227">
       <dataBar>
         <cfvo type="min"/>
         <cfvo type="max"/>
@@ -10088,7 +10229,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G25">
-    <cfRule type="dataBar" priority="224">
+    <cfRule type="dataBar" priority="226">
       <dataBar>
         <cfvo type="min"/>
         <cfvo type="max"/>
@@ -10102,7 +10243,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H25">
-    <cfRule type="dataBar" priority="223">
+    <cfRule type="dataBar" priority="225">
       <dataBar>
         <cfvo type="min"/>
         <cfvo type="max"/>
@@ -10116,7 +10257,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E25">
-    <cfRule type="dataBar" priority="218">
+    <cfRule type="dataBar" priority="220">
       <dataBar>
         <cfvo type="min"/>
         <cfvo type="max"/>
@@ -10130,7 +10271,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F25">
-    <cfRule type="dataBar" priority="217">
+    <cfRule type="dataBar" priority="219">
       <dataBar>
         <cfvo type="min"/>
         <cfvo type="max"/>
@@ -10144,7 +10285,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G25">
-    <cfRule type="dataBar" priority="216">
+    <cfRule type="dataBar" priority="218">
       <dataBar>
         <cfvo type="min"/>
         <cfvo type="max"/>
@@ -10158,7 +10299,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H25">
-    <cfRule type="dataBar" priority="215">
+    <cfRule type="dataBar" priority="217">
       <dataBar>
         <cfvo type="min"/>
         <cfvo type="max"/>
@@ -10172,7 +10313,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C2:C16">
-    <cfRule type="dataBar" priority="214">
+    <cfRule type="dataBar" priority="216">
       <dataBar>
         <cfvo type="min"/>
         <cfvo type="max"/>
@@ -10186,7 +10327,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D2:D16">
-    <cfRule type="dataBar" priority="213">
+    <cfRule type="dataBar" priority="215">
       <dataBar>
         <cfvo type="min"/>
         <cfvo type="max"/>
@@ -10200,7 +10341,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E2:E25">
-    <cfRule type="dataBar" priority="212">
+    <cfRule type="dataBar" priority="214">
       <dataBar>
         <cfvo type="min"/>
         <cfvo type="max"/>
@@ -10214,7 +10355,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F2:F25">
-    <cfRule type="dataBar" priority="211">
+    <cfRule type="dataBar" priority="213">
       <dataBar>
         <cfvo type="min"/>
         <cfvo type="max"/>
@@ -10228,7 +10369,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G2:G25">
-    <cfRule type="dataBar" priority="210">
+    <cfRule type="dataBar" priority="212">
       <dataBar>
         <cfvo type="min"/>
         <cfvo type="max"/>
@@ -10242,7 +10383,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H2:H25">
-    <cfRule type="dataBar" priority="209">
+    <cfRule type="dataBar" priority="211">
       <dataBar>
         <cfvo type="min"/>
         <cfvo type="max"/>
@@ -10256,7 +10397,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E26">
-    <cfRule type="dataBar" priority="207">
+    <cfRule type="dataBar" priority="209">
       <dataBar>
         <cfvo type="min"/>
         <cfvo type="max"/>
@@ -10270,7 +10411,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F26">
-    <cfRule type="dataBar" priority="206">
+    <cfRule type="dataBar" priority="208">
       <dataBar>
         <cfvo type="min"/>
         <cfvo type="max"/>
@@ -10284,7 +10425,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G26">
-    <cfRule type="dataBar" priority="205">
+    <cfRule type="dataBar" priority="207">
       <dataBar>
         <cfvo type="min"/>
         <cfvo type="max"/>
@@ -10298,7 +10439,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H26">
-    <cfRule type="dataBar" priority="204">
+    <cfRule type="dataBar" priority="206">
       <dataBar>
         <cfvo type="min"/>
         <cfvo type="max"/>
@@ -10312,7 +10453,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E26">
-    <cfRule type="dataBar" priority="199">
+    <cfRule type="dataBar" priority="201">
       <dataBar>
         <cfvo type="min"/>
         <cfvo type="max"/>
@@ -10326,7 +10467,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F26">
-    <cfRule type="dataBar" priority="198">
+    <cfRule type="dataBar" priority="200">
       <dataBar>
         <cfvo type="min"/>
         <cfvo type="max"/>
@@ -10340,7 +10481,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G26">
-    <cfRule type="dataBar" priority="197">
+    <cfRule type="dataBar" priority="199">
       <dataBar>
         <cfvo type="min"/>
         <cfvo type="max"/>
@@ -10354,7 +10495,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H26">
-    <cfRule type="dataBar" priority="196">
+    <cfRule type="dataBar" priority="198">
       <dataBar>
         <cfvo type="min"/>
         <cfvo type="max"/>
@@ -10368,7 +10509,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E26">
-    <cfRule type="dataBar" priority="193">
+    <cfRule type="dataBar" priority="195">
       <dataBar>
         <cfvo type="min"/>
         <cfvo type="max"/>
@@ -10382,7 +10523,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F26">
-    <cfRule type="dataBar" priority="192">
+    <cfRule type="dataBar" priority="194">
       <dataBar>
         <cfvo type="min"/>
         <cfvo type="max"/>
@@ -10396,7 +10537,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G26">
-    <cfRule type="dataBar" priority="191">
+    <cfRule type="dataBar" priority="193">
       <dataBar>
         <cfvo type="min"/>
         <cfvo type="max"/>
@@ -10410,7 +10551,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H26">
-    <cfRule type="dataBar" priority="190">
+    <cfRule type="dataBar" priority="192">
       <dataBar>
         <cfvo type="min"/>
         <cfvo type="max"/>
@@ -10424,7 +10565,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C2:C16">
-    <cfRule type="dataBar" priority="189">
+    <cfRule type="dataBar" priority="191">
       <dataBar>
         <cfvo type="min"/>
         <cfvo type="max"/>
@@ -10438,7 +10579,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E27">
-    <cfRule type="dataBar" priority="187">
+    <cfRule type="dataBar" priority="189">
       <dataBar>
         <cfvo type="min"/>
         <cfvo type="max"/>
@@ -10452,7 +10593,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F27">
-    <cfRule type="dataBar" priority="186">
+    <cfRule type="dataBar" priority="188">
       <dataBar>
         <cfvo type="min"/>
         <cfvo type="max"/>
@@ -10466,7 +10607,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G27">
-    <cfRule type="dataBar" priority="185">
+    <cfRule type="dataBar" priority="187">
       <dataBar>
         <cfvo type="min"/>
         <cfvo type="max"/>
@@ -10480,7 +10621,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H27">
-    <cfRule type="dataBar" priority="184">
+    <cfRule type="dataBar" priority="186">
       <dataBar>
         <cfvo type="min"/>
         <cfvo type="max"/>
@@ -10494,7 +10635,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E27">
-    <cfRule type="dataBar" priority="179">
+    <cfRule type="dataBar" priority="181">
       <dataBar>
         <cfvo type="min"/>
         <cfvo type="max"/>
@@ -10508,7 +10649,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F27">
-    <cfRule type="dataBar" priority="178">
+    <cfRule type="dataBar" priority="180">
       <dataBar>
         <cfvo type="min"/>
         <cfvo type="max"/>
@@ -10522,7 +10663,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G27">
-    <cfRule type="dataBar" priority="177">
+    <cfRule type="dataBar" priority="179">
       <dataBar>
         <cfvo type="min"/>
         <cfvo type="max"/>
@@ -10536,7 +10677,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H27">
-    <cfRule type="dataBar" priority="176">
+    <cfRule type="dataBar" priority="178">
       <dataBar>
         <cfvo type="min"/>
         <cfvo type="max"/>
@@ -10550,7 +10691,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E27">
-    <cfRule type="dataBar" priority="173">
+    <cfRule type="dataBar" priority="175">
       <dataBar>
         <cfvo type="min"/>
         <cfvo type="max"/>
@@ -10564,7 +10705,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F27">
-    <cfRule type="dataBar" priority="172">
+    <cfRule type="dataBar" priority="174">
       <dataBar>
         <cfvo type="min"/>
         <cfvo type="max"/>
@@ -10578,7 +10719,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G27">
-    <cfRule type="dataBar" priority="171">
+    <cfRule type="dataBar" priority="173">
       <dataBar>
         <cfvo type="min"/>
         <cfvo type="max"/>
@@ -10592,7 +10733,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H27">
-    <cfRule type="dataBar" priority="170">
+    <cfRule type="dataBar" priority="172">
       <dataBar>
         <cfvo type="min"/>
         <cfvo type="max"/>
@@ -10606,7 +10747,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H2:H27">
-    <cfRule type="dataBar" priority="168">
+    <cfRule type="dataBar" priority="170">
       <dataBar>
         <cfvo type="min"/>
         <cfvo type="max"/>
@@ -10620,7 +10761,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G2:G27">
-    <cfRule type="dataBar" priority="167">
+    <cfRule type="dataBar" priority="169">
       <dataBar>
         <cfvo type="min"/>
         <cfvo type="max"/>
@@ -10634,7 +10775,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F2:F27">
-    <cfRule type="dataBar" priority="166">
+    <cfRule type="dataBar" priority="168">
       <dataBar>
         <cfvo type="min"/>
         <cfvo type="max"/>
@@ -10648,7 +10789,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E2:E27">
-    <cfRule type="dataBar" priority="165">
+    <cfRule type="dataBar" priority="167">
       <dataBar>
         <cfvo type="min"/>
         <cfvo type="max"/>
@@ -10662,7 +10803,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D2:D16">
-    <cfRule type="dataBar" priority="164">
+    <cfRule type="dataBar" priority="166">
       <dataBar>
         <cfvo type="min"/>
         <cfvo type="max"/>
@@ -10676,7 +10817,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C2:C16">
-    <cfRule type="dataBar" priority="163">
+    <cfRule type="dataBar" priority="165">
       <dataBar>
         <cfvo type="min"/>
         <cfvo type="max"/>
@@ -10690,7 +10831,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E28">
-    <cfRule type="dataBar" priority="161">
+    <cfRule type="dataBar" priority="163">
       <dataBar>
         <cfvo type="min"/>
         <cfvo type="max"/>
@@ -10704,7 +10845,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F28">
-    <cfRule type="dataBar" priority="160">
+    <cfRule type="dataBar" priority="162">
       <dataBar>
         <cfvo type="min"/>
         <cfvo type="max"/>
@@ -10718,7 +10859,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G28">
-    <cfRule type="dataBar" priority="159">
+    <cfRule type="dataBar" priority="161">
       <dataBar>
         <cfvo type="min"/>
         <cfvo type="max"/>
@@ -10732,7 +10873,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H28">
-    <cfRule type="dataBar" priority="158">
+    <cfRule type="dataBar" priority="160">
       <dataBar>
         <cfvo type="min"/>
         <cfvo type="max"/>
@@ -10746,7 +10887,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E28">
-    <cfRule type="dataBar" priority="153">
+    <cfRule type="dataBar" priority="155">
       <dataBar>
         <cfvo type="min"/>
         <cfvo type="max"/>
@@ -10760,7 +10901,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F28">
-    <cfRule type="dataBar" priority="152">
+    <cfRule type="dataBar" priority="154">
       <dataBar>
         <cfvo type="min"/>
         <cfvo type="max"/>
@@ -10774,7 +10915,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G28">
-    <cfRule type="dataBar" priority="151">
+    <cfRule type="dataBar" priority="153">
       <dataBar>
         <cfvo type="min"/>
         <cfvo type="max"/>
@@ -10788,7 +10929,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H28">
-    <cfRule type="dataBar" priority="150">
+    <cfRule type="dataBar" priority="152">
       <dataBar>
         <cfvo type="min"/>
         <cfvo type="max"/>
@@ -10802,7 +10943,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E28">
-    <cfRule type="dataBar" priority="147">
+    <cfRule type="dataBar" priority="149">
       <dataBar>
         <cfvo type="min"/>
         <cfvo type="max"/>
@@ -10816,7 +10957,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F28">
-    <cfRule type="dataBar" priority="146">
+    <cfRule type="dataBar" priority="148">
       <dataBar>
         <cfvo type="min"/>
         <cfvo type="max"/>
@@ -10830,7 +10971,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G28">
-    <cfRule type="dataBar" priority="145">
+    <cfRule type="dataBar" priority="147">
       <dataBar>
         <cfvo type="min"/>
         <cfvo type="max"/>
@@ -10844,7 +10985,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H28">
-    <cfRule type="dataBar" priority="144">
+    <cfRule type="dataBar" priority="146">
       <dataBar>
         <cfvo type="min"/>
         <cfvo type="max"/>
@@ -10858,7 +10999,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H28">
-    <cfRule type="dataBar" priority="142">
+    <cfRule type="dataBar" priority="144">
       <dataBar>
         <cfvo type="min"/>
         <cfvo type="max"/>
@@ -10872,7 +11013,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G28">
-    <cfRule type="dataBar" priority="141">
+    <cfRule type="dataBar" priority="143">
       <dataBar>
         <cfvo type="min"/>
         <cfvo type="max"/>
@@ -10886,7 +11027,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F28">
-    <cfRule type="dataBar" priority="140">
+    <cfRule type="dataBar" priority="142">
       <dataBar>
         <cfvo type="min"/>
         <cfvo type="max"/>
@@ -10900,7 +11041,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E28">
-    <cfRule type="dataBar" priority="139">
+    <cfRule type="dataBar" priority="141">
       <dataBar>
         <cfvo type="min"/>
         <cfvo type="max"/>
@@ -10914,7 +11055,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E29">
-    <cfRule type="dataBar" priority="135">
+    <cfRule type="dataBar" priority="137">
       <dataBar>
         <cfvo type="min"/>
         <cfvo type="max"/>
@@ -10928,7 +11069,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F29">
-    <cfRule type="dataBar" priority="134">
+    <cfRule type="dataBar" priority="136">
       <dataBar>
         <cfvo type="min"/>
         <cfvo type="max"/>
@@ -10942,7 +11083,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G29">
-    <cfRule type="dataBar" priority="133">
+    <cfRule type="dataBar" priority="135">
       <dataBar>
         <cfvo type="min"/>
         <cfvo type="max"/>
@@ -10956,7 +11097,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H29">
-    <cfRule type="dataBar" priority="132">
+    <cfRule type="dataBar" priority="134">
       <dataBar>
         <cfvo type="min"/>
         <cfvo type="max"/>
@@ -10970,7 +11111,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E29">
-    <cfRule type="dataBar" priority="127">
+    <cfRule type="dataBar" priority="129">
       <dataBar>
         <cfvo type="min"/>
         <cfvo type="max"/>
@@ -10984,7 +11125,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F29">
-    <cfRule type="dataBar" priority="126">
+    <cfRule type="dataBar" priority="128">
       <dataBar>
         <cfvo type="min"/>
         <cfvo type="max"/>
@@ -10998,7 +11139,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G29">
-    <cfRule type="dataBar" priority="125">
+    <cfRule type="dataBar" priority="127">
       <dataBar>
         <cfvo type="min"/>
         <cfvo type="max"/>
@@ -11012,7 +11153,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H29">
-    <cfRule type="dataBar" priority="124">
+    <cfRule type="dataBar" priority="126">
       <dataBar>
         <cfvo type="min"/>
         <cfvo type="max"/>
@@ -11026,7 +11167,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E29">
-    <cfRule type="dataBar" priority="121">
+    <cfRule type="dataBar" priority="123">
       <dataBar>
         <cfvo type="min"/>
         <cfvo type="max"/>
@@ -11040,7 +11181,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F29">
-    <cfRule type="dataBar" priority="120">
+    <cfRule type="dataBar" priority="122">
       <dataBar>
         <cfvo type="min"/>
         <cfvo type="max"/>
@@ -11054,7 +11195,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G29">
-    <cfRule type="dataBar" priority="119">
+    <cfRule type="dataBar" priority="121">
       <dataBar>
         <cfvo type="min"/>
         <cfvo type="max"/>
@@ -11068,7 +11209,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H29">
-    <cfRule type="dataBar" priority="118">
+    <cfRule type="dataBar" priority="120">
       <dataBar>
         <cfvo type="min"/>
         <cfvo type="max"/>
@@ -11082,7 +11223,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H29">
-    <cfRule type="dataBar" priority="116">
+    <cfRule type="dataBar" priority="118">
       <dataBar>
         <cfvo type="min"/>
         <cfvo type="max"/>
@@ -11096,7 +11237,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G29">
-    <cfRule type="dataBar" priority="115">
+    <cfRule type="dataBar" priority="117">
       <dataBar>
         <cfvo type="min"/>
         <cfvo type="max"/>
@@ -11110,7 +11251,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F29">
-    <cfRule type="dataBar" priority="114">
+    <cfRule type="dataBar" priority="116">
       <dataBar>
         <cfvo type="min"/>
         <cfvo type="max"/>
@@ -11124,7 +11265,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E29">
-    <cfRule type="dataBar" priority="113">
+    <cfRule type="dataBar" priority="115">
       <dataBar>
         <cfvo type="min"/>
         <cfvo type="max"/>
@@ -11138,7 +11279,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E30">
-    <cfRule type="dataBar" priority="109">
+    <cfRule type="dataBar" priority="111">
       <dataBar>
         <cfvo type="min"/>
         <cfvo type="max"/>
@@ -11152,7 +11293,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F30">
-    <cfRule type="dataBar" priority="108">
+    <cfRule type="dataBar" priority="110">
       <dataBar>
         <cfvo type="min"/>
         <cfvo type="max"/>
@@ -11166,7 +11307,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G30">
-    <cfRule type="dataBar" priority="107">
+    <cfRule type="dataBar" priority="109">
       <dataBar>
         <cfvo type="min"/>
         <cfvo type="max"/>
@@ -11180,7 +11321,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H30">
-    <cfRule type="dataBar" priority="106">
+    <cfRule type="dataBar" priority="108">
       <dataBar>
         <cfvo type="min"/>
         <cfvo type="max"/>
@@ -11194,7 +11335,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E30">
-    <cfRule type="dataBar" priority="101">
+    <cfRule type="dataBar" priority="103">
       <dataBar>
         <cfvo type="min"/>
         <cfvo type="max"/>
@@ -11208,7 +11349,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F30">
-    <cfRule type="dataBar" priority="100">
+    <cfRule type="dataBar" priority="102">
       <dataBar>
         <cfvo type="min"/>
         <cfvo type="max"/>
@@ -11222,7 +11363,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G30">
-    <cfRule type="dataBar" priority="99">
+    <cfRule type="dataBar" priority="101">
       <dataBar>
         <cfvo type="min"/>
         <cfvo type="max"/>
@@ -11236,7 +11377,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H30">
-    <cfRule type="dataBar" priority="98">
+    <cfRule type="dataBar" priority="100">
       <dataBar>
         <cfvo type="min"/>
         <cfvo type="max"/>
@@ -11250,7 +11391,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E30">
-    <cfRule type="dataBar" priority="95">
+    <cfRule type="dataBar" priority="97">
       <dataBar>
         <cfvo type="min"/>
         <cfvo type="max"/>
@@ -11264,7 +11405,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F30">
-    <cfRule type="dataBar" priority="94">
+    <cfRule type="dataBar" priority="96">
       <dataBar>
         <cfvo type="min"/>
         <cfvo type="max"/>
@@ -11278,7 +11419,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G30">
-    <cfRule type="dataBar" priority="93">
+    <cfRule type="dataBar" priority="95">
       <dataBar>
         <cfvo type="min"/>
         <cfvo type="max"/>
@@ -11292,7 +11433,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H30">
-    <cfRule type="dataBar" priority="92">
+    <cfRule type="dataBar" priority="94">
       <dataBar>
         <cfvo type="min"/>
         <cfvo type="max"/>
@@ -11306,7 +11447,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H30">
-    <cfRule type="dataBar" priority="90">
+    <cfRule type="dataBar" priority="92">
       <dataBar>
         <cfvo type="min"/>
         <cfvo type="max"/>
@@ -11320,7 +11461,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G30">
-    <cfRule type="dataBar" priority="89">
+    <cfRule type="dataBar" priority="91">
       <dataBar>
         <cfvo type="min"/>
         <cfvo type="max"/>
@@ -11334,7 +11475,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F30">
-    <cfRule type="dataBar" priority="88">
+    <cfRule type="dataBar" priority="90">
       <dataBar>
         <cfvo type="min"/>
         <cfvo type="max"/>
@@ -11348,7 +11489,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E30">
-    <cfRule type="dataBar" priority="87">
+    <cfRule type="dataBar" priority="89">
       <dataBar>
         <cfvo type="min"/>
         <cfvo type="max"/>
@@ -11362,7 +11503,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D2:D16">
-    <cfRule type="dataBar" priority="54">
+    <cfRule type="dataBar" priority="56">
       <dataBar>
         <cfvo type="min"/>
         <cfvo type="max"/>
@@ -11376,7 +11517,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C2:C16">
-    <cfRule type="dataBar" priority="53">
+    <cfRule type="dataBar" priority="55">
       <dataBar>
         <cfvo type="min"/>
         <cfvo type="max"/>
@@ -11390,7 +11531,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G32">
-    <cfRule type="dataBar" priority="35">
+    <cfRule type="dataBar" priority="37">
       <dataBar>
         <cfvo type="min"/>
         <cfvo type="max"/>
@@ -11404,7 +11545,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H32">
-    <cfRule type="dataBar" priority="34">
+    <cfRule type="dataBar" priority="36">
       <dataBar>
         <cfvo type="min"/>
         <cfvo type="max"/>
@@ -11418,7 +11559,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G32">
-    <cfRule type="dataBar" priority="33">
+    <cfRule type="dataBar" priority="35">
       <dataBar>
         <cfvo type="min"/>
         <cfvo type="max"/>
@@ -11432,7 +11573,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H32">
-    <cfRule type="dataBar" priority="32">
+    <cfRule type="dataBar" priority="34">
       <dataBar>
         <cfvo type="min"/>
         <cfvo type="max"/>
@@ -11446,7 +11587,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G32">
-    <cfRule type="dataBar" priority="31">
+    <cfRule type="dataBar" priority="33">
       <dataBar>
         <cfvo type="min"/>
         <cfvo type="max"/>
@@ -11460,7 +11601,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H32">
-    <cfRule type="dataBar" priority="30">
+    <cfRule type="dataBar" priority="32">
       <dataBar>
         <cfvo type="min"/>
         <cfvo type="max"/>
@@ -11474,7 +11615,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H32">
-    <cfRule type="dataBar" priority="29">
+    <cfRule type="dataBar" priority="31">
       <dataBar>
         <cfvo type="min"/>
         <cfvo type="max"/>
@@ -11488,7 +11629,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G32">
-    <cfRule type="dataBar" priority="28">
+    <cfRule type="dataBar" priority="30">
       <dataBar>
         <cfvo type="min"/>
         <cfvo type="max"/>
@@ -11502,7 +11643,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H32">
-    <cfRule type="dataBar" priority="36">
+    <cfRule type="dataBar" priority="38">
       <dataBar>
         <cfvo type="min"/>
         <cfvo type="max"/>
@@ -11516,7 +11657,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G32">
-    <cfRule type="dataBar" priority="37">
+    <cfRule type="dataBar" priority="39">
       <dataBar>
         <cfvo type="min"/>
         <cfvo type="max"/>
@@ -11530,7 +11671,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E31:E34">
-    <cfRule type="dataBar" priority="347">
+    <cfRule type="dataBar" priority="349">
       <dataBar>
         <cfvo type="min"/>
         <cfvo type="max"/>
@@ -11544,7 +11685,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F31:F34">
-    <cfRule type="dataBar" priority="349">
+    <cfRule type="dataBar" priority="351">
       <dataBar>
         <cfvo type="min"/>
         <cfvo type="max"/>
@@ -11558,7 +11699,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G33:G34 G31">
-    <cfRule type="dataBar" priority="351">
+    <cfRule type="dataBar" priority="353">
       <dataBar>
         <cfvo type="min"/>
         <cfvo type="max"/>
@@ -11572,7 +11713,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H33:H34 H31">
-    <cfRule type="dataBar" priority="354">
+    <cfRule type="dataBar" priority="356">
       <dataBar>
         <cfvo type="min"/>
         <cfvo type="max"/>
@@ -11586,7 +11727,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H2:H31 H33:H34">
-    <cfRule type="dataBar" priority="357">
+    <cfRule type="dataBar" priority="359">
       <dataBar>
         <cfvo type="min"/>
         <cfvo type="max"/>
@@ -11600,7 +11741,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G2:G31 G33:G34">
-    <cfRule type="dataBar" priority="360">
+    <cfRule type="dataBar" priority="362">
       <dataBar>
         <cfvo type="min"/>
         <cfvo type="max"/>
@@ -11614,7 +11755,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F2:F34">
-    <cfRule type="dataBar" priority="20">
+    <cfRule type="dataBar" priority="22">
       <dataBar>
         <cfvo type="min"/>
         <cfvo type="max"/>
@@ -11628,7 +11769,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E2:E34">
-    <cfRule type="dataBar" priority="21">
+    <cfRule type="dataBar" priority="23">
       <dataBar>
         <cfvo type="min"/>
         <cfvo type="max"/>
@@ -11642,7 +11783,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D2:D16">
-    <cfRule type="dataBar" priority="371">
+    <cfRule type="dataBar" priority="373">
       <dataBar>
         <cfvo type="min"/>
         <cfvo type="max"/>
@@ -11656,7 +11797,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C2:C16">
-    <cfRule type="dataBar" priority="373">
+    <cfRule type="dataBar" priority="375">
       <dataBar>
         <cfvo type="min"/>
         <cfvo type="max"/>
@@ -11670,7 +11811,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G2:G34">
-    <cfRule type="dataBar" priority="19">
+    <cfRule type="dataBar" priority="21">
       <dataBar>
         <cfvo type="min"/>
         <cfvo type="max"/>
@@ -11684,7 +11825,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H2:H34">
-    <cfRule type="dataBar" priority="18">
+    <cfRule type="dataBar" priority="20">
       <dataBar>
         <cfvo type="min"/>
         <cfvo type="max"/>
@@ -11698,7 +11839,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C17:C34">
-    <cfRule type="dataBar" priority="15">
+    <cfRule type="dataBar" priority="17">
       <dataBar>
         <cfvo type="min"/>
         <cfvo type="max"/>
@@ -11712,7 +11853,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C17:C34">
-    <cfRule type="dataBar" priority="16">
+    <cfRule type="dataBar" priority="18">
       <dataBar>
         <cfvo type="min"/>
         <cfvo type="max"/>
@@ -11726,7 +11867,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C17:C34">
-    <cfRule type="dataBar" priority="14">
+    <cfRule type="dataBar" priority="16">
       <dataBar>
         <cfvo type="min"/>
         <cfvo type="max"/>
@@ -11740,7 +11881,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C17:C34">
-    <cfRule type="dataBar" priority="13">
+    <cfRule type="dataBar" priority="15">
       <dataBar>
         <cfvo type="min"/>
         <cfvo type="max"/>
@@ -11754,7 +11895,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C17:C34">
-    <cfRule type="dataBar" priority="12">
+    <cfRule type="dataBar" priority="14">
       <dataBar>
         <cfvo type="min"/>
         <cfvo type="max"/>
@@ -11768,7 +11909,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C17:C34">
-    <cfRule type="dataBar" priority="11">
+    <cfRule type="dataBar" priority="13">
       <dataBar>
         <cfvo type="min"/>
         <cfvo type="max"/>
@@ -11782,7 +11923,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C17:C34">
-    <cfRule type="dataBar" priority="10">
+    <cfRule type="dataBar" priority="12">
       <dataBar>
         <cfvo type="min"/>
         <cfvo type="max"/>
@@ -11796,7 +11937,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C17:C34">
-    <cfRule type="dataBar" priority="17">
+    <cfRule type="dataBar" priority="19">
       <dataBar>
         <cfvo type="min"/>
         <cfvo type="max"/>
@@ -11810,7 +11951,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D17:D34">
-    <cfRule type="dataBar" priority="8">
+    <cfRule type="dataBar" priority="10">
       <dataBar>
         <cfvo type="min"/>
         <cfvo type="max"/>
@@ -11824,7 +11965,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D17:D34">
-    <cfRule type="dataBar" priority="7">
+    <cfRule type="dataBar" priority="9">
       <dataBar>
         <cfvo type="min"/>
         <cfvo type="max"/>
@@ -11838,7 +11979,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D17:D34">
-    <cfRule type="dataBar" priority="6">
+    <cfRule type="dataBar" priority="8">
       <dataBar>
         <cfvo type="min"/>
         <cfvo type="max"/>
@@ -11852,7 +11993,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D17:D34">
-    <cfRule type="dataBar" priority="5">
+    <cfRule type="dataBar" priority="7">
       <dataBar>
         <cfvo type="min"/>
         <cfvo type="max"/>
@@ -11866,7 +12007,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D17:D34">
-    <cfRule type="dataBar" priority="4">
+    <cfRule type="dataBar" priority="6">
       <dataBar>
         <cfvo type="min"/>
         <cfvo type="max"/>
@@ -11880,7 +12021,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D17:D34">
-    <cfRule type="dataBar" priority="3">
+    <cfRule type="dataBar" priority="5">
       <dataBar>
         <cfvo type="min"/>
         <cfvo type="max"/>
@@ -11894,7 +12035,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D17:D34">
-    <cfRule type="dataBar" priority="9">
+    <cfRule type="dataBar" priority="11">
       <dataBar>
         <cfvo type="min"/>
         <cfvo type="max"/>
@@ -14417,7 +14558,7 @@
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="18" type="noConversion"/>
+  <phoneticPr fontId="19" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
@@ -14486,13 +14627,13 @@
       <c r="H3" s="13"/>
     </row>
     <row r="4" spans="1:12" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B4" s="81">
+      <c r="B4" s="82">
         <v>0</v>
       </c>
-      <c r="C4" s="81" t="s">
+      <c r="C4" s="82" t="s">
         <v>44</v>
       </c>
-      <c r="D4" s="81" t="s">
+      <c r="D4" s="82" t="s">
         <v>50</v>
       </c>
       <c r="E4" s="15" t="s">
@@ -14520,9 +14661,9 @@
       </c>
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="B5" s="82"/>
-      <c r="C5" s="82"/>
-      <c r="D5" s="82"/>
+      <c r="B5" s="83"/>
+      <c r="C5" s="83"/>
+      <c r="D5" s="83"/>
       <c r="E5" s="15" t="s">
         <v>1</v>
       </c>
@@ -14548,9 +14689,9 @@
       </c>
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="B6" s="83"/>
-      <c r="C6" s="83"/>
-      <c r="D6" s="83"/>
+      <c r="B6" s="84"/>
+      <c r="C6" s="84"/>
+      <c r="D6" s="84"/>
       <c r="E6" s="19" t="s">
         <v>2</v>
       </c>
@@ -14586,13 +14727,13 @@
       <c r="L7" s="24"/>
     </row>
     <row r="8" spans="1:12" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B8" s="81">
+      <c r="B8" s="82">
         <v>1</v>
       </c>
-      <c r="C8" s="81" t="s">
+      <c r="C8" s="82" t="s">
         <v>45</v>
       </c>
-      <c r="D8" s="81" t="s">
+      <c r="D8" s="82" t="s">
         <v>52</v>
       </c>
       <c r="E8" s="21" t="s">
@@ -14620,9 +14761,9 @@
       </c>
     </row>
     <row r="9" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="B9" s="82"/>
-      <c r="C9" s="82"/>
-      <c r="D9" s="82"/>
+      <c r="B9" s="83"/>
+      <c r="C9" s="83"/>
+      <c r="D9" s="83"/>
       <c r="E9" s="15" t="s">
         <v>1</v>
       </c>
@@ -14648,9 +14789,9 @@
       </c>
     </row>
     <row r="10" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="B10" s="82"/>
-      <c r="C10" s="82"/>
-      <c r="D10" s="82"/>
+      <c r="B10" s="83"/>
+      <c r="C10" s="83"/>
+      <c r="D10" s="83"/>
       <c r="E10" s="15" t="s">
         <v>2</v>
       </c>
@@ -14676,9 +14817,9 @@
       </c>
     </row>
     <row r="11" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="B11" s="83"/>
-      <c r="C11" s="83"/>
-      <c r="D11" s="83"/>
+      <c r="B11" s="84"/>
+      <c r="C11" s="84"/>
+      <c r="D11" s="84"/>
       <c r="E11" s="19" t="s">
         <v>43</v>
       </c>
@@ -14708,13 +14849,13 @@
       <c r="K12" s="25"/>
     </row>
     <row r="13" spans="1:12" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B13" s="81">
+      <c r="B13" s="82">
         <v>2</v>
       </c>
-      <c r="C13" s="81" t="s">
+      <c r="C13" s="82" t="s">
         <v>46</v>
       </c>
-      <c r="D13" s="81" t="s">
+      <c r="D13" s="82" t="s">
         <v>53</v>
       </c>
       <c r="E13" s="21" t="s">
@@ -14742,9 +14883,9 @@
       </c>
     </row>
     <row r="14" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="B14" s="82"/>
-      <c r="C14" s="82"/>
-      <c r="D14" s="82"/>
+      <c r="B14" s="83"/>
+      <c r="C14" s="83"/>
+      <c r="D14" s="83"/>
       <c r="E14" s="15" t="s">
         <v>1</v>
       </c>
@@ -14770,9 +14911,9 @@
       </c>
     </row>
     <row r="15" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="B15" s="82"/>
-      <c r="C15" s="82"/>
-      <c r="D15" s="82"/>
+      <c r="B15" s="83"/>
+      <c r="C15" s="83"/>
+      <c r="D15" s="83"/>
       <c r="E15" s="15" t="s">
         <v>2</v>
       </c>
@@ -14798,9 +14939,9 @@
       </c>
     </row>
     <row r="16" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="B16" s="82"/>
-      <c r="C16" s="82"/>
-      <c r="D16" s="82"/>
+      <c r="B16" s="83"/>
+      <c r="C16" s="83"/>
+      <c r="D16" s="83"/>
       <c r="E16" s="11" t="s">
         <v>65</v>
       </c>
@@ -14821,9 +14962,9 @@
       </c>
     </row>
     <row r="17" spans="2:11" x14ac:dyDescent="0.15">
-      <c r="B17" s="83"/>
-      <c r="C17" s="83"/>
-      <c r="D17" s="83"/>
+      <c r="B17" s="84"/>
+      <c r="C17" s="84"/>
+      <c r="D17" s="84"/>
       <c r="E17" s="11" t="s">
         <v>66</v>
       </c>
@@ -14844,13 +14985,13 @@
       </c>
     </row>
     <row r="19" spans="2:11" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B19" s="81">
+      <c r="B19" s="82">
         <v>3</v>
       </c>
-      <c r="C19" s="81" t="s">
+      <c r="C19" s="82" t="s">
         <v>47</v>
       </c>
-      <c r="D19" s="81" t="s">
+      <c r="D19" s="82" t="s">
         <v>54</v>
       </c>
       <c r="E19" s="15" t="s">
@@ -14878,9 +15019,9 @@
       </c>
     </row>
     <row r="20" spans="2:11" x14ac:dyDescent="0.15">
-      <c r="B20" s="82"/>
-      <c r="C20" s="82"/>
-      <c r="D20" s="82"/>
+      <c r="B20" s="83"/>
+      <c r="C20" s="83"/>
+      <c r="D20" s="83"/>
       <c r="E20" s="15" t="s">
         <v>1</v>
       </c>
@@ -14906,9 +15047,9 @@
       </c>
     </row>
     <row r="21" spans="2:11" x14ac:dyDescent="0.15">
-      <c r="B21" s="83"/>
-      <c r="C21" s="83"/>
-      <c r="D21" s="83"/>
+      <c r="B21" s="84"/>
+      <c r="C21" s="84"/>
+      <c r="D21" s="84"/>
       <c r="E21" s="15" t="s">
         <v>2</v>
       </c>
@@ -14934,13 +15075,13 @@
       </c>
     </row>
     <row r="23" spans="2:11" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B23" s="81">
+      <c r="B23" s="82">
         <v>4</v>
       </c>
-      <c r="C23" s="81" t="s">
+      <c r="C23" s="82" t="s">
         <v>48</v>
       </c>
-      <c r="D23" s="81" t="s">
+      <c r="D23" s="82" t="s">
         <v>55</v>
       </c>
       <c r="E23" s="15" t="s">
@@ -14968,9 +15109,9 @@
       </c>
     </row>
     <row r="24" spans="2:11" x14ac:dyDescent="0.15">
-      <c r="B24" s="82"/>
-      <c r="C24" s="82"/>
-      <c r="D24" s="82"/>
+      <c r="B24" s="83"/>
+      <c r="C24" s="83"/>
+      <c r="D24" s="83"/>
       <c r="E24" s="15" t="s">
         <v>1</v>
       </c>
@@ -14996,9 +15137,9 @@
       </c>
     </row>
     <row r="25" spans="2:11" x14ac:dyDescent="0.15">
-      <c r="B25" s="82"/>
-      <c r="C25" s="82"/>
-      <c r="D25" s="82"/>
+      <c r="B25" s="83"/>
+      <c r="C25" s="83"/>
+      <c r="D25" s="83"/>
       <c r="E25" s="15" t="s">
         <v>2</v>
       </c>
@@ -15024,9 +15165,9 @@
       </c>
     </row>
     <row r="26" spans="2:11" x14ac:dyDescent="0.15">
-      <c r="B26" s="82"/>
-      <c r="C26" s="82"/>
-      <c r="D26" s="82"/>
+      <c r="B26" s="83"/>
+      <c r="C26" s="83"/>
+      <c r="D26" s="83"/>
       <c r="E26" s="11" t="s">
         <v>67</v>
       </c>
@@ -15047,9 +15188,9 @@
       </c>
     </row>
     <row r="27" spans="2:11" x14ac:dyDescent="0.15">
-      <c r="B27" s="83"/>
-      <c r="C27" s="83"/>
-      <c r="D27" s="83"/>
+      <c r="B27" s="84"/>
+      <c r="C27" s="84"/>
+      <c r="D27" s="84"/>
       <c r="E27" s="11" t="s">
         <v>68</v>
       </c>
@@ -15070,13 +15211,13 @@
       </c>
     </row>
     <row r="29" spans="2:11" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B29" s="81">
+      <c r="B29" s="82">
         <v>5</v>
       </c>
-      <c r="C29" s="81" t="s">
+      <c r="C29" s="82" t="s">
         <v>49</v>
       </c>
-      <c r="D29" s="81" t="s">
+      <c r="D29" s="82" t="s">
         <v>56</v>
       </c>
       <c r="E29" s="15" t="s">
@@ -15104,9 +15245,9 @@
       </c>
     </row>
     <row r="30" spans="2:11" x14ac:dyDescent="0.15">
-      <c r="B30" s="82"/>
-      <c r="C30" s="82"/>
-      <c r="D30" s="82"/>
+      <c r="B30" s="83"/>
+      <c r="C30" s="83"/>
+      <c r="D30" s="83"/>
       <c r="E30" s="15" t="s">
         <v>1</v>
       </c>
@@ -15132,9 +15273,9 @@
       </c>
     </row>
     <row r="31" spans="2:11" x14ac:dyDescent="0.15">
-      <c r="B31" s="82"/>
-      <c r="C31" s="82"/>
-      <c r="D31" s="82"/>
+      <c r="B31" s="83"/>
+      <c r="C31" s="83"/>
+      <c r="D31" s="83"/>
       <c r="E31" s="15" t="s">
         <v>2</v>
       </c>
@@ -15160,9 +15301,9 @@
       </c>
     </row>
     <row r="32" spans="2:11" x14ac:dyDescent="0.15">
-      <c r="B32" s="82"/>
-      <c r="C32" s="82"/>
-      <c r="D32" s="82"/>
+      <c r="B32" s="83"/>
+      <c r="C32" s="83"/>
+      <c r="D32" s="83"/>
       <c r="E32" s="15" t="s">
         <v>57</v>
       </c>
@@ -15183,9 +15324,9 @@
       </c>
     </row>
     <row r="33" spans="2:11" x14ac:dyDescent="0.15">
-      <c r="B33" s="83"/>
-      <c r="C33" s="83"/>
-      <c r="D33" s="83"/>
+      <c r="B33" s="84"/>
+      <c r="C33" s="84"/>
+      <c r="D33" s="84"/>
       <c r="E33" s="11" t="s">
         <v>64</v>
       </c>
@@ -15206,13 +15347,13 @@
       </c>
     </row>
     <row r="35" spans="2:11" x14ac:dyDescent="0.15">
-      <c r="B35" s="84">
+      <c r="B35" s="85">
         <v>6</v>
       </c>
-      <c r="C35" s="84" t="s">
+      <c r="C35" s="85" t="s">
         <v>62</v>
       </c>
-      <c r="D35" s="84" t="s">
+      <c r="D35" s="85" t="s">
         <v>63</v>
       </c>
       <c r="E35" s="11" t="s">
@@ -15240,9 +15381,9 @@
       </c>
     </row>
     <row r="36" spans="2:11" x14ac:dyDescent="0.15">
-      <c r="B36" s="84"/>
-      <c r="C36" s="84"/>
-      <c r="D36" s="84"/>
+      <c r="B36" s="85"/>
+      <c r="C36" s="85"/>
+      <c r="D36" s="85"/>
       <c r="E36" s="28" t="s">
         <v>1</v>
       </c>
@@ -15268,9 +15409,9 @@
       </c>
     </row>
     <row r="37" spans="2:11" x14ac:dyDescent="0.15">
-      <c r="B37" s="84"/>
-      <c r="C37" s="84"/>
-      <c r="D37" s="84"/>
+      <c r="B37" s="85"/>
+      <c r="C37" s="85"/>
+      <c r="D37" s="85"/>
       <c r="E37" s="28" t="s">
         <v>2</v>
       </c>
@@ -15319,7 +15460,7 @@
     <mergeCell ref="C4:C6"/>
     <mergeCell ref="C8:C11"/>
   </mergeCells>
-  <phoneticPr fontId="18" type="noConversion"/>
+  <phoneticPr fontId="19" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
   <drawing r:id="rId2"/>
@@ -15965,7 +16106,7 @@
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="18" type="noConversion"/>
+  <phoneticPr fontId="19" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
@@ -16013,11 +16154,11 @@
         <v>94</v>
       </c>
       <c r="I2" s="2"/>
-      <c r="K2" s="86" t="s">
+      <c r="K2" s="87" t="s">
         <v>7</v>
       </c>
-      <c r="L2" s="87"/>
-      <c r="M2" s="88"/>
+      <c r="L2" s="88"/>
+      <c r="M2" s="89"/>
       <c r="O2" t="s">
         <v>23</v>
       </c>
@@ -16213,11 +16354,11 @@
       <c r="I8" s="9">
         <v>47</v>
       </c>
-      <c r="K8" s="85" t="s">
+      <c r="K8" s="86" t="s">
         <v>11</v>
       </c>
-      <c r="L8" s="85"/>
-      <c r="M8" s="85"/>
+      <c r="L8" s="86"/>
+      <c r="M8" s="86"/>
       <c r="O8" t="s">
         <v>23</v>
       </c>
@@ -16247,11 +16388,11 @@
       <c r="I9" s="1">
         <v>39</v>
       </c>
-      <c r="K9" s="85" t="s">
+      <c r="K9" s="86" t="s">
         <v>12</v>
       </c>
-      <c r="L9" s="85"/>
-      <c r="M9" s="85"/>
+      <c r="L9" s="86"/>
+      <c r="M9" s="86"/>
       <c r="O9" t="s">
         <v>23</v>
       </c>
@@ -16281,11 +16422,11 @@
       <c r="I10" s="1">
         <v>31</v>
       </c>
-      <c r="K10" s="85" t="s">
+      <c r="K10" s="86" t="s">
         <v>29</v>
       </c>
-      <c r="L10" s="85"/>
-      <c r="M10" s="85"/>
+      <c r="L10" s="86"/>
+      <c r="M10" s="86"/>
       <c r="O10" t="s">
         <v>23</v>
       </c>
@@ -16315,9 +16456,9 @@
       <c r="I11" s="8">
         <v>23</v>
       </c>
-      <c r="K11" s="85"/>
-      <c r="L11" s="85"/>
-      <c r="M11" s="85"/>
+      <c r="K11" s="86"/>
+      <c r="L11" s="86"/>
+      <c r="M11" s="86"/>
       <c r="O11" t="s">
         <v>23</v>
       </c>
@@ -16448,11 +16589,11 @@
       <c r="I18" s="9">
         <v>95</v>
       </c>
-      <c r="K18" s="86" t="s">
+      <c r="K18" s="87" t="s">
         <v>7</v>
       </c>
-      <c r="L18" s="87"/>
-      <c r="M18" s="88"/>
+      <c r="L18" s="88"/>
+      <c r="M18" s="89"/>
       <c r="O18" t="s">
         <v>26</v>
       </c>
@@ -16587,11 +16728,11 @@
       <c r="I22" s="9">
         <v>63</v>
       </c>
-      <c r="K22" s="85" t="s">
+      <c r="K22" s="86" t="s">
         <v>11</v>
       </c>
-      <c r="L22" s="85"/>
-      <c r="M22" s="85"/>
+      <c r="L22" s="86"/>
+      <c r="M22" s="86"/>
       <c r="O22" t="s">
         <v>25</v>
       </c>
@@ -16621,11 +16762,11 @@
       <c r="I23" s="8">
         <v>55</v>
       </c>
-      <c r="K23" s="85" t="s">
+      <c r="K23" s="86" t="s">
         <v>12</v>
       </c>
-      <c r="L23" s="85"/>
-      <c r="M23" s="85"/>
+      <c r="L23" s="86"/>
+      <c r="M23" s="86"/>
       <c r="O23" t="s">
         <v>25</v>
       </c>
@@ -16655,11 +16796,11 @@
       <c r="I24" s="8">
         <v>47</v>
       </c>
-      <c r="K24" s="85" t="s">
+      <c r="K24" s="86" t="s">
         <v>27</v>
       </c>
-      <c r="L24" s="85"/>
-      <c r="M24" s="85"/>
+      <c r="L24" s="86"/>
+      <c r="M24" s="86"/>
       <c r="O24" t="s">
         <v>25</v>
       </c>
@@ -16689,11 +16830,11 @@
       <c r="I25" s="9">
         <v>39</v>
       </c>
-      <c r="K25" s="85" t="s">
+      <c r="K25" s="86" t="s">
         <v>28</v>
       </c>
-      <c r="L25" s="85"/>
-      <c r="M25" s="85"/>
+      <c r="L25" s="86"/>
+      <c r="M25" s="86"/>
       <c r="O25" t="s">
         <v>25</v>
       </c>
@@ -16723,9 +16864,9 @@
       <c r="I26" s="8">
         <v>31</v>
       </c>
-      <c r="K26" s="89"/>
-      <c r="L26" s="89"/>
-      <c r="M26" s="89"/>
+      <c r="K26" s="90"/>
+      <c r="L26" s="90"/>
+      <c r="M26" s="90"/>
       <c r="O26" t="s">
         <v>25</v>
       </c>
@@ -16755,9 +16896,9 @@
       <c r="I27" s="9">
         <v>23</v>
       </c>
-      <c r="K27" s="89"/>
-      <c r="L27" s="89"/>
-      <c r="M27" s="89"/>
+      <c r="K27" s="90"/>
+      <c r="L27" s="90"/>
+      <c r="M27" s="90"/>
       <c r="O27" t="s">
         <v>25</v>
       </c>
@@ -16880,11 +17021,11 @@
       <c r="I34" s="9">
         <v>95</v>
       </c>
-      <c r="K34" s="86" t="s">
+      <c r="K34" s="87" t="s">
         <v>7</v>
       </c>
-      <c r="L34" s="87"/>
-      <c r="M34" s="88"/>
+      <c r="L34" s="88"/>
+      <c r="M34" s="89"/>
       <c r="O34" t="s">
         <v>31</v>
       </c>
@@ -17019,11 +17160,11 @@
       <c r="I38" s="9">
         <v>63</v>
       </c>
-      <c r="K38" s="85" t="s">
+      <c r="K38" s="86" t="s">
         <v>11</v>
       </c>
-      <c r="L38" s="85"/>
-      <c r="M38" s="85"/>
+      <c r="L38" s="86"/>
+      <c r="M38" s="86"/>
       <c r="O38" t="s">
         <v>30</v>
       </c>
@@ -17053,11 +17194,11 @@
       <c r="I39" s="9">
         <v>55</v>
       </c>
-      <c r="K39" s="85" t="s">
+      <c r="K39" s="86" t="s">
         <v>12</v>
       </c>
-      <c r="L39" s="85"/>
-      <c r="M39" s="85"/>
+      <c r="L39" s="86"/>
+      <c r="M39" s="86"/>
       <c r="O39" t="s">
         <v>30</v>
       </c>
@@ -17087,11 +17228,11 @@
       <c r="I40" s="9">
         <v>47</v>
       </c>
-      <c r="K40" s="85" t="s">
+      <c r="K40" s="86" t="s">
         <v>27</v>
       </c>
-      <c r="L40" s="85"/>
-      <c r="M40" s="85"/>
+      <c r="L40" s="86"/>
+      <c r="M40" s="86"/>
       <c r="O40" t="s">
         <v>30</v>
       </c>
@@ -17121,11 +17262,11 @@
       <c r="I41" s="9">
         <v>39</v>
       </c>
-      <c r="K41" s="85" t="s">
+      <c r="K41" s="86" t="s">
         <v>28</v>
       </c>
-      <c r="L41" s="85"/>
-      <c r="M41" s="85"/>
+      <c r="L41" s="86"/>
+      <c r="M41" s="86"/>
       <c r="O41" t="s">
         <v>30</v>
       </c>
@@ -17155,9 +17296,9 @@
       <c r="I42" s="8">
         <v>31</v>
       </c>
-      <c r="K42" s="85"/>
-      <c r="L42" s="85"/>
-      <c r="M42" s="85"/>
+      <c r="K42" s="86"/>
+      <c r="L42" s="86"/>
+      <c r="M42" s="86"/>
       <c r="O42" t="s">
         <v>30</v>
       </c>
@@ -17187,9 +17328,9 @@
       <c r="I43" s="9">
         <v>23</v>
       </c>
-      <c r="K43" s="85"/>
-      <c r="L43" s="85"/>
-      <c r="M43" s="85"/>
+      <c r="K43" s="86"/>
+      <c r="L43" s="86"/>
+      <c r="M43" s="86"/>
       <c r="O43" t="s">
         <v>30</v>
       </c>
@@ -17306,11 +17447,11 @@
       <c r="I50" s="8">
         <v>95</v>
       </c>
-      <c r="K50" s="86" t="s">
+      <c r="K50" s="87" t="s">
         <v>7</v>
       </c>
-      <c r="L50" s="87"/>
-      <c r="M50" s="88"/>
+      <c r="L50" s="88"/>
+      <c r="M50" s="89"/>
       <c r="O50" t="s">
         <v>35</v>
       </c>
@@ -17445,11 +17586,11 @@
       <c r="I54" s="8">
         <v>63</v>
       </c>
-      <c r="K54" s="85" t="s">
+      <c r="K54" s="86" t="s">
         <v>11</v>
       </c>
-      <c r="L54" s="85"/>
-      <c r="M54" s="85"/>
+      <c r="L54" s="86"/>
+      <c r="M54" s="86"/>
       <c r="O54" t="s">
         <v>33</v>
       </c>
@@ -17479,11 +17620,11 @@
       <c r="I55" s="9">
         <v>55</v>
       </c>
-      <c r="K55" s="85" t="s">
+      <c r="K55" s="86" t="s">
         <v>12</v>
       </c>
-      <c r="L55" s="85"/>
-      <c r="M55" s="85"/>
+      <c r="L55" s="86"/>
+      <c r="M55" s="86"/>
       <c r="O55" t="s">
         <v>33</v>
       </c>
@@ -17513,11 +17654,11 @@
       <c r="I56" s="9">
         <v>47</v>
       </c>
-      <c r="K56" s="85" t="s">
+      <c r="K56" s="86" t="s">
         <v>27</v>
       </c>
-      <c r="L56" s="85"/>
-      <c r="M56" s="85"/>
+      <c r="L56" s="86"/>
+      <c r="M56" s="86"/>
       <c r="O56" t="s">
         <v>33</v>
       </c>
@@ -17547,11 +17688,11 @@
       <c r="I57" s="9">
         <v>39</v>
       </c>
-      <c r="K57" s="85" t="s">
+      <c r="K57" s="86" t="s">
         <v>28</v>
       </c>
-      <c r="L57" s="85"/>
-      <c r="M57" s="85"/>
+      <c r="L57" s="86"/>
+      <c r="M57" s="86"/>
       <c r="O57" t="s">
         <v>33</v>
       </c>
@@ -17581,9 +17722,9 @@
       <c r="I58" s="9">
         <v>31</v>
       </c>
-      <c r="K58" s="85"/>
-      <c r="L58" s="85"/>
-      <c r="M58" s="85"/>
+      <c r="K58" s="86"/>
+      <c r="L58" s="86"/>
+      <c r="M58" s="86"/>
       <c r="O58" t="s">
         <v>33</v>
       </c>
@@ -17613,9 +17754,9 @@
       <c r="I59" s="9">
         <v>23</v>
       </c>
-      <c r="K59" s="85"/>
-      <c r="L59" s="85"/>
-      <c r="M59" s="85"/>
+      <c r="K59" s="86"/>
+      <c r="L59" s="86"/>
+      <c r="M59" s="86"/>
       <c r="O59" t="s">
         <v>33</v>
       </c>
@@ -17732,11 +17873,11 @@
       <c r="I66" s="8">
         <v>95</v>
       </c>
-      <c r="K66" s="86" t="s">
+      <c r="K66" s="87" t="s">
         <v>7</v>
       </c>
-      <c r="L66" s="87"/>
-      <c r="M66" s="88"/>
+      <c r="L66" s="88"/>
+      <c r="M66" s="89"/>
       <c r="O66" t="s">
         <v>38</v>
       </c>
@@ -17871,11 +18012,11 @@
       <c r="I70" s="9">
         <v>63</v>
       </c>
-      <c r="K70" s="85" t="s">
+      <c r="K70" s="86" t="s">
         <v>11</v>
       </c>
-      <c r="L70" s="85"/>
-      <c r="M70" s="85"/>
+      <c r="L70" s="86"/>
+      <c r="M70" s="86"/>
       <c r="O70" t="s">
         <v>36</v>
       </c>
@@ -17905,11 +18046,11 @@
       <c r="I71" s="9">
         <v>55</v>
       </c>
-      <c r="K71" s="85" t="s">
+      <c r="K71" s="86" t="s">
         <v>12</v>
       </c>
-      <c r="L71" s="85"/>
-      <c r="M71" s="85"/>
+      <c r="L71" s="86"/>
+      <c r="M71" s="86"/>
       <c r="O71" t="s">
         <v>36</v>
       </c>
@@ -17939,11 +18080,11 @@
       <c r="I72" s="9">
         <v>47</v>
       </c>
-      <c r="K72" s="85" t="s">
+      <c r="K72" s="86" t="s">
         <v>27</v>
       </c>
-      <c r="L72" s="85"/>
-      <c r="M72" s="85"/>
+      <c r="L72" s="86"/>
+      <c r="M72" s="86"/>
       <c r="O72" t="s">
         <v>36</v>
       </c>
@@ -17973,11 +18114,11 @@
       <c r="I73" s="9">
         <v>39</v>
       </c>
-      <c r="K73" s="85" t="s">
+      <c r="K73" s="86" t="s">
         <v>28</v>
       </c>
-      <c r="L73" s="85"/>
-      <c r="M73" s="85"/>
+      <c r="L73" s="86"/>
+      <c r="M73" s="86"/>
       <c r="O73" t="s">
         <v>36</v>
       </c>
@@ -18007,9 +18148,9 @@
       <c r="I74" s="9">
         <v>31</v>
       </c>
-      <c r="K74" s="85"/>
-      <c r="L74" s="85"/>
-      <c r="M74" s="85"/>
+      <c r="K74" s="86"/>
+      <c r="L74" s="86"/>
+      <c r="M74" s="86"/>
       <c r="O74" t="s">
         <v>36</v>
       </c>
@@ -18039,9 +18180,9 @@
       <c r="I75" s="9">
         <v>23</v>
       </c>
-      <c r="K75" s="85"/>
-      <c r="L75" s="85"/>
-      <c r="M75" s="85"/>
+      <c r="K75" s="86"/>
+      <c r="L75" s="86"/>
+      <c r="M75" s="86"/>
       <c r="O75" t="s">
         <v>36</v>
       </c>
@@ -18158,11 +18299,11 @@
       <c r="I82" s="8">
         <v>95</v>
       </c>
-      <c r="K82" s="86" t="s">
+      <c r="K82" s="87" t="s">
         <v>7</v>
       </c>
-      <c r="L82" s="87"/>
-      <c r="M82" s="88"/>
+      <c r="L82" s="88"/>
+      <c r="M82" s="89"/>
       <c r="O82" t="s">
         <v>40</v>
       </c>
@@ -18297,11 +18438,11 @@
       <c r="I86" s="8">
         <v>63</v>
       </c>
-      <c r="K86" s="85" t="s">
+      <c r="K86" s="86" t="s">
         <v>11</v>
       </c>
-      <c r="L86" s="85"/>
-      <c r="M86" s="85"/>
+      <c r="L86" s="86"/>
+      <c r="M86" s="86"/>
       <c r="O86" t="s">
         <v>39</v>
       </c>
@@ -18331,11 +18472,11 @@
       <c r="I87" s="8">
         <v>55</v>
       </c>
-      <c r="K87" s="85" t="s">
+      <c r="K87" s="86" t="s">
         <v>12</v>
       </c>
-      <c r="L87" s="85"/>
-      <c r="M87" s="85"/>
+      <c r="L87" s="86"/>
+      <c r="M87" s="86"/>
       <c r="O87" t="s">
         <v>39</v>
       </c>
@@ -18365,11 +18506,11 @@
       <c r="I88" s="1">
         <v>47</v>
       </c>
-      <c r="K88" s="85" t="s">
+      <c r="K88" s="86" t="s">
         <v>27</v>
       </c>
-      <c r="L88" s="85"/>
-      <c r="M88" s="85"/>
+      <c r="L88" s="86"/>
+      <c r="M88" s="86"/>
       <c r="O88" t="s">
         <v>39</v>
       </c>
@@ -18399,11 +18540,11 @@
       <c r="I89" s="8">
         <v>39</v>
       </c>
-      <c r="K89" s="85" t="s">
+      <c r="K89" s="86" t="s">
         <v>28</v>
       </c>
-      <c r="L89" s="85"/>
-      <c r="M89" s="85"/>
+      <c r="L89" s="86"/>
+      <c r="M89" s="86"/>
       <c r="O89" t="s">
         <v>39</v>
       </c>
@@ -18433,9 +18574,9 @@
       <c r="I90" s="1">
         <v>31</v>
       </c>
-      <c r="K90" s="85"/>
-      <c r="L90" s="85"/>
-      <c r="M90" s="85"/>
+      <c r="K90" s="86"/>
+      <c r="L90" s="86"/>
+      <c r="M90" s="86"/>
       <c r="O90" t="s">
         <v>39</v>
       </c>
@@ -18465,9 +18606,9 @@
       <c r="I91" s="8">
         <v>23</v>
       </c>
-      <c r="K91" s="85"/>
-      <c r="L91" s="85"/>
-      <c r="M91" s="85"/>
+      <c r="K91" s="86"/>
+      <c r="L91" s="86"/>
+      <c r="M91" s="86"/>
       <c r="O91" t="s">
         <v>39</v>
       </c>
@@ -18584,11 +18725,11 @@
       <c r="I98" s="8">
         <v>95</v>
       </c>
-      <c r="K98" s="86" t="s">
+      <c r="K98" s="87" t="s">
         <v>7</v>
       </c>
-      <c r="L98" s="87"/>
-      <c r="M98" s="88"/>
+      <c r="L98" s="88"/>
+      <c r="M98" s="89"/>
       <c r="O98" t="s">
         <v>115</v>
       </c>
@@ -18723,11 +18864,11 @@
       <c r="I102" s="8">
         <v>63</v>
       </c>
-      <c r="K102" s="85" t="s">
+      <c r="K102" s="86" t="s">
         <v>11</v>
       </c>
-      <c r="L102" s="85"/>
-      <c r="M102" s="85"/>
+      <c r="L102" s="86"/>
+      <c r="M102" s="86"/>
       <c r="O102" t="s">
         <v>113</v>
       </c>
@@ -18757,11 +18898,11 @@
       <c r="I103" s="1">
         <v>55</v>
       </c>
-      <c r="K103" s="85" t="s">
+      <c r="K103" s="86" t="s">
         <v>12</v>
       </c>
-      <c r="L103" s="85"/>
-      <c r="M103" s="85"/>
+      <c r="L103" s="86"/>
+      <c r="M103" s="86"/>
       <c r="O103" t="s">
         <v>113</v>
       </c>
@@ -18791,11 +18932,11 @@
       <c r="I104" s="8">
         <v>47</v>
       </c>
-      <c r="K104" s="85" t="s">
+      <c r="K104" s="86" t="s">
         <v>27</v>
       </c>
-      <c r="L104" s="85"/>
-      <c r="M104" s="85"/>
+      <c r="L104" s="86"/>
+      <c r="M104" s="86"/>
       <c r="O104" t="s">
         <v>113</v>
       </c>
@@ -18825,11 +18966,11 @@
       <c r="I105" s="1">
         <v>39</v>
       </c>
-      <c r="K105" s="85" t="s">
+      <c r="K105" s="86" t="s">
         <v>28</v>
       </c>
-      <c r="L105" s="85"/>
-      <c r="M105" s="85"/>
+      <c r="L105" s="86"/>
+      <c r="M105" s="86"/>
       <c r="O105" t="s">
         <v>113</v>
       </c>
@@ -18859,9 +19000,9 @@
       <c r="I106" s="1">
         <v>31</v>
       </c>
-      <c r="K106" s="85"/>
-      <c r="L106" s="85"/>
-      <c r="M106" s="85"/>
+      <c r="K106" s="86"/>
+      <c r="L106" s="86"/>
+      <c r="M106" s="86"/>
       <c r="O106" t="s">
         <v>113</v>
       </c>
@@ -18891,9 +19032,9 @@
       <c r="I107" s="1">
         <v>23</v>
       </c>
-      <c r="K107" s="85"/>
-      <c r="L107" s="85"/>
-      <c r="M107" s="85"/>
+      <c r="K107" s="86"/>
+      <c r="L107" s="86"/>
+      <c r="M107" s="86"/>
       <c r="O107" t="s">
         <v>113</v>
       </c>
@@ -19010,11 +19151,11 @@
       <c r="I114" s="1">
         <v>95</v>
       </c>
-      <c r="K114" s="86" t="s">
+      <c r="K114" s="87" t="s">
         <v>7</v>
       </c>
-      <c r="L114" s="87"/>
-      <c r="M114" s="88"/>
+      <c r="L114" s="88"/>
+      <c r="M114" s="89"/>
       <c r="O114" t="s">
         <v>116</v>
       </c>
@@ -19149,11 +19290,11 @@
       <c r="I118" s="1">
         <v>63</v>
       </c>
-      <c r="K118" s="85" t="s">
+      <c r="K118" s="86" t="s">
         <v>11</v>
       </c>
-      <c r="L118" s="85"/>
-      <c r="M118" s="85"/>
+      <c r="L118" s="86"/>
+      <c r="M118" s="86"/>
       <c r="O118" t="s">
         <v>116</v>
       </c>
@@ -19183,11 +19324,11 @@
       <c r="I119" s="1">
         <v>55</v>
       </c>
-      <c r="K119" s="85" t="s">
+      <c r="K119" s="86" t="s">
         <v>12</v>
       </c>
-      <c r="L119" s="85"/>
-      <c r="M119" s="85"/>
+      <c r="L119" s="86"/>
+      <c r="M119" s="86"/>
       <c r="O119" t="s">
         <v>116</v>
       </c>
@@ -19217,11 +19358,11 @@
       <c r="I120" s="1">
         <v>47</v>
       </c>
-      <c r="K120" s="85" t="s">
+      <c r="K120" s="86" t="s">
         <v>27</v>
       </c>
-      <c r="L120" s="85"/>
-      <c r="M120" s="85"/>
+      <c r="L120" s="86"/>
+      <c r="M120" s="86"/>
       <c r="O120" t="s">
         <v>116</v>
       </c>
@@ -19251,11 +19392,11 @@
       <c r="I121" s="8">
         <v>39</v>
       </c>
-      <c r="K121" s="85" t="s">
+      <c r="K121" s="86" t="s">
         <v>28</v>
       </c>
-      <c r="L121" s="85"/>
-      <c r="M121" s="85"/>
+      <c r="L121" s="86"/>
+      <c r="M121" s="86"/>
       <c r="O121" t="s">
         <v>116</v>
       </c>
@@ -19285,9 +19426,9 @@
       <c r="I122" s="1">
         <v>31</v>
       </c>
-      <c r="K122" s="85"/>
-      <c r="L122" s="85"/>
-      <c r="M122" s="85"/>
+      <c r="K122" s="86"/>
+      <c r="L122" s="86"/>
+      <c r="M122" s="86"/>
       <c r="O122" t="s">
         <v>116</v>
       </c>
@@ -19317,9 +19458,9 @@
       <c r="I123" s="8">
         <v>23</v>
       </c>
-      <c r="K123" s="85"/>
-      <c r="L123" s="85"/>
-      <c r="M123" s="85"/>
+      <c r="K123" s="86"/>
+      <c r="L123" s="86"/>
+      <c r="M123" s="86"/>
       <c r="O123" t="s">
         <v>116</v>
       </c>
@@ -19436,11 +19577,11 @@
       <c r="I130" s="8">
         <v>95</v>
       </c>
-      <c r="K130" s="86" t="s">
+      <c r="K130" s="87" t="s">
         <v>7</v>
       </c>
-      <c r="L130" s="87"/>
-      <c r="M130" s="88"/>
+      <c r="L130" s="88"/>
+      <c r="M130" s="89"/>
       <c r="O130" t="s">
         <v>119</v>
       </c>
@@ -19575,11 +19716,11 @@
       <c r="I134" s="1">
         <v>63</v>
       </c>
-      <c r="K134" s="85" t="s">
+      <c r="K134" s="86" t="s">
         <v>11</v>
       </c>
-      <c r="L134" s="85"/>
-      <c r="M134" s="85"/>
+      <c r="L134" s="86"/>
+      <c r="M134" s="86"/>
       <c r="O134" t="s">
         <v>119</v>
       </c>
@@ -19609,11 +19750,11 @@
       <c r="I135" s="1">
         <v>55</v>
       </c>
-      <c r="K135" s="85" t="s">
+      <c r="K135" s="86" t="s">
         <v>12</v>
       </c>
-      <c r="L135" s="85"/>
-      <c r="M135" s="85"/>
+      <c r="L135" s="86"/>
+      <c r="M135" s="86"/>
       <c r="O135" t="s">
         <v>119</v>
       </c>
@@ -19643,11 +19784,11 @@
       <c r="I136" s="1">
         <v>47</v>
       </c>
-      <c r="K136" s="85" t="s">
+      <c r="K136" s="86" t="s">
         <v>27</v>
       </c>
-      <c r="L136" s="85"/>
-      <c r="M136" s="85"/>
+      <c r="L136" s="86"/>
+      <c r="M136" s="86"/>
       <c r="O136" t="s">
         <v>119</v>
       </c>
@@ -19677,11 +19818,11 @@
       <c r="I137" s="1">
         <v>39</v>
       </c>
-      <c r="K137" s="85" t="s">
+      <c r="K137" s="86" t="s">
         <v>28</v>
       </c>
-      <c r="L137" s="85"/>
-      <c r="M137" s="85"/>
+      <c r="L137" s="86"/>
+      <c r="M137" s="86"/>
       <c r="O137" t="s">
         <v>119</v>
       </c>
@@ -19711,9 +19852,9 @@
       <c r="I138" s="1">
         <v>31</v>
       </c>
-      <c r="K138" s="85"/>
-      <c r="L138" s="85"/>
-      <c r="M138" s="85"/>
+      <c r="K138" s="86"/>
+      <c r="L138" s="86"/>
+      <c r="M138" s="86"/>
       <c r="O138" t="s">
         <v>119</v>
       </c>
@@ -19743,9 +19884,9 @@
       <c r="I139" s="8">
         <v>23</v>
       </c>
-      <c r="K139" s="85"/>
-      <c r="L139" s="85"/>
-      <c r="M139" s="85"/>
+      <c r="K139" s="86"/>
+      <c r="L139" s="86"/>
+      <c r="M139" s="86"/>
       <c r="O139" t="s">
         <v>119</v>
       </c>
@@ -19862,11 +20003,11 @@
       <c r="I146" s="1">
         <v>95</v>
       </c>
-      <c r="K146" s="86" t="s">
+      <c r="K146" s="87" t="s">
         <v>7</v>
       </c>
-      <c r="L146" s="87"/>
-      <c r="M146" s="88"/>
+      <c r="L146" s="88"/>
+      <c r="M146" s="89"/>
       <c r="O146" t="s">
         <v>122</v>
       </c>
@@ -20001,11 +20142,11 @@
       <c r="I150" s="3">
         <v>63</v>
       </c>
-      <c r="K150" s="85" t="s">
+      <c r="K150" s="86" t="s">
         <v>11</v>
       </c>
-      <c r="L150" s="85"/>
-      <c r="M150" s="85"/>
+      <c r="L150" s="86"/>
+      <c r="M150" s="86"/>
       <c r="O150" t="s">
         <v>122</v>
       </c>
@@ -20035,11 +20176,11 @@
       <c r="I151" s="3">
         <v>55</v>
       </c>
-      <c r="K151" s="85" t="s">
+      <c r="K151" s="86" t="s">
         <v>12</v>
       </c>
-      <c r="L151" s="85"/>
-      <c r="M151" s="85"/>
+      <c r="L151" s="86"/>
+      <c r="M151" s="86"/>
       <c r="O151" t="s">
         <v>122</v>
       </c>
@@ -20069,11 +20210,11 @@
       <c r="I152" s="8">
         <v>47</v>
       </c>
-      <c r="K152" s="85" t="s">
+      <c r="K152" s="86" t="s">
         <v>27</v>
       </c>
-      <c r="L152" s="85"/>
-      <c r="M152" s="85"/>
+      <c r="L152" s="86"/>
+      <c r="M152" s="86"/>
       <c r="O152" t="s">
         <v>122</v>
       </c>
@@ -20103,11 +20244,11 @@
       <c r="I153" s="8">
         <v>39</v>
       </c>
-      <c r="K153" s="85" t="s">
+      <c r="K153" s="86" t="s">
         <v>28</v>
       </c>
-      <c r="L153" s="85"/>
-      <c r="M153" s="85"/>
+      <c r="L153" s="86"/>
+      <c r="M153" s="86"/>
       <c r="O153" t="s">
         <v>122</v>
       </c>
@@ -20137,9 +20278,9 @@
       <c r="I154" s="3">
         <v>31</v>
       </c>
-      <c r="K154" s="85"/>
-      <c r="L154" s="85"/>
-      <c r="M154" s="85"/>
+      <c r="K154" s="86"/>
+      <c r="L154" s="86"/>
+      <c r="M154" s="86"/>
       <c r="O154" t="s">
         <v>122</v>
       </c>
@@ -20169,9 +20310,9 @@
       <c r="I155" s="3">
         <v>23</v>
       </c>
-      <c r="K155" s="85"/>
-      <c r="L155" s="85"/>
-      <c r="M155" s="85"/>
+      <c r="K155" s="86"/>
+      <c r="L155" s="86"/>
+      <c r="M155" s="86"/>
       <c r="O155" t="s">
         <v>122</v>
       </c>
@@ -20309,11 +20450,11 @@
       <c r="I165" s="9">
         <v>95</v>
       </c>
-      <c r="K165" s="86" t="s">
+      <c r="K165" s="87" t="s">
         <v>7</v>
       </c>
-      <c r="L165" s="87"/>
-      <c r="M165" s="88"/>
+      <c r="L165" s="88"/>
+      <c r="M165" s="89"/>
       <c r="O165" t="s">
         <v>122</v>
       </c>
@@ -20448,11 +20589,11 @@
       <c r="I169" s="9">
         <v>63</v>
       </c>
-      <c r="K169" s="85" t="s">
+      <c r="K169" s="86" t="s">
         <v>11</v>
       </c>
-      <c r="L169" s="85"/>
-      <c r="M169" s="85"/>
+      <c r="L169" s="86"/>
+      <c r="M169" s="86"/>
       <c r="O169" t="s">
         <v>122</v>
       </c>
@@ -20482,11 +20623,11 @@
       <c r="I170" s="9">
         <v>55</v>
       </c>
-      <c r="K170" s="85" t="s">
+      <c r="K170" s="86" t="s">
         <v>12</v>
       </c>
-      <c r="L170" s="85"/>
-      <c r="M170" s="85"/>
+      <c r="L170" s="86"/>
+      <c r="M170" s="86"/>
       <c r="O170" t="s">
         <v>122</v>
       </c>
@@ -20516,11 +20657,11 @@
       <c r="I171" s="9">
         <v>47</v>
       </c>
-      <c r="K171" s="85" t="s">
+      <c r="K171" s="86" t="s">
         <v>27</v>
       </c>
-      <c r="L171" s="85"/>
-      <c r="M171" s="85"/>
+      <c r="L171" s="86"/>
+      <c r="M171" s="86"/>
       <c r="O171" t="s">
         <v>122</v>
       </c>
@@ -20550,11 +20691,11 @@
       <c r="I172" s="9">
         <v>39</v>
       </c>
-      <c r="K172" s="85" t="s">
+      <c r="K172" s="86" t="s">
         <v>28</v>
       </c>
-      <c r="L172" s="85"/>
-      <c r="M172" s="85"/>
+      <c r="L172" s="86"/>
+      <c r="M172" s="86"/>
       <c r="O172" t="s">
         <v>122</v>
       </c>
@@ -20584,9 +20725,9 @@
       <c r="I173" s="9">
         <v>31</v>
       </c>
-      <c r="K173" s="85"/>
-      <c r="L173" s="85"/>
-      <c r="M173" s="85"/>
+      <c r="K173" s="86"/>
+      <c r="L173" s="86"/>
+      <c r="M173" s="86"/>
       <c r="O173" t="s">
         <v>122</v>
       </c>
@@ -20616,9 +20757,9 @@
       <c r="I174" s="9">
         <v>23</v>
       </c>
-      <c r="K174" s="85"/>
-      <c r="L174" s="85"/>
-      <c r="M174" s="85"/>
+      <c r="K174" s="86"/>
+      <c r="L174" s="86"/>
+      <c r="M174" s="86"/>
       <c r="O174" t="s">
         <v>122</v>
       </c>
@@ -20780,7 +20921,7 @@
     <mergeCell ref="K73:M73"/>
     <mergeCell ref="K70:M70"/>
   </mergeCells>
-  <phoneticPr fontId="18" type="noConversion"/>
+  <phoneticPr fontId="19" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
   <drawing r:id="rId2"/>
@@ -20873,12 +21014,12 @@
       <c r="O1" s="29" t="s">
         <v>72</v>
       </c>
-      <c r="R1" s="90"/>
-      <c r="S1" s="90"/>
-      <c r="T1" s="90"/>
-      <c r="U1" s="90"/>
-      <c r="V1" s="91"/>
-      <c r="W1" s="91"/>
+      <c r="R1" s="91"/>
+      <c r="S1" s="91"/>
+      <c r="T1" s="91"/>
+      <c r="U1" s="91"/>
+      <c r="V1" s="92"/>
+      <c r="W1" s="92"/>
       <c r="X1" s="32"/>
       <c r="Z1" s="30"/>
       <c r="AA1" s="30"/>
@@ -20970,14 +21111,14 @@
       </c>
       <c r="H3" s="29">
         <f>塔_属性!E3</f>
-        <v>166</v>
+        <v>176</v>
       </c>
       <c r="I3" s="29" t="s">
         <v>70</v>
       </c>
       <c r="J3" s="29">
         <f>塔_属性!F3</f>
-        <v>274</v>
+        <v>234</v>
       </c>
       <c r="K3" s="29" t="s">
         <v>70</v>
@@ -21316,14 +21457,14 @@
       </c>
       <c r="D9" s="73">
         <f>塔_属性!C9</f>
-        <v>52</v>
+        <v>62</v>
       </c>
       <c r="E9" s="29" t="s">
         <v>70</v>
       </c>
       <c r="F9" s="73">
         <f>塔_属性!D9</f>
-        <v>179</v>
+        <v>199</v>
       </c>
       <c r="G9" s="29" t="s">
         <v>70</v>
@@ -22635,7 +22776,7 @@
     <mergeCell ref="T1:U1"/>
     <mergeCell ref="V1:W1"/>
   </mergeCells>
-  <phoneticPr fontId="18" type="noConversion"/>
+  <phoneticPr fontId="19" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="200" verticalDpi="200" r:id="rId1"/>
 </worksheet>
@@ -23180,7 +23321,7 @@
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="18" type="noConversion"/>
+  <phoneticPr fontId="19" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="200" verticalDpi="200" r:id="rId1"/>
 </worksheet>
@@ -23328,7 +23469,7 @@
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="18" type="noConversion"/>
+  <phoneticPr fontId="19" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>

--- a/_DESIGN_.xlsx
+++ b/_DESIGN_.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9302"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="-15" yWindow="-15" windowWidth="20520" windowHeight="3930" activeTab="1"/>
+    <workbookView xWindow="-15" yWindow="-15" windowWidth="20520" windowHeight="3930" activeTab="6"/>
   </bookViews>
   <sheets>
     <sheet name="游戏常数" sheetId="2" r:id="rId1"/>
@@ -2490,11 +2490,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="101042432"/>
-        <c:axId val="101052416"/>
+        <c:axId val="102201984"/>
+        <c:axId val="102224256"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="101042432"/>
+        <c:axId val="102201984"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2504,12 +2504,12 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="101052416"/>
+        <c:crossAx val="102224256"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="101052416"/>
+        <c:axId val="102224256"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2538,7 +2538,7 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="101042432"/>
+        <c:crossAx val="102201984"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -7149,8 +7149,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:X65"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E4" sqref="E4"/>
+    <sheetView topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="G21" sqref="G21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -8525,7 +8525,7 @@
         <v>96.279999999999987</v>
       </c>
       <c r="D20" s="76">
-        <v>226.76</v>
+        <v>186.76</v>
       </c>
       <c r="E20" s="69">
         <v>138</v>
@@ -8534,18 +8534,18 @@
         <v>312</v>
       </c>
       <c r="G20" s="70">
-        <v>47.2</v>
+        <v>50.2</v>
       </c>
       <c r="H20" s="70">
-        <v>23.8</v>
+        <v>33.799999999999997</v>
       </c>
       <c r="I20">
         <f t="shared" ref="I20" si="50">C20*E20/G20</f>
-        <v>281.49661016949148</v>
+        <v>264.67410358565729</v>
       </c>
       <c r="J20" s="29">
         <f t="shared" ref="J20" si="51">D20*F20/H20</f>
-        <v>2972.6521008403361</v>
+        <v>1723.9384615384615</v>
       </c>
       <c r="K20" s="31">
         <v>10</v>
@@ -8561,15 +8561,15 @@
       </c>
       <c r="O20" s="29">
         <f t="shared" si="42"/>
-        <v>2814.9661016949144</v>
+        <v>2646.741035856573</v>
       </c>
       <c r="P20" s="29">
         <f t="shared" si="43"/>
-        <v>29726.521008403357</v>
+        <v>17239.384615384617</v>
       </c>
       <c r="Q20" s="30">
         <f t="shared" si="44"/>
-        <v>1.3552139592854178</v>
+        <v>0.93975903614457845</v>
       </c>
       <c r="R20" s="30">
         <f t="shared" si="45"/>
@@ -8577,11 +8577,11 @@
       </c>
       <c r="S20" s="30">
         <f t="shared" si="46"/>
-        <v>0.98319327731092443</v>
+        <v>0.48520710059171623</v>
       </c>
       <c r="T20" s="30">
         <f t="shared" si="47"/>
-        <v>9.5601701528500733</v>
+        <v>5.5134383688600579</v>
       </c>
       <c r="X20" s="72"/>
     </row>
@@ -9303,10 +9303,10 @@
         <v>29</v>
       </c>
       <c r="C31" s="76">
-        <v>48.23</v>
+        <v>68.23</v>
       </c>
       <c r="D31" s="76">
-        <v>160.08000000000001</v>
+        <v>270.08</v>
       </c>
       <c r="E31" s="69">
         <v>198</v>
@@ -9322,11 +9322,11 @@
       </c>
       <c r="I31">
         <f t="shared" si="54"/>
-        <v>120.11999999999999</v>
+        <v>169.93132075471698</v>
       </c>
       <c r="J31" s="29">
         <f t="shared" si="55"/>
-        <v>3160.0207792207793</v>
+        <v>5331.44935064935</v>
       </c>
       <c r="K31" s="31">
         <v>10</v>
@@ -9342,15 +9342,15 @@
       </c>
       <c r="O31" s="29">
         <f t="shared" si="42"/>
-        <v>1201.1999999999998</v>
+        <v>1699.3132075471701</v>
       </c>
       <c r="P31" s="29">
         <f t="shared" si="43"/>
-        <v>31600.207792207799</v>
+        <v>53314.493506493498</v>
       </c>
       <c r="Q31" s="30">
         <f t="shared" si="44"/>
-        <v>2.319095998341282</v>
+        <v>2.9583760809028283</v>
       </c>
       <c r="R31" s="30">
         <f t="shared" si="45"/>
@@ -9362,7 +9362,7 @@
       </c>
       <c r="T31" s="30">
         <f t="shared" si="47"/>
-        <v>25.307199294212289</v>
+        <v>30.37414178251985</v>
       </c>
       <c r="X31" s="72"/>
     </row>
@@ -20932,9 +20932,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AC33"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="S27" sqref="S27"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
@@ -22047,7 +22045,7 @@
       </c>
       <c r="F20" s="73">
         <f>塔_属性!D20</f>
-        <v>226.76</v>
+        <v>186.76</v>
       </c>
       <c r="G20" s="29" t="s">
         <v>70</v>
@@ -22068,14 +22066,14 @@
       </c>
       <c r="L20" s="31">
         <f>塔_属性!G20</f>
-        <v>47.2</v>
+        <v>50.2</v>
       </c>
       <c r="M20" s="29" t="s">
         <v>70</v>
       </c>
       <c r="N20" s="31">
         <f>塔_属性!H20</f>
-        <v>23.8</v>
+        <v>33.799999999999997</v>
       </c>
       <c r="O20" s="29" t="s">
         <v>72</v>
@@ -22623,14 +22621,14 @@
       </c>
       <c r="D31" s="73">
         <f>塔_属性!C31</f>
-        <v>48.23</v>
+        <v>68.23</v>
       </c>
       <c r="E31" s="29" t="s">
         <v>70</v>
       </c>
       <c r="F31" s="73">
         <f>塔_属性!D31</f>
-        <v>160.08000000000001</v>
+        <v>270.08</v>
       </c>
       <c r="G31" s="29" t="s">
         <v>70</v>

--- a/_DESIGN_.xlsx
+++ b/_DESIGN_.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9302"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="-15" yWindow="-15" windowWidth="20520" windowHeight="3930" activeTab="6"/>
+    <workbookView xWindow="-15" yWindow="-15" windowWidth="20520" windowHeight="3930" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="游戏常数" sheetId="2" r:id="rId1"/>
@@ -2231,6 +2231,9 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -2238,9 +2241,6 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
@@ -2490,11 +2490,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="102201984"/>
-        <c:axId val="102224256"/>
+        <c:axId val="102615296"/>
+        <c:axId val="102625280"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="102201984"/>
+        <c:axId val="102615296"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2504,12 +2504,12 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="102224256"/>
+        <c:crossAx val="102625280"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="102224256"/>
+        <c:axId val="102625280"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2538,7 +2538,7 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="102201984"/>
+        <c:crossAx val="102615296"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -7149,8 +7149,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:X65"/>
   <sheetViews>
-    <sheetView topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="G21" sqref="G21"/>
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="D34" sqref="D34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -7682,18 +7682,18 @@
         <v>261</v>
       </c>
       <c r="G8" s="70">
-        <v>80.8</v>
+        <v>60.8</v>
       </c>
       <c r="H8" s="70">
-        <v>34.54</v>
+        <v>30.54</v>
       </c>
       <c r="I8">
         <f t="shared" si="6"/>
-        <v>191.46039603960398</v>
+        <v>254.44078947368422</v>
       </c>
       <c r="J8" s="29">
         <f t="shared" si="7"/>
-        <v>3090.5906195715115</v>
+        <v>3495.3831041257367</v>
       </c>
       <c r="K8" s="31">
         <v>1</v>
@@ -7709,11 +7709,11 @@
       </c>
       <c r="O8" s="29">
         <f t="shared" si="0"/>
-        <v>191.46039603960398</v>
+        <v>254.44078947368422</v>
       </c>
       <c r="P8" s="29">
         <f t="shared" si="1"/>
-        <v>3090.5906195715115</v>
+        <v>3495.3831041257367</v>
       </c>
       <c r="Q8" s="30">
         <f t="shared" si="2"/>
@@ -7725,11 +7725,11 @@
       </c>
       <c r="S8" s="30">
         <f t="shared" si="4"/>
-        <v>1.3393167342211929</v>
+        <v>0.99083169613621469</v>
       </c>
       <c r="T8" s="30">
         <f t="shared" si="5"/>
-        <v>15.142192764148554</v>
+        <v>12.73751084232998</v>
       </c>
       <c r="X8" s="72"/>
     </row>
@@ -8522,10 +8522,10 @@
         <v>18</v>
       </c>
       <c r="C20" s="76">
-        <v>96.279999999999987</v>
+        <v>86.28</v>
       </c>
       <c r="D20" s="76">
-        <v>186.76</v>
+        <v>166.76</v>
       </c>
       <c r="E20" s="69">
         <v>138</v>
@@ -8534,18 +8534,18 @@
         <v>312</v>
       </c>
       <c r="G20" s="70">
-        <v>50.2</v>
+        <v>66.2</v>
       </c>
       <c r="H20" s="70">
-        <v>33.799999999999997</v>
+        <v>43.8</v>
       </c>
       <c r="I20">
         <f t="shared" ref="I20" si="50">C20*E20/G20</f>
-        <v>264.67410358565729</v>
+        <v>179.8586102719033</v>
       </c>
       <c r="J20" s="29">
         <f t="shared" ref="J20" si="51">D20*F20/H20</f>
-        <v>1723.9384615384615</v>
+        <v>1187.8794520547945</v>
       </c>
       <c r="K20" s="31">
         <v>10</v>
@@ -8561,15 +8561,15 @@
       </c>
       <c r="O20" s="29">
         <f t="shared" si="42"/>
-        <v>2646.741035856573</v>
+        <v>1798.5861027190331</v>
       </c>
       <c r="P20" s="29">
         <f t="shared" si="43"/>
-        <v>17239.384615384617</v>
+        <v>11878.794520547945</v>
       </c>
       <c r="Q20" s="30">
         <f t="shared" si="44"/>
-        <v>0.93975903614457845</v>
+        <v>0.93277700509967532</v>
       </c>
       <c r="R20" s="30">
         <f t="shared" si="45"/>
@@ -8577,11 +8577,11 @@
       </c>
       <c r="S20" s="30">
         <f t="shared" si="46"/>
-        <v>0.48520710059171623</v>
+        <v>0.51141552511415544</v>
       </c>
       <c r="T20" s="30">
         <f t="shared" si="47"/>
-        <v>5.5134383688600579</v>
+        <v>5.6045181282063954</v>
       </c>
       <c r="X20" s="72"/>
     </row>
@@ -8735,7 +8735,7 @@
         <v>21</v>
       </c>
       <c r="C23" s="76">
-        <v>147.88</v>
+        <v>197.88</v>
       </c>
       <c r="D23" s="76">
         <v>324.36</v>
@@ -8754,7 +8754,7 @@
       </c>
       <c r="I23">
         <f t="shared" ref="I23:I31" si="54">C23*E23/G23</f>
-        <v>399.67567567567568</v>
+        <v>534.81081081081084</v>
       </c>
       <c r="J23" s="29">
         <f t="shared" ref="J23:J31" si="55">D23*F23/H23</f>
@@ -8774,7 +8774,7 @@
       </c>
       <c r="O23" s="29">
         <f t="shared" si="42"/>
-        <v>3996.7567567567567</v>
+        <v>5348.1081081081084</v>
       </c>
       <c r="P23" s="29">
         <f t="shared" si="43"/>
@@ -8782,7 +8782,7 @@
       </c>
       <c r="Q23" s="30">
         <f t="shared" si="44"/>
-        <v>1.1934000540979173</v>
+        <v>0.63917525773195893</v>
       </c>
       <c r="R23" s="30">
         <f t="shared" si="45"/>
@@ -8794,7 +8794,7 @@
       </c>
       <c r="T23" s="30">
         <f t="shared" si="47"/>
-        <v>4.8777291815128905</v>
+        <v>3.3925540295235814</v>
       </c>
       <c r="X23" s="72"/>
     </row>
@@ -8883,24 +8883,24 @@
         <v>346.84</v>
       </c>
       <c r="E25" s="69">
-        <v>169</v>
+        <v>202</v>
       </c>
       <c r="F25" s="69">
-        <v>219</v>
+        <v>249</v>
       </c>
       <c r="G25" s="70">
-        <v>89.7</v>
+        <v>59.7</v>
       </c>
       <c r="H25" s="71">
-        <v>53.9</v>
+        <v>43.9</v>
       </c>
       <c r="I25">
         <f t="shared" si="54"/>
-        <v>236.03478260869565</v>
+        <v>423.89547738693466</v>
       </c>
       <c r="J25" s="29">
         <f t="shared" si="55"/>
-        <v>1409.2385899814469</v>
+        <v>1967.2701594533028</v>
       </c>
       <c r="K25" s="31">
         <v>10</v>
@@ -8916,11 +8916,11 @@
       </c>
       <c r="O25" s="29">
         <f t="shared" si="42"/>
-        <v>2360.347826086956</v>
+        <v>4238.9547738693464</v>
       </c>
       <c r="P25" s="29">
         <f t="shared" si="43"/>
-        <v>14092.385899814471</v>
+        <v>19672.701594533028</v>
       </c>
       <c r="Q25" s="30">
         <f t="shared" si="44"/>
@@ -8928,15 +8928,15 @@
       </c>
       <c r="R25" s="30">
         <f t="shared" si="45"/>
-        <v>0.29585798816568043</v>
+        <v>0.23267326732673266</v>
       </c>
       <c r="S25" s="30">
         <f t="shared" si="46"/>
-        <v>0.66419294990723565</v>
+        <v>0.35990888382687936</v>
       </c>
       <c r="T25" s="30">
         <f t="shared" si="47"/>
-        <v>4.9704700061842928</v>
+        <v>3.6409321740830123</v>
       </c>
       <c r="X25" s="72"/>
     </row>
@@ -9374,10 +9374,10 @@
         <v>30</v>
       </c>
       <c r="C32" s="76">
-        <v>67.599999999999994</v>
+        <v>97.6</v>
       </c>
       <c r="D32" s="76">
-        <v>101.88</v>
+        <v>188</v>
       </c>
       <c r="E32" s="69">
         <v>101</v>
@@ -9393,11 +9393,11 @@
       </c>
       <c r="I32">
         <f t="shared" ref="I32:I34" si="56">C32*E32/G32</f>
-        <v>29.065985525755639</v>
+        <v>41.965091528309912</v>
       </c>
       <c r="J32" s="29">
         <f t="shared" ref="J32:J34" si="57">D32*F32/H32</f>
-        <v>99.803550295857988</v>
+        <v>184.16831032215649</v>
       </c>
       <c r="K32" s="31">
         <v>10</v>
@@ -9413,15 +9413,15 @@
       </c>
       <c r="O32" s="29">
         <f t="shared" ref="O32:O34" si="58">K32*C32*E32/G32+M32</f>
-        <v>290.65985525755639</v>
+        <v>419.65091528309921</v>
       </c>
       <c r="P32" s="29">
         <f t="shared" ref="P32:P34" si="59">K32*D32*F32/H32+N32</f>
-        <v>998.03550295857985</v>
+        <v>1841.6831032215648</v>
       </c>
       <c r="Q32" s="30">
         <f t="shared" ref="Q32:Q34" si="60">D32/C32-1</f>
-        <v>0.50710059171597632</v>
+        <v>0.92622950819672134</v>
       </c>
       <c r="R32" s="30">
         <f t="shared" ref="R32:R34" si="61">F32/E32-1</f>
@@ -9433,7 +9433,7 @@
       </c>
       <c r="T32" s="30">
         <f t="shared" ref="T32:T34" si="63">P32/O32-1</f>
-        <v>2.4336888459337165</v>
+        <v>3.3886073785378343</v>
       </c>
     </row>
     <row r="33" spans="1:20" x14ac:dyDescent="0.15">
@@ -9444,10 +9444,10 @@
         <v>31</v>
       </c>
       <c r="C33" s="76">
-        <v>107.88</v>
+        <v>157.88</v>
       </c>
       <c r="D33" s="76">
-        <v>192.55999999999997</v>
+        <v>232.56</v>
       </c>
       <c r="E33" s="69">
         <v>217</v>
@@ -9463,11 +9463,11 @@
       </c>
       <c r="I33">
         <f t="shared" si="56"/>
-        <v>298.216050955414</v>
+        <v>436.43261146496815</v>
       </c>
       <c r="J33" s="29">
         <f t="shared" si="57"/>
-        <v>1306.5851308900521</v>
+        <v>1577.9987434554973</v>
       </c>
       <c r="K33" s="31">
         <v>10</v>
@@ -9483,15 +9483,15 @@
       </c>
       <c r="O33" s="29">
         <f t="shared" si="58"/>
-        <v>2982.1605095541399</v>
+        <v>4364.3261146496816</v>
       </c>
       <c r="P33" s="29">
         <f t="shared" si="59"/>
-        <v>13065.851308900521</v>
+        <v>15779.987434554974</v>
       </c>
       <c r="Q33" s="30">
         <f t="shared" si="60"/>
-        <v>0.78494623655913953</v>
+        <v>0.47301748163161905</v>
       </c>
       <c r="R33" s="30">
         <f t="shared" si="61"/>
@@ -9503,7 +9503,7 @@
       </c>
       <c r="T33" s="30">
         <f t="shared" si="63"/>
-        <v>3.3813373784008647</v>
+        <v>2.6156755980233646</v>
       </c>
     </row>
     <row r="34" spans="1:20" x14ac:dyDescent="0.15">
@@ -14627,13 +14627,13 @@
       <c r="H3" s="13"/>
     </row>
     <row r="4" spans="1:12" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B4" s="82">
+      <c r="B4" s="83">
         <v>0</v>
       </c>
-      <c r="C4" s="82" t="s">
+      <c r="C4" s="83" t="s">
         <v>44</v>
       </c>
-      <c r="D4" s="82" t="s">
+      <c r="D4" s="83" t="s">
         <v>50</v>
       </c>
       <c r="E4" s="15" t="s">
@@ -14661,9 +14661,9 @@
       </c>
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="B5" s="83"/>
-      <c r="C5" s="83"/>
-      <c r="D5" s="83"/>
+      <c r="B5" s="84"/>
+      <c r="C5" s="84"/>
+      <c r="D5" s="84"/>
       <c r="E5" s="15" t="s">
         <v>1</v>
       </c>
@@ -14689,9 +14689,9 @@
       </c>
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="B6" s="84"/>
-      <c r="C6" s="84"/>
-      <c r="D6" s="84"/>
+      <c r="B6" s="85"/>
+      <c r="C6" s="85"/>
+      <c r="D6" s="85"/>
       <c r="E6" s="19" t="s">
         <v>2</v>
       </c>
@@ -14727,13 +14727,13 @@
       <c r="L7" s="24"/>
     </row>
     <row r="8" spans="1:12" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B8" s="82">
+      <c r="B8" s="83">
         <v>1</v>
       </c>
-      <c r="C8" s="82" t="s">
+      <c r="C8" s="83" t="s">
         <v>45</v>
       </c>
-      <c r="D8" s="82" t="s">
+      <c r="D8" s="83" t="s">
         <v>52</v>
       </c>
       <c r="E8" s="21" t="s">
@@ -14761,9 +14761,9 @@
       </c>
     </row>
     <row r="9" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="B9" s="83"/>
-      <c r="C9" s="83"/>
-      <c r="D9" s="83"/>
+      <c r="B9" s="84"/>
+      <c r="C9" s="84"/>
+      <c r="D9" s="84"/>
       <c r="E9" s="15" t="s">
         <v>1</v>
       </c>
@@ -14789,9 +14789,9 @@
       </c>
     </row>
     <row r="10" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="B10" s="83"/>
-      <c r="C10" s="83"/>
-      <c r="D10" s="83"/>
+      <c r="B10" s="84"/>
+      <c r="C10" s="84"/>
+      <c r="D10" s="84"/>
       <c r="E10" s="15" t="s">
         <v>2</v>
       </c>
@@ -14817,9 +14817,9 @@
       </c>
     </row>
     <row r="11" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="B11" s="84"/>
-      <c r="C11" s="84"/>
-      <c r="D11" s="84"/>
+      <c r="B11" s="85"/>
+      <c r="C11" s="85"/>
+      <c r="D11" s="85"/>
       <c r="E11" s="19" t="s">
         <v>43</v>
       </c>
@@ -14849,13 +14849,13 @@
       <c r="K12" s="25"/>
     </row>
     <row r="13" spans="1:12" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B13" s="82">
+      <c r="B13" s="83">
         <v>2</v>
       </c>
-      <c r="C13" s="82" t="s">
+      <c r="C13" s="83" t="s">
         <v>46</v>
       </c>
-      <c r="D13" s="82" t="s">
+      <c r="D13" s="83" t="s">
         <v>53</v>
       </c>
       <c r="E13" s="21" t="s">
@@ -14883,9 +14883,9 @@
       </c>
     </row>
     <row r="14" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="B14" s="83"/>
-      <c r="C14" s="83"/>
-      <c r="D14" s="83"/>
+      <c r="B14" s="84"/>
+      <c r="C14" s="84"/>
+      <c r="D14" s="84"/>
       <c r="E14" s="15" t="s">
         <v>1</v>
       </c>
@@ -14911,9 +14911,9 @@
       </c>
     </row>
     <row r="15" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="B15" s="83"/>
-      <c r="C15" s="83"/>
-      <c r="D15" s="83"/>
+      <c r="B15" s="84"/>
+      <c r="C15" s="84"/>
+      <c r="D15" s="84"/>
       <c r="E15" s="15" t="s">
         <v>2</v>
       </c>
@@ -14939,9 +14939,9 @@
       </c>
     </row>
     <row r="16" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="B16" s="83"/>
-      <c r="C16" s="83"/>
-      <c r="D16" s="83"/>
+      <c r="B16" s="84"/>
+      <c r="C16" s="84"/>
+      <c r="D16" s="84"/>
       <c r="E16" s="11" t="s">
         <v>65</v>
       </c>
@@ -14962,9 +14962,9 @@
       </c>
     </row>
     <row r="17" spans="2:11" x14ac:dyDescent="0.15">
-      <c r="B17" s="84"/>
-      <c r="C17" s="84"/>
-      <c r="D17" s="84"/>
+      <c r="B17" s="85"/>
+      <c r="C17" s="85"/>
+      <c r="D17" s="85"/>
       <c r="E17" s="11" t="s">
         <v>66</v>
       </c>
@@ -14985,13 +14985,13 @@
       </c>
     </row>
     <row r="19" spans="2:11" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B19" s="82">
+      <c r="B19" s="83">
         <v>3</v>
       </c>
-      <c r="C19" s="82" t="s">
+      <c r="C19" s="83" t="s">
         <v>47</v>
       </c>
-      <c r="D19" s="82" t="s">
+      <c r="D19" s="83" t="s">
         <v>54</v>
       </c>
       <c r="E19" s="15" t="s">
@@ -15019,9 +15019,9 @@
       </c>
     </row>
     <row r="20" spans="2:11" x14ac:dyDescent="0.15">
-      <c r="B20" s="83"/>
-      <c r="C20" s="83"/>
-      <c r="D20" s="83"/>
+      <c r="B20" s="84"/>
+      <c r="C20" s="84"/>
+      <c r="D20" s="84"/>
       <c r="E20" s="15" t="s">
         <v>1</v>
       </c>
@@ -15047,9 +15047,9 @@
       </c>
     </row>
     <row r="21" spans="2:11" x14ac:dyDescent="0.15">
-      <c r="B21" s="84"/>
-      <c r="C21" s="84"/>
-      <c r="D21" s="84"/>
+      <c r="B21" s="85"/>
+      <c r="C21" s="85"/>
+      <c r="D21" s="85"/>
       <c r="E21" s="15" t="s">
         <v>2</v>
       </c>
@@ -15075,13 +15075,13 @@
       </c>
     </row>
     <row r="23" spans="2:11" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B23" s="82">
+      <c r="B23" s="83">
         <v>4</v>
       </c>
-      <c r="C23" s="82" t="s">
+      <c r="C23" s="83" t="s">
         <v>48</v>
       </c>
-      <c r="D23" s="82" t="s">
+      <c r="D23" s="83" t="s">
         <v>55</v>
       </c>
       <c r="E23" s="15" t="s">
@@ -15109,9 +15109,9 @@
       </c>
     </row>
     <row r="24" spans="2:11" x14ac:dyDescent="0.15">
-      <c r="B24" s="83"/>
-      <c r="C24" s="83"/>
-      <c r="D24" s="83"/>
+      <c r="B24" s="84"/>
+      <c r="C24" s="84"/>
+      <c r="D24" s="84"/>
       <c r="E24" s="15" t="s">
         <v>1</v>
       </c>
@@ -15137,9 +15137,9 @@
       </c>
     </row>
     <row r="25" spans="2:11" x14ac:dyDescent="0.15">
-      <c r="B25" s="83"/>
-      <c r="C25" s="83"/>
-      <c r="D25" s="83"/>
+      <c r="B25" s="84"/>
+      <c r="C25" s="84"/>
+      <c r="D25" s="84"/>
       <c r="E25" s="15" t="s">
         <v>2</v>
       </c>
@@ -15165,9 +15165,9 @@
       </c>
     </row>
     <row r="26" spans="2:11" x14ac:dyDescent="0.15">
-      <c r="B26" s="83"/>
-      <c r="C26" s="83"/>
-      <c r="D26" s="83"/>
+      <c r="B26" s="84"/>
+      <c r="C26" s="84"/>
+      <c r="D26" s="84"/>
       <c r="E26" s="11" t="s">
         <v>67</v>
       </c>
@@ -15188,9 +15188,9 @@
       </c>
     </row>
     <row r="27" spans="2:11" x14ac:dyDescent="0.15">
-      <c r="B27" s="84"/>
-      <c r="C27" s="84"/>
-      <c r="D27" s="84"/>
+      <c r="B27" s="85"/>
+      <c r="C27" s="85"/>
+      <c r="D27" s="85"/>
       <c r="E27" s="11" t="s">
         <v>68</v>
       </c>
@@ -15211,13 +15211,13 @@
       </c>
     </row>
     <row r="29" spans="2:11" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B29" s="82">
+      <c r="B29" s="83">
         <v>5</v>
       </c>
-      <c r="C29" s="82" t="s">
+      <c r="C29" s="83" t="s">
         <v>49</v>
       </c>
-      <c r="D29" s="82" t="s">
+      <c r="D29" s="83" t="s">
         <v>56</v>
       </c>
       <c r="E29" s="15" t="s">
@@ -15245,9 +15245,9 @@
       </c>
     </row>
     <row r="30" spans="2:11" x14ac:dyDescent="0.15">
-      <c r="B30" s="83"/>
-      <c r="C30" s="83"/>
-      <c r="D30" s="83"/>
+      <c r="B30" s="84"/>
+      <c r="C30" s="84"/>
+      <c r="D30" s="84"/>
       <c r="E30" s="15" t="s">
         <v>1</v>
       </c>
@@ -15273,9 +15273,9 @@
       </c>
     </row>
     <row r="31" spans="2:11" x14ac:dyDescent="0.15">
-      <c r="B31" s="83"/>
-      <c r="C31" s="83"/>
-      <c r="D31" s="83"/>
+      <c r="B31" s="84"/>
+      <c r="C31" s="84"/>
+      <c r="D31" s="84"/>
       <c r="E31" s="15" t="s">
         <v>2</v>
       </c>
@@ -15301,9 +15301,9 @@
       </c>
     </row>
     <row r="32" spans="2:11" x14ac:dyDescent="0.15">
-      <c r="B32" s="83"/>
-      <c r="C32" s="83"/>
-      <c r="D32" s="83"/>
+      <c r="B32" s="84"/>
+      <c r="C32" s="84"/>
+      <c r="D32" s="84"/>
       <c r="E32" s="15" t="s">
         <v>57</v>
       </c>
@@ -15324,9 +15324,9 @@
       </c>
     </row>
     <row r="33" spans="2:11" x14ac:dyDescent="0.15">
-      <c r="B33" s="84"/>
-      <c r="C33" s="84"/>
-      <c r="D33" s="84"/>
+      <c r="B33" s="85"/>
+      <c r="C33" s="85"/>
+      <c r="D33" s="85"/>
       <c r="E33" s="11" t="s">
         <v>64</v>
       </c>
@@ -15347,13 +15347,13 @@
       </c>
     </row>
     <row r="35" spans="2:11" x14ac:dyDescent="0.15">
-      <c r="B35" s="85">
+      <c r="B35" s="82">
         <v>6</v>
       </c>
-      <c r="C35" s="85" t="s">
+      <c r="C35" s="82" t="s">
         <v>62</v>
       </c>
-      <c r="D35" s="85" t="s">
+      <c r="D35" s="82" t="s">
         <v>63</v>
       </c>
       <c r="E35" s="11" t="s">
@@ -15381,9 +15381,9 @@
       </c>
     </row>
     <row r="36" spans="2:11" x14ac:dyDescent="0.15">
-      <c r="B36" s="85"/>
-      <c r="C36" s="85"/>
-      <c r="D36" s="85"/>
+      <c r="B36" s="82"/>
+      <c r="C36" s="82"/>
+      <c r="D36" s="82"/>
       <c r="E36" s="28" t="s">
         <v>1</v>
       </c>
@@ -15409,9 +15409,9 @@
       </c>
     </row>
     <row r="37" spans="2:11" x14ac:dyDescent="0.15">
-      <c r="B37" s="85"/>
-      <c r="C37" s="85"/>
-      <c r="D37" s="85"/>
+      <c r="B37" s="82"/>
+      <c r="C37" s="82"/>
+      <c r="D37" s="82"/>
       <c r="E37" s="28" t="s">
         <v>2</v>
       </c>
@@ -15438,18 +15438,6 @@
     </row>
   </sheetData>
   <mergeCells count="21">
-    <mergeCell ref="B35:B37"/>
-    <mergeCell ref="C35:C37"/>
-    <mergeCell ref="D35:D37"/>
-    <mergeCell ref="B29:B33"/>
-    <mergeCell ref="C29:C33"/>
-    <mergeCell ref="D29:D33"/>
-    <mergeCell ref="B19:B21"/>
-    <mergeCell ref="C19:C21"/>
-    <mergeCell ref="D19:D21"/>
-    <mergeCell ref="B23:B27"/>
-    <mergeCell ref="C23:C27"/>
-    <mergeCell ref="D23:D27"/>
     <mergeCell ref="B13:B17"/>
     <mergeCell ref="C13:C17"/>
     <mergeCell ref="D13:D17"/>
@@ -15459,6 +15447,18 @@
     <mergeCell ref="D8:D11"/>
     <mergeCell ref="C4:C6"/>
     <mergeCell ref="C8:C11"/>
+    <mergeCell ref="B19:B21"/>
+    <mergeCell ref="C19:C21"/>
+    <mergeCell ref="D19:D21"/>
+    <mergeCell ref="B23:B27"/>
+    <mergeCell ref="C23:C27"/>
+    <mergeCell ref="D23:D27"/>
+    <mergeCell ref="B35:B37"/>
+    <mergeCell ref="C35:C37"/>
+    <mergeCell ref="D35:D37"/>
+    <mergeCell ref="B29:B33"/>
+    <mergeCell ref="C29:C33"/>
+    <mergeCell ref="D29:D33"/>
   </mergeCells>
   <phoneticPr fontId="19" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -20845,53 +20845,18 @@
     </row>
   </sheetData>
   <mergeCells count="75">
-    <mergeCell ref="K173:M173"/>
-    <mergeCell ref="K174:M174"/>
-    <mergeCell ref="K165:M165"/>
-    <mergeCell ref="K169:M169"/>
-    <mergeCell ref="K170:M170"/>
-    <mergeCell ref="K171:M171"/>
-    <mergeCell ref="K172:M172"/>
-    <mergeCell ref="K153:M153"/>
-    <mergeCell ref="K154:M154"/>
-    <mergeCell ref="K155:M155"/>
-    <mergeCell ref="K139:M139"/>
-    <mergeCell ref="K146:M146"/>
-    <mergeCell ref="K150:M150"/>
-    <mergeCell ref="K151:M151"/>
-    <mergeCell ref="K152:M152"/>
-    <mergeCell ref="K134:M134"/>
-    <mergeCell ref="K135:M135"/>
-    <mergeCell ref="K136:M136"/>
-    <mergeCell ref="K137:M137"/>
-    <mergeCell ref="K138:M138"/>
-    <mergeCell ref="K120:M120"/>
-    <mergeCell ref="K121:M121"/>
-    <mergeCell ref="K122:M122"/>
-    <mergeCell ref="K123:M123"/>
-    <mergeCell ref="K130:M130"/>
-    <mergeCell ref="K106:M106"/>
-    <mergeCell ref="K107:M107"/>
-    <mergeCell ref="K114:M114"/>
-    <mergeCell ref="K118:M118"/>
-    <mergeCell ref="K119:M119"/>
-    <mergeCell ref="K98:M98"/>
-    <mergeCell ref="K102:M102"/>
-    <mergeCell ref="K103:M103"/>
-    <mergeCell ref="K104:M104"/>
-    <mergeCell ref="K105:M105"/>
-    <mergeCell ref="K2:M2"/>
-    <mergeCell ref="K18:M18"/>
-    <mergeCell ref="K34:M34"/>
-    <mergeCell ref="K50:M50"/>
-    <mergeCell ref="K66:M66"/>
-    <mergeCell ref="K8:M8"/>
-    <mergeCell ref="K9:M9"/>
-    <mergeCell ref="K42:M42"/>
-    <mergeCell ref="K43:M43"/>
-    <mergeCell ref="K58:M58"/>
-    <mergeCell ref="K26:M26"/>
-    <mergeCell ref="K27:M27"/>
+    <mergeCell ref="K88:M88"/>
+    <mergeCell ref="K89:M89"/>
+    <mergeCell ref="K90:M90"/>
+    <mergeCell ref="K56:M56"/>
+    <mergeCell ref="K57:M57"/>
+    <mergeCell ref="K59:M59"/>
+    <mergeCell ref="K86:M86"/>
+    <mergeCell ref="K87:M87"/>
+    <mergeCell ref="K71:M71"/>
+    <mergeCell ref="K72:M72"/>
+    <mergeCell ref="K73:M73"/>
+    <mergeCell ref="K70:M70"/>
     <mergeCell ref="K91:M91"/>
     <mergeCell ref="K10:M10"/>
     <mergeCell ref="K11:M11"/>
@@ -20908,18 +20873,53 @@
     <mergeCell ref="K82:M82"/>
     <mergeCell ref="K74:M74"/>
     <mergeCell ref="K75:M75"/>
-    <mergeCell ref="K88:M88"/>
-    <mergeCell ref="K89:M89"/>
-    <mergeCell ref="K90:M90"/>
-    <mergeCell ref="K56:M56"/>
-    <mergeCell ref="K57:M57"/>
-    <mergeCell ref="K59:M59"/>
-    <mergeCell ref="K86:M86"/>
-    <mergeCell ref="K87:M87"/>
-    <mergeCell ref="K71:M71"/>
-    <mergeCell ref="K72:M72"/>
-    <mergeCell ref="K73:M73"/>
-    <mergeCell ref="K70:M70"/>
+    <mergeCell ref="K2:M2"/>
+    <mergeCell ref="K18:M18"/>
+    <mergeCell ref="K34:M34"/>
+    <mergeCell ref="K50:M50"/>
+    <mergeCell ref="K66:M66"/>
+    <mergeCell ref="K8:M8"/>
+    <mergeCell ref="K9:M9"/>
+    <mergeCell ref="K42:M42"/>
+    <mergeCell ref="K43:M43"/>
+    <mergeCell ref="K58:M58"/>
+    <mergeCell ref="K26:M26"/>
+    <mergeCell ref="K27:M27"/>
+    <mergeCell ref="K98:M98"/>
+    <mergeCell ref="K102:M102"/>
+    <mergeCell ref="K103:M103"/>
+    <mergeCell ref="K104:M104"/>
+    <mergeCell ref="K105:M105"/>
+    <mergeCell ref="K106:M106"/>
+    <mergeCell ref="K107:M107"/>
+    <mergeCell ref="K114:M114"/>
+    <mergeCell ref="K118:M118"/>
+    <mergeCell ref="K119:M119"/>
+    <mergeCell ref="K120:M120"/>
+    <mergeCell ref="K121:M121"/>
+    <mergeCell ref="K122:M122"/>
+    <mergeCell ref="K123:M123"/>
+    <mergeCell ref="K130:M130"/>
+    <mergeCell ref="K134:M134"/>
+    <mergeCell ref="K135:M135"/>
+    <mergeCell ref="K136:M136"/>
+    <mergeCell ref="K137:M137"/>
+    <mergeCell ref="K138:M138"/>
+    <mergeCell ref="K153:M153"/>
+    <mergeCell ref="K154:M154"/>
+    <mergeCell ref="K155:M155"/>
+    <mergeCell ref="K139:M139"/>
+    <mergeCell ref="K146:M146"/>
+    <mergeCell ref="K150:M150"/>
+    <mergeCell ref="K151:M151"/>
+    <mergeCell ref="K152:M152"/>
+    <mergeCell ref="K173:M173"/>
+    <mergeCell ref="K174:M174"/>
+    <mergeCell ref="K165:M165"/>
+    <mergeCell ref="K169:M169"/>
+    <mergeCell ref="K170:M170"/>
+    <mergeCell ref="K171:M171"/>
+    <mergeCell ref="K172:M172"/>
   </mergeCells>
   <phoneticPr fontId="19" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -20932,7 +20932,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AC33"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
@@ -21423,14 +21423,14 @@
       </c>
       <c r="L8" s="31">
         <f>塔_属性!G8</f>
-        <v>80.8</v>
+        <v>60.8</v>
       </c>
       <c r="M8" s="29" t="s">
         <v>70</v>
       </c>
       <c r="N8" s="31">
         <f>塔_属性!H8</f>
-        <v>34.54</v>
+        <v>30.54</v>
       </c>
       <c r="O8" s="29" t="s">
         <v>72</v>
@@ -22038,14 +22038,14 @@
       </c>
       <c r="D20" s="73">
         <f>塔_属性!C20</f>
-        <v>96.279999999999987</v>
+        <v>86.28</v>
       </c>
       <c r="E20" s="29" t="s">
         <v>70</v>
       </c>
       <c r="F20" s="73">
         <f>塔_属性!D20</f>
-        <v>186.76</v>
+        <v>166.76</v>
       </c>
       <c r="G20" s="29" t="s">
         <v>70</v>
@@ -22066,14 +22066,14 @@
       </c>
       <c r="L20" s="31">
         <f>塔_属性!G20</f>
-        <v>50.2</v>
+        <v>66.2</v>
       </c>
       <c r="M20" s="29" t="s">
         <v>70</v>
       </c>
       <c r="N20" s="31">
         <f>塔_属性!H20</f>
-        <v>33.799999999999997</v>
+        <v>43.8</v>
       </c>
       <c r="O20" s="29" t="s">
         <v>72</v>
@@ -22197,7 +22197,7 @@
       </c>
       <c r="D23" s="73">
         <f>塔_属性!C23</f>
-        <v>147.88</v>
+        <v>197.88</v>
       </c>
       <c r="E23" s="29" t="s">
         <v>70</v>
@@ -22317,28 +22317,28 @@
       </c>
       <c r="H25" s="29">
         <f>塔_属性!E25</f>
-        <v>169</v>
+        <v>202</v>
       </c>
       <c r="I25" s="29" t="s">
         <v>70</v>
       </c>
       <c r="J25" s="29">
         <f>塔_属性!F25</f>
-        <v>219</v>
+        <v>249</v>
       </c>
       <c r="K25" s="29" t="s">
         <v>70</v>
       </c>
       <c r="L25" s="31">
         <f>塔_属性!G25</f>
-        <v>89.7</v>
+        <v>59.7</v>
       </c>
       <c r="M25" s="29" t="s">
         <v>70</v>
       </c>
       <c r="N25" s="31">
         <f>塔_属性!H25</f>
-        <v>53.9</v>
+        <v>43.9</v>
       </c>
       <c r="O25" s="29" t="s">
         <v>72</v>
@@ -22674,14 +22674,14 @@
       </c>
       <c r="D32" s="73">
         <f>塔_属性!C32</f>
-        <v>67.599999999999994</v>
+        <v>97.6</v>
       </c>
       <c r="E32" s="29" t="s">
         <v>70</v>
       </c>
       <c r="F32" s="73">
         <f>塔_属性!D32</f>
-        <v>101.88</v>
+        <v>188</v>
       </c>
       <c r="G32" s="29" t="s">
         <v>70</v>
@@ -22727,14 +22727,14 @@
       </c>
       <c r="D33" s="73">
         <f>塔_属性!C33</f>
-        <v>107.88</v>
+        <v>157.88</v>
       </c>
       <c r="E33" s="29" t="s">
         <v>70</v>
       </c>
       <c r="F33" s="73">
         <f>塔_属性!D33</f>
-        <v>192.55999999999997</v>
+        <v>232.56</v>
       </c>
       <c r="G33" s="29" t="s">
         <v>70</v>

--- a/_DESIGN_.xlsx
+++ b/_DESIGN_.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9302"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="-15" yWindow="-15" windowWidth="20520" windowHeight="3930" activeTab="1"/>
+    <workbookView xWindow="-15" yWindow="-15" windowWidth="20520" windowHeight="3930" activeTab="6"/>
   </bookViews>
   <sheets>
     <sheet name="游戏常数" sheetId="2" r:id="rId1"/>
@@ -2231,9 +2231,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -2241,6 +2238,9 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
@@ -2490,11 +2490,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="102615296"/>
-        <c:axId val="102625280"/>
+        <c:axId val="96323840"/>
+        <c:axId val="96333824"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="102615296"/>
+        <c:axId val="96323840"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2504,12 +2504,12 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="102625280"/>
+        <c:crossAx val="96333824"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="102625280"/>
+        <c:axId val="96333824"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2538,7 +2538,7 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="102615296"/>
+        <c:crossAx val="96323840"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -7149,8 +7149,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:X65"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="D34" sqref="D34"/>
+    <sheetView topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="H36" sqref="H36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -8960,14 +8960,14 @@
         <v>244</v>
       </c>
       <c r="G26" s="70">
-        <v>118.7</v>
+        <v>98.7</v>
       </c>
       <c r="H26" s="70">
         <v>79.400000000000006</v>
       </c>
       <c r="I26">
         <f t="shared" si="54"/>
-        <v>85.460825610783473</v>
+        <v>102.77811550151975</v>
       </c>
       <c r="J26" s="29">
         <f t="shared" si="55"/>
@@ -8987,7 +8987,7 @@
       </c>
       <c r="O26" s="29">
         <f t="shared" si="42"/>
-        <v>854.6082561078349</v>
+        <v>1027.7811550151976</v>
       </c>
       <c r="P26" s="29">
         <f t="shared" si="43"/>
@@ -9003,11 +9003,11 @@
       </c>
       <c r="S26" s="30">
         <f t="shared" si="46"/>
-        <v>0.49496221662468498</v>
+        <v>0.24307304785894202</v>
       </c>
       <c r="T26" s="30">
         <f t="shared" si="47"/>
-        <v>6.0493152618336765</v>
+        <v>4.8615620584918613</v>
       </c>
       <c r="X26" s="72"/>
     </row>
@@ -9247,7 +9247,7 @@
         <v>99.9</v>
       </c>
       <c r="H30" s="70">
-        <v>74.25</v>
+        <v>64.25</v>
       </c>
       <c r="I30">
         <f t="shared" si="54"/>
@@ -9255,7 +9255,7 @@
       </c>
       <c r="J30" s="29">
         <f t="shared" si="55"/>
-        <v>1062.1220202020202</v>
+        <v>1227.4328404669261</v>
       </c>
       <c r="K30" s="31">
         <v>10</v>
@@ -9275,7 +9275,7 @@
       </c>
       <c r="P30" s="29">
         <f t="shared" si="43"/>
-        <v>10621.220202020202</v>
+        <v>12274.328404669261</v>
       </c>
       <c r="Q30" s="30">
         <f t="shared" si="44"/>
@@ -9287,11 +9287,11 @@
       </c>
       <c r="S30" s="30">
         <f t="shared" si="46"/>
-        <v>0.34545454545454546</v>
+        <v>0.55486381322957201</v>
       </c>
       <c r="T30" s="30">
         <f t="shared" si="47"/>
-        <v>4.4680618190138581</v>
+        <v>5.3191220243078439</v>
       </c>
       <c r="X30" s="72"/>
     </row>
@@ -9456,18 +9456,18 @@
         <v>324</v>
       </c>
       <c r="G33" s="70">
-        <v>78.5</v>
+        <v>138.5</v>
       </c>
       <c r="H33" s="70">
-        <v>47.75</v>
+        <v>97.75</v>
       </c>
       <c r="I33">
         <f t="shared" si="56"/>
-        <v>436.43261146496815</v>
+        <v>247.36433212996388</v>
       </c>
       <c r="J33" s="29">
         <f t="shared" si="57"/>
-        <v>1577.9987434554973</v>
+        <v>770.83826086956526</v>
       </c>
       <c r="K33" s="31">
         <v>10</v>
@@ -9483,11 +9483,11 @@
       </c>
       <c r="O33" s="29">
         <f t="shared" si="58"/>
-        <v>4364.3261146496816</v>
+        <v>2473.643321299639</v>
       </c>
       <c r="P33" s="29">
         <f t="shared" si="59"/>
-        <v>15779.987434554974</v>
+        <v>7708.3826086956524</v>
       </c>
       <c r="Q33" s="30">
         <f t="shared" si="60"/>
@@ -9499,11 +9499,11 @@
       </c>
       <c r="S33" s="30">
         <f t="shared" si="62"/>
-        <v>0.64397905759162311</v>
+        <v>0.41687979539641939</v>
       </c>
       <c r="T33" s="30">
         <f t="shared" si="63"/>
-        <v>2.6156755980233646</v>
+        <v>2.1162061815143622</v>
       </c>
     </row>
     <row r="34" spans="1:20" x14ac:dyDescent="0.15">
@@ -14627,13 +14627,13 @@
       <c r="H3" s="13"/>
     </row>
     <row r="4" spans="1:12" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B4" s="83">
+      <c r="B4" s="82">
         <v>0</v>
       </c>
-      <c r="C4" s="83" t="s">
+      <c r="C4" s="82" t="s">
         <v>44</v>
       </c>
-      <c r="D4" s="83" t="s">
+      <c r="D4" s="82" t="s">
         <v>50</v>
       </c>
       <c r="E4" s="15" t="s">
@@ -14661,9 +14661,9 @@
       </c>
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="B5" s="84"/>
-      <c r="C5" s="84"/>
-      <c r="D5" s="84"/>
+      <c r="B5" s="83"/>
+      <c r="C5" s="83"/>
+      <c r="D5" s="83"/>
       <c r="E5" s="15" t="s">
         <v>1</v>
       </c>
@@ -14689,9 +14689,9 @@
       </c>
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="B6" s="85"/>
-      <c r="C6" s="85"/>
-      <c r="D6" s="85"/>
+      <c r="B6" s="84"/>
+      <c r="C6" s="84"/>
+      <c r="D6" s="84"/>
       <c r="E6" s="19" t="s">
         <v>2</v>
       </c>
@@ -14727,13 +14727,13 @@
       <c r="L7" s="24"/>
     </row>
     <row r="8" spans="1:12" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B8" s="83">
+      <c r="B8" s="82">
         <v>1</v>
       </c>
-      <c r="C8" s="83" t="s">
+      <c r="C8" s="82" t="s">
         <v>45</v>
       </c>
-      <c r="D8" s="83" t="s">
+      <c r="D8" s="82" t="s">
         <v>52</v>
       </c>
       <c r="E8" s="21" t="s">
@@ -14761,9 +14761,9 @@
       </c>
     </row>
     <row r="9" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="B9" s="84"/>
-      <c r="C9" s="84"/>
-      <c r="D9" s="84"/>
+      <c r="B9" s="83"/>
+      <c r="C9" s="83"/>
+      <c r="D9" s="83"/>
       <c r="E9" s="15" t="s">
         <v>1</v>
       </c>
@@ -14789,9 +14789,9 @@
       </c>
     </row>
     <row r="10" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="B10" s="84"/>
-      <c r="C10" s="84"/>
-      <c r="D10" s="84"/>
+      <c r="B10" s="83"/>
+      <c r="C10" s="83"/>
+      <c r="D10" s="83"/>
       <c r="E10" s="15" t="s">
         <v>2</v>
       </c>
@@ -14817,9 +14817,9 @@
       </c>
     </row>
     <row r="11" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="B11" s="85"/>
-      <c r="C11" s="85"/>
-      <c r="D11" s="85"/>
+      <c r="B11" s="84"/>
+      <c r="C11" s="84"/>
+      <c r="D11" s="84"/>
       <c r="E11" s="19" t="s">
         <v>43</v>
       </c>
@@ -14849,13 +14849,13 @@
       <c r="K12" s="25"/>
     </row>
     <row r="13" spans="1:12" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B13" s="83">
+      <c r="B13" s="82">
         <v>2</v>
       </c>
-      <c r="C13" s="83" t="s">
+      <c r="C13" s="82" t="s">
         <v>46</v>
       </c>
-      <c r="D13" s="83" t="s">
+      <c r="D13" s="82" t="s">
         <v>53</v>
       </c>
       <c r="E13" s="21" t="s">
@@ -14883,9 +14883,9 @@
       </c>
     </row>
     <row r="14" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="B14" s="84"/>
-      <c r="C14" s="84"/>
-      <c r="D14" s="84"/>
+      <c r="B14" s="83"/>
+      <c r="C14" s="83"/>
+      <c r="D14" s="83"/>
       <c r="E14" s="15" t="s">
         <v>1</v>
       </c>
@@ -14911,9 +14911,9 @@
       </c>
     </row>
     <row r="15" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="B15" s="84"/>
-      <c r="C15" s="84"/>
-      <c r="D15" s="84"/>
+      <c r="B15" s="83"/>
+      <c r="C15" s="83"/>
+      <c r="D15" s="83"/>
       <c r="E15" s="15" t="s">
         <v>2</v>
       </c>
@@ -14939,9 +14939,9 @@
       </c>
     </row>
     <row r="16" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="B16" s="84"/>
-      <c r="C16" s="84"/>
-      <c r="D16" s="84"/>
+      <c r="B16" s="83"/>
+      <c r="C16" s="83"/>
+      <c r="D16" s="83"/>
       <c r="E16" s="11" t="s">
         <v>65</v>
       </c>
@@ -14962,9 +14962,9 @@
       </c>
     </row>
     <row r="17" spans="2:11" x14ac:dyDescent="0.15">
-      <c r="B17" s="85"/>
-      <c r="C17" s="85"/>
-      <c r="D17" s="85"/>
+      <c r="B17" s="84"/>
+      <c r="C17" s="84"/>
+      <c r="D17" s="84"/>
       <c r="E17" s="11" t="s">
         <v>66</v>
       </c>
@@ -14985,13 +14985,13 @@
       </c>
     </row>
     <row r="19" spans="2:11" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B19" s="83">
+      <c r="B19" s="82">
         <v>3</v>
       </c>
-      <c r="C19" s="83" t="s">
+      <c r="C19" s="82" t="s">
         <v>47</v>
       </c>
-      <c r="D19" s="83" t="s">
+      <c r="D19" s="82" t="s">
         <v>54</v>
       </c>
       <c r="E19" s="15" t="s">
@@ -15019,9 +15019,9 @@
       </c>
     </row>
     <row r="20" spans="2:11" x14ac:dyDescent="0.15">
-      <c r="B20" s="84"/>
-      <c r="C20" s="84"/>
-      <c r="D20" s="84"/>
+      <c r="B20" s="83"/>
+      <c r="C20" s="83"/>
+      <c r="D20" s="83"/>
       <c r="E20" s="15" t="s">
         <v>1</v>
       </c>
@@ -15047,9 +15047,9 @@
       </c>
     </row>
     <row r="21" spans="2:11" x14ac:dyDescent="0.15">
-      <c r="B21" s="85"/>
-      <c r="C21" s="85"/>
-      <c r="D21" s="85"/>
+      <c r="B21" s="84"/>
+      <c r="C21" s="84"/>
+      <c r="D21" s="84"/>
       <c r="E21" s="15" t="s">
         <v>2</v>
       </c>
@@ -15075,13 +15075,13 @@
       </c>
     </row>
     <row r="23" spans="2:11" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B23" s="83">
+      <c r="B23" s="82">
         <v>4</v>
       </c>
-      <c r="C23" s="83" t="s">
+      <c r="C23" s="82" t="s">
         <v>48</v>
       </c>
-      <c r="D23" s="83" t="s">
+      <c r="D23" s="82" t="s">
         <v>55</v>
       </c>
       <c r="E23" s="15" t="s">
@@ -15109,9 +15109,9 @@
       </c>
     </row>
     <row r="24" spans="2:11" x14ac:dyDescent="0.15">
-      <c r="B24" s="84"/>
-      <c r="C24" s="84"/>
-      <c r="D24" s="84"/>
+      <c r="B24" s="83"/>
+      <c r="C24" s="83"/>
+      <c r="D24" s="83"/>
       <c r="E24" s="15" t="s">
         <v>1</v>
       </c>
@@ -15137,9 +15137,9 @@
       </c>
     </row>
     <row r="25" spans="2:11" x14ac:dyDescent="0.15">
-      <c r="B25" s="84"/>
-      <c r="C25" s="84"/>
-      <c r="D25" s="84"/>
+      <c r="B25" s="83"/>
+      <c r="C25" s="83"/>
+      <c r="D25" s="83"/>
       <c r="E25" s="15" t="s">
         <v>2</v>
       </c>
@@ -15165,9 +15165,9 @@
       </c>
     </row>
     <row r="26" spans="2:11" x14ac:dyDescent="0.15">
-      <c r="B26" s="84"/>
-      <c r="C26" s="84"/>
-      <c r="D26" s="84"/>
+      <c r="B26" s="83"/>
+      <c r="C26" s="83"/>
+      <c r="D26" s="83"/>
       <c r="E26" s="11" t="s">
         <v>67</v>
       </c>
@@ -15188,9 +15188,9 @@
       </c>
     </row>
     <row r="27" spans="2:11" x14ac:dyDescent="0.15">
-      <c r="B27" s="85"/>
-      <c r="C27" s="85"/>
-      <c r="D27" s="85"/>
+      <c r="B27" s="84"/>
+      <c r="C27" s="84"/>
+      <c r="D27" s="84"/>
       <c r="E27" s="11" t="s">
         <v>68</v>
       </c>
@@ -15211,13 +15211,13 @@
       </c>
     </row>
     <row r="29" spans="2:11" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B29" s="83">
+      <c r="B29" s="82">
         <v>5</v>
       </c>
-      <c r="C29" s="83" t="s">
+      <c r="C29" s="82" t="s">
         <v>49</v>
       </c>
-      <c r="D29" s="83" t="s">
+      <c r="D29" s="82" t="s">
         <v>56</v>
       </c>
       <c r="E29" s="15" t="s">
@@ -15245,9 +15245,9 @@
       </c>
     </row>
     <row r="30" spans="2:11" x14ac:dyDescent="0.15">
-      <c r="B30" s="84"/>
-      <c r="C30" s="84"/>
-      <c r="D30" s="84"/>
+      <c r="B30" s="83"/>
+      <c r="C30" s="83"/>
+      <c r="D30" s="83"/>
       <c r="E30" s="15" t="s">
         <v>1</v>
       </c>
@@ -15273,9 +15273,9 @@
       </c>
     </row>
     <row r="31" spans="2:11" x14ac:dyDescent="0.15">
-      <c r="B31" s="84"/>
-      <c r="C31" s="84"/>
-      <c r="D31" s="84"/>
+      <c r="B31" s="83"/>
+      <c r="C31" s="83"/>
+      <c r="D31" s="83"/>
       <c r="E31" s="15" t="s">
         <v>2</v>
       </c>
@@ -15301,9 +15301,9 @@
       </c>
     </row>
     <row r="32" spans="2:11" x14ac:dyDescent="0.15">
-      <c r="B32" s="84"/>
-      <c r="C32" s="84"/>
-      <c r="D32" s="84"/>
+      <c r="B32" s="83"/>
+      <c r="C32" s="83"/>
+      <c r="D32" s="83"/>
       <c r="E32" s="15" t="s">
         <v>57</v>
       </c>
@@ -15324,9 +15324,9 @@
       </c>
     </row>
     <row r="33" spans="2:11" x14ac:dyDescent="0.15">
-      <c r="B33" s="85"/>
-      <c r="C33" s="85"/>
-      <c r="D33" s="85"/>
+      <c r="B33" s="84"/>
+      <c r="C33" s="84"/>
+      <c r="D33" s="84"/>
       <c r="E33" s="11" t="s">
         <v>64</v>
       </c>
@@ -15347,13 +15347,13 @@
       </c>
     </row>
     <row r="35" spans="2:11" x14ac:dyDescent="0.15">
-      <c r="B35" s="82">
+      <c r="B35" s="85">
         <v>6</v>
       </c>
-      <c r="C35" s="82" t="s">
+      <c r="C35" s="85" t="s">
         <v>62</v>
       </c>
-      <c r="D35" s="82" t="s">
+      <c r="D35" s="85" t="s">
         <v>63</v>
       </c>
       <c r="E35" s="11" t="s">
@@ -15381,9 +15381,9 @@
       </c>
     </row>
     <row r="36" spans="2:11" x14ac:dyDescent="0.15">
-      <c r="B36" s="82"/>
-      <c r="C36" s="82"/>
-      <c r="D36" s="82"/>
+      <c r="B36" s="85"/>
+      <c r="C36" s="85"/>
+      <c r="D36" s="85"/>
       <c r="E36" s="28" t="s">
         <v>1</v>
       </c>
@@ -15409,9 +15409,9 @@
       </c>
     </row>
     <row r="37" spans="2:11" x14ac:dyDescent="0.15">
-      <c r="B37" s="82"/>
-      <c r="C37" s="82"/>
-      <c r="D37" s="82"/>
+      <c r="B37" s="85"/>
+      <c r="C37" s="85"/>
+      <c r="D37" s="85"/>
       <c r="E37" s="28" t="s">
         <v>2</v>
       </c>
@@ -15438,6 +15438,18 @@
     </row>
   </sheetData>
   <mergeCells count="21">
+    <mergeCell ref="B35:B37"/>
+    <mergeCell ref="C35:C37"/>
+    <mergeCell ref="D35:D37"/>
+    <mergeCell ref="B29:B33"/>
+    <mergeCell ref="C29:C33"/>
+    <mergeCell ref="D29:D33"/>
+    <mergeCell ref="B19:B21"/>
+    <mergeCell ref="C19:C21"/>
+    <mergeCell ref="D19:D21"/>
+    <mergeCell ref="B23:B27"/>
+    <mergeCell ref="C23:C27"/>
+    <mergeCell ref="D23:D27"/>
     <mergeCell ref="B13:B17"/>
     <mergeCell ref="C13:C17"/>
     <mergeCell ref="D13:D17"/>
@@ -15447,18 +15459,6 @@
     <mergeCell ref="D8:D11"/>
     <mergeCell ref="C4:C6"/>
     <mergeCell ref="C8:C11"/>
-    <mergeCell ref="B19:B21"/>
-    <mergeCell ref="C19:C21"/>
-    <mergeCell ref="D19:D21"/>
-    <mergeCell ref="B23:B27"/>
-    <mergeCell ref="C23:C27"/>
-    <mergeCell ref="D23:D27"/>
-    <mergeCell ref="B35:B37"/>
-    <mergeCell ref="C35:C37"/>
-    <mergeCell ref="D35:D37"/>
-    <mergeCell ref="B29:B33"/>
-    <mergeCell ref="C29:C33"/>
-    <mergeCell ref="D29:D33"/>
   </mergeCells>
   <phoneticPr fontId="19" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -20845,18 +20845,53 @@
     </row>
   </sheetData>
   <mergeCells count="75">
-    <mergeCell ref="K88:M88"/>
-    <mergeCell ref="K89:M89"/>
-    <mergeCell ref="K90:M90"/>
-    <mergeCell ref="K56:M56"/>
-    <mergeCell ref="K57:M57"/>
-    <mergeCell ref="K59:M59"/>
-    <mergeCell ref="K86:M86"/>
-    <mergeCell ref="K87:M87"/>
-    <mergeCell ref="K71:M71"/>
-    <mergeCell ref="K72:M72"/>
-    <mergeCell ref="K73:M73"/>
-    <mergeCell ref="K70:M70"/>
+    <mergeCell ref="K173:M173"/>
+    <mergeCell ref="K174:M174"/>
+    <mergeCell ref="K165:M165"/>
+    <mergeCell ref="K169:M169"/>
+    <mergeCell ref="K170:M170"/>
+    <mergeCell ref="K171:M171"/>
+    <mergeCell ref="K172:M172"/>
+    <mergeCell ref="K153:M153"/>
+    <mergeCell ref="K154:M154"/>
+    <mergeCell ref="K155:M155"/>
+    <mergeCell ref="K139:M139"/>
+    <mergeCell ref="K146:M146"/>
+    <mergeCell ref="K150:M150"/>
+    <mergeCell ref="K151:M151"/>
+    <mergeCell ref="K152:M152"/>
+    <mergeCell ref="K134:M134"/>
+    <mergeCell ref="K135:M135"/>
+    <mergeCell ref="K136:M136"/>
+    <mergeCell ref="K137:M137"/>
+    <mergeCell ref="K138:M138"/>
+    <mergeCell ref="K120:M120"/>
+    <mergeCell ref="K121:M121"/>
+    <mergeCell ref="K122:M122"/>
+    <mergeCell ref="K123:M123"/>
+    <mergeCell ref="K130:M130"/>
+    <mergeCell ref="K106:M106"/>
+    <mergeCell ref="K107:M107"/>
+    <mergeCell ref="K114:M114"/>
+    <mergeCell ref="K118:M118"/>
+    <mergeCell ref="K119:M119"/>
+    <mergeCell ref="K98:M98"/>
+    <mergeCell ref="K102:M102"/>
+    <mergeCell ref="K103:M103"/>
+    <mergeCell ref="K104:M104"/>
+    <mergeCell ref="K105:M105"/>
+    <mergeCell ref="K2:M2"/>
+    <mergeCell ref="K18:M18"/>
+    <mergeCell ref="K34:M34"/>
+    <mergeCell ref="K50:M50"/>
+    <mergeCell ref="K66:M66"/>
+    <mergeCell ref="K8:M8"/>
+    <mergeCell ref="K9:M9"/>
+    <mergeCell ref="K42:M42"/>
+    <mergeCell ref="K43:M43"/>
+    <mergeCell ref="K58:M58"/>
+    <mergeCell ref="K26:M26"/>
+    <mergeCell ref="K27:M27"/>
     <mergeCell ref="K91:M91"/>
     <mergeCell ref="K10:M10"/>
     <mergeCell ref="K11:M11"/>
@@ -20873,53 +20908,18 @@
     <mergeCell ref="K82:M82"/>
     <mergeCell ref="K74:M74"/>
     <mergeCell ref="K75:M75"/>
-    <mergeCell ref="K2:M2"/>
-    <mergeCell ref="K18:M18"/>
-    <mergeCell ref="K34:M34"/>
-    <mergeCell ref="K50:M50"/>
-    <mergeCell ref="K66:M66"/>
-    <mergeCell ref="K8:M8"/>
-    <mergeCell ref="K9:M9"/>
-    <mergeCell ref="K42:M42"/>
-    <mergeCell ref="K43:M43"/>
-    <mergeCell ref="K58:M58"/>
-    <mergeCell ref="K26:M26"/>
-    <mergeCell ref="K27:M27"/>
-    <mergeCell ref="K98:M98"/>
-    <mergeCell ref="K102:M102"/>
-    <mergeCell ref="K103:M103"/>
-    <mergeCell ref="K104:M104"/>
-    <mergeCell ref="K105:M105"/>
-    <mergeCell ref="K106:M106"/>
-    <mergeCell ref="K107:M107"/>
-    <mergeCell ref="K114:M114"/>
-    <mergeCell ref="K118:M118"/>
-    <mergeCell ref="K119:M119"/>
-    <mergeCell ref="K120:M120"/>
-    <mergeCell ref="K121:M121"/>
-    <mergeCell ref="K122:M122"/>
-    <mergeCell ref="K123:M123"/>
-    <mergeCell ref="K130:M130"/>
-    <mergeCell ref="K134:M134"/>
-    <mergeCell ref="K135:M135"/>
-    <mergeCell ref="K136:M136"/>
-    <mergeCell ref="K137:M137"/>
-    <mergeCell ref="K138:M138"/>
-    <mergeCell ref="K153:M153"/>
-    <mergeCell ref="K154:M154"/>
-    <mergeCell ref="K155:M155"/>
-    <mergeCell ref="K139:M139"/>
-    <mergeCell ref="K146:M146"/>
-    <mergeCell ref="K150:M150"/>
-    <mergeCell ref="K151:M151"/>
-    <mergeCell ref="K152:M152"/>
-    <mergeCell ref="K173:M173"/>
-    <mergeCell ref="K174:M174"/>
-    <mergeCell ref="K165:M165"/>
-    <mergeCell ref="K169:M169"/>
-    <mergeCell ref="K170:M170"/>
-    <mergeCell ref="K171:M171"/>
-    <mergeCell ref="K172:M172"/>
+    <mergeCell ref="K88:M88"/>
+    <mergeCell ref="K89:M89"/>
+    <mergeCell ref="K90:M90"/>
+    <mergeCell ref="K56:M56"/>
+    <mergeCell ref="K57:M57"/>
+    <mergeCell ref="K59:M59"/>
+    <mergeCell ref="K86:M86"/>
+    <mergeCell ref="K87:M87"/>
+    <mergeCell ref="K71:M71"/>
+    <mergeCell ref="K72:M72"/>
+    <mergeCell ref="K73:M73"/>
+    <mergeCell ref="K70:M70"/>
   </mergeCells>
   <phoneticPr fontId="19" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -20932,7 +20932,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AC33"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="A9" workbookViewId="0">
+      <selection activeCell="U16" sqref="U16"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
@@ -22384,7 +22386,7 @@
       </c>
       <c r="L26" s="31">
         <f>塔_属性!G26</f>
-        <v>118.7</v>
+        <v>98.7</v>
       </c>
       <c r="M26" s="29" t="s">
         <v>70</v>
@@ -22603,7 +22605,7 @@
       </c>
       <c r="N30" s="31">
         <f>塔_属性!H30</f>
-        <v>74.25</v>
+        <v>64.25</v>
       </c>
       <c r="O30" s="29" t="s">
         <v>72</v>
@@ -22755,14 +22757,14 @@
       </c>
       <c r="L33" s="31">
         <f>塔_属性!G33</f>
-        <v>78.5</v>
+        <v>138.5</v>
       </c>
       <c r="M33" s="29" t="s">
         <v>70</v>
       </c>
       <c r="N33" s="31">
         <f>塔_属性!H33</f>
-        <v>47.75</v>
+        <v>97.75</v>
       </c>
       <c r="O33" s="29" t="s">
         <v>69</v>

--- a/_DESIGN_.xlsx
+++ b/_DESIGN_.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9302"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="-15" yWindow="-15" windowWidth="20520" windowHeight="3930" activeTab="6"/>
+    <workbookView xWindow="-15" yWindow="-15" windowWidth="20520" windowHeight="3930" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="游戏常数" sheetId="2" r:id="rId1"/>
@@ -2490,11 +2490,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="96323840"/>
-        <c:axId val="96333824"/>
+        <c:axId val="101894400"/>
+        <c:axId val="103219200"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="96323840"/>
+        <c:axId val="101894400"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2504,12 +2504,12 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="96333824"/>
+        <c:crossAx val="103219200"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="96333824"/>
+        <c:axId val="103219200"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2538,7 +2538,7 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="96323840"/>
+        <c:crossAx val="101894400"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -7149,8 +7149,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:X65"/>
   <sheetViews>
-    <sheetView topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="H36" sqref="H36"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D4" sqref="D4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -7236,10 +7236,10 @@
         <v>0</v>
       </c>
       <c r="C2" s="75">
-        <v>67</v>
+        <v>87</v>
       </c>
       <c r="D2" s="75">
-        <v>232</v>
+        <v>222</v>
       </c>
       <c r="E2" s="69">
         <v>145</v>
@@ -7248,18 +7248,18 @@
         <v>272</v>
       </c>
       <c r="G2" s="70">
-        <v>48.4</v>
+        <v>44.4</v>
       </c>
       <c r="H2" s="70">
-        <v>21.78</v>
+        <v>22.78</v>
       </c>
       <c r="I2">
         <f>C2*E2/G2</f>
-        <v>200.72314049586777</v>
+        <v>284.12162162162161</v>
       </c>
       <c r="J2" s="29">
         <f>D2*F2/H2</f>
-        <v>2897.3370064279152</v>
+        <v>2650.7462686567164</v>
       </c>
       <c r="K2" s="31">
         <v>1</v>
@@ -7275,15 +7275,15 @@
       </c>
       <c r="O2" s="29">
         <f t="shared" ref="O2:O9" si="0">K2*C2*E2/G2+M2</f>
-        <v>200.72314049586777</v>
+        <v>284.12162162162161</v>
       </c>
       <c r="P2" s="29">
         <f t="shared" ref="P2:P9" si="1">K2*D2*F2/H2+N2</f>
-        <v>2897.3370064279152</v>
+        <v>2650.7462686567164</v>
       </c>
       <c r="Q2" s="30">
         <f t="shared" ref="Q2:Q10" si="2">D2/C2-1</f>
-        <v>2.4626865671641789</v>
+        <v>1.5517241379310347</v>
       </c>
       <c r="R2" s="30">
         <f t="shared" ref="R2:R10" si="3">F2/E2-1</f>
@@ -7291,11 +7291,11 @@
       </c>
       <c r="S2" s="30">
         <f t="shared" ref="S2:S10" si="4">G2/H2-1</f>
-        <v>1.2222222222222219</v>
+        <v>0.9490781387181737</v>
       </c>
       <c r="T2" s="30">
         <f t="shared" ref="T2:T10" si="5">P2/O2-1</f>
-        <v>13.434494195688224</v>
+        <v>8.329618258292367</v>
       </c>
       <c r="X2" s="38"/>
     </row>
@@ -7310,27 +7310,27 @@
         <v>52</v>
       </c>
       <c r="D3" s="75">
-        <v>185</v>
+        <v>195</v>
       </c>
       <c r="E3" s="69">
-        <v>176</v>
+        <v>166</v>
       </c>
       <c r="F3" s="69">
-        <v>234</v>
+        <v>224</v>
       </c>
       <c r="G3" s="70">
-        <v>60</v>
+        <v>66</v>
       </c>
       <c r="H3" s="70">
-        <v>25.25</v>
+        <v>27.25</v>
       </c>
       <c r="I3">
         <f t="shared" ref="I3:I10" si="6">C3*E3/G3</f>
-        <v>152.53333333333333</v>
+        <v>130.78787878787878</v>
       </c>
       <c r="J3" s="29">
         <f t="shared" ref="J3:J10" si="7">D3*F3/H3</f>
-        <v>1714.4554455445545</v>
+        <v>1602.9357798165138</v>
       </c>
       <c r="K3" s="31">
         <f>E60/50</f>
@@ -7348,27 +7348,27 @@
       </c>
       <c r="O3" s="29">
         <f t="shared" si="0"/>
-        <v>457.6</v>
+        <v>392.36363636363637</v>
       </c>
       <c r="P3" s="29">
         <f t="shared" si="1"/>
-        <v>5143.3663366336632</v>
+        <v>4808.8073394495414</v>
       </c>
       <c r="Q3" s="30">
         <f t="shared" si="2"/>
-        <v>2.5576923076923075</v>
+        <v>2.75</v>
       </c>
       <c r="R3" s="30">
         <f t="shared" si="3"/>
-        <v>0.32954545454545459</v>
+        <v>0.34939759036144569</v>
       </c>
       <c r="S3" s="30">
         <f t="shared" si="4"/>
-        <v>1.3762376237623761</v>
+        <v>1.4220183486238533</v>
       </c>
       <c r="T3" s="30">
         <f t="shared" si="5"/>
-        <v>10.239873987398738</v>
+        <v>11.255996462915883</v>
       </c>
       <c r="X3" s="72"/>
     </row>
@@ -7597,10 +7597,10 @@
         <v>5</v>
       </c>
       <c r="C7" s="75">
-        <v>88</v>
+        <v>78</v>
       </c>
       <c r="D7" s="75">
-        <v>292</v>
+        <v>272</v>
       </c>
       <c r="E7" s="69">
         <v>218</v>
@@ -7616,11 +7616,11 @@
       </c>
       <c r="I7">
         <f t="shared" si="6"/>
-        <v>217.25934314835789</v>
+        <v>192.57078142695357</v>
       </c>
       <c r="J7" s="29">
         <f t="shared" si="7"/>
-        <v>2720.5487282080594</v>
+        <v>2534.2097742212059</v>
       </c>
       <c r="K7" s="31">
         <f>0.9/G65</f>
@@ -7638,15 +7638,15 @@
       </c>
       <c r="O7" s="29">
         <f t="shared" si="0"/>
-        <v>391.06681766704423</v>
+        <v>346.62740656851645</v>
       </c>
       <c r="P7" s="29">
         <f t="shared" si="1"/>
-        <v>4896.9877107745069</v>
+        <v>4561.577593598171</v>
       </c>
       <c r="Q7" s="30">
         <f t="shared" si="2"/>
-        <v>2.3181818181818183</v>
+        <v>2.4871794871794872</v>
       </c>
       <c r="R7" s="30">
         <f t="shared" si="3"/>
@@ -7658,7 +7658,7 @@
       </c>
       <c r="T7" s="30">
         <f t="shared" si="5"/>
-        <v>11.522125349289595</v>
+        <v>12.159887265568836</v>
       </c>
       <c r="X7" s="72"/>
     </row>
@@ -7954,10 +7954,10 @@
         <v>10</v>
       </c>
       <c r="C12" s="76">
-        <v>47</v>
+        <v>67</v>
       </c>
       <c r="D12" s="76">
-        <v>305</v>
+        <v>389</v>
       </c>
       <c r="E12" s="69">
         <v>95</v>
@@ -7966,18 +7966,18 @@
         <v>335</v>
       </c>
       <c r="G12" s="70">
-        <v>98.8</v>
+        <v>89.8</v>
       </c>
       <c r="H12" s="70">
         <v>20.9</v>
       </c>
       <c r="I12">
         <f t="shared" ref="I12:I15" si="18">C12*E12/G12</f>
-        <v>45.192307692307693</v>
+        <v>70.879732739420945</v>
       </c>
       <c r="J12" s="29">
         <f t="shared" ref="J12:J15" si="19">D12*F12/H12</f>
-        <v>4888.7559808612441</v>
+        <v>6235.1674641148329</v>
       </c>
       <c r="K12" s="31">
         <v>1</v>
@@ -7993,15 +7993,15 @@
       </c>
       <c r="O12" s="29">
         <f t="shared" ref="O12:O15" si="20">K12*C12*E12/G12+M12</f>
-        <v>45.192307692307693</v>
+        <v>70.879732739420945</v>
       </c>
       <c r="P12" s="29">
         <f t="shared" ref="P12:P15" si="21">K12*D12*F12/H12+N12</f>
-        <v>4888.7559808612441</v>
+        <v>6235.1674641148329</v>
       </c>
       <c r="Q12" s="30">
         <f t="shared" ref="Q12:Q15" si="22">D12/C12-1</f>
-        <v>5.4893617021276597</v>
+        <v>4.8059701492537314</v>
       </c>
       <c r="R12" s="30">
         <f t="shared" ref="R12:R15" si="23">F12/E12-1</f>
@@ -8009,11 +8009,11 @@
       </c>
       <c r="S12" s="30">
         <f t="shared" ref="S12:S15" si="24">G12/H12-1</f>
-        <v>3.7272727272727275</v>
+        <v>3.2966507177033497</v>
       </c>
       <c r="T12" s="30">
         <f t="shared" ref="T12:T15" si="25">P12/O12-1</f>
-        <v>107.17672808714242</v>
+        <v>86.968269957189619</v>
       </c>
       <c r="X12" s="72"/>
     </row>
@@ -20932,8 +20932,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AC33"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A9" workbookViewId="0">
-      <selection activeCell="U16" sqref="U16"/>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:O33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -21037,14 +21037,14 @@
       </c>
       <c r="D2" s="73">
         <f>塔_属性!C2</f>
-        <v>67</v>
+        <v>87</v>
       </c>
       <c r="E2" s="29" t="s">
         <v>70</v>
       </c>
       <c r="F2" s="73">
         <f>塔_属性!D2</f>
-        <v>232</v>
+        <v>222</v>
       </c>
       <c r="G2" s="29" t="s">
         <v>70</v>
@@ -21065,14 +21065,14 @@
       </c>
       <c r="L2" s="31">
         <f>塔_属性!G2</f>
-        <v>48.4</v>
+        <v>44.4</v>
       </c>
       <c r="M2" s="29" t="s">
         <v>70</v>
       </c>
       <c r="N2" s="31">
         <f>塔_属性!H2</f>
-        <v>21.78</v>
+        <v>22.78</v>
       </c>
       <c r="O2" s="29" t="s">
         <v>72</v>
@@ -21104,35 +21104,35 @@
       </c>
       <c r="F3" s="73">
         <f>塔_属性!D3</f>
-        <v>185</v>
+        <v>195</v>
       </c>
       <c r="G3" s="29" t="s">
         <v>70</v>
       </c>
       <c r="H3" s="29">
         <f>塔_属性!E3</f>
-        <v>176</v>
+        <v>166</v>
       </c>
       <c r="I3" s="29" t="s">
         <v>70</v>
       </c>
       <c r="J3" s="29">
         <f>塔_属性!F3</f>
-        <v>234</v>
+        <v>224</v>
       </c>
       <c r="K3" s="29" t="s">
         <v>70</v>
       </c>
       <c r="L3" s="31">
         <f>塔_属性!G3</f>
-        <v>60</v>
+        <v>66</v>
       </c>
       <c r="M3" s="29" t="s">
         <v>70</v>
       </c>
       <c r="N3" s="31">
         <f>塔_属性!H3</f>
-        <v>25.25</v>
+        <v>27.25</v>
       </c>
       <c r="O3" s="29" t="s">
         <v>72</v>
@@ -21337,14 +21337,14 @@
       </c>
       <c r="D7" s="73">
         <f>塔_属性!C7</f>
-        <v>88</v>
+        <v>78</v>
       </c>
       <c r="E7" s="29" t="s">
         <v>70</v>
       </c>
       <c r="F7" s="73">
         <f>塔_属性!D7</f>
-        <v>292</v>
+        <v>272</v>
       </c>
       <c r="G7" s="29" t="s">
         <v>70</v>
@@ -21616,14 +21616,14 @@
       </c>
       <c r="D12" s="73">
         <f>塔_属性!C12</f>
-        <v>47</v>
+        <v>67</v>
       </c>
       <c r="E12" s="29" t="s">
         <v>70</v>
       </c>
       <c r="F12" s="73">
         <f>塔_属性!D12</f>
-        <v>305</v>
+        <v>389</v>
       </c>
       <c r="G12" s="29" t="s">
         <v>70</v>
@@ -21644,7 +21644,7 @@
       </c>
       <c r="L12" s="31">
         <f>塔_属性!G12</f>
-        <v>98.8</v>
+        <v>89.8</v>
       </c>
       <c r="M12" s="29" t="s">
         <v>70</v>
